--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="5907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8045" uniqueCount="5907">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -19390,10 +19390,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -19414,23 +19420,17 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -19770,7 +19770,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S17" sqref="S17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19986,10 +19986,10 @@
       <c r="R3" s="149" t="s">
         <v>5660</v>
       </c>
-      <c r="S3" s="202" t="s">
+      <c r="S3" s="190" t="s">
         <v>5631</v>
       </c>
-      <c r="T3" s="202" t="s">
+      <c r="T3" s="190" t="s">
         <v>5633</v>
       </c>
       <c r="U3" s="9" t="s">
@@ -20095,10 +20095,10 @@
       <c r="P5" s="156"/>
       <c r="Q5" s="137"/>
       <c r="R5" s="108"/>
-      <c r="S5" s="202" t="s">
+      <c r="S5" s="190" t="s">
         <v>5632</v>
       </c>
-      <c r="T5" s="202" t="s">
+      <c r="T5" s="190" t="s">
         <v>5634</v>
       </c>
       <c r="U5" s="9" t="s">
@@ -27224,10 +27224,10 @@
       </c>
       <c r="Q112" s="137"/>
       <c r="R112" s="108"/>
-      <c r="S112" s="202" t="s">
+      <c r="S112" s="190" t="s">
         <v>1169</v>
       </c>
-      <c r="T112" s="203" t="s">
+      <c r="T112" s="191" t="s">
         <v>1170</v>
       </c>
       <c r="U112" s="9" t="s">
@@ -34096,9 +34096,8 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="42"/>
-      <c r="I217" s="42" t="str">
-        <f>CONCATENATE(D217,E217,F217)</f>
-        <v>E02</v>
+      <c r="I217" s="42" t="s">
+        <v>953</v>
       </c>
       <c r="J217" s="104"/>
       <c r="K217" s="79"/>
@@ -34145,7 +34144,7 @@
     <row r="218" spans="1:30" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   02.  a. Self-harm</v>
+        <v xml:space="preserve">  E.   02.   . Self-harm</v>
       </c>
       <c r="B218" s="2">
         <v>208</v>
@@ -34160,16 +34159,16 @@
         <v>1150</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1127</v>
+        <v>953</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="42" t="str">
         <f t="shared" ref="H218:H223" si="20">CONCATENATE("c",D218,E218,F218)</f>
-        <v>cE02a</v>
+        <v xml:space="preserve">cE02 </v>
       </c>
       <c r="I218" s="42" t="str">
         <f>CONCATENATE(D218,E218,F218)</f>
-        <v>E02a</v>
+        <v xml:space="preserve">E02 </v>
       </c>
       <c r="J218" s="104"/>
       <c r="K218" s="108" t="s">
@@ -34222,7 +34221,7 @@
     <row r="219" spans="1:30" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   02.  b. Interpersonal violence</v>
+        <v xml:space="preserve">  E.   03.   . Interpersonal violence</v>
       </c>
       <c r="B219" s="2">
         <v>209</v>
@@ -34234,19 +34233,19 @@
         <v>1148</v>
       </c>
       <c r="E219" s="69" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1128</v>
+        <v>953</v>
       </c>
       <c r="G219" s="1"/>
       <c r="H219" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>cE02b</v>
+        <v xml:space="preserve">cE03 </v>
       </c>
       <c r="I219" s="42" t="str">
         <f>CONCATENATE(D219,E219,F219)</f>
-        <v>E02b</v>
+        <v xml:space="preserve">E03 </v>
       </c>
       <c r="J219" s="104"/>
       <c r="K219" s="108" t="s">
@@ -34313,13 +34312,13 @@
         <v>1148</v>
       </c>
       <c r="E220" s="69" t="s">
-        <v>1150</v>
+        <v>5902</v>
       </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="42" t="str">
         <f t="shared" si="20"/>
-        <v>cE02</v>
+        <v>cE99</v>
       </c>
       <c r="I220" s="42"/>
       <c r="J220" s="104"/>
@@ -36459,232 +36458,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="193" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="191"/>
+      <c r="B1" s="192"/>
       <c r="C1" s="165"/>
       <c r="D1" s="166"/>
     </row>
     <row r="2" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="190"/>
-      <c r="B2" s="191"/>
+      <c r="A2" s="193"/>
+      <c r="B2" s="192"/>
       <c r="C2" s="165"/>
       <c r="D2" s="166"/>
     </row>
     <row r="3" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="190"/>
-      <c r="B3" s="191"/>
+      <c r="A3" s="193"/>
+      <c r="B3" s="192"/>
       <c r="C3" s="165"/>
       <c r="D3" s="166"/>
     </row>
     <row r="4" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="190"/>
-      <c r="B4" s="191"/>
+      <c r="A4" s="193"/>
+      <c r="B4" s="192"/>
       <c r="C4" s="165"/>
       <c r="D4" s="166"/>
     </row>
     <row r="5" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="190"/>
-      <c r="B5" s="191"/>
+      <c r="A5" s="193"/>
+      <c r="B5" s="192"/>
       <c r="C5" s="165"/>
       <c r="D5" s="166"/>
     </row>
     <row r="6" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="190"/>
-      <c r="B6" s="191"/>
+      <c r="A6" s="193"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="165"/>
       <c r="D6" s="166"/>
     </row>
     <row r="7" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="190"/>
-      <c r="B7" s="191"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="165"/>
       <c r="D7" s="166"/>
     </row>
     <row r="8" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
+      <c r="A8" s="193"/>
+      <c r="B8" s="192"/>
       <c r="C8" s="165"/>
       <c r="D8" s="166"/>
     </row>
     <row r="9" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="190"/>
-      <c r="B9" s="191"/>
+      <c r="A9" s="193"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="165"/>
       <c r="D9" s="166"/>
     </row>
     <row r="10" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="190"/>
-      <c r="B10" s="191"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="165"/>
       <c r="D10" s="166"/>
     </row>
     <row r="11" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="190"/>
-      <c r="B11" s="191"/>
+      <c r="A11" s="193"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="165"/>
       <c r="D11" s="166"/>
     </row>
     <row r="12" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="190"/>
-      <c r="B12" s="191"/>
+      <c r="A12" s="193"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="165"/>
       <c r="D12" s="166"/>
     </row>
     <row r="13" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="190"/>
-      <c r="B13" s="191"/>
+      <c r="A13" s="193"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="165"/>
       <c r="D13" s="166"/>
     </row>
     <row r="14" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="190"/>
-      <c r="B14" s="191"/>
+      <c r="A14" s="193"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="165"/>
       <c r="D14" s="166"/>
     </row>
     <row r="15" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="190"/>
-      <c r="B15" s="191"/>
+      <c r="A15" s="193"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="165"/>
       <c r="D15" s="166"/>
     </row>
     <row r="16" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="190"/>
-      <c r="B16" s="191"/>
+      <c r="A16" s="193"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="165"/>
       <c r="D16" s="166"/>
     </row>
     <row r="17" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="190"/>
-      <c r="B17" s="191"/>
+      <c r="A17" s="193"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="165"/>
       <c r="D17" s="166"/>
     </row>
     <row r="18" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="190"/>
-      <c r="B18" s="191"/>
+      <c r="A18" s="193"/>
+      <c r="B18" s="192"/>
       <c r="C18" s="165"/>
       <c r="D18" s="166"/>
     </row>
     <row r="19" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="190"/>
-      <c r="B19" s="191"/>
+      <c r="A19" s="193"/>
+      <c r="B19" s="192"/>
       <c r="C19" s="165"/>
       <c r="D19" s="166"/>
     </row>
     <row r="20" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="190"/>
-      <c r="B20" s="191"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="192"/>
       <c r="C20" s="165"/>
       <c r="D20" s="166"/>
     </row>
     <row r="21" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="190"/>
-      <c r="B21" s="191"/>
+      <c r="A21" s="193"/>
+      <c r="B21" s="192"/>
       <c r="C21" s="165"/>
       <c r="D21" s="166"/>
     </row>
     <row r="22" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="190"/>
-      <c r="B22" s="191"/>
+      <c r="A22" s="193"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="165"/>
       <c r="D22" s="166"/>
     </row>
     <row r="23" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="190"/>
-      <c r="B23" s="191"/>
+      <c r="A23" s="193"/>
+      <c r="B23" s="192"/>
       <c r="C23" s="165"/>
       <c r="D23" s="166"/>
     </row>
     <row r="24" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="190"/>
-      <c r="B24" s="191"/>
+      <c r="A24" s="193"/>
+      <c r="B24" s="192"/>
       <c r="C24" s="165"/>
       <c r="D24" s="166"/>
     </row>
     <row r="25" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="190"/>
-      <c r="B25" s="191"/>
+      <c r="A25" s="193"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="165"/>
       <c r="D25" s="166"/>
     </row>
     <row r="26" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="190"/>
-      <c r="B26" s="191"/>
+      <c r="A26" s="193"/>
+      <c r="B26" s="192"/>
       <c r="C26" s="165"/>
       <c r="D26" s="166"/>
     </row>
     <row r="27" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="190"/>
-      <c r="B27" s="191"/>
+      <c r="A27" s="193"/>
+      <c r="B27" s="192"/>
       <c r="C27" s="165"/>
       <c r="D27" s="166"/>
     </row>
     <row r="28" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="190"/>
-      <c r="B28" s="191"/>
+      <c r="A28" s="193"/>
+      <c r="B28" s="192"/>
       <c r="C28" s="165"/>
       <c r="D28" s="166"/>
     </row>
     <row r="29" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="190"/>
-      <c r="B29" s="191"/>
+      <c r="A29" s="193"/>
+      <c r="B29" s="192"/>
       <c r="C29" s="165"/>
       <c r="D29" s="166"/>
     </row>
     <row r="30" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="190"/>
-      <c r="B30" s="191"/>
+      <c r="A30" s="193"/>
+      <c r="B30" s="192"/>
       <c r="C30" s="165"/>
       <c r="D30" s="166"/>
     </row>
     <row r="31" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="190"/>
-      <c r="B31" s="191"/>
+      <c r="A31" s="193"/>
+      <c r="B31" s="192"/>
       <c r="C31" s="165"/>
       <c r="D31" s="166"/>
     </row>
     <row r="32" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="190"/>
-      <c r="B32" s="191"/>
+      <c r="A32" s="193"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="165"/>
       <c r="D32" s="166"/>
     </row>
     <row r="33" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="190"/>
-      <c r="B33" s="191"/>
+      <c r="A33" s="193"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="165"/>
       <c r="D33" s="166"/>
     </row>
     <row r="34" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="190"/>
-      <c r="B34" s="191"/>
+      <c r="A34" s="193"/>
+      <c r="B34" s="192"/>
       <c r="C34" s="165"/>
       <c r="D34" s="166"/>
     </row>
     <row r="35" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="190"/>
-      <c r="B35" s="191"/>
+      <c r="A35" s="193"/>
+      <c r="B35" s="192"/>
       <c r="C35" s="165"/>
       <c r="D35" s="166"/>
     </row>
     <row r="36" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="190"/>
-      <c r="B36" s="191"/>
+      <c r="A36" s="193"/>
+      <c r="B36" s="192"/>
       <c r="C36" s="165"/>
       <c r="D36" s="166"/>
     </row>
     <row r="37" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="190"/>
-      <c r="B37" s="191"/>
+      <c r="A37" s="193"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="165"/>
       <c r="D37" s="166"/>
     </row>
     <row r="38" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="190"/>
-      <c r="B38" s="191" t="s">
+      <c r="A38" s="193"/>
+      <c r="B38" s="192" t="s">
         <v>2725</v>
       </c>
       <c r="C38" s="165" t="s">
@@ -36695,8 +36694,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="190"/>
-      <c r="B39" s="191"/>
+      <c r="A39" s="193"/>
+      <c r="B39" s="192"/>
       <c r="C39" s="165" t="s">
         <v>2723</v>
       </c>
@@ -36708,8 +36707,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="190"/>
-      <c r="B40" s="191"/>
+      <c r="A40" s="193"/>
+      <c r="B40" s="192"/>
       <c r="C40" s="165" t="s">
         <v>2722</v>
       </c>
@@ -36718,8 +36717,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="190"/>
-      <c r="B41" s="191" t="s">
+      <c r="A41" s="193"/>
+      <c r="B41" s="192" t="s">
         <v>2721</v>
       </c>
       <c r="C41" s="165" t="s">
@@ -36730,8 +36729,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="190"/>
-      <c r="B42" s="191"/>
+      <c r="A42" s="193"/>
+      <c r="B42" s="192"/>
       <c r="C42" s="165" t="s">
         <v>2719</v>
       </c>
@@ -36740,8 +36739,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="190"/>
-      <c r="B43" s="191" t="s">
+      <c r="A43" s="193"/>
+      <c r="B43" s="192" t="s">
         <v>2718</v>
       </c>
       <c r="C43" s="165" t="s">
@@ -36752,8 +36751,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="190"/>
-      <c r="B44" s="191"/>
+      <c r="A44" s="193"/>
+      <c r="B44" s="192"/>
       <c r="C44" s="165" t="s">
         <v>2716</v>
       </c>
@@ -36762,8 +36761,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="190"/>
-      <c r="B45" s="191"/>
+      <c r="A45" s="193"/>
+      <c r="B45" s="192"/>
       <c r="C45" s="165" t="s">
         <v>2715</v>
       </c>
@@ -36772,8 +36771,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="190"/>
-      <c r="B46" s="191"/>
+      <c r="A46" s="193"/>
+      <c r="B46" s="192"/>
       <c r="C46" s="165" t="s">
         <v>2714</v>
       </c>
@@ -36782,8 +36781,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="190"/>
-      <c r="B47" s="191"/>
+      <c r="A47" s="193"/>
+      <c r="B47" s="192"/>
       <c r="C47" s="165" t="s">
         <v>2713</v>
       </c>
@@ -36792,8 +36791,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="190"/>
-      <c r="B48" s="191"/>
+      <c r="A48" s="193"/>
+      <c r="B48" s="192"/>
       <c r="C48" s="165" t="s">
         <v>2712</v>
       </c>
@@ -36802,8 +36801,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="190"/>
-      <c r="B49" s="191"/>
+      <c r="A49" s="193"/>
+      <c r="B49" s="192"/>
       <c r="C49" s="165" t="s">
         <v>2711</v>
       </c>
@@ -36812,8 +36811,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="190"/>
-      <c r="B50" s="191"/>
+      <c r="A50" s="193"/>
+      <c r="B50" s="192"/>
       <c r="C50" s="165" t="s">
         <v>2710</v>
       </c>
@@ -36822,8 +36821,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="190"/>
-      <c r="B51" s="191"/>
+      <c r="A51" s="193"/>
+      <c r="B51" s="192"/>
       <c r="C51" s="165" t="s">
         <v>2709</v>
       </c>
@@ -36832,8 +36831,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="190"/>
-      <c r="B52" s="191"/>
+      <c r="A52" s="193"/>
+      <c r="B52" s="192"/>
       <c r="C52" s="165" t="s">
         <v>2708</v>
       </c>
@@ -36842,8 +36841,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="190"/>
-      <c r="B53" s="191"/>
+      <c r="A53" s="193"/>
+      <c r="B53" s="192"/>
       <c r="C53" s="165" t="s">
         <v>2707</v>
       </c>
@@ -36852,8 +36851,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="190"/>
-      <c r="B54" s="191"/>
+      <c r="A54" s="193"/>
+      <c r="B54" s="192"/>
       <c r="C54" s="165" t="s">
         <v>2706</v>
       </c>
@@ -36862,8 +36861,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="190"/>
-      <c r="B55" s="191"/>
+      <c r="A55" s="193"/>
+      <c r="B55" s="192"/>
       <c r="C55" s="165" t="s">
         <v>2705</v>
       </c>
@@ -36872,8 +36871,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="190"/>
-      <c r="B56" s="191"/>
+      <c r="A56" s="193"/>
+      <c r="B56" s="192"/>
       <c r="C56" s="165" t="s">
         <v>2704</v>
       </c>
@@ -36882,8 +36881,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="190"/>
-      <c r="B57" s="191"/>
+      <c r="A57" s="193"/>
+      <c r="B57" s="192"/>
       <c r="C57" s="165" t="s">
         <v>2703</v>
       </c>
@@ -36892,8 +36891,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="190"/>
-      <c r="B58" s="191"/>
+      <c r="A58" s="193"/>
+      <c r="B58" s="192"/>
       <c r="C58" s="165" t="s">
         <v>2702</v>
       </c>
@@ -36902,8 +36901,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="190"/>
-      <c r="B59" s="191"/>
+      <c r="A59" s="193"/>
+      <c r="B59" s="192"/>
       <c r="C59" s="165" t="s">
         <v>2701</v>
       </c>
@@ -36912,8 +36911,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="190"/>
-      <c r="B60" s="191"/>
+      <c r="A60" s="193"/>
+      <c r="B60" s="192"/>
       <c r="C60" s="165" t="s">
         <v>2700</v>
       </c>
@@ -36922,8 +36921,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="190"/>
-      <c r="B61" s="191" t="s">
+      <c r="A61" s="193"/>
+      <c r="B61" s="192" t="s">
         <v>2699</v>
       </c>
       <c r="C61" s="165" t="s">
@@ -36934,8 +36933,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="190"/>
-      <c r="B62" s="191"/>
+      <c r="A62" s="193"/>
+      <c r="B62" s="192"/>
       <c r="C62" s="165" t="s">
         <v>2697</v>
       </c>
@@ -36944,8 +36943,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="190"/>
-      <c r="B63" s="191"/>
+      <c r="A63" s="193"/>
+      <c r="B63" s="192"/>
       <c r="C63" s="165" t="s">
         <v>2696</v>
       </c>
@@ -36954,8 +36953,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="190"/>
-      <c r="B64" s="191" t="s">
+      <c r="A64" s="193"/>
+      <c r="B64" s="192" t="s">
         <v>2695</v>
       </c>
       <c r="C64" s="165" t="s">
@@ -36966,8 +36965,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="190"/>
-      <c r="B65" s="191"/>
+      <c r="A65" s="193"/>
+      <c r="B65" s="192"/>
       <c r="C65" s="165" t="s">
         <v>2693</v>
       </c>
@@ -36976,8 +36975,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="190"/>
-      <c r="B66" s="191" t="s">
+      <c r="A66" s="193"/>
+      <c r="B66" s="192" t="s">
         <v>2692</v>
       </c>
       <c r="C66" s="165" t="s">
@@ -36988,8 +36987,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="190"/>
-      <c r="B67" s="191"/>
+      <c r="A67" s="193"/>
+      <c r="B67" s="192"/>
       <c r="C67" s="165" t="s">
         <v>2690</v>
       </c>
@@ -36998,8 +36997,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="190"/>
-      <c r="B68" s="191"/>
+      <c r="A68" s="193"/>
+      <c r="B68" s="192"/>
       <c r="C68" s="165" t="s">
         <v>2689</v>
       </c>
@@ -37008,8 +37007,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="190"/>
-      <c r="B69" s="191"/>
+      <c r="A69" s="193"/>
+      <c r="B69" s="192"/>
       <c r="C69" s="165" t="s">
         <v>2688</v>
       </c>
@@ -37018,8 +37017,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="190"/>
-      <c r="B70" s="191"/>
+      <c r="A70" s="193"/>
+      <c r="B70" s="192"/>
       <c r="C70" s="165" t="s">
         <v>2687</v>
       </c>
@@ -37028,8 +37027,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="190"/>
-      <c r="B71" s="191"/>
+      <c r="A71" s="193"/>
+      <c r="B71" s="192"/>
       <c r="C71" s="165" t="s">
         <v>2686</v>
       </c>
@@ -37038,8 +37037,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="190"/>
-      <c r="B72" s="191"/>
+      <c r="A72" s="193"/>
+      <c r="B72" s="192"/>
       <c r="C72" s="165" t="s">
         <v>2685</v>
       </c>
@@ -37048,8 +37047,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="190"/>
-      <c r="B73" s="191"/>
+      <c r="A73" s="193"/>
+      <c r="B73" s="192"/>
       <c r="C73" s="165" t="s">
         <v>2684</v>
       </c>
@@ -37058,8 +37057,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="190"/>
-      <c r="B74" s="191"/>
+      <c r="A74" s="193"/>
+      <c r="B74" s="192"/>
       <c r="C74" s="165" t="s">
         <v>2683</v>
       </c>
@@ -37068,8 +37067,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="190"/>
-      <c r="B75" s="191"/>
+      <c r="A75" s="193"/>
+      <c r="B75" s="192"/>
       <c r="C75" s="165" t="s">
         <v>2682</v>
       </c>
@@ -37078,8 +37077,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="190"/>
-      <c r="B76" s="191"/>
+      <c r="A76" s="193"/>
+      <c r="B76" s="192"/>
       <c r="C76" s="165" t="s">
         <v>2681</v>
       </c>
@@ -37088,8 +37087,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="190"/>
-      <c r="B77" s="191" t="s">
+      <c r="A77" s="193"/>
+      <c r="B77" s="192" t="s">
         <v>2680</v>
       </c>
       <c r="C77" s="165" t="s">
@@ -37100,8 +37099,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="190"/>
-      <c r="B78" s="191"/>
+      <c r="A78" s="193"/>
+      <c r="B78" s="192"/>
       <c r="C78" s="165" t="s">
         <v>2678</v>
       </c>
@@ -37110,7 +37109,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="190"/>
+      <c r="A79" s="193"/>
       <c r="B79" s="165" t="s">
         <v>2677</v>
       </c>
@@ -37122,8 +37121,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="190"/>
-      <c r="B80" s="191" t="s">
+      <c r="A80" s="193"/>
+      <c r="B80" s="192" t="s">
         <v>2676</v>
       </c>
       <c r="C80" s="165" t="s">
@@ -37134,8 +37133,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="190"/>
-      <c r="B81" s="191"/>
+      <c r="A81" s="193"/>
+      <c r="B81" s="192"/>
       <c r="C81" s="165" t="s">
         <v>2674</v>
       </c>
@@ -37144,8 +37143,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="190"/>
-      <c r="B82" s="191"/>
+      <c r="A82" s="193"/>
+      <c r="B82" s="192"/>
       <c r="C82" s="165" t="s">
         <v>2673</v>
       </c>
@@ -37154,8 +37153,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="190"/>
-      <c r="B83" s="191" t="s">
+      <c r="A83" s="193"/>
+      <c r="B83" s="192" t="s">
         <v>2672</v>
       </c>
       <c r="C83" s="165" t="s">
@@ -37166,8 +37165,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="190"/>
-      <c r="B84" s="191"/>
+      <c r="A84" s="193"/>
+      <c r="B84" s="192"/>
       <c r="C84" s="165" t="s">
         <v>2670</v>
       </c>
@@ -37176,8 +37175,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="190"/>
-      <c r="B85" s="191"/>
+      <c r="A85" s="193"/>
+      <c r="B85" s="192"/>
       <c r="C85" s="165" t="s">
         <v>2669</v>
       </c>
@@ -37186,7 +37185,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="190"/>
+      <c r="A86" s="193"/>
       <c r="B86" s="165" t="s">
         <v>2668</v>
       </c>
@@ -37198,8 +37197,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="190"/>
-      <c r="B87" s="191" t="s">
+      <c r="A87" s="193"/>
+      <c r="B87" s="192" t="s">
         <v>1294</v>
       </c>
       <c r="C87" s="165" t="s">
@@ -37210,8 +37209,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="190"/>
-      <c r="B88" s="191"/>
+      <c r="A88" s="193"/>
+      <c r="B88" s="192"/>
       <c r="C88" s="165" t="s">
         <v>2666</v>
       </c>
@@ -37220,8 +37219,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="190"/>
-      <c r="B89" s="191"/>
+      <c r="A89" s="193"/>
+      <c r="B89" s="192"/>
       <c r="C89" s="165" t="s">
         <v>2665</v>
       </c>
@@ -37230,8 +37229,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="190"/>
-      <c r="B90" s="191"/>
+      <c r="A90" s="193"/>
+      <c r="B90" s="192"/>
       <c r="C90" s="165" t="s">
         <v>2664</v>
       </c>
@@ -37240,8 +37239,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="190"/>
-      <c r="B91" s="191" t="s">
+      <c r="A91" s="193"/>
+      <c r="B91" s="192" t="s">
         <v>2663</v>
       </c>
       <c r="C91" s="165" t="s">
@@ -37252,8 +37251,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="190"/>
-      <c r="B92" s="191"/>
+      <c r="A92" s="193"/>
+      <c r="B92" s="192"/>
       <c r="C92" s="165" t="s">
         <v>2661</v>
       </c>
@@ -37262,8 +37261,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="190"/>
-      <c r="B93" s="191"/>
+      <c r="A93" s="193"/>
+      <c r="B93" s="192"/>
       <c r="C93" s="165" t="s">
         <v>2660</v>
       </c>
@@ -37272,8 +37271,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="190"/>
-      <c r="B94" s="191"/>
+      <c r="A94" s="193"/>
+      <c r="B94" s="192"/>
       <c r="C94" s="165" t="s">
         <v>2659</v>
       </c>
@@ -37282,8 +37281,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="190"/>
-      <c r="B95" s="191"/>
+      <c r="A95" s="193"/>
+      <c r="B95" s="192"/>
       <c r="C95" s="165" t="s">
         <v>2658</v>
       </c>
@@ -37292,8 +37291,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="190"/>
-      <c r="B96" s="191"/>
+      <c r="A96" s="193"/>
+      <c r="B96" s="192"/>
       <c r="C96" s="165" t="s">
         <v>2657</v>
       </c>
@@ -37302,8 +37301,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="190"/>
-      <c r="B97" s="191"/>
+      <c r="A97" s="193"/>
+      <c r="B97" s="192"/>
       <c r="C97" s="165" t="s">
         <v>2656</v>
       </c>
@@ -37312,8 +37311,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="190"/>
-      <c r="B98" s="191"/>
+      <c r="A98" s="193"/>
+      <c r="B98" s="192"/>
       <c r="C98" s="165" t="s">
         <v>2655</v>
       </c>
@@ -37322,8 +37321,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="190"/>
-      <c r="B99" s="191"/>
+      <c r="A99" s="193"/>
+      <c r="B99" s="192"/>
       <c r="C99" s="165" t="s">
         <v>2654</v>
       </c>
@@ -37332,8 +37331,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="190"/>
-      <c r="B100" s="191"/>
+      <c r="A100" s="193"/>
+      <c r="B100" s="192"/>
       <c r="C100" s="165" t="s">
         <v>2653</v>
       </c>
@@ -37342,8 +37341,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="190"/>
-      <c r="B101" s="191" t="s">
+      <c r="A101" s="193"/>
+      <c r="B101" s="192" t="s">
         <v>2652</v>
       </c>
       <c r="C101" s="165" t="s">
@@ -37354,8 +37353,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="190"/>
-      <c r="B102" s="191"/>
+      <c r="A102" s="193"/>
+      <c r="B102" s="192"/>
       <c r="C102" s="165" t="s">
         <v>2650</v>
       </c>
@@ -37364,8 +37363,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="190"/>
-      <c r="B103" s="191"/>
+      <c r="A103" s="193"/>
+      <c r="B103" s="192"/>
       <c r="C103" s="165" t="s">
         <v>2649</v>
       </c>
@@ -37374,8 +37373,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="190"/>
-      <c r="B104" s="191"/>
+      <c r="A104" s="193"/>
+      <c r="B104" s="192"/>
       <c r="C104" s="165" t="s">
         <v>2648</v>
       </c>
@@ -37384,7 +37383,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="190"/>
+      <c r="A105" s="193"/>
       <c r="B105" s="165" t="s">
         <v>2647</v>
       </c>
@@ -37396,8 +37395,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="190"/>
-      <c r="B106" s="191" t="s">
+      <c r="A106" s="193"/>
+      <c r="B106" s="192" t="s">
         <v>2646</v>
       </c>
       <c r="C106" s="165" t="s">
@@ -37408,8 +37407,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="190"/>
-      <c r="B107" s="191"/>
+      <c r="A107" s="193"/>
+      <c r="B107" s="192"/>
       <c r="C107" s="165" t="s">
         <v>2644</v>
       </c>
@@ -37418,8 +37417,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="190"/>
-      <c r="B108" s="191"/>
+      <c r="A108" s="193"/>
+      <c r="B108" s="192"/>
       <c r="C108" s="165" t="s">
         <v>2643</v>
       </c>
@@ -37428,7 +37427,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="190"/>
+      <c r="A109" s="193"/>
       <c r="B109" s="165" t="s">
         <v>2642</v>
       </c>
@@ -37440,8 +37439,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="190"/>
-      <c r="B110" s="191" t="s">
+      <c r="A110" s="193"/>
+      <c r="B110" s="192" t="s">
         <v>2640</v>
       </c>
       <c r="C110" s="165" t="s">
@@ -37452,8 +37451,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="190"/>
-      <c r="B111" s="191"/>
+      <c r="A111" s="193"/>
+      <c r="B111" s="192"/>
       <c r="C111" s="165" t="s">
         <v>2638</v>
       </c>
@@ -37462,8 +37461,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="190"/>
-      <c r="B112" s="191"/>
+      <c r="A112" s="193"/>
+      <c r="B112" s="192"/>
       <c r="C112" s="165" t="s">
         <v>2637</v>
       </c>
@@ -37472,8 +37471,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="190"/>
-      <c r="B113" s="191"/>
+      <c r="A113" s="193"/>
+      <c r="B113" s="192"/>
       <c r="C113" s="165" t="s">
         <v>2636</v>
       </c>
@@ -37482,8 +37481,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="190"/>
-      <c r="B114" s="191"/>
+      <c r="A114" s="193"/>
+      <c r="B114" s="192"/>
       <c r="C114" s="165" t="s">
         <v>2635</v>
       </c>
@@ -37492,8 +37491,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="190"/>
-      <c r="B115" s="191"/>
+      <c r="A115" s="193"/>
+      <c r="B115" s="192"/>
       <c r="C115" s="165" t="s">
         <v>2634</v>
       </c>
@@ -37502,8 +37501,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="190"/>
-      <c r="B116" s="191"/>
+      <c r="A116" s="193"/>
+      <c r="B116" s="192"/>
       <c r="C116" s="165" t="s">
         <v>2633</v>
       </c>
@@ -37512,8 +37511,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="190"/>
-      <c r="B117" s="191"/>
+      <c r="A117" s="193"/>
+      <c r="B117" s="192"/>
       <c r="C117" s="165" t="s">
         <v>2632</v>
       </c>
@@ -37522,8 +37521,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="190"/>
-      <c r="B118" s="191"/>
+      <c r="A118" s="193"/>
+      <c r="B118" s="192"/>
       <c r="C118" s="165" t="s">
         <v>2631</v>
       </c>
@@ -37532,8 +37531,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="190"/>
-      <c r="B119" s="191"/>
+      <c r="A119" s="193"/>
+      <c r="B119" s="192"/>
       <c r="C119" s="165" t="s">
         <v>2630</v>
       </c>
@@ -37542,8 +37541,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="190"/>
-      <c r="B120" s="191"/>
+      <c r="A120" s="193"/>
+      <c r="B120" s="192"/>
       <c r="C120" s="165" t="s">
         <v>2629</v>
       </c>
@@ -37552,8 +37551,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="190"/>
-      <c r="B121" s="191"/>
+      <c r="A121" s="193"/>
+      <c r="B121" s="192"/>
       <c r="C121" s="165" t="s">
         <v>2628</v>
       </c>
@@ -37562,8 +37561,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="190"/>
-      <c r="B122" s="191"/>
+      <c r="A122" s="193"/>
+      <c r="B122" s="192"/>
       <c r="C122" s="165" t="s">
         <v>2627</v>
       </c>
@@ -37572,8 +37571,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="190"/>
-      <c r="B123" s="191"/>
+      <c r="A123" s="193"/>
+      <c r="B123" s="192"/>
       <c r="C123" s="165" t="s">
         <v>2626</v>
       </c>
@@ -37582,8 +37581,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="190"/>
-      <c r="B124" s="191"/>
+      <c r="A124" s="193"/>
+      <c r="B124" s="192"/>
       <c r="C124" s="165" t="s">
         <v>2625</v>
       </c>
@@ -37592,8 +37591,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="190"/>
-      <c r="B125" s="191"/>
+      <c r="A125" s="193"/>
+      <c r="B125" s="192"/>
       <c r="C125" s="165" t="s">
         <v>2624</v>
       </c>
@@ -37602,8 +37601,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="190"/>
-      <c r="B126" s="191"/>
+      <c r="A126" s="193"/>
+      <c r="B126" s="192"/>
       <c r="C126" s="165" t="s">
         <v>2623</v>
       </c>
@@ -37612,8 +37611,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="190"/>
-      <c r="B127" s="191"/>
+      <c r="A127" s="193"/>
+      <c r="B127" s="192"/>
       <c r="C127" s="165" t="s">
         <v>2622</v>
       </c>
@@ -37622,8 +37621,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="190"/>
-      <c r="B128" s="191"/>
+      <c r="A128" s="193"/>
+      <c r="B128" s="192"/>
       <c r="C128" s="165" t="s">
         <v>2621</v>
       </c>
@@ -37632,8 +37631,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="190"/>
-      <c r="B129" s="191"/>
+      <c r="A129" s="193"/>
+      <c r="B129" s="192"/>
       <c r="C129" s="165" t="s">
         <v>2620</v>
       </c>
@@ -37642,8 +37641,8 @@
       </c>
     </row>
     <row r="130" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="190"/>
-      <c r="B130" s="191"/>
+      <c r="A130" s="193"/>
+      <c r="B130" s="192"/>
       <c r="C130" s="165" t="s">
         <v>2619</v>
       </c>
@@ -37652,8 +37651,8 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="190"/>
-      <c r="B131" s="191"/>
+      <c r="A131" s="193"/>
+      <c r="B131" s="192"/>
       <c r="C131" s="165" t="s">
         <v>2618</v>
       </c>
@@ -37662,8 +37661,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="190"/>
-      <c r="B132" s="191"/>
+      <c r="A132" s="193"/>
+      <c r="B132" s="192"/>
       <c r="C132" s="165" t="s">
         <v>2617</v>
       </c>
@@ -37672,8 +37671,8 @@
       </c>
     </row>
     <row r="133" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="190"/>
-      <c r="B133" s="191"/>
+      <c r="A133" s="193"/>
+      <c r="B133" s="192"/>
       <c r="C133" s="165" t="s">
         <v>2616</v>
       </c>
@@ -37682,8 +37681,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="190"/>
-      <c r="B134" s="191"/>
+      <c r="A134" s="193"/>
+      <c r="B134" s="192"/>
       <c r="C134" s="165" t="s">
         <v>2615</v>
       </c>
@@ -37692,8 +37691,8 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="190"/>
-      <c r="B135" s="191"/>
+      <c r="A135" s="193"/>
+      <c r="B135" s="192"/>
       <c r="C135" s="165" t="s">
         <v>2614</v>
       </c>
@@ -37702,8 +37701,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="190"/>
-      <c r="B136" s="191"/>
+      <c r="A136" s="193"/>
+      <c r="B136" s="192"/>
       <c r="C136" s="165" t="s">
         <v>2613</v>
       </c>
@@ -37712,8 +37711,8 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="190"/>
-      <c r="B137" s="191"/>
+      <c r="A137" s="193"/>
+      <c r="B137" s="192"/>
       <c r="C137" s="165" t="s">
         <v>2612</v>
       </c>
@@ -37722,8 +37721,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="190"/>
-      <c r="B138" s="191"/>
+      <c r="A138" s="193"/>
+      <c r="B138" s="192"/>
       <c r="C138" s="165" t="s">
         <v>2611</v>
       </c>
@@ -37732,8 +37731,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="190"/>
-      <c r="B139" s="191"/>
+      <c r="A139" s="193"/>
+      <c r="B139" s="192"/>
       <c r="C139" s="165" t="s">
         <v>2610</v>
       </c>
@@ -37742,8 +37741,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="190"/>
-      <c r="B140" s="191"/>
+      <c r="A140" s="193"/>
+      <c r="B140" s="192"/>
       <c r="C140" s="165" t="s">
         <v>2609</v>
       </c>
@@ -37752,8 +37751,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="190"/>
-      <c r="B141" s="191"/>
+      <c r="A141" s="193"/>
+      <c r="B141" s="192"/>
       <c r="C141" s="165" t="s">
         <v>2608</v>
       </c>
@@ -37762,8 +37761,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="190"/>
-      <c r="B142" s="191"/>
+      <c r="A142" s="193"/>
+      <c r="B142" s="192"/>
       <c r="C142" s="165" t="s">
         <v>2607</v>
       </c>
@@ -37772,8 +37771,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="190"/>
-      <c r="B143" s="191"/>
+      <c r="A143" s="193"/>
+      <c r="B143" s="192"/>
       <c r="C143" s="165" t="s">
         <v>2606</v>
       </c>
@@ -37782,8 +37781,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="190"/>
-      <c r="B144" s="191"/>
+      <c r="A144" s="193"/>
+      <c r="B144" s="192"/>
       <c r="C144" s="165" t="s">
         <v>2605</v>
       </c>
@@ -37792,8 +37791,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="190"/>
-      <c r="B145" s="191"/>
+      <c r="A145" s="193"/>
+      <c r="B145" s="192"/>
       <c r="C145" s="165" t="s">
         <v>2604</v>
       </c>
@@ -37802,8 +37801,8 @@
       </c>
     </row>
     <row r="146" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="190"/>
-      <c r="B146" s="191"/>
+      <c r="A146" s="193"/>
+      <c r="B146" s="192"/>
       <c r="C146" s="165" t="s">
         <v>2603</v>
       </c>
@@ -37812,8 +37811,8 @@
       </c>
     </row>
     <row r="147" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="190"/>
-      <c r="B147" s="191"/>
+      <c r="A147" s="193"/>
+      <c r="B147" s="192"/>
       <c r="C147" s="165" t="s">
         <v>2602</v>
       </c>
@@ -37822,8 +37821,8 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="190"/>
-      <c r="B148" s="191"/>
+      <c r="A148" s="193"/>
+      <c r="B148" s="192"/>
       <c r="C148" s="165" t="s">
         <v>2601</v>
       </c>
@@ -37832,8 +37831,8 @@
       </c>
     </row>
     <row r="149" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="190"/>
-      <c r="B149" s="191"/>
+      <c r="A149" s="193"/>
+      <c r="B149" s="192"/>
       <c r="C149" s="165" t="s">
         <v>2600</v>
       </c>
@@ -37842,8 +37841,8 @@
       </c>
     </row>
     <row r="150" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="190"/>
-      <c r="B150" s="191"/>
+      <c r="A150" s="193"/>
+      <c r="B150" s="192"/>
       <c r="C150" s="165" t="s">
         <v>2599</v>
       </c>
@@ -37852,8 +37851,8 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="190"/>
-      <c r="B151" s="191"/>
+      <c r="A151" s="193"/>
+      <c r="B151" s="192"/>
       <c r="C151" s="165" t="s">
         <v>2598</v>
       </c>
@@ -37862,8 +37861,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="190"/>
-      <c r="B152" s="191"/>
+      <c r="A152" s="193"/>
+      <c r="B152" s="192"/>
       <c r="C152" s="165" t="s">
         <v>2597</v>
       </c>
@@ -37872,8 +37871,8 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="190"/>
-      <c r="B153" s="191"/>
+      <c r="A153" s="193"/>
+      <c r="B153" s="192"/>
       <c r="C153" s="165" t="s">
         <v>2596</v>
       </c>
@@ -37882,8 +37881,8 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="190"/>
-      <c r="B154" s="191"/>
+      <c r="A154" s="193"/>
+      <c r="B154" s="192"/>
       <c r="C154" s="165" t="s">
         <v>2595</v>
       </c>
@@ -37892,8 +37891,8 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="190"/>
-      <c r="B155" s="191"/>
+      <c r="A155" s="193"/>
+      <c r="B155" s="192"/>
       <c r="C155" s="165" t="s">
         <v>2594</v>
       </c>
@@ -37902,8 +37901,8 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="190"/>
-      <c r="B156" s="191"/>
+      <c r="A156" s="193"/>
+      <c r="B156" s="192"/>
       <c r="C156" s="165" t="s">
         <v>2593</v>
       </c>
@@ -37912,8 +37911,8 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="190"/>
-      <c r="B157" s="191"/>
+      <c r="A157" s="193"/>
+      <c r="B157" s="192"/>
       <c r="C157" s="165" t="s">
         <v>2592</v>
       </c>
@@ -37922,8 +37921,8 @@
       </c>
     </row>
     <row r="158" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="190"/>
-      <c r="B158" s="191"/>
+      <c r="A158" s="193"/>
+      <c r="B158" s="192"/>
       <c r="C158" s="165" t="s">
         <v>2591</v>
       </c>
@@ -37932,8 +37931,8 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="190"/>
-      <c r="B159" s="191"/>
+      <c r="A159" s="193"/>
+      <c r="B159" s="192"/>
       <c r="C159" s="165" t="s">
         <v>2590</v>
       </c>
@@ -37942,8 +37941,8 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="190"/>
-      <c r="B160" s="191"/>
+      <c r="A160" s="193"/>
+      <c r="B160" s="192"/>
       <c r="C160" s="165" t="s">
         <v>2589</v>
       </c>
@@ -37952,8 +37951,8 @@
       </c>
     </row>
     <row r="161" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="190"/>
-      <c r="B161" s="191"/>
+      <c r="A161" s="193"/>
+      <c r="B161" s="192"/>
       <c r="C161" s="165" t="s">
         <v>2588</v>
       </c>
@@ -37962,8 +37961,8 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="190"/>
-      <c r="B162" s="191"/>
+      <c r="A162" s="193"/>
+      <c r="B162" s="192"/>
       <c r="C162" s="165" t="s">
         <v>2587</v>
       </c>
@@ -37972,8 +37971,8 @@
       </c>
     </row>
     <row r="163" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="190"/>
-      <c r="B163" s="191"/>
+      <c r="A163" s="193"/>
+      <c r="B163" s="192"/>
       <c r="C163" s="165" t="s">
         <v>2586</v>
       </c>
@@ -37982,8 +37981,8 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="190"/>
-      <c r="B164" s="191"/>
+      <c r="A164" s="193"/>
+      <c r="B164" s="192"/>
       <c r="C164" s="165" t="s">
         <v>2585</v>
       </c>
@@ -37992,8 +37991,8 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="190"/>
-      <c r="B165" s="191"/>
+      <c r="A165" s="193"/>
+      <c r="B165" s="192"/>
       <c r="C165" s="165" t="s">
         <v>2584</v>
       </c>
@@ -38002,8 +38001,8 @@
       </c>
     </row>
     <row r="166" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="190"/>
-      <c r="B166" s="191" t="s">
+      <c r="A166" s="193"/>
+      <c r="B166" s="192" t="s">
         <v>1970</v>
       </c>
       <c r="C166" s="165" t="s">
@@ -38014,8 +38013,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="190"/>
-      <c r="B167" s="191"/>
+      <c r="A167" s="193"/>
+      <c r="B167" s="192"/>
       <c r="C167" s="165" t="s">
         <v>2582</v>
       </c>
@@ -38024,8 +38023,8 @@
       </c>
     </row>
     <row r="168" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="190"/>
-      <c r="B168" s="191" t="s">
+      <c r="A168" s="193"/>
+      <c r="B168" s="192" t="s">
         <v>1969</v>
       </c>
       <c r="C168" s="165" t="s">
@@ -38036,8 +38035,8 @@
       </c>
     </row>
     <row r="169" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="190"/>
-      <c r="B169" s="191"/>
+      <c r="A169" s="193"/>
+      <c r="B169" s="192"/>
       <c r="C169" s="165" t="s">
         <v>2580</v>
       </c>
@@ -38046,7 +38045,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="190"/>
+      <c r="A170" s="193"/>
       <c r="B170" s="165" t="s">
         <v>2579</v>
       </c>
@@ -38058,8 +38057,8 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="190"/>
-      <c r="B171" s="191" t="s">
+      <c r="A171" s="193"/>
+      <c r="B171" s="192" t="s">
         <v>1866</v>
       </c>
       <c r="C171" s="165" t="s">
@@ -38070,8 +38069,8 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="190"/>
-      <c r="B172" s="191"/>
+      <c r="A172" s="193"/>
+      <c r="B172" s="192"/>
       <c r="C172" s="165" t="s">
         <v>2577</v>
       </c>
@@ -38080,8 +38079,8 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="190"/>
-      <c r="B173" s="191" t="s">
+      <c r="A173" s="193"/>
+      <c r="B173" s="192" t="s">
         <v>1369</v>
       </c>
       <c r="C173" s="165" t="s">
@@ -38092,8 +38091,8 @@
       </c>
     </row>
     <row r="174" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="190"/>
-      <c r="B174" s="191"/>
+      <c r="A174" s="193"/>
+      <c r="B174" s="192"/>
       <c r="C174" s="165" t="s">
         <v>2575</v>
       </c>
@@ -38102,8 +38101,8 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="190"/>
-      <c r="B175" s="191"/>
+      <c r="A175" s="193"/>
+      <c r="B175" s="192"/>
       <c r="C175" s="165" t="s">
         <v>2574</v>
       </c>
@@ -38112,8 +38111,8 @@
       </c>
     </row>
     <row r="176" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="190"/>
-      <c r="B176" s="191" t="s">
+      <c r="A176" s="193"/>
+      <c r="B176" s="192" t="s">
         <v>1304</v>
       </c>
       <c r="C176" s="165" t="s">
@@ -38124,8 +38123,8 @@
       </c>
     </row>
     <row r="177" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="190"/>
-      <c r="B177" s="191"/>
+      <c r="A177" s="193"/>
+      <c r="B177" s="192"/>
       <c r="C177" s="165" t="s">
         <v>2572</v>
       </c>
@@ -38134,8 +38133,8 @@
       </c>
     </row>
     <row r="178" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="190"/>
-      <c r="B178" s="191"/>
+      <c r="A178" s="193"/>
+      <c r="B178" s="192"/>
       <c r="C178" s="165" t="s">
         <v>2571</v>
       </c>
@@ -38144,8 +38143,8 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="190"/>
-      <c r="B179" s="191" t="s">
+      <c r="A179" s="193"/>
+      <c r="B179" s="192" t="s">
         <v>1295</v>
       </c>
       <c r="C179" s="165" t="s">
@@ -38156,8 +38155,8 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="190"/>
-      <c r="B180" s="191"/>
+      <c r="A180" s="193"/>
+      <c r="B180" s="192"/>
       <c r="C180" s="165" t="s">
         <v>2569</v>
       </c>
@@ -38167,12 +38166,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B178"/>
     <mergeCell ref="A1:A180"/>
     <mergeCell ref="B1:B37"/>
     <mergeCell ref="B38:B40"/>
@@ -38189,6 +38182,12 @@
     <mergeCell ref="B101:B104"/>
     <mergeCell ref="B106:B108"/>
     <mergeCell ref="B110:B165"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38238,10 +38237,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="198" t="s">
         <v>1976</v>
       </c>
       <c r="C4" s="172" t="s">
@@ -38252,8 +38251,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="195"/>
-      <c r="B5" s="196"/>
+      <c r="A5" s="197"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="172" t="s">
         <v>5252</v>
       </c>
@@ -38262,8 +38261,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
-      <c r="B6" s="196"/>
+      <c r="A6" s="197"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="172" t="s">
         <v>5251</v>
       </c>
@@ -38272,8 +38271,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
+      <c r="A7" s="197"/>
+      <c r="B7" s="198"/>
       <c r="C7" s="172" t="s">
         <v>5250</v>
       </c>
@@ -38282,8 +38281,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
+      <c r="A8" s="197"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="172" t="s">
         <v>5249</v>
       </c>
@@ -38292,8 +38291,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196" t="s">
+      <c r="A9" s="197"/>
+      <c r="B9" s="198" t="s">
         <v>1974</v>
       </c>
       <c r="C9" s="172" t="s">
@@ -38304,8 +38303,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="195"/>
-      <c r="B10" s="196"/>
+      <c r="A10" s="197"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="172" t="s">
         <v>5247</v>
       </c>
@@ -38314,8 +38313,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="195"/>
-      <c r="B11" s="196"/>
+      <c r="A11" s="197"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="172" t="s">
         <v>5246</v>
       </c>
@@ -38324,7 +38323,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="199" t="s">
         <v>315</v>
       </c>
       <c r="B12" s="175"/>
@@ -38332,7 +38331,7 @@
       <c r="D12" s="174"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="197"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="172" t="s">
         <v>1976</v>
       </c>
@@ -38344,7 +38343,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="197"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="172" t="s">
         <v>1974</v>
       </c>
@@ -38369,37 +38368,37 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="177" t="s">
         <v>5690</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="193"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="178" t="s">
         <v>5691</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="193"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="178" t="s">
         <v>5692</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="193"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="178" t="s">
         <v>5693</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="194"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="179" t="s">
         <v>5694</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="192" t="s">
+      <c r="A25" s="194" t="s">
         <v>5695</v>
       </c>
       <c r="B25" s="178" t="s">
@@ -38407,13 +38406,13 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="193"/>
+      <c r="A26" s="195"/>
       <c r="B26" s="178" t="s">
         <v>5697</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="194"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="179" t="s">
         <v>5698</v>
       </c>
@@ -38502,9 +38501,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="198"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
+      <c r="A2" s="202"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
@@ -80280,117 +80279,311 @@
     </row>
   </sheetData>
   <mergeCells count="440">
-    <mergeCell ref="A4005:A4008"/>
-    <mergeCell ref="B4005:B4008"/>
-    <mergeCell ref="A4010:A4016"/>
-    <mergeCell ref="B4010:B4016"/>
-    <mergeCell ref="A4054:A4060"/>
-    <mergeCell ref="B4054:B4060"/>
-    <mergeCell ref="A4061:A4062"/>
-    <mergeCell ref="B4061:B4062"/>
-    <mergeCell ref="A4017:A4036"/>
-    <mergeCell ref="B4017:B4036"/>
-    <mergeCell ref="A4037:A4053"/>
-    <mergeCell ref="B4037:B4046"/>
-    <mergeCell ref="B4047:B4048"/>
-    <mergeCell ref="B4049:B4053"/>
-    <mergeCell ref="A3944:A3950"/>
-    <mergeCell ref="B3944:B3950"/>
-    <mergeCell ref="A3951:A3993"/>
-    <mergeCell ref="B3951:B3956"/>
-    <mergeCell ref="B3957:B3969"/>
-    <mergeCell ref="B3970:B3981"/>
-    <mergeCell ref="B3982:B3992"/>
-    <mergeCell ref="A3994:A4002"/>
-    <mergeCell ref="B3994:B4002"/>
-    <mergeCell ref="A3812:A3822"/>
-    <mergeCell ref="B3812:B3822"/>
-    <mergeCell ref="A3823:A3847"/>
-    <mergeCell ref="B3824:B3826"/>
-    <mergeCell ref="B3827:B3845"/>
-    <mergeCell ref="A3848:A3851"/>
-    <mergeCell ref="B3848:B3850"/>
-    <mergeCell ref="A3852:A3943"/>
-    <mergeCell ref="B3852:B3898"/>
-    <mergeCell ref="B3899:B3900"/>
-    <mergeCell ref="B3901:B3918"/>
-    <mergeCell ref="B3919:B3924"/>
-    <mergeCell ref="B3925:B3929"/>
-    <mergeCell ref="B3930:B3943"/>
-    <mergeCell ref="A3470:A3471"/>
-    <mergeCell ref="B3470:B3471"/>
-    <mergeCell ref="A3473:A3477"/>
-    <mergeCell ref="B3473:B3477"/>
-    <mergeCell ref="A3478:A3505"/>
-    <mergeCell ref="B3478:B3504"/>
-    <mergeCell ref="A3506:A3514"/>
-    <mergeCell ref="B3506:B3514"/>
-    <mergeCell ref="A3515:A3810"/>
-    <mergeCell ref="B3515:B3527"/>
-    <mergeCell ref="B3528:B3580"/>
-    <mergeCell ref="B3581:B3740"/>
-    <mergeCell ref="B3741:B3746"/>
-    <mergeCell ref="B3747:B3791"/>
-    <mergeCell ref="B3792:B3810"/>
-    <mergeCell ref="A3411:A3436"/>
-    <mergeCell ref="B3411:B3436"/>
-    <mergeCell ref="A3437:A3442"/>
-    <mergeCell ref="B3437:B3442"/>
-    <mergeCell ref="A3443:A3448"/>
-    <mergeCell ref="B3443:B3445"/>
-    <mergeCell ref="B3446:B3447"/>
-    <mergeCell ref="A3449:A3468"/>
-    <mergeCell ref="B3449:B3451"/>
-    <mergeCell ref="B3452:B3468"/>
-    <mergeCell ref="A3373:A3374"/>
-    <mergeCell ref="B3373:B3374"/>
-    <mergeCell ref="A3376:A3383"/>
-    <mergeCell ref="B3376:B3383"/>
-    <mergeCell ref="A3384:A3394"/>
-    <mergeCell ref="B3384:B3394"/>
-    <mergeCell ref="A3395:A3402"/>
-    <mergeCell ref="B3395:B3402"/>
-    <mergeCell ref="A3403:A3410"/>
-    <mergeCell ref="B3404:B3410"/>
-    <mergeCell ref="A3097:A3118"/>
-    <mergeCell ref="B3097:B3112"/>
-    <mergeCell ref="B3113:B3116"/>
-    <mergeCell ref="B3117:B3118"/>
-    <mergeCell ref="A3119:A3371"/>
-    <mergeCell ref="B3119:B3131"/>
-    <mergeCell ref="B3132:B3137"/>
-    <mergeCell ref="B3138:B3141"/>
-    <mergeCell ref="B3142:B3144"/>
-    <mergeCell ref="B3145:B3149"/>
-    <mergeCell ref="B3151:B3266"/>
-    <mergeCell ref="B3267:B3268"/>
-    <mergeCell ref="B3269:B3276"/>
-    <mergeCell ref="B3277:B3367"/>
-    <mergeCell ref="B3368:B3369"/>
-    <mergeCell ref="A3004:A3096"/>
-    <mergeCell ref="B3004:B3036"/>
-    <mergeCell ref="B3038:B3039"/>
-    <mergeCell ref="B3041:B3044"/>
-    <mergeCell ref="B3045:B3070"/>
-    <mergeCell ref="B3071:B3072"/>
-    <mergeCell ref="B3074:B3076"/>
-    <mergeCell ref="B3077:B3078"/>
-    <mergeCell ref="B3079:B3095"/>
-    <mergeCell ref="A2993:A3003"/>
-    <mergeCell ref="B2993:B2994"/>
-    <mergeCell ref="B2995:B3003"/>
-    <mergeCell ref="A2805:A2946"/>
-    <mergeCell ref="B2805:B2872"/>
-    <mergeCell ref="B2873:B2875"/>
-    <mergeCell ref="B2876:B2877"/>
-    <mergeCell ref="B2879:B2883"/>
-    <mergeCell ref="B2884:B2886"/>
-    <mergeCell ref="B2887:B2945"/>
-    <mergeCell ref="A2968:A2992"/>
-    <mergeCell ref="B2968:B2992"/>
-    <mergeCell ref="A2947:A2967"/>
-    <mergeCell ref="B2947:B2948"/>
-    <mergeCell ref="B2949:B2966"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B37:B47"/>
+    <mergeCell ref="A48:A62"/>
+    <mergeCell ref="B49:B62"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="B70:B78"/>
+    <mergeCell ref="A79:A86"/>
+    <mergeCell ref="B79:B86"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="A95:A128"/>
+    <mergeCell ref="B95:B128"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="A136:A180"/>
+    <mergeCell ref="B136:B166"/>
+    <mergeCell ref="B167:B173"/>
+    <mergeCell ref="B174:B180"/>
+    <mergeCell ref="A181:A186"/>
+    <mergeCell ref="B181:B186"/>
+    <mergeCell ref="A187:A203"/>
+    <mergeCell ref="B187:B203"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="A211:A236"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B220:B226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="B230:B236"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="B238:B240"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="B242:B246"/>
+    <mergeCell ref="A247:A259"/>
+    <mergeCell ref="B247:B259"/>
+    <mergeCell ref="A260:A271"/>
+    <mergeCell ref="B260:B271"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="A274:A278"/>
+    <mergeCell ref="B274:B278"/>
+    <mergeCell ref="A279:A286"/>
+    <mergeCell ref="B279:B283"/>
+    <mergeCell ref="B284:B286"/>
+    <mergeCell ref="A287:A302"/>
+    <mergeCell ref="B287:B302"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="A305:A367"/>
+    <mergeCell ref="B305:B367"/>
+    <mergeCell ref="A368:A372"/>
+    <mergeCell ref="B369:B372"/>
+    <mergeCell ref="A373:A374"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="A377:A404"/>
+    <mergeCell ref="B377:B404"/>
+    <mergeCell ref="A405:A431"/>
+    <mergeCell ref="B405:B410"/>
+    <mergeCell ref="B415:B424"/>
+    <mergeCell ref="B426:B428"/>
+    <mergeCell ref="A433:A434"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="A435:A442"/>
+    <mergeCell ref="B435:B442"/>
+    <mergeCell ref="A443:A447"/>
+    <mergeCell ref="B443:B444"/>
+    <mergeCell ref="B446:B447"/>
+    <mergeCell ref="A449:A458"/>
+    <mergeCell ref="B449:B458"/>
+    <mergeCell ref="A459:A470"/>
+    <mergeCell ref="B459:B470"/>
+    <mergeCell ref="A471:A497"/>
+    <mergeCell ref="B473:B475"/>
+    <mergeCell ref="B476:B496"/>
+    <mergeCell ref="A498:A517"/>
+    <mergeCell ref="B498:B517"/>
+    <mergeCell ref="A518:A535"/>
+    <mergeCell ref="B518:B535"/>
+    <mergeCell ref="A536:A539"/>
+    <mergeCell ref="B536:B539"/>
+    <mergeCell ref="A540:A544"/>
+    <mergeCell ref="B540:B544"/>
+    <mergeCell ref="A545:A569"/>
+    <mergeCell ref="B545:B569"/>
+    <mergeCell ref="A570:A578"/>
+    <mergeCell ref="B570:B578"/>
+    <mergeCell ref="A580:A581"/>
+    <mergeCell ref="B580:B581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="B582:B585"/>
+    <mergeCell ref="A586:A637"/>
+    <mergeCell ref="B586:B618"/>
+    <mergeCell ref="B619:B623"/>
+    <mergeCell ref="B624:B627"/>
+    <mergeCell ref="B628:B632"/>
+    <mergeCell ref="B633:B637"/>
+    <mergeCell ref="A639:A660"/>
+    <mergeCell ref="B640:B660"/>
+    <mergeCell ref="A661:A666"/>
+    <mergeCell ref="B661:B666"/>
+    <mergeCell ref="A667:A678"/>
+    <mergeCell ref="B667:B678"/>
+    <mergeCell ref="A679:A689"/>
+    <mergeCell ref="B679:B681"/>
+    <mergeCell ref="B682:B687"/>
+    <mergeCell ref="B688:B689"/>
+    <mergeCell ref="A690:A694"/>
+    <mergeCell ref="B690:B694"/>
+    <mergeCell ref="A696:A708"/>
+    <mergeCell ref="B696:B707"/>
+    <mergeCell ref="A709:A739"/>
+    <mergeCell ref="B710:B713"/>
+    <mergeCell ref="B715:B738"/>
+    <mergeCell ref="A740:A743"/>
+    <mergeCell ref="B740:B742"/>
+    <mergeCell ref="A744:A767"/>
+    <mergeCell ref="B744:B767"/>
+    <mergeCell ref="A768:A770"/>
+    <mergeCell ref="B768:B769"/>
+    <mergeCell ref="A771:A775"/>
+    <mergeCell ref="B771:B775"/>
+    <mergeCell ref="A778:A807"/>
+    <mergeCell ref="B780:B788"/>
+    <mergeCell ref="B790:B807"/>
+    <mergeCell ref="A808:A836"/>
+    <mergeCell ref="B808:B836"/>
+    <mergeCell ref="A837:A842"/>
+    <mergeCell ref="B837:B842"/>
+    <mergeCell ref="A843:A891"/>
+    <mergeCell ref="B843:B853"/>
+    <mergeCell ref="B854:B860"/>
+    <mergeCell ref="B862:B886"/>
+    <mergeCell ref="B887:B890"/>
+    <mergeCell ref="A892:A897"/>
+    <mergeCell ref="B892:B897"/>
+    <mergeCell ref="A898:A900"/>
+    <mergeCell ref="B899:B900"/>
+    <mergeCell ref="A901:A910"/>
+    <mergeCell ref="B901:B910"/>
+    <mergeCell ref="A911:A920"/>
+    <mergeCell ref="B911:B920"/>
+    <mergeCell ref="A921:A922"/>
+    <mergeCell ref="B921:B922"/>
+    <mergeCell ref="A923:A925"/>
+    <mergeCell ref="B923:B925"/>
+    <mergeCell ref="A926:A941"/>
+    <mergeCell ref="B926:B927"/>
+    <mergeCell ref="B929:B934"/>
+    <mergeCell ref="B935:B940"/>
+    <mergeCell ref="A942:A946"/>
+    <mergeCell ref="B942:B946"/>
+    <mergeCell ref="A948:A953"/>
+    <mergeCell ref="B948:B953"/>
+    <mergeCell ref="A955:A958"/>
+    <mergeCell ref="B955:B958"/>
+    <mergeCell ref="A959:A968"/>
+    <mergeCell ref="B959:B964"/>
+    <mergeCell ref="B965:B968"/>
+    <mergeCell ref="A969:A992"/>
+    <mergeCell ref="B970:B976"/>
+    <mergeCell ref="B977:B989"/>
+    <mergeCell ref="A993:A1001"/>
+    <mergeCell ref="B993:B1001"/>
+    <mergeCell ref="A1002:A1029"/>
+    <mergeCell ref="B1002:B1029"/>
+    <mergeCell ref="A1030:A1038"/>
+    <mergeCell ref="B1030:B1038"/>
+    <mergeCell ref="A1040:A1046"/>
+    <mergeCell ref="B1040:B1046"/>
+    <mergeCell ref="A1047:A1054"/>
+    <mergeCell ref="B1047:B1048"/>
+    <mergeCell ref="B1049:B1054"/>
+    <mergeCell ref="A1055:A1060"/>
+    <mergeCell ref="B1055:B1060"/>
+    <mergeCell ref="A1061:A1076"/>
+    <mergeCell ref="B1061:B1073"/>
+    <mergeCell ref="A1077:A1236"/>
+    <mergeCell ref="B1077:B1130"/>
+    <mergeCell ref="B1131:B1132"/>
+    <mergeCell ref="B1134:B1143"/>
+    <mergeCell ref="B1145:B1186"/>
+    <mergeCell ref="B1187:B1198"/>
+    <mergeCell ref="B1199:B1204"/>
+    <mergeCell ref="B1205:B1221"/>
+    <mergeCell ref="B1222:B1226"/>
+    <mergeCell ref="B1227:B1232"/>
+    <mergeCell ref="B1234:B1235"/>
+    <mergeCell ref="A1316:A1523"/>
+    <mergeCell ref="B1316:B1317"/>
+    <mergeCell ref="B1318:B1329"/>
+    <mergeCell ref="B1330:B1335"/>
+    <mergeCell ref="B1336:B1380"/>
+    <mergeCell ref="B1381:B1426"/>
+    <mergeCell ref="B1427:B1431"/>
+    <mergeCell ref="B1432:B1499"/>
+    <mergeCell ref="A1237:A1265"/>
+    <mergeCell ref="B1238:B1260"/>
+    <mergeCell ref="B1261:B1263"/>
+    <mergeCell ref="B1264:B1265"/>
+    <mergeCell ref="B1500:B1523"/>
+    <mergeCell ref="A1266:A1315"/>
+    <mergeCell ref="B1266:B1278"/>
+    <mergeCell ref="B1279:B1286"/>
+    <mergeCell ref="B1287:B1298"/>
+    <mergeCell ref="B1299:B1302"/>
+    <mergeCell ref="B1303:B1306"/>
+    <mergeCell ref="B1307:B1315"/>
+    <mergeCell ref="A1666:A1680"/>
+    <mergeCell ref="B1667:B1680"/>
+    <mergeCell ref="A1524:A1665"/>
+    <mergeCell ref="B1524:B1548"/>
+    <mergeCell ref="B1549:B1566"/>
+    <mergeCell ref="B1568:B1569"/>
+    <mergeCell ref="B1571:B1573"/>
+    <mergeCell ref="B1574:B1580"/>
+    <mergeCell ref="B1581:B1593"/>
+    <mergeCell ref="B1594:B1607"/>
+    <mergeCell ref="B1608:B1626"/>
+    <mergeCell ref="B1627:B1638"/>
+    <mergeCell ref="B1639:B1650"/>
+    <mergeCell ref="B1651:B1655"/>
+    <mergeCell ref="B1656:B1659"/>
+    <mergeCell ref="B1661:B1662"/>
+    <mergeCell ref="B1663:B1664"/>
+    <mergeCell ref="B1729:B1733"/>
+    <mergeCell ref="B1734:B1746"/>
+    <mergeCell ref="B1747:B1754"/>
+    <mergeCell ref="B1755:B1759"/>
+    <mergeCell ref="B1906:B1907"/>
+    <mergeCell ref="B1909:B1910"/>
+    <mergeCell ref="A1911:A1968"/>
+    <mergeCell ref="B1911:B1930"/>
+    <mergeCell ref="B1931:B1939"/>
+    <mergeCell ref="B1940:B1957"/>
+    <mergeCell ref="B1958:B1968"/>
+    <mergeCell ref="A1681:A1910"/>
+    <mergeCell ref="B1681:B1724"/>
+    <mergeCell ref="B1725:B1728"/>
+    <mergeCell ref="B1902:B1905"/>
+    <mergeCell ref="B1760:B1896"/>
+    <mergeCell ref="B1897:B1900"/>
+    <mergeCell ref="A1969:A1978"/>
+    <mergeCell ref="B1969:B1970"/>
+    <mergeCell ref="B1973:B1978"/>
+    <mergeCell ref="A1980:A2159"/>
+    <mergeCell ref="B1980:B2069"/>
+    <mergeCell ref="B2071:B2075"/>
+    <mergeCell ref="B2076:B2079"/>
+    <mergeCell ref="B2080:B2081"/>
+    <mergeCell ref="B2082:B2088"/>
+    <mergeCell ref="B2089:B2107"/>
+    <mergeCell ref="B2352:B2354"/>
+    <mergeCell ref="B2110:B2112"/>
+    <mergeCell ref="B2113:B2114"/>
+    <mergeCell ref="B2115:B2116"/>
+    <mergeCell ref="B2118:B2127"/>
+    <mergeCell ref="B2130:B2131"/>
+    <mergeCell ref="B2132:B2135"/>
+    <mergeCell ref="B2136:B2147"/>
+    <mergeCell ref="B2148:B2159"/>
+    <mergeCell ref="B2667:B2684"/>
+    <mergeCell ref="B2685:B2687"/>
+    <mergeCell ref="B2688:B2689"/>
+    <mergeCell ref="B2690:B2700"/>
+    <mergeCell ref="B2523:B2524"/>
+    <mergeCell ref="A2160:A2288"/>
+    <mergeCell ref="B2160:B2205"/>
+    <mergeCell ref="B2206:B2288"/>
+    <mergeCell ref="A2289:A2354"/>
+    <mergeCell ref="B2290:B2294"/>
+    <mergeCell ref="B2295:B2307"/>
+    <mergeCell ref="B2308:B2315"/>
+    <mergeCell ref="B2316:B2321"/>
+    <mergeCell ref="B2322:B2351"/>
+    <mergeCell ref="A2355:A2387"/>
+    <mergeCell ref="B2355:B2386"/>
+    <mergeCell ref="A2388:A2524"/>
+    <mergeCell ref="B2388:B2463"/>
+    <mergeCell ref="B2464:B2466"/>
+    <mergeCell ref="B2467:B2473"/>
+    <mergeCell ref="B2474:B2511"/>
+    <mergeCell ref="B2512:B2517"/>
+    <mergeCell ref="B2518:B2519"/>
+    <mergeCell ref="B2520:B2522"/>
     <mergeCell ref="A2525:A2624"/>
     <mergeCell ref="B2527:B2529"/>
     <mergeCell ref="B2532:B2547"/>
@@ -80415,311 +80608,117 @@
     <mergeCell ref="B2711:B2714"/>
     <mergeCell ref="B2662:B2664"/>
     <mergeCell ref="B2665:B2666"/>
-    <mergeCell ref="B2667:B2684"/>
-    <mergeCell ref="B2685:B2687"/>
-    <mergeCell ref="B2688:B2689"/>
-    <mergeCell ref="B2690:B2700"/>
-    <mergeCell ref="B2523:B2524"/>
-    <mergeCell ref="A2160:A2288"/>
-    <mergeCell ref="B2160:B2205"/>
-    <mergeCell ref="B2206:B2288"/>
-    <mergeCell ref="A2289:A2354"/>
-    <mergeCell ref="B2290:B2294"/>
-    <mergeCell ref="B2295:B2307"/>
-    <mergeCell ref="B2308:B2315"/>
-    <mergeCell ref="B2316:B2321"/>
-    <mergeCell ref="B2322:B2351"/>
-    <mergeCell ref="A2355:A2387"/>
-    <mergeCell ref="B2355:B2386"/>
-    <mergeCell ref="A2388:A2524"/>
-    <mergeCell ref="B2388:B2463"/>
-    <mergeCell ref="B2464:B2466"/>
-    <mergeCell ref="B2467:B2473"/>
-    <mergeCell ref="B2474:B2511"/>
-    <mergeCell ref="B2512:B2517"/>
-    <mergeCell ref="B2518:B2519"/>
-    <mergeCell ref="B2520:B2522"/>
-    <mergeCell ref="B2352:B2354"/>
-    <mergeCell ref="B2110:B2112"/>
-    <mergeCell ref="B2113:B2114"/>
-    <mergeCell ref="B2115:B2116"/>
-    <mergeCell ref="B2118:B2127"/>
-    <mergeCell ref="B2130:B2131"/>
-    <mergeCell ref="B2132:B2135"/>
-    <mergeCell ref="B2136:B2147"/>
-    <mergeCell ref="B2148:B2159"/>
-    <mergeCell ref="A1969:A1978"/>
-    <mergeCell ref="B1969:B1970"/>
-    <mergeCell ref="B1973:B1978"/>
-    <mergeCell ref="A1980:A2159"/>
-    <mergeCell ref="B1980:B2069"/>
-    <mergeCell ref="B2071:B2075"/>
-    <mergeCell ref="B2076:B2079"/>
-    <mergeCell ref="B2080:B2081"/>
-    <mergeCell ref="B2082:B2088"/>
-    <mergeCell ref="B2089:B2107"/>
-    <mergeCell ref="B1729:B1733"/>
-    <mergeCell ref="B1734:B1746"/>
-    <mergeCell ref="B1747:B1754"/>
-    <mergeCell ref="B1755:B1759"/>
-    <mergeCell ref="B1906:B1907"/>
-    <mergeCell ref="B1909:B1910"/>
-    <mergeCell ref="A1911:A1968"/>
-    <mergeCell ref="B1911:B1930"/>
-    <mergeCell ref="B1931:B1939"/>
-    <mergeCell ref="B1940:B1957"/>
-    <mergeCell ref="B1958:B1968"/>
-    <mergeCell ref="A1681:A1910"/>
-    <mergeCell ref="B1681:B1724"/>
-    <mergeCell ref="B1725:B1728"/>
-    <mergeCell ref="B1902:B1905"/>
-    <mergeCell ref="B1760:B1896"/>
-    <mergeCell ref="B1897:B1900"/>
-    <mergeCell ref="A1666:A1680"/>
-    <mergeCell ref="B1667:B1680"/>
-    <mergeCell ref="A1524:A1665"/>
-    <mergeCell ref="B1524:B1548"/>
-    <mergeCell ref="B1549:B1566"/>
-    <mergeCell ref="B1568:B1569"/>
-    <mergeCell ref="B1571:B1573"/>
-    <mergeCell ref="B1574:B1580"/>
-    <mergeCell ref="B1581:B1593"/>
-    <mergeCell ref="B1594:B1607"/>
-    <mergeCell ref="B1608:B1626"/>
-    <mergeCell ref="B1627:B1638"/>
-    <mergeCell ref="B1639:B1650"/>
-    <mergeCell ref="B1651:B1655"/>
-    <mergeCell ref="B1656:B1659"/>
-    <mergeCell ref="B1661:B1662"/>
-    <mergeCell ref="B1663:B1664"/>
-    <mergeCell ref="A1316:A1523"/>
-    <mergeCell ref="B1316:B1317"/>
-    <mergeCell ref="B1318:B1329"/>
-    <mergeCell ref="B1330:B1335"/>
-    <mergeCell ref="B1336:B1380"/>
-    <mergeCell ref="B1381:B1426"/>
-    <mergeCell ref="B1427:B1431"/>
-    <mergeCell ref="B1432:B1499"/>
-    <mergeCell ref="A1237:A1265"/>
-    <mergeCell ref="B1238:B1260"/>
-    <mergeCell ref="B1261:B1263"/>
-    <mergeCell ref="B1264:B1265"/>
-    <mergeCell ref="B1500:B1523"/>
-    <mergeCell ref="A1266:A1315"/>
-    <mergeCell ref="B1266:B1278"/>
-    <mergeCell ref="B1279:B1286"/>
-    <mergeCell ref="B1287:B1298"/>
-    <mergeCell ref="B1299:B1302"/>
-    <mergeCell ref="B1303:B1306"/>
-    <mergeCell ref="B1307:B1315"/>
-    <mergeCell ref="A1061:A1076"/>
-    <mergeCell ref="B1061:B1073"/>
-    <mergeCell ref="A1077:A1236"/>
-    <mergeCell ref="B1077:B1130"/>
-    <mergeCell ref="B1131:B1132"/>
-    <mergeCell ref="B1134:B1143"/>
-    <mergeCell ref="B1145:B1186"/>
-    <mergeCell ref="B1187:B1198"/>
-    <mergeCell ref="B1199:B1204"/>
-    <mergeCell ref="B1205:B1221"/>
-    <mergeCell ref="B1222:B1226"/>
-    <mergeCell ref="B1227:B1232"/>
-    <mergeCell ref="B1234:B1235"/>
-    <mergeCell ref="A1030:A1038"/>
-    <mergeCell ref="B1030:B1038"/>
-    <mergeCell ref="A1040:A1046"/>
-    <mergeCell ref="B1040:B1046"/>
-    <mergeCell ref="A1047:A1054"/>
-    <mergeCell ref="B1047:B1048"/>
-    <mergeCell ref="B1049:B1054"/>
-    <mergeCell ref="A1055:A1060"/>
-    <mergeCell ref="B1055:B1060"/>
-    <mergeCell ref="A959:A968"/>
-    <mergeCell ref="B959:B964"/>
-    <mergeCell ref="B965:B968"/>
-    <mergeCell ref="A969:A992"/>
-    <mergeCell ref="B970:B976"/>
-    <mergeCell ref="B977:B989"/>
-    <mergeCell ref="A993:A1001"/>
-    <mergeCell ref="B993:B1001"/>
-    <mergeCell ref="A1002:A1029"/>
-    <mergeCell ref="B1002:B1029"/>
-    <mergeCell ref="A926:A941"/>
-    <mergeCell ref="B926:B927"/>
-    <mergeCell ref="B929:B934"/>
-    <mergeCell ref="B935:B940"/>
-    <mergeCell ref="A942:A946"/>
-    <mergeCell ref="B942:B946"/>
-    <mergeCell ref="A948:A953"/>
-    <mergeCell ref="B948:B953"/>
-    <mergeCell ref="A955:A958"/>
-    <mergeCell ref="B955:B958"/>
-    <mergeCell ref="A898:A900"/>
-    <mergeCell ref="B899:B900"/>
-    <mergeCell ref="A901:A910"/>
-    <mergeCell ref="B901:B910"/>
-    <mergeCell ref="A911:A920"/>
-    <mergeCell ref="B911:B920"/>
-    <mergeCell ref="A921:A922"/>
-    <mergeCell ref="B921:B922"/>
-    <mergeCell ref="A923:A925"/>
-    <mergeCell ref="B923:B925"/>
-    <mergeCell ref="A837:A842"/>
-    <mergeCell ref="B837:B842"/>
-    <mergeCell ref="A843:A891"/>
-    <mergeCell ref="B843:B853"/>
-    <mergeCell ref="B854:B860"/>
-    <mergeCell ref="B862:B886"/>
-    <mergeCell ref="B887:B890"/>
-    <mergeCell ref="A892:A897"/>
-    <mergeCell ref="B892:B897"/>
-    <mergeCell ref="A768:A770"/>
-    <mergeCell ref="B768:B769"/>
-    <mergeCell ref="A771:A775"/>
-    <mergeCell ref="B771:B775"/>
-    <mergeCell ref="A778:A807"/>
-    <mergeCell ref="B780:B788"/>
-    <mergeCell ref="B790:B807"/>
-    <mergeCell ref="A808:A836"/>
-    <mergeCell ref="B808:B836"/>
-    <mergeCell ref="A696:A708"/>
-    <mergeCell ref="B696:B707"/>
-    <mergeCell ref="A709:A739"/>
-    <mergeCell ref="B710:B713"/>
-    <mergeCell ref="B715:B738"/>
-    <mergeCell ref="A740:A743"/>
-    <mergeCell ref="B740:B742"/>
-    <mergeCell ref="A744:A767"/>
-    <mergeCell ref="B744:B767"/>
-    <mergeCell ref="A661:A666"/>
-    <mergeCell ref="B661:B666"/>
-    <mergeCell ref="A667:A678"/>
-    <mergeCell ref="B667:B678"/>
-    <mergeCell ref="A679:A689"/>
-    <mergeCell ref="B679:B681"/>
-    <mergeCell ref="B682:B687"/>
-    <mergeCell ref="B688:B689"/>
-    <mergeCell ref="A690:A694"/>
-    <mergeCell ref="B690:B694"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="B582:B585"/>
-    <mergeCell ref="A586:A637"/>
-    <mergeCell ref="B586:B618"/>
-    <mergeCell ref="B619:B623"/>
-    <mergeCell ref="B624:B627"/>
-    <mergeCell ref="B628:B632"/>
-    <mergeCell ref="B633:B637"/>
-    <mergeCell ref="A639:A660"/>
-    <mergeCell ref="B640:B660"/>
-    <mergeCell ref="A536:A539"/>
-    <mergeCell ref="B536:B539"/>
-    <mergeCell ref="A540:A544"/>
-    <mergeCell ref="B540:B544"/>
-    <mergeCell ref="A545:A569"/>
-    <mergeCell ref="B545:B569"/>
-    <mergeCell ref="A570:A578"/>
-    <mergeCell ref="B570:B578"/>
-    <mergeCell ref="A580:A581"/>
-    <mergeCell ref="B580:B581"/>
-    <mergeCell ref="A459:A470"/>
-    <mergeCell ref="B459:B470"/>
-    <mergeCell ref="A471:A497"/>
-    <mergeCell ref="B473:B475"/>
-    <mergeCell ref="B476:B496"/>
-    <mergeCell ref="A498:A517"/>
-    <mergeCell ref="B498:B517"/>
-    <mergeCell ref="A518:A535"/>
-    <mergeCell ref="B518:B535"/>
-    <mergeCell ref="A433:A434"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="A435:A442"/>
-    <mergeCell ref="B435:B442"/>
-    <mergeCell ref="A443:A447"/>
-    <mergeCell ref="B443:B444"/>
-    <mergeCell ref="B446:B447"/>
-    <mergeCell ref="A449:A458"/>
-    <mergeCell ref="B449:B458"/>
-    <mergeCell ref="A305:A367"/>
-    <mergeCell ref="B305:B367"/>
-    <mergeCell ref="A368:A372"/>
-    <mergeCell ref="B369:B372"/>
-    <mergeCell ref="A373:A374"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="A377:A404"/>
-    <mergeCell ref="B377:B404"/>
-    <mergeCell ref="A405:A431"/>
-    <mergeCell ref="B405:B410"/>
-    <mergeCell ref="B415:B424"/>
-    <mergeCell ref="B426:B428"/>
-    <mergeCell ref="A274:A278"/>
-    <mergeCell ref="B274:B278"/>
-    <mergeCell ref="A279:A286"/>
-    <mergeCell ref="B279:B283"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="A287:A302"/>
-    <mergeCell ref="B287:B302"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="A238:A240"/>
-    <mergeCell ref="B238:B240"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="B242:B246"/>
-    <mergeCell ref="A247:A259"/>
-    <mergeCell ref="B247:B259"/>
-    <mergeCell ref="A260:A271"/>
-    <mergeCell ref="B260:B271"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="A211:A236"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B220:B226"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="B230:B236"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="A136:A180"/>
-    <mergeCell ref="B136:B166"/>
-    <mergeCell ref="B167:B173"/>
-    <mergeCell ref="B174:B180"/>
-    <mergeCell ref="A181:A186"/>
-    <mergeCell ref="B181:B186"/>
-    <mergeCell ref="A187:A203"/>
-    <mergeCell ref="B187:B203"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="B70:B78"/>
-    <mergeCell ref="A79:A86"/>
-    <mergeCell ref="B79:B86"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A95:A128"/>
-    <mergeCell ref="B95:B128"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B63:B69"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B37:B47"/>
-    <mergeCell ref="A48:A62"/>
-    <mergeCell ref="B49:B62"/>
+    <mergeCell ref="A2993:A3003"/>
+    <mergeCell ref="B2993:B2994"/>
+    <mergeCell ref="B2995:B3003"/>
+    <mergeCell ref="A2805:A2946"/>
+    <mergeCell ref="B2805:B2872"/>
+    <mergeCell ref="B2873:B2875"/>
+    <mergeCell ref="B2876:B2877"/>
+    <mergeCell ref="B2879:B2883"/>
+    <mergeCell ref="B2884:B2886"/>
+    <mergeCell ref="B2887:B2945"/>
+    <mergeCell ref="A2968:A2992"/>
+    <mergeCell ref="B2968:B2992"/>
+    <mergeCell ref="A2947:A2967"/>
+    <mergeCell ref="B2947:B2948"/>
+    <mergeCell ref="B2949:B2966"/>
+    <mergeCell ref="A3004:A3096"/>
+    <mergeCell ref="B3004:B3036"/>
+    <mergeCell ref="B3038:B3039"/>
+    <mergeCell ref="B3041:B3044"/>
+    <mergeCell ref="B3045:B3070"/>
+    <mergeCell ref="B3071:B3072"/>
+    <mergeCell ref="B3074:B3076"/>
+    <mergeCell ref="B3077:B3078"/>
+    <mergeCell ref="B3079:B3095"/>
+    <mergeCell ref="A3097:A3118"/>
+    <mergeCell ref="B3097:B3112"/>
+    <mergeCell ref="B3113:B3116"/>
+    <mergeCell ref="B3117:B3118"/>
+    <mergeCell ref="A3119:A3371"/>
+    <mergeCell ref="B3119:B3131"/>
+    <mergeCell ref="B3132:B3137"/>
+    <mergeCell ref="B3138:B3141"/>
+    <mergeCell ref="B3142:B3144"/>
+    <mergeCell ref="B3145:B3149"/>
+    <mergeCell ref="B3151:B3266"/>
+    <mergeCell ref="B3267:B3268"/>
+    <mergeCell ref="B3269:B3276"/>
+    <mergeCell ref="B3277:B3367"/>
+    <mergeCell ref="B3368:B3369"/>
+    <mergeCell ref="A3373:A3374"/>
+    <mergeCell ref="B3373:B3374"/>
+    <mergeCell ref="A3376:A3383"/>
+    <mergeCell ref="B3376:B3383"/>
+    <mergeCell ref="A3384:A3394"/>
+    <mergeCell ref="B3384:B3394"/>
+    <mergeCell ref="A3395:A3402"/>
+    <mergeCell ref="B3395:B3402"/>
+    <mergeCell ref="A3403:A3410"/>
+    <mergeCell ref="B3404:B3410"/>
+    <mergeCell ref="A3411:A3436"/>
+    <mergeCell ref="B3411:B3436"/>
+    <mergeCell ref="A3437:A3442"/>
+    <mergeCell ref="B3437:B3442"/>
+    <mergeCell ref="A3443:A3448"/>
+    <mergeCell ref="B3443:B3445"/>
+    <mergeCell ref="B3446:B3447"/>
+    <mergeCell ref="A3449:A3468"/>
+    <mergeCell ref="B3449:B3451"/>
+    <mergeCell ref="B3452:B3468"/>
+    <mergeCell ref="A3470:A3471"/>
+    <mergeCell ref="B3470:B3471"/>
+    <mergeCell ref="A3473:A3477"/>
+    <mergeCell ref="B3473:B3477"/>
+    <mergeCell ref="A3478:A3505"/>
+    <mergeCell ref="B3478:B3504"/>
+    <mergeCell ref="A3506:A3514"/>
+    <mergeCell ref="B3506:B3514"/>
+    <mergeCell ref="A3515:A3810"/>
+    <mergeCell ref="B3515:B3527"/>
+    <mergeCell ref="B3528:B3580"/>
+    <mergeCell ref="B3581:B3740"/>
+    <mergeCell ref="B3741:B3746"/>
+    <mergeCell ref="B3747:B3791"/>
+    <mergeCell ref="B3792:B3810"/>
+    <mergeCell ref="A3812:A3822"/>
+    <mergeCell ref="B3812:B3822"/>
+    <mergeCell ref="A3823:A3847"/>
+    <mergeCell ref="B3824:B3826"/>
+    <mergeCell ref="B3827:B3845"/>
+    <mergeCell ref="A3848:A3851"/>
+    <mergeCell ref="B3848:B3850"/>
+    <mergeCell ref="A3852:A3943"/>
+    <mergeCell ref="B3852:B3898"/>
+    <mergeCell ref="B3899:B3900"/>
+    <mergeCell ref="B3901:B3918"/>
+    <mergeCell ref="B3919:B3924"/>
+    <mergeCell ref="B3925:B3929"/>
+    <mergeCell ref="B3930:B3943"/>
+    <mergeCell ref="A3944:A3950"/>
+    <mergeCell ref="B3944:B3950"/>
+    <mergeCell ref="A3951:A3993"/>
+    <mergeCell ref="B3951:B3956"/>
+    <mergeCell ref="B3957:B3969"/>
+    <mergeCell ref="B3970:B3981"/>
+    <mergeCell ref="B3982:B3992"/>
+    <mergeCell ref="A3994:A4002"/>
+    <mergeCell ref="B3994:B4002"/>
+    <mergeCell ref="A4005:A4008"/>
+    <mergeCell ref="B4005:B4008"/>
+    <mergeCell ref="A4010:A4016"/>
+    <mergeCell ref="B4010:B4016"/>
+    <mergeCell ref="A4054:A4060"/>
+    <mergeCell ref="B4054:B4060"/>
+    <mergeCell ref="A4061:A4062"/>
+    <mergeCell ref="B4061:B4062"/>
+    <mergeCell ref="A4017:A4036"/>
+    <mergeCell ref="B4017:B4036"/>
+    <mergeCell ref="A4037:A4053"/>
+    <mergeCell ref="B4037:B4046"/>
+    <mergeCell ref="B4047:B4048"/>
+    <mergeCell ref="B4049:B4053"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1386">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4561,6 +4561,12 @@
   </si>
   <si>
     <t>Other Chronic Conditions</t>
+  </si>
+  <si>
+    <t>Other Injury</t>
+  </si>
+  <si>
+    <t>DON'T WANT A SEPARATE LINE FOR THIS…</t>
   </si>
 </sst>
 </file>
@@ -4718,7 +4724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4788,6 +4794,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4921,7 +4933,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5275,6 +5287,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5607,13 +5628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD227"/>
+  <dimension ref="A1:AD228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C221" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A236" sqref="A236"/>
+      <selection pane="bottomRight" activeCell="D221" sqref="D221:I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12902,7 +12923,7 @@
       </c>
       <c r="AD109" s="2"/>
     </row>
-    <row r="110" spans="1:30" ht="229.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A110" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -20183,19 +20204,24 @@
     <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="55" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="D221" s="113" t="s">
+        <v xml:space="preserve">  E.   99. Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</v>
+      </c>
+      <c r="D221" s="123" t="s">
         <v>1145</v>
       </c>
-      <c r="E221" s="114" t="s">
+      <c r="E221" s="124" t="s">
         <v>1316</v>
       </c>
-      <c r="H221" s="27" t="str">
+      <c r="F221" s="123"/>
+      <c r="G221" s="123"/>
+      <c r="H221" s="125" t="str">
         <f t="shared" si="20"/>
         <v>cE99</v>
       </c>
-      <c r="I221" s="27"/>
+      <c r="I221" s="125" t="str">
+        <f>CONCATENATE(D221,E221,F221)</f>
+        <v>E99</v>
+      </c>
       <c r="K221" s="85" t="s">
         <v>1307</v>
       </c>
@@ -20213,6 +20239,9 @@
       </c>
       <c r="Z221" s="85" t="s">
         <v>1301</v>
+      </c>
+      <c r="AD221" s="55" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="222" spans="1:30" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20365,6 +20394,11 @@
       </c>
       <c r="Z227" s="85" t="s">
         <v>1383</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z228" s="85" t="s">
+        <v>1384</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.CBD\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10935"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AD$220</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V126" authorId="2">
+    <comment ref="V126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1386">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4572,7 +4577,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5384,7 +5389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5419,7 +5424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5631,10 +5636,10 @@
   <dimension ref="A1:AD228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D221" sqref="D221:I221"/>
+      <selection pane="bottomRight" activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10498,7 +10503,7 @@
       </c>
       <c r="AD75" s="35"/>
     </row>
-    <row r="76" spans="1:30" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  B. Malignant neoplasms</v>
@@ -17533,7 +17538,7 @@
       </c>
       <c r="AD180" s="2"/>
     </row>
-    <row r="181" spans="1:30" ht="51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A181" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -19929,12 +19934,8 @@
       <c r="C217" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E217" s="121" t="s">
-        <v>952</v>
-      </c>
+      <c r="D217" s="1"/>
+      <c r="E217" s="121"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="27"/>
@@ -20151,12 +20152,14 @@
       <c r="D220" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="E220" s="48"/>
+      <c r="E220" s="48" t="s">
+        <v>1316</v>
+      </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>cE</v>
+        <v>cE99</v>
       </c>
       <c r="I220" s="27"/>
       <c r="J220" s="66"/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10935"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AA$220</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S126" authorId="2">
+    <comment ref="S126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1392">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4516,11 +4521,14 @@
   <si>
     <t>Cancer/Malignant neoplasms</t>
   </si>
+  <si>
+    <t>Test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5290,7 +5298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5325,7 +5333,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5534,13 +5542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA227"/>
+  <dimension ref="A1:AB227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="V217" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A202" sqref="A202"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5575,7 +5583,7 @@
     <col min="28" max="16384" width="8.85546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>1162</v>
       </c>
@@ -5655,8 +5663,11 @@
       <c r="AA1" s="10" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB1" s="55" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="str">
         <f>Y2</f>
         <v>All CAUSES</v>
@@ -5705,7 +5716,7 @@
       </c>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:27" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),W3),"")</f>
         <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
@@ -5762,7 +5773,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
@@ -5807,7 +5818,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5861,7 +5872,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   01. Tuberculosis</v>
@@ -5927,7 +5938,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
@@ -5972,7 +5983,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
@@ -6039,7 +6050,7 @@
       </c>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6104,7 +6115,7 @@
       </c>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6169,7 +6180,7 @@
       </c>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6234,7 +6245,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6297,7 +6308,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6362,7 +6373,7 @@
       </c>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
@@ -6429,7 +6440,7 @@
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6490,7 +6501,7 @@
       </c>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10935"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AA$220</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +30,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S126" authorId="2" shapeId="0">
+    <comment ref="S126" authorId="2">
       <text>
         <r>
           <rPr>
@@ -112,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="1393">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4524,11 +4519,14 @@
   <si>
     <t>Test</t>
   </si>
+  <si>
+    <t>more test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5298,7 +5296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5333,7 +5331,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5542,13 +5540,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB227"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5583,7 +5581,7 @@
     <col min="28" max="16384" width="8.85546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>1162</v>
       </c>
@@ -5666,8 +5664,11 @@
       <c r="AB1" s="55" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="55" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="str">
         <f>Y2</f>
         <v>All CAUSES</v>
@@ -5716,7 +5717,7 @@
       </c>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:28" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),W3),"")</f>
         <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
@@ -5773,7 +5774,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
@@ -5818,7 +5819,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5872,7 +5873,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   01. Tuberculosis</v>
@@ -5938,7 +5939,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
@@ -5983,7 +5984,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
@@ -6050,7 +6051,7 @@
       </c>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6115,7 +6116,7 @@
       </c>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6180,7 +6181,7 @@
       </c>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6245,7 +6246,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6308,7 +6309,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6373,7 +6374,7 @@
       </c>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
@@ -6440,7 +6441,7 @@
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6501,7 +6502,7 @@
       </c>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10935"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AA$220</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +35,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S126" authorId="2">
+    <comment ref="S126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2834" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1394">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4522,11 +4527,14 @@
   <si>
     <t>more test</t>
   </si>
+  <si>
+    <t>uno mas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5296,7 +5304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5331,7 +5339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5540,13 +5548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AD227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC1" sqref="AC1"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5581,7 +5589,7 @@
     <col min="28" max="16384" width="8.85546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>1162</v>
       </c>
@@ -5667,8 +5675,11 @@
       <c r="AC1" s="55" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1" s="55" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="str">
         <f>Y2</f>
         <v>All CAUSES</v>
@@ -5717,7 +5728,7 @@
       </c>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:29" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),W3),"")</f>
         <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
@@ -5774,7 +5785,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
@@ -5819,7 +5830,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5873,7 +5884,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   01. Tuberculosis</v>
@@ -5939,7 +5950,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
@@ -5984,7 +5995,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
@@ -6051,7 +6062,7 @@
       </c>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6116,7 +6127,7 @@
       </c>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6181,7 +6192,7 @@
       </c>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6246,7 +6257,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6309,7 +6320,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6374,7 +6385,7 @@
       </c>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
@@ -6441,7 +6452,7 @@
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6502,7 +6513,7 @@
       </c>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1391">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4520,15 +4520,6 @@
   </si>
   <si>
     <t>Cancer/Malignant neoplasms</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>more test</t>
-  </si>
-  <si>
-    <t>uno mas</t>
   </si>
 </sst>
 </file>
@@ -5548,13 +5539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD227"/>
+  <dimension ref="A1:AA227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="8" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5589,7 +5580,7 @@
     <col min="28" max="16384" width="8.85546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>1162</v>
       </c>
@@ -5669,17 +5660,8 @@
       <c r="AA1" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="AB1" s="55" t="s">
-        <v>1391</v>
-      </c>
-      <c r="AC1" s="55" t="s">
-        <v>1392</v>
-      </c>
-      <c r="AD1" s="55" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="str">
         <f>Y2</f>
         <v>All CAUSES</v>
@@ -5728,7 +5710,7 @@
       </c>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),W3),"")</f>
         <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
@@ -5785,7 +5767,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
@@ -5830,7 +5812,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5884,7 +5866,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   01. Tuberculosis</v>
@@ -5950,7 +5932,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
@@ -5995,7 +5977,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
@@ -6062,7 +6044,7 @@
       </c>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6127,7 +6109,7 @@
       </c>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6192,7 +6174,7 @@
       </c>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6257,7 +6239,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6320,7 +6302,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6385,7 +6367,7 @@
       </c>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
@@ -6452,7 +6434,7 @@
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6513,7 +6495,7 @@
       </c>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.CBD\myCBD\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1391">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4253,15 +4253,6 @@
   </si>
   <si>
     <t>Z</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Missing ICD10</t>
@@ -5203,10 +5194,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
@@ -5216,6 +5203,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5550,11 +5541,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="I134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5615,17 +5606,17 @@
       <c r="I1" s="84" t="s">
         <v>1124</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="108" t="s">
         <v>1176</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>1271</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>1253</v>
@@ -5670,13 +5661,13 @@
         <v>930</v>
       </c>
       <c r="AB1" s="55" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="AC1" s="55" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="AD1" s="55" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -6606,7 +6597,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="N17" s="66" t="s">
         <v>1255</v>
@@ -8669,17 +8660,17 @@
       <c r="I51" s="27"/>
       <c r="J51" s="1"/>
       <c r="K51" s="9" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="L51" s="9" t="s">
         <v>1258</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="N51" s="66"/>
       <c r="O51" s="9" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="P51" s="9" t="s">
         <v>1256</v>
@@ -9822,7 +9813,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="N69" s="66"/>
       <c r="O69" s="9" t="s">
@@ -10259,7 +10250,7 @@
         <v>558</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="X76" s="78" t="s">
         <v>51</v>
@@ -10306,10 +10297,10 @@
       <c r="N77" s="66"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="Q77" s="61" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="R77" s="9" t="s">
         <v>425</v>
@@ -10360,7 +10351,7 @@
       <c r="I78" s="27"/>
       <c r="J78" s="1"/>
       <c r="K78" s="65" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="L78" s="63" t="s">
         <v>1168</v>
@@ -10373,10 +10364,10 @@
         <v>952</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="Q78" s="60" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>967</v>
@@ -10711,12 +10702,12 @@
       <c r="L83" s="63" t="s">
         <v>1168</v>
       </c>
-      <c r="M83" s="112" t="s">
-        <v>1370</v>
+      <c r="M83" s="110" t="s">
+        <v>1367</v>
       </c>
       <c r="N83" s="66"/>
       <c r="O83" s="9" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="P83" s="9" t="s">
         <v>1307</v>
@@ -11055,7 +11046,7 @@
       <c r="I88" s="27"/>
       <c r="J88" s="1"/>
       <c r="K88" s="65" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="L88" s="63" t="s">
         <v>1168</v>
@@ -11064,10 +11055,10 @@
       <c r="N88" s="66"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="Q88" s="61" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="R88" s="9" t="s">
         <v>773</v>
@@ -11122,7 +11113,7 @@
       <c r="I89" s="27"/>
       <c r="J89" s="1"/>
       <c r="K89" s="65" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="L89" s="63" t="s">
         <v>1168</v>
@@ -11131,10 +11122,10 @@
       <c r="N89" s="66"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="Q89" s="61" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="R89" s="9" t="s">
         <v>774</v>
@@ -11240,7 +11231,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="52" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1141</v>
@@ -11270,11 +11261,11 @@
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="X91" s="78"/>
       <c r="Y91" s="9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="Z91" s="15"/>
       <c r="AA91" s="2"/>
@@ -11372,23 +11363,23 @@
       <c r="I93" s="27"/>
       <c r="J93" s="1"/>
       <c r="K93" s="9" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="L93" s="63" t="s">
         <v>1168</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="N93" s="66"/>
       <c r="O93" s="9" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="P93" s="9" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="Q93" s="61" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="R93" s="9" t="s">
         <v>435</v>
@@ -11722,7 +11713,7 @@
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="9" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="L98" s="63" t="s">
         <v>1168</v>
@@ -11731,10 +11722,10 @@
       <c r="N98" s="66"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="Q98" s="61" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>438</v>
@@ -12456,13 +12447,13 @@
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="9" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="L109" s="9" t="s">
         <v>1168</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="N109" s="66" t="s">
         <v>1169</v>
@@ -12527,13 +12518,13 @@
       </c>
       <c r="N110" s="66"/>
       <c r="O110" s="9" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="P110" s="9" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="R110" s="9" t="s">
         <v>441</v>
@@ -12591,7 +12582,7 @@
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="9" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="L111" s="9" t="s">
         <v>1168</v>
@@ -12600,10 +12591,10 @@
       <c r="N111" s="66"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="Q111" s="61" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="R111" s="9" t="s">
         <v>975</v>
@@ -12662,7 +12653,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="N112" s="66"/>
       <c r="O112" s="9" t="s">
@@ -13464,13 +13455,13 @@
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="9" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="L126" s="9" t="s">
         <v>1263</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="N126" s="66"/>
       <c r="O126" s="9" t="s">
@@ -13480,13 +13471,13 @@
         <v>1240</v>
       </c>
       <c r="Q126" s="60" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="R126" s="9" t="s">
         <v>1178</v>
       </c>
       <c r="S126" s="60" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="T126" s="59"/>
       <c r="U126" s="9" t="s">
@@ -13796,7 +13787,7 @@
       <c r="J131" s="1"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="N131" s="66"/>
       <c r="O131" s="9" t="s">
@@ -14838,8 +14829,8 @@
       <c r="L148" s="65" t="s">
         <v>1168</v>
       </c>
-      <c r="M148" s="111" t="s">
-        <v>1359</v>
+      <c r="M148" s="109" t="s">
+        <v>1356</v>
       </c>
       <c r="N148" s="92" t="s">
         <v>1222</v>
@@ -14851,7 +14842,7 @@
         <v>1216</v>
       </c>
       <c r="Q148" s="107" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="R148" s="9" t="s">
         <v>454</v>
@@ -15202,17 +15193,17 @@
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="N154" s="66"/>
       <c r="O154" s="9" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="P154" s="9" t="s">
         <v>460</v>
       </c>
       <c r="Q154" s="61" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="R154" s="9" t="s">
         <v>460</v>
@@ -16234,7 +16225,7 @@
         <v>1168</v>
       </c>
       <c r="M170" s="9" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="N170" s="94" t="s">
         <v>1170</v>
@@ -16689,7 +16680,7 @@
       </c>
       <c r="N177" s="95"/>
       <c r="O177" s="93" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="P177" s="9" t="s">
         <v>1220</v>
@@ -17744,7 +17735,7 @@
         <v>1258</v>
       </c>
       <c r="M194" s="93" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="N194" s="94"/>
       <c r="O194" s="93"/>
@@ -19076,7 +19067,7 @@
         <v>1168</v>
       </c>
       <c r="M215" s="93" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="N215" s="94" t="s">
         <v>1171</v>
@@ -19143,26 +19134,26 @@
         <v>E01x</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="M216" s="9" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="N216" s="66"/>
       <c r="O216" s="9" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="P216" s="9" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="Q216" s="61" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="R216" s="9" t="s">
         <v>996</v>
@@ -19252,7 +19243,7 @@
     <row r="218" spans="1:27" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   02.  a. Suicide/Self-harm</v>
+        <v xml:space="preserve">  E.   02. Suicide/Self-harm</v>
       </c>
       <c r="B218" s="2">
         <v>208</v>
@@ -19266,17 +19257,15 @@
       <c r="E218" s="48" t="s">
         <v>1147</v>
       </c>
-      <c r="F218" s="1" t="s">
-        <v>1126</v>
-      </c>
+      <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="27" t="str">
         <f t="shared" ref="H218:H223" si="20">CONCATENATE("c",D218,E218,F218)</f>
-        <v>cE02a</v>
+        <v>cE02</v>
       </c>
       <c r="I218" s="27" t="str">
         <f>CONCATENATE(D218,E218,F218)</f>
-        <v>E02a</v>
+        <v>E02</v>
       </c>
       <c r="J218" s="1"/>
       <c r="K218" s="9" t="s">
@@ -19310,7 +19299,7 @@
         <v>999</v>
       </c>
       <c r="W218" s="9" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="X218" s="78" t="s">
         <v>140</v>
@@ -19326,7 +19315,7 @@
     <row r="219" spans="1:27" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   03.  b. Homicide/Interpersonal violence</v>
+        <v xml:space="preserve">  E.   03. Homicide/Interpersonal violence</v>
       </c>
       <c r="B219" s="2">
         <v>209</v>
@@ -19340,17 +19329,15 @@
       <c r="E219" s="48" t="s">
         <v>1148</v>
       </c>
-      <c r="F219" s="1" t="s">
-        <v>1127</v>
-      </c>
+      <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>cE03b</v>
+        <v>cE03</v>
       </c>
       <c r="I219" s="27" t="str">
         <f>CONCATENATE(D219,E219,F219)</f>
-        <v>E03b</v>
+        <v>E03</v>
       </c>
       <c r="J219" s="1"/>
       <c r="K219" s="9" t="s">
@@ -19360,7 +19347,7 @@
         <v>1230</v>
       </c>
       <c r="M219" s="9" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="N219" s="66"/>
       <c r="O219" s="9" t="s">
@@ -19386,7 +19373,7 @@
         <v>998</v>
       </c>
       <c r="W219" s="9" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="X219" s="78" t="s">
         <v>141</v>
@@ -19425,13 +19412,13 @@
         <v>1298</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="L220" s="9" t="s">
         <v>1296</v>
       </c>
       <c r="M220" s="9" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="N220" s="66"/>
       <c r="O220" s="9" t="s">
@@ -19467,41 +19454,41 @@
       <c r="AA220" s="2"/>
     </row>
     <row r="221" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="108" t="str">
+      <c r="A221" s="112" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="D221" s="99" t="s">
         <v>1145</v>
       </c>
-      <c r="E221" s="100" t="s">
-        <v>1246</v>
+      <c r="E221" s="111" t="s">
+        <v>1146</v>
       </c>
       <c r="H221" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>cE99</v>
-      </c>
-      <c r="I221" s="109"/>
+        <v>cE01</v>
+      </c>
+      <c r="I221" s="27"/>
       <c r="J221" s="75" t="s">
         <v>1239</v>
       </c>
       <c r="K221" s="75" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="L221" s="64" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="M221" s="70" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="O221" s="70" t="s">
         <v>1304</v>
       </c>
       <c r="P221" s="70" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="Q221" s="70" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="W221" s="75" t="s">
         <v>1239</v>
@@ -19510,21 +19497,21 @@
     <row r="222" spans="1:27" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  Z.   1. Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
+        <v xml:space="preserve">  Z.   01. Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D222" s="99" t="s">
         <v>1309</v>
       </c>
       <c r="E222" s="100" t="s">
-        <v>1310</v>
+        <v>1146</v>
       </c>
       <c r="H222" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>cZ1</v>
+        <v>cZ01</v>
       </c>
       <c r="I222" s="27" t="str">
         <f>CONCATENATE(D222,E222,F222)</f>
-        <v>Z1</v>
+        <v>Z01</v>
       </c>
       <c r="J222" s="75" t="s">
         <v>1245</v>
@@ -19536,7 +19523,7 @@
         <v>1243</v>
       </c>
       <c r="M222" s="70" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="O222" s="102" t="s">
         <v>1241</v>
@@ -19545,7 +19532,7 @@
         <v>1244</v>
       </c>
       <c r="Q222" s="70" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="W222" s="75" t="s">
         <v>1245</v>
@@ -19580,7 +19567,7 @@
         <v>1243</v>
       </c>
       <c r="M223" s="70" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="O223" s="70" t="s">
         <v>1297</v>
@@ -19598,45 +19585,45 @@
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  Z.   2. Missing ICD10</v>
+        <v xml:space="preserve">  Z.   02. Missing ICD10</v>
       </c>
       <c r="D224" s="99" t="s">
         <v>1309</v>
       </c>
       <c r="E224" s="100" t="s">
-        <v>1311</v>
+        <v>1147</v>
       </c>
       <c r="I224" s="27" t="str">
         <f t="shared" ref="I224:I227" si="21">CONCATENATE(D224,E224,F224)</f>
-        <v>Z2</v>
+        <v>Z02</v>
       </c>
       <c r="W224" s="75" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="225" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A225" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  Z.   3. Code does not map</v>
+        <v xml:space="preserve">  Z.   03. Code does not map</v>
       </c>
       <c r="D225" s="99" t="s">
         <v>1309</v>
       </c>
       <c r="E225" s="100" t="s">
-        <v>1312</v>
+        <v>1148</v>
       </c>
       <c r="I225" s="27" t="str">
         <f t="shared" si="21"/>
-        <v>Z3</v>
+        <v>Z03</v>
       </c>
       <c r="K225" s="70" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="M225" s="70" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="W225" s="75" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
@@ -19652,7 +19639,7 @@
         <v>Z</v>
       </c>
       <c r="W226" s="75" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
@@ -19671,7 +19658,7 @@
         <v>D99</v>
       </c>
       <c r="W227" s="75" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1391">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -5203,10 +5203,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5542,16 +5542,16 @@
   <dimension ref="A1:AD227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E74" sqref="E74"/>
+      <selection pane="bottomRight" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" style="55" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="99" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" style="100" customWidth="1"/>
@@ -19454,19 +19454,16 @@
       <c r="AA220" s="2"/>
     </row>
     <row r="221" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="112" t="str">
+      <c r="A221" s="111" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="D221" s="99" t="s">
+      <c r="D221" s="112" t="s">
         <v>1145</v>
-      </c>
-      <c r="E221" s="111" t="s">
-        <v>1146</v>
       </c>
       <c r="H221" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>cE01</v>
+        <v>cE</v>
       </c>
       <c r="I221" s="27"/>
       <c r="J221" s="75" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.CBD\myCBD\myInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10935"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AA$220</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +30,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -83,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S126" authorId="2" shapeId="0">
+    <comment ref="S126" authorId="2">
       <text>
         <r>
           <rPr>
@@ -4525,7 +4520,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5295,7 +5290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5330,7 +5325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5542,10 +5537,10 @@
   <dimension ref="A1:AD227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A221" sqref="A221"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11178,7 +11173,7 @@
         <v>cB09</v>
       </c>
       <c r="I90" s="27" t="str">
-        <f t="shared" ref="I90:I104" si="8">CONCATENATE(D90,E90,F90)</f>
+        <f t="shared" ref="I90:I105" si="8">CONCATENATE(D90,E90,F90)</f>
         <v>B09</v>
       </c>
       <c r="J90" s="1"/>
@@ -12154,7 +12149,7 @@
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v xml:space="preserve">  B.   16.  a. Hodgkin lymphoma</v>
       </c>
       <c r="B105" s="2">
         <v>98</v>
@@ -12176,7 +12171,10 @@
         <f t="shared" ref="H105:H111" si="9">CONCATENATE("c",D105,E105,F105)</f>
         <v>cB16a</v>
       </c>
-      <c r="I105" s="27"/>
+      <c r="I105" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>B16a</v>
+      </c>
       <c r="J105" s="1"/>
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AA$220</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1344">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3658,111 +3658,7 @@
     <t>11</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">D55-D64 (minus D64.9), D65-D89, E03-E07, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E15-E34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, E65-E88</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>D5[5-9]|D6[0-3,5-9]|D64[0-8]|D7|D8|E0[3-7]|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E1[5-9]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E3[0-4]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|E6[5-9]|E7|E8[0-8]</t>
-    </r>
-  </si>
-  <si>
-    <t>D075, 291, 400</t>
-  </si>
-  <si>
-    <t>D292,401,407</t>
-  </si>
-  <si>
     <t>IHME</t>
-  </si>
-  <si>
-    <t>"Benign" means a tumor that doesn’t metastasize. Instead it only expands locally. It's a general medical term and shouldn’t be viewed only in the context of Cause of Death.</t>
-  </si>
-  <si>
-    <t>Can't assume cirrhosis automatically is from alcohol. Hepatitis is a big cause, some others like autoimmune or hereditary diseases.</t>
-  </si>
-  <si>
-    <t>Not sure about this given what happened in Puerto Rico</t>
   </si>
   <si>
     <t>ICD10-WHO</t>
@@ -3925,12 +3821,6 @@
   </si>
   <si>
     <t>K2[0-2,8]|K3[0-1,8]|K4[0-6]|K5[5,7,9]|K589|K6[0-6]|K71[0-2,6,8-9]|K720|K9[0-2]</t>
-  </si>
-  <si>
-    <t>Transient ischemic attacks are not strokes. They’re a step down from strokes with no lasting damage, so they shouldn’t be put in the same category as stroke. Should go under “Other Cardiovascular Diseases” because same underlying causes (hypertension, arterial plaques, etc) as stroke and is often a precursor to stroke. Like with stroke, the neurological effects is because the blood supply got shut off to the neurons so the root cause is vascular, not neuronal.</t>
-  </si>
-  <si>
-    <t>Add D27, D391</t>
   </si>
   <si>
     <t>C56, D27, 391</t>
@@ -3998,18 +3888,12 @@
     <t>P0[0-2,8]|P04[1-2,5-9]|P[5-8]|P9[0-6]</t>
   </si>
   <si>
-    <t>Corrected regEx, must be why some E codes came up missing (I assume, since they were included with R and Y codes Michael asked me to look at)</t>
-  </si>
-  <si>
     <t>Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</t>
   </si>
   <si>
     <t>F10, G721, P043, Q860, X45, Y15, Y91</t>
   </si>
   <si>
-    <t>WHO 2017, p.28: Deaths coded to “Symptoms, signs and ill-defined conditions” (R00-R94. R96-R99) are distributed proportionately to all causes within Group I and Group II (communicable etc. and non-communicable).</t>
-  </si>
-  <si>
     <t>Subtracting R739 per IHME</t>
   </si>
   <si>
@@ -4046,12 +3930,6 @@
     <t>Scott</t>
   </si>
   <si>
-    <t xml:space="preserve">Decided to keep A02 and A05 (botulism, salmonella unspecified (not necessarily diarrhea)) as WHO did in "other infectious...' for now rather than change diarrhea" to something like "Foodborne and diarrheal diseases."  IHME labeled something like "diarrhea_foodborne" but looks like they meant either/or rather than necessarily diarrhea, and if most botulism in CA is from heroine, it still wouldn't fit there anyway. </t>
-  </si>
-  <si>
-    <t>Botulism isn't really a diarrheal disease. It's a foodborne illness with neural paralysis as the main effect. (Regarding salmonella:) Should the category be foodborne illness rather than diarrheal disease? It's really a constellation of symptoms (diarrhea but sometimes constipation, nausea, vomiting, bloody stool, fever, rash, neuro symptoms, etc)</t>
-  </si>
-  <si>
     <t>A02, A05, A20-A28, A31, A32, A38, A40-A49, A65-A70, A74-A79, A80-A81, A87-A89, A92-A99, B00-B04, B06-B09, B17.8, B25-B49, B58-B60, B64, B66, B68, B70-B72, B74.3-B74.9, B75, B82-B89, B91-B99 (minus B94.1), G14, M725-726</t>
   </si>
   <si>
@@ -4061,79 +3939,19 @@
     <t>IHME/CCB</t>
   </si>
   <si>
-    <t>Add I271 from other cardiovascular diseases per IHME. Move M725-M726 per IHME ("skin_cellulitis"), to other infectious diseases per Dave (rationale above).</t>
-  </si>
-  <si>
-    <t>"Other drug use disorders" I suppose if have to specify, but I could look more into this. Could also ask SME, if vast majority were cocaine for example, then we could consider moving there or better yet, assign proportionally if we had that info.</t>
-  </si>
-  <si>
-    <t>Move P043 to alcohol and P044 to drug use disorders.</t>
-  </si>
-  <si>
-    <t>Yes. 3october: New ICD and regEx columns were blank so I copied from the old (WHO) ones.</t>
-  </si>
-  <si>
     <t>IHME / CCB</t>
   </si>
   <si>
-    <t xml:space="preserve">See E, R and Y code analysis worksheet. Y91, "Evidence of alcohol involvement determined by level of intoxication" (as opposed to BAC),  was called a garbage code by IHME but since we don't have those it seems best here (I do not see Y91 in WHO 2017). This was among codes requested by Michael, which I thought meant we had deaths but no mapping for them, but I don't see any deaths for Y91 in the "icdwork" file.  </t>
-  </si>
-  <si>
     <t>Added P044</t>
   </si>
   <si>
-    <t>Guess it doesn't matter yet since doesn't have "label" but as discussed these might be better in "other drug use disorders." IHME has them under cannabis but from what I could tell online they seem to be from proportionate reassignment of people with multiple drugs in their system at death. WHO 2017 p.29: "...deaths coded to multiple and other drug use...have been redistributed to the GHE drug categories as described in Section 8.14." I could see ascribing DALY's to cannabis, but deaths? While death from cannabis alone seems impossible, maybe they're thinking cannabis could have led people to drink or use other drugs to the point of overdose?</t>
-  </si>
-  <si>
     <t>F1[3,6,8,9]|P044|X41</t>
   </si>
   <si>
     <t>Better as "Other or unspecified…?"</t>
   </si>
   <si>
-    <t xml:space="preserve">Still think stroke might be better than "other CVD" in this case where these codes were listed as underlying causes of death. Discussed with Scott that mapping for fatal conditions would be different than non-fatal. Checked IHME use of this label and they appear to be mostly for real strokes. I would go with them as the experts in how to categorize these codes for DEATHS, unless we have compelling reasons to do otherwise. To Scott's point, if these codes were "allowed" to be non-fatal we would map them differently. This issue of valid but non-fatal codes erroneously being listed as causes of death is a major source of "garbage codes." </t>
-  </si>
-  <si>
     <t xml:space="preserve">Move I271 to Other MSK, I850, I859 to Cirrhosis. </t>
-  </si>
-  <si>
-    <t>Changes from WHO 2017 (additions unless otherwise noted; (Mostly ICD codes from "ICD_3.8M" pivot table only; list will grow as we look at code definitions (e.g. ranges of codes))</t>
-  </si>
-  <si>
-    <t>Add D069, D260</t>
-  </si>
-  <si>
-    <t>Add D106</t>
-  </si>
-  <si>
-    <t>Add D001, 130</t>
-  </si>
-  <si>
-    <t>Add D002,131,371</t>
-  </si>
-  <si>
-    <t>Add D134</t>
-  </si>
-  <si>
-    <t>Add D136-7</t>
-  </si>
-  <si>
-    <t>Add D022,142-3, 381</t>
-  </si>
-  <si>
-    <t>Add D059, 24, 486</t>
-  </si>
-  <si>
-    <t>Add D320-21, 329-34, 339, 420-21, 429-34, 439</t>
-  </si>
-  <si>
-    <t>Add D135</t>
-  </si>
-  <si>
-    <t>Add D020,141,380</t>
-  </si>
-  <si>
-    <t>Add D34,440</t>
   </si>
   <si>
     <r>
@@ -4178,42 +3996,18 @@
     </r>
   </si>
   <si>
-    <t>Add D300,410-1,  move C66 TO other cancers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO 2017 p. 29: For cirrhosis due to hep B, C and alcohol, proportions derived from GBD2013. Could also discuss with Scott etc. adding other codes like K720, acute and subacute hepatic failure, assigned to garbage code by IHME.  </t>
-  </si>
-  <si>
     <t>Sudden Infant Death Syndrome</t>
   </si>
   <si>
-    <t>Adding R95 as it's own new row</t>
-  </si>
-  <si>
-    <t>Think we're going with IHME, non-disaster, but doesn't matter anyway in this version of CBD since both disaster and non-disaster roll up to other unintentional. IHME changed ~90% of WHO's "natural disaster" deaths to "non disaster." In 100K sample half seemed related to something like heat stroke, half hypothermia: "exposure to excessive natural heat, exposure to excessive natural cold." The number of deaths attributed to radon (probably naturally occuring over many years, seeping up from ground) is miniscule but ideally would have a more specific home than "other unintentional injuries." However that definitely seems better than natural disasters.</t>
-  </si>
-  <si>
-    <t>Add U031, U039 (terrorism)</t>
-  </si>
-  <si>
     <t>Add V050-V98 from other unintentional</t>
   </si>
   <si>
-    <t>From other ICD codes it looks like this should NOT include heat stroke deaths assigned by WHO to "natural disasters." (IHME moved those to "non-disaster" along with hypothermia etc.)</t>
-  </si>
-  <si>
     <t>Move X30-32, X39 to other unintentional injuries</t>
   </si>
   <si>
-    <t>Add U031, U039 (terrorism) from where? Only other U code I can find in this sheet appears to be U04; others can't be hidden within T-V since V is in its own category. Michael seemed to think WHO should have been mapped but fortunately rare enough doesn't matter much for now.</t>
-  </si>
-  <si>
     <t>IHME, CDPH programs</t>
   </si>
   <si>
-    <t xml:space="preserve">Why wasn't this mapped before if that was based on WHO 2017? It is in non-communicable roll-up in this sheet but the subcategory didn't seem to be here. On their main table (p. 28), they have as it's own category, letter P, under non-communicable. The only other occurence of "sudden infant death" in WHO 2017 is on p. 2, saying it's a new cause of death category. This seems to make sense, doesn't fit under neo-or perinatal, because both of these periods end when the baby is about one month old, while SIDS is most common during months 2-4. </t>
-  </si>
-  <si>
     <t>Change name to something like "War and Legal Executions" or "War and Capital Punishment" based on CDPH changes?</t>
   </si>
   <si>
@@ -4223,24 +4017,9 @@
     <t>Y355, Y358-Y359, Y36, Y891</t>
   </si>
   <si>
-    <t xml:space="preserve">Add Y350-4, 356-7, 890 (officer-involved shootings etc. from war/legal interventions to homicides) and U010-U019, U02 (terrorism) per CDPH. See 4oct2018 email regarding recommendation to add Y358-9 (other and unspecified officer-involved deaths) to be consistent with CDPH-recommended for legal interventions. </t>
-  </si>
-  <si>
-    <t>See 4oct2018 email regarding recommendation to add Y358-9 (other and unspecified officer-involved deaths) to be consistent with CDPH-recommended for legal interventions. Eventually could be good to separate officer killings from other homicides as well. See notes above for U codes (terrorism)</t>
-  </si>
-  <si>
-    <t>No deaths in 3.8M pivot table but should probably add Y37 (military operations...--&gt; IHME inj_war_war). Y38 (inj_war_terrrorism) would go under suicide or homicide to be consistent with other CDPH recommendations for terrorism (U codes).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO 2017, p.29 "injury deaths where the intent is not determined (Y10-34, 872) are distributed proportionately to all causes below the group level for injuries." </t>
-  </si>
-  <si>
     <t>U01[0-9]|U02|X8[5-9]|X9|Y0|Y35[0-4,6-7]|Y871|Y890</t>
   </si>
   <si>
-    <t>Add D010-013,120-122, 125-126, 128-9, 373-5</t>
-  </si>
-  <si>
     <t>C18-C21, D010-D013, D120-D122, D125-D126, D128-D129, D373-D375</t>
   </si>
   <si>
@@ -4259,42 +4038,27 @@
     <t>Missing/Unknown</t>
   </si>
   <si>
-    <t>Add D03,221,229,232,234-7, 239,485</t>
-  </si>
-  <si>
     <t>C43, D03, D221, D229, D232, D234-D237, D239, D485</t>
   </si>
   <si>
     <t>C43|D03|D221|D229|D232|D23[4-7]|D239|D485</t>
   </si>
   <si>
-    <t>Add D04</t>
-  </si>
-  <si>
     <t>C44, D04</t>
   </si>
   <si>
     <t>C44|D04</t>
   </si>
   <si>
-    <t>Might want to check on D070-2, endometrium/vulva/vagina (IHME uterine cancer). Add D259, 261, and 269 (IHME gyne_fibroids) to corpus rather than cervix based on gyne_fibroids associated with "Other benign neoplasm of corpus uteri"</t>
-  </si>
-  <si>
     <t>C54-C55, D070-D072, D259, D261, D269</t>
   </si>
   <si>
-    <t>Add D090, D303, 414</t>
-  </si>
-  <si>
     <t>C67, D090, D303, D414</t>
   </si>
   <si>
     <t>C67|D090|D303|D414</t>
   </si>
   <si>
-    <t>Adding R730, abnormal glucose and R739, hyperglycemia unspecified</t>
-  </si>
-  <si>
     <t>E10-E14 (minus E10.2-E10.29, E11.2-E11.29, E12.2, E13.2-E13.29, E14.2), R730, R739</t>
   </si>
   <si>
@@ -4304,9 +4068,6 @@
     <t>H3[0-2,4-5]|H35[0-2,4-9]|H5[3-4]</t>
   </si>
   <si>
-    <t xml:space="preserve">H53-H54 were missing from regEx. Had 4 deaths from these, all called garbage codes by IHME, presumably because you shouldn't be able to die from vision loss (another example of a valid code being used in an incorrect way?). Two were from H531 (subjective visual disturbances), 2 from H540 (blindness, both eyes). </t>
-  </si>
-  <si>
     <t>G0[6-9]|G1[0-2]|G2[3-5]|G3[6-7]|G45[2-8]|G46|G5|G6|G7[0-1]|G72[0,2-9]|G8|G9[0-8]</t>
   </si>
   <si>
@@ -4316,9 +4077,6 @@
     <t xml:space="preserve">Subtracting Y15 per IHME. </t>
   </si>
   <si>
-    <t>Rename "Other/unspecified unintentional injuries to reflect addedS and T codes?</t>
-  </si>
-  <si>
     <t>IHME, CDPH, CCB</t>
   </si>
   <si>
@@ -4328,110 +4086,36 @@
     <t>S|W39|W44|W5[3-9]|W6[0-4]|W7[7-9]|W[8-9]|X[2,5]|X3[0-2,9]|Y[4-7]|Y8[0-6,8]|Y89[2-9]</t>
   </si>
   <si>
-    <t xml:space="preserve">Per IHME, moved Y890-891 to collective violence, but then moved Y890 (officer-involved shootings) again, this time to homicide, per CDPH programs. Also per IHME, moved V050-V98 to road injuries and added X30-32 and X39 from natural disasters.  There don't appear to be any S or T codes in WHO 2017 and they are called garbage codes by IHME. The S codes (n=14 deaths) would seem to fit under injuries and seem to be primarily unintentional (e.g, broken arms, concussions) so I would think better here than with the separate category for Y code injuries of unknown intent, which include mainly possible suicides from overdoses, firearms etc. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Added S per Dave (see notes, consider renaming category). Moved Y890 to homicide per CDPH and Y891 to collective violence per IHME. Also per IHME, moved V050-V98 to road injuries and added X30-32 and X39 from natural disasters.  </t>
   </si>
   <si>
-    <t>Add Y891 (sequelae of war operations) per IHME, move Y890 (officer-involved killings) to homicides rather than here per CDPH</t>
-  </si>
-  <si>
     <t>Think I was able to map all Michael emailed me about except 000 and 0000</t>
   </si>
   <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>"Chronic hepatic failure, fatty liver, unspecified liver disease." Consistent given definitions of cirrhosis as "late stage scarring (fibrosis) caused by…liver diseases…such as hepatitis…alcoholism" and "a condition in which the liver does not function properly due to long term damage"</t>
-  </si>
-  <si>
-    <t>Benign neoplasm of appendix (D121), Neoplasm of uncertain behavior of appendix (D373), Neoplasm of uncertain behavior of colon (D374), Neoplasm of uncertain behavior of rectum (D375). Appendix is part of the colon</t>
-  </si>
-  <si>
     <t>Basis for change</t>
   </si>
   <si>
-    <t>Add M725-726 (necrotizing fasciitis) from other MSK.</t>
-  </si>
-  <si>
     <t>F10|G721|P043|Q860|X45|Y15|Y91</t>
   </si>
   <si>
     <t>F10|G721|Q860|X45</t>
   </si>
   <si>
-    <t>Add C66 from Kidney Cancer per IHME, add D014 (IHME garbage code)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add D070-2 (uterine_cancer), D25, D261-269 and D282 (IHME gyne_fibroids) </t>
-  </si>
-  <si>
     <t>C5[4-5]|D07[0-2]|D25|D26[1-9]|D282</t>
   </si>
   <si>
-    <t xml:space="preserve">Add D103,110,117, 119, and 370 from "other neoplasms." </t>
-  </si>
-  <si>
     <t>D000|D01[4-9]|D02[4,9]|D07[3,4,6]|D09[1-2,7-9]|D109|D13[2-3,9]|D14[0,4]|D1[5-9]|D2[0-1]|D28[0-1,7-9]|D29[0,9]|D30[2,4-9]|D3[1,5-6]|D37[2,6-9]|D38[2-6]|D39[0,2-9]|D409|D41[2-3,9]|D44[1-9]|D4[5-7]|D48[0-4,7-9]|D49[0-1,5,7-9]</t>
   </si>
   <si>
     <t>D000, D014-D019, D024-D0249, D073-D074, D076, D091-D092, D097-D099, D109, D132-D133, D139, D140, D144, D15-D19, D20-D21, D280-D281, D287-D289, D290-D299, D302, D304-D309, D31, D35-D36, D372, D376-D379, D382-D386, D390, D392-D399, D409, D412-D413, D419, D441-D449, D45-D47, D480-D484, D487-D489, D490-D491, D495, D497-D499</t>
   </si>
   <si>
-    <t>IHME has a lot of these D codes as neo_other_cancer rather than neo_other_benign, which would make me think they should go one row up (with IHME's "cancer" corresponding to WHO's "ther malignant neoplasms" and IHME's "benign" corresponding to WHO's "other neoplasms."
-Looked at all codes, not just those in 3.8M sample pivot table, so can disregard below. Could still do same for specific sites. Discuss with Michael omitting D30 if diff. category than D300 etc. 
-3.8M sample, other neoplasms to garbage codes: D000, D015, D017, D097, D099, D109, D139, D144, D17-D21, D369, D376-D377, D379, D386, D390, D397, D399, D409, D419, D449, D471, D487, D489
-3.8M other neoplasms to neo_other_benign: D45
-3.8M other neoplasms to neo_other_cancer: D132, D133, D140, D15-D16, D287, D290, D31, D35-D36, D372, D382-D385, D392, D412-D413, D441-D484
-I suspect there's a better way to do this, using all ICD codes not just ones that came up in the 3.8M (deaths in CA from 2000-2015)
-Didn't map: D014, 091 garbage codes
-Re-doing based on all codes, not just those that came up in 3.8M pivot table:
-Additional GC's D014-019</t>
-  </si>
-  <si>
-    <t>remove comment</t>
-  </si>
-  <si>
-    <t>remove comments</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I think how you moved them is good, and should discuss/finalize with group
-If we do move, good to keep some of this disucss as "notes"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Michael: this regular expression took "all the G codes that should be Alzheimer's and "grabs" them into "Other neurologic".  I am not exactly sure why, but it has to do with these codes being character strings, not numbers, but really not sure of the precise thing...we’ll really need to think/learn about this issue, and see if it impacts other codes." G0[6-9]|G1[0-2]|G2[3-5]|G3[6-7]|G[470-720]|G[722-989].
-Dave: As I think we suspected before, maybe it doesn't like the multiple digits within brackets (e.g., [470-720])?</t>
-    </r>
-  </si>
-  <si>
-    <t>Great, and soon will remove "per Dave"</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>need clear short note for this one</t>
-  </si>
-  <si>
     <t>Great, I'll check soon!</t>
   </si>
   <si>
-    <t>delete all this now; posilby some to notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IHME labels as skin_cellulitis; no such category in CBD; this is best location</t>
-  </si>
-  <si>
     <t>[Note: A02 (botulism) and A05 (salmonella unspecified) mapped differently in IHME, but left here as is]</t>
   </si>
   <si>
@@ -4444,77 +4128,146 @@
     <t>C0[0-8]|D103|D11[0,7,9]</t>
   </si>
   <si>
-    <t>LEAVE HERE FOR NOW WITH COMMENT - IHME ETC, STILL EVALUATING; NOTE THAT THIS REFERS TO OTHER ROWS TOO</t>
-  </si>
-  <si>
-    <t>Dave and Scott resolve</t>
-  </si>
-  <si>
     <t>Uterine cancer</t>
   </si>
   <si>
     <t>10. Uterine cancer</t>
   </si>
   <si>
-    <t>AGAIN…DAVE WILL REVIEW, MOVE IF/AS NEEDED, ADD NOTES WHERE NEEDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAVE WILL CHECK THAT THEY ARE CORRECT, THEN REMOVE RED FROM ALL</t>
+    <t>WHO 2017, p. 29/IHME</t>
+  </si>
+  <si>
+    <t>Y10-14, Y16-34, Y872</t>
+  </si>
+  <si>
+    <t>Y1[0-4,6-9]|Y2|Y3[0-4]|Y872</t>
+  </si>
+  <si>
+    <t>Other Chronic Conditions</t>
+  </si>
+  <si>
+    <t>Homicide/Interpersonal violence</t>
+  </si>
+  <si>
+    <t>Suicide/Self-harm</t>
+  </si>
+  <si>
+    <t>Cancer/Malignant neoplasms</t>
+  </si>
+  <si>
+    <t>Changes from WHO 2017 (mostly ICD codes from "ICD_3.8M" pivot table only; list will grow as we look at full list of code labels (i.e, ranges of codes, not just those for which we had deaths)</t>
+  </si>
+  <si>
+    <t>Injuries of unknown intent (e.g., unintentional versus self-harm), including overdoses and deaths by firearm</t>
+  </si>
+  <si>
+    <t>Rename "Other/unspecified unintentional injuries to reflect added S and T codes?</t>
+  </si>
+  <si>
+    <t>Added M725-726 (necrotizing fasciitis) from other MSK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added D103,110,117, 119, and 370 from "other neoplasms." </t>
+  </si>
+  <si>
+    <t>Added D106</t>
+  </si>
+  <si>
+    <t>Added D001, 130</t>
+  </si>
+  <si>
+    <t>Added D002,131,371</t>
+  </si>
+  <si>
+    <t>Added D010-013,120-122, 125-126, 128-9, 373-5</t>
+  </si>
+  <si>
+    <t>Added D134</t>
+  </si>
+  <si>
+    <t>Added D136-7</t>
+  </si>
+  <si>
+    <t>Added D022,142-3, 381</t>
+  </si>
+  <si>
+    <t>Added D03,221,229,232,234-7, 239,485</t>
+  </si>
+  <si>
+    <t>Added D04</t>
+  </si>
+  <si>
+    <t>Added D059, 24, 486</t>
+  </si>
+  <si>
+    <t>Added D069, D260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added D070-2 (uterine_cancer), D25, D261-269 and D282 (IHME gyne_fibroids) </t>
+  </si>
+  <si>
+    <t>Added D27, D391</t>
+  </si>
+  <si>
+    <t>Added D075, 291, 400</t>
+  </si>
+  <si>
+    <t>Added D292,401,407</t>
+  </si>
+  <si>
+    <t>Added D300,410-1,  move C66 TO other cancers</t>
+  </si>
+  <si>
+    <t>Added D090, D303, 414</t>
+  </si>
+  <si>
+    <t>Added D320-21, 329-34, 339, 420-21, 429-34, 439</t>
+  </si>
+  <si>
+    <t>Added D135</t>
+  </si>
+  <si>
+    <t>Added D020,141,380</t>
+  </si>
+  <si>
+    <t>Added D34,440</t>
+  </si>
+  <si>
+    <t>Added C66 from Kidney Cancer per IHME, Added D014 (IHME garbage code)</t>
+  </si>
+  <si>
+    <t>Added R730, abnormal glucose and R739, hyperglycemia unspecified</t>
+  </si>
+  <si>
+    <t>Added U031, U039 (terrorism)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Y350-4, 356-7, 890 (officer-involved shootings etc. from war/legal interventions to homicides) and U010-U019, U02 (terrorism) per CDPH. See 4oct2018 email regarding recommendation to Added Y358-9 (other and unspecified officer-involved deaths) to be consistent with CDPH-recommended for legal interventions. </t>
+  </si>
+  <si>
+    <t>Added Y891 (sequelae of war operations) per IHME, move Y890 (officer-involved killings) to homicides rather than here per CDPH</t>
+  </si>
+  <si>
+    <t>Moved P043 to alcohol and P044 to drug use disorders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IHME labels as skin_cellulitis; no such category in CCB; this seems like best location</t>
+  </si>
+  <si>
+    <t>D55-D64 (minus D64.9), D65-D89, E03-E07, E15-E34, E65-E88</t>
+  </si>
+  <si>
+    <t>D5[5-9]|D6[0-3,5-9]|D64[0-8]|D7|D8|E0[3-7]|E1[5-9]|E2|E3[0-4]|E6[5-9]|E7|E8[0-8]</t>
   </si>
   <si>
     <t>Added G721, P043, and Y15 per IHME. 
-Added Y91 CCB (see notes)</t>
-  </si>
-  <si>
-    <t>EDIT DOWN COLUMN O AND MOVE TO NOTES</t>
-  </si>
-  <si>
-    <t>LEAVE AS IS; CONSIDER EDITING O AND MOVE TO NOTES</t>
-  </si>
-  <si>
-    <t>REMOVE COMMENTS FROM HERE; develop separate notes doc on this issue</t>
-  </si>
-  <si>
-    <t>CLEAN</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>LEAVE AS IS FOR NOW; MAKE SHEET ON THIS ONE TOO….</t>
-  </si>
-  <si>
-    <t>AS ABOVE</t>
-  </si>
-  <si>
-    <t>WHO 2017, p. 29/IHME</t>
-  </si>
-  <si>
-    <t>Y10-14, Y16-34, Y872</t>
-  </si>
-  <si>
-    <t>Y1[0-4,6-9]|Y2|Y3[0-4]|Y872</t>
-  </si>
-  <si>
-    <t>Other Chronic Conditions</t>
-  </si>
-  <si>
-    <t>Homicide/Interpersonal violence</t>
-  </si>
-  <si>
-    <t>Suicide/Self-harm</t>
-  </si>
-  <si>
-    <t>Cancer/Malignant neoplasms</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>more test</t>
-  </si>
-  <si>
-    <t>uno mas</t>
+Added Y91 per CCB</t>
+  </si>
+  <si>
+    <t>Added I271 from other cardiovascular diseases per IHME. Move M725-M726 per IHME ("skin_cellulitis"), to other infectious diseases per CCB.</t>
+  </si>
+  <si>
+    <t>Added R95 as it's own new row, was missing before for some reason</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4676,13 +4429,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -4882,7 +4628,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5193,9 +4939,6 @@
       <alignment vertical="top" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5534,20 +5277,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD227"/>
+  <dimension ref="A1:AA227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="55" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="27" style="55" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="99" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" style="100" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" style="99" customWidth="1"/>
@@ -5575,7 +5318,7 @@
     <col min="28" max="16384" width="8.85546875" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>1162</v>
       </c>
@@ -5602,22 +5345,22 @@
         <v>1124</v>
       </c>
       <c r="J1" s="108" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>1271</v>
+        <v>1306</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>1343</v>
+        <v>1286</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>1340</v>
+        <v>1285</v>
       </c>
       <c r="N1" s="66" t="s">
-        <v>1253</v>
+        <v>1242</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>1252</v>
+        <v>1241</v>
       </c>
       <c r="P1" s="9" t="s">
         <v>384</v>
@@ -5626,10 +5369,10 @@
         <v>759</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>1139</v>
@@ -5647,25 +5390,16 @@
         <v>762</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="AA1" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="AB1" s="55" t="s">
-        <v>1388</v>
-      </c>
-      <c r="AC1" s="55" t="s">
-        <v>1389</v>
-      </c>
-      <c r="AD1" s="55" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="str">
         <f>Y2</f>
         <v>All CAUSES</v>
@@ -5714,7 +5448,7 @@
       </c>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="str">
         <f t="shared" ref="A3:A66" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),W3),"")</f>
         <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
@@ -5771,7 +5505,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
@@ -5816,7 +5550,7 @@
       <c r="Z4" s="15"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5870,7 +5604,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   01. Tuberculosis</v>
@@ -5936,7 +5670,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
@@ -5981,7 +5715,7 @@
       <c r="Z7" s="15"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
@@ -6048,7 +5782,7 @@
       </c>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6113,7 +5847,7 @@
       </c>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6178,7 +5912,7 @@
       </c>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6243,7 +5977,7 @@
       </c>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6306,7 +6040,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6371,7 +6105,7 @@
       </c>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
@@ -6438,7 +6172,7 @@
       </c>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6499,7 +6233,7 @@
       </c>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="55" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6591,15 +6325,9 @@
       <c r="J17" s="1"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="9" t="s">
-        <v>1361</v>
-      </c>
-      <c r="N17" s="66" t="s">
-        <v>1255</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>1254</v>
-      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="9" t="s">
         <v>394</v>
       </c>
@@ -8655,23 +8383,23 @@
       <c r="I51" s="27"/>
       <c r="J51" s="1"/>
       <c r="K51" s="9" t="s">
-        <v>1344</v>
+        <v>1309</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>1363</v>
+        <v>1293</v>
       </c>
       <c r="N51" s="66"/>
       <c r="O51" s="9" t="s">
-        <v>1362</v>
+        <v>1338</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="Q51" s="77" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="R51" s="9" t="s">
         <v>965</v>
@@ -9649,7 +9377,7 @@
       </c>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="55" t="str">
         <f t="shared" ref="A67:A130" si="4">IF(I67&lt;&gt;"",CONCATENATE("  ",D67,". ",IF(E67="",E67,IF(F67="",CONCATENATE("  ",E67,". "),CONCATENATE("  ",E67,".  ",F67,". "))),W67),"")</f>
         <v/>
@@ -9677,23 +9405,21 @@
         <v>952</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>1261</v>
+        <v>1337</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>952</v>
       </c>
       <c r="N67" s="66"/>
-      <c r="O67" s="9" t="s">
-        <v>1260</v>
-      </c>
+      <c r="O67" s="9"/>
       <c r="P67" s="9" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="Q67" s="77" t="s">
-        <v>1237</v>
+        <v>1228</v>
       </c>
       <c r="R67" s="9" t="s">
         <v>418</v>
@@ -9780,7 +9506,7 @@
       </c>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9807,18 +9533,14 @@
       <c r="J69" s="1"/>
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
-      <c r="M69" s="9" t="s">
-        <v>1354</v>
-      </c>
+      <c r="M69" s="9"/>
       <c r="N69" s="66"/>
-      <c r="O69" s="9" t="s">
-        <v>1238</v>
-      </c>
+      <c r="O69" s="9"/>
       <c r="P69" s="9" t="s">
         <v>420</v>
       </c>
       <c r="Q69" s="56" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
       <c r="R69" s="9" t="s">
         <v>420</v>
@@ -10132,7 +9854,7 @@
       </c>
       <c r="T74" s="53"/>
       <c r="U74" s="87" t="s">
-        <v>1284</v>
+        <v>1251</v>
       </c>
       <c r="V74" s="53" t="s">
         <v>557</v>
@@ -10245,7 +9967,7 @@
         <v>558</v>
       </c>
       <c r="W76" s="2" t="s">
-        <v>1387</v>
+        <v>1305</v>
       </c>
       <c r="X76" s="78" t="s">
         <v>51</v>
@@ -10292,10 +10014,10 @@
       <c r="N77" s="66"/>
       <c r="O77" s="9"/>
       <c r="P77" s="9" t="s">
-        <v>1364</v>
+        <v>1294</v>
       </c>
       <c r="Q77" s="61" t="s">
-        <v>1364</v>
+        <v>1294</v>
       </c>
       <c r="R77" s="9" t="s">
         <v>425</v>
@@ -10346,10 +10068,10 @@
       <c r="I78" s="27"/>
       <c r="J78" s="1"/>
       <c r="K78" s="65" t="s">
-        <v>1350</v>
+        <v>1310</v>
       </c>
       <c r="L78" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M78" s="9" t="s">
         <v>952</v>
@@ -10359,10 +10081,10 @@
         <v>952</v>
       </c>
       <c r="P78" s="9" t="s">
-        <v>1365</v>
+        <v>1295</v>
       </c>
       <c r="Q78" s="60" t="s">
-        <v>1366</v>
+        <v>1296</v>
       </c>
       <c r="R78" s="9" t="s">
         <v>967</v>
@@ -10417,19 +10139,19 @@
       <c r="I79" s="27"/>
       <c r="J79" s="1"/>
       <c r="K79" s="77" t="s">
-        <v>1273</v>
+        <v>1311</v>
       </c>
       <c r="L79" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="66"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
       <c r="Q79" s="61" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
       <c r="R79" s="9" t="s">
         <v>768</v>
@@ -10550,19 +10272,19 @@
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="65" t="s">
-        <v>1274</v>
+        <v>1312</v>
       </c>
       <c r="L81" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="66"/>
       <c r="O81" s="9"/>
       <c r="P81" s="9" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="Q81" s="61" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="R81" s="9" t="s">
         <v>426</v>
@@ -10620,19 +10342,19 @@
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="65" t="s">
-        <v>1275</v>
+        <v>1313</v>
       </c>
       <c r="L82" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M82" s="9"/>
       <c r="N82" s="66"/>
       <c r="O82" s="9"/>
       <c r="P82" s="9" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="Q82" s="61" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>427</v>
@@ -10692,23 +10414,19 @@
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="93" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="L83" s="63" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M83" s="110" t="s">
-        <v>1367</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="M83" s="9"/>
       <c r="N83" s="66"/>
-      <c r="O83" s="9" t="s">
-        <v>1342</v>
-      </c>
+      <c r="O83" s="9"/>
       <c r="P83" s="9" t="s">
-        <v>1307</v>
+        <v>1261</v>
       </c>
       <c r="Q83" s="61" t="s">
-        <v>1308</v>
+        <v>1262</v>
       </c>
       <c r="R83" s="9" t="s">
         <v>428</v>
@@ -10766,10 +10484,10 @@
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="65" t="s">
-        <v>1276</v>
+        <v>1315</v>
       </c>
       <c r="L84" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>952</v>
@@ -10781,10 +10499,10 @@
         <v>952</v>
       </c>
       <c r="P84" s="9" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="Q84" s="61" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="R84" s="9" t="s">
         <v>429</v>
@@ -10842,19 +10560,19 @@
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="65" t="s">
-        <v>1277</v>
+        <v>1316</v>
       </c>
       <c r="L85" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M85" s="9"/>
       <c r="N85" s="66"/>
       <c r="O85" s="9"/>
       <c r="P85" s="9" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="Q85" s="61" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="R85" s="9" t="s">
         <v>430</v>
@@ -10912,19 +10630,19 @@
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="65" t="s">
-        <v>1278</v>
+        <v>1317</v>
       </c>
       <c r="L86" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M86" s="9"/>
       <c r="N86" s="66"/>
       <c r="O86" s="9"/>
       <c r="P86" s="9" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="Q86" s="61" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="R86" s="9" t="s">
         <v>431</v>
@@ -10981,7 +10699,7 @@
       </c>
       <c r="J87" s="1"/>
       <c r="L87" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M87" s="9"/>
       <c r="N87" s="66"/>
@@ -11041,19 +10759,19 @@
       <c r="I88" s="27"/>
       <c r="J88" s="1"/>
       <c r="K88" s="65" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="L88" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M88" s="9"/>
       <c r="N88" s="66"/>
       <c r="O88" s="9"/>
       <c r="P88" s="9" t="s">
-        <v>1314</v>
+        <v>1267</v>
       </c>
       <c r="Q88" s="61" t="s">
-        <v>1315</v>
+        <v>1268</v>
       </c>
       <c r="R88" s="9" t="s">
         <v>773</v>
@@ -11108,19 +10826,19 @@
       <c r="I89" s="27"/>
       <c r="J89" s="1"/>
       <c r="K89" s="65" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="L89" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M89" s="9"/>
       <c r="N89" s="66"/>
       <c r="O89" s="9"/>
       <c r="P89" s="9" t="s">
-        <v>1317</v>
+        <v>1269</v>
       </c>
       <c r="Q89" s="61" t="s">
-        <v>1318</v>
+        <v>1270</v>
       </c>
       <c r="R89" s="9" t="s">
         <v>774</v>
@@ -11173,24 +10891,24 @@
         <v>cB09</v>
       </c>
       <c r="I90" s="27" t="str">
-        <f t="shared" ref="I90:I105" si="8">CONCATENATE(D90,E90,F90)</f>
+        <f t="shared" ref="I90:I104" si="8">CONCATENATE(D90,E90,F90)</f>
         <v>B09</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="93" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="L90" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M90" s="9"/>
       <c r="N90" s="66"/>
       <c r="O90" s="9"/>
       <c r="P90" s="9" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="Q90" s="61" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="R90" s="9" t="s">
         <v>433</v>
@@ -11226,7 +10944,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="52" t="s">
-        <v>1370</v>
+        <v>1298</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>1141</v>
@@ -11243,7 +10961,7 @@
       </c>
       <c r="J91" s="1"/>
       <c r="L91" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M91" s="90"/>
       <c r="N91" s="91"/>
@@ -11256,11 +10974,11 @@
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
       <c r="W91" s="9" t="s">
-        <v>1369</v>
+        <v>1297</v>
       </c>
       <c r="X91" s="78"/>
       <c r="Y91" s="9" t="s">
-        <v>1369</v>
+        <v>1297</v>
       </c>
       <c r="Z91" s="15"/>
       <c r="AA91" s="2"/>
@@ -11291,19 +11009,19 @@
       <c r="I92" s="27"/>
       <c r="J92" s="1"/>
       <c r="K92" s="9" t="s">
-        <v>1272</v>
+        <v>1321</v>
       </c>
       <c r="L92" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M92" s="9"/>
       <c r="N92" s="66"/>
       <c r="O92" s="9"/>
       <c r="P92" s="9" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
       <c r="Q92" s="61" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="R92" s="9" t="s">
         <v>434</v>
@@ -11358,23 +11076,19 @@
       <c r="I93" s="27"/>
       <c r="J93" s="1"/>
       <c r="K93" s="9" t="s">
-        <v>1348</v>
+        <v>1322</v>
       </c>
       <c r="L93" s="63" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>1368</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="M93" s="9"/>
       <c r="N93" s="66"/>
-      <c r="O93" s="9" t="s">
-        <v>1319</v>
-      </c>
+      <c r="O93" s="9"/>
       <c r="P93" s="9" t="s">
-        <v>1320</v>
+        <v>1271</v>
       </c>
       <c r="Q93" s="61" t="s">
-        <v>1349</v>
+        <v>1289</v>
       </c>
       <c r="R93" s="9" t="s">
         <v>435</v>
@@ -11432,19 +11146,19 @@
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="9" t="s">
-        <v>1223</v>
+        <v>1323</v>
       </c>
       <c r="L94" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M94" s="9"/>
       <c r="N94" s="66"/>
       <c r="O94" s="9"/>
       <c r="P94" s="9" t="s">
-        <v>1224</v>
+        <v>1215</v>
       </c>
       <c r="Q94" s="61" t="s">
-        <v>1225</v>
+        <v>1216</v>
       </c>
       <c r="R94" s="9" t="s">
         <v>436</v>
@@ -11502,18 +11216,18 @@
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="77" t="s">
-        <v>1166</v>
+        <v>1324</v>
       </c>
       <c r="L95" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="N95" s="66"/>
       <c r="O95" s="9"/>
       <c r="P95" s="9" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="Q95" s="61" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="R95" s="9" t="s">
         <v>437</v>
@@ -11568,19 +11282,19 @@
       <c r="I96" s="27"/>
       <c r="J96" s="1"/>
       <c r="K96" s="77" t="s">
-        <v>1167</v>
+        <v>1325</v>
       </c>
       <c r="L96" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M96" s="9"/>
       <c r="N96" s="66"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
       <c r="Q96" s="61" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="R96" s="9" t="s">
         <v>776</v>
@@ -11638,19 +11352,19 @@
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="77" t="s">
-        <v>1286</v>
+        <v>1326</v>
       </c>
       <c r="L97" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M97" s="9"/>
       <c r="N97" s="66"/>
       <c r="O97" s="9"/>
       <c r="P97" s="9" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
       <c r="Q97" s="61" t="s">
-        <v>1227</v>
+        <v>1218</v>
       </c>
       <c r="R97" s="9" t="s">
         <v>969</v>
@@ -11708,19 +11422,19 @@
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="9" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="L98" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M98" s="9"/>
       <c r="N98" s="66"/>
       <c r="O98" s="9"/>
       <c r="P98" s="9" t="s">
-        <v>1322</v>
+        <v>1272</v>
       </c>
       <c r="Q98" s="61" t="s">
-        <v>1323</v>
+        <v>1273</v>
       </c>
       <c r="R98" s="9" t="s">
         <v>438</v>
@@ -11778,19 +11492,19 @@
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="93" t="s">
-        <v>1280</v>
+        <v>1328</v>
       </c>
       <c r="L99" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M99" s="9"/>
       <c r="N99" s="66"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="Q99" s="60" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="R99" s="9" t="s">
         <v>970</v>
@@ -11845,19 +11559,19 @@
       <c r="I100" s="27"/>
       <c r="J100" s="1"/>
       <c r="K100" s="77" t="s">
-        <v>1281</v>
+        <v>1329</v>
       </c>
       <c r="L100" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M100" s="9"/>
       <c r="N100" s="66"/>
       <c r="O100" s="9"/>
       <c r="P100" s="9" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
       <c r="Q100" s="61" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="R100" s="9" t="s">
         <v>971</v>
@@ -11912,19 +11626,19 @@
       <c r="I101" s="27"/>
       <c r="J101" s="1"/>
       <c r="K101" s="77" t="s">
-        <v>1282</v>
+        <v>1330</v>
       </c>
       <c r="L101" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M101" s="9"/>
       <c r="N101" s="66"/>
       <c r="O101" s="9"/>
       <c r="P101" s="9" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="Q101" s="61" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="R101" s="9" t="s">
         <v>780</v>
@@ -11979,19 +11693,19 @@
       <c r="I102" s="27"/>
       <c r="J102" s="1"/>
       <c r="K102" s="77" t="s">
-        <v>1283</v>
+        <v>1331</v>
       </c>
       <c r="L102" s="63" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M102" s="9"/>
       <c r="N102" s="66"/>
       <c r="O102" s="9"/>
       <c r="P102" s="9" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="Q102" s="61" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="R102" s="9" t="s">
         <v>781</v>
@@ -12172,7 +11886,7 @@
         <v>cB16a</v>
       </c>
       <c r="I105" s="27" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(D105,E105,F105)</f>
         <v>B16a</v>
       </c>
       <c r="J105" s="1"/>
@@ -12445,23 +12159,19 @@
       </c>
       <c r="J109" s="1"/>
       <c r="K109" s="9" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M109" s="9" t="s">
-        <v>1371</v>
-      </c>
-      <c r="N109" s="66" t="s">
-        <v>1169</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c r="N109" s="66"/>
       <c r="O109" s="9"/>
       <c r="P109" s="9" t="s">
-        <v>1228</v>
+        <v>1219</v>
       </c>
       <c r="Q109" s="61" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="R109" s="9" t="s">
         <v>974</v>
@@ -12486,7 +12196,7 @@
       </c>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="369.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A110" s="55" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12515,14 +12225,12 @@
         <v>952</v>
       </c>
       <c r="N110" s="66"/>
-      <c r="O110" s="9" t="s">
-        <v>1353</v>
-      </c>
+      <c r="O110" s="9"/>
       <c r="P110" s="9" t="s">
-        <v>1352</v>
+        <v>1291</v>
       </c>
       <c r="Q110" s="9" t="s">
-        <v>1351</v>
+        <v>1290</v>
       </c>
       <c r="R110" s="9" t="s">
         <v>441</v>
@@ -12580,19 +12288,19 @@
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="9" t="s">
-        <v>1324</v>
+        <v>1333</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M111" s="9"/>
       <c r="N111" s="66"/>
       <c r="O111" s="9"/>
       <c r="P111" s="9" t="s">
-        <v>1325</v>
+        <v>1274</v>
       </c>
       <c r="Q111" s="61" t="s">
-        <v>1326</v>
+        <v>1275</v>
       </c>
       <c r="R111" s="9" t="s">
         <v>975</v>
@@ -12650,24 +12358,20 @@
       <c r="J112" s="1"/>
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
-      <c r="M112" s="9" t="s">
-        <v>1372</v>
-      </c>
+      <c r="M112" s="9"/>
       <c r="N112" s="66"/>
-      <c r="O112" s="9" t="s">
-        <v>1262</v>
-      </c>
+      <c r="O112" s="9"/>
       <c r="P112" s="9" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q112" s="61" t="s">
-        <v>1165</v>
+        <v>1339</v>
+      </c>
+      <c r="Q112" s="60" t="s">
+        <v>1340</v>
       </c>
       <c r="R112" s="9" t="s">
-        <v>1164</v>
-      </c>
-      <c r="S112" s="61" t="s">
-        <v>1165</v>
+        <v>1339</v>
+      </c>
+      <c r="S112" s="60" t="s">
+        <v>1340</v>
       </c>
       <c r="T112" s="59"/>
       <c r="U112" s="9" t="s">
@@ -13422,7 +13126,7 @@
       </c>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="55" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  D.   04.  a. Alcohol use disorders</v>
@@ -13453,29 +13157,25 @@
       </c>
       <c r="J126" s="1"/>
       <c r="K126" s="9" t="s">
-        <v>1373</v>
+        <v>1341</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>1263</v>
-      </c>
-      <c r="M126" s="9" t="s">
-        <v>1374</v>
-      </c>
+        <v>1246</v>
+      </c>
+      <c r="M126" s="9"/>
       <c r="N126" s="66"/>
-      <c r="O126" s="9" t="s">
-        <v>1264</v>
-      </c>
+      <c r="O126" s="9"/>
       <c r="P126" s="9" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="Q126" s="60" t="s">
-        <v>1345</v>
+        <v>1287</v>
       </c>
       <c r="R126" s="9" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="S126" s="60" t="s">
-        <v>1346</v>
+        <v>1288</v>
       </c>
       <c r="T126" s="59"/>
       <c r="U126" s="9" t="s">
@@ -13784,13 +13484,9 @@
       <c r="I131" s="27"/>
       <c r="J131" s="1"/>
       <c r="L131" s="9"/>
-      <c r="M131" s="9" t="s">
-        <v>1375</v>
-      </c>
+      <c r="M131" s="9"/>
       <c r="N131" s="66"/>
-      <c r="O131" s="9" t="s">
-        <v>1266</v>
-      </c>
+      <c r="O131" s="9"/>
       <c r="P131" s="9" t="s">
         <v>804</v>
       </c>
@@ -13845,22 +13541,22 @@
       </c>
       <c r="I132" s="27"/>
       <c r="J132" s="85" t="s">
-        <v>1268</v>
+        <v>1249</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="L132" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M132" s="9"/>
       <c r="N132" s="66"/>
       <c r="O132" s="9"/>
       <c r="P132" s="9" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
       <c r="Q132" s="60" t="s">
-        <v>1267</v>
+        <v>1248</v>
       </c>
       <c r="R132" s="9" t="s">
         <v>984</v>
@@ -14822,25 +14518,19 @@
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="65" t="s">
-        <v>1249</v>
+        <v>1238</v>
       </c>
       <c r="L148" s="65" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M148" s="109" t="s">
-        <v>1356</v>
-      </c>
-      <c r="N148" s="92" t="s">
-        <v>1222</v>
-      </c>
-      <c r="O148" s="9" t="s">
-        <v>1269</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="M148" s="109"/>
+      <c r="N148" s="92"/>
+      <c r="O148" s="9"/>
       <c r="P148" s="9" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="Q148" s="107" t="s">
-        <v>1329</v>
+        <v>1277</v>
       </c>
       <c r="R148" s="9" t="s">
         <v>454</v>
@@ -15163,7 +14853,7 @@
       </c>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15190,18 +14880,14 @@
       <c r="J154" s="1"/>
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
-      <c r="M154" s="9" t="s">
-        <v>1355</v>
-      </c>
+      <c r="M154" s="9"/>
       <c r="N154" s="66"/>
-      <c r="O154" s="9" t="s">
-        <v>1328</v>
-      </c>
+      <c r="O154" s="9"/>
       <c r="P154" s="9" t="s">
         <v>460</v>
       </c>
       <c r="Q154" s="61" t="s">
-        <v>1327</v>
+        <v>1276</v>
       </c>
       <c r="R154" s="9" t="s">
         <v>460</v>
@@ -15631,19 +15317,19 @@
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="9" t="s">
-        <v>1250</v>
+        <v>1239</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M161" s="9"/>
       <c r="N161" s="66"/>
       <c r="O161" s="9"/>
       <c r="P161" s="9" t="s">
-        <v>1247</v>
+        <v>1236</v>
       </c>
       <c r="Q161" s="61" t="s">
-        <v>1248</v>
+        <v>1237</v>
       </c>
       <c r="R161" s="9" t="s">
         <v>467</v>
@@ -15767,19 +15453,19 @@
       </c>
       <c r="J163" s="1"/>
       <c r="K163" s="9" t="s">
-        <v>1270</v>
+        <v>1250</v>
       </c>
       <c r="L163" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M163" s="93"/>
       <c r="N163" s="94"/>
       <c r="O163" s="93"/>
       <c r="P163" s="9" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="Q163" s="60" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="R163" s="9" t="s">
         <v>469</v>
@@ -16217,25 +15903,19 @@
       <c r="I170" s="27"/>
       <c r="J170" s="9"/>
       <c r="K170" s="93" t="s">
-        <v>1251</v>
+        <v>1240</v>
       </c>
       <c r="L170" s="9" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M170" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="N170" s="94" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O170" s="93" t="s">
-        <v>1287</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="M170" s="9"/>
+      <c r="N170" s="94"/>
+      <c r="O170" s="93"/>
       <c r="P170" s="9" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="Q170" s="61" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="R170" s="9" t="s">
         <v>476</v>
@@ -16642,7 +16322,7 @@
       </c>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A177" s="55" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16668,23 +16348,21 @@
       <c r="I177" s="27"/>
       <c r="J177" s="1"/>
       <c r="K177" s="9" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M177" s="93" t="s">
         <v>952</v>
       </c>
       <c r="N177" s="95"/>
-      <c r="O177" s="93" t="s">
-        <v>1341</v>
-      </c>
+      <c r="O177" s="93"/>
       <c r="P177" s="9" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
       <c r="Q177" s="61" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="R177" s="9" t="s">
         <v>991</v>
@@ -17727,21 +17405,19 @@
       <c r="I194" s="27"/>
       <c r="J194" s="1"/>
       <c r="K194" s="9" t="s">
-        <v>1259</v>
+        <v>1342</v>
       </c>
       <c r="L194" s="9" t="s">
-        <v>1258</v>
-      </c>
-      <c r="M194" s="93" t="s">
-        <v>1357</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="M194" s="93"/>
       <c r="N194" s="94"/>
       <c r="O194" s="93"/>
       <c r="P194" s="9" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="Q194" s="61" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
       <c r="R194" s="9" t="s">
         <v>489</v>
@@ -18547,7 +18223,7 @@
       </c>
       <c r="T207" s="60"/>
       <c r="U207" s="83" t="s">
-        <v>1285</v>
+        <v>1252</v>
       </c>
       <c r="V207" s="9" t="s">
         <v>654</v>
@@ -18660,10 +18336,10 @@
       </c>
       <c r="J209" s="1"/>
       <c r="K209" s="9" t="s">
-        <v>1292</v>
+        <v>1254</v>
       </c>
       <c r="L209" s="9" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M209" s="9" t="s">
         <v>952</v>
@@ -18671,10 +18347,10 @@
       <c r="N209" s="66"/>
       <c r="O209" s="9"/>
       <c r="P209" s="9" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="Q209" s="60" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="R209" s="9" t="s">
         <v>500</v>
@@ -18865,9 +18541,7 @@
       <c r="J212" s="1"/>
       <c r="M212" s="9"/>
       <c r="N212" s="66"/>
-      <c r="O212" s="2" t="s">
-        <v>1293</v>
-      </c>
+      <c r="O212" s="2"/>
       <c r="P212" s="9" t="s">
         <v>502</v>
       </c>
@@ -19059,25 +18733,19 @@
       <c r="I215" s="27"/>
       <c r="J215" s="1"/>
       <c r="K215" s="9" t="s">
-        <v>1294</v>
+        <v>1255</v>
       </c>
       <c r="L215" s="9" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M215" s="93" t="s">
-        <v>1377</v>
-      </c>
-      <c r="N215" s="94" t="s">
-        <v>1171</v>
-      </c>
-      <c r="O215" s="93" t="s">
-        <v>1290</v>
-      </c>
+        <v>1164</v>
+      </c>
+      <c r="M215" s="93"/>
+      <c r="N215" s="94"/>
+      <c r="O215" s="93"/>
       <c r="P215" s="9" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="Q215" s="61" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="R215" s="9" t="s">
         <v>504</v>
@@ -19131,27 +18799,23 @@
         <f>CONCATENATE(D216,E216,F216)</f>
         <v>E01x</v>
       </c>
-      <c r="J216" s="1" t="s">
-        <v>1332</v>
+      <c r="J216" s="40" t="s">
+        <v>1308</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>1337</v>
+        <v>1283</v>
       </c>
       <c r="L216" s="9" t="s">
-        <v>1333</v>
-      </c>
-      <c r="M216" s="9" t="s">
-        <v>1378</v>
-      </c>
+        <v>1280</v>
+      </c>
+      <c r="M216" s="9"/>
       <c r="N216" s="66"/>
-      <c r="O216" s="9" t="s">
-        <v>1336</v>
-      </c>
+      <c r="O216" s="9"/>
       <c r="P216" s="9" t="s">
-        <v>1334</v>
+        <v>1281</v>
       </c>
       <c r="Q216" s="61" t="s">
-        <v>1335</v>
+        <v>1282</v>
       </c>
       <c r="R216" s="9" t="s">
         <v>996</v>
@@ -19267,21 +18931,19 @@
       </c>
       <c r="J218" s="1"/>
       <c r="K218" s="9" t="s">
-        <v>1291</v>
+        <v>1334</v>
       </c>
       <c r="L218" s="9" t="s">
-        <v>1230</v>
+        <v>1221</v>
       </c>
       <c r="M218" s="9"/>
       <c r="N218" s="66"/>
-      <c r="O218" s="9" t="s">
-        <v>1295</v>
-      </c>
+      <c r="O218" s="9"/>
       <c r="P218" s="9" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="Q218" s="61" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="R218" s="9" t="s">
         <v>506</v>
@@ -19297,7 +18959,7 @@
         <v>999</v>
       </c>
       <c r="W218" s="9" t="s">
-        <v>1386</v>
+        <v>1304</v>
       </c>
       <c r="X218" s="78" t="s">
         <v>140</v>
@@ -19339,23 +19001,19 @@
       </c>
       <c r="J219" s="1"/>
       <c r="K219" s="9" t="s">
-        <v>1301</v>
+        <v>1335</v>
       </c>
       <c r="L219" s="9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M219" s="9" t="s">
-        <v>1379</v>
-      </c>
+        <v>1221</v>
+      </c>
+      <c r="M219" s="9"/>
       <c r="N219" s="66"/>
-      <c r="O219" s="9" t="s">
-        <v>1302</v>
-      </c>
+      <c r="O219" s="9"/>
       <c r="P219" s="9" t="s">
-        <v>1233</v>
+        <v>1224</v>
       </c>
       <c r="Q219" s="60" t="s">
-        <v>1305</v>
+        <v>1260</v>
       </c>
       <c r="R219" s="9" t="s">
         <v>507</v>
@@ -19371,7 +19029,7 @@
         <v>998</v>
       </c>
       <c r="W219" s="9" t="s">
-        <v>1385</v>
+        <v>1303</v>
       </c>
       <c r="X219" s="78" t="s">
         <v>141</v>
@@ -19407,26 +19065,22 @@
       </c>
       <c r="I220" s="27"/>
       <c r="J220" s="1" t="s">
-        <v>1298</v>
+        <v>1257</v>
       </c>
       <c r="K220" s="9" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="L220" s="9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M220" s="9" t="s">
-        <v>1380</v>
-      </c>
+        <v>1256</v>
+      </c>
+      <c r="M220" s="9"/>
       <c r="N220" s="66"/>
-      <c r="O220" s="9" t="s">
-        <v>1303</v>
-      </c>
+      <c r="O220" s="9"/>
       <c r="P220" s="9" t="s">
-        <v>1300</v>
+        <v>1259</v>
       </c>
       <c r="Q220" s="61" t="s">
-        <v>1299</v>
+        <v>1258</v>
       </c>
       <c r="R220" s="9" t="s">
         <v>508</v>
@@ -19452,11 +19106,14 @@
       <c r="AA220" s="2"/>
     </row>
     <row r="221" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="111" t="str">
+      <c r="A221" s="110" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="D221" s="112" t="s">
+      <c r="C221" s="75" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D221" s="111" t="s">
         <v>1145</v>
       </c>
       <c r="H221" s="27" t="str">
@@ -19465,28 +19122,23 @@
       </c>
       <c r="I221" s="27"/>
       <c r="J221" s="75" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="K221" s="75" t="s">
-        <v>1331</v>
+        <v>1279</v>
       </c>
       <c r="L221" s="64" t="s">
-        <v>1381</v>
-      </c>
-      <c r="M221" s="70" t="s">
-        <v>1380</v>
-      </c>
-      <c r="O221" s="70" t="s">
-        <v>1304</v>
-      </c>
+        <v>1299</v>
+      </c>
+      <c r="O221" s="70"/>
       <c r="P221" s="70" t="s">
-        <v>1382</v>
+        <v>1300</v>
       </c>
       <c r="Q221" s="70" t="s">
-        <v>1383</v>
+        <v>1301</v>
       </c>
       <c r="W221" s="75" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="222" spans="1:27" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19495,7 +19147,7 @@
         <v xml:space="preserve">  Z.   01. Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D222" s="99" t="s">
-        <v>1309</v>
+        <v>1263</v>
       </c>
       <c r="E222" s="100" t="s">
         <v>1146</v>
@@ -19509,28 +19161,23 @@
         <v>Z01</v>
       </c>
       <c r="J222" s="75" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
       <c r="K222" s="75" t="s">
-        <v>1242</v>
+        <v>1231</v>
       </c>
       <c r="L222" s="64" t="s">
-        <v>1243</v>
-      </c>
-      <c r="M222" s="70" t="s">
-        <v>1358</v>
-      </c>
-      <c r="O222" s="102" t="s">
-        <v>1241</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="O222" s="102"/>
       <c r="P222" s="70" t="s">
-        <v>1244</v>
+        <v>1233</v>
       </c>
       <c r="Q222" s="70" t="s">
-        <v>1330</v>
+        <v>1278</v>
       </c>
       <c r="W222" s="75" t="s">
-        <v>1245</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="223" spans="1:27" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19553,28 +19200,23 @@
         <v>D12</v>
       </c>
       <c r="J223" s="105" t="s">
-        <v>1288</v>
+        <v>1253</v>
       </c>
       <c r="K223" s="70" t="s">
-        <v>1289</v>
+        <v>1343</v>
       </c>
       <c r="L223" s="64" t="s">
-        <v>1243</v>
-      </c>
-      <c r="M223" s="70" t="s">
-        <v>1359</v>
-      </c>
-      <c r="O223" s="70" t="s">
-        <v>1297</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="O223" s="70"/>
       <c r="P223" s="70" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="Q223" s="70" t="s">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="W223" s="75" t="s">
-        <v>1234</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
@@ -19583,7 +19225,7 @@
         <v xml:space="preserve">  Z.   02. Missing ICD10</v>
       </c>
       <c r="D224" s="99" t="s">
-        <v>1309</v>
+        <v>1263</v>
       </c>
       <c r="E224" s="100" t="s">
         <v>1147</v>
@@ -19593,7 +19235,7 @@
         <v>Z02</v>
       </c>
       <c r="W224" s="75" t="s">
-        <v>1310</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="225" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
@@ -19602,7 +19244,7 @@
         <v xml:space="preserve">  Z.   03. Code does not map</v>
       </c>
       <c r="D225" s="99" t="s">
-        <v>1309</v>
+        <v>1263</v>
       </c>
       <c r="E225" s="100" t="s">
         <v>1148</v>
@@ -19612,13 +19254,13 @@
         <v>Z03</v>
       </c>
       <c r="K225" s="70" t="s">
-        <v>1339</v>
+        <v>1284</v>
       </c>
       <c r="M225" s="70" t="s">
-        <v>1360</v>
+        <v>1292</v>
       </c>
       <c r="W225" s="75" t="s">
-        <v>1311</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
@@ -19627,14 +19269,14 @@
         <v xml:space="preserve">  Z. Missing/Unknown</v>
       </c>
       <c r="D226" s="99" t="s">
-        <v>1309</v>
+        <v>1263</v>
       </c>
       <c r="I226" s="27" t="str">
         <f t="shared" si="21"/>
         <v>Z</v>
       </c>
       <c r="W226" s="75" t="s">
-        <v>1312</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
@@ -19646,14 +19288,14 @@
         <v>1144</v>
       </c>
       <c r="E227" s="100" t="s">
-        <v>1246</v>
+        <v>1235</v>
       </c>
       <c r="I227" s="27" t="str">
         <f t="shared" si="21"/>
         <v>D99</v>
       </c>
       <c r="W227" s="75" t="s">
-        <v>1384</v>
+        <v>1302</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$AA$220</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4628,7 +4628,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4931,7 +4931,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4941,7 +4940,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5280,15 +5278,15 @@
   <dimension ref="A1:AA227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A199" sqref="A199"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30" style="55" customWidth="1"/>
+    <col min="1" max="1" width="73" style="55" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="55" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="99" customWidth="1"/>
@@ -5344,7 +5342,7 @@
       <c r="I1" s="84" t="s">
         <v>1124</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="107" t="s">
         <v>1169</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -5450,8 +5448,8 @@
     </row>
     <row r="3" spans="1:27" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="55" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(I3&lt;&gt;"",CONCATENATE("  ",D3,". ",IF(E3="",E3,IF(F3="",CONCATENATE("  ",E3,". "),CONCATENATE("  ",E3,".  ",F3,". "))),W3),"")</f>
-        <v xml:space="preserve">  A. Communicable, maternal, perinatal and nutritional conditions</v>
+        <f>IF(I3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("..........",D3,".",E3,".",F3,". - ",W3),IF(E3&lt;&gt;"",CONCATENATE(".....",D3,".",E3,". - ",W3),CONCATENATE(D3,". - ",W3))),"")</f>
+        <v>A. - Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5507,8 +5505,8 @@
     </row>
     <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="55" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   99. Other Infectious Diseases</v>
+        <f t="shared" ref="A4:A67" si="0">IF(I4&lt;&gt;"",IF(F4&lt;&gt;"",CONCATENATE("..........",D4,".",E4,".",F4,". - ",W4),IF(E4&lt;&gt;"",CONCATENATE(".....",D4,".",E4,". - ",W4),CONCATENATE(D4,". - ",W4))),"")</f>
+        <v>.....A.99. - Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -5607,7 +5605,7 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   01. Tuberculosis</v>
+        <v>.....A.01. - Tuberculosis</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -5673,7 +5671,7 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   02. HIV/ and other Sexually transmitted diseases (STDs)</v>
+        <v>.....A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="45" t="s">
@@ -5718,7 +5716,7 @@
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   02.  a. Sexually transmitted diseases (STDs) excluding HIV</v>
+        <v>..........A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -6108,7 +6106,7 @@
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   02.  b. HIV/AIDS</v>
+        <v>..........A.02.b. - HIV/AIDS</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
@@ -6671,7 +6669,7 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   04. Meningitis</v>
+        <v>.....A.04. - Meningitis</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
@@ -6737,7 +6735,7 @@
     <row r="24" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   05. Encephalitis</v>
+        <v>.....A.05. - Encephalitis</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
@@ -6803,7 +6801,7 @@
     <row r="25" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   06. Hepatitis</v>
+        <v>.....A.06. - Hepatitis</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
@@ -6921,7 +6919,7 @@
     <row r="27" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   06.  a. Acute hepatitis B</v>
+        <v>..........A.06.a. - Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
@@ -7019,7 +7017,7 @@
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   06.  b. Acute hepatitis C</v>
+        <v>..........A.06.b. - Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
         <v>24</v>
@@ -8431,7 +8429,7 @@
     <row r="52" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   07. Respiratory infections</v>
+        <v>.....A.07. - Respiratory infections</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
@@ -8683,7 +8681,7 @@
     <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   08. Maternal conditions</v>
+        <v>.....A.08. - Maternal conditions</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -9126,7 +9124,7 @@
     <row r="63" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" s="55" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  A.   09. Neonatal conditions</v>
+        <v>.....A.09. - Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -9379,7 +9377,7 @@
     </row>
     <row r="67" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A67" s="55" t="str">
-        <f t="shared" ref="A67:A130" si="4">IF(I67&lt;&gt;"",CONCATENATE("  ",D67,". ",IF(E67="",E67,IF(F67="",CONCATENATE("  ",E67,". "),CONCATENATE("  ",E67,".  ",F67,". "))),W67),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B67" s="2">
@@ -9450,7 +9448,7 @@
     </row>
     <row r="68" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A68:A131" si="4">IF(I68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("..........",D68,".",E68,".",F68,". - ",W68),IF(E68&lt;&gt;"",CONCATENATE(".....",D68,".",E68,". - ",W68),CONCATENATE(D68,". - ",W68))),"")</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -9876,7 +9874,7 @@
     <row r="75" spans="1:27" s="89" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D. Other Chronic</v>
+        <v>D. - Other Chronic</v>
       </c>
       <c r="B75" s="35"/>
       <c r="C75" s="36" t="s">
@@ -9918,7 +9916,7 @@
     <row r="76" spans="1:27" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B. Cancer/Malignant neoplasms</v>
+        <v>B. - Cancer/Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
         <v>70</v>
@@ -9983,7 +9981,7 @@
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   01. Mouth and oropharynx cancers</v>
+        <v>.....B.01. - Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
         <v>71</v>
@@ -10246,7 +10244,7 @@
     <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   02. Oesophagus cancer</v>
+        <v>.....B.02. - Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
         <v>75</v>
@@ -10316,7 +10314,7 @@
     <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   03. Stomach cancer</v>
+        <v>.....B.03. - Stomach cancer</v>
       </c>
       <c r="B82" s="2">
         <v>76</v>
@@ -10388,7 +10386,7 @@
     <row r="83" spans="1:27" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   04. Colon and rectum cancers</v>
+        <v>.....B.04. - Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
         <v>77</v>
@@ -10458,7 +10456,7 @@
     <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   05. Liver cancer</v>
+        <v>.....B.05. - Liver cancer</v>
       </c>
       <c r="B84" s="2">
         <v>78</v>
@@ -10534,7 +10532,7 @@
     <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   06. Pancreas cancer</v>
+        <v>.....B.06. - Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
         <v>79</v>
@@ -10604,7 +10602,7 @@
     <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   07. Trachea, bronchus and lung cancers</v>
+        <v>.....B.07. - Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
         <v>80</v>
@@ -10674,7 +10672,7 @@
     <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   08. Melanoma and other skin cancers</v>
+        <v>.....B.08. - Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
         <v>81</v>
@@ -10870,7 +10868,7 @@
     <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   09. Breast cancer</v>
+        <v>.....B.09. - Breast cancer</v>
       </c>
       <c r="B90" s="2">
         <v>84</v>
@@ -10940,7 +10938,7 @@
     <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   10. Uterine cancer</v>
+        <v>.....B.10. - Uterine cancer</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="52" t="s">
@@ -11120,7 +11118,7 @@
     <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   11. Ovary cancer</v>
+        <v>.....B.11. - Ovary cancer</v>
       </c>
       <c r="B94" s="2">
         <v>87</v>
@@ -11190,7 +11188,7 @@
     <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   12. Prostate cancer</v>
+        <v>.....B.12. - Prostate cancer</v>
       </c>
       <c r="B95" s="2">
         <v>88</v>
@@ -11326,7 +11324,7 @@
     <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   13. Kidney, renal pelvis and ureter cancer</v>
+        <v>.....B.13. - Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
         <v>90</v>
@@ -11396,7 +11394,7 @@
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   14. Bladder cancer</v>
+        <v>.....B.14. - Bladder cancer</v>
       </c>
       <c r="B98" s="2">
         <v>91</v>
@@ -11466,7 +11464,7 @@
     <row r="99" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A99" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   15. Brain and nervous system cancers</v>
+        <v>.....B.15. - Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
         <v>92</v>
@@ -11800,7 +11798,7 @@
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   16. Lymphomas and multiple myeloma</v>
+        <v>.....B.16. - Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
         <v>97</v>
@@ -11863,7 +11861,7 @@
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   16.  a. Hodgkin lymphoma</v>
+        <v>..........B.16.a. - Hodgkin lymphoma</v>
       </c>
       <c r="B105" s="2">
         <v>98</v>
@@ -11931,7 +11929,7 @@
     <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   16.  b. Non-Hodgkin lymphoma</v>
+        <v>..........B.16.b. - Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
         <v>99</v>
@@ -11999,7 +11997,7 @@
     <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   16.  c. Multiple myeloma</v>
+        <v>..........B.16.c. - Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
         <v>100</v>
@@ -12067,7 +12065,7 @@
     <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   17. Leukaemia</v>
+        <v>.....B.17. - Leukaemia</v>
       </c>
       <c r="B108" s="2">
         <v>101</v>
@@ -12133,7 +12131,7 @@
     <row r="109" spans="1:27" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  B.   99. Other malignant neoplasms</v>
+        <v>.....B.99. - Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
         <v>102</v>
@@ -12262,7 +12260,7 @@
     <row r="111" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A111" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   01. Diabetes mellitus</v>
+        <v>.....D.01. - Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
         <v>104</v>
@@ -12332,7 +12330,7 @@
     <row r="112" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A112" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   02. Endocrine, blood, immune disorders</v>
+        <v>.....D.02. - Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
         <v>105</v>
@@ -12711,7 +12709,7 @@
     <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   03. Mental Health disoders (non-subsance use)</v>
+        <v>.....D.03. - Mental Health disoders (non-subsance use)</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="43" t="s">
@@ -12758,7 +12756,7 @@
     <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   04. Substance use (Mental Health)</v>
+        <v>.....D.04. - Substance use (Mental Health)</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="43" t="s">
@@ -13129,7 +13127,7 @@
     <row r="126" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   04.  a. Alcohol use disorders</v>
+        <v>..........D.04.a. - Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
         <v>116</v>
@@ -13257,7 +13255,7 @@
     <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   04.  b. Opioid use disorders</v>
+        <v>..........D.04.b. - Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
         <v>118</v>
@@ -13325,7 +13323,7 @@
     <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   04.  c. Cocaine use disorders</v>
+        <v>..........D.04.c. - Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
         <v>119</v>
@@ -13393,7 +13391,7 @@
     <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="55" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  D.   04.  d. Amphetamine use disorders</v>
+        <v>..........D.04.d. - Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
         <v>120</v>
@@ -13460,7 +13458,7 @@
     </row>
     <row r="131" spans="1:27" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="55" t="str">
-        <f t="shared" ref="A131:A194" si="11">IF(I131&lt;&gt;"",CONCATENATE("  ",D131,". ",IF(E131="",E131,IF(F131="",CONCATENATE("  ",E131,". "),CONCATENATE("  ",E131,".  ",F131,". "))),W131),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -13518,7 +13516,7 @@
     </row>
     <row r="132" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A132" s="55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A132:A195" si="11">IF(I132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("..........",D132,".",E132,".",F132,". - ",W132),IF(E132&lt;&gt;"",CONCATENATE(".....",D132,".",E132,". - ",W132),CONCATENATE(D132,". - ",W132))),"")</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -14119,7 +14117,7 @@
     <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  D.   05. Alzheimer’s disease and other dementias</v>
+        <v>.....D.05. - Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
         <v>132</v>
@@ -14492,7 +14490,7 @@
     <row r="148" spans="1:27" ht="292.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  D.   06. Other neurological conditions</v>
+        <v>.....D.06. - Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
         <v>138</v>
@@ -14523,13 +14521,13 @@
       <c r="L148" s="65" t="s">
         <v>1164</v>
       </c>
-      <c r="M148" s="109"/>
+      <c r="M148" s="108"/>
       <c r="N148" s="92"/>
       <c r="O148" s="9"/>
       <c r="P148" s="9" t="s">
         <v>1209</v>
       </c>
-      <c r="Q148" s="107" t="s">
+      <c r="Q148" s="106" t="s">
         <v>1277</v>
       </c>
       <c r="R148" s="9" t="s">
@@ -15035,7 +15033,7 @@
     <row r="157" spans="1:27" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A157" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  C. Cardiovascular diseases</v>
+        <v>C. - Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
         <v>147</v>
@@ -15159,7 +15157,7 @@
     <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  C.   01. Hypertensive heart disease</v>
+        <v>.....C.01. - Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
         <v>149</v>
@@ -15225,7 +15223,7 @@
     <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  C.   02. Ischaemic heart disease</v>
+        <v>.....C.02. - Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
         <v>150</v>
@@ -15291,7 +15289,7 @@
     <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  C.   03. Stroke</v>
+        <v>.....C.03. - Stroke</v>
       </c>
       <c r="B161" s="2">
         <v>151</v>
@@ -15361,7 +15359,7 @@
     <row r="162" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  C.   04. Cardiomyopathy, myocarditis, endocarditis</v>
+        <v>.....C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
         <v>152</v>
@@ -15427,7 +15425,7 @@
     <row r="163" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A163" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  C.   99. Other cardiovascular diseases</v>
+        <v>.....C.99. - Other cardiovascular diseases</v>
       </c>
       <c r="B163" s="2">
         <v>153</v>
@@ -15557,7 +15555,7 @@
     <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  D.   07. Chronic obstructive pulmonary disease</v>
+        <v>.....D.07. - Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B165" s="2">
         <v>155</v>
@@ -15686,7 +15684,7 @@
     <row r="167" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  D.   08. Other respiratory diseases</v>
+        <v>.....D.08. - Other respiratory diseases</v>
       </c>
       <c r="B167" s="2">
         <v>157</v>
@@ -15752,7 +15750,7 @@
     <row r="168" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  D.   09. Digestive diseases</v>
+        <v>.....D.09. - Digestive diseases</v>
       </c>
       <c r="B168" s="2">
         <v>158</v>
@@ -16452,7 +16450,7 @@
     <row r="179" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A179" s="55" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">  D.   10. Kidney diseases</v>
+        <v>.....D.10. - Kidney diseases</v>
       </c>
       <c r="B179" s="2">
         <v>169</v>
@@ -17448,8 +17446,8 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="55" t="str">
-        <f t="shared" ref="A195:A227" si="17">IF(I195&lt;&gt;"",CONCATENATE("  ",D195,". ",IF(E195="",E195,IF(F195="",CONCATENATE("  ",E195,". "),CONCATENATE("  ",E195,".  ",F195,". "))),W195),"")</f>
-        <v xml:space="preserve">  D.   11. Congenital anomalies</v>
+        <f t="shared" si="11"/>
+        <v>.....D.11. - Congenital anomalies</v>
       </c>
       <c r="B195" s="2">
         <v>185</v>
@@ -17513,7 +17511,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="A196:A227" si="17">IF(I196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("..........",D196,".",E196,".",F196,". - ",W196),IF(E196&lt;&gt;"",CONCATENATE(".....",D196,".",E196,". - ",W196),CONCATENATE(D196,". - ",W196))),"")</f>
         <v/>
       </c>
       <c r="B196" s="2">
@@ -18184,7 +18182,7 @@
     <row r="207" spans="1:27" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A207" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E. Injuries</v>
+        <v>E. - Injuries</v>
       </c>
       <c r="B207" s="2">
         <v>197</v>
@@ -18245,7 +18243,7 @@
     <row r="208" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A208" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   01. Unintentional injuries</v>
+        <v>.....E.01. - Unintentional injuries</v>
       </c>
       <c r="B208" s="2">
         <v>198</v>
@@ -18308,7 +18306,7 @@
     <row r="209" spans="1:27" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A209" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   01.  a. Road injury</v>
+        <v>..........E.01.a. - Road injury</v>
       </c>
       <c r="B209" s="2">
         <v>199</v>
@@ -18447,7 +18445,7 @@
     <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   01.  b. Falls</v>
+        <v>..........E.01.b. - Falls</v>
       </c>
       <c r="B211" s="2">
         <v>201</v>
@@ -18773,7 +18771,7 @@
     <row r="216" spans="1:27" ht="213.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   01.  x. Other unintentional injuries</v>
+        <v>..........E.01.x. - Other unintentional injuries</v>
       </c>
       <c r="B216" s="2">
         <v>206</v>
@@ -18905,7 +18903,7 @@
     <row r="218" spans="1:27" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   02. Suicide/Self-harm</v>
+        <v>.....E.02. - Suicide/Self-harm</v>
       </c>
       <c r="B218" s="2">
         <v>208</v>
@@ -18975,7 +18973,7 @@
     <row r="219" spans="1:27" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  E.   03. Homicide/Interpersonal violence</v>
+        <v>.....E.03. - Homicide/Interpersonal violence</v>
       </c>
       <c r="B219" s="2">
         <v>209</v>
@@ -19043,7 +19041,7 @@
       <c r="AA219" s="2"/>
     </row>
     <row r="220" spans="1:27" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="106" t="str">
+      <c r="A220" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
@@ -19106,14 +19104,14 @@
       <c r="AA220" s="2"/>
     </row>
     <row r="221" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="110" t="str">
+      <c r="A221" s="55" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C221" s="75" t="s">
         <v>1307</v>
       </c>
-      <c r="D221" s="111" t="s">
+      <c r="D221" s="109" t="s">
         <v>1145</v>
       </c>
       <c r="H221" s="27" t="str">
@@ -19144,7 +19142,7 @@
     <row r="222" spans="1:27" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  Z.   01. Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
+        <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D222" s="99" t="s">
         <v>1263</v>
@@ -19183,7 +19181,7 @@
     <row r="223" spans="1:27" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  D.   12. Sudden infant death syndrome</v>
+        <v>.....D.12. - Sudden infant death syndrome</v>
       </c>
       <c r="D223" s="99" t="s">
         <v>1144</v>
@@ -19222,7 +19220,7 @@
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  Z.   02. Missing ICD10</v>
+        <v>.....Z.02. - Missing ICD10</v>
       </c>
       <c r="D224" s="99" t="s">
         <v>1263</v>
@@ -19241,7 +19239,7 @@
     <row r="225" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A225" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  Z.   03. Code does not map</v>
+        <v>.....Z.03. - Code does not map</v>
       </c>
       <c r="D225" s="99" t="s">
         <v>1263</v>
@@ -19266,7 +19264,7 @@
     <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  Z. Missing/Unknown</v>
+        <v>Z. - Missing/Unknown</v>
       </c>
       <c r="D226" s="99" t="s">
         <v>1263</v>
@@ -19282,7 +19280,7 @@
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="55" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">  D.   99. Other Chronic Conditions</v>
+        <v>.....D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D227" s="99" t="s">
         <v>1144</v>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="1344">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -5278,10 +5278,10 @@
   <dimension ref="A1:AA227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18853,9 +18853,7 @@
       <c r="C217" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>1145</v>
-      </c>
+      <c r="D217" s="1"/>
       <c r="E217" s="48"/>
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
@@ -19054,12 +19052,14 @@
       <c r="D220" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="E220" s="48"/>
+      <c r="E220" s="48" t="s">
+        <v>1235</v>
+      </c>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>cE</v>
+        <v>cE99</v>
       </c>
       <c r="I220" s="27"/>
       <c r="J220" s="1" t="s">
@@ -19114,9 +19114,12 @@
       <c r="D221" s="109" t="s">
         <v>1145</v>
       </c>
+      <c r="E221" s="100" t="s">
+        <v>1235</v>
+      </c>
       <c r="H221" s="27" t="str">
         <f t="shared" si="20"/>
-        <v>cE</v>
+        <v>cE99</v>
       </c>
       <c r="I221" s="27"/>
       <c r="J221" s="75" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -4628,7 +4628,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4931,9 +4931,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" textRotation="90"/>
     </xf>
@@ -4942,6 +4939,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -5278,10 +5281,10 @@
   <dimension ref="A1:AA227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="P147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E220" sqref="E220"/>
+      <selection pane="bottomRight" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5342,7 +5345,7 @@
       <c r="I1" s="84" t="s">
         <v>1124</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="106" t="s">
         <v>1169</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -14521,13 +14524,13 @@
       <c r="L148" s="65" t="s">
         <v>1164</v>
       </c>
-      <c r="M148" s="108"/>
+      <c r="M148" s="107"/>
       <c r="N148" s="92"/>
       <c r="O148" s="9"/>
-      <c r="P148" s="9" t="s">
+      <c r="P148" s="109" t="s">
         <v>1209</v>
       </c>
-      <c r="Q148" s="106" t="s">
+      <c r="Q148" s="110" t="s">
         <v>1277</v>
       </c>
       <c r="R148" s="9" t="s">
@@ -19111,7 +19114,7 @@
       <c r="C221" s="75" t="s">
         <v>1307</v>
       </c>
-      <c r="D221" s="109" t="s">
+      <c r="D221" s="108" t="s">
         <v>1145</v>
       </c>
       <c r="E221" s="100" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -4163,9 +4163,6 @@
     <t>Added I271 from other cardiovascular diseases per IHME. Move M725-M726 per IHME ("skin_cellulitis"), to other infectious diseases per CCB.</t>
   </si>
   <si>
-    <t>Added R95 as it's own new row, was missing before for some reason</t>
-  </si>
-  <si>
     <t>[Note: A02 (botulism) and A05 (salmonella unspecified) mapped differently in IHME, but left here as is]
 IHME labels as skin_cellulitis; no such category in CCB; this seems like best location</t>
   </si>
@@ -4287,6 +4284,9 @@
       </rPr>
       <t>Congestive heart failure</t>
     </r>
+  </si>
+  <si>
+    <t>Added R95 as it's own new row, was missing before for some reason; included with neonatal conditions (A09); had been its own condition (D12)</t>
   </si>
 </sst>
 </file>
@@ -5177,8 +5177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q148" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R164" sqref="R164"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5234,7 +5234,7 @@
         <v>1124</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>1271</v>
@@ -8049,7 +8049,7 @@
         <v>880</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="O74" s="59"/>
       <c r="P74" s="60" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q74" s="59" t="s">
         <v>557</v>
@@ -12401,7 +12401,7 @@
         <v>1272</v>
       </c>
       <c r="M126" s="59" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="N126" s="66" t="s">
         <v>1273</v>
@@ -13640,7 +13640,7 @@
         <v>D06</v>
       </c>
       <c r="I148" s="57" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="J148" s="18" t="s">
         <v>1164</v>
@@ -13649,7 +13649,7 @@
         <v>1205</v>
       </c>
       <c r="L148" s="58" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="M148" s="59" t="s">
         <v>454</v>
@@ -14496,16 +14496,16 @@
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J163" s="5" t="s">
         <v>1217</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="L163" s="49" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="M163" s="59"/>
       <c r="N163" s="68"/>
@@ -14513,7 +14513,7 @@
       <c r="P163" s="59"/>
       <c r="Q163" s="59"/>
       <c r="R163" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="S163" s="50"/>
       <c r="T163" s="5"/>
@@ -14547,16 +14547,16 @@
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J164" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="J164" s="5" t="s">
+      <c r="K164" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="L164" s="19" t="s">
         <v>1342</v>
-      </c>
-      <c r="L164" s="19" t="s">
-        <v>1343</v>
       </c>
       <c r="M164" s="59" t="s">
         <v>469</v>
@@ -14572,7 +14572,7 @@
         <v>1102</v>
       </c>
       <c r="R164" s="79" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="S164" s="52" t="s">
         <v>99</v>
@@ -15348,7 +15348,7 @@
       </c>
       <c r="V177" s="2"/>
     </row>
-    <row r="178" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -17090,7 +17090,7 @@
       </c>
       <c r="O208" s="66"/>
       <c r="P208" s="60" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q208" s="59" t="s">
         <v>654</v>
@@ -17975,27 +17975,24 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="224" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>.....D.12. - Sudden infant death syndrome</v>
+        <v/>
       </c>
       <c r="D224" s="56" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="E224" s="55" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G224" s="42" t="str">
         <f t="shared" si="21"/>
-        <v>cD12</v>
-      </c>
-      <c r="H224" s="40" t="str">
-        <f>CONCATENATE(D224,E224,F224)</f>
-        <v>D12</v>
-      </c>
+        <v>cA09</v>
+      </c>
+      <c r="H224" s="40"/>
       <c r="I224" s="16" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
       <c r="J224" s="48" t="s">
         <v>1228</v>
@@ -18027,7 +18024,7 @@
         <v>Z02</v>
       </c>
       <c r="R225" s="48" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="226" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
@@ -18067,7 +18064,7 @@
         <v>Z</v>
       </c>
       <c r="R227" s="48" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
@@ -18328,24 +18325,24 @@
   <sheetData>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="77" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D12" s="78" t="s">
         <v>1335</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="E12" s="78" t="s">
         <v>1336</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>1337</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="1346">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4287,6 +4287,9 @@
   </si>
   <si>
     <t>Added R95 as it's own new row, was missing before for some reason; included with neonatal conditions (A09); had been its own condition (D12)</t>
+  </si>
+  <si>
+    <t>J09|J1|J2[0-2]|P23|U04</t>
   </si>
 </sst>
 </file>
@@ -4608,7 +4611,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4841,6 +4844,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5177,8 +5183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I224" sqref="I224"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8138,8 +8144,8 @@
       <c r="K53" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="L53" s="16" t="s">
-        <v>364</v>
+      <c r="L53" s="80" t="s">
+        <v>1345</v>
       </c>
       <c r="M53" s="59" t="s">
         <v>404</v>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="1348">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4290,6 +4290,12 @@
   </si>
   <si>
     <t>J09|J1|J2[0-2]|P23|U04</t>
+  </si>
+  <si>
+    <t>Digestive diseases (excluding cirrhosis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. Digestive diseases </t>
   </si>
 </sst>
 </file>
@@ -4611,7 +4617,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4848,6 +4854,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -5183,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -9847,7 +9856,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="str">
         <f t="shared" si="4"/>
         <v>.....B.04. - Colon and rectum cancers</v>
@@ -14829,7 +14838,7 @@
     <row r="169" spans="1:22" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.09. - Digestive diseases</v>
+        <v>.....D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
       <c r="B169" s="2">
         <v>158</v>
@@ -14872,11 +14881,11 @@
       <c r="Q169" s="59" t="s">
         <v>682</v>
       </c>
-      <c r="R169" s="2" t="s">
-        <v>281</v>
+      <c r="R169" s="81" t="s">
+        <v>1346</v>
       </c>
       <c r="S169" s="20" t="s">
-        <v>104</v>
+        <v>1347</v>
       </c>
       <c r="T169" s="2" t="s">
         <v>281</v>
@@ -14947,7 +14956,7 @@
     <row r="171" spans="1:22" s="48" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>.....D.11. - Cirrhosis of the liver</v>
       </c>
       <c r="B171" s="2">
         <v>160</v>
@@ -14959,14 +14968,17 @@
         <v>1144</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>1154</v>
+        <v>1163</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
         <f t="shared" si="16"/>
-        <v>cD09</v>
-      </c>
-      <c r="H171" s="40"/>
+        <v>cD11</v>
+      </c>
+      <c r="H171" s="40" t="str">
+        <f>CONCATENATE(D171,E171,F171)</f>
+        <v>D11</v>
+      </c>
       <c r="I171" s="16" t="s">
         <v>1235</v>
       </c>
@@ -16387,7 +16399,7 @@
     <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="str">
         <f t="shared" ref="A196:A228" si="18">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("..........",D196,".",E196,".",F196,". - ",R196),IF(E196&lt;&gt;"",CONCATENATE(".....",D196,".",E196,". - ",R196),CONCATENATE(D196,". - ",R196))),"")</f>
-        <v>.....D.11. - Congenital anomalies</v>
+        <v>.....D.12. - Congenital anomalies</v>
       </c>
       <c r="B196" s="2">
         <v>185</v>
@@ -16399,7 +16411,7 @@
         <v>1144</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="40" t="s">
@@ -16407,7 +16419,7 @@
       </c>
       <c r="H196" s="40" t="str">
         <f>CONCATENATE(D196,E196,F196)</f>
-        <v>D11</v>
+        <v>D12</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -16459,12 +16471,12 @@
         <v>1144</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
         <f t="shared" ref="G197:G202" si="19">CONCATENATE("c",D197,E197,F197)</f>
-        <v>cD11</v>
+        <v>cD12</v>
       </c>
       <c r="H197" s="40"/>
       <c r="I197" s="5"/>
@@ -16517,12 +16529,12 @@
         <v>1144</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
         <f t="shared" si="19"/>
-        <v>cD11</v>
+        <v>cD12</v>
       </c>
       <c r="H198" s="40"/>
       <c r="I198" s="5"/>
@@ -16575,12 +16587,12 @@
         <v>1144</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
         <f t="shared" si="19"/>
-        <v>cD11</v>
+        <v>cD12</v>
       </c>
       <c r="H199" s="40"/>
       <c r="I199" s="5"/>
@@ -16633,12 +16645,12 @@
         <v>1144</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
         <f t="shared" si="19"/>
-        <v>cD11</v>
+        <v>cD12</v>
       </c>
       <c r="H200" s="40"/>
       <c r="I200" s="5"/>
@@ -16691,12 +16703,12 @@
         <v>1144</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
         <f t="shared" si="19"/>
-        <v>cD11</v>
+        <v>cD12</v>
       </c>
       <c r="H201" s="40"/>
       <c r="I201" s="5"/>
@@ -16749,12 +16761,12 @@
         <v>1144</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
         <f t="shared" si="19"/>
-        <v>cD11</v>
+        <v>cD12</v>
       </c>
       <c r="H202" s="40"/>
       <c r="I202" s="5"/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1349">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4296,6 +4296,9 @@
   </si>
   <si>
     <t xml:space="preserve">J. Digestive diseases </t>
+  </si>
+  <si>
+    <t>INCLUDED FOR NOW WITH UNINTENTIONAL -- FIX</t>
   </si>
 </sst>
 </file>
@@ -4617,7 +4620,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4856,6 +4859,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -5192,14 +5198,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="46" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="44" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="56" customWidth="1"/>
     <col min="5" max="5" width="3.7109375" style="55" customWidth="1"/>
@@ -17924,9 +17930,8 @@
       </c>
     </row>
     <row r="222" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="B222" s="82" t="s">
+        <v>1348</v>
       </c>
       <c r="C222" s="16" t="s">
         <v>1289</v>
@@ -17935,11 +17940,11 @@
         <v>1145</v>
       </c>
       <c r="E222" s="55" t="s">
-        <v>1231</v>
+        <v>1146</v>
       </c>
       <c r="G222" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE99</v>
+        <v>cE01</v>
       </c>
       <c r="H222" s="40"/>
       <c r="I222" s="48" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.CBD\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$V$221</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +36,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N126" authorId="2">
+    <comment ref="N126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1350">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4300,11 +4305,14 @@
   <si>
     <t>INCLUDED FOR NOW WITH UNINTENTIONAL -- FIX</t>
   </si>
+  <si>
+    <t>Mental Health disorders (non-substance use)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -4952,7 +4960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4987,7 +4995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5198,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="P111" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R119" sqref="R119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12006,7 +12014,7 @@
     <row r="118" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....D.03. - Mental Health disoders (non-subsance use)</v>
+        <v>.....D.03. - Mental Health disorders (non-substance use)</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
@@ -12036,7 +12044,7 @@
       <c r="P118" s="59"/>
       <c r="Q118" s="59"/>
       <c r="R118" s="2" t="s">
-        <v>1160</v>
+        <v>1349</v>
       </c>
       <c r="S118" s="20"/>
       <c r="T118" s="2" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0.CBD\myCBD\myInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2517,9 +2517,6 @@
     <t>D[0-3]|D4[0-8]</t>
   </si>
   <si>
-    <t>E10[0-1,3-9]|E1[0-1,3-9]|E12[0-1,3-9]|E13[0-1,3-9]|E14[0-1,3-9]</t>
-  </si>
-  <si>
     <t>D56</t>
   </si>
   <si>
@@ -3981,9 +3978,6 @@
     <t>E10-E14 (minus E10.2-E10.29, E11.2-E11.29, E12.2, E13.2-E13.29, E14.2), R730, R739</t>
   </si>
   <si>
-    <t>E10[0-1,3-9]|E1[0-1,3-9]|E12[0-1,3-9]|E13[0-1,3-9]|E14[0-1,3-9]|R730|R739</t>
-  </si>
-  <si>
     <t>H3[0-2,4-5]|H35[0-2,4-9]|H5[3-4]</t>
   </si>
   <si>
@@ -4307,6 +4301,30 @@
   </si>
   <si>
     <t>Mental Health disorders (non-substance use)</t>
+  </si>
+  <si>
+    <t>E10[0-1,3-9]|E11[0-1,3-9]|E12[0-1,3-9]|E13[0-1,3-9]|E14[0-1,3-9]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E10[0-1,3-9]|E11[0-1,3-9]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|E12[0-1,3-9]|E13[0-1,3-9]|E14[0-1,3-9]|R730|R739</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5206,8 +5224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P111" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R119" sqref="R119"/>
+    <sheetView tabSelected="1" topLeftCell="D97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5239,7 +5257,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>761</v>
@@ -5248,25 +5266,25 @@
         <v>763</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>1121</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="38" t="s">
         <v>1122</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="39" t="s">
         <v>1123</v>
       </c>
-      <c r="H1" s="39" t="s">
-        <v>1124</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>384</v>
@@ -5275,13 +5293,13 @@
         <v>759</v>
       </c>
       <c r="M1" s="59" t="s">
+        <v>1164</v>
+      </c>
+      <c r="N1" s="59" t="s">
         <v>1165</v>
       </c>
-      <c r="N1" s="59" t="s">
-        <v>1166</v>
-      </c>
       <c r="O1" s="59" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="P1" s="61" t="s">
         <v>509</v>
@@ -5290,19 +5308,19 @@
         <v>760</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>762</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U1" s="45" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -5314,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D2" s="25">
         <v>0</v>
@@ -5336,16 +5354,16 @@
       <c r="P2" s="61"/>
       <c r="Q2" s="61"/>
       <c r="R2" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="V2" s="6"/>
     </row>
@@ -5361,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="6"/>
@@ -5378,7 +5396,7 @@
         <v>385</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O3" s="59"/>
       <c r="P3" s="59" t="s">
@@ -5408,10 +5426,10 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="26">
         <v>99</v>
@@ -5432,11 +5450,11 @@
       <c r="P4" s="59"/>
       <c r="Q4" s="59"/>
       <c r="R4" s="20" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="S4" s="20"/>
       <c r="T4" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="U4" s="45"/>
       <c r="V4" s="2"/>
@@ -5453,7 +5471,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="6"/>
@@ -5502,10 +5520,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="40" t="str">
@@ -5535,7 +5553,7 @@
         <v>511</v>
       </c>
       <c r="Q6" s="59" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>145</v>
@@ -5558,13 +5576,13 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="32" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="40"/>
@@ -5582,11 +5600,11 @@
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
       <c r="R7" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="S7" s="20"/>
       <c r="T7" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="U7" s="45"/>
       <c r="V7" s="2"/>
@@ -5600,19 +5618,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H8" s="40" t="str">
         <f>CONCATENATE(D8,E8,F8)</f>
@@ -5621,10 +5639,10 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M8" s="59" t="s">
         <v>388</v>
@@ -5637,7 +5655,7 @@
         <v>512</v>
       </c>
       <c r="Q8" s="59" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>146</v>
@@ -5665,13 +5683,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G9" s="40" t="str">
         <f>CONCATENATE("c",D9,E9,F9)</f>
@@ -5697,7 +5715,7 @@
         <v>513</v>
       </c>
       <c r="Q9" s="59" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R9" s="5" t="s">
         <v>147</v>
@@ -5725,13 +5743,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G10" s="40" t="str">
         <f>CONCATENATE("c",D10,E10,F10)</f>
@@ -5757,7 +5775,7 @@
         <v>514</v>
       </c>
       <c r="Q10" s="62" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>148</v>
@@ -5785,13 +5803,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G11" s="40" t="str">
         <f>CONCATENATE("c",D11,E11,F11)</f>
@@ -5817,7 +5835,7 @@
         <v>515</v>
       </c>
       <c r="Q11" s="59" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R11" s="5" t="s">
         <v>149</v>
@@ -5845,13 +5863,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G12" s="40" t="str">
         <f>CONCATENATE("c",D12,E12,F12)</f>
@@ -5903,13 +5921,13 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G13" s="40" t="str">
         <f>CONCATENATE("c",D13,E13,F13)</f>
@@ -5935,7 +5953,7 @@
         <v>517</v>
       </c>
       <c r="Q13" s="59" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R13" s="5" t="s">
         <v>151</v>
@@ -5960,19 +5978,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H14" s="40" t="str">
         <f>CONCATENATE(D14,E14,F14)</f>
@@ -5981,10 +5999,10 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M14" s="59" t="s">
         <v>392</v>
@@ -5997,7 +6015,7 @@
         <v>518</v>
       </c>
       <c r="Q14" s="59" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>152</v>
@@ -6025,13 +6043,13 @@
         <v>686</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G15" s="40" t="str">
         <f>CONCATENATE("c",D15,E15,F15)</f>
@@ -6081,13 +6099,13 @@
         <v>687</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G16" s="40" t="str">
         <f>CONCATENATE("c",D16,E16,F16)</f>
@@ -6097,13 +6115,13 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>330</v>
       </c>
       <c r="M16" s="59" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N16" s="63" t="s">
         <v>330</v>
@@ -6113,7 +6131,7 @@
         <v>519</v>
       </c>
       <c r="Q16" s="59" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>154</v>
@@ -6141,7 +6159,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="26">
         <v>99</v>
@@ -6171,7 +6189,7 @@
         <v>520</v>
       </c>
       <c r="Q17" s="59" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>155</v>
@@ -6199,10 +6217,10 @@
         <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="40"/>
@@ -6210,10 +6228,10 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M18" s="59" t="s">
         <v>395</v>
@@ -6249,7 +6267,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E19" s="26">
         <v>99</v>
@@ -6279,7 +6297,7 @@
         <v>521</v>
       </c>
       <c r="Q19" s="59" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>157</v>
@@ -6307,7 +6325,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E20" s="26">
         <v>99</v>
@@ -6337,7 +6355,7 @@
         <v>522</v>
       </c>
       <c r="Q20" s="59" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>158</v>
@@ -6365,7 +6383,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E21" s="26">
         <v>99</v>
@@ -6395,7 +6413,7 @@
         <v>523</v>
       </c>
       <c r="Q21" s="59" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>159</v>
@@ -6423,7 +6441,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E22" s="26">
         <v>99</v>
@@ -6453,7 +6471,7 @@
         <v>524</v>
       </c>
       <c r="Q22" s="59" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>160</v>
@@ -6481,10 +6499,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="40" t="str">
@@ -6514,7 +6532,7 @@
         <v>525</v>
       </c>
       <c r="Q23" s="59" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>161</v>
@@ -6542,10 +6560,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="40" t="str">
@@ -6575,7 +6593,7 @@
         <v>526</v>
       </c>
       <c r="Q24" s="59" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>162</v>
@@ -6603,10 +6621,10 @@
         <v>688</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="40"/>
@@ -6617,13 +6635,13 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L25" s="16" t="s">
         <v>339</v>
       </c>
       <c r="M25" s="59" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N25" s="63" t="s">
         <v>339</v>
@@ -6657,10 +6675,10 @@
         <v>689</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="40" t="str">
@@ -6711,13 +6729,13 @@
         <v>690</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G27" s="40" t="str">
         <f>CONCATENATE("c",D27,E27,F27)</f>
@@ -6730,13 +6748,13 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>341</v>
       </c>
       <c r="M27" s="59" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N27" s="63" t="s">
         <v>341</v>
@@ -6765,7 +6783,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="26"/>
@@ -6798,13 +6816,13 @@
         <v>691</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G29" s="40" t="str">
         <f>CONCATENATE("c",D29,E29,F29)</f>
@@ -6817,13 +6835,13 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L29" s="16" t="s">
         <v>342</v>
       </c>
       <c r="M29" s="59" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N29" s="63" t="s">
         <v>342</v>
@@ -6857,10 +6875,10 @@
         <v>692</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="40" t="str">
@@ -6871,13 +6889,13 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="L30" s="16" t="s">
         <v>343</v>
       </c>
       <c r="M30" s="59" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N30" s="63" t="s">
         <v>343</v>
@@ -6889,13 +6907,13 @@
         <v>167</v>
       </c>
       <c r="S30" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>167</v>
       </c>
       <c r="U30" s="45" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="V30" s="2"/>
     </row>
@@ -6911,7 +6929,7 @@
         <v>693</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="6"/>
@@ -6920,10 +6938,10 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M31" s="59" t="s">
         <v>399</v>
@@ -6960,7 +6978,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E32" s="26">
         <v>99</v>
@@ -6990,7 +7008,7 @@
         <v>527</v>
       </c>
       <c r="Q32" s="59" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>169</v>
@@ -7018,7 +7036,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E33" s="26">
         <v>99</v>
@@ -7048,7 +7066,7 @@
         <v>528</v>
       </c>
       <c r="Q33" s="59" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>170</v>
@@ -7076,7 +7094,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E34" s="26">
         <v>99</v>
@@ -7106,7 +7124,7 @@
         <v>529</v>
       </c>
       <c r="Q34" s="59" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>171</v>
@@ -7134,7 +7152,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E35" s="26">
         <v>99</v>
@@ -7164,7 +7182,7 @@
         <v>530</v>
       </c>
       <c r="Q35" s="59" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>172</v>
@@ -7192,7 +7210,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E36" s="26">
         <v>99</v>
@@ -7219,10 +7237,10 @@
       </c>
       <c r="O36" s="63"/>
       <c r="P36" s="64" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Q36" s="64" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>173</v>
@@ -7250,7 +7268,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E37" s="26">
         <v>99</v>
@@ -7304,7 +7322,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E38" s="26">
         <v>99</v>
@@ -7358,7 +7376,7 @@
         <v>694</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E39" s="26">
         <v>99</v>
@@ -7416,7 +7434,7 @@
         <v>695</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E40" s="26">
         <v>99</v>
@@ -7446,7 +7464,7 @@
         <v>531</v>
       </c>
       <c r="Q40" s="59" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>177</v>
@@ -7471,10 +7489,10 @@
         <v>36</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E41" s="26">
         <v>99</v>
@@ -7506,13 +7524,13 @@
         <v>758</v>
       </c>
       <c r="S41" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="T41" s="5" t="s">
         <v>758</v>
       </c>
       <c r="U41" s="45" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="V41" s="2"/>
     </row>
@@ -7525,10 +7543,10 @@
         <v>37</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E42" s="26">
         <v>99</v>
@@ -7558,19 +7576,19 @@
         <v>532</v>
       </c>
       <c r="Q42" s="59" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>178</v>
       </c>
       <c r="S42" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="T42" s="5" t="s">
         <v>178</v>
       </c>
       <c r="U42" s="45" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="V42" s="2"/>
     </row>
@@ -7583,10 +7601,10 @@
         <v>38</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E43" s="26">
         <v>99</v>
@@ -7618,13 +7636,13 @@
         <v>179</v>
       </c>
       <c r="S43" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="T43" s="5" t="s">
         <v>179</v>
       </c>
       <c r="U43" s="45" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="V43" s="2"/>
     </row>
@@ -7637,10 +7655,10 @@
         <v>39</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E44" s="26">
         <v>99</v>
@@ -7670,19 +7688,19 @@
         <v>533</v>
       </c>
       <c r="Q44" s="59" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R44" s="5" t="s">
         <v>180</v>
       </c>
       <c r="S44" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>180</v>
       </c>
       <c r="U44" s="45" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="V44" s="2"/>
     </row>
@@ -7695,10 +7713,10 @@
         <v>40</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E45" s="26">
         <v>99</v>
@@ -7728,19 +7746,19 @@
         <v>534</v>
       </c>
       <c r="Q45" s="59" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>181</v>
       </c>
       <c r="S45" s="20" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="T45" s="5" t="s">
         <v>181</v>
       </c>
       <c r="U45" s="45" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="V45" s="2"/>
     </row>
@@ -7753,10 +7771,10 @@
         <v>41</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="6"/>
@@ -7765,16 +7783,16 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M46" s="59" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N46" s="59" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="O46" s="59"/>
       <c r="P46" s="64">
@@ -7787,13 +7805,13 @@
         <v>182</v>
       </c>
       <c r="S46" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="T46" s="2" t="s">
         <v>182</v>
       </c>
       <c r="U46" s="45" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="V46" s="2"/>
     </row>
@@ -7809,7 +7827,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E47" s="26">
         <v>99</v>
@@ -7867,7 +7885,7 @@
         <v>26</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E48" s="26">
         <v>99</v>
@@ -7921,7 +7939,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E49" s="26">
         <v>99</v>
@@ -7975,7 +7993,7 @@
         <v>696</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E50" s="26">
         <v>99</v>
@@ -7989,13 +8007,13 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>361</v>
       </c>
       <c r="M50" s="59" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="N50" s="63" t="s">
         <v>361</v>
@@ -8007,13 +8025,13 @@
         <v>186</v>
       </c>
       <c r="S50" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T50" s="5" t="s">
         <v>186</v>
       </c>
       <c r="U50" s="45" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="V50" s="2"/>
     </row>
@@ -8026,10 +8044,10 @@
         <v>46</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E51" s="26">
         <v>99</v>
@@ -8041,19 +8059,19 @@
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K51" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L51" s="19" t="s">
         <v>1236</v>
       </c>
-      <c r="L51" s="19" t="s">
-        <v>1237</v>
-      </c>
       <c r="M51" s="59" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N51" s="63" t="s">
         <v>362</v>
@@ -8063,22 +8081,22 @@
         <v>535</v>
       </c>
       <c r="Q51" s="59" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>187</v>
       </c>
       <c r="S51" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>187</v>
       </c>
       <c r="U51" s="45" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
@@ -8093,10 +8111,10 @@
         <v>28</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="40"/>
@@ -8107,10 +8125,10 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M52" s="59" t="s">
         <v>403</v>
@@ -8151,10 +8169,10 @@
         <v>29</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="40" t="str">
@@ -8168,7 +8186,7 @@
         <v>404</v>
       </c>
       <c r="L53" s="80" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="M53" s="59" t="s">
         <v>404</v>
@@ -8181,7 +8199,7 @@
         <v>537</v>
       </c>
       <c r="Q53" s="59" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="R53" s="5" t="s">
         <v>189</v>
@@ -8209,10 +8227,10 @@
         <v>30</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="40" t="str">
@@ -8239,7 +8257,7 @@
         <v>538</v>
       </c>
       <c r="Q54" s="59" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>190</v>
@@ -8267,10 +8285,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="40" t="str">
@@ -8297,7 +8315,7 @@
         <v>539</v>
       </c>
       <c r="Q55" s="59" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="R55" s="5" t="s">
         <v>191</v>
@@ -8325,14 +8343,14 @@
         <v>32</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H56" s="40" t="str">
         <f>CONCATENATE(D56,E56,F56)</f>
@@ -8341,10 +8359,10 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M56" s="59" t="s">
         <v>407</v>
@@ -8385,10 +8403,10 @@
         <v>33</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="40" t="str">
@@ -8415,7 +8433,7 @@
         <v>541</v>
       </c>
       <c r="Q57" s="59" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="R57" s="5" t="s">
         <v>193</v>
@@ -8443,10 +8461,10 @@
         <v>34</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="40" t="str">
@@ -8473,7 +8491,7 @@
         <v>542</v>
       </c>
       <c r="Q58" s="59" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="R58" s="5" t="s">
         <v>194</v>
@@ -8501,10 +8519,10 @@
         <v>35</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="40" t="str">
@@ -8559,10 +8577,10 @@
         <v>36</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="40" t="str">
@@ -8589,7 +8607,7 @@
         <v>544</v>
       </c>
       <c r="Q60" s="59" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R60" s="5" t="s">
         <v>196</v>
@@ -8617,10 +8635,10 @@
         <v>37</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="40" t="str">
@@ -8647,7 +8665,7 @@
         <v>545</v>
       </c>
       <c r="Q61" s="59" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="R61" s="5" t="s">
         <v>197</v>
@@ -8675,10 +8693,10 @@
         <v>38</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="40" t="str">
@@ -8705,7 +8723,7 @@
         <v>546</v>
       </c>
       <c r="Q62" s="59" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="R62" s="5" t="s">
         <v>198</v>
@@ -8733,14 +8751,14 @@
         <v>39</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H63" s="40" t="str">
         <f>CONCATENATE(D63,E63,F63)</f>
@@ -8752,13 +8770,13 @@
         <v>414</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="M63" s="59" t="s">
         <v>414</v>
       </c>
       <c r="N63" s="59" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="O63" s="59"/>
       <c r="P63" s="59" t="s">
@@ -8793,10 +8811,10 @@
         <v>40</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="40" t="str">
@@ -8823,7 +8841,7 @@
         <v>549</v>
       </c>
       <c r="Q64" s="59" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="R64" s="5" t="s">
         <v>200</v>
@@ -8851,10 +8869,10 @@
         <v>41</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="40" t="str">
@@ -8881,7 +8899,7 @@
         <v>550</v>
       </c>
       <c r="Q65" s="59" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="R65" s="5" t="s">
         <v>201</v>
@@ -8909,10 +8927,10 @@
         <v>42</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="40" t="str">
@@ -8926,20 +8944,20 @@
         <v>417</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="M66" s="59" t="s">
         <v>417</v>
       </c>
       <c r="N66" s="63" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O66" s="63"/>
       <c r="P66" s="59" t="s">
         <v>551</v>
       </c>
       <c r="Q66" s="59" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R66" s="5" t="s">
         <v>202</v>
@@ -8967,10 +8985,10 @@
         <v>43</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="40" t="str">
@@ -8979,16 +8997,16 @@
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="M67" s="59" t="s">
         <v>418</v>
@@ -9001,7 +9019,7 @@
         <v>552</v>
       </c>
       <c r="Q67" s="59" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="R67" s="5" t="s">
         <v>203</v>
@@ -9029,7 +9047,7 @@
         <v>44</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="6"/>
@@ -9038,10 +9056,10 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M68" s="59" t="s">
         <v>419</v>
@@ -9082,7 +9100,7 @@
         <v>45</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E69" s="26">
         <v>99</v>
@@ -9099,7 +9117,7 @@
         <v>420</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M69" s="59" t="s">
         <v>420</v>
@@ -9112,7 +9130,7 @@
         <v>554</v>
       </c>
       <c r="Q69" s="59" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="R69" s="5" t="s">
         <v>205</v>
@@ -9140,7 +9158,7 @@
         <v>46</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E70" s="26">
         <v>99</v>
@@ -9198,7 +9216,7 @@
         <v>47</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E71" s="26">
         <v>99</v>
@@ -9252,7 +9270,7 @@
         <v>48</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E72" s="26">
         <v>99</v>
@@ -9282,7 +9300,7 @@
         <v>555</v>
       </c>
       <c r="Q72" s="59" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="R72" s="5" t="s">
         <v>208</v>
@@ -9310,7 +9328,7 @@
         <v>697</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E73" s="26">
         <v>99</v>
@@ -9340,7 +9358,7 @@
         <v>556</v>
       </c>
       <c r="Q73" s="59" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="R73" s="5" t="s">
         <v>209</v>
@@ -9375,20 +9393,20 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M74" s="59" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="N74" s="59" t="s">
         <v>383</v>
       </c>
       <c r="O74" s="59"/>
       <c r="P74" s="60" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q74" s="59" t="s">
         <v>557</v>
@@ -9414,10 +9432,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="6"/>
@@ -9436,10 +9454,10 @@
       <c r="P75" s="59"/>
       <c r="Q75" s="59"/>
       <c r="R75" s="20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="T75" s="45" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V75" s="2"/>
     </row>
@@ -9455,7 +9473,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="6"/>
@@ -9467,10 +9485,10 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L76" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M76" s="59" t="s">
         <v>424</v>
@@ -9486,7 +9504,7 @@
         <v>558</v>
       </c>
       <c r="R76" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="S76" s="20" t="s">
         <v>51</v>
@@ -9511,10 +9529,10 @@
         <v>52</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="40" t="str">
@@ -9528,10 +9546,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L77" s="49" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="M77" s="59" t="s">
         <v>425</v>
@@ -9568,10 +9586,10 @@
         <v>698</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="40" t="str">
@@ -9580,19 +9598,19 @@
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="18" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="M78" s="59" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N78" s="68" t="s">
         <v>767</v>
@@ -9602,7 +9620,7 @@
         <v>560</v>
       </c>
       <c r="Q78" s="59" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="R78" s="5" t="s">
         <v>213</v>
@@ -9630,10 +9648,10 @@
         <v>699</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="40" t="str">
@@ -9642,16 +9660,16 @@
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="19" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K79" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L79" s="49" t="s">
         <v>1171</v>
-      </c>
-      <c r="L79" s="49" t="s">
-        <v>1172</v>
       </c>
       <c r="M79" s="59" t="s">
         <v>768</v>
@@ -9664,19 +9682,19 @@
         <v>561</v>
       </c>
       <c r="Q79" s="59" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="R79" s="5" t="s">
         <v>214</v>
       </c>
       <c r="S79" s="50" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="T79" s="5" t="s">
         <v>214</v>
       </c>
       <c r="U79" s="51" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="V79" s="2"/>
     </row>
@@ -9692,10 +9710,10 @@
         <v>700</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="40" t="str">
@@ -9706,13 +9724,13 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L80" s="49" t="s">
         <v>769</v>
       </c>
       <c r="M80" s="59" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N80" s="68" t="s">
         <v>769</v>
@@ -9722,7 +9740,7 @@
         <v>562</v>
       </c>
       <c r="Q80" s="59" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="R80" s="5" t="s">
         <v>215</v>
@@ -9750,10 +9768,10 @@
         <v>53</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="40" t="str">
@@ -9765,16 +9783,16 @@
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K81" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L81" s="49" t="s">
         <v>1173</v>
-      </c>
-      <c r="L81" s="49" t="s">
-        <v>1174</v>
       </c>
       <c r="M81" s="59" t="s">
         <v>426</v>
@@ -9787,7 +9805,7 @@
         <v>563</v>
       </c>
       <c r="Q81" s="59" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="R81" s="5" t="s">
         <v>216</v>
@@ -9815,10 +9833,10 @@
         <v>54</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="40" t="str">
@@ -9830,16 +9848,16 @@
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K82" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L82" s="49" t="s">
         <v>1175</v>
-      </c>
-      <c r="L82" s="49" t="s">
-        <v>1176</v>
       </c>
       <c r="M82" s="59" t="s">
         <v>427</v>
@@ -9852,7 +9870,7 @@
         <v>564</v>
       </c>
       <c r="Q82" s="59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="R82" s="5" t="s">
         <v>217</v>
@@ -9867,7 +9885,7 @@
         <v>54</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
@@ -9882,10 +9900,10 @@
         <v>55</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="40" t="str">
@@ -9897,16 +9915,16 @@
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K83" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="L83" s="49" t="s">
         <v>1250</v>
-      </c>
-      <c r="L83" s="49" t="s">
-        <v>1251</v>
       </c>
       <c r="M83" s="59" t="s">
         <v>428</v>
@@ -9919,7 +9937,7 @@
         <v>565</v>
       </c>
       <c r="Q83" s="59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="R83" s="5" t="s">
         <v>218</v>
@@ -9947,10 +9965,10 @@
         <v>56</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="40" t="str">
@@ -9962,16 +9980,16 @@
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K84" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L84" s="49" t="s">
         <v>1177</v>
-      </c>
-      <c r="L84" s="49" t="s">
-        <v>1178</v>
       </c>
       <c r="M84" s="59" t="s">
         <v>429</v>
@@ -9984,7 +10002,7 @@
         <v>566</v>
       </c>
       <c r="Q84" s="59" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="R84" s="5" t="s">
         <v>219</v>
@@ -10012,10 +10030,10 @@
         <v>57</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="40" t="str">
@@ -10027,16 +10045,16 @@
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K85" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L85" s="49" t="s">
         <v>1179</v>
-      </c>
-      <c r="L85" s="49" t="s">
-        <v>1180</v>
       </c>
       <c r="M85" s="59" t="s">
         <v>430</v>
@@ -10049,7 +10067,7 @@
         <v>567</v>
       </c>
       <c r="Q85" s="59" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="R85" s="5" t="s">
         <v>220</v>
@@ -10077,10 +10095,10 @@
         <v>58</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="40" t="str">
@@ -10092,16 +10110,16 @@
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L86" s="49" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="M86" s="59" t="s">
         <v>431</v>
@@ -10114,7 +10132,7 @@
         <v>568</v>
       </c>
       <c r="Q86" s="59" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="R86" s="5" t="s">
         <v>221</v>
@@ -10142,27 +10160,27 @@
         <v>59</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H87" s="40" t="str">
         <f t="shared" si="6"/>
         <v>B08</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L87" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M87" s="59" t="s">
         <v>432</v>
@@ -10199,10 +10217,10 @@
         <v>701</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="40" t="str">
@@ -10211,16 +10229,16 @@
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="18" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K88" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L88" s="49" t="s">
         <v>1254</v>
-      </c>
-      <c r="L88" s="49" t="s">
-        <v>1255</v>
       </c>
       <c r="M88" s="59" t="s">
         <v>773</v>
@@ -10261,10 +10279,10 @@
         <v>702</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="40" t="str">
@@ -10273,16 +10291,16 @@
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="18" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K89" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L89" s="49" t="s">
         <v>1256</v>
-      </c>
-      <c r="L89" s="49" t="s">
-        <v>1257</v>
       </c>
       <c r="M89" s="59" t="s">
         <v>774</v>
@@ -10295,7 +10313,7 @@
         <v>570</v>
       </c>
       <c r="Q89" s="59" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="R89" s="5" t="s">
         <v>224</v>
@@ -10323,10 +10341,10 @@
         <v>60</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="40" t="str">
@@ -10338,16 +10356,16 @@
         <v>B09</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K90" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L90" s="49" t="s">
         <v>1183</v>
-      </c>
-      <c r="L90" s="49" t="s">
-        <v>1184</v>
       </c>
       <c r="M90" s="59" t="s">
         <v>433</v>
@@ -10360,7 +10378,7 @@
         <v>571</v>
       </c>
       <c r="Q90" s="59" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="R90" s="5" t="s">
         <v>225</v>
@@ -10383,10 +10401,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="37" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E91" s="26">
         <v>10</v>
@@ -10398,7 +10416,7 @@
         <v>B10</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="49"/>
@@ -10408,11 +10426,11 @@
       <c r="P91" s="59"/>
       <c r="Q91" s="59"/>
       <c r="R91" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="S91" s="20"/>
       <c r="T91" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="U91" s="45"/>
       <c r="V91" s="2"/>
@@ -10429,10 +10447,10 @@
         <v>61</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="40" t="str">
@@ -10441,16 +10459,16 @@
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K92" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L92" s="49" t="s">
         <v>1185</v>
-      </c>
-      <c r="L92" s="49" t="s">
-        <v>1186</v>
       </c>
       <c r="M92" s="59" t="s">
         <v>434</v>
@@ -10463,7 +10481,7 @@
         <v>572</v>
       </c>
       <c r="Q92" s="59" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="R92" s="5" t="s">
         <v>226</v>
@@ -10491,7 +10509,7 @@
         <v>62</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E93" s="26">
         <v>10</v>
@@ -10503,16 +10521,16 @@
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L93" s="49" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="M93" s="59" t="s">
         <v>435</v>
@@ -10525,7 +10543,7 @@
         <v>573</v>
       </c>
       <c r="Q93" s="59" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="R93" s="5" t="s">
         <v>227</v>
@@ -10553,7 +10571,7 @@
         <v>63</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E94" s="26">
         <v>11</v>
@@ -10568,16 +10586,16 @@
         <v>B11</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K94" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L94" s="49" t="s">
         <v>1211</v>
-      </c>
-      <c r="L94" s="49" t="s">
-        <v>1212</v>
       </c>
       <c r="M94" s="59" t="s">
         <v>436</v>
@@ -10590,7 +10608,7 @@
         <v>574</v>
       </c>
       <c r="Q94" s="59" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="R94" s="5" t="s">
         <v>228</v>
@@ -10618,10 +10636,10 @@
         <v>64</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="40" t="str">
@@ -10633,16 +10651,16 @@
         <v>B12</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K95" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L95" s="49" t="s">
         <v>1187</v>
-      </c>
-      <c r="L95" s="49" t="s">
-        <v>1188</v>
       </c>
       <c r="M95" s="59" t="s">
         <v>437</v>
@@ -10655,7 +10673,7 @@
         <v>575</v>
       </c>
       <c r="Q95" s="59" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="R95" s="5" t="s">
         <v>229</v>
@@ -10683,7 +10701,7 @@
         <v>703</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E96" s="26">
         <v>99</v>
@@ -10695,16 +10713,16 @@
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K96" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L96" s="49" t="s">
         <v>1189</v>
-      </c>
-      <c r="L96" s="49" t="s">
-        <v>1190</v>
       </c>
       <c r="M96" s="59" t="s">
         <v>776</v>
@@ -10717,7 +10735,7 @@
         <v>576</v>
       </c>
       <c r="Q96" s="59" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="R96" s="5" t="s">
         <v>230</v>
@@ -10745,7 +10763,7 @@
         <v>704</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E97" s="26">
         <v>13</v>
@@ -10760,19 +10778,19 @@
         <v>B13</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K97" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L97" s="49" t="s">
         <v>1213</v>
       </c>
-      <c r="L97" s="49" t="s">
-        <v>1214</v>
-      </c>
       <c r="M97" s="59" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N97" s="68" t="s">
         <v>777</v>
@@ -10782,7 +10800,7 @@
         <v>577</v>
       </c>
       <c r="Q97" s="59" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="R97" s="5" t="s">
         <v>231</v>
@@ -10810,7 +10828,7 @@
         <v>705</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E98" s="26">
         <v>14</v>
@@ -10825,16 +10843,16 @@
         <v>B14</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K98" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L98" s="49" t="s">
         <v>1259</v>
-      </c>
-      <c r="L98" s="49" t="s">
-        <v>1260</v>
       </c>
       <c r="M98" s="59" t="s">
         <v>438</v>
@@ -10847,7 +10865,7 @@
         <v>578</v>
       </c>
       <c r="Q98" s="59" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="R98" s="5" t="s">
         <v>232</v>
@@ -10875,7 +10893,7 @@
         <v>706</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E99" s="26">
         <v>15</v>
@@ -10890,19 +10908,19 @@
         <v>B15</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K99" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L99" s="19" t="s">
         <v>1191</v>
       </c>
-      <c r="L99" s="19" t="s">
-        <v>1192</v>
-      </c>
       <c r="M99" s="59" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N99" s="68" t="s">
         <v>778</v>
@@ -10912,7 +10930,7 @@
         <v>579</v>
       </c>
       <c r="Q99" s="59" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="R99" s="5" t="s">
         <v>233</v>
@@ -10940,7 +10958,7 @@
         <v>707</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E100" s="26">
         <v>99</v>
@@ -10952,19 +10970,19 @@
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="19" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K100" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L100" s="49" t="s">
         <v>1193</v>
       </c>
-      <c r="L100" s="49" t="s">
-        <v>1194</v>
-      </c>
       <c r="M100" s="59" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N100" s="68" t="s">
         <v>779</v>
@@ -10974,16 +10992,16 @@
         <v>580</v>
       </c>
       <c r="Q100" s="59" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="S100" s="20" t="s">
         <v>707</v>
       </c>
       <c r="T100" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="U100" s="45" t="s">
         <v>707</v>
@@ -11002,7 +11020,7 @@
         <v>708</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E101" s="26">
         <v>99</v>
@@ -11014,16 +11032,16 @@
       </c>
       <c r="H101" s="40"/>
       <c r="I101" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K101" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L101" s="49" t="s">
         <v>1195</v>
-      </c>
-      <c r="L101" s="49" t="s">
-        <v>1196</v>
       </c>
       <c r="M101" s="59" t="s">
         <v>780</v>
@@ -11036,16 +11054,16 @@
         <v>581</v>
       </c>
       <c r="Q101" s="59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="S101" s="20" t="s">
         <v>708</v>
       </c>
       <c r="T101" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="U101" s="45" t="s">
         <v>708</v>
@@ -11064,7 +11082,7 @@
         <v>709</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E102" s="26">
         <v>99</v>
@@ -11076,16 +11094,16 @@
       </c>
       <c r="H102" s="40"/>
       <c r="I102" s="19" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K102" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L102" s="49" t="s">
         <v>1197</v>
-      </c>
-      <c r="L102" s="49" t="s">
-        <v>1198</v>
       </c>
       <c r="M102" s="59" t="s">
         <v>781</v>
@@ -11098,16 +11116,16 @@
         <v>582</v>
       </c>
       <c r="Q102" s="59" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="S102" s="20" t="s">
         <v>709</v>
       </c>
       <c r="T102" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="U102" s="45" t="s">
         <v>709</v>
@@ -11126,7 +11144,7 @@
         <v>710</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E103" s="26">
         <v>99</v>
@@ -11156,16 +11174,16 @@
         <v>583</v>
       </c>
       <c r="Q103" s="59" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="S103" s="20" t="s">
         <v>710</v>
       </c>
       <c r="T103" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="U103" s="45" t="s">
         <v>710</v>
@@ -11184,7 +11202,7 @@
         <v>711</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E104" s="26">
         <v>16</v>
@@ -11198,10 +11216,10 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L104" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M104" s="59" t="s">
         <v>439</v>
@@ -11214,19 +11232,19 @@
         <v>584</v>
       </c>
       <c r="Q104" s="59" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="R104" s="5" t="s">
         <v>234</v>
       </c>
       <c r="S104" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="T104" s="5" t="s">
         <v>234</v>
       </c>
       <c r="U104" s="45" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="V104" s="2"/>
     </row>
@@ -11242,13 +11260,13 @@
         <v>712</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E105" s="26">
         <v>16</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G105" s="40" t="str">
         <f t="shared" ref="G105:G111" si="9">CONCATENATE("c",D105,E105,F105)</f>
@@ -11280,13 +11298,13 @@
         <v>201</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>712</v>
       </c>
       <c r="T105" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="U105" s="5" t="s">
         <v>712</v>
@@ -11305,13 +11323,13 @@
         <v>713</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E106" s="26">
         <v>16</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G106" s="40" t="str">
         <f t="shared" si="9"/>
@@ -11324,13 +11342,13 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="L106" s="49" t="s">
         <v>785</v>
       </c>
       <c r="M106" s="59" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N106" s="68" t="s">
         <v>785</v>
@@ -11340,16 +11358,16 @@
         <v>586</v>
       </c>
       <c r="Q106" s="59" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="S106" s="5" t="s">
         <v>713</v>
       </c>
       <c r="T106" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="U106" s="5" t="s">
         <v>713</v>
@@ -11368,13 +11386,13 @@
         <v>714</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E107" s="26">
         <v>16</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G107" s="40" t="str">
         <f t="shared" si="9"/>
@@ -11387,13 +11405,13 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="L107" s="49" t="s">
         <v>786</v>
       </c>
       <c r="M107" s="59" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="N107" s="68" t="s">
         <v>786</v>
@@ -11406,13 +11424,13 @@
         <v>203</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="S107" s="5" t="s">
         <v>714</v>
       </c>
       <c r="T107" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="U107" s="5" t="s">
         <v>714</v>
@@ -11431,7 +11449,7 @@
         <v>715</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E108" s="26">
         <v>17</v>
@@ -11464,7 +11482,7 @@
         <v>588</v>
       </c>
       <c r="Q108" s="59" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R108" s="5" t="s">
         <v>235</v>
@@ -11492,7 +11510,7 @@
         <v>716</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E109" s="26">
         <v>99</v>
@@ -11507,19 +11525,19 @@
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K109" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="L109" s="49" t="s">
         <v>1215</v>
       </c>
-      <c r="L109" s="49" t="s">
-        <v>1216</v>
-      </c>
       <c r="M109" s="59" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="N109" s="68" t="s">
         <v>788</v>
@@ -11531,13 +11549,13 @@
         <v>236</v>
       </c>
       <c r="S109" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="T109" s="5" t="s">
         <v>236</v>
       </c>
       <c r="U109" s="45" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="V109" s="2"/>
     </row>
@@ -11553,7 +11571,7 @@
         <v>65</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E110" s="26">
         <v>99</v>
@@ -11565,10 +11583,10 @@
       </c>
       <c r="H110" s="40"/>
       <c r="K110" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="M110" s="59" t="s">
         <v>441</v>
@@ -11609,10 +11627,10 @@
         <v>66</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="40" t="str">
@@ -11624,22 +11642,22 @@
         <v>D01</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L111" s="49" t="s">
-        <v>1262</v>
+        <v>1349</v>
       </c>
       <c r="M111" s="59" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="N111" s="68" t="s">
-        <v>790</v>
+        <v>1348</v>
       </c>
       <c r="O111" s="69"/>
       <c r="P111" s="59" t="s">
@@ -11674,14 +11692,14 @@
         <v>67</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H112" s="40" t="str">
         <f>CONCATENATE(D112,E112,F112)</f>
@@ -11690,16 +11708,16 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="M112" s="59" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="N112" s="66" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="O112" s="69"/>
       <c r="P112" s="59" t="s">
@@ -11734,10 +11752,10 @@
         <v>717</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="40" t="str">
@@ -11748,16 +11766,16 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L113" s="49" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M113" s="59" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N113" s="68" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O113" s="69"/>
       <c r="P113" s="59" t="s">
@@ -11792,10 +11810,10 @@
         <v>718</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="40" t="str">
@@ -11806,16 +11824,16 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L114" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M114" s="59" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N114" s="68" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O114" s="69"/>
       <c r="P114" s="59" t="s">
@@ -11850,10 +11868,10 @@
         <v>719</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="40" t="str">
@@ -11864,23 +11882,23 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L115" s="49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M115" s="59" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="N115" s="68" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O115" s="69"/>
       <c r="P115" s="59" t="s">
         <v>595</v>
       </c>
       <c r="Q115" s="59" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R115" s="5" t="s">
         <v>242</v>
@@ -11908,10 +11926,10 @@
         <v>720</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="40" t="str">
@@ -11922,23 +11940,23 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L116" s="49" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M116" s="59" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="N116" s="68" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O116" s="69"/>
       <c r="P116" s="59" t="s">
         <v>596</v>
       </c>
       <c r="Q116" s="62" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="R116" s="5" t="s">
         <v>243</v>
@@ -11966,29 +11984,29 @@
         <v>721</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H117" s="40"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L117" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M117" s="59" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="N117" s="66" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O117" s="67"/>
       <c r="P117" s="59" t="s">
@@ -11998,13 +12016,13 @@
         <v>597</v>
       </c>
       <c r="R117" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="S117" s="20" t="s">
         <v>68</v>
       </c>
       <c r="T117" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="U117" s="45" t="s">
         <v>68</v>
@@ -12018,17 +12036,17 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H118" s="40" t="str">
         <f>CONCATENATE(D118,E118,F118)</f>
@@ -12044,11 +12062,11 @@
       <c r="P118" s="59"/>
       <c r="Q118" s="59"/>
       <c r="R118" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="S118" s="20"/>
       <c r="T118" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="U118" s="45"/>
       <c r="V118" s="2"/>
@@ -12060,13 +12078,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="40"/>
@@ -12084,11 +12102,11 @@
       <c r="P119" s="59"/>
       <c r="Q119" s="59"/>
       <c r="R119" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="S119" s="20"/>
       <c r="T119" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="U119" s="45"/>
       <c r="V119" s="2"/>
@@ -12100,7 +12118,7 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="35" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="26"/>
@@ -12141,16 +12159,16 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L121" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M121" s="59" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="N121" s="68" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O121" s="69"/>
       <c r="P121" s="59"/>
@@ -12181,10 +12199,10 @@
         <v>723</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="40" t="str">
@@ -12195,16 +12213,16 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L122" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M122" s="59" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="N122" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O122" s="71"/>
       <c r="P122" s="59"/>
@@ -12235,10 +12253,10 @@
         <v>724</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="40" t="str">
@@ -12249,16 +12267,16 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L123" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M123" s="59" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="N123" s="66" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O123" s="67"/>
       <c r="P123" s="59"/>
@@ -12267,13 +12285,13 @@
         <v>246</v>
       </c>
       <c r="S123" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="T123" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U123" s="45" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="V123" s="2"/>
     </row>
@@ -12289,10 +12307,10 @@
         <v>725</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="40" t="str">
@@ -12306,25 +12324,25 @@
         <v>442</v>
       </c>
       <c r="L124" s="49" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M124" s="59" t="s">
         <v>442</v>
       </c>
       <c r="N124" s="68" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="O124" s="69"/>
       <c r="P124" s="59"/>
       <c r="Q124" s="59"/>
       <c r="R124" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="S124" s="50" t="s">
         <v>725</v>
       </c>
       <c r="T124" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="U124" s="51" t="s">
         <v>725</v>
@@ -12343,10 +12361,10 @@
         <v>69</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="40" t="str">
@@ -12401,13 +12419,13 @@
         <v>70</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G126" s="40" t="str">
         <f>CONCATENATE("c",D126,E126,F126)</f>
@@ -12418,29 +12436,29 @@
         <v>D04a</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="M126" s="59" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="N126" s="66" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="O126" s="69"/>
       <c r="P126" s="59" t="s">
         <v>600</v>
       </c>
       <c r="Q126" s="59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R126" s="5" t="s">
         <v>248</v>
@@ -12475,23 +12493,23 @@
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
       <c r="K127" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L127" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M127" s="59" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="N127" s="68" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O127" s="69"/>
       <c r="P127" s="59" t="s">
         <v>601</v>
       </c>
       <c r="Q127" s="59" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="R127" s="5" t="s">
         <v>249</v>
@@ -12519,13 +12537,13 @@
         <v>668</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G128" s="40" t="str">
         <f t="shared" ref="G128:G135" si="10">CONCATENATE("c",D128,E128,F128)</f>
@@ -12538,32 +12556,32 @@
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
       <c r="K128" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L128" s="49" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M128" s="59" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="N128" s="68" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O128" s="69"/>
       <c r="P128" s="59" t="s">
         <v>602</v>
       </c>
       <c r="Q128" s="59" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="R128" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="S128" s="5" t="s">
         <v>668</v>
       </c>
       <c r="T128" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>668</v>
@@ -12582,13 +12600,13 @@
         <v>669</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F129" s="28" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G129" s="40" t="str">
         <f t="shared" si="10"/>
@@ -12601,32 +12619,32 @@
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L129" s="49" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M129" s="59" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N129" s="68" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O129" s="69"/>
       <c r="P129" s="59" t="s">
         <v>603</v>
       </c>
       <c r="Q129" s="59" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="R129" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="S129" s="5" t="s">
         <v>669</v>
       </c>
       <c r="T129" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="U129" s="5" t="s">
         <v>669</v>
@@ -12645,13 +12663,13 @@
         <v>726</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F130" s="28" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G130" s="40" t="str">
         <f t="shared" si="10"/>
@@ -12664,32 +12682,32 @@
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L130" s="49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M130" s="59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N130" s="68" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O130" s="69"/>
       <c r="P130" s="59" t="s">
         <v>604</v>
       </c>
       <c r="Q130" s="59" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R130" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="S130" s="5" t="s">
         <v>726</v>
       </c>
       <c r="T130" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="U130" s="5" t="s">
         <v>726</v>
@@ -12708,10 +12726,10 @@
         <v>727</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="40" t="str">
@@ -12721,28 +12739,28 @@
       <c r="H131" s="40"/>
       <c r="J131" s="5"/>
       <c r="K131" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L131" s="49" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M131" s="59" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N131" s="68" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O131" s="69"/>
       <c r="P131" s="59"/>
       <c r="Q131" s="59"/>
       <c r="R131" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="S131" s="5" t="s">
         <v>727</v>
       </c>
       <c r="T131" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="U131" s="5" t="s">
         <v>727</v>
@@ -12761,10 +12779,10 @@
         <v>728</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="40" t="str">
@@ -12773,44 +12791,44 @@
       </c>
       <c r="H132" s="40"/>
       <c r="I132" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="L132" s="19" t="s">
         <v>1240</v>
       </c>
-      <c r="J132" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>1170</v>
-      </c>
-      <c r="L132" s="19" t="s">
-        <v>1241</v>
-      </c>
       <c r="M132" s="59" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="N132" s="68" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O132" s="69"/>
       <c r="P132" s="59" t="s">
         <v>605</v>
       </c>
       <c r="Q132" s="59" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="R132" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="S132" s="5" t="s">
         <v>728</v>
       </c>
       <c r="T132" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="U132" s="5" t="s">
         <v>728</v>
       </c>
       <c r="V132" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
@@ -12825,10 +12843,10 @@
         <v>72</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="40" t="str">
@@ -12842,13 +12860,13 @@
         <v>444</v>
       </c>
       <c r="L133" s="49" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M133" s="59" t="s">
         <v>444</v>
       </c>
       <c r="N133" s="68" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O133" s="69"/>
       <c r="P133" s="59"/>
@@ -12879,10 +12897,10 @@
         <v>73</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="40" t="str">
@@ -12909,7 +12927,7 @@
         <v>606</v>
       </c>
       <c r="Q134" s="59" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R134" s="5" t="s">
         <v>251</v>
@@ -12937,10 +12955,10 @@
         <v>729</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="40" t="str">
@@ -12951,31 +12969,31 @@
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L135" s="49" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M135" s="59" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N135" s="68" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O135" s="69"/>
       <c r="P135" s="59"/>
       <c r="Q135" s="59"/>
       <c r="R135" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="T135" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="U135" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="V135" s="2"/>
     </row>
@@ -12998,28 +13016,28 @@
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L136" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M136" s="59" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N136" s="68" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O136" s="69"/>
       <c r="P136" s="59"/>
       <c r="Q136" s="59"/>
       <c r="R136" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="S136" s="5" t="s">
         <v>74</v>
       </c>
       <c r="T136" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="U136" s="5" t="s">
         <v>74</v>
@@ -13038,10 +13056,10 @@
         <v>730</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="40" t="str">
@@ -13052,28 +13070,28 @@
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L137" s="49" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M137" s="59" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N137" s="68" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O137" s="69"/>
       <c r="P137" s="59"/>
       <c r="Q137" s="59"/>
       <c r="R137" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="S137" s="5" t="s">
         <v>730</v>
       </c>
       <c r="T137" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="U137" s="5" t="s">
         <v>730</v>
@@ -13092,10 +13110,10 @@
         <v>731</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="40" t="str">
@@ -13106,28 +13124,28 @@
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="L138" s="49" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M138" s="59" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="N138" s="68" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O138" s="69"/>
       <c r="P138" s="59"/>
       <c r="Q138" s="59"/>
       <c r="R138" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="S138" s="5" t="s">
         <v>731</v>
       </c>
       <c r="T138" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>731</v>
@@ -13146,10 +13164,10 @@
         <v>75</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="40" t="str">
@@ -13163,13 +13181,13 @@
         <v>446</v>
       </c>
       <c r="L139" s="49" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M139" s="59" t="s">
         <v>446</v>
       </c>
       <c r="N139" s="68" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O139" s="69"/>
       <c r="P139" s="59"/>
@@ -13200,10 +13218,10 @@
         <v>76</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="40" t="str">
@@ -13214,16 +13232,16 @@
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L140" s="49" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M140" s="59" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N140" s="68" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O140" s="69"/>
       <c r="P140" s="59"/>
@@ -13254,10 +13272,10 @@
         <v>77</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="40"/>
@@ -13265,16 +13283,16 @@
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L141" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M141" s="59" t="s">
         <v>447</v>
       </c>
       <c r="N141" s="66" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O141" s="67"/>
       <c r="P141" s="59" t="s">
@@ -13311,10 +13329,10 @@
         <v>732</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="40" t="str">
@@ -13331,20 +13349,20 @@
         <v>448</v>
       </c>
       <c r="L142" s="49" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M142" s="59" t="s">
         <v>448</v>
       </c>
       <c r="N142" s="68" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O142" s="69"/>
       <c r="P142" s="59" t="s">
         <v>609</v>
       </c>
       <c r="Q142" s="59" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="R142" s="5" t="s">
         <v>255</v>
@@ -13372,10 +13390,10 @@
         <v>79</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="40" t="str">
@@ -13389,13 +13407,13 @@
         <v>449</v>
       </c>
       <c r="L143" s="49" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M143" s="59" t="s">
         <v>449</v>
       </c>
       <c r="N143" s="68" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O143" s="69"/>
       <c r="P143" s="59" t="s">
@@ -13430,10 +13448,10 @@
         <v>80</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="40" t="str">
@@ -13447,13 +13465,13 @@
         <v>450</v>
       </c>
       <c r="L144" s="49" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="M144" s="59" t="s">
         <v>450</v>
       </c>
       <c r="N144" s="68" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O144" s="69"/>
       <c r="P144" s="59" t="s">
@@ -13488,10 +13506,10 @@
         <v>81</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="40" t="str">
@@ -13546,10 +13564,10 @@
         <v>82</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="40" t="str">
@@ -13600,10 +13618,10 @@
         <v>83</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="40" t="str">
@@ -13654,10 +13672,10 @@
         <v>84</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="40" t="str">
@@ -13669,29 +13687,29 @@
         <v>D06</v>
       </c>
       <c r="I148" s="57" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="L148" s="58" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M148" s="59" t="s">
         <v>454</v>
       </c>
       <c r="N148" s="68" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O148" s="69"/>
       <c r="P148" s="59" t="s">
         <v>613</v>
       </c>
       <c r="Q148" s="59" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>261</v>
@@ -13719,10 +13737,10 @@
         <v>85</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="40"/>
@@ -13730,16 +13748,16 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L149" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M149" s="59" t="s">
         <v>455</v>
       </c>
       <c r="N149" s="66" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O149" s="67"/>
       <c r="P149" s="59"/>
@@ -13772,7 +13790,7 @@
         <v>86</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E150" s="26">
         <v>99</v>
@@ -13826,7 +13844,7 @@
         <v>87</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E151" s="26">
         <v>99</v>
@@ -13843,13 +13861,13 @@
         <v>457</v>
       </c>
       <c r="L151" s="49" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M151" s="59" t="s">
         <v>457</v>
       </c>
       <c r="N151" s="68" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O151" s="69"/>
       <c r="P151" s="59"/>
@@ -13880,7 +13898,7 @@
         <v>733</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E152" s="26">
         <v>99</v>
@@ -13897,13 +13915,13 @@
         <v>458</v>
       </c>
       <c r="L152" s="49" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M152" s="59" t="s">
         <v>458</v>
       </c>
       <c r="N152" s="68" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O152" s="69"/>
       <c r="P152" s="59"/>
@@ -13934,7 +13952,7 @@
         <v>89</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E153" s="26">
         <v>99</v>
@@ -13951,13 +13969,13 @@
         <v>459</v>
       </c>
       <c r="L153" s="49" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M153" s="59" t="s">
         <v>459</v>
       </c>
       <c r="N153" s="68" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O153" s="69"/>
       <c r="P153" s="59"/>
@@ -13988,7 +14006,7 @@
         <v>90</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E154" s="26">
         <v>99</v>
@@ -14005,13 +14023,13 @@
         <v>460</v>
       </c>
       <c r="L154" s="49" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="M154" s="59" t="s">
         <v>460</v>
       </c>
       <c r="N154" s="68" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O154" s="69"/>
       <c r="P154" s="59"/>
@@ -14042,7 +14060,7 @@
         <v>91</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E155" s="26">
         <v>99</v>
@@ -14059,13 +14077,13 @@
         <v>461</v>
       </c>
       <c r="L155" s="49" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M155" s="59" t="s">
         <v>461</v>
       </c>
       <c r="N155" s="68" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O155" s="69"/>
       <c r="P155" s="59"/>
@@ -14096,7 +14114,7 @@
         <v>92</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E156" s="26">
         <v>99</v>
@@ -14113,13 +14131,13 @@
         <v>462</v>
       </c>
       <c r="L156" s="49" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M156" s="59" t="s">
         <v>462</v>
       </c>
       <c r="N156" s="68" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O156" s="69"/>
       <c r="P156" s="59"/>
@@ -14152,7 +14170,7 @@
         <v>93</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" s="6"/>
@@ -14164,16 +14182,16 @@
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L157" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M157" s="59" t="s">
         <v>463</v>
       </c>
       <c r="N157" s="66" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O157" s="67"/>
       <c r="P157" s="59" t="s">
@@ -14208,7 +14226,7 @@
         <v>94</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E158" s="26">
         <v>99</v>
@@ -14225,20 +14243,20 @@
         <v>464</v>
       </c>
       <c r="L158" s="49" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M158" s="59" t="s">
         <v>464</v>
       </c>
       <c r="N158" s="68" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O158" s="69"/>
       <c r="P158" s="59" t="s">
         <v>617</v>
       </c>
       <c r="Q158" s="59" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R158" s="5" t="s">
         <v>271</v>
@@ -14266,10 +14284,10 @@
         <v>95</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="40" t="str">
@@ -14286,13 +14304,13 @@
         <v>465</v>
       </c>
       <c r="L159" s="49" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M159" s="59" t="s">
         <v>465</v>
       </c>
       <c r="N159" s="68" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O159" s="69"/>
       <c r="P159" s="59" t="s">
@@ -14327,10 +14345,10 @@
         <v>96</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="40" t="str">
@@ -14347,20 +14365,20 @@
         <v>466</v>
       </c>
       <c r="L160" s="49" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M160" s="59" t="s">
         <v>466</v>
       </c>
       <c r="N160" s="68" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O160" s="69"/>
       <c r="P160" s="59" t="s">
         <v>619</v>
       </c>
       <c r="Q160" s="59" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R160" s="5" t="s">
         <v>273</v>
@@ -14388,10 +14406,10 @@
         <v>97</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="40" t="str">
@@ -14403,29 +14421,29 @@
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K161" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L161" s="49" t="s">
         <v>1232</v>
-      </c>
-      <c r="L161" s="49" t="s">
-        <v>1233</v>
       </c>
       <c r="M161" s="59" t="s">
         <v>467</v>
       </c>
       <c r="N161" s="68" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O161" s="69"/>
       <c r="P161" s="59" t="s">
         <v>620</v>
       </c>
       <c r="Q161" s="59" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R161" s="5" t="s">
         <v>274</v>
@@ -14453,10 +14471,10 @@
         <v>98</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="40" t="str">
@@ -14473,20 +14491,20 @@
         <v>468</v>
       </c>
       <c r="L162" s="49" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M162" s="59" t="s">
         <v>468</v>
       </c>
       <c r="N162" s="68" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O162" s="69"/>
       <c r="P162" s="59" t="s">
         <v>621</v>
       </c>
       <c r="Q162" s="59" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R162" s="5" t="s">
         <v>275</v>
@@ -14510,10 +14528,10 @@
       <c r="B163" s="2"/>
       <c r="C163" s="36"/>
       <c r="D163" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="40" t="str">
@@ -14525,16 +14543,16 @@
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="L163" s="49" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="M163" s="59"/>
       <c r="N163" s="68"/>
@@ -14542,7 +14560,7 @@
       <c r="P163" s="59"/>
       <c r="Q163" s="59"/>
       <c r="R163" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="S163" s="50"/>
       <c r="T163" s="5"/>
@@ -14561,7 +14579,7 @@
         <v>99</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E164" s="26">
         <v>99</v>
@@ -14576,32 +14594,32 @@
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K164" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="J164" s="5" t="s">
+      <c r="L164" s="19" t="s">
         <v>1340</v>
-      </c>
-      <c r="K164" s="5" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L164" s="19" t="s">
-        <v>1342</v>
       </c>
       <c r="M164" s="59" t="s">
         <v>469</v>
       </c>
       <c r="N164" s="68" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O164" s="69"/>
       <c r="P164" s="59" t="s">
         <v>622</v>
       </c>
       <c r="Q164" s="59" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="R164" s="79" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="S164" s="52" t="s">
         <v>99</v>
@@ -14626,10 +14644,10 @@
         <v>100</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="40"/>
@@ -14637,16 +14655,16 @@
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L165" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M165" s="59" t="s">
         <v>470</v>
       </c>
       <c r="N165" s="66" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="O165" s="67"/>
       <c r="P165" s="59" t="s">
@@ -14681,10 +14699,10 @@
         <v>101</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="40" t="str">
@@ -14701,20 +14719,20 @@
         <v>471</v>
       </c>
       <c r="L166" s="49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M166" s="59" t="s">
         <v>471</v>
       </c>
       <c r="N166" s="68" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O166" s="69"/>
       <c r="P166" s="59" t="s">
         <v>624</v>
       </c>
       <c r="Q166" s="59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="R166" s="5" t="s">
         <v>278</v>
@@ -14742,10 +14760,10 @@
         <v>102</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="40" t="str">
@@ -14759,13 +14777,13 @@
         <v>472</v>
       </c>
       <c r="L167" s="49" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M167" s="59" t="s">
         <v>472</v>
       </c>
       <c r="N167" s="68" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O167" s="69"/>
       <c r="P167" s="59" t="s">
@@ -14797,13 +14815,13 @@
         <v>157</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="40" t="str">
@@ -14820,20 +14838,20 @@
         <v>473</v>
       </c>
       <c r="L168" s="49" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M168" s="59" t="s">
         <v>473</v>
       </c>
       <c r="N168" s="68" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="O168" s="69"/>
       <c r="P168" s="59" t="s">
         <v>626</v>
       </c>
       <c r="Q168" s="59" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="R168" s="5" t="s">
         <v>280</v>
@@ -14861,14 +14879,14 @@
         <v>104</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H169" s="40" t="str">
         <f>CONCATENATE(D169,E169,F169)</f>
@@ -14880,13 +14898,13 @@
         <v>474</v>
       </c>
       <c r="L169" s="19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M169" s="59" t="s">
         <v>474</v>
       </c>
       <c r="N169" s="66" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O169" s="67"/>
       <c r="P169" s="59" t="s">
@@ -14896,10 +14914,10 @@
         <v>682</v>
       </c>
       <c r="R169" s="81" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="S169" s="20" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="T169" s="2" t="s">
         <v>281</v>
@@ -14921,10 +14939,10 @@
         <v>105</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="40" t="str">
@@ -14938,20 +14956,20 @@
         <v>475</v>
       </c>
       <c r="L170" s="49" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M170" s="59" t="s">
         <v>475</v>
       </c>
       <c r="N170" s="68" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="O170" s="69"/>
       <c r="P170" s="59" t="s">
         <v>628</v>
       </c>
       <c r="Q170" s="59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="R170" s="5" t="s">
         <v>282</v>
@@ -14979,10 +14997,10 @@
         <v>106</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
@@ -14994,29 +15012,29 @@
         <v>D11</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K171" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L171" s="49" t="s">
         <v>1206</v>
-      </c>
-      <c r="L171" s="49" t="s">
-        <v>1207</v>
       </c>
       <c r="M171" s="59" t="s">
         <v>476</v>
       </c>
       <c r="N171" s="68" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O171" s="68"/>
       <c r="P171" s="59" t="s">
         <v>629</v>
       </c>
       <c r="Q171" s="59" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="R171" s="5" t="s">
         <v>283</v>
@@ -15044,10 +15062,10 @@
         <v>107</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="40" t="str">
@@ -15061,20 +15079,20 @@
         <v>477</v>
       </c>
       <c r="L172" s="49" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M172" s="59" t="s">
         <v>477</v>
       </c>
       <c r="N172" s="68" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O172" s="69"/>
       <c r="P172" s="59" t="s">
         <v>630</v>
       </c>
       <c r="Q172" s="59" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="R172" s="5" t="s">
         <v>284</v>
@@ -15102,10 +15120,10 @@
         <v>734</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="40" t="str">
@@ -15116,16 +15134,16 @@
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L173" s="49" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M173" s="59" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N173" s="68" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O173" s="69"/>
       <c r="P173" s="59" t="s">
@@ -15135,13 +15153,13 @@
         <v>535</v>
       </c>
       <c r="R173" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="S173" s="5" t="s">
         <v>734</v>
       </c>
       <c r="T173" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="U173" s="5" t="s">
         <v>734</v>
@@ -15160,10 +15178,10 @@
         <v>735</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="40" t="str">
@@ -15174,32 +15192,32 @@
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L174" s="49" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M174" s="59" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N174" s="68" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O174" s="69"/>
       <c r="P174" s="59" t="s">
         <v>632</v>
       </c>
       <c r="Q174" s="59" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="R174" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="S174" s="5" t="s">
         <v>735</v>
       </c>
       <c r="T174" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="U174" s="5" t="s">
         <v>735</v>
@@ -15218,10 +15236,10 @@
         <v>667</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="40" t="str">
@@ -15232,32 +15250,32 @@
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="L175" s="49" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M175" s="59" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N175" s="68" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="O175" s="69"/>
       <c r="P175" s="59" t="s">
         <v>633</v>
       </c>
       <c r="Q175" s="59" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="R175" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="S175" s="5" t="s">
         <v>667</v>
       </c>
       <c r="T175" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="U175" s="5" t="s">
         <v>667</v>
@@ -15276,10 +15294,10 @@
         <v>736</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="40" t="str">
@@ -15290,32 +15308,32 @@
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="L176" s="49" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M176" s="59" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N176" s="68" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O176" s="69"/>
       <c r="P176" s="59" t="s">
         <v>634</v>
       </c>
       <c r="Q176" s="59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="R176" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="S176" s="5" t="s">
         <v>736</v>
       </c>
       <c r="T176" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="U176" s="5" t="s">
         <v>736</v>
@@ -15334,10 +15352,10 @@
         <v>737</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="40" t="str">
@@ -15348,35 +15366,35 @@
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="L177" s="49" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M177" s="59" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="N177" s="68" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="O177" s="69"/>
       <c r="P177" s="59" t="s">
         <v>635</v>
       </c>
       <c r="Q177" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="R177" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="S177" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="S177" s="5" t="s">
-        <v>924</v>
-      </c>
       <c r="T177" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="U177" s="5" t="s">
         <v>923</v>
-      </c>
-      <c r="U177" s="5" t="s">
-        <v>924</v>
       </c>
       <c r="V177" s="2"/>
     </row>
@@ -15392,10 +15410,10 @@
         <v>738</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="40" t="str">
@@ -15404,29 +15422,29 @@
       </c>
       <c r="H178" s="40"/>
       <c r="I178" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K178" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="J178" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="K178" s="5" t="s">
+      <c r="L178" s="49" t="s">
         <v>1209</v>
       </c>
-      <c r="L178" s="49" t="s">
-        <v>1210</v>
-      </c>
       <c r="M178" s="59" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="N178" s="68" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O178" s="69"/>
       <c r="P178" s="59" t="s">
         <v>636</v>
       </c>
       <c r="Q178" s="59" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="R178" s="5" t="s">
         <v>285</v>
@@ -15454,7 +15472,7 @@
         <v>108</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E179" s="26"/>
       <c r="F179" s="6"/>
@@ -15463,16 +15481,16 @@
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
       <c r="K179" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="L179" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="M179" s="59" t="s">
         <v>952</v>
       </c>
-      <c r="L179" s="19" t="s">
-        <v>952</v>
-      </c>
-      <c r="M179" s="59" t="s">
-        <v>953</v>
-      </c>
       <c r="N179" s="66" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O179" s="66"/>
       <c r="P179" s="59" t="s">
@@ -15507,14 +15525,14 @@
         <v>109</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H180" s="40" t="str">
         <f>CONCATENATE(D180,E180,F180)</f>
@@ -15523,23 +15541,23 @@
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
       <c r="K180" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L180" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M180" s="59" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="N180" s="68" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O180" s="68"/>
       <c r="P180" s="59" t="s">
         <v>637</v>
       </c>
       <c r="Q180" s="59" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R180" s="5" t="s">
         <v>287</v>
@@ -15567,10 +15585,10 @@
         <v>739</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="40" t="str">
@@ -15581,16 +15599,16 @@
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L181" s="49" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="M181" s="59" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N181" s="68" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="O181" s="69"/>
       <c r="P181" s="59" t="s">
@@ -15600,13 +15618,13 @@
         <v>580</v>
       </c>
       <c r="R181" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="S181" s="5" t="s">
         <v>739</v>
       </c>
       <c r="T181" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="U181" s="5" t="s">
         <v>739</v>
@@ -15625,10 +15643,10 @@
         <v>740</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="40" t="str">
@@ -15639,16 +15657,16 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L182" s="49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="M182" s="59" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N182" s="68" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O182" s="69"/>
       <c r="P182" s="59" t="s">
@@ -15658,16 +15676,16 @@
         <v>2504</v>
       </c>
       <c r="R182" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="T182" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="U182" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="V182" s="2"/>
     </row>
@@ -15683,10 +15701,10 @@
         <v>741</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="40" t="str">
@@ -15697,16 +15715,16 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L183" s="49" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M183" s="59" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="N183" s="68" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O183" s="69"/>
       <c r="P183" s="59" t="s">
@@ -15716,13 +15734,13 @@
         <v>589</v>
       </c>
       <c r="R183" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="S183" s="5" t="s">
         <v>741</v>
       </c>
       <c r="T183" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="U183" s="5" t="s">
         <v>741</v>
@@ -15741,7 +15759,7 @@
         <v>742</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E184" s="26">
         <v>99</v>
@@ -15770,13 +15788,13 @@
       <c r="P184" s="59"/>
       <c r="Q184" s="59"/>
       <c r="R184" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="S184" s="50" t="s">
         <v>742</v>
       </c>
       <c r="T184" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U184" s="51" t="s">
         <v>742</v>
@@ -15795,7 +15813,7 @@
         <v>110</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E185" s="26">
         <v>99</v>
@@ -15812,20 +15830,20 @@
         <v>479</v>
       </c>
       <c r="L185" s="49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M185" s="59" t="s">
         <v>479</v>
       </c>
       <c r="N185" s="68" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O185" s="69"/>
       <c r="P185" s="59" t="s">
         <v>641</v>
       </c>
       <c r="Q185" s="59" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="R185" s="5" t="s">
         <v>288</v>
@@ -15853,7 +15871,7 @@
         <v>743</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E186" s="26">
         <v>99</v>
@@ -15870,29 +15888,29 @@
         <v>480</v>
       </c>
       <c r="L186" s="49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M186" s="59" t="s">
         <v>480</v>
       </c>
       <c r="N186" s="68" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O186" s="69"/>
       <c r="P186" s="59" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Q186" s="59" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="R186" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="S186" s="50" t="s">
         <v>111</v>
       </c>
       <c r="T186" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="U186" s="51" t="s">
         <v>111</v>
@@ -15911,7 +15929,7 @@
         <v>112</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E187" s="26">
         <v>99</v>
@@ -15928,20 +15946,20 @@
         <v>481</v>
       </c>
       <c r="L187" s="49" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M187" s="59" t="s">
         <v>481</v>
       </c>
       <c r="N187" s="68" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="O187" s="69"/>
       <c r="P187" s="59" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q187" s="59" t="s">
         <v>1019</v>
-      </c>
-      <c r="Q187" s="59" t="s">
-        <v>1020</v>
       </c>
       <c r="R187" s="5" t="s">
         <v>289</v>
@@ -15969,7 +15987,7 @@
         <v>113</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E188" s="26">
         <v>99</v>
@@ -15986,20 +16004,20 @@
         <v>482</v>
       </c>
       <c r="L188" s="49" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M188" s="59" t="s">
         <v>482</v>
       </c>
       <c r="N188" s="68" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O188" s="69"/>
       <c r="P188" s="59" t="s">
         <v>642</v>
       </c>
       <c r="Q188" s="59" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="R188" s="5" t="s">
         <v>290</v>
@@ -16027,7 +16045,7 @@
         <v>114</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E189" s="26">
         <v>99</v>
@@ -16042,13 +16060,13 @@
         <v>483</v>
       </c>
       <c r="L189" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M189" s="59" t="s">
         <v>483</v>
       </c>
       <c r="N189" s="68" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O189" s="69"/>
       <c r="P189" s="59" t="s">
@@ -16083,29 +16101,29 @@
         <v>115</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H190" s="40"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L190" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M190" s="59" t="s">
         <v>484</v>
       </c>
       <c r="N190" s="66" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O190" s="67"/>
       <c r="P190" s="59" t="s">
@@ -16140,7 +16158,7 @@
         <v>116</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E191" s="26">
         <v>99</v>
@@ -16157,20 +16175,20 @@
         <v>485</v>
       </c>
       <c r="L191" s="49" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M191" s="59" t="s">
         <v>485</v>
       </c>
       <c r="N191" s="68" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O191" s="69"/>
       <c r="P191" s="59" t="s">
         <v>646</v>
       </c>
       <c r="Q191" s="59" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="R191" s="5" t="s">
         <v>293</v>
@@ -16198,7 +16216,7 @@
         <v>117</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E192" s="26">
         <v>99</v>
@@ -16215,13 +16233,13 @@
         <v>486</v>
       </c>
       <c r="L192" s="49" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M192" s="59" t="s">
         <v>486</v>
       </c>
       <c r="N192" s="68" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O192" s="69"/>
       <c r="P192" s="59"/>
@@ -16252,7 +16270,7 @@
         <v>118</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E193" s="26">
         <v>99</v>
@@ -16306,7 +16324,7 @@
         <v>119</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E194" s="26">
         <v>99</v>
@@ -16323,13 +16341,13 @@
         <v>488</v>
       </c>
       <c r="L194" s="49" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M194" s="59" t="s">
         <v>488</v>
       </c>
       <c r="N194" s="68" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O194" s="69"/>
       <c r="P194" s="59"/>
@@ -16360,7 +16378,7 @@
         <v>120</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E195" s="26">
         <v>99</v>
@@ -16372,29 +16390,29 @@
       </c>
       <c r="H195" s="40"/>
       <c r="I195" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="K195" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="L195" s="49" t="s">
         <v>1203</v>
-      </c>
-      <c r="L195" s="49" t="s">
-        <v>1204</v>
       </c>
       <c r="M195" s="59" t="s">
         <v>489</v>
       </c>
       <c r="N195" s="68" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O195" s="69"/>
       <c r="P195" s="59" t="s">
         <v>647</v>
       </c>
       <c r="Q195" s="59" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="R195" s="5" t="s">
         <v>297</v>
@@ -16422,14 +16440,14 @@
         <v>121</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H196" s="40" t="str">
         <f>CONCATENATE(D196,E196,F196)</f>
@@ -16438,16 +16456,16 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L196" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M196" s="59" t="s">
         <v>490</v>
       </c>
       <c r="N196" s="66" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O196" s="67"/>
       <c r="P196" s="59" t="s">
@@ -16482,10 +16500,10 @@
         <v>122</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
@@ -16499,20 +16517,20 @@
         <v>491</v>
       </c>
       <c r="L197" s="49" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M197" s="59" t="s">
         <v>491</v>
       </c>
       <c r="N197" s="68" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O197" s="69"/>
       <c r="P197" s="59" t="s">
         <v>650</v>
       </c>
       <c r="Q197" s="59" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R197" s="5" t="s">
         <v>299</v>
@@ -16540,10 +16558,10 @@
         <v>123</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
@@ -16557,20 +16575,20 @@
         <v>492</v>
       </c>
       <c r="L198" s="49" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M198" s="59" t="s">
         <v>492</v>
       </c>
       <c r="N198" s="68" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O198" s="69"/>
       <c r="P198" s="59" t="s">
         <v>651</v>
       </c>
       <c r="Q198" s="59" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="R198" s="5" t="s">
         <v>300</v>
@@ -16598,10 +16616,10 @@
         <v>124</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
@@ -16656,10 +16674,10 @@
         <v>125</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
@@ -16673,20 +16691,20 @@
         <v>494</v>
       </c>
       <c r="L200" s="49" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M200" s="59" t="s">
         <v>494</v>
       </c>
       <c r="N200" s="68" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O200" s="69"/>
       <c r="P200" s="59" t="s">
         <v>652</v>
       </c>
       <c r="Q200" s="59" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R200" s="5" t="s">
         <v>302</v>
@@ -16714,10 +16732,10 @@
         <v>126</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
@@ -16731,20 +16749,20 @@
         <v>495</v>
       </c>
       <c r="L201" s="49" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M201" s="59" t="s">
         <v>495</v>
       </c>
       <c r="N201" s="68" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="O201" s="69"/>
       <c r="P201" s="59" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q201" s="59" t="s">
         <v>1008</v>
-      </c>
-      <c r="Q201" s="59" t="s">
-        <v>1009</v>
       </c>
       <c r="R201" s="5" t="s">
         <v>303</v>
@@ -16772,10 +16790,10 @@
         <v>127</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
@@ -16789,20 +16807,20 @@
         <v>496</v>
       </c>
       <c r="L202" s="49" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M202" s="59" t="s">
         <v>496</v>
       </c>
       <c r="N202" s="68" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="O202" s="69"/>
       <c r="P202" s="59" t="s">
         <v>653</v>
       </c>
       <c r="Q202" s="59" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="R202" s="5" t="s">
         <v>304</v>
@@ -16830,27 +16848,27 @@
         <v>128</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E203" s="26"/>
       <c r="F203" s="6"/>
       <c r="G203" s="40" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H203" s="40"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L203" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M203" s="59" t="s">
         <v>497</v>
       </c>
       <c r="N203" s="66" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O203" s="67"/>
       <c r="P203" s="59"/>
@@ -16881,7 +16899,7 @@
         <v>129</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E204" s="26">
         <v>99</v>
@@ -16895,16 +16913,16 @@
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L204" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M204" s="59" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="N204" s="70" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O204" s="71"/>
       <c r="P204" s="59"/>
@@ -16935,7 +16953,7 @@
         <v>130</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E205" s="26">
         <v>99</v>
@@ -16989,7 +17007,7 @@
         <v>131</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E206" s="26">
         <v>99</v>
@@ -17006,13 +17024,13 @@
         <v>499</v>
       </c>
       <c r="L206" s="49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M206" s="59" t="s">
         <v>499</v>
       </c>
       <c r="N206" s="68" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="O206" s="69"/>
       <c r="P206" s="59"/>
@@ -17043,7 +17061,7 @@
         <v>744</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E207" s="26">
         <v>99</v>
@@ -17057,28 +17075,28 @@
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
       <c r="K207" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="L207" s="49" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M207" s="59" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="N207" s="68" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O207" s="69"/>
       <c r="P207" s="59"/>
       <c r="Q207" s="59"/>
       <c r="R207" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="S207" s="50" t="s">
         <v>744</v>
       </c>
       <c r="T207" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="U207" s="51" t="s">
         <v>744</v>
@@ -17097,7 +17115,7 @@
         <v>132</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" s="6"/>
@@ -17109,32 +17127,32 @@
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
       <c r="K208" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L208" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M208" s="59" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="N208" s="66" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O208" s="66"/>
       <c r="P208" s="60" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Q208" s="59" t="s">
         <v>654</v>
       </c>
       <c r="R208" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S208" s="20" t="s">
         <v>132</v>
       </c>
       <c r="T208" s="2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="U208" s="45" t="s">
         <v>132</v>
@@ -17153,10 +17171,10 @@
         <v>133</v>
       </c>
       <c r="D209" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E209" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="40"/>
@@ -17167,16 +17185,16 @@
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
       <c r="K209" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L209" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M209" s="59" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="N209" s="66" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="O209" s="66"/>
       <c r="P209" s="59" t="s">
@@ -17211,13 +17229,13 @@
         <v>134</v>
       </c>
       <c r="D210" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E210" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E210" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F210" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="G210" s="40" t="str">
         <f t="shared" ref="G210:G217" si="20">CONCATENATE("c",D210,E210,F210)</f>
@@ -17228,29 +17246,29 @@
         <v>E01a</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K210" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L210" s="19" t="s">
         <v>1199</v>
-      </c>
-      <c r="L210" s="19" t="s">
-        <v>1200</v>
       </c>
       <c r="M210" s="59" t="s">
         <v>500</v>
       </c>
       <c r="N210" s="68" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="O210" s="69"/>
       <c r="P210" s="59" t="s">
         <v>656</v>
       </c>
       <c r="Q210" s="59" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="R210" s="5" t="s">
         <v>310</v>
@@ -17278,13 +17296,13 @@
         <v>135</v>
       </c>
       <c r="D211" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E211" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E211" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F211" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G211" s="40" t="str">
         <f t="shared" si="20"/>
@@ -17294,23 +17312,23 @@
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
       <c r="K211" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L211" s="49" t="s">
         <v>1116</v>
       </c>
-      <c r="L211" s="49" t="s">
-        <v>1117</v>
-      </c>
       <c r="M211" s="59" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N211" s="68" t="s">
         <v>1116</v>
-      </c>
-      <c r="N211" s="68" t="s">
-        <v>1117</v>
       </c>
       <c r="O211" s="69"/>
       <c r="P211" s="59" t="s">
         <v>657</v>
       </c>
       <c r="Q211" s="59" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="R211" s="5" t="s">
         <v>311</v>
@@ -17338,13 +17356,13 @@
         <v>136</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E212" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E212" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F212" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G212" s="40" t="str">
         <f t="shared" si="20"/>
@@ -17360,20 +17378,20 @@
         <v>501</v>
       </c>
       <c r="L212" s="49" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M212" s="59" t="s">
         <v>501</v>
       </c>
       <c r="N212" s="68" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O212" s="69"/>
       <c r="P212" s="59" t="s">
         <v>658</v>
       </c>
       <c r="Q212" s="59" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="R212" s="5" t="s">
         <v>312</v>
@@ -17401,13 +17419,13 @@
         <v>137</v>
       </c>
       <c r="D213" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E213" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E213" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F213" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G213" s="40" t="str">
         <f t="shared" si="20"/>
@@ -17418,20 +17436,20 @@
         <v>502</v>
       </c>
       <c r="L213" s="49" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M213" s="59" t="s">
         <v>502</v>
       </c>
       <c r="N213" s="68" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O213" s="69"/>
       <c r="P213" s="59" t="s">
         <v>659</v>
       </c>
       <c r="Q213" s="59" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="R213" s="5" t="s">
         <v>313</v>
@@ -17459,13 +17477,13 @@
         <v>745</v>
       </c>
       <c r="D214" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E214" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E214" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F214" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G214" s="40" t="str">
         <f t="shared" si="20"/>
@@ -17478,20 +17496,20 @@
         <v>503</v>
       </c>
       <c r="L214" s="49" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M214" s="59" t="s">
         <v>503</v>
       </c>
       <c r="N214" s="68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O214" s="69"/>
       <c r="P214" s="59" t="s">
         <v>660</v>
       </c>
       <c r="Q214" s="59" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R214" s="5" t="s">
         <v>314</v>
@@ -17519,13 +17537,13 @@
         <v>746</v>
       </c>
       <c r="D215" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E215" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E215" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F215" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G215" s="40" t="str">
         <f t="shared" si="20"/>
@@ -17535,32 +17553,32 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="L215" s="49" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M215" s="59" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="N215" s="68" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O215" s="68"/>
       <c r="P215" s="59" t="s">
         <v>661</v>
       </c>
       <c r="Q215" s="59" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="R215" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="S215" s="20" t="s">
         <v>746</v>
       </c>
       <c r="T215" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="U215" s="45" t="s">
         <v>746</v>
@@ -17579,13 +17597,13 @@
         <v>747</v>
       </c>
       <c r="D216" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E216" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E216" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F216" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G216" s="40" t="str">
         <f t="shared" si="20"/>
@@ -17593,34 +17611,34 @@
       </c>
       <c r="H216" s="40"/>
       <c r="I216" s="5" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K216" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L216" s="49" t="s">
         <v>1201</v>
-      </c>
-      <c r="L216" s="49" t="s">
-        <v>1202</v>
       </c>
       <c r="M216" s="59" t="s">
         <v>504</v>
       </c>
       <c r="N216" s="68" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O216" s="69"/>
       <c r="P216" s="59"/>
       <c r="Q216" s="59"/>
       <c r="R216" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="S216" s="20" t="s">
         <v>747</v>
       </c>
       <c r="T216" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U216" s="45" t="s">
         <v>747</v>
@@ -17639,13 +17657,13 @@
         <v>748</v>
       </c>
       <c r="D217" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E217" s="26" t="s">
         <v>1145</v>
       </c>
-      <c r="E217" s="26" t="s">
-        <v>1146</v>
-      </c>
       <c r="F217" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G217" s="40" t="str">
         <f t="shared" si="20"/>
@@ -17656,44 +17674,44 @@
         <v>E01x</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="J217" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K217" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="L217" s="49" t="s">
         <v>1266</v>
       </c>
-      <c r="K217" s="5" t="s">
-        <v>1267</v>
-      </c>
-      <c r="L217" s="49" t="s">
-        <v>1268</v>
-      </c>
       <c r="M217" s="59" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N217" s="68" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O217" s="68"/>
       <c r="P217" s="59" t="s">
         <v>662</v>
       </c>
       <c r="Q217" s="59" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="R217" s="5" t="s">
         <v>315</v>
       </c>
       <c r="S217" s="20" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="T217" s="5" t="s">
         <v>315</v>
       </c>
       <c r="U217" s="45" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="V217" s="22" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
@@ -17715,16 +17733,16 @@
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L218" s="19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M218" s="59" t="s">
         <v>505</v>
       </c>
       <c r="N218" s="66" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O218" s="67"/>
       <c r="P218" s="59" t="s">
@@ -17759,10 +17777,10 @@
         <v>140</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E219" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="40" t="str">
@@ -17774,32 +17792,32 @@
         <v>E02</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J219" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="K219" s="5" t="s">
         <v>1217</v>
       </c>
-      <c r="K219" s="5" t="s">
+      <c r="L219" s="49" t="s">
         <v>1218</v>
-      </c>
-      <c r="L219" s="49" t="s">
-        <v>1219</v>
       </c>
       <c r="M219" s="59" t="s">
         <v>506</v>
       </c>
       <c r="N219" s="68" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="O219" s="69"/>
       <c r="P219" s="59" t="s">
         <v>665</v>
       </c>
       <c r="Q219" s="59" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="R219" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="S219" s="20" t="s">
         <v>140</v>
@@ -17824,10 +17842,10 @@
         <v>141</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E220" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="40" t="str">
@@ -17839,32 +17857,32 @@
         <v>E03</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L220" s="19" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M220" s="59" t="s">
         <v>507</v>
       </c>
       <c r="N220" s="68" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="O220" s="69"/>
       <c r="P220" s="59" t="s">
         <v>666</v>
       </c>
       <c r="Q220" s="59" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R220" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="S220" s="20" t="s">
         <v>141</v>
@@ -17889,10 +17907,10 @@
         <v>142</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="40" t="str">
@@ -17901,22 +17919,22 @@
       </c>
       <c r="H221" s="40"/>
       <c r="I221" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="L221" s="49" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="M221" s="59" t="s">
         <v>508</v>
       </c>
       <c r="N221" s="68" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O221" s="69"/>
       <c r="P221" s="59"/>
@@ -17934,21 +17952,21 @@
         <v>142</v>
       </c>
       <c r="V221" s="22" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B222" s="82" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D222" s="54" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E222" s="55" t="s">
         <v>1145</v>
-      </c>
-      <c r="E222" s="55" t="s">
-        <v>1146</v>
       </c>
       <c r="G222" s="40" t="str">
         <f t="shared" si="21"/>
@@ -17956,19 +17974,19 @@
       </c>
       <c r="H222" s="40"/>
       <c r="I222" s="48" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="J222" s="48" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K222" s="16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="L222" s="16" t="s">
         <v>1282</v>
       </c>
-      <c r="K222" s="16" t="s">
-        <v>1283</v>
-      </c>
-      <c r="L222" s="16" t="s">
-        <v>1284</v>
-      </c>
       <c r="R222" s="48" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
@@ -17977,10 +17995,10 @@
         <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D223" s="56" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E223" s="55" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G223" s="40" t="str">
         <f t="shared" si="21"/>
@@ -17991,19 +18009,19 @@
         <v>Z01</v>
       </c>
       <c r="I223" s="48" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J223" s="48" t="s">
         <v>1227</v>
       </c>
-      <c r="J223" s="48" t="s">
+      <c r="K223" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="K223" s="16" t="s">
+      <c r="L223" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="R223" s="48" t="s">
         <v>1229</v>
-      </c>
-      <c r="L223" s="16" t="s">
-        <v>1264</v>
-      </c>
-      <c r="R223" s="48" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="63.75" x14ac:dyDescent="0.25">
@@ -18012,10 +18030,10 @@
         <v/>
       </c>
       <c r="D224" s="56" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E224" s="55" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G224" s="42" t="str">
         <f t="shared" si="21"/>
@@ -18023,19 +18041,19 @@
       </c>
       <c r="H224" s="40"/>
       <c r="I224" s="16" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="J224" s="48" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K224" s="16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="L224" s="16" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="R224" s="48" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
@@ -18044,10 +18062,10 @@
         <v>.....Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E225" s="55" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G225" s="43"/>
       <c r="H225" s="40" t="str">
@@ -18055,7 +18073,7 @@
         <v>Z02</v>
       </c>
       <c r="R225" s="48" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="226" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
@@ -18064,10 +18082,10 @@
         <v>.....Z.03. - Code does not map</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E226" s="55" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G226" s="43"/>
       <c r="H226" s="40" t="str">
@@ -18075,10 +18093,10 @@
         <v>Z03</v>
       </c>
       <c r="I226" s="16" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="R226" s="48" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
@@ -18087,7 +18105,7 @@
         <v>Z. - Unknown/Missing Value</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G227" s="43"/>
       <c r="H227" s="40" t="str">
@@ -18095,7 +18113,7 @@
         <v>Z</v>
       </c>
       <c r="R227" s="48" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
@@ -18104,10 +18122,10 @@
         <v>.....D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E228" s="55" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="G228" s="43"/>
       <c r="H228" s="40" t="str">
@@ -18115,7 +18133,7 @@
         <v>D99</v>
       </c>
       <c r="R228" s="48" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
@@ -18150,16 +18168,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>937</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -18167,7 +18185,7 @@
         <v>761</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -18177,10 +18195,10 @@
         <v>763</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D3" s="12"/>
     </row>
@@ -18189,7 +18207,7 @@
         <v>749</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -18199,7 +18217,7 @@
         <v>750</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -18209,7 +18227,7 @@
         <v>751</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -18219,7 +18237,7 @@
         <v>752</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -18229,7 +18247,7 @@
         <v>753</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -18239,7 +18257,7 @@
         <v>754</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -18249,7 +18267,7 @@
         <v>755</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -18259,7 +18277,7 @@
         <v>756</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -18269,10 +18287,10 @@
         <v>764</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>932</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>933</v>
       </c>
       <c r="D12" s="12"/>
     </row>
@@ -18281,7 +18299,7 @@
         <v>384</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -18291,10 +18309,10 @@
         <v>759</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D14" s="12"/>
     </row>
@@ -18303,10 +18321,10 @@
         <v>509</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>940</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>941</v>
       </c>
       <c r="D15" s="12"/>
     </row>
@@ -18315,13 +18333,13 @@
         <v>760</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18356,24 +18374,24 @@
   <sheetData>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="77" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E12" s="78" t="s">
         <v>1334</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>1336</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -36,7 +31,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="2" shapeId="0">
+    <comment ref="P126" authorId="2">
       <text>
         <r>
           <rPr>
@@ -4345,7 +4340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -4661,7 +4656,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4905,6 +4900,12 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4993,7 +4994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5028,7 +5029,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5239,7 +5240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L94" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F109" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
@@ -11774,13 +11775,13 @@
       <c r="J111" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="K111" s="5" t="s">
+      <c r="K111" s="83" t="s">
         <v>1260</v>
       </c>
       <c r="L111" s="49" t="s">
         <v>1349</v>
       </c>
-      <c r="M111" s="49" t="s">
+      <c r="M111" s="84" t="s">
         <v>1352</v>
       </c>
       <c r="N111" s="49" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -4312,13 +4312,13 @@
     <t>regExICD10_CM</t>
   </si>
   <si>
-    <t>E08-E13</t>
-  </si>
-  <si>
     <t>E0[8-9]|E1[0-3]</t>
   </si>
   <si>
     <t>ICD-10-CM from CDC ICD-10-CM 2016 definitions (https://www.cdc.gov/nchs/icd/icd10cm.htm)</t>
+  </si>
+  <si>
+    <t>E08-E13, R730 abnormal glucose excludes diabetes, so shouldn't include here? R739 is hyperglycemia, unspecified--include?</t>
   </si>
 </sst>
 </file>
@@ -5218,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X112" sqref="X112"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L160" sqref="L160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -11760,10 +11760,10 @@
         <v>1348</v>
       </c>
       <c r="M111" s="49" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N111" s="49" t="s">
         <v>1351</v>
-      </c>
-      <c r="N111" s="49" t="s">
-        <v>1352</v>
       </c>
       <c r="O111" s="59" t="s">
         <v>975</v>
@@ -11791,7 +11791,7 @@
         <v>66</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="1363">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4319,6 +4319,33 @@
   </si>
   <si>
     <t>E08-E13, R730 abnormal glucose excludes diabetes, so shouldn't include here? R739 is hyperglycemia, unspecified--include?</t>
+  </si>
+  <si>
+    <t>F2[0-9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I30-I33, I38, I40, I42, I43? </t>
+  </si>
+  <si>
+    <t>I3[0-3,8]|I4[0,2-3]</t>
+  </si>
+  <si>
+    <t>I0[1-9]</t>
+  </si>
+  <si>
+    <t>G4[5-6]|I6[0-9]</t>
+  </si>
+  <si>
+    <t>Why is I00 included if it refers to rheumatic fever without heart involvement?</t>
+  </si>
+  <si>
+    <t>I26, I27.0, 127.2-127.9, I28, I34-I37, I44-I49, I51, I70-I83.9, I85, I86-I99</t>
+  </si>
+  <si>
+    <t>I26|I27[0, 2-9]|I28|I3[4-7]|I4[4-9]|I51|I7|I8[0-4,6-9]|I85|I8[6-9]|I9[0-9]</t>
+  </si>
+  <si>
+    <t>Include I43 ICD-10-CM? I43 is cardiomyopathy in diseases classified elsewhere</t>
   </si>
 </sst>
 </file>
@@ -5218,8 +5245,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L160" sqref="L160"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="W149" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="X162" sqref="X162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12352,8 +12382,12 @@
       <c r="L122" s="19" t="s">
         <v>797</v>
       </c>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
+      <c r="M122" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="N122" s="19" t="s">
+        <v>797</v>
+      </c>
       <c r="O122" s="59" t="s">
         <v>980</v>
       </c>
@@ -12408,8 +12442,12 @@
       <c r="L123" s="19" t="s">
         <v>798</v>
       </c>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19"/>
+      <c r="M123" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="N123" s="19" t="s">
+        <v>798</v>
+      </c>
       <c r="O123" s="59" t="s">
         <v>981</v>
       </c>
@@ -12464,8 +12502,12 @@
       <c r="L124" s="49" t="s">
         <v>799</v>
       </c>
-      <c r="M124" s="49"/>
-      <c r="N124" s="49"/>
+      <c r="M124" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="N124" s="49" t="s">
+        <v>799</v>
+      </c>
       <c r="O124" s="59" t="s">
         <v>442</v>
       </c>
@@ -12518,10 +12560,14 @@
         <v>443</v>
       </c>
       <c r="L125" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="M125" s="49"/>
-      <c r="N125" s="49"/>
+        <v>1354</v>
+      </c>
+      <c r="M125" s="49" t="s">
+        <v>443</v>
+      </c>
+      <c r="N125" s="49" t="s">
+        <v>1354</v>
+      </c>
       <c r="O125" s="59" t="s">
         <v>443</v>
       </c>
@@ -14451,8 +14497,12 @@
       <c r="L158" s="49" t="s">
         <v>826</v>
       </c>
-      <c r="M158" s="49"/>
-      <c r="N158" s="49"/>
+      <c r="M158" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="N158" s="49" t="s">
+        <v>1357</v>
+      </c>
       <c r="O158" s="59" t="s">
         <v>464</v>
       </c>
@@ -14514,8 +14564,12 @@
       <c r="L159" s="49" t="s">
         <v>827</v>
       </c>
-      <c r="M159" s="49"/>
-      <c r="N159" s="49"/>
+      <c r="M159" s="49" t="s">
+        <v>465</v>
+      </c>
+      <c r="N159" s="49" t="s">
+        <v>827</v>
+      </c>
       <c r="O159" s="59" t="s">
         <v>465</v>
       </c>
@@ -14577,8 +14631,12 @@
       <c r="L160" s="49" t="s">
         <v>828</v>
       </c>
-      <c r="M160" s="49"/>
-      <c r="N160" s="49"/>
+      <c r="M160" s="49" t="s">
+        <v>466</v>
+      </c>
+      <c r="N160" s="49" t="s">
+        <v>828</v>
+      </c>
       <c r="O160" s="59" t="s">
         <v>466</v>
       </c>
@@ -14644,8 +14702,12 @@
       <c r="L161" s="49" t="s">
         <v>1233</v>
       </c>
-      <c r="M161" s="49"/>
-      <c r="N161" s="49"/>
+      <c r="M161" s="49" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N161" s="49" t="s">
+        <v>1358</v>
+      </c>
       <c r="O161" s="59" t="s">
         <v>467</v>
       </c>
@@ -14707,8 +14769,12 @@
       <c r="L162" s="49" t="s">
         <v>830</v>
       </c>
-      <c r="M162" s="49"/>
-      <c r="N162" s="49"/>
+      <c r="M162" s="49" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N162" s="49" t="s">
+        <v>1356</v>
+      </c>
       <c r="O162" s="59" t="s">
         <v>468</v>
       </c>
@@ -14734,7 +14800,9 @@
       <c r="W162" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="X162" s="2"/>
+      <c r="X162" s="81" t="s">
+        <v>1362</v>
+      </c>
     </row>
     <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="str">
@@ -14770,8 +14838,12 @@
       <c r="L163" s="49" t="s">
         <v>1331</v>
       </c>
-      <c r="M163" s="49"/>
-      <c r="N163" s="49"/>
+      <c r="M163" s="49" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N163" s="49" t="s">
+        <v>1331</v>
+      </c>
       <c r="O163" s="59"/>
       <c r="P163" s="68"/>
       <c r="Q163" s="69"/>
@@ -14823,8 +14895,12 @@
       <c r="L164" s="19" t="s">
         <v>1341</v>
       </c>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
+      <c r="M164" s="19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N164" s="19" t="s">
+        <v>1361</v>
+      </c>
       <c r="O164" s="59" t="s">
         <v>469</v>
       </c>
@@ -14850,7 +14926,9 @@
       <c r="W164" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="X164" s="2"/>
+      <c r="X164" s="81" t="s">
+        <v>1359</v>
+      </c>
     </row>
     <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="str">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5246,10 +5246,10 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X162" sqref="X162"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1363">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -5246,10 +5246,10 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -15920,10 +15920,12 @@
       <c r="E181" s="26" t="s">
         <v>1157</v>
       </c>
-      <c r="F181" s="6"/>
+      <c r="F181" s="6" t="s">
+        <v>1126</v>
+      </c>
       <c r="G181" s="40" t="str">
         <f t="shared" ref="G181:G189" si="17">CONCATENATE("c",D181,E181,F181)</f>
-        <v>cD10</v>
+        <v>cD10a</v>
       </c>
       <c r="H181" s="40"/>
       <c r="I181" s="5"/>
@@ -15980,10 +15982,12 @@
       <c r="E182" s="26" t="s">
         <v>1157</v>
       </c>
-      <c r="F182" s="6"/>
+      <c r="F182" s="6" t="s">
+        <v>1127</v>
+      </c>
       <c r="G182" s="40" t="str">
         <f t="shared" si="17"/>
-        <v>cD10</v>
+        <v>cD10b</v>
       </c>
       <c r="H182" s="40"/>
       <c r="I182" s="5"/>
@@ -16040,10 +16044,12 @@
       <c r="E183" s="26" t="s">
         <v>1157</v>
       </c>
-      <c r="F183" s="6"/>
+      <c r="F183" s="6" t="s">
+        <v>1130</v>
+      </c>
       <c r="G183" s="40" t="str">
         <f t="shared" si="17"/>
-        <v>cD10</v>
+        <v>cD10c</v>
       </c>
       <c r="H183" s="40"/>
       <c r="I183" s="5"/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -3547,9 +3547,6 @@
     <t>OTHER</t>
   </si>
   <si>
-    <t>E.1. Mental Health disoders (non-subsance use)</t>
-  </si>
-  <si>
     <t>E.2. Substance use</t>
   </si>
   <si>
@@ -3650,9 +3647,6 @@
   </si>
   <si>
     <t>Other Chronic</t>
-  </si>
-  <si>
-    <t>Mental Health disoders (non-subsance use)</t>
   </si>
   <si>
     <t>Substance use (Mental Health)</t>
@@ -4346,6 +4340,12 @@
   </si>
   <si>
     <t>Include I43 ICD-10-CM? I43 is cardiomyopathy in diseases classified elsewhere</t>
+  </si>
+  <si>
+    <t>E.1. Mental Health disorders (non-substance use)</t>
+  </si>
+  <si>
+    <t>Mental Health disorders (non-substance use)</t>
   </si>
 </sst>
 </file>
@@ -5246,10 +5246,10 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
+      <selection pane="bottomRight" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5281,7 +5281,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>761</v>
@@ -5290,7 +5290,7 @@
         <v>763</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>1121</v>
@@ -5305,10 +5305,10 @@
         <v>1124</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>384</v>
@@ -5317,19 +5317,19 @@
         <v>759</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="O1" s="59" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="P1" s="59" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="Q1" s="59" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R1" s="61" t="s">
         <v>509</v>
@@ -5344,10 +5344,10 @@
         <v>762</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="W1" s="45" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>930</v>
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="6"/>
@@ -5463,7 +5463,7 @@
         <v>1129</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E4" s="26">
         <v>99</v>
@@ -5558,10 +5558,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="40" t="str">
@@ -5617,10 +5617,10 @@
         <v>1125</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="40"/>
@@ -5640,11 +5640,11 @@
       <c r="R7" s="59"/>
       <c r="S7" s="59"/>
       <c r="T7" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="W7" s="45"/>
       <c r="X7" s="2"/>
@@ -5658,13 +5658,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1126</v>
@@ -5725,10 +5725,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>1126</v>
@@ -5785,10 +5785,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>1126</v>
@@ -5845,10 +5845,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>1126</v>
@@ -5905,10 +5905,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>1126</v>
@@ -5963,10 +5963,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>1126</v>
@@ -6020,13 +6020,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>1127</v>
@@ -6085,10 +6085,10 @@
         <v>686</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>1127</v>
@@ -6141,10 +6141,10 @@
         <v>687</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>1127</v>
@@ -6201,7 +6201,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="26">
         <v>99</v>
@@ -6311,7 +6311,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E19" s="26">
         <v>99</v>
@@ -6369,7 +6369,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E20" s="26">
         <v>99</v>
@@ -6427,7 +6427,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E21" s="26">
         <v>99</v>
@@ -6485,7 +6485,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E22" s="26">
         <v>99</v>
@@ -6543,10 +6543,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="40" t="str">
@@ -6604,10 +6604,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="40" t="str">
@@ -6665,10 +6665,10 @@
         <v>688</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="40"/>
@@ -6719,10 +6719,10 @@
         <v>689</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="40" t="str">
@@ -6773,10 +6773,10 @@
         <v>690</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>1126</v>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="26"/>
@@ -6860,10 +6860,10 @@
         <v>691</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>1127</v>
@@ -6919,10 +6919,10 @@
         <v>692</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="40" t="str">
@@ -7024,7 +7024,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E32" s="26">
         <v>99</v>
@@ -7082,7 +7082,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E33" s="26">
         <v>99</v>
@@ -7140,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E34" s="26">
         <v>99</v>
@@ -7198,7 +7198,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E35" s="26">
         <v>99</v>
@@ -7256,7 +7256,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E36" s="26">
         <v>99</v>
@@ -7314,7 +7314,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E37" s="26">
         <v>99</v>
@@ -7368,7 +7368,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E38" s="26">
         <v>99</v>
@@ -7422,7 +7422,7 @@
         <v>694</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E39" s="26">
         <v>99</v>
@@ -7480,7 +7480,7 @@
         <v>695</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E40" s="26">
         <v>99</v>
@@ -7538,7 +7538,7 @@
         <v>889</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E41" s="26">
         <v>99</v>
@@ -7592,7 +7592,7 @@
         <v>890</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E42" s="26">
         <v>99</v>
@@ -7650,7 +7650,7 @@
         <v>891</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E43" s="26">
         <v>99</v>
@@ -7704,7 +7704,7 @@
         <v>893</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E44" s="26">
         <v>99</v>
@@ -7762,7 +7762,7 @@
         <v>894</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E45" s="26">
         <v>99</v>
@@ -7875,7 +7875,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E47" s="26">
         <v>99</v>
@@ -7933,7 +7933,7 @@
         <v>26</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E48" s="26">
         <v>99</v>
@@ -7987,7 +7987,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E49" s="26">
         <v>99</v>
@@ -8041,7 +8041,7 @@
         <v>696</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E50" s="26">
         <v>99</v>
@@ -8095,7 +8095,7 @@
         <v>880</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E51" s="26">
         <v>99</v>
@@ -8107,16 +8107,16 @@
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -8146,7 +8146,7 @@
         <v>880</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -8161,10 +8161,10 @@
         <v>28</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="40"/>
@@ -8221,10 +8221,10 @@
         <v>29</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="40" t="str">
@@ -8238,7 +8238,7 @@
         <v>404</v>
       </c>
       <c r="L53" s="80" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="M53" s="80"/>
       <c r="N53" s="80"/>
@@ -8281,10 +8281,10 @@
         <v>30</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="40" t="str">
@@ -8339,10 +8339,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="40" t="str">
@@ -8397,10 +8397,10 @@
         <v>32</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="40" t="s">
@@ -8459,10 +8459,10 @@
         <v>33</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="40" t="str">
@@ -8517,10 +8517,10 @@
         <v>34</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="40" t="str">
@@ -8575,10 +8575,10 @@
         <v>35</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="40" t="str">
@@ -8633,10 +8633,10 @@
         <v>36</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="40" t="str">
@@ -8691,10 +8691,10 @@
         <v>37</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="40" t="str">
@@ -8749,10 +8749,10 @@
         <v>38</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="40" t="str">
@@ -8807,10 +8807,10 @@
         <v>39</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="40" t="s">
@@ -8869,10 +8869,10 @@
         <v>40</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="40" t="str">
@@ -8927,10 +8927,10 @@
         <v>41</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="40" t="str">
@@ -8985,10 +8985,10 @@
         <v>42</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="40" t="str">
@@ -9043,10 +9043,10 @@
         <v>43</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="40" t="str">
@@ -9055,16 +9055,16 @@
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
@@ -9107,7 +9107,7 @@
         <v>44</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="6"/>
@@ -9162,7 +9162,7 @@
         <v>45</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E69" s="26">
         <v>99</v>
@@ -9179,7 +9179,7 @@
         <v>420</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="O69" s="59" t="s">
         <v>420</v>
@@ -9220,7 +9220,7 @@
         <v>46</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E70" s="26">
         <v>99</v>
@@ -9278,7 +9278,7 @@
         <v>47</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E71" s="26">
         <v>99</v>
@@ -9332,7 +9332,7 @@
         <v>48</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E72" s="26">
         <v>99</v>
@@ -9390,7 +9390,7 @@
         <v>697</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E73" s="26">
         <v>99</v>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Q74" s="59"/>
       <c r="R74" s="60" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="S74" s="59" t="s">
         <v>557</v>
@@ -9496,10 +9496,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="35" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="6"/>
@@ -9520,10 +9520,10 @@
       <c r="R75" s="59"/>
       <c r="S75" s="59"/>
       <c r="T75" s="20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V75" s="45" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="X75" s="2"/>
     </row>
@@ -9539,7 +9539,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="6"/>
@@ -9572,7 +9572,7 @@
         <v>558</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="U76" s="20" t="s">
         <v>51</v>
@@ -9597,10 +9597,10 @@
         <v>52</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="40" t="str">
@@ -9614,10 +9614,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="L77" s="49" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
@@ -9656,10 +9656,10 @@
         <v>698</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="40" t="str">
@@ -9668,16 +9668,16 @@
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="18" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
@@ -9720,10 +9720,10 @@
         <v>699</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="40" t="str">
@@ -9732,16 +9732,16 @@
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="19" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="L79" s="49" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="M79" s="49"/>
       <c r="N79" s="49"/>
@@ -9784,10 +9784,10 @@
         <v>700</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="40" t="str">
@@ -9844,10 +9844,10 @@
         <v>53</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="40" t="str">
@@ -9859,16 +9859,16 @@
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="L81" s="49" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="M81" s="49"/>
       <c r="N81" s="49"/>
@@ -9911,10 +9911,10 @@
         <v>54</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="40" t="str">
@@ -9926,16 +9926,16 @@
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="L82" s="49" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="M82" s="49"/>
       <c r="N82" s="49"/>
@@ -9980,10 +9980,10 @@
         <v>55</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="40" t="str">
@@ -9995,16 +9995,16 @@
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="L83" s="49" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="M83" s="49"/>
       <c r="N83" s="49"/>
@@ -10047,10 +10047,10 @@
         <v>56</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="40" t="str">
@@ -10062,16 +10062,16 @@
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="L84" s="49" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="M84" s="49"/>
       <c r="N84" s="49"/>
@@ -10114,10 +10114,10 @@
         <v>57</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="40" t="str">
@@ -10129,16 +10129,16 @@
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="L85" s="49" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="M85" s="49"/>
       <c r="N85" s="49"/>
@@ -10181,10 +10181,10 @@
         <v>58</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="40" t="str">
@@ -10196,16 +10196,16 @@
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="L86" s="49" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="M86" s="49"/>
       <c r="N86" s="49"/>
@@ -10248,10 +10248,10 @@
         <v>59</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="40" t="s">
@@ -10262,7 +10262,7 @@
         <v>B08</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>952</v>
@@ -10307,10 +10307,10 @@
         <v>701</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="40" t="str">
@@ -10319,16 +10319,16 @@
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="18" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="L88" s="49" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="M88" s="49"/>
       <c r="N88" s="49"/>
@@ -10371,10 +10371,10 @@
         <v>702</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="40" t="str">
@@ -10383,16 +10383,16 @@
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="18" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="L89" s="49" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="M89" s="49"/>
       <c r="N89" s="49"/>
@@ -10435,10 +10435,10 @@
         <v>60</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="40" t="str">
@@ -10450,16 +10450,16 @@
         <v>B09</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="L90" s="49" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="M90" s="49"/>
       <c r="N90" s="49"/>
@@ -10497,10 +10497,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="37" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E91" s="26">
         <v>10</v>
@@ -10512,7 +10512,7 @@
         <v>B10</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="49"/>
@@ -10524,11 +10524,11 @@
       <c r="R91" s="59"/>
       <c r="S91" s="59"/>
       <c r="T91" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="U91" s="20"/>
       <c r="V91" s="5" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="W91" s="45"/>
       <c r="X91" s="2"/>
@@ -10545,10 +10545,10 @@
         <v>61</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="40" t="str">
@@ -10557,16 +10557,16 @@
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="L92" s="49" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="M92" s="49"/>
       <c r="N92" s="49"/>
@@ -10609,7 +10609,7 @@
         <v>62</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E93" s="26">
         <v>10</v>
@@ -10621,16 +10621,16 @@
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="L93" s="49" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="M93" s="49"/>
       <c r="N93" s="49"/>
@@ -10673,7 +10673,7 @@
         <v>63</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E94" s="26">
         <v>11</v>
@@ -10688,16 +10688,16 @@
         <v>B11</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="L94" s="49" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="M94" s="49"/>
       <c r="N94" s="49"/>
@@ -10740,10 +10740,10 @@
         <v>64</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="40" t="str">
@@ -10755,16 +10755,16 @@
         <v>B12</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="L95" s="49" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="M95" s="49"/>
       <c r="N95" s="49"/>
@@ -10807,7 +10807,7 @@
         <v>703</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E96" s="26">
         <v>99</v>
@@ -10819,16 +10819,16 @@
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="L96" s="49" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="M96" s="49"/>
       <c r="N96" s="49"/>
@@ -10871,7 +10871,7 @@
         <v>704</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E97" s="26">
         <v>13</v>
@@ -10886,16 +10886,16 @@
         <v>B13</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="L97" s="49" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="M97" s="49"/>
       <c r="N97" s="49"/>
@@ -10938,7 +10938,7 @@
         <v>705</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E98" s="26">
         <v>14</v>
@@ -10953,16 +10953,16 @@
         <v>B14</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L98" s="49" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="M98" s="49"/>
       <c r="N98" s="49"/>
@@ -11005,7 +11005,7 @@
         <v>706</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E99" s="26">
         <v>15</v>
@@ -11020,16 +11020,16 @@
         <v>B15</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
@@ -11072,7 +11072,7 @@
         <v>707</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E100" s="26">
         <v>99</v>
@@ -11084,16 +11084,16 @@
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="19" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="L100" s="49" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="M100" s="49"/>
       <c r="N100" s="49"/>
@@ -11136,7 +11136,7 @@
         <v>708</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E101" s="26">
         <v>99</v>
@@ -11148,16 +11148,16 @@
       </c>
       <c r="H101" s="40"/>
       <c r="I101" s="19" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="L101" s="49" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="M101" s="49"/>
       <c r="N101" s="49"/>
@@ -11200,7 +11200,7 @@
         <v>709</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E102" s="26">
         <v>99</v>
@@ -11212,16 +11212,16 @@
       </c>
       <c r="H102" s="40"/>
       <c r="I102" s="19" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="L102" s="49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="M102" s="49"/>
       <c r="N102" s="49"/>
@@ -11264,7 +11264,7 @@
         <v>710</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E103" s="26">
         <v>99</v>
@@ -11324,7 +11324,7 @@
         <v>711</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E104" s="26">
         <v>16</v>
@@ -11384,7 +11384,7 @@
         <v>712</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E105" s="26">
         <v>16</v>
@@ -11449,7 +11449,7 @@
         <v>713</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E106" s="26">
         <v>16</v>
@@ -11514,7 +11514,7 @@
         <v>714</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E107" s="26">
         <v>16</v>
@@ -11579,7 +11579,7 @@
         <v>715</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E108" s="26">
         <v>17</v>
@@ -11642,7 +11642,7 @@
         <v>716</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E109" s="26">
         <v>99</v>
@@ -11657,16 +11657,16 @@
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L109" s="49" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="M109" s="49"/>
       <c r="N109" s="49"/>
@@ -11705,7 +11705,7 @@
         <v>65</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E110" s="26">
         <v>99</v>
@@ -11717,10 +11717,10 @@
       </c>
       <c r="H110" s="40"/>
       <c r="K110" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -11763,10 +11763,10 @@
         <v>66</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="40" t="str">
@@ -11778,22 +11778,22 @@
         <v>D01</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="L111" s="49" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="M111" s="49" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="N111" s="49" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="O111" s="59" t="s">
         <v>975</v>
@@ -11821,7 +11821,7 @@
         <v>66</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -11836,10 +11836,10 @@
         <v>67</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="40" t="s">
@@ -11852,18 +11852,18 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19"/>
       <c r="O112" s="59" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="P112" s="66" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="Q112" s="69"/>
       <c r="R112" s="59" t="s">
@@ -11898,10 +11898,10 @@
         <v>717</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="40" t="str">
@@ -11958,10 +11958,10 @@
         <v>718</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="40" t="str">
@@ -12018,10 +12018,10 @@
         <v>719</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="40" t="str">
@@ -12078,10 +12078,10 @@
         <v>720</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="40" t="str">
@@ -12187,18 +12187,18 @@
     </row>
     <row r="118" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
-        <f t="shared" si="4"/>
-        <v>.....D.03. - Mental Health disoders (non-subsance use)</v>
+        <f>IF(H118&lt;&gt;"",IF(F118&lt;&gt;"",CONCATENATE("..........",D118,".",E118,".",F118,". - ",T118),IF(E118&lt;&gt;"",CONCATENATE(".....",D118,".",E118,". - ",T118),CONCATENATE(D118,". - ",T118))),"")</f>
+        <v>.....D.03. - Mental Health disorders (non-substance use)</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
-        <v>1132</v>
+        <v>1361</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="40" t="s">
@@ -12220,11 +12220,11 @@
       <c r="R118" s="59"/>
       <c r="S118" s="59"/>
       <c r="T118" s="2" t="s">
-        <v>1160</v>
+        <v>1362</v>
       </c>
       <c r="U118" s="20"/>
       <c r="V118" s="2" t="s">
-        <v>1160</v>
+        <v>1362</v>
       </c>
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
@@ -12236,13 +12236,13 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="40"/>
@@ -12262,11 +12262,11 @@
       <c r="R119" s="59"/>
       <c r="S119" s="59"/>
       <c r="T119" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="U119" s="20"/>
       <c r="V119" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="W119" s="45"/>
       <c r="X119" s="2"/>
@@ -12363,10 +12363,10 @@
         <v>723</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="40" t="str">
@@ -12423,10 +12423,10 @@
         <v>724</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="40" t="str">
@@ -12483,10 +12483,10 @@
         <v>725</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="40" t="str">
@@ -12543,10 +12543,10 @@
         <v>69</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="40" t="str">
@@ -12560,13 +12560,13 @@
         <v>443</v>
       </c>
       <c r="L125" s="49" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="M125" s="49" t="s">
         <v>443</v>
       </c>
       <c r="N125" s="49" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="O125" s="59" t="s">
         <v>443</v>
@@ -12607,10 +12607,10 @@
         <v>70</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>1126</v>
@@ -12624,24 +12624,24 @@
         <v>D04a</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="59" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="P126" s="66" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Q126" s="69"/>
       <c r="R126" s="59" t="s">
@@ -12729,10 +12729,10 @@
         <v>668</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>1127</v>
@@ -12794,10 +12794,10 @@
         <v>669</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F129" s="28" t="s">
         <v>1130</v>
@@ -12859,13 +12859,13 @@
         <v>726</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F130" s="28" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G130" s="40" t="str">
         <f t="shared" si="10"/>
@@ -12924,10 +12924,10 @@
         <v>727</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="40" t="str">
@@ -12979,10 +12979,10 @@
         <v>728</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="40" t="str">
@@ -12991,16 +12991,16 @@
       </c>
       <c r="H132" s="40"/>
       <c r="I132" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
@@ -13030,7 +13030,7 @@
         <v>728</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -13045,10 +13045,10 @@
         <v>72</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="40" t="str">
@@ -13101,10 +13101,10 @@
         <v>73</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="40" t="str">
@@ -13161,10 +13161,10 @@
         <v>729</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="40" t="str">
@@ -13266,10 +13266,10 @@
         <v>730</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="40" t="str">
@@ -13322,10 +13322,10 @@
         <v>731</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="40" t="str">
@@ -13378,10 +13378,10 @@
         <v>75</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="40" t="str">
@@ -13434,10 +13434,10 @@
         <v>76</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="40" t="str">
@@ -13549,10 +13549,10 @@
         <v>732</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="40" t="str">
@@ -13612,10 +13612,10 @@
         <v>79</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="40" t="str">
@@ -13672,10 +13672,10 @@
         <v>80</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="40" t="str">
@@ -13732,10 +13732,10 @@
         <v>81</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="40" t="str">
@@ -13792,10 +13792,10 @@
         <v>82</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="40" t="str">
@@ -13848,10 +13848,10 @@
         <v>83</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="40" t="str">
@@ -13904,10 +13904,10 @@
         <v>84</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="40" t="str">
@@ -13919,16 +13919,16 @@
         <v>D06</v>
       </c>
       <c r="I148" s="57" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="L148" s="58" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="M148" s="58"/>
       <c r="N148" s="58"/>
@@ -14026,7 +14026,7 @@
         <v>86</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E150" s="26">
         <v>99</v>
@@ -14082,7 +14082,7 @@
         <v>87</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E151" s="26">
         <v>99</v>
@@ -14138,7 +14138,7 @@
         <v>733</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E152" s="26">
         <v>99</v>
@@ -14194,7 +14194,7 @@
         <v>89</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E153" s="26">
         <v>99</v>
@@ -14250,7 +14250,7 @@
         <v>90</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E154" s="26">
         <v>99</v>
@@ -14267,7 +14267,7 @@
         <v>460</v>
       </c>
       <c r="L154" s="49" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="M154" s="49"/>
       <c r="N154" s="49"/>
@@ -14306,7 +14306,7 @@
         <v>91</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E155" s="26">
         <v>99</v>
@@ -14362,7 +14362,7 @@
         <v>92</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E156" s="26">
         <v>99</v>
@@ -14420,7 +14420,7 @@
         <v>93</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" s="6"/>
@@ -14478,7 +14478,7 @@
         <v>94</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E158" s="26">
         <v>99</v>
@@ -14501,7 +14501,7 @@
         <v>464</v>
       </c>
       <c r="N158" s="49" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="O158" s="59" t="s">
         <v>464</v>
@@ -14542,10 +14542,10 @@
         <v>95</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="40" t="str">
@@ -14609,10 +14609,10 @@
         <v>96</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="40" t="str">
@@ -14676,10 +14676,10 @@
         <v>97</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="40" t="str">
@@ -14691,22 +14691,22 @@
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L161" s="49" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="M161" s="49" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="N161" s="49" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="O161" s="59" t="s">
         <v>467</v>
@@ -14747,10 +14747,10 @@
         <v>98</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="40" t="str">
@@ -14770,10 +14770,10 @@
         <v>830</v>
       </c>
       <c r="M162" s="49" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="N162" s="49" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="O162" s="59" t="s">
         <v>468</v>
@@ -14801,7 +14801,7 @@
         <v>98</v>
       </c>
       <c r="X162" s="81" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -14812,10 +14812,10 @@
       <c r="B163" s="2"/>
       <c r="C163" s="36"/>
       <c r="D163" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="40" t="str">
@@ -14827,22 +14827,22 @@
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="L163" s="49" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="M163" s="49" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="N163" s="49" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="O163" s="59"/>
       <c r="P163" s="68"/>
@@ -14850,7 +14850,7 @@
       <c r="R163" s="59"/>
       <c r="S163" s="59"/>
       <c r="T163" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="U163" s="50"/>
       <c r="V163" s="5"/>
@@ -14869,7 +14869,7 @@
         <v>99</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E164" s="26">
         <v>99</v>
@@ -14884,22 +14884,22 @@
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K164" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="J164" s="5" t="s">
+      <c r="L164" s="19" t="s">
         <v>1339</v>
       </c>
-      <c r="K164" s="5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="L164" s="19" t="s">
-        <v>1341</v>
-      </c>
       <c r="M164" s="19" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="O164" s="59" t="s">
         <v>469</v>
@@ -14915,7 +14915,7 @@
         <v>1102</v>
       </c>
       <c r="T164" s="79" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="U164" s="52" t="s">
         <v>99</v>
@@ -14927,7 +14927,7 @@
         <v>99</v>
       </c>
       <c r="X164" s="81" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -14999,10 +14999,10 @@
         <v>101</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="40" t="str">
@@ -15062,10 +15062,10 @@
         <v>102</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="40" t="str">
@@ -15119,13 +15119,13 @@
         <v>157</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="40" t="str">
@@ -15185,10 +15185,10 @@
         <v>104</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="40" t="s">
@@ -15222,10 +15222,10 @@
         <v>682</v>
       </c>
       <c r="T169" s="81" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="U169" s="20" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="V169" s="2" t="s">
         <v>281</v>
@@ -15247,10 +15247,10 @@
         <v>105</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="40" t="str">
@@ -15307,10 +15307,10 @@
         <v>106</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
@@ -15322,16 +15322,16 @@
         <v>D11</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="L171" s="49" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="M171" s="49"/>
       <c r="N171" s="49"/>
@@ -15374,10 +15374,10 @@
         <v>107</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="40" t="str">
@@ -15434,10 +15434,10 @@
         <v>734</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="40" t="str">
@@ -15494,10 +15494,10 @@
         <v>735</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="40" t="str">
@@ -15554,10 +15554,10 @@
         <v>667</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="40" t="str">
@@ -15614,10 +15614,10 @@
         <v>736</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="40" t="str">
@@ -15674,10 +15674,10 @@
         <v>737</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="40" t="str">
@@ -15734,10 +15734,10 @@
         <v>738</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="40" t="str">
@@ -15746,16 +15746,16 @@
       </c>
       <c r="H178" s="40"/>
       <c r="I178" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L178" s="49" t="s">
         <v>1208</v>
-      </c>
-      <c r="J178" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L178" s="49" t="s">
-        <v>1210</v>
       </c>
       <c r="M178" s="49"/>
       <c r="N178" s="49"/>
@@ -15853,10 +15853,10 @@
         <v>109</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="40" t="s">
@@ -15915,10 +15915,10 @@
         <v>739</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>1126</v>
@@ -15977,10 +15977,10 @@
         <v>740</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>1127</v>
@@ -16039,10 +16039,10 @@
         <v>741</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>1130</v>
@@ -16101,7 +16101,7 @@
         <v>742</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E184" s="26">
         <v>99</v>
@@ -16157,7 +16157,7 @@
         <v>110</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E185" s="26">
         <v>99</v>
@@ -16217,7 +16217,7 @@
         <v>743</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E186" s="26">
         <v>99</v>
@@ -16277,7 +16277,7 @@
         <v>112</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E187" s="26">
         <v>99</v>
@@ -16337,7 +16337,7 @@
         <v>113</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E188" s="26">
         <v>99</v>
@@ -16397,7 +16397,7 @@
         <v>114</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E189" s="26">
         <v>99</v>
@@ -16514,7 +16514,7 @@
         <v>116</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E191" s="26">
         <v>99</v>
@@ -16574,7 +16574,7 @@
         <v>117</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E192" s="26">
         <v>99</v>
@@ -16630,7 +16630,7 @@
         <v>118</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E193" s="26">
         <v>99</v>
@@ -16686,7 +16686,7 @@
         <v>119</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E194" s="26">
         <v>99</v>
@@ -16742,7 +16742,7 @@
         <v>120</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E195" s="26">
         <v>99</v>
@@ -16754,16 +16754,16 @@
       </c>
       <c r="H195" s="40"/>
       <c r="I195" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="L195" s="49" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="M195" s="49"/>
       <c r="N195" s="49"/>
@@ -16806,10 +16806,10 @@
         <v>121</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="40" t="s">
@@ -16868,10 +16868,10 @@
         <v>122</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
@@ -16928,10 +16928,10 @@
         <v>123</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
@@ -16988,10 +16988,10 @@
         <v>124</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
@@ -17048,10 +17048,10 @@
         <v>125</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
@@ -17108,10 +17108,10 @@
         <v>126</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
@@ -17168,10 +17168,10 @@
         <v>127</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
@@ -17281,7 +17281,7 @@
         <v>129</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E204" s="26">
         <v>99</v>
@@ -17337,7 +17337,7 @@
         <v>130</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E205" s="26">
         <v>99</v>
@@ -17393,7 +17393,7 @@
         <v>131</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E206" s="26">
         <v>99</v>
@@ -17449,7 +17449,7 @@
         <v>744</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E207" s="26">
         <v>99</v>
@@ -17505,7 +17505,7 @@
         <v>132</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" s="6"/>
@@ -17532,7 +17532,7 @@
       </c>
       <c r="Q208" s="66"/>
       <c r="R208" s="60" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="S208" s="59" t="s">
         <v>654</v>
@@ -17563,10 +17563,10 @@
         <v>133</v>
       </c>
       <c r="D209" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E209" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="40"/>
@@ -17623,10 +17623,10 @@
         <v>134</v>
       </c>
       <c r="D210" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E210" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>1126</v>
@@ -17640,16 +17640,16 @@
         <v>E01a</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K210" s="5" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="L210" s="19" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="M210" s="19"/>
       <c r="N210" s="19"/>
@@ -17692,10 +17692,10 @@
         <v>135</v>
       </c>
       <c r="D211" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E211" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E211" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>1128</v>
@@ -17754,10 +17754,10 @@
         <v>136</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E212" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E212" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>1127</v>
@@ -17819,10 +17819,10 @@
         <v>137</v>
       </c>
       <c r="D213" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E213" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E213" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>1128</v>
@@ -17879,10 +17879,10 @@
         <v>745</v>
       </c>
       <c r="D214" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E214" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E214" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>1128</v>
@@ -17941,10 +17941,10 @@
         <v>746</v>
       </c>
       <c r="D215" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E215" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>1128</v>
@@ -18003,10 +18003,10 @@
         <v>747</v>
       </c>
       <c r="D216" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E216" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E216" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>1128</v>
@@ -18017,16 +18017,16 @@
       </c>
       <c r="H216" s="40"/>
       <c r="I216" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="L216" s="49" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="M216" s="49"/>
       <c r="N216" s="49"/>
@@ -18065,10 +18065,10 @@
         <v>748</v>
       </c>
       <c r="D217" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E217" s="26" t="s">
         <v>1145</v>
-      </c>
-      <c r="E217" s="26" t="s">
-        <v>1146</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>1128</v>
@@ -18082,16 +18082,16 @@
         <v>E01x</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="J217" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K217" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L217" s="49" t="s">
         <v>1265</v>
-      </c>
-      <c r="K217" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="L217" s="49" t="s">
-        <v>1267</v>
       </c>
       <c r="M217" s="49"/>
       <c r="N217" s="49"/>
@@ -18121,7 +18121,7 @@
         <v>887</v>
       </c>
       <c r="X217" s="22" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -18189,10 +18189,10 @@
         <v>140</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E219" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="40" t="str">
@@ -18204,16 +18204,16 @@
         <v>E02</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="J219" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K219" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L219" s="49" t="s">
         <v>1217</v>
-      </c>
-      <c r="K219" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="L219" s="49" t="s">
-        <v>1219</v>
       </c>
       <c r="M219" s="49"/>
       <c r="N219" s="49"/>
@@ -18231,7 +18231,7 @@
         <v>999</v>
       </c>
       <c r="T219" s="5" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="U219" s="20" t="s">
         <v>140</v>
@@ -18256,10 +18256,10 @@
         <v>141</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E220" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="40" t="str">
@@ -18271,16 +18271,16 @@
         <v>E03</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="L220" s="19" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="M220" s="19"/>
       <c r="N220" s="19"/>
@@ -18298,7 +18298,7 @@
         <v>998</v>
       </c>
       <c r="T220" s="5" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="U220" s="20" t="s">
         <v>141</v>
@@ -18323,10 +18323,10 @@
         <v>142</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="40" t="str">
@@ -18335,16 +18335,16 @@
       </c>
       <c r="H221" s="40"/>
       <c r="I221" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="J221" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K221" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L221" s="49" t="s">
         <v>1245</v>
-      </c>
-      <c r="K221" s="5" t="s">
-        <v>1248</v>
-      </c>
-      <c r="L221" s="49" t="s">
-        <v>1247</v>
       </c>
       <c r="M221" s="49"/>
       <c r="N221" s="49"/>
@@ -18370,21 +18370,21 @@
         <v>142</v>
       </c>
       <c r="X221" s="22" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B222" s="82" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D222" s="54" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E222" s="55" t="s">
         <v>1145</v>
-      </c>
-      <c r="E222" s="55" t="s">
-        <v>1146</v>
       </c>
       <c r="G222" s="40" t="str">
         <f t="shared" si="21"/>
@@ -18392,19 +18392,19 @@
       </c>
       <c r="H222" s="40"/>
       <c r="I222" s="48" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="J222" s="48" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K222" s="16" t="s">
+        <v>1280</v>
+      </c>
+      <c r="L222" s="16" t="s">
         <v>1281</v>
       </c>
-      <c r="K222" s="16" t="s">
-        <v>1282</v>
-      </c>
-      <c r="L222" s="16" t="s">
-        <v>1283</v>
-      </c>
       <c r="T222" s="48" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -18413,10 +18413,10 @@
         <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D223" s="56" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E223" s="55" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G223" s="40" t="str">
         <f t="shared" si="21"/>
@@ -18427,19 +18427,19 @@
         <v>Z01</v>
       </c>
       <c r="I223" s="48" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J223" s="48" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K223" s="16" t="s">
         <v>1227</v>
       </c>
-      <c r="J223" s="48" t="s">
+      <c r="L223" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="T223" s="48" t="s">
         <v>1228</v>
-      </c>
-      <c r="K223" s="16" t="s">
-        <v>1229</v>
-      </c>
-      <c r="L223" s="16" t="s">
-        <v>1263</v>
-      </c>
-      <c r="T223" s="48" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
@@ -18448,10 +18448,10 @@
         <v/>
       </c>
       <c r="D224" s="56" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E224" s="55" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G224" s="42" t="str">
         <f t="shared" si="21"/>
@@ -18459,19 +18459,19 @@
       </c>
       <c r="H224" s="40"/>
       <c r="I224" s="16" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="J224" s="48" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="K224" s="16" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="L224" s="16" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="T224" s="48" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
@@ -18480,10 +18480,10 @@
         <v>.....Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E225" s="55" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G225" s="43"/>
       <c r="H225" s="40" t="str">
@@ -18491,7 +18491,7 @@
         <v>Z02</v>
       </c>
       <c r="T225" s="48" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="226" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
@@ -18500,10 +18500,10 @@
         <v>.....Z.03. - Code does not map</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E226" s="55" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G226" s="43"/>
       <c r="H226" s="40" t="str">
@@ -18511,10 +18511,10 @@
         <v>Z03</v>
       </c>
       <c r="I226" s="16" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="T226" s="48" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
@@ -18523,7 +18523,7 @@
         <v>Z. - Unknown/Missing Value</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="G227" s="43"/>
       <c r="H227" s="40" t="str">
@@ -18531,7 +18531,7 @@
         <v>Z</v>
       </c>
       <c r="T227" s="48" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
@@ -18540,10 +18540,10 @@
         <v>.....D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E228" s="55" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="G228" s="43"/>
       <c r="H228" s="40" t="str">
@@ -18551,7 +18551,7 @@
         <v>D99</v>
       </c>
       <c r="T228" s="48" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
   </sheetData>
@@ -18792,24 +18792,24 @@
   <sheetData>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="77" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E12" s="78" t="s">
         <v>1333</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>1335</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5246,10 +5246,10 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomRight" activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -15906,7 +15906,7 @@
     <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>..........D.10.a. - Acute glomerulonephritis</v>
       </c>
       <c r="B181" s="2">
         <v>170</v>
@@ -15927,7 +15927,10 @@
         <f t="shared" ref="G181:G189" si="17">CONCATENATE("c",D181,E181,F181)</f>
         <v>cD10a</v>
       </c>
-      <c r="H181" s="40"/>
+      <c r="H181" s="40" t="str">
+        <f>CONCATENATE(D181,E181,F181)</f>
+        <v>D10a</v>
+      </c>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
       <c r="K181" s="5" t="s">
@@ -15968,7 +15971,7 @@
     <row r="182" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>..........D.10.b. - Chronic kidney diesease due to diabetes</v>
       </c>
       <c r="B182" s="2">
         <v>171</v>
@@ -15989,7 +15992,10 @@
         <f t="shared" si="17"/>
         <v>cD10b</v>
       </c>
-      <c r="H182" s="40"/>
+      <c r="H182" s="40" t="str">
+        <f>CONCATENATE(D182,E182,F182)</f>
+        <v>D10b</v>
+      </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5" t="s">
@@ -16030,7 +16036,7 @@
     <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>..........D.10.c. - Other chronic kidney disease</v>
       </c>
       <c r="B183" s="2">
         <v>172</v>
@@ -16051,7 +16057,10 @@
         <f t="shared" si="17"/>
         <v>cD10c</v>
       </c>
-      <c r="H183" s="40"/>
+      <c r="H183" s="40" t="str">
+        <f>CONCATENATE(D183,E183,F183)</f>
+        <v>D10c</v>
+      </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
       <c r="K183" s="5" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$221</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +31,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="2" shapeId="0">
+    <comment ref="P126" authorId="2">
       <text>
         <r>
           <rPr>
@@ -113,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1366">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4347,11 +4342,20 @@
   <si>
     <t>Mental Health disorders (non-substance use)</t>
   </si>
+  <si>
+    <t>Asthma and other respiratory diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental Health disorders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance use </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -4999,7 +5003,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5034,7 +5038,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5246,10 +5250,10 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H183" sqref="H183"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -12188,7 +12192,7 @@
     <row r="118" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
         <f>IF(H118&lt;&gt;"",IF(F118&lt;&gt;"",CONCATENATE("..........",D118,".",E118,".",F118,". - ",T118),IF(E118&lt;&gt;"",CONCATENATE(".....",D118,".",E118,". - ",T118),CONCATENATE(D118,". - ",T118))),"")</f>
-        <v>.....D.03. - Mental Health disorders (non-substance use)</v>
+        <v xml:space="preserve">.....D.03. - Mental Health disorders </v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
@@ -12220,7 +12224,7 @@
       <c r="R118" s="59"/>
       <c r="S118" s="59"/>
       <c r="T118" s="2" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="U118" s="20"/>
       <c r="V118" s="2" t="s">
@@ -12232,7 +12236,7 @@
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....D.04. - Substance use (Mental Health)</v>
+        <v xml:space="preserve">.....D.04. - Substance use </v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="32" t="s">
@@ -12262,7 +12266,7 @@
       <c r="R119" s="59"/>
       <c r="S119" s="59"/>
       <c r="T119" s="2" t="s">
-        <v>1159</v>
+        <v>1365</v>
       </c>
       <c r="U119" s="20"/>
       <c r="V119" s="2" t="s">
@@ -15113,7 +15117,7 @@
     <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.08. - Other respiratory diseases</v>
+        <v>.....D.08. - Asthma and other respiratory diseases</v>
       </c>
       <c r="B168" s="2">
         <v>157</v>
@@ -15160,7 +15164,7 @@
         <v>1055</v>
       </c>
       <c r="T168" s="5" t="s">
-        <v>280</v>
+        <v>1363</v>
       </c>
       <c r="U168" s="20" t="s">
         <v>103</v>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1368">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3552,30 +3552,6 @@
   </si>
   <si>
     <t>IV. Other Chronic</t>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Asthma/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Other respiratory diseases</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve"> hepatitis B (acute and liver cancer)</t>
@@ -4343,13 +4319,43 @@
     <t>Mental Health disorders (non-substance use)</t>
   </si>
   <si>
-    <t>Asthma and other respiratory diseases</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mental Health disorders </t>
   </si>
   <si>
     <t xml:space="preserve">Substance use </t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Other respiratory diseases</t>
+    </r>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
 </sst>
 </file>
@@ -4671,7 +4677,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4914,6 +4920,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -5250,10 +5259,10 @@
   <dimension ref="A1:X228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5285,7 +5294,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>761</v>
@@ -5294,7 +5303,7 @@
         <v>763</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>1121</v>
@@ -5309,10 +5318,10 @@
         <v>1124</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>384</v>
@@ -5321,19 +5330,19 @@
         <v>759</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>1347</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>1348</v>
-      </c>
       <c r="O1" s="59" t="s">
+        <v>1162</v>
+      </c>
+      <c r="P1" s="59" t="s">
         <v>1163</v>
       </c>
-      <c r="P1" s="59" t="s">
-        <v>1164</v>
-      </c>
       <c r="Q1" s="59" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R1" s="61" t="s">
         <v>509</v>
@@ -5348,10 +5357,10 @@
         <v>762</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="W1" s="45" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>930</v>
@@ -5415,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="6"/>
@@ -5467,7 +5476,7 @@
         <v>1129</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E4" s="26">
         <v>99</v>
@@ -5562,10 +5571,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="40" t="str">
@@ -5621,10 +5630,10 @@
         <v>1125</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="40"/>
@@ -5644,11 +5653,11 @@
       <c r="R7" s="59"/>
       <c r="S7" s="59"/>
       <c r="T7" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="W7" s="45"/>
       <c r="X7" s="2"/>
@@ -5665,10 +5674,10 @@
         <v>1133</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1126</v>
@@ -5729,10 +5738,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>1126</v>
@@ -5789,10 +5798,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>1126</v>
@@ -5849,10 +5858,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>1126</v>
@@ -5909,10 +5918,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>1126</v>
@@ -5967,10 +5976,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>1126</v>
@@ -6027,10 +6036,10 @@
         <v>1134</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>1127</v>
@@ -6089,10 +6098,10 @@
         <v>686</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>1127</v>
@@ -6145,10 +6154,10 @@
         <v>687</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>1127</v>
@@ -6205,7 +6214,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E17" s="26">
         <v>99</v>
@@ -6315,7 +6324,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E19" s="26">
         <v>99</v>
@@ -6373,7 +6382,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E20" s="26">
         <v>99</v>
@@ -6431,7 +6440,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E21" s="26">
         <v>99</v>
@@ -6489,7 +6498,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E22" s="26">
         <v>99</v>
@@ -6547,10 +6556,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="40" t="str">
@@ -6608,10 +6617,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="40" t="str">
@@ -6669,10 +6678,10 @@
         <v>688</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="40"/>
@@ -6723,10 +6732,10 @@
         <v>689</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="40" t="str">
@@ -6777,10 +6786,10 @@
         <v>690</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>1126</v>
@@ -6831,7 +6840,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="26"/>
@@ -6864,10 +6873,10 @@
         <v>691</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>1127</v>
@@ -6923,10 +6932,10 @@
         <v>692</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="40" t="str">
@@ -7028,7 +7037,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E32" s="26">
         <v>99</v>
@@ -7086,7 +7095,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E33" s="26">
         <v>99</v>
@@ -7144,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E34" s="26">
         <v>99</v>
@@ -7202,7 +7211,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E35" s="26">
         <v>99</v>
@@ -7260,7 +7269,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E36" s="26">
         <v>99</v>
@@ -7318,7 +7327,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E37" s="26">
         <v>99</v>
@@ -7372,7 +7381,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E38" s="26">
         <v>99</v>
@@ -7426,7 +7435,7 @@
         <v>694</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E39" s="26">
         <v>99</v>
@@ -7484,7 +7493,7 @@
         <v>695</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E40" s="26">
         <v>99</v>
@@ -7542,7 +7551,7 @@
         <v>889</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E41" s="26">
         <v>99</v>
@@ -7596,7 +7605,7 @@
         <v>890</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E42" s="26">
         <v>99</v>
@@ -7654,7 +7663,7 @@
         <v>891</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E43" s="26">
         <v>99</v>
@@ -7708,7 +7717,7 @@
         <v>893</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E44" s="26">
         <v>99</v>
@@ -7766,7 +7775,7 @@
         <v>894</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E45" s="26">
         <v>99</v>
@@ -7879,7 +7888,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E47" s="26">
         <v>99</v>
@@ -7937,7 +7946,7 @@
         <v>26</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E48" s="26">
         <v>99</v>
@@ -7991,7 +8000,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E49" s="26">
         <v>99</v>
@@ -8045,7 +8054,7 @@
         <v>696</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E50" s="26">
         <v>99</v>
@@ -8099,7 +8108,7 @@
         <v>880</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E51" s="26">
         <v>99</v>
@@ -8111,16 +8120,16 @@
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="K51" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L51" s="19" t="s">
         <v>1234</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>1235</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -8150,7 +8159,7 @@
         <v>880</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -8165,10 +8174,10 @@
         <v>28</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="40"/>
@@ -8225,10 +8234,10 @@
         <v>29</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="40" t="str">
@@ -8242,7 +8251,7 @@
         <v>404</v>
       </c>
       <c r="L53" s="80" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="M53" s="80"/>
       <c r="N53" s="80"/>
@@ -8285,10 +8294,10 @@
         <v>30</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="40" t="str">
@@ -8343,10 +8352,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="40" t="str">
@@ -8401,10 +8410,10 @@
         <v>32</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="40" t="s">
@@ -8463,10 +8472,10 @@
         <v>33</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="40" t="str">
@@ -8521,10 +8530,10 @@
         <v>34</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="40" t="str">
@@ -8579,10 +8588,10 @@
         <v>35</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="40" t="str">
@@ -8637,10 +8646,10 @@
         <v>36</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="40" t="str">
@@ -8695,10 +8704,10 @@
         <v>37</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="40" t="str">
@@ -8753,10 +8762,10 @@
         <v>38</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="40" t="str">
@@ -8811,10 +8820,10 @@
         <v>39</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="40" t="s">
@@ -8873,10 +8882,10 @@
         <v>40</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="40" t="str">
@@ -8931,10 +8940,10 @@
         <v>41</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="40" t="str">
@@ -8989,10 +8998,10 @@
         <v>42</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="40" t="str">
@@ -9047,10 +9056,10 @@
         <v>43</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="40" t="str">
@@ -9059,16 +9068,16 @@
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
@@ -9111,7 +9120,7 @@
         <v>44</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="6"/>
@@ -9166,7 +9175,7 @@
         <v>45</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E69" s="26">
         <v>99</v>
@@ -9183,7 +9192,7 @@
         <v>420</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="O69" s="59" t="s">
         <v>420</v>
@@ -9224,7 +9233,7 @@
         <v>46</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E70" s="26">
         <v>99</v>
@@ -9282,7 +9291,7 @@
         <v>47</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E71" s="26">
         <v>99</v>
@@ -9336,7 +9345,7 @@
         <v>48</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E72" s="26">
         <v>99</v>
@@ -9394,7 +9403,7 @@
         <v>697</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E73" s="26">
         <v>99</v>
@@ -9474,7 +9483,7 @@
       </c>
       <c r="Q74" s="59"/>
       <c r="R74" s="60" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="S74" s="59" t="s">
         <v>557</v>
@@ -9503,7 +9512,7 @@
         <v>1135</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="6"/>
@@ -9524,10 +9533,10 @@
       <c r="R75" s="59"/>
       <c r="S75" s="59"/>
       <c r="T75" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V75" s="45" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="X75" s="2"/>
     </row>
@@ -9543,7 +9552,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="6"/>
@@ -9576,7 +9585,7 @@
         <v>558</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="U76" s="20" t="s">
         <v>51</v>
@@ -9601,10 +9610,10 @@
         <v>52</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="40" t="str">
@@ -9618,10 +9627,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="L77" s="49" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
@@ -9660,10 +9669,10 @@
         <v>698</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="40" t="str">
@@ -9672,16 +9681,16 @@
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="18" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K78" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="L78" s="19" t="s">
         <v>1275</v>
-      </c>
-      <c r="L78" s="19" t="s">
-        <v>1276</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
@@ -9724,10 +9733,10 @@
         <v>699</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="40" t="str">
@@ -9736,16 +9745,16 @@
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="19" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K79" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L79" s="49" t="s">
         <v>1169</v>
-      </c>
-      <c r="L79" s="49" t="s">
-        <v>1170</v>
       </c>
       <c r="M79" s="49"/>
       <c r="N79" s="49"/>
@@ -9788,10 +9797,10 @@
         <v>700</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="40" t="str">
@@ -9848,10 +9857,10 @@
         <v>53</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="40" t="str">
@@ -9863,16 +9872,16 @@
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K81" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L81" s="49" t="s">
         <v>1171</v>
-      </c>
-      <c r="L81" s="49" t="s">
-        <v>1172</v>
       </c>
       <c r="M81" s="49"/>
       <c r="N81" s="49"/>
@@ -9915,10 +9924,10 @@
         <v>54</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="40" t="str">
@@ -9930,16 +9939,16 @@
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K82" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L82" s="49" t="s">
         <v>1173</v>
-      </c>
-      <c r="L82" s="49" t="s">
-        <v>1174</v>
       </c>
       <c r="M82" s="49"/>
       <c r="N82" s="49"/>
@@ -9984,10 +9993,10 @@
         <v>55</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="40" t="str">
@@ -9999,16 +10008,16 @@
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K83" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L83" s="49" t="s">
         <v>1248</v>
-      </c>
-      <c r="L83" s="49" t="s">
-        <v>1249</v>
       </c>
       <c r="M83" s="49"/>
       <c r="N83" s="49"/>
@@ -10051,10 +10060,10 @@
         <v>56</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="40" t="str">
@@ -10066,16 +10075,16 @@
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K84" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L84" s="49" t="s">
         <v>1175</v>
-      </c>
-      <c r="L84" s="49" t="s">
-        <v>1176</v>
       </c>
       <c r="M84" s="49"/>
       <c r="N84" s="49"/>
@@ -10118,10 +10127,10 @@
         <v>57</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="40" t="str">
@@ -10133,16 +10142,16 @@
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K85" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="L85" s="49" t="s">
         <v>1177</v>
-      </c>
-      <c r="L85" s="49" t="s">
-        <v>1178</v>
       </c>
       <c r="M85" s="49"/>
       <c r="N85" s="49"/>
@@ -10185,10 +10194,10 @@
         <v>58</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="40" t="str">
@@ -10200,16 +10209,16 @@
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L86" s="49" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="M86" s="49"/>
       <c r="N86" s="49"/>
@@ -10252,10 +10261,10 @@
         <v>59</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="40" t="s">
@@ -10266,7 +10275,7 @@
         <v>B08</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>952</v>
@@ -10311,10 +10320,10 @@
         <v>701</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="40" t="str">
@@ -10323,16 +10332,16 @@
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K88" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L88" s="49" t="s">
         <v>1252</v>
-      </c>
-      <c r="L88" s="49" t="s">
-        <v>1253</v>
       </c>
       <c r="M88" s="49"/>
       <c r="N88" s="49"/>
@@ -10375,10 +10384,10 @@
         <v>702</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="40" t="str">
@@ -10387,16 +10396,16 @@
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="18" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K89" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L89" s="49" t="s">
         <v>1254</v>
-      </c>
-      <c r="L89" s="49" t="s">
-        <v>1255</v>
       </c>
       <c r="M89" s="49"/>
       <c r="N89" s="49"/>
@@ -10439,10 +10448,10 @@
         <v>60</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="40" t="str">
@@ -10454,16 +10463,16 @@
         <v>B09</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K90" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L90" s="49" t="s">
         <v>1181</v>
-      </c>
-      <c r="L90" s="49" t="s">
-        <v>1182</v>
       </c>
       <c r="M90" s="49"/>
       <c r="N90" s="49"/>
@@ -10501,10 +10510,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E91" s="26">
         <v>10</v>
@@ -10516,7 +10525,7 @@
         <v>B10</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="49"/>
@@ -10528,11 +10537,11 @@
       <c r="R91" s="59"/>
       <c r="S91" s="59"/>
       <c r="T91" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="U91" s="20"/>
       <c r="V91" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W91" s="45"/>
       <c r="X91" s="2"/>
@@ -10549,10 +10558,10 @@
         <v>61</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="40" t="str">
@@ -10561,16 +10570,16 @@
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K92" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="L92" s="49" t="s">
         <v>1183</v>
-      </c>
-      <c r="L92" s="49" t="s">
-        <v>1184</v>
       </c>
       <c r="M92" s="49"/>
       <c r="N92" s="49"/>
@@ -10613,7 +10622,7 @@
         <v>62</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E93" s="26">
         <v>10</v>
@@ -10625,16 +10634,16 @@
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="5" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="L93" s="49" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="M93" s="49"/>
       <c r="N93" s="49"/>
@@ -10677,7 +10686,7 @@
         <v>63</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E94" s="26">
         <v>11</v>
@@ -10692,16 +10701,16 @@
         <v>B11</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K94" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="L94" s="49" t="s">
         <v>1209</v>
-      </c>
-      <c r="L94" s="49" t="s">
-        <v>1210</v>
       </c>
       <c r="M94" s="49"/>
       <c r="N94" s="49"/>
@@ -10744,10 +10753,10 @@
         <v>64</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="40" t="str">
@@ -10759,16 +10768,16 @@
         <v>B12</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K95" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L95" s="49" t="s">
         <v>1185</v>
-      </c>
-      <c r="L95" s="49" t="s">
-        <v>1186</v>
       </c>
       <c r="M95" s="49"/>
       <c r="N95" s="49"/>
@@ -10811,7 +10820,7 @@
         <v>703</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E96" s="26">
         <v>99</v>
@@ -10823,16 +10832,16 @@
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="19" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K96" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L96" s="49" t="s">
         <v>1187</v>
-      </c>
-      <c r="L96" s="49" t="s">
-        <v>1188</v>
       </c>
       <c r="M96" s="49"/>
       <c r="N96" s="49"/>
@@ -10875,7 +10884,7 @@
         <v>704</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E97" s="26">
         <v>13</v>
@@ -10890,16 +10899,16 @@
         <v>B13</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K97" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L97" s="49" t="s">
         <v>1211</v>
-      </c>
-      <c r="L97" s="49" t="s">
-        <v>1212</v>
       </c>
       <c r="M97" s="49"/>
       <c r="N97" s="49"/>
@@ -10942,7 +10951,7 @@
         <v>705</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E98" s="26">
         <v>14</v>
@@ -10957,16 +10966,16 @@
         <v>B14</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K98" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="L98" s="49" t="s">
         <v>1257</v>
-      </c>
-      <c r="L98" s="49" t="s">
-        <v>1258</v>
       </c>
       <c r="M98" s="49"/>
       <c r="N98" s="49"/>
@@ -11009,7 +11018,7 @@
         <v>706</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E99" s="26">
         <v>15</v>
@@ -11024,16 +11033,16 @@
         <v>B15</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K99" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L99" s="19" t="s">
         <v>1189</v>
-      </c>
-      <c r="L99" s="19" t="s">
-        <v>1190</v>
       </c>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
@@ -11076,7 +11085,7 @@
         <v>707</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E100" s="26">
         <v>99</v>
@@ -11088,16 +11097,16 @@
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="19" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K100" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="L100" s="49" t="s">
         <v>1191</v>
-      </c>
-      <c r="L100" s="49" t="s">
-        <v>1192</v>
       </c>
       <c r="M100" s="49"/>
       <c r="N100" s="49"/>
@@ -11140,7 +11149,7 @@
         <v>708</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E101" s="26">
         <v>99</v>
@@ -11152,16 +11161,16 @@
       </c>
       <c r="H101" s="40"/>
       <c r="I101" s="19" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K101" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="L101" s="49" t="s">
         <v>1193</v>
-      </c>
-      <c r="L101" s="49" t="s">
-        <v>1194</v>
       </c>
       <c r="M101" s="49"/>
       <c r="N101" s="49"/>
@@ -11204,7 +11213,7 @@
         <v>709</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E102" s="26">
         <v>99</v>
@@ -11216,16 +11225,16 @@
       </c>
       <c r="H102" s="40"/>
       <c r="I102" s="19" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K102" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L102" s="49" t="s">
         <v>1195</v>
-      </c>
-      <c r="L102" s="49" t="s">
-        <v>1196</v>
       </c>
       <c r="M102" s="49"/>
       <c r="N102" s="49"/>
@@ -11268,7 +11277,7 @@
         <v>710</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E103" s="26">
         <v>99</v>
@@ -11328,7 +11337,7 @@
         <v>711</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E104" s="26">
         <v>16</v>
@@ -11388,7 +11397,7 @@
         <v>712</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E105" s="26">
         <v>16</v>
@@ -11453,7 +11462,7 @@
         <v>713</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E106" s="26">
         <v>16</v>
@@ -11518,7 +11527,7 @@
         <v>714</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E107" s="26">
         <v>16</v>
@@ -11583,7 +11592,7 @@
         <v>715</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E108" s="26">
         <v>17</v>
@@ -11646,7 +11655,7 @@
         <v>716</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E109" s="26">
         <v>99</v>
@@ -11661,16 +11670,16 @@
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K109" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L109" s="49" t="s">
         <v>1213</v>
-      </c>
-      <c r="L109" s="49" t="s">
-        <v>1214</v>
       </c>
       <c r="M109" s="49"/>
       <c r="N109" s="49"/>
@@ -11709,7 +11718,7 @@
         <v>65</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E110" s="26">
         <v>99</v>
@@ -11721,10 +11730,10 @@
       </c>
       <c r="H110" s="40"/>
       <c r="K110" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -11767,10 +11776,10 @@
         <v>66</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="40" t="str">
@@ -11782,22 +11791,22 @@
         <v>D01</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="L111" s="49" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="M111" s="49" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="N111" s="49" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O111" s="59" t="s">
         <v>975</v>
@@ -11825,7 +11834,7 @@
         <v>66</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -11840,10 +11849,10 @@
         <v>67</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="40" t="s">
@@ -11856,18 +11865,18 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="L112" s="19" t="s">
         <v>1317</v>
-      </c>
-      <c r="L112" s="19" t="s">
-        <v>1318</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19"/>
       <c r="O112" s="59" t="s">
+        <v>1316</v>
+      </c>
+      <c r="P112" s="66" t="s">
         <v>1317</v>
-      </c>
-      <c r="P112" s="66" t="s">
-        <v>1318</v>
       </c>
       <c r="Q112" s="69"/>
       <c r="R112" s="59" t="s">
@@ -11902,10 +11911,10 @@
         <v>717</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="40" t="str">
@@ -11962,10 +11971,10 @@
         <v>718</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="40" t="str">
@@ -12022,10 +12031,10 @@
         <v>719</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="40" t="str">
@@ -12082,10 +12091,10 @@
         <v>720</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="40" t="str">
@@ -12196,13 +12205,13 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="40" t="s">
@@ -12224,11 +12233,11 @@
       <c r="R118" s="59"/>
       <c r="S118" s="59"/>
       <c r="T118" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="U118" s="20"/>
       <c r="V118" s="2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
@@ -12243,10 +12252,10 @@
         <v>1132</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="40"/>
@@ -12266,11 +12275,11 @@
       <c r="R119" s="59"/>
       <c r="S119" s="59"/>
       <c r="T119" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="U119" s="20"/>
       <c r="V119" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="W119" s="45"/>
       <c r="X119" s="2"/>
@@ -12367,10 +12376,10 @@
         <v>723</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="40" t="str">
@@ -12427,10 +12436,10 @@
         <v>724</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="40" t="str">
@@ -12487,10 +12496,10 @@
         <v>725</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="40" t="str">
@@ -12547,10 +12556,10 @@
         <v>69</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="40" t="str">
@@ -12564,13 +12573,13 @@
         <v>443</v>
       </c>
       <c r="L125" s="49" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="M125" s="49" t="s">
         <v>443</v>
       </c>
       <c r="N125" s="49" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="O125" s="59" t="s">
         <v>443</v>
@@ -12611,10 +12620,10 @@
         <v>70</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>1126</v>
@@ -12628,24 +12637,24 @@
         <v>D04a</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="59" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="P126" s="66" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q126" s="69"/>
       <c r="R126" s="59" t="s">
@@ -12733,10 +12742,10 @@
         <v>668</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>1127</v>
@@ -12798,10 +12807,10 @@
         <v>669</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F129" s="28" t="s">
         <v>1130</v>
@@ -12863,13 +12872,13 @@
         <v>726</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F130" s="28" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G130" s="40" t="str">
         <f t="shared" si="10"/>
@@ -12928,10 +12937,10 @@
         <v>727</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="40" t="str">
@@ -12983,10 +12992,10 @@
         <v>728</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="40" t="str">
@@ -12995,16 +13004,16 @@
       </c>
       <c r="H132" s="40"/>
       <c r="I132" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L132" s="19" t="s">
         <v>1238</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L132" s="19" t="s">
-        <v>1239</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
@@ -13034,7 +13043,7 @@
         <v>728</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -13049,10 +13058,10 @@
         <v>72</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="40" t="str">
@@ -13105,10 +13114,10 @@
         <v>73</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="40" t="str">
@@ -13165,10 +13174,10 @@
         <v>729</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="40" t="str">
@@ -13270,10 +13279,10 @@
         <v>730</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="40" t="str">
@@ -13326,10 +13335,10 @@
         <v>731</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="40" t="str">
@@ -13382,10 +13391,10 @@
         <v>75</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="40" t="str">
@@ -13438,10 +13447,10 @@
         <v>76</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="40" t="str">
@@ -13553,10 +13562,10 @@
         <v>732</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="40" t="str">
@@ -13616,10 +13625,10 @@
         <v>79</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="40" t="str">
@@ -13676,10 +13685,10 @@
         <v>80</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="40" t="str">
@@ -13736,10 +13745,10 @@
         <v>81</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="40" t="str">
@@ -13796,10 +13805,10 @@
         <v>82</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="40" t="str">
@@ -13852,10 +13861,10 @@
         <v>83</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="40" t="str">
@@ -13908,10 +13917,10 @@
         <v>84</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="40" t="str">
@@ -13923,16 +13932,16 @@
         <v>D06</v>
       </c>
       <c r="I148" s="57" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="L148" s="58" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="M148" s="58"/>
       <c r="N148" s="58"/>
@@ -14030,7 +14039,7 @@
         <v>86</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E150" s="26">
         <v>99</v>
@@ -14086,7 +14095,7 @@
         <v>87</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E151" s="26">
         <v>99</v>
@@ -14142,7 +14151,7 @@
         <v>733</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E152" s="26">
         <v>99</v>
@@ -14198,7 +14207,7 @@
         <v>89</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E153" s="26">
         <v>99</v>
@@ -14254,7 +14263,7 @@
         <v>90</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E154" s="26">
         <v>99</v>
@@ -14271,7 +14280,7 @@
         <v>460</v>
       </c>
       <c r="L154" s="49" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M154" s="49"/>
       <c r="N154" s="49"/>
@@ -14310,7 +14319,7 @@
         <v>91</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E155" s="26">
         <v>99</v>
@@ -14366,7 +14375,7 @@
         <v>92</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E156" s="26">
         <v>99</v>
@@ -14424,7 +14433,7 @@
         <v>93</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" s="6"/>
@@ -14482,7 +14491,7 @@
         <v>94</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E158" s="26">
         <v>99</v>
@@ -14505,7 +14514,7 @@
         <v>464</v>
       </c>
       <c r="N158" s="49" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O158" s="59" t="s">
         <v>464</v>
@@ -14546,10 +14555,10 @@
         <v>95</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="40" t="str">
@@ -14613,10 +14622,10 @@
         <v>96</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="40" t="str">
@@ -14680,10 +14689,10 @@
         <v>97</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="40" t="str">
@@ -14695,22 +14704,22 @@
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K161" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="L161" s="49" t="s">
         <v>1230</v>
       </c>
-      <c r="L161" s="49" t="s">
-        <v>1231</v>
-      </c>
       <c r="M161" s="49" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="N161" s="49" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="O161" s="59" t="s">
         <v>467</v>
@@ -14751,10 +14760,10 @@
         <v>98</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="40" t="str">
@@ -14774,10 +14783,10 @@
         <v>830</v>
       </c>
       <c r="M162" s="49" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N162" s="49" t="s">
         <v>1353</v>
-      </c>
-      <c r="N162" s="49" t="s">
-        <v>1354</v>
       </c>
       <c r="O162" s="59" t="s">
         <v>468</v>
@@ -14805,7 +14814,7 @@
         <v>98</v>
       </c>
       <c r="X162" s="81" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -14816,10 +14825,10 @@
       <c r="B163" s="2"/>
       <c r="C163" s="36"/>
       <c r="D163" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="40" t="str">
@@ -14831,22 +14840,22 @@
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="L163" s="49" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="M163" s="49" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="N163" s="49" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="O163" s="59"/>
       <c r="P163" s="68"/>
@@ -14854,7 +14863,7 @@
       <c r="R163" s="59"/>
       <c r="S163" s="59"/>
       <c r="T163" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="U163" s="50"/>
       <c r="V163" s="5"/>
@@ -14873,7 +14882,7 @@
         <v>99</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E164" s="26">
         <v>99</v>
@@ -14888,22 +14897,22 @@
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J164" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="J164" s="5" t="s">
+      <c r="K164" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="L164" s="19" t="s">
         <v>1338</v>
       </c>
-      <c r="L164" s="19" t="s">
-        <v>1339</v>
-      </c>
       <c r="M164" s="19" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N164" s="19" t="s">
         <v>1358</v>
-      </c>
-      <c r="N164" s="19" t="s">
-        <v>1359</v>
       </c>
       <c r="O164" s="59" t="s">
         <v>469</v>
@@ -14919,7 +14928,7 @@
         <v>1102</v>
       </c>
       <c r="T164" s="79" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="U164" s="52" t="s">
         <v>99</v>
@@ -14931,7 +14940,7 @@
         <v>99</v>
       </c>
       <c r="X164" s="81" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -14994,7 +15003,7 @@
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.07. - Chronic obstructive pulmonary disease</v>
+        <v>.....D.66. - Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B166" s="2">
         <v>155</v>
@@ -15002,20 +15011,20 @@
       <c r="C166" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="D166" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E166" s="26" t="s">
-        <v>1151</v>
+      <c r="D166" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E166" s="83" t="s">
+        <v>1365</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="40" t="str">
         <f>CONCATENATE("c",D166,E166,F166)</f>
-        <v>cD07</v>
+        <v>cD66</v>
       </c>
       <c r="H166" s="40" t="str">
         <f>CONCATENATE(D166,E166,F166)</f>
-        <v>D07</v>
+        <v>D66</v>
       </c>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
@@ -15057,7 +15066,7 @@
     <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="str">
         <f t="shared" si="11"/>
-        <v/>
+        <v>.....D.67. - Asthma</v>
       </c>
       <c r="B167" s="2">
         <v>156</v>
@@ -15065,18 +15074,21 @@
       <c r="C167" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E167" s="26" t="s">
-        <v>1152</v>
+      <c r="D167" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E167" s="83" t="s">
+        <v>1366</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="40" t="str">
         <f>CONCATENATE("c",D167,E167,F167)</f>
-        <v>cD08</v>
-      </c>
-      <c r="H167" s="40"/>
+        <v>cD67</v>
+      </c>
+      <c r="H167" s="40" t="str">
+        <f>CONCATENATE(D167,E167,F167)</f>
+        <v>D67</v>
+      </c>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5" t="s">
@@ -15117,28 +15129,28 @@
     <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.08. - Asthma and other respiratory diseases</v>
+        <v>.....D.68. - Other respiratory diseases</v>
       </c>
       <c r="B168" s="2">
         <v>157</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E168" s="26" t="s">
-        <v>1152</v>
+        <v>1364</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E168" s="83" t="s">
+        <v>1367</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="40" t="str">
         <f>CONCATENATE("c",D168,E168,F168)</f>
-        <v>cD08</v>
+        <v>cD68</v>
       </c>
       <c r="H168" s="40" t="str">
         <f>CONCATENATE(D168,E168,F168)</f>
-        <v>D08</v>
+        <v>D68</v>
       </c>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
@@ -15164,7 +15176,7 @@
         <v>1055</v>
       </c>
       <c r="T168" s="5" t="s">
-        <v>1363</v>
+        <v>280</v>
       </c>
       <c r="U168" s="20" t="s">
         <v>103</v>
@@ -15189,10 +15201,10 @@
         <v>104</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="40" t="s">
@@ -15226,10 +15238,10 @@
         <v>682</v>
       </c>
       <c r="T169" s="81" t="s">
+        <v>1342</v>
+      </c>
+      <c r="U169" s="20" t="s">
         <v>1343</v>
-      </c>
-      <c r="U169" s="20" t="s">
-        <v>1344</v>
       </c>
       <c r="V169" s="2" t="s">
         <v>281</v>
@@ -15251,10 +15263,10 @@
         <v>105</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="40" t="str">
@@ -15311,10 +15323,10 @@
         <v>106</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
@@ -15326,16 +15338,16 @@
         <v>D11</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K171" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L171" s="49" t="s">
         <v>1204</v>
-      </c>
-      <c r="L171" s="49" t="s">
-        <v>1205</v>
       </c>
       <c r="M171" s="49"/>
       <c r="N171" s="49"/>
@@ -15378,10 +15390,10 @@
         <v>107</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="40" t="str">
@@ -15438,10 +15450,10 @@
         <v>734</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="40" t="str">
@@ -15498,10 +15510,10 @@
         <v>735</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="40" t="str">
@@ -15558,10 +15570,10 @@
         <v>667</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="40" t="str">
@@ -15618,10 +15630,10 @@
         <v>736</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="40" t="str">
@@ -15678,10 +15690,10 @@
         <v>737</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="40" t="str">
@@ -15738,10 +15750,10 @@
         <v>738</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="40" t="str">
@@ -15750,16 +15762,16 @@
       </c>
       <c r="H178" s="40"/>
       <c r="I178" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K178" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="J178" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="K178" s="5" t="s">
+      <c r="L178" s="49" t="s">
         <v>1207</v>
-      </c>
-      <c r="L178" s="49" t="s">
-        <v>1208</v>
       </c>
       <c r="M178" s="49"/>
       <c r="N178" s="49"/>
@@ -15857,10 +15869,10 @@
         <v>109</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="40" t="s">
@@ -15919,10 +15931,10 @@
         <v>739</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>1126</v>
@@ -15984,10 +15996,10 @@
         <v>740</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>1127</v>
@@ -16049,10 +16061,10 @@
         <v>741</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>1130</v>
@@ -16114,7 +16126,7 @@
         <v>742</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E184" s="26">
         <v>99</v>
@@ -16170,7 +16182,7 @@
         <v>110</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E185" s="26">
         <v>99</v>
@@ -16230,7 +16242,7 @@
         <v>743</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E186" s="26">
         <v>99</v>
@@ -16290,7 +16302,7 @@
         <v>112</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E187" s="26">
         <v>99</v>
@@ -16350,7 +16362,7 @@
         <v>113</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E188" s="26">
         <v>99</v>
@@ -16410,7 +16422,7 @@
         <v>114</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E189" s="26">
         <v>99</v>
@@ -16527,7 +16539,7 @@
         <v>116</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E191" s="26">
         <v>99</v>
@@ -16587,7 +16599,7 @@
         <v>117</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E192" s="26">
         <v>99</v>
@@ -16643,7 +16655,7 @@
         <v>118</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E193" s="26">
         <v>99</v>
@@ -16699,7 +16711,7 @@
         <v>119</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E194" s="26">
         <v>99</v>
@@ -16755,7 +16767,7 @@
         <v>120</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E195" s="26">
         <v>99</v>
@@ -16767,16 +16779,16 @@
       </c>
       <c r="H195" s="40"/>
       <c r="I195" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="K195" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L195" s="49" t="s">
         <v>1201</v>
-      </c>
-      <c r="L195" s="49" t="s">
-        <v>1202</v>
       </c>
       <c r="M195" s="49"/>
       <c r="N195" s="49"/>
@@ -16819,10 +16831,10 @@
         <v>121</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="40" t="s">
@@ -16881,10 +16893,10 @@
         <v>122</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
@@ -16941,10 +16953,10 @@
         <v>123</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
@@ -17001,10 +17013,10 @@
         <v>124</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
@@ -17061,10 +17073,10 @@
         <v>125</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
@@ -17121,10 +17133,10 @@
         <v>126</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
@@ -17181,10 +17193,10 @@
         <v>127</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
@@ -17294,7 +17306,7 @@
         <v>129</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E204" s="26">
         <v>99</v>
@@ -17350,7 +17362,7 @@
         <v>130</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E205" s="26">
         <v>99</v>
@@ -17406,7 +17418,7 @@
         <v>131</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E206" s="26">
         <v>99</v>
@@ -17462,7 +17474,7 @@
         <v>744</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E207" s="26">
         <v>99</v>
@@ -17518,7 +17530,7 @@
         <v>132</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" s="6"/>
@@ -17545,7 +17557,7 @@
       </c>
       <c r="Q208" s="66"/>
       <c r="R208" s="60" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="S208" s="59" t="s">
         <v>654</v>
@@ -17576,10 +17588,10 @@
         <v>133</v>
       </c>
       <c r="D209" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E209" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="40"/>
@@ -17636,10 +17648,10 @@
         <v>134</v>
       </c>
       <c r="D210" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E210" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>1126</v>
@@ -17653,16 +17665,16 @@
         <v>E01a</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K210" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L210" s="19" t="s">
         <v>1197</v>
-      </c>
-      <c r="L210" s="19" t="s">
-        <v>1198</v>
       </c>
       <c r="M210" s="19"/>
       <c r="N210" s="19"/>
@@ -17705,10 +17717,10 @@
         <v>135</v>
       </c>
       <c r="D211" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E211" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E211" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>1128</v>
@@ -17767,10 +17779,10 @@
         <v>136</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E212" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E212" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>1127</v>
@@ -17832,10 +17844,10 @@
         <v>137</v>
       </c>
       <c r="D213" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E213" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E213" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>1128</v>
@@ -17892,10 +17904,10 @@
         <v>745</v>
       </c>
       <c r="D214" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E214" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E214" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>1128</v>
@@ -17954,10 +17966,10 @@
         <v>746</v>
       </c>
       <c r="D215" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E215" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>1128</v>
@@ -18016,10 +18028,10 @@
         <v>747</v>
       </c>
       <c r="D216" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E216" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E216" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>1128</v>
@@ -18030,16 +18042,16 @@
       </c>
       <c r="H216" s="40"/>
       <c r="I216" s="5" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K216" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L216" s="49" t="s">
         <v>1199</v>
-      </c>
-      <c r="L216" s="49" t="s">
-        <v>1200</v>
       </c>
       <c r="M216" s="49"/>
       <c r="N216" s="49"/>
@@ -18078,10 +18090,10 @@
         <v>748</v>
       </c>
       <c r="D217" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E217" s="26" t="s">
         <v>1144</v>
-      </c>
-      <c r="E217" s="26" t="s">
-        <v>1145</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>1128</v>
@@ -18095,16 +18107,16 @@
         <v>E01x</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J217" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K217" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="K217" s="5" t="s">
+      <c r="L217" s="49" t="s">
         <v>1264</v>
-      </c>
-      <c r="L217" s="49" t="s">
-        <v>1265</v>
       </c>
       <c r="M217" s="49"/>
       <c r="N217" s="49"/>
@@ -18134,7 +18146,7 @@
         <v>887</v>
       </c>
       <c r="X217" s="22" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -18202,10 +18214,10 @@
         <v>140</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E219" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="40" t="str">
@@ -18217,16 +18229,16 @@
         <v>E02</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J219" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K219" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="K219" s="5" t="s">
+      <c r="L219" s="49" t="s">
         <v>1216</v>
-      </c>
-      <c r="L219" s="49" t="s">
-        <v>1217</v>
       </c>
       <c r="M219" s="49"/>
       <c r="N219" s="49"/>
@@ -18244,7 +18256,7 @@
         <v>999</v>
       </c>
       <c r="T219" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="U219" s="20" t="s">
         <v>140</v>
@@ -18269,10 +18281,10 @@
         <v>141</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E220" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="40" t="str">
@@ -18284,16 +18296,16 @@
         <v>E03</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="K220" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="L220" s="19" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="M220" s="19"/>
       <c r="N220" s="19"/>
@@ -18311,7 +18323,7 @@
         <v>998</v>
       </c>
       <c r="T220" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="U220" s="20" t="s">
         <v>141</v>
@@ -18336,10 +18348,10 @@
         <v>142</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="40" t="str">
@@ -18348,16 +18360,16 @@
       </c>
       <c r="H221" s="40"/>
       <c r="I221" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="K221" s="5" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="L221" s="49" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="M221" s="49"/>
       <c r="N221" s="49"/>
@@ -18383,21 +18395,21 @@
         <v>142</v>
       </c>
       <c r="X221" s="22" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="222" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B222" s="82" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D222" s="54" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E222" s="55" t="s">
         <v>1144</v>
-      </c>
-      <c r="E222" s="55" t="s">
-        <v>1145</v>
       </c>
       <c r="G222" s="40" t="str">
         <f t="shared" si="21"/>
@@ -18405,19 +18417,19 @@
       </c>
       <c r="H222" s="40"/>
       <c r="I222" s="48" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J222" s="48" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K222" s="16" t="s">
         <v>1279</v>
       </c>
-      <c r="K222" s="16" t="s">
+      <c r="L222" s="16" t="s">
         <v>1280</v>
       </c>
-      <c r="L222" s="16" t="s">
-        <v>1281</v>
-      </c>
       <c r="T222" s="48" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="223" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -18426,10 +18438,10 @@
         <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D223" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E223" s="55" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G223" s="40" t="str">
         <f t="shared" si="21"/>
@@ -18440,19 +18452,19 @@
         <v>Z01</v>
       </c>
       <c r="I223" s="48" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J223" s="48" t="s">
         <v>1225</v>
       </c>
-      <c r="J223" s="48" t="s">
+      <c r="K223" s="16" t="s">
         <v>1226</v>
       </c>
-      <c r="K223" s="16" t="s">
+      <c r="L223" s="16" t="s">
+        <v>1260</v>
+      </c>
+      <c r="T223" s="48" t="s">
         <v>1227</v>
-      </c>
-      <c r="L223" s="16" t="s">
-        <v>1261</v>
-      </c>
-      <c r="T223" s="48" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="224" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
@@ -18461,10 +18473,10 @@
         <v/>
       </c>
       <c r="D224" s="56" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E224" s="55" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G224" s="42" t="str">
         <f t="shared" si="21"/>
@@ -18472,19 +18484,19 @@
       </c>
       <c r="H224" s="40"/>
       <c r="I224" s="16" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="J224" s="48" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K224" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L224" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="T224" s="48" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
@@ -18493,10 +18505,10 @@
         <v>.....Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E225" s="55" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G225" s="43"/>
       <c r="H225" s="40" t="str">
@@ -18504,7 +18516,7 @@
         <v>Z02</v>
       </c>
       <c r="T225" s="48" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="226" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
@@ -18513,10 +18525,10 @@
         <v>.....Z.03. - Code does not map</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E226" s="55" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G226" s="43"/>
       <c r="H226" s="40" t="str">
@@ -18524,10 +18536,10 @@
         <v>Z03</v>
       </c>
       <c r="I226" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="T226" s="48" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
@@ -18536,7 +18548,7 @@
         <v>Z. - Unknown/Missing Value</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G227" s="43"/>
       <c r="H227" s="40" t="str">
@@ -18544,7 +18556,7 @@
         <v>Z</v>
       </c>
       <c r="T227" s="48" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
@@ -18553,10 +18565,10 @@
         <v>.....D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E228" s="55" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G228" s="43"/>
       <c r="H228" s="40" t="str">
@@ -18564,7 +18576,7 @@
         <v>D99</v>
       </c>
       <c r="T228" s="48" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
   </sheetData>
@@ -18805,24 +18817,24 @@
   <sheetData>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="77" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D12" s="78" t="s">
         <v>1331</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="E12" s="78" t="s">
         <v>1332</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>1333</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$221</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +36,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="2">
+    <comment ref="P126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1381">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4357,11 +4362,50 @@
   <si>
     <t>68</t>
   </si>
+  <si>
+    <t>J09-18, J20-22, P23</t>
+  </si>
+  <si>
+    <t>J09|J1|J2[0-2]|P23</t>
+  </si>
+  <si>
+    <t>O44.1-O46, O67, O72 (exclude O44.0)</t>
+  </si>
+  <si>
+    <t>O44.1-O46, O67, O72</t>
+  </si>
+  <si>
+    <t>O44.1|O4[5-6]|O67|O72</t>
+  </si>
+  <si>
+    <t>O44.1| O4[5-6]|O67|O72</t>
+  </si>
+  <si>
+    <t>For both mortality and CM codes, O44.0 is placenta previa specified as without hemorrhage, therefore needs to be excluded from hemorrhage definition</t>
+  </si>
+  <si>
+    <t>O10-16</t>
+  </si>
+  <si>
+    <t>For both mortality and CM codes, O12 is gestational edema and proteinuria without hypertension--therefore, should it be excluded from definition?</t>
+  </si>
+  <si>
+    <t>O00-O04, O07 (O05 and O06 aren't included as possible codes for CM)</t>
+  </si>
+  <si>
+    <t>O0[0-4]|O07</t>
+  </si>
+  <si>
+    <t>O20-O43, O47-O63, O68-O71, O73-O77, O87-O94, O98-O99</t>
+  </si>
+  <si>
+    <t>O2[0-9]|O3[0-9]|O4[0-3,7-9]|O5|O6[0-3,8-9]|O7[0-1,3-7]|O8[7-9]|O9[4,8-9]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5012,7 +5056,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5047,7 +5091,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5258,11 +5302,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E196" sqref="E196"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A49" sqref="A49"/>
+      <selection pane="topRight" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8253,8 +8296,12 @@
       <c r="L53" s="80" t="s">
         <v>1341</v>
       </c>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
+      <c r="M53" s="80" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N53" s="80" t="s">
+        <v>1369</v>
+      </c>
       <c r="O53" s="59" t="s">
         <v>404</v>
       </c>
@@ -8313,6 +8360,12 @@
       <c r="L54" s="16" t="s">
         <v>365</v>
       </c>
+      <c r="M54" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>365</v>
+      </c>
       <c r="O54" s="59" t="s">
         <v>405</v>
       </c>
@@ -8371,6 +8424,12 @@
       <c r="L55" s="16" t="s">
         <v>366</v>
       </c>
+      <c r="M55" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>366</v>
+      </c>
       <c r="O55" s="59" t="s">
         <v>406</v>
       </c>
@@ -8460,7 +8519,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8486,10 +8545,16 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>408</v>
+        <v>1370</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>368</v>
+        <v>1373</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>1372</v>
       </c>
       <c r="O57" s="59" t="s">
         <v>408</v>
@@ -8516,7 +8581,9 @@
       <c r="W57" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="X57" s="2"/>
+      <c r="X57" s="5" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="str">
@@ -8549,6 +8616,12 @@
       <c r="L58" s="16" t="s">
         <v>369</v>
       </c>
+      <c r="M58" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>369</v>
+      </c>
       <c r="O58" s="59" t="s">
         <v>409</v>
       </c>
@@ -8576,7 +8649,7 @@
       </c>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8607,6 +8680,12 @@
       <c r="L59" s="16" t="s">
         <v>370</v>
       </c>
+      <c r="M59" s="16" t="s">
+        <v>1375</v>
+      </c>
+      <c r="N59" s="16" t="s">
+        <v>370</v>
+      </c>
       <c r="O59" s="59" t="s">
         <v>410</v>
       </c>
@@ -8632,7 +8711,9 @@
       <c r="W59" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="X59" s="2"/>
+      <c r="X59" s="5" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="str">
@@ -8665,6 +8746,12 @@
       <c r="L60" s="16" t="s">
         <v>371</v>
       </c>
+      <c r="M60" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>371</v>
+      </c>
       <c r="O60" s="59" t="s">
         <v>411</v>
       </c>
@@ -8723,6 +8810,12 @@
       <c r="L61" s="16" t="s">
         <v>372</v>
       </c>
+      <c r="M61" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>1378</v>
+      </c>
       <c r="O61" s="59" t="s">
         <v>412</v>
       </c>
@@ -8780,6 +8873,12 @@
       </c>
       <c r="L62" s="16" t="s">
         <v>373</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>1379</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>1380</v>
       </c>
       <c r="O62" s="59" t="s">
         <v>413</v>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -4375,12 +4375,6 @@
     <t>O44.1-O46, O67, O72</t>
   </si>
   <si>
-    <t>O44.1|O4[5-6]|O67|O72</t>
-  </si>
-  <si>
-    <t>O44.1| O4[5-6]|O67|O72</t>
-  </si>
-  <si>
     <t>For both mortality and CM codes, O44.0 is placenta previa specified as without hemorrhage, therefore needs to be excluded from hemorrhage definition</t>
   </si>
   <si>
@@ -4400,6 +4394,12 @@
   </si>
   <si>
     <t>O2[0-9]|O3[0-9]|O4[0-3,7-9]|O5|O6[0-3,8-9]|O7[0-1,3-7]|O8[7-9]|O9[4,8-9]</t>
+  </si>
+  <si>
+    <t>O441| O4[5-6]|O67|O72</t>
+  </si>
+  <si>
+    <t>O441|O4[5-6]|O67|O72</t>
   </si>
 </sst>
 </file>
@@ -5302,10 +5302,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="N62" sqref="N62"/>
+      <selection pane="topRight" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8548,13 +8548,13 @@
         <v>1370</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="M57" s="16" t="s">
         <v>1371</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>1372</v>
+        <v>1380</v>
       </c>
       <c r="O57" s="59" t="s">
         <v>408</v>
@@ -8582,7 +8582,7 @@
         <v>33</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>370</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="N59" s="16" t="s">
         <v>370</v>
@@ -8712,7 +8712,7 @@
         <v>35</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -8811,10 +8811,10 @@
         <v>372</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="O61" s="59" t="s">
         <v>412</v>
@@ -8875,10 +8875,10 @@
         <v>373</v>
       </c>
       <c r="M62" s="16" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="O62" s="59" t="s">
         <v>413</v>
@@ -10558,7 +10558,7 @@
         <v>cB09</v>
       </c>
       <c r="H90" s="40" t="str">
-        <f t="shared" ref="H90:H104" si="8">CONCATENATE(D90,E90,F90)</f>
+        <f>CONCATENATE(D90,E90,F90)</f>
         <v>B09</v>
       </c>
       <c r="I90" s="16" t="s">
@@ -10620,7 +10620,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="40"/>
       <c r="H91" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(D91,E91,F91)</f>
         <v>B10</v>
       </c>
       <c r="J91" s="17" t="s">
@@ -10796,7 +10796,7 @@
         <v>cB11</v>
       </c>
       <c r="H94" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(D94,E94,F94)</f>
         <v>B11</v>
       </c>
       <c r="I94" s="5" t="s">
@@ -10863,7 +10863,7 @@
         <v>cB12</v>
       </c>
       <c r="H95" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(D95,E95,F95)</f>
         <v>B12</v>
       </c>
       <c r="I95" s="19" t="s">
@@ -10994,7 +10994,7 @@
         <v>cB13</v>
       </c>
       <c r="H97" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(D97,E97,F97)</f>
         <v>B13</v>
       </c>
       <c r="I97" s="19" t="s">
@@ -11061,7 +11061,7 @@
         <v>cB14</v>
       </c>
       <c r="H98" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(D98,E98,F98)</f>
         <v>B14</v>
       </c>
       <c r="I98" s="5" t="s">
@@ -11128,7 +11128,7 @@
         <v>cB15</v>
       </c>
       <c r="H99" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f>CONCATENATE(D99,E99,F99)</f>
         <v>B15</v>
       </c>
       <c r="I99" s="16" t="s">
@@ -11444,7 +11444,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="40"/>
       <c r="H104" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H104:H109" si="8">CONCATENATE(D104,E104,F104)</f>
         <v>B16</v>
       </c>
       <c r="I104" s="5"/>
@@ -11509,7 +11509,7 @@
         <v>cB16a</v>
       </c>
       <c r="H105" s="40" t="str">
-        <f>CONCATENATE(D105,E105,F105)</f>
+        <f t="shared" si="8"/>
         <v>B16a</v>
       </c>
       <c r="I105" s="5"/>
@@ -11574,7 +11574,7 @@
         <v>cB16b</v>
       </c>
       <c r="H106" s="40" t="str">
-        <f>CONCATENATE(D106,E106,F106)</f>
+        <f t="shared" si="8"/>
         <v>B16b</v>
       </c>
       <c r="I106" s="5"/>
@@ -11639,7 +11639,7 @@
         <v>cB16c</v>
       </c>
       <c r="H107" s="40" t="str">
-        <f>CONCATENATE(D107,E107,F107)</f>
+        <f t="shared" si="8"/>
         <v>B16c</v>
       </c>
       <c r="I107" s="5"/>
@@ -11702,7 +11702,7 @@
         <v>cB17</v>
       </c>
       <c r="H108" s="40" t="str">
-        <f>CONCATENATE(D108,E108,F108)</f>
+        <f t="shared" si="8"/>
         <v>B17</v>
       </c>
       <c r="I108" s="5"/>
@@ -11765,7 +11765,7 @@
         <v>cB99</v>
       </c>
       <c r="H109" s="40" t="str">
-        <f>CONCATENATE(D109,E109,F109)</f>
+        <f t="shared" si="8"/>
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -12299,7 +12299,7 @@
     </row>
     <row r="118" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
-        <f>IF(H118&lt;&gt;"",IF(F118&lt;&gt;"",CONCATENATE("..........",D118,".",E118,".",F118,". - ",T118),IF(E118&lt;&gt;"",CONCATENATE(".....",D118,".",E118,". - ",T118),CONCATENATE(D118,". - ",T118))),"")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">.....D.03. - Mental Health disorders </v>
       </c>
       <c r="B118" s="2"/>
@@ -13026,7 +13026,7 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="str">
-        <f t="shared" ref="A131:A195" si="11">IF(H131&lt;&gt;"",IF(F131&lt;&gt;"",CONCATENATE("..........",D131,".",E131,".",F131,". - ",T131),IF(E131&lt;&gt;"",CONCATENATE(".....",D131,".",E131,". - ",T131),CONCATENATE(D131,". - ",T131))),"")</f>
+        <f t="shared" ref="A131:A194" si="11">IF(H131&lt;&gt;"",IF(F131&lt;&gt;"",CONCATENATE("..........",D131,".",E131,".",F131,". - ",T131),IF(E131&lt;&gt;"",CONCATENATE(".....",D131,".",E131,". - ",T131),CONCATENATE(D131,". - ",T131))),"")</f>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -16856,7 +16856,7 @@
     </row>
     <row r="195" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A195:A221" si="18">IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("..........",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE(".....",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
         <v/>
       </c>
       <c r="B195" s="2">
@@ -16920,7 +16920,7 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="str">
-        <f t="shared" ref="A196:A228" si="18">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("..........",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE(".....",D196,".",E196,". - ",T196),CONCATENATE(D196,". - ",T196))),"")</f>
+        <f t="shared" si="18"/>
         <v>.....D.12. - Congenital anomalies</v>
       </c>
       <c r="B196" s="2">
@@ -18533,7 +18533,7 @@
     </row>
     <row r="223" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="A223:A228" si="22">IF(H223&lt;&gt;"",IF(F223&lt;&gt;"",CONCATENATE("..........",D223,".",E223,".",F223,". - ",T223),IF(E223&lt;&gt;"",CONCATENATE(".....",D223,".",E223,". - ",T223),CONCATENATE(D223,". - ",T223))),"")</f>
         <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D223" s="56" t="s">
@@ -18568,7 +18568,7 @@
     </row>
     <row r="224" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="D224" s="56" t="s">
@@ -18600,7 +18600,7 @@
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>.....Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D225" s="56" t="s">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="G225" s="43"/>
       <c r="H225" s="40" t="str">
-        <f t="shared" ref="H225:H228" si="22">CONCATENATE(D225,E225,F225)</f>
+        <f t="shared" ref="H225:H228" si="23">CONCATENATE(D225,E225,F225)</f>
         <v>Z02</v>
       </c>
       <c r="T225" s="48" t="s">
@@ -18620,7 +18620,7 @@
     </row>
     <row r="226" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>.....Z.03. - Code does not map</v>
       </c>
       <c r="D226" s="56" t="s">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="G226" s="43"/>
       <c r="H226" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Z03</v>
       </c>
       <c r="I226" s="16" t="s">
@@ -18643,7 +18643,7 @@
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Z. - Unknown/Missing Value</v>
       </c>
       <c r="D227" s="56" t="s">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="G227" s="43"/>
       <c r="H227" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Z</v>
       </c>
       <c r="T227" s="48" t="s">
@@ -18660,7 +18660,7 @@
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>.....D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D228" s="56" t="s">
@@ -18671,7 +18671,7 @@
       </c>
       <c r="G228" s="43"/>
       <c r="H228" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>D99</v>
       </c>
       <c r="T228" s="48" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\0.CBD\myCBD\myInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myCBD\myInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1380">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4394,9 +4394,6 @@
   </si>
   <si>
     <t>O2[0-9]|O3[0-9]|O4[0-3,7-9]|O5|O6[0-3,8-9]|O7[0-1,3-7]|O8[7-9]|O9[4,8-9]</t>
-  </si>
-  <si>
-    <t>O441| O4[5-6]|O67|O72</t>
   </si>
   <si>
     <t>O441|O4[5-6]|O67|O72</t>
@@ -5302,10 +5299,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A49" sqref="A49"/>
-      <selection pane="topRight" activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -8554,7 +8552,7 @@
         <v>1371</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O57" s="59" t="s">
         <v>408</v>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myCBD\myInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -17,9 +12,9 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$223</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +31,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="2" shapeId="0">
+    <comment ref="P126" authorId="2">
       <text>
         <r>
           <rPr>
@@ -113,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="1385">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3801,9 +3796,6 @@
   </si>
   <si>
     <t>U03[1,9]|X[6-7]|X8[0-4]|Y870</t>
-  </si>
-  <si>
-    <t>U010-U019, U02, X85-Y09, Y350-354, Y356-Y357, Y871, Y890</t>
   </si>
   <si>
     <t>Sudden infant death syndrome</t>
@@ -3906,15 +3898,6 @@
     <t>Change name to something like "War and Legal Executions" or "War and Capital Punishment" based on CDPH changes?</t>
   </si>
   <si>
-    <t>Y35[5,8-9]|Y36|Y891</t>
-  </si>
-  <si>
-    <t>Y355, Y358-Y359, Y36, Y891</t>
-  </si>
-  <si>
-    <t>U01[0-9]|U02|X8[5-9]|X9|Y0|Y35[0-4,6-7]|Y871|Y890</t>
-  </si>
-  <si>
     <t>C18-C21, D010-D013, D120-D122, D125-D126, D128-D129, D373-D375</t>
   </si>
   <si>
@@ -4111,12 +4094,6 @@
   </si>
   <si>
     <t>Added U031, U039 (terrorism)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Added Y350-4, 356-7, 890 (officer-involved shootings etc. from war/legal interventions to homicides) and U010-U019, U02 (terrorism) per CDPH. See 4oct2018 email regarding recommendation to Added Y358-9 (other and unspecified officer-involved deaths) to be consistent with CDPH-recommended for legal interventions. </t>
-  </si>
-  <si>
-    <t>Added Y891 (sequelae of war operations) per IHME, move Y890 (officer-involved killings) to homicides rather than here per CDPH</t>
   </si>
   <si>
     <t>Moved P043 to alcohol and P044 to drug use disorders.</t>
@@ -4398,11 +4375,50 @@
   <si>
     <t>O441|O4[5-6]|O67|O72</t>
   </si>
+  <si>
+    <t>Legal intervention</t>
+  </si>
+  <si>
+    <t>Homicide excluding legal intervention</t>
+  </si>
+  <si>
+    <t>Added Y350-4, 356-7, 890 (officer-involved shootings etc. from war/legal interventions to homicides) and U010-U019, U02 (terrorism) per CDPH. See 4oct2018 email regarding recommendation to Added Y358-9 (other and unspecified officer-involved deaths) to be consistent with CDPH-recommended for legal interventions. 
+exploring seperating "legal intervention" from other homicide
+for "210" row 223, TEMP change of E from 99 to 03, and make F c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Y350-354, Y356-Y357, Y358-Y359,Y890</t>
+  </si>
+  <si>
+    <t>U010-U019, U02, X85-Y09, Y871</t>
+  </si>
+  <si>
+    <t>Y355,  Y36, Y891, Y38, y899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added Y891 (sequelae of war operations) per IHME, move Y890 (officer-involved killings) to homicides rather than here per CDPH
+Y35.5 - execution
+Y36, Y37, Y89.1 - war/military
+Y38 - terrorism
+</t>
+  </si>
+  <si>
+    <t>Y355|Y36|Y37|Y891|Y38</t>
+  </si>
+  <si>
+    <t>U01[0-9]|U02|X8[5-9]|X9|Y0|Y871</t>
+  </si>
+  <si>
+    <t>Y35[0-4]|Y35[6-9]|Y890</t>
+  </si>
+  <si>
+    <t>Execution, War, Terroism</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5053,7 +5069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5088,7 +5104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5297,13 +5313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X228"/>
+  <dimension ref="A1:X230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="T223" sqref="T223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5359,10 +5375,10 @@
         <v>1124</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>384</v>
@@ -5371,10 +5387,10 @@
         <v>759</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="O1" s="59" t="s">
         <v>1162</v>
@@ -8161,16 +8177,16 @@
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="5" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K51" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L51" s="19" t="s">
         <v>1233</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>1234</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -8200,7 +8216,7 @@
         <v>880</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -8292,13 +8308,13 @@
         <v>404</v>
       </c>
       <c r="L53" s="80" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="M53" s="80" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="N53" s="80" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="O53" s="59" t="s">
         <v>404</v>
@@ -8543,16 +8559,16 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="M57" s="16" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="O57" s="59" t="s">
         <v>408</v>
@@ -8580,7 +8596,7 @@
         <v>33</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -8679,7 +8695,7 @@
         <v>370</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="N59" s="16" t="s">
         <v>370</v>
@@ -8710,7 +8726,7 @@
         <v>35</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -8809,10 +8825,10 @@
         <v>372</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="O61" s="59" t="s">
         <v>412</v>
@@ -8873,10 +8889,10 @@
         <v>373</v>
       </c>
       <c r="M62" s="16" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="O62" s="59" t="s">
         <v>413</v>
@@ -9165,7 +9181,7 @@
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="5" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>1161</v>
@@ -9174,7 +9190,7 @@
         <v>1166</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
@@ -9289,7 +9305,7 @@
         <v>420</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O69" s="59" t="s">
         <v>420</v>
@@ -9580,7 +9596,7 @@
       </c>
       <c r="Q74" s="59"/>
       <c r="R74" s="60" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="S74" s="59" t="s">
         <v>557</v>
@@ -9682,7 +9698,7 @@
         <v>558</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="U76" s="20" t="s">
         <v>51</v>
@@ -9724,10 +9740,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="L77" s="49" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
@@ -9778,16 +9794,16 @@
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="18" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="J78" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
@@ -9842,7 +9858,7 @@
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="19" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="J79" s="17" t="s">
         <v>1161</v>
@@ -9969,7 +9985,7 @@
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="J81" s="17" t="s">
         <v>1161</v>
@@ -10036,7 +10052,7 @@
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="J82" s="17" t="s">
         <v>1161</v>
@@ -10105,16 +10121,16 @@
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="J83" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="L83" s="49" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="M83" s="49"/>
       <c r="N83" s="49"/>
@@ -10172,7 +10188,7 @@
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="J84" s="17" t="s">
         <v>1161</v>
@@ -10239,7 +10255,7 @@
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="J85" s="17" t="s">
         <v>1161</v>
@@ -10306,7 +10322,7 @@
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="J86" s="17" t="s">
         <v>1161</v>
@@ -10429,16 +10445,16 @@
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="18" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="J88" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="L88" s="49" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="M88" s="49"/>
       <c r="N88" s="49"/>
@@ -10493,16 +10509,16 @@
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="18" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="J89" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="L89" s="49" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="M89" s="49"/>
       <c r="N89" s="49"/>
@@ -10560,7 +10576,7 @@
         <v>B09</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="J90" s="17" t="s">
         <v>1161</v>
@@ -10607,7 +10623,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="37" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>1139</v>
@@ -10634,11 +10650,11 @@
       <c r="R91" s="59"/>
       <c r="S91" s="59"/>
       <c r="T91" s="5" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="U91" s="20"/>
       <c r="V91" s="5" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="W91" s="45"/>
       <c r="X91" s="2"/>
@@ -10667,7 +10683,7 @@
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="5" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="J92" s="17" t="s">
         <v>1161</v>
@@ -10731,16 +10747,16 @@
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="5" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="J93" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="L93" s="49" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="M93" s="49"/>
       <c r="N93" s="49"/>
@@ -10798,7 +10814,7 @@
         <v>B11</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="J94" s="17" t="s">
         <v>1161</v>
@@ -10865,7 +10881,7 @@
         <v>B12</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="J95" s="17" t="s">
         <v>1161</v>
@@ -10929,7 +10945,7 @@
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="19" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="J96" s="17" t="s">
         <v>1161</v>
@@ -10996,7 +11012,7 @@
         <v>B13</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="J97" s="17" t="s">
         <v>1161</v>
@@ -11063,16 +11079,16 @@
         <v>B14</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="J98" s="17" t="s">
         <v>1161</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="L98" s="49" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="M98" s="49"/>
       <c r="N98" s="49"/>
@@ -11130,7 +11146,7 @@
         <v>B15</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="J99" s="17" t="s">
         <v>1161</v>
@@ -11194,7 +11210,7 @@
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="19" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="J100" s="17" t="s">
         <v>1161</v>
@@ -11258,7 +11274,7 @@
       </c>
       <c r="H101" s="40"/>
       <c r="I101" s="19" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="J101" s="17" t="s">
         <v>1161</v>
@@ -11322,7 +11338,7 @@
       </c>
       <c r="H102" s="40"/>
       <c r="I102" s="19" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="J102" s="17" t="s">
         <v>1161</v>
@@ -11767,7 +11783,7 @@
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>1161</v>
@@ -11827,10 +11843,10 @@
       </c>
       <c r="H110" s="40"/>
       <c r="K110" s="5" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -11888,22 +11904,22 @@
         <v>D01</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="L111" s="49" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="M111" s="49" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="N111" s="49" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="O111" s="59" t="s">
         <v>975</v>
@@ -11931,7 +11947,7 @@
         <v>66</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -11962,18 +11978,18 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19"/>
       <c r="O112" s="59" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="P112" s="66" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="Q112" s="69"/>
       <c r="R112" s="59" t="s">
@@ -12302,7 +12318,7 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>1142</v>
@@ -12330,11 +12346,11 @@
       <c r="R118" s="59"/>
       <c r="S118" s="59"/>
       <c r="T118" s="2" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="U118" s="20"/>
       <c r="V118" s="2" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
@@ -12372,7 +12388,7 @@
       <c r="R119" s="59"/>
       <c r="S119" s="59"/>
       <c r="T119" s="2" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="U119" s="20"/>
       <c r="V119" s="2" t="s">
@@ -12670,13 +12686,13 @@
         <v>443</v>
       </c>
       <c r="L125" s="49" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="M125" s="49" t="s">
         <v>443</v>
       </c>
       <c r="N125" s="49" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="O125" s="59" t="s">
         <v>443</v>
@@ -12734,24 +12750,24 @@
         <v>D04a</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="59" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="P126" s="66" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q126" s="69"/>
       <c r="R126" s="59" t="s">
@@ -13101,7 +13117,7 @@
       </c>
       <c r="H132" s="40"/>
       <c r="I132" s="5" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J132" s="5" t="s">
         <v>1161</v>
@@ -13110,7 +13126,7 @@
         <v>1167</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
@@ -13140,7 +13156,7 @@
         <v>728</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -14029,7 +14045,7 @@
         <v>D06</v>
       </c>
       <c r="I148" s="57" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="J148" s="18" t="s">
         <v>1161</v>
@@ -14038,7 +14054,7 @@
         <v>1202</v>
       </c>
       <c r="L148" s="58" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="M148" s="58"/>
       <c r="N148" s="58"/>
@@ -14377,7 +14393,7 @@
         <v>460</v>
       </c>
       <c r="L154" s="49" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="M154" s="49"/>
       <c r="N154" s="49"/>
@@ -14611,7 +14627,7 @@
         <v>464</v>
       </c>
       <c r="N158" s="49" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="O158" s="59" t="s">
         <v>464</v>
@@ -14801,22 +14817,22 @@
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J161" s="5" t="s">
         <v>1161</v>
       </c>
       <c r="K161" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="L161" s="49" t="s">
         <v>1229</v>
       </c>
-      <c r="L161" s="49" t="s">
-        <v>1230</v>
-      </c>
       <c r="M161" s="49" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="N161" s="49" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="O161" s="59" t="s">
         <v>467</v>
@@ -14880,10 +14896,10 @@
         <v>830</v>
       </c>
       <c r="M162" s="49" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="N162" s="49" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="O162" s="59" t="s">
         <v>468</v>
@@ -14911,7 +14927,7 @@
         <v>98</v>
       </c>
       <c r="X162" s="81" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -14937,22 +14953,22 @@
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="J163" s="5" t="s">
         <v>1214</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="L163" s="49" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="M163" s="49" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="N163" s="49" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="O163" s="59"/>
       <c r="P163" s="68"/>
@@ -14960,7 +14976,7 @@
       <c r="R163" s="59"/>
       <c r="S163" s="59"/>
       <c r="T163" s="5" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="U163" s="50"/>
       <c r="V163" s="5"/>
@@ -14994,22 +15010,22 @@
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="L164" s="19" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="M164" s="19" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="O164" s="59" t="s">
         <v>469</v>
@@ -15025,7 +15041,7 @@
         <v>1102</v>
       </c>
       <c r="T164" s="79" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="U164" s="52" t="s">
         <v>99</v>
@@ -15037,7 +15053,7 @@
         <v>99</v>
       </c>
       <c r="X164" s="81" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -15112,7 +15128,7 @@
         <v>1142</v>
       </c>
       <c r="E166" s="83" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="40" t="str">
@@ -15175,7 +15191,7 @@
         <v>1142</v>
       </c>
       <c r="E167" s="83" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="40" t="str">
@@ -15232,13 +15248,13 @@
         <v>157</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="D168" s="27" t="s">
         <v>1142</v>
       </c>
       <c r="E168" s="83" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="40" t="str">
@@ -15335,10 +15351,10 @@
         <v>682</v>
       </c>
       <c r="T169" s="81" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="U169" s="20" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="V169" s="2" t="s">
         <v>281</v>
@@ -15435,7 +15451,7 @@
         <v>D11</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J171" s="5" t="s">
         <v>1161</v>
@@ -16854,7 +16870,7 @@
     </row>
     <row r="195" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="str">
-        <f t="shared" ref="A195:A221" si="18">IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("..........",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE(".....",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
+        <f t="shared" ref="A195:A223" si="18">IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("..........",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE(".....",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
         <v/>
       </c>
       <c r="B195" s="2">
@@ -16876,10 +16892,10 @@
       </c>
       <c r="H195" s="40"/>
       <c r="I195" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K195" s="5" t="s">
         <v>1200</v>
@@ -17654,7 +17670,7 @@
       </c>
       <c r="Q208" s="66"/>
       <c r="R208" s="60" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="S208" s="59" t="s">
         <v>654</v>
@@ -17762,7 +17778,7 @@
         <v>E01a</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J210" s="5" t="s">
         <v>1161</v>
@@ -18139,7 +18155,7 @@
       </c>
       <c r="H216" s="40"/>
       <c r="I216" s="5" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J216" s="5" t="s">
         <v>1161</v>
@@ -18204,16 +18220,16 @@
         <v>E01x</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="L217" s="49" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="M217" s="49"/>
       <c r="N217" s="49"/>
@@ -18243,7 +18259,7 @@
         <v>887</v>
       </c>
       <c r="X217" s="22" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="218" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -18318,7 +18334,7 @@
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="40" t="str">
-        <f t="shared" ref="G219:G224" si="21">CONCATENATE("c",D219,E219,F219)</f>
+        <f t="shared" ref="G219:G226" si="21">CONCATENATE("c",D219,E219,F219)</f>
         <v>cE02</v>
       </c>
       <c r="H219" s="40" t="str">
@@ -18326,7 +18342,7 @@
         <v>E02</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="J219" s="5" t="s">
         <v>1214</v>
@@ -18353,7 +18369,7 @@
         <v>999</v>
       </c>
       <c r="T219" s="5" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="U219" s="20" t="s">
         <v>140</v>
@@ -18366,7 +18382,7 @@
       </c>
       <c r="X219" s="2"/>
     </row>
-    <row r="220" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="str">
         <f t="shared" si="18"/>
         <v>.....E.03. - Homicide/Interpersonal violence</v>
@@ -18393,16 +18409,10 @@
         <v>E03</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>1313</v>
+        <v>1376</v>
       </c>
       <c r="J220" s="5" t="s">
         <v>1214</v>
-      </c>
-      <c r="K220" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="L220" s="19" t="s">
-        <v>1246</v>
       </c>
       <c r="M220" s="19"/>
       <c r="N220" s="19"/>
@@ -18420,7 +18430,7 @@
         <v>998</v>
       </c>
       <c r="T220" s="5" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="U220" s="20" t="s">
         <v>141</v>
@@ -18433,251 +18443,350 @@
       </c>
       <c r="X220" s="2"/>
     </row>
-    <row r="221" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="B221" s="2">
-        <v>210</v>
-      </c>
-      <c r="C221" s="31" t="s">
-        <v>142</v>
-      </c>
+        <v>..........E.03.a. - Homicide excluding legal intervention</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="31"/>
       <c r="D221" s="6" t="s">
         <v>1143</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F221" s="6"/>
+        <v>1146</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>1126</v>
+      </c>
       <c r="G221" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE99</v>
-      </c>
-      <c r="H221" s="40"/>
-      <c r="I221" s="5" t="s">
-        <v>1314</v>
-      </c>
-      <c r="J221" s="5" t="s">
-        <v>1242</v>
-      </c>
+        <v>cE03a</v>
+      </c>
+      <c r="H221" s="40" t="str">
+        <f t="shared" ref="H221:H223" si="22">CONCATENATE(D221,E221,F221)</f>
+        <v>E03a</v>
+      </c>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
       <c r="K221" s="5" t="s">
-        <v>1245</v>
-      </c>
-      <c r="L221" s="49" t="s">
-        <v>1244</v>
-      </c>
-      <c r="M221" s="49"/>
-      <c r="N221" s="49"/>
-      <c r="O221" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="P221" s="68" t="s">
-        <v>877</v>
-      </c>
+        <v>1378</v>
+      </c>
+      <c r="L221" s="19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M221" s="19"/>
+      <c r="N221" s="19"/>
+      <c r="O221" s="59"/>
+      <c r="P221" s="68"/>
       <c r="Q221" s="69"/>
       <c r="R221" s="59"/>
       <c r="S221" s="59"/>
-      <c r="T221" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="U221" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="V221" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="W221" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="X221" s="22" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="222" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B222" s="82" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D222" s="54" t="s">
+      <c r="T221" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="U221" s="46"/>
+      <c r="V221" s="5"/>
+      <c r="W221" s="45"/>
+      <c r="X221" s="2"/>
+    </row>
+    <row r="222" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v>..........E.03.b. - Legal intervention</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="31"/>
+      <c r="D222" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="E222" s="55" t="s">
-        <v>1144</v>
+      <c r="E222" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>1127</v>
       </c>
       <c r="G222" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE01</v>
-      </c>
-      <c r="H222" s="40"/>
-      <c r="I222" s="48" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J222" s="48" t="s">
-        <v>1278</v>
-      </c>
-      <c r="K222" s="16" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L222" s="16" t="s">
-        <v>1280</v>
-      </c>
-      <c r="T222" s="48" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="223" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <v>cE03b</v>
+      </c>
+      <c r="H222" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>E03b</v>
+      </c>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="L222" s="19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M222" s="19"/>
+      <c r="N222" s="19"/>
+      <c r="O222" s="59"/>
+      <c r="P222" s="68"/>
+      <c r="Q222" s="69"/>
+      <c r="R222" s="59"/>
+      <c r="S222" s="59"/>
+      <c r="T222" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="U222" s="46"/>
+      <c r="V222" s="5"/>
+      <c r="W222" s="45"/>
+      <c r="X222" s="2"/>
+    </row>
+    <row r="223" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A223" s="44" t="str">
-        <f t="shared" ref="A223:A228" si="22">IF(H223&lt;&gt;"",IF(F223&lt;&gt;"",CONCATENATE("..........",D223,".",E223,".",F223,". - ",T223),IF(E223&lt;&gt;"",CONCATENATE(".....",D223,".",E223,". - ",T223),CONCATENATE(D223,". - ",T223))),"")</f>
-        <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
-      </c>
-      <c r="D223" s="56" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E223" s="55" t="s">
-        <v>1144</v>
+        <f t="shared" si="18"/>
+        <v>..........E.03.c. - Execution, War, Terroism</v>
+      </c>
+      <c r="B223" s="2">
+        <v>210</v>
+      </c>
+      <c r="C223" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>1130</v>
       </c>
       <c r="G223" s="40" t="str">
         <f t="shared" si="21"/>
+        <v>cE03c</v>
+      </c>
+      <c r="H223" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>E03c</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K223" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="L223" s="49" t="s">
+        <v>1381</v>
+      </c>
+      <c r="M223" s="49"/>
+      <c r="N223" s="49"/>
+      <c r="O223" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="P223" s="68" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q223" s="69"/>
+      <c r="R223" s="59"/>
+      <c r="S223" s="59"/>
+      <c r="T223" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="U223" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="V223" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="W223" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="X223" s="22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B224" s="82" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D224" s="54" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E224" s="55" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G224" s="40" t="str">
+        <f t="shared" si="21"/>
+        <v>cE01</v>
+      </c>
+      <c r="H224" s="40"/>
+      <c r="I224" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J224" s="48" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K224" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L224" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="T224" s="48" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A225" s="44" t="str">
+        <f t="shared" ref="A225:A230" si="23">IF(H225&lt;&gt;"",IF(F225&lt;&gt;"",CONCATENATE("..........",D225,".",E225,".",F225,". - ",T225),IF(E225&lt;&gt;"",CONCATENATE(".....",D225,".",E225,". - ",T225),CONCATENATE(D225,". - ",T225))),"")</f>
+        <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
+      </c>
+      <c r="D225" s="56" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E225" s="55" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G225" s="40" t="str">
+        <f t="shared" si="21"/>
         <v>cZ01</v>
       </c>
-      <c r="H223" s="40" t="str">
-        <f>CONCATENATE(D223,E223,F223)</f>
+      <c r="H225" s="40" t="str">
+        <f>CONCATENATE(D225,E225,F225)</f>
         <v>Z01</v>
       </c>
-      <c r="I223" s="48" t="s">
+      <c r="I225" s="48" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J225" s="48" t="s">
         <v>1224</v>
       </c>
-      <c r="J223" s="48" t="s">
+      <c r="K225" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="K223" s="16" t="s">
+      <c r="L225" s="16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="T225" s="48" t="s">
         <v>1226</v>
       </c>
-      <c r="L223" s="16" t="s">
-        <v>1260</v>
-      </c>
-      <c r="T223" s="48" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="224" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="44" t="str">
-        <f t="shared" si="22"/>
+    </row>
+    <row r="226" spans="1:20" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="44" t="str">
+        <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="D224" s="56" t="s">
+      <c r="D226" s="56" t="s">
         <v>1138</v>
       </c>
-      <c r="E224" s="55" t="s">
+      <c r="E226" s="55" t="s">
         <v>1152</v>
       </c>
-      <c r="G224" s="42" t="str">
+      <c r="G226" s="42" t="str">
         <f t="shared" si="21"/>
         <v>cA09</v>
       </c>
-      <c r="H224" s="40"/>
-      <c r="I224" s="16" t="s">
-        <v>1340</v>
-      </c>
-      <c r="J224" s="48" t="s">
-        <v>1225</v>
-      </c>
-      <c r="K224" s="16" t="s">
-        <v>1219</v>
-      </c>
-      <c r="L224" s="16" t="s">
-        <v>1219</v>
-      </c>
-      <c r="T224" s="48" t="s">
+      <c r="H226" s="40"/>
+      <c r="I226" s="16" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J226" s="48" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K226" s="16" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A225" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>.....Z.02. - Unknown/Missing Value</v>
-      </c>
-      <c r="D225" s="56" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E225" s="55" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G225" s="43"/>
-      <c r="H225" s="40" t="str">
-        <f t="shared" ref="H225:H228" si="23">CONCATENATE(D225,E225,F225)</f>
-        <v>Z02</v>
-      </c>
-      <c r="T225" s="48" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>.....Z.03. - Code does not map</v>
-      </c>
-      <c r="D226" s="56" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E226" s="55" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G226" s="43"/>
-      <c r="H226" s="40" t="str">
-        <f t="shared" si="23"/>
-        <v>Z03</v>
-      </c>
-      <c r="I226" s="16" t="s">
-        <v>1266</v>
+      <c r="L226" s="16" t="s">
+        <v>1218</v>
       </c>
       <c r="T226" s="48" t="s">
-        <v>1250</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>Z. - Unknown/Missing Value</v>
+        <f t="shared" si="23"/>
+        <v>.....Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>1249</v>
+        <v>1245</v>
+      </c>
+      <c r="E227" s="55" t="s">
+        <v>1145</v>
       </c>
       <c r="G227" s="43"/>
       <c r="H227" s="40" t="str">
+        <f t="shared" ref="H227:H230" si="24">CONCATENATE(D227,E227,F227)</f>
+        <v>Z02</v>
+      </c>
+      <c r="T227" s="48" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A228" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>Z</v>
-      </c>
-      <c r="T227" s="48" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A228" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>.....D.99. - Other Chronic Conditions</v>
+        <v>.....Z.03. - Code does not map</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>1142</v>
+        <v>1245</v>
       </c>
       <c r="E228" s="55" t="s">
-        <v>1228</v>
+        <v>1146</v>
       </c>
       <c r="G228" s="43"/>
       <c r="H228" s="40" t="str">
+        <f t="shared" si="24"/>
+        <v>Z03</v>
+      </c>
+      <c r="I228" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="T228" s="48" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="44" t="str">
         <f t="shared" si="23"/>
+        <v>Z. - Unknown/Missing Value</v>
+      </c>
+      <c r="D229" s="56" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G229" s="43"/>
+      <c r="H229" s="40" t="str">
+        <f t="shared" si="24"/>
+        <v>Z</v>
+      </c>
+      <c r="T229" s="48" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="44" t="str">
+        <f t="shared" si="23"/>
+        <v>.....D.99. - Other Chronic Conditions</v>
+      </c>
+      <c r="D230" s="56" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E230" s="55" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G230" s="43"/>
+      <c r="H230" s="40" t="str">
+        <f t="shared" si="24"/>
         <v>D99</v>
       </c>
-      <c r="T228" s="48" t="s">
-        <v>1281</v>
+      <c r="T230" s="48" t="s">
+        <v>1277</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X221"/>
+  <autoFilter ref="A1:X223"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18914,24 +19023,24 @@
   <sheetData>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="77" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1385">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4382,11 +4382,6 @@
     <t>Homicide excluding legal intervention</t>
   </si>
   <si>
-    <t>Added Y350-4, 356-7, 890 (officer-involved shootings etc. from war/legal interventions to homicides) and U010-U019, U02 (terrorism) per CDPH. See 4oct2018 email regarding recommendation to Added Y358-9 (other and unspecified officer-involved deaths) to be consistent with CDPH-recommended for legal interventions. 
-exploring seperating "legal intervention" from other homicide
-for "210" row 223, TEMP change of E from 99 to 03, and make F c</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Y350-354, Y356-Y357, Y358-Y359,Y890</t>
   </si>
   <si>
@@ -4413,6 +4408,12 @@
   </si>
   <si>
     <t>Execution, War, Terroism</t>
+  </si>
+  <si>
+    <t>Added Y350-4, 356-7, 890 (officer-involved shootings etc. from war/legal interventions to homicides) and U010-U019, U02 (terrorism) per CDPH. See 4oct2018 email regarding recommendation to Added Y358-9 (other and unspecified officer-involved deaths) to be consistent with CDPH-recommended for legal interventions. 
+exploring seperating "legal intervention" from other homicide
+removed "cE03" code from G
+for "210" row 223, TEMP change of E from 99 to 03, and make F c</t>
   </si>
 </sst>
 </file>
@@ -5316,10 +5317,10 @@
   <dimension ref="A1:X230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T218" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T223" sqref="T223"/>
+      <selection pane="bottomRight" activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -18382,7 +18383,7 @@
       </c>
       <c r="X219" s="2"/>
     </row>
-    <row r="220" spans="1:24" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="str">
         <f t="shared" si="18"/>
         <v>.....E.03. - Homicide/Interpersonal violence</v>
@@ -18400,16 +18401,15 @@
         <v>1146</v>
       </c>
       <c r="F220" s="6"/>
-      <c r="G220" s="40" t="str">
-        <f t="shared" si="21"/>
-        <v>cE03</v>
+      <c r="G220" s="40" t="s">
+        <v>952</v>
       </c>
       <c r="H220" s="40" t="str">
         <f>CONCATENATE(D220,E220,F220)</f>
         <v>E03</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>1376</v>
+        <v>1384</v>
       </c>
       <c r="J220" s="5" t="s">
         <v>1214</v>
@@ -18470,10 +18470,10 @@
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="L221" s="19" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="M221" s="19"/>
       <c r="N221" s="19"/>
@@ -18517,10 +18517,10 @@
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
       <c r="K222" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="L222" s="19" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="M222" s="19"/>
       <c r="N222" s="19"/>
@@ -18566,16 +18566,16 @@
         <v>E03c</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="J223" s="5" t="s">
         <v>1241</v>
       </c>
       <c r="K223" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="L223" s="49" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="M223" s="49"/>
       <c r="N223" s="49"/>
@@ -18589,7 +18589,7 @@
       <c r="R223" s="59"/>
       <c r="S223" s="59"/>
       <c r="T223" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="U223" s="20" t="s">
         <v>142</v>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -12,9 +17,9 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$225</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +36,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="2">
+    <comment ref="P126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2842" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="1392">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4415,11 +4420,33 @@
 removed "cE03" code from G
 for "210" row 223, TEMP change of E from 99 to 03, and make F c</t>
   </si>
+  <si>
+    <t>W32-W34.9</t>
+  </si>
+  <si>
+    <t>W3[2-4]</t>
+  </si>
+  <si>
+    <t>Accidental Firearm</t>
+  </si>
+  <si>
+    <t>Moved W3[2-4] here from line above.</t>
+  </si>
+  <si>
+    <t>W20-W38, W40-W43, W45, W46, W49-W52, W75, W76
+not W3[2-4]</t>
+  </si>
+  <si>
+    <t>6. Accidental Firearm</t>
+  </si>
+  <si>
+    <t>W2|W3[0-1,5-8]|W4[0-3,5-6,9]|W5[0-2]|W7[5-6]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5070,7 +5097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5105,7 +5132,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5314,13 +5341,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X230"/>
+  <dimension ref="A1:X232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C212" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G221" sqref="G221"/>
+      <selection pane="bottomRight" activeCell="L215" sqref="L215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -16871,7 +16898,7 @@
     </row>
     <row r="195" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="str">
-        <f t="shared" ref="A195:A223" si="18">IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("..........",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE(".....",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
+        <f t="shared" ref="A195:A225" si="18">IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("..........",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE(".....",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
         <v/>
       </c>
       <c r="B195" s="2">
@@ -17771,7 +17798,7 @@
         <v>1126</v>
       </c>
       <c r="G210" s="40" t="str">
-        <f t="shared" ref="G210:G217" si="20">CONCATENATE("c",D210,E210,F210)</f>
+        <f t="shared" ref="G210:G219" si="20">CONCATENATE("c",D210,E210,F210)</f>
         <v>cE01a</v>
       </c>
       <c r="H210" s="40" t="str">
@@ -17909,7 +17936,9 @@
         <f>CONCATENATE(D212,E212,F212)</f>
         <v>E01b</v>
       </c>
-      <c r="I212" s="5"/>
+      <c r="I212" s="5" t="s">
+        <v>952</v>
+      </c>
       <c r="J212" s="5"/>
       <c r="K212" s="5" t="s">
         <v>501</v>
@@ -18068,7 +18097,7 @@
       </c>
       <c r="X214" s="2"/>
     </row>
-    <row r="215" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18096,10 +18125,10 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5" t="s">
-        <v>995</v>
+        <v>1389</v>
       </c>
       <c r="L215" s="49" t="s">
-        <v>997</v>
+        <v>1391</v>
       </c>
       <c r="M215" s="49"/>
       <c r="N215" s="49"/>
@@ -18133,13 +18162,11 @@
     <row r="216" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="B216" s="2">
-        <v>205</v>
-      </c>
+        <v>..........E.01.c. - Accidental Firearm</v>
+      </c>
+      <c r="B216" s="2"/>
       <c r="C216" s="31" t="s">
-        <v>747</v>
+        <v>1390</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>1143</v>
@@ -18148,60 +18175,53 @@
         <v>1144</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G216" s="40" t="str">
         <f t="shared" si="20"/>
-        <v>cE01x</v>
-      </c>
-      <c r="H216" s="40"/>
+        <v>cE01c</v>
+      </c>
+      <c r="H216" s="40" t="str">
+        <f>CONCATENATE(D216,E216,F216)</f>
+        <v>E01c</v>
+      </c>
       <c r="I216" s="5" t="s">
-        <v>1240</v>
+        <v>1388</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>1161</v>
+        <v>1214</v>
       </c>
       <c r="K216" s="5" t="s">
-        <v>1198</v>
+        <v>1385</v>
       </c>
       <c r="L216" s="49" t="s">
-        <v>1199</v>
+        <v>1386</v>
       </c>
       <c r="M216" s="49"/>
       <c r="N216" s="49"/>
-      <c r="O216" s="59" t="s">
-        <v>504</v>
-      </c>
-      <c r="P216" s="68" t="s">
-        <v>873</v>
-      </c>
-      <c r="Q216" s="69"/>
+      <c r="O216" s="59"/>
+      <c r="P216" s="68"/>
+      <c r="Q216" s="68"/>
       <c r="R216" s="59"/>
       <c r="S216" s="59"/>
       <c r="T216" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="U216" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="V216" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="W216" s="45" t="s">
-        <v>747</v>
-      </c>
+        <v>1387</v>
+      </c>
+      <c r="U216" s="20"/>
+      <c r="V216" s="5"/>
+      <c r="W216" s="45"/>
       <c r="X216" s="2"/>
     </row>
-    <row r="217" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.01.x. - Other unintentional injuries</v>
+        <v/>
       </c>
       <c r="B217" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C217" s="31" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>1143</v>
@@ -18216,64 +18236,47 @@
         <f t="shared" si="20"/>
         <v>cE01x</v>
       </c>
-      <c r="H217" s="40" t="str">
-        <f>CONCATENATE(D217,E217,F217)</f>
-        <v>E01x</v>
-      </c>
+      <c r="H217" s="40"/>
       <c r="I217" s="5" t="s">
-        <v>1261</v>
+        <v>1240</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>1258</v>
+        <v>1161</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>1259</v>
+        <v>1198</v>
       </c>
       <c r="L217" s="49" t="s">
-        <v>1260</v>
+        <v>1199</v>
       </c>
       <c r="M217" s="49"/>
       <c r="N217" s="49"/>
       <c r="O217" s="59" t="s">
-        <v>996</v>
+        <v>504</v>
       </c>
       <c r="P217" s="68" t="s">
-        <v>1113</v>
-      </c>
-      <c r="Q217" s="68"/>
-      <c r="R217" s="59" t="s">
-        <v>662</v>
-      </c>
-      <c r="S217" s="59" t="s">
-        <v>1003</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="Q217" s="69"/>
+      <c r="R217" s="59"/>
+      <c r="S217" s="59"/>
       <c r="T217" s="5" t="s">
-        <v>315</v>
+        <v>886</v>
       </c>
       <c r="U217" s="20" t="s">
-        <v>887</v>
+        <v>747</v>
       </c>
       <c r="V217" s="5" t="s">
-        <v>315</v>
+        <v>886</v>
       </c>
       <c r="W217" s="45" t="s">
-        <v>887</v>
-      </c>
-      <c r="X217" s="22" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="218" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="B218" s="2">
-        <v>207</v>
-      </c>
-      <c r="C218" s="35" t="s">
-        <v>139</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="X217" s="2"/>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+      <c r="C218" s="31"/>
       <c r="D218" s="6"/>
       <c r="E218" s="26"/>
       <c r="F218" s="6"/>
@@ -18281,512 +18284,616 @@
       <c r="H218" s="40"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="L218" s="19" t="s">
-        <v>952</v>
-      </c>
-      <c r="M218" s="19"/>
-      <c r="N218" s="19"/>
-      <c r="O218" s="59" t="s">
-        <v>505</v>
-      </c>
-      <c r="P218" s="66" t="s">
-        <v>874</v>
-      </c>
-      <c r="Q218" s="67"/>
-      <c r="R218" s="59" t="s">
-        <v>664</v>
-      </c>
-      <c r="S218" s="59" t="s">
-        <v>663</v>
-      </c>
-      <c r="T218" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="U218" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="V218" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="W218" s="45" t="s">
-        <v>139</v>
-      </c>
+      <c r="K218" s="5"/>
+      <c r="L218" s="49"/>
+      <c r="M218" s="49"/>
+      <c r="N218" s="49"/>
+      <c r="O218" s="59"/>
+      <c r="P218" s="68"/>
+      <c r="Q218" s="69"/>
+      <c r="R218" s="59"/>
+      <c r="S218" s="59"/>
+      <c r="T218" s="5"/>
+      <c r="U218" s="20"/>
+      <c r="V218" s="5"/>
+      <c r="W218" s="45"/>
       <c r="X218" s="2"/>
     </row>
-    <row r="219" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>.....E.02. - Suicide/Self-harm</v>
+        <v>..........E.01.x. - Other unintentional injuries</v>
       </c>
       <c r="B219" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C219" s="31" t="s">
-        <v>140</v>
+        <v>748</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>1143</v>
       </c>
       <c r="E219" s="26" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F219" s="6"/>
+        <v>1144</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>1128</v>
+      </c>
       <c r="G219" s="40" t="str">
-        <f t="shared" ref="G219:G226" si="21">CONCATENATE("c",D219,E219,F219)</f>
-        <v>cE02</v>
+        <f t="shared" si="20"/>
+        <v>cE01x</v>
       </c>
       <c r="H219" s="40" t="str">
         <f>CONCATENATE(D219,E219,F219)</f>
-        <v>E02</v>
+        <v>E01x</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>1308</v>
+        <v>1261</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>1214</v>
+        <v>1258</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>1215</v>
+        <v>1259</v>
       </c>
       <c r="L219" s="49" t="s">
-        <v>1216</v>
+        <v>1260</v>
       </c>
       <c r="M219" s="49"/>
       <c r="N219" s="49"/>
       <c r="O219" s="59" t="s">
-        <v>506</v>
+        <v>996</v>
       </c>
       <c r="P219" s="68" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q219" s="69"/>
+        <v>1113</v>
+      </c>
+      <c r="Q219" s="68"/>
       <c r="R219" s="59" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="S219" s="59" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T219" s="5" t="s">
-        <v>1279</v>
+        <v>315</v>
       </c>
       <c r="U219" s="20" t="s">
-        <v>140</v>
+        <v>887</v>
       </c>
       <c r="V219" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="W219" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="X219" s="2"/>
-    </row>
-    <row r="220" spans="1:24" ht="255" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+      <c r="X219" s="22" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>.....E.03. - Homicide/Interpersonal violence</v>
+        <v/>
       </c>
       <c r="B220" s="2">
-        <v>209</v>
-      </c>
-      <c r="C220" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E220" s="26" t="s">
-        <v>1146</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C220" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D220" s="6"/>
+      <c r="E220" s="26"/>
       <c r="F220" s="6"/>
-      <c r="G220" s="40" t="s">
+      <c r="G220" s="40"/>
+      <c r="H220" s="40"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="H220" s="40" t="str">
-        <f>CONCATENATE(D220,E220,F220)</f>
-        <v>E03</v>
-      </c>
-      <c r="I220" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J220" s="5" t="s">
-        <v>1214</v>
+      <c r="L220" s="19" t="s">
+        <v>952</v>
       </c>
       <c r="M220" s="19"/>
       <c r="N220" s="19"/>
       <c r="O220" s="59" t="s">
-        <v>507</v>
-      </c>
-      <c r="P220" s="68" t="s">
-        <v>876</v>
-      </c>
-      <c r="Q220" s="69"/>
+        <v>505</v>
+      </c>
+      <c r="P220" s="66" t="s">
+        <v>874</v>
+      </c>
+      <c r="Q220" s="67"/>
       <c r="R220" s="59" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="S220" s="59" t="s">
-        <v>998</v>
-      </c>
-      <c r="T220" s="5" t="s">
-        <v>1278</v>
+        <v>663</v>
+      </c>
+      <c r="T220" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="U220" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="V220" s="5" t="s">
-        <v>318</v>
+        <v>139</v>
+      </c>
+      <c r="V220" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="W220" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="X220" s="2"/>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.03.a. - Homicide excluding legal intervention</v>
-      </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="31"/>
+        <v>.....E.02. - Suicide/Self-harm</v>
+      </c>
+      <c r="B221" s="2">
+        <v>208</v>
+      </c>
+      <c r="C221" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="D221" s="6" t="s">
         <v>1143</v>
       </c>
       <c r="E221" s="26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F221" s="6"/>
+      <c r="G221" s="40" t="str">
+        <f t="shared" ref="G221:G228" si="21">CONCATENATE("c",D221,E221,F221)</f>
+        <v>cE02</v>
+      </c>
+      <c r="H221" s="40" t="str">
+        <f>CONCATENATE(D221,E221,F221)</f>
+        <v>E02</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="K221" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L221" s="49" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M221" s="49"/>
+      <c r="N221" s="49"/>
+      <c r="O221" s="59" t="s">
+        <v>506</v>
+      </c>
+      <c r="P221" s="68" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q221" s="69"/>
+      <c r="R221" s="59" t="s">
+        <v>665</v>
+      </c>
+      <c r="S221" s="59" t="s">
+        <v>999</v>
+      </c>
+      <c r="T221" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="U221" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="V221" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="W221" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="X221" s="2"/>
+    </row>
+    <row r="222" spans="1:24" ht="255" x14ac:dyDescent="0.25">
+      <c r="A222" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v>.....E.03. - Homicide/Interpersonal violence</v>
+      </c>
+      <c r="B222" s="2">
+        <v>209</v>
+      </c>
+      <c r="C222" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E222" s="26" t="s">
         <v>1146</v>
       </c>
-      <c r="F221" s="6" t="s">
+      <c r="F222" s="6"/>
+      <c r="G222" s="40" t="s">
+        <v>952</v>
+      </c>
+      <c r="H222" s="40" t="str">
+        <f>CONCATENATE(D222,E222,F222)</f>
+        <v>E03</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M222" s="19"/>
+      <c r="N222" s="19"/>
+      <c r="O222" s="59" t="s">
+        <v>507</v>
+      </c>
+      <c r="P222" s="68" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q222" s="69"/>
+      <c r="R222" s="59" t="s">
+        <v>666</v>
+      </c>
+      <c r="S222" s="59" t="s">
+        <v>998</v>
+      </c>
+      <c r="T222" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="U222" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="V222" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="W222" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="X222" s="2"/>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A223" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v>..........E.03.a. - Homicide excluding legal intervention</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="31"/>
+      <c r="D223" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F223" s="6" t="s">
         <v>1126</v>
       </c>
-      <c r="G221" s="40" t="str">
+      <c r="G223" s="40" t="str">
         <f t="shared" si="21"/>
         <v>cE03a</v>
       </c>
-      <c r="H221" s="40" t="str">
-        <f t="shared" ref="H221:H223" si="22">CONCATENATE(D221,E221,F221)</f>
+      <c r="H223" s="40" t="str">
+        <f t="shared" ref="H223:H225" si="22">CONCATENATE(D223,E223,F223)</f>
         <v>E03a</v>
       </c>
-      <c r="I221" s="5"/>
-      <c r="J221" s="5"/>
-      <c r="K221" s="5" t="s">
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="L221" s="19" t="s">
+      <c r="L223" s="19" t="s">
         <v>1381</v>
       </c>
-      <c r="M221" s="19"/>
-      <c r="N221" s="19"/>
-      <c r="O221" s="59"/>
-      <c r="P221" s="68"/>
-      <c r="Q221" s="69"/>
-      <c r="R221" s="59"/>
-      <c r="S221" s="59"/>
-      <c r="T221" s="20" t="s">
-        <v>1375</v>
-      </c>
-      <c r="U221" s="46"/>
-      <c r="V221" s="5"/>
-      <c r="W221" s="45"/>
-      <c r="X221" s="2"/>
-    </row>
-    <row r="222" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>..........E.03.b. - Legal intervention</v>
-      </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="31"/>
-      <c r="D222" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E222" s="26" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F222" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="G222" s="40" t="str">
-        <f t="shared" si="21"/>
-        <v>cE03b</v>
-      </c>
-      <c r="H222" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v>E03b</v>
-      </c>
-      <c r="I222" s="5"/>
-      <c r="J222" s="5"/>
-      <c r="K222" s="5" t="s">
-        <v>1376</v>
-      </c>
-      <c r="L222" s="19" t="s">
-        <v>1382</v>
-      </c>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-      <c r="O222" s="59"/>
-      <c r="P222" s="68"/>
-      <c r="Q222" s="69"/>
-      <c r="R222" s="59"/>
-      <c r="S222" s="59"/>
-      <c r="T222" s="20" t="s">
-        <v>1374</v>
-      </c>
-      <c r="U222" s="46"/>
-      <c r="V222" s="5"/>
-      <c r="W222" s="45"/>
-      <c r="X222" s="2"/>
-    </row>
-    <row r="223" spans="1:24" ht="153" x14ac:dyDescent="0.25">
-      <c r="A223" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>..........E.03.c. - Execution, War, Terroism</v>
-      </c>
-      <c r="B223" s="2">
-        <v>210</v>
-      </c>
-      <c r="C223" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E223" s="26" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G223" s="40" t="str">
-        <f t="shared" si="21"/>
-        <v>cE03c</v>
-      </c>
-      <c r="H223" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v>E03c</v>
-      </c>
-      <c r="I223" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="J223" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="K223" s="5" t="s">
-        <v>1378</v>
-      </c>
-      <c r="L223" s="49" t="s">
-        <v>1380</v>
-      </c>
-      <c r="M223" s="49"/>
-      <c r="N223" s="49"/>
-      <c r="O223" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="P223" s="68" t="s">
-        <v>877</v>
-      </c>
+      <c r="M223" s="19"/>
+      <c r="N223" s="19"/>
+      <c r="O223" s="59"/>
+      <c r="P223" s="68"/>
       <c r="Q223" s="69"/>
       <c r="R223" s="59"/>
       <c r="S223" s="59"/>
-      <c r="T223" s="5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="U223" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="V223" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="W223" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="X223" s="22" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="224" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B224" s="82" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D224" s="54" t="s">
+      <c r="T223" s="20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="U223" s="46"/>
+      <c r="V223" s="5"/>
+      <c r="W223" s="45"/>
+      <c r="X223" s="2"/>
+    </row>
+    <row r="224" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v>..........E.03.b. - Legal intervention</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="31"/>
+      <c r="D224" s="6" t="s">
         <v>1143</v>
       </c>
-      <c r="E224" s="55" t="s">
-        <v>1144</v>
+      <c r="E224" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>1127</v>
       </c>
       <c r="G224" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE01</v>
-      </c>
-      <c r="H224" s="40"/>
-      <c r="I224" s="48" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J224" s="48" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K224" s="16" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L224" s="16" t="s">
-        <v>1276</v>
-      </c>
-      <c r="T224" s="48" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+        <v>cE03b</v>
+      </c>
+      <c r="H224" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>E03b</v>
+      </c>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L224" s="19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M224" s="19"/>
+      <c r="N224" s="19"/>
+      <c r="O224" s="59"/>
+      <c r="P224" s="68"/>
+      <c r="Q224" s="69"/>
+      <c r="R224" s="59"/>
+      <c r="S224" s="59"/>
+      <c r="T224" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="U224" s="46"/>
+      <c r="V224" s="5"/>
+      <c r="W224" s="45"/>
+      <c r="X224" s="2"/>
+    </row>
+    <row r="225" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="str">
-        <f t="shared" ref="A225:A230" si="23">IF(H225&lt;&gt;"",IF(F225&lt;&gt;"",CONCATENATE("..........",D225,".",E225,".",F225,". - ",T225),IF(E225&lt;&gt;"",CONCATENATE(".....",D225,".",E225,". - ",T225),CONCATENATE(D225,". - ",T225))),"")</f>
-        <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
-      </c>
-      <c r="D225" s="56" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E225" s="55" t="s">
-        <v>1144</v>
+        <f t="shared" si="18"/>
+        <v>..........E.03.c. - Execution, War, Terroism</v>
+      </c>
+      <c r="B225" s="2">
+        <v>210</v>
+      </c>
+      <c r="C225" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E225" s="26" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>1130</v>
       </c>
       <c r="G225" s="40" t="str">
         <f t="shared" si="21"/>
+        <v>cE03c</v>
+      </c>
+      <c r="H225" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>E03c</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K225" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L225" s="49" t="s">
+        <v>1380</v>
+      </c>
+      <c r="M225" s="49"/>
+      <c r="N225" s="49"/>
+      <c r="O225" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="P225" s="68" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q225" s="69"/>
+      <c r="R225" s="59"/>
+      <c r="S225" s="59"/>
+      <c r="T225" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="U225" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="V225" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="W225" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="X225" s="22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B226" s="82" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D226" s="54" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E226" s="55" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G226" s="40" t="str">
+        <f t="shared" si="21"/>
+        <v>cE01</v>
+      </c>
+      <c r="H226" s="40"/>
+      <c r="I226" s="48" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J226" s="48" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K226" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L226" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="T226" s="48" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="44" t="str">
+        <f t="shared" ref="A227:A232" si="23">IF(H227&lt;&gt;"",IF(F227&lt;&gt;"",CONCATENATE("..........",D227,".",E227,".",F227,". - ",T227),IF(E227&lt;&gt;"",CONCATENATE(".....",D227,".",E227,". - ",T227),CONCATENATE(D227,". - ",T227))),"")</f>
+        <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
+      </c>
+      <c r="D227" s="56" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E227" s="55" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G227" s="40" t="str">
+        <f t="shared" si="21"/>
         <v>cZ01</v>
       </c>
-      <c r="H225" s="40" t="str">
-        <f>CONCATENATE(D225,E225,F225)</f>
+      <c r="H227" s="40" t="str">
+        <f>CONCATENATE(D227,E227,F227)</f>
         <v>Z01</v>
       </c>
-      <c r="I225" s="48" t="s">
+      <c r="I227" s="48" t="s">
         <v>1223</v>
       </c>
-      <c r="J225" s="48" t="s">
+      <c r="J227" s="48" t="s">
         <v>1224</v>
       </c>
-      <c r="K225" s="16" t="s">
+      <c r="K227" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="L225" s="16" t="s">
+      <c r="L227" s="16" t="s">
         <v>1256</v>
       </c>
-      <c r="T225" s="48" t="s">
+      <c r="T227" s="48" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="44" t="str">
+    <row r="228" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="44" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="D226" s="56" t="s">
+      <c r="D228" s="56" t="s">
         <v>1138</v>
       </c>
-      <c r="E226" s="55" t="s">
+      <c r="E228" s="55" t="s">
         <v>1152</v>
       </c>
-      <c r="G226" s="42" t="str">
+      <c r="G228" s="42" t="str">
         <f t="shared" si="21"/>
         <v>cA09</v>
       </c>
-      <c r="H226" s="40"/>
-      <c r="I226" s="16" t="s">
+      <c r="H228" s="40"/>
+      <c r="I228" s="16" t="s">
         <v>1334</v>
       </c>
-      <c r="J226" s="48" t="s">
+      <c r="J228" s="48" t="s">
         <v>1224</v>
       </c>
-      <c r="K226" s="16" t="s">
+      <c r="K228" s="16" t="s">
         <v>1218</v>
       </c>
-      <c r="L226" s="16" t="s">
+      <c r="L228" s="16" t="s">
         <v>1218</v>
       </c>
-      <c r="T226" s="48" t="s">
+      <c r="T228" s="48" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A227" s="44" t="str">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A229" s="44" t="str">
         <f t="shared" si="23"/>
         <v>.....Z.02. - Unknown/Missing Value</v>
       </c>
-      <c r="D227" s="56" t="s">
+      <c r="D229" s="56" t="s">
         <v>1245</v>
       </c>
-      <c r="E227" s="55" t="s">
+      <c r="E229" s="55" t="s">
         <v>1145</v>
       </c>
-      <c r="G227" s="43"/>
-      <c r="H227" s="40" t="str">
-        <f t="shared" ref="H227:H230" si="24">CONCATENATE(D227,E227,F227)</f>
+      <c r="G229" s="43"/>
+      <c r="H229" s="40" t="str">
+        <f t="shared" ref="H229:H232" si="24">CONCATENATE(D229,E229,F229)</f>
         <v>Z02</v>
       </c>
-      <c r="T227" s="48" t="s">
+      <c r="T229" s="48" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A228" s="44" t="str">
+    <row r="230" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A230" s="44" t="str">
         <f t="shared" si="23"/>
         <v>.....Z.03. - Code does not map</v>
       </c>
-      <c r="D228" s="56" t="s">
+      <c r="D230" s="56" t="s">
         <v>1245</v>
       </c>
-      <c r="E228" s="55" t="s">
+      <c r="E230" s="55" t="s">
         <v>1146</v>
-      </c>
-      <c r="G228" s="43"/>
-      <c r="H228" s="40" t="str">
-        <f t="shared" si="24"/>
-        <v>Z03</v>
-      </c>
-      <c r="I228" s="16" t="s">
-        <v>1262</v>
-      </c>
-      <c r="T228" s="48" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A229" s="44" t="str">
-        <f t="shared" si="23"/>
-        <v>Z. - Unknown/Missing Value</v>
-      </c>
-      <c r="D229" s="56" t="s">
-        <v>1245</v>
-      </c>
-      <c r="G229" s="43"/>
-      <c r="H229" s="40" t="str">
-        <f t="shared" si="24"/>
-        <v>Z</v>
-      </c>
-      <c r="T229" s="48" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A230" s="44" t="str">
-        <f t="shared" si="23"/>
-        <v>.....D.99. - Other Chronic Conditions</v>
-      </c>
-      <c r="D230" s="56" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E230" s="55" t="s">
-        <v>1227</v>
       </c>
       <c r="G230" s="43"/>
       <c r="H230" s="40" t="str">
         <f t="shared" si="24"/>
+        <v>Z03</v>
+      </c>
+      <c r="I230" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="T230" s="48" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A231" s="44" t="str">
+        <f t="shared" si="23"/>
+        <v>Z. - Unknown/Missing Value</v>
+      </c>
+      <c r="D231" s="56" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G231" s="43"/>
+      <c r="H231" s="40" t="str">
+        <f t="shared" si="24"/>
+        <v>Z</v>
+      </c>
+      <c r="T231" s="48" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A232" s="44" t="str">
+        <f t="shared" si="23"/>
+        <v>.....D.99. - Other Chronic Conditions</v>
+      </c>
+      <c r="D232" s="56" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E232" s="55" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G232" s="43"/>
+      <c r="H232" s="40" t="str">
+        <f t="shared" si="24"/>
         <v>D99</v>
       </c>
-      <c r="T230" s="48" t="s">
+      <c r="T232" s="48" t="s">
         <v>1277</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X223"/>
+  <autoFilter ref="A1:X225"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5344,10 +5344,10 @@
   <dimension ref="A1:X232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L215" sqref="L215"/>
+      <selection pane="bottomRight" activeCell="A228" sqref="A228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5499,7 +5499,7 @@
     </row>
     <row r="3" spans="1:24" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="str">
-        <f t="shared" ref="A3:A66" si="0">IF(H3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("..........",D3,".",E3,".",F3,". - ",T3),IF(E3&lt;&gt;"",CONCATENATE(".....",D3,".",E3,". - ",T3),CONCATENATE(D3,". - ",T3))),"")</f>
+        <f>IF(H3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("...",D3,".",E3,".",F3,". - ",T3),IF(E3&lt;&gt;"",CONCATENATE("..",D3,".",E3,". - ",T3),CONCATENATE(D3,". - ",T3))),"")</f>
         <v>A. - Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
       <c r="B3" s="2">
@@ -5551,10 +5551,10 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>.....A.99. - Other Infectious Diseases</v>
+        <f t="shared" ref="A4:A67" si="0">IF(H4&lt;&gt;"",IF(F4&lt;&gt;"",CONCATENATE("...",D4,".",E4,".",F4,". - ",T4),IF(E4&lt;&gt;"",CONCATENATE("..",D4,".",E4,". - ",T4),CONCATENATE(D4,". - ",T4))),"")</f>
+        <v>..A.99. - Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="29" t="s">
@@ -5644,10 +5644,10 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.01. - Tuberculosis</v>
+        <v>..A.01. - Tuberculosis</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -5708,7 +5708,7 @@
     <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
+        <v>..A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="32" t="s">
@@ -5750,7 +5750,7 @@
     <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>..........A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
+        <v>...A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6049,7 +6049,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6109,10 +6109,10 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>..........A.02.b. - HIV/AIDS</v>
+        <v>...A.02.b. - HIV/AIDS</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6397,7 +6397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6455,7 +6455,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6629,10 +6629,10 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.04. - Meningitis</v>
+        <v>..A.04. - Meningitis</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
@@ -6690,10 +6690,10 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.05. - Encephalitis</v>
+        <v>..A.05. - Encephalitis</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
@@ -6751,10 +6751,10 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.06. - Hepatitis</v>
+        <v>..A.06. - Hepatitis</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6862,7 +6862,7 @@
     <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>..........A.06.a. - Acute hepatitis B</v>
+        <v>...A.06.a. - Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -6946,10 +6946,10 @@
       <c r="W28" s="45"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>..........A.06.b. - Acute hepatitis C</v>
+        <v>...A.06.b. - Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
         <v>24</v>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7168,7 +7168,7 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7342,7 +7342,7 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8127,7 +8127,7 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8247,10 +8247,10 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.07. - Respiratory infections</v>
+        <v>..A.07. - Respiratory infections</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
@@ -8307,7 +8307,7 @@
       </c>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8499,10 +8499,10 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.08. - Maternal conditions</v>
+        <v>..A.08. - Maternal conditions</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -8627,7 +8627,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8757,7 +8757,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8949,10 +8949,10 @@
       </c>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="str">
         <f t="shared" si="0"/>
-        <v>.....A.09. - Neonatal conditions</v>
+        <v>..A.09. - Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="67" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="str">
-        <f t="shared" ref="A67:A130" si="4">IF(H67&lt;&gt;"",IF(F67&lt;&gt;"",CONCATENATE("..........",D67,".",E67,".",F67,". - ",T67),IF(E67&lt;&gt;"",CONCATENATE(".....",D67,".",E67,". - ",T67),CONCATENATE(D67,". - ",T67))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B67" s="2">
@@ -9249,9 +9249,9 @@
       </c>
       <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A68:A131" si="4">IF(H68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("...",D68,".",E68,".",F68,". - ",T68),IF(E68&lt;&gt;"",CONCATENATE("..",D68,".",E68,". - ",T68),CONCATENATE(D68,". - ",T68))),"")</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9362,7 +9362,7 @@
       </c>
       <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="X70" s="2"/>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="str">
         <f t="shared" si="4"/>
         <v>D. - Other Chronic</v>
@@ -9739,10 +9739,10 @@
       </c>
       <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.01. - Mouth and oropharynx cancers</v>
+        <v>..B.01. - Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
         <v>71</v>
@@ -9862,7 +9862,7 @@
       </c>
       <c r="X78" s="2"/>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="X79" s="2"/>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -9986,10 +9986,10 @@
       </c>
       <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.02. - Oesophagus cancer</v>
+        <v>..B.02. - Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
         <v>75</v>
@@ -10053,10 +10053,10 @@
       </c>
       <c r="X81" s="2"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.03. - Stomach cancer</v>
+        <v>..B.03. - Stomach cancer</v>
       </c>
       <c r="B82" s="2">
         <v>76</v>
@@ -10125,7 +10125,7 @@
     <row r="83" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.04. - Colon and rectum cancers</v>
+        <v>..B.04. - Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
         <v>77</v>
@@ -10189,10 +10189,10 @@
       </c>
       <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.05. - Liver cancer</v>
+        <v>..B.05. - Liver cancer</v>
       </c>
       <c r="B84" s="2">
         <v>78</v>
@@ -10256,10 +10256,10 @@
       </c>
       <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.06. - Pancreas cancer</v>
+        <v>..B.06. - Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
         <v>79</v>
@@ -10323,10 +10323,10 @@
       </c>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.07. - Trachea, bronchus and lung cancers</v>
+        <v>..B.07. - Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
         <v>80</v>
@@ -10390,10 +10390,10 @@
       </c>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.08. - Melanoma and other skin cancers</v>
+        <v>..B.08. - Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
         <v>81</v>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="X88" s="2"/>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -10577,10 +10577,10 @@
       </c>
       <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.09. - Breast cancer</v>
+        <v>..B.09. - Breast cancer</v>
       </c>
       <c r="B90" s="2">
         <v>84</v>
@@ -10644,10 +10644,10 @@
       </c>
       <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.10. - Uterine cancer</v>
+        <v>..B.10. - Uterine cancer</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="37" t="s">
@@ -10687,7 +10687,7 @@
       <c r="W91" s="45"/>
       <c r="X91" s="2"/>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -10815,10 +10815,10 @@
       </c>
       <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.11. - Ovary cancer</v>
+        <v>..B.11. - Ovary cancer</v>
       </c>
       <c r="B94" s="2">
         <v>87</v>
@@ -10882,10 +10882,10 @@
       </c>
       <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.12. - Prostate cancer</v>
+        <v>..B.12. - Prostate cancer</v>
       </c>
       <c r="B95" s="2">
         <v>88</v>
@@ -10949,7 +10949,7 @@
       </c>
       <c r="X95" s="2"/>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11016,7 +11016,7 @@
     <row r="97" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.13. - Kidney, renal pelvis and ureter cancer</v>
+        <v>..B.13. - Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
         <v>90</v>
@@ -11080,10 +11080,10 @@
       </c>
       <c r="X97" s="2"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.14. - Bladder cancer</v>
+        <v>..B.14. - Bladder cancer</v>
       </c>
       <c r="B98" s="2">
         <v>91</v>
@@ -11150,7 +11150,7 @@
     <row r="99" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.15. - Brain and nervous system cancers</v>
+        <v>..B.15. - Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
         <v>92</v>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="X99" s="2"/>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="X100" s="2"/>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11342,7 +11342,7 @@
       </c>
       <c r="X101" s="2"/>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="X102" s="2"/>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11466,10 +11466,10 @@
       </c>
       <c r="X103" s="2"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.16. - Lymphomas and multiple myeloma</v>
+        <v>..B.16. - Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
         <v>97</v>
@@ -11526,10 +11526,10 @@
       </c>
       <c r="X104" s="2"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>..........B.16.a. - Hodgkin lymphoma</v>
+        <v>...B.16.a. - Hodgkin lymphoma</v>
       </c>
       <c r="B105" s="2">
         <v>98</v>
@@ -11591,10 +11591,10 @@
       </c>
       <c r="X105" s="2"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>..........B.16.b. - Non-Hodgkin lymphoma</v>
+        <v>...B.16.b. - Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
         <v>99</v>
@@ -11656,10 +11656,10 @@
       </c>
       <c r="X106" s="2"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>..........B.16.c. - Multiple myeloma</v>
+        <v>...B.16.c. - Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
         <v>100</v>
@@ -11721,10 +11721,10 @@
       </c>
       <c r="X107" s="2"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.17. - Leukaemia</v>
+        <v>..B.17. - Leukaemia</v>
       </c>
       <c r="B108" s="2">
         <v>101</v>
@@ -11787,7 +11787,7 @@
     <row r="109" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....B.99. - Other malignant neoplasms</v>
+        <v>..B.99. - Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
         <v>102</v>
@@ -11908,7 +11908,7 @@
     <row r="111" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....D.01. - Diabetes mellitus</v>
+        <v>..D.01. - Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
         <v>104</v>
@@ -11981,7 +11981,7 @@
     <row r="112" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>.....D.02. - Endocrine, blood, immune disorders</v>
+        <v>..D.02. - Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
         <v>105</v>
@@ -12040,7 +12040,7 @@
       </c>
       <c r="X112" s="2"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="X113" s="2"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="X116" s="2"/>
     </row>
-    <row r="117" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12342,7 +12342,7 @@
     <row r="118" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">.....D.03. - Mental Health disorders </v>
+        <v xml:space="preserve">..D.03. - Mental Health disorders </v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
@@ -12383,10 +12383,10 @@
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">.....D.04. - Substance use </v>
+        <v xml:space="preserve">..D.04. - Substance use </v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="32" t="s">
@@ -12425,7 +12425,7 @@
       <c r="W119" s="45"/>
       <c r="X119" s="2"/>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12456,7 +12456,7 @@
       <c r="W120" s="45"/>
       <c r="X120" s="2"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="X121" s="2"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="X122" s="2"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="X123" s="2"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="X124" s="2"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12752,7 +12752,7 @@
     <row r="126" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>..........D.04.a. - Alcohol use disorders</v>
+        <v>...D.04.a. - Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
         <v>116</v>
@@ -12818,7 +12818,7 @@
       </c>
       <c r="X126" s="2"/>
     </row>
-    <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -12871,10 +12871,10 @@
       </c>
       <c r="X127" s="2"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>..........D.04.b. - Opioid use disorders</v>
+        <v>...D.04.b. - Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
         <v>118</v>
@@ -12936,10 +12936,10 @@
       </c>
       <c r="X128" s="2"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>..........D.04.c. - Cocaine use disorders</v>
+        <v>...D.04.c. - Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
         <v>119</v>
@@ -13001,10 +13001,10 @@
       </c>
       <c r="X129" s="2"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="str">
         <f t="shared" si="4"/>
-        <v>..........D.04.d. - Amphetamine use disorders</v>
+        <v>...D.04.d. - Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
         <v>120</v>
@@ -13066,9 +13066,9 @@
       </c>
       <c r="X130" s="2"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="str">
-        <f t="shared" ref="A131:A194" si="11">IF(H131&lt;&gt;"",IF(F131&lt;&gt;"",CONCATENATE("..........",D131,".",E131,".",F131,". - ",T131),IF(E131&lt;&gt;"",CONCATENATE(".....",D131,".",E131,". - ",T131),CONCATENATE(D131,". - ",T131))),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -13121,9 +13121,9 @@
       </c>
       <c r="X131" s="2"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A132:A195" si="11">IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("...",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("..",D132,".",E132,". - ",T132),CONCATENATE(D132,". - ",T132))),"")</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -13187,7 +13187,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13243,7 +13243,7 @@
       </c>
       <c r="X133" s="2"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13303,7 +13303,7 @@
       </c>
       <c r="X134" s="2"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="X135" s="2"/>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="X136" s="2"/>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="X137" s="2"/>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13520,7 +13520,7 @@
       </c>
       <c r="X138" s="2"/>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="X140" s="2"/>
     </row>
-    <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13691,10 +13691,10 @@
         <v>607</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.05. - Alzheimer’s disease and other dementias</v>
+        <v>..D.05. - Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
         <v>132</v>
@@ -13754,7 +13754,7 @@
       </c>
       <c r="X142" s="2"/>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="X143" s="2"/>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="X144" s="2"/>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="X145" s="2"/>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="X146" s="2"/>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14049,7 +14049,7 @@
     <row r="148" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.06. - Other neurological conditions</v>
+        <v>..D.06. - Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
         <v>138</v>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="X148" s="2"/>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14168,7 +14168,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="X150" s="2"/>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14280,7 +14280,7 @@
       </c>
       <c r="X151" s="2"/>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="X152" s="2"/>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="X153" s="2"/>
     </row>
-    <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="X154" s="2"/>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14620,7 +14620,7 @@
       </c>
       <c r="X157" s="2"/>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -14684,10 +14684,10 @@
       </c>
       <c r="X158" s="2"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....C.01. - Hypertensive heart disease</v>
+        <v>..C.01. - Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
         <v>149</v>
@@ -14751,10 +14751,10 @@
       </c>
       <c r="X159" s="2"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....C.02. - Ischaemic heart disease</v>
+        <v>..C.02. - Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
         <v>150</v>
@@ -14821,7 +14821,7 @@
     <row r="161" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....C.03. - Stroke</v>
+        <v>..C.03. - Stroke</v>
       </c>
       <c r="B161" s="2">
         <v>151</v>
@@ -14892,7 +14892,7 @@
     <row r="162" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
+        <v>..C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
         <v>152</v>
@@ -14961,7 +14961,7 @@
     <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....C.05. -  Congestive heart failure</v>
+        <v>..C.05. -  Congestive heart failure</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="36"/>
@@ -15014,7 +15014,7 @@
     <row r="164" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....C.99. - Other or unspecified cardiovascular diseases</v>
+        <v>..C.99. - Other or unspecified cardiovascular diseases</v>
       </c>
       <c r="B164" s="2">
         <v>153</v>
@@ -15084,7 +15084,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15141,10 +15141,10 @@
       </c>
       <c r="X165" s="2"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.66. - Chronic obstructive pulmonary disease</v>
+        <v>..D.66. - Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B166" s="2">
         <v>155</v>
@@ -15204,10 +15204,10 @@
       </c>
       <c r="X166" s="2"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.67. - Asthma</v>
+        <v>..D.67. - Asthma</v>
       </c>
       <c r="B167" s="2">
         <v>156</v>
@@ -15267,10 +15267,10 @@
       </c>
       <c r="X167" s="2"/>
     </row>
-    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.68. - Other respiratory diseases</v>
+        <v>..D.68. - Other respiratory diseases</v>
       </c>
       <c r="B168" s="2">
         <v>157</v>
@@ -15330,10 +15330,10 @@
       </c>
       <c r="X168" s="2"/>
     </row>
-    <row r="169" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.09. - Digestive diseases (excluding cirrhosis)</v>
+        <v>..D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
       <c r="B169" s="2">
         <v>158</v>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="X169" s="2"/>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15455,7 +15455,7 @@
     <row r="171" spans="1:24" s="48" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.11. - Cirrhosis of the liver</v>
+        <v>..D.11. - Cirrhosis of the liver</v>
       </c>
       <c r="B171" s="2">
         <v>160</v>
@@ -15519,7 +15519,7 @@
       </c>
       <c r="X171" s="2"/>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="X172" s="2"/>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15699,7 +15699,7 @@
       </c>
       <c r="X174" s="2"/>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="X175" s="2"/>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15819,7 +15819,7 @@
       </c>
       <c r="X176" s="2"/>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -15998,10 +15998,10 @@
       </c>
       <c r="X179" s="2"/>
     </row>
-    <row r="180" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>.....D.10. - Kidney diseases</v>
+        <v>..D.10. - Kidney diseases</v>
       </c>
       <c r="B180" s="2">
         <v>169</v>
@@ -16060,10 +16060,10 @@
       </c>
       <c r="X180" s="2"/>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>..........D.10.a. - Acute glomerulonephritis</v>
+        <v>...D.10.a. - Acute glomerulonephritis</v>
       </c>
       <c r="B181" s="2">
         <v>170</v>
@@ -16128,7 +16128,7 @@
     <row r="182" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>..........D.10.b. - Chronic kidney diesease due to diabetes</v>
+        <v>...D.10.b. - Chronic kidney diesease due to diabetes</v>
       </c>
       <c r="B182" s="2">
         <v>171</v>
@@ -16190,10 +16190,10 @@
       </c>
       <c r="X182" s="2"/>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="str">
         <f t="shared" si="11"/>
-        <v>..........D.10.c. - Other chronic kidney disease</v>
+        <v>...D.10.c. - Other chronic kidney disease</v>
       </c>
       <c r="B183" s="2">
         <v>172</v>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="X183" s="2"/>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="X184" s="2"/>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="X186" s="2"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="X187" s="2"/>
     </row>
-    <row r="188" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="X188" s="2"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16609,7 +16609,7 @@
       </c>
       <c r="X189" s="2"/>
     </row>
-    <row r="190" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16668,7 +16668,7 @@
       </c>
       <c r="X190" s="2"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16728,7 +16728,7 @@
       </c>
       <c r="X191" s="2"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16784,7 +16784,7 @@
       </c>
       <c r="X192" s="2"/>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16840,7 +16840,7 @@
       </c>
       <c r="X193" s="2"/>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -16898,7 +16898,7 @@
     </row>
     <row r="195" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="str">
-        <f t="shared" ref="A195:A225" si="18">IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("..........",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE(".....",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="B195" s="2">
@@ -16960,10 +16960,10 @@
       </c>
       <c r="X195" s="2"/>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="str">
-        <f t="shared" si="18"/>
-        <v>.....D.12. - Congenital anomalies</v>
+        <f t="shared" ref="A196:A232" si="18">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("...",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("..",D196,".",E196,". - ",T196),CONCATENATE(D196,". - ",T196))),"")</f>
+        <v>..D.12. - Congenital anomalies</v>
       </c>
       <c r="B196" s="2">
         <v>185</v>
@@ -17022,7 +17022,7 @@
       </c>
       <c r="X196" s="2"/>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17082,7 +17082,7 @@
       </c>
       <c r="X197" s="2"/>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="X198" s="2"/>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17202,7 +17202,7 @@
       </c>
       <c r="X199" s="2"/>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17262,7 +17262,7 @@
       </c>
       <c r="X200" s="2"/>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17382,7 +17382,7 @@
       </c>
       <c r="X202" s="2"/>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="X203" s="2"/>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="X204" s="2"/>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="X205" s="2"/>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="X206" s="2"/>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17720,7 +17720,7 @@
     <row r="209" spans="1:24" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>.....E.01. - Unintentional injuries</v>
+        <v>..E.01. - Unintentional injuries</v>
       </c>
       <c r="B209" s="2">
         <v>198</v>
@@ -17780,7 +17780,7 @@
     <row r="210" spans="1:24" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.01.a. - Road injury</v>
+        <v>...E.01.a. - Road injury</v>
       </c>
       <c r="B210" s="2">
         <v>199</v>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="X210" s="2"/>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -17908,10 +17908,10 @@
       </c>
       <c r="X211" s="2"/>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.01.b. - Falls</v>
+        <v>...E.01.b. - Falls</v>
       </c>
       <c r="B212" s="2">
         <v>201</v>
@@ -17975,7 +17975,7 @@
       </c>
       <c r="X212" s="2"/>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18035,7 +18035,7 @@
       </c>
       <c r="X213" s="2"/>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18162,7 +18162,7 @@
     <row r="216" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.01.c. - Accidental Firearm</v>
+        <v>...E.01.c. - Accidental Firearm</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="31" t="s">
@@ -18274,7 +18274,11 @@
       </c>
       <c r="X217" s="2"/>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A218" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="B218" s="2"/>
       <c r="C218" s="31"/>
       <c r="D218" s="6"/>
@@ -18302,7 +18306,7 @@
     <row r="219" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.01.x. - Other unintentional injuries</v>
+        <v>...E.01.x. - Other unintentional injuries</v>
       </c>
       <c r="B219" s="2">
         <v>206</v>
@@ -18370,7 +18374,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="str">
         <f t="shared" si="18"/>
         <v/>
@@ -18426,7 +18430,7 @@
     <row r="221" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>.....E.02. - Suicide/Self-harm</v>
+        <v>..E.02. - Suicide/Self-harm</v>
       </c>
       <c r="B221" s="2">
         <v>208</v>
@@ -18493,7 +18497,7 @@
     <row r="222" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A222" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>.....E.03. - Homicide/Interpersonal violence</v>
+        <v>..E.03. - Homicide/Interpersonal violence</v>
       </c>
       <c r="B222" s="2">
         <v>209</v>
@@ -18550,10 +18554,10 @@
       </c>
       <c r="X222" s="2"/>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.03.a. - Homicide excluding legal intervention</v>
+        <v>...E.03.a. - Homicide excluding legal intervention</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="31"/>
@@ -18600,7 +18604,7 @@
     <row r="224" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.03.b. - Legal intervention</v>
+        <v>...E.03.b. - Legal intervention</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="31"/>
@@ -18647,7 +18651,7 @@
     <row r="225" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="str">
         <f t="shared" si="18"/>
-        <v>..........E.03.c. - Execution, War, Terroism</v>
+        <v>...E.03.c. - Execution, War, Terroism</v>
       </c>
       <c r="B225" s="2">
         <v>210</v>
@@ -18712,6 +18716,10 @@
       </c>
     </row>
     <row r="226" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A226" s="44" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
       <c r="B226" s="82" t="s">
         <v>1338</v>
       </c>
@@ -18747,8 +18755,8 @@
     </row>
     <row r="227" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="str">
-        <f t="shared" ref="A227:A232" si="23">IF(H227&lt;&gt;"",IF(F227&lt;&gt;"",CONCATENATE("..........",D227,".",E227,".",F227,". - ",T227),IF(E227&lt;&gt;"",CONCATENATE(".....",D227,".",E227,". - ",T227),CONCATENATE(D227,". - ",T227))),"")</f>
-        <v>.....Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
+        <f t="shared" si="18"/>
+        <v>..Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D227" s="56" t="s">
         <v>1245</v>
@@ -18782,7 +18790,7 @@
     </row>
     <row r="228" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="D228" s="56" t="s">
@@ -18812,10 +18820,10 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="str">
-        <f t="shared" si="23"/>
-        <v>.....Z.02. - Unknown/Missing Value</v>
+        <f t="shared" si="18"/>
+        <v>..Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D229" s="56" t="s">
         <v>1245</v>
@@ -18825,7 +18833,7 @@
       </c>
       <c r="G229" s="43"/>
       <c r="H229" s="40" t="str">
-        <f t="shared" ref="H229:H232" si="24">CONCATENATE(D229,E229,F229)</f>
+        <f t="shared" ref="H229:H232" si="23">CONCATENATE(D229,E229,F229)</f>
         <v>Z02</v>
       </c>
       <c r="T229" s="48" t="s">
@@ -18834,8 +18842,8 @@
     </row>
     <row r="230" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="str">
-        <f t="shared" si="23"/>
-        <v>.....Z.03. - Code does not map</v>
+        <f t="shared" si="18"/>
+        <v>..Z.03. - Code does not map</v>
       </c>
       <c r="D230" s="56" t="s">
         <v>1245</v>
@@ -18845,7 +18853,7 @@
       </c>
       <c r="G230" s="43"/>
       <c r="H230" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>Z03</v>
       </c>
       <c r="I230" s="16" t="s">
@@ -18855,9 +18863,9 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>Z. - Unknown/Missing Value</v>
       </c>
       <c r="D231" s="56" t="s">
@@ -18865,17 +18873,17 @@
       </c>
       <c r="G231" s="43"/>
       <c r="H231" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>Z</v>
       </c>
       <c r="T231" s="48" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="str">
-        <f t="shared" si="23"/>
-        <v>.....D.99. - Other Chronic Conditions</v>
+        <f t="shared" si="18"/>
+        <v>..D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D232" s="56" t="s">
         <v>1142</v>
@@ -18885,7 +18893,7 @@
       </c>
       <c r="G232" s="43"/>
       <c r="H232" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>D99</v>
       </c>
       <c r="T232" s="48" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myCBD\myInfo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -19,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$225</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -36,7 +31,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1" shapeId="0">
+    <comment ref="C57" authorId="1">
       <text>
         <r>
           <rPr>
@@ -84,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="2" shapeId="0">
+    <comment ref="P126" authorId="2">
       <text>
         <r>
           <rPr>
@@ -113,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2852" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1392">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -4446,7 +4441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -5097,7 +5092,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5132,7 +5127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5344,15 +5339,15 @@
   <dimension ref="A1:X232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A228" sqref="A228"/>
+      <selection pane="bottomRight" activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="44" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="46" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="44" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="56" customWidth="1"/>
@@ -5363,7 +5358,9 @@
     <col min="9" max="9" width="28.85546875" style="16" customWidth="1"/>
     <col min="10" max="10" width="10" style="48" customWidth="1"/>
     <col min="11" max="11" width="29.85546875" style="16" customWidth="1"/>
-    <col min="12" max="14" width="71.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="27.5703125" style="16" customWidth="1"/>
+    <col min="14" max="14" width="71.28515625" style="16" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="72" customWidth="1"/>
     <col min="16" max="16" width="35.140625" style="72" customWidth="1"/>
     <col min="17" max="17" width="38.42578125" style="73" customWidth="1"/>
@@ -8310,7 +8307,7 @@
     <row r="53" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>...A.07.a. - Lower respiratory infections</v>
       </c>
       <c r="B53" s="2">
         <v>48</v>
@@ -8324,12 +8321,17 @@
       <c r="E53" s="26" t="s">
         <v>1150</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="6" t="s">
+        <v>1126</v>
+      </c>
       <c r="G53" s="40" t="str">
         <f>CONCATENATE("c",D53,E53,F53)</f>
-        <v>cA07</v>
-      </c>
-      <c r="H53" s="40"/>
+        <v>cA07a</v>
+      </c>
+      <c r="H53" s="40" t="str">
+        <f t="shared" ref="H53:H54" si="3">CONCATENATE(D53,E53,F53)</f>
+        <v>A07a</v>
+      </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
@@ -8374,7 +8376,7 @@
     <row r="54" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>...A.07.b. - Upper respiratory infections</v>
       </c>
       <c r="B54" s="2">
         <v>49</v>
@@ -8388,12 +8390,17 @@
       <c r="E54" s="26" t="s">
         <v>1150</v>
       </c>
-      <c r="F54" s="6"/>
+      <c r="F54" s="6" t="s">
+        <v>1127</v>
+      </c>
       <c r="G54" s="40" t="str">
         <f>CONCATENATE("c",D54,E54,F54)</f>
-        <v>cA07</v>
-      </c>
-      <c r="H54" s="40"/>
+        <v>cA07b</v>
+      </c>
+      <c r="H54" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>A07b</v>
+      </c>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
@@ -8580,7 +8587,7 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="40" t="str">
-        <f t="shared" ref="G57:G62" si="3">CONCATENATE("c",D57,E57,F57)</f>
+        <f t="shared" ref="G57:G62" si="4">CONCATENATE("c",D57,E57,F57)</f>
         <v>cA08</v>
       </c>
       <c r="H57" s="40"/>
@@ -8646,7 +8653,7 @@
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H58" s="40"/>
@@ -8710,7 +8717,7 @@
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H59" s="40"/>
@@ -8776,7 +8783,7 @@
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H60" s="40"/>
@@ -8840,7 +8847,7 @@
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H61" s="40"/>
@@ -8904,7 +8911,7 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H62" s="40"/>
@@ -9011,7 +9018,7 @@
       </c>
       <c r="X63" s="2"/>
     </row>
-    <row r="64" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9127,7 +9134,7 @@
       </c>
       <c r="X65" s="2"/>
     </row>
-    <row r="66" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9249,9 +9256,9 @@
       </c>
       <c r="X67" s="2"/>
     </row>
-    <row r="68" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="str">
-        <f t="shared" ref="A68:A131" si="4">IF(H68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("...",D68,".",E68,".",F68,". - ",T68),IF(E68&lt;&gt;"",CONCATENATE("..",D68,".",E68,". - ",T68),CONCATENATE(D68,". - ",T68))),"")</f>
+        <f t="shared" ref="A68:A131" si="5">IF(H68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("...",D68,".",E68,".",F68,". - ",T68),IF(E68&lt;&gt;"",CONCATENATE("..",D68,".",E68,". - ",T68),CONCATENATE(D68,". - ",T68))),"")</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -9304,9 +9311,9 @@
       </c>
       <c r="X68" s="2"/>
     </row>
-    <row r="69" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B69" s="2">
@@ -9362,9 +9369,9 @@
       </c>
       <c r="X69" s="2"/>
     </row>
-    <row r="70" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B70" s="2">
@@ -9420,9 +9427,9 @@
       </c>
       <c r="X70" s="2"/>
     </row>
-    <row r="71" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B71" s="2">
@@ -9474,9 +9481,9 @@
       </c>
       <c r="X71" s="2"/>
     </row>
-    <row r="72" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B72" s="2">
@@ -9532,9 +9539,9 @@
       </c>
       <c r="X72" s="2"/>
     </row>
-    <row r="73" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B73" s="2">
@@ -9592,7 +9599,7 @@
     </row>
     <row r="74" spans="1:24" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B74" s="2">
@@ -9643,9 +9650,9 @@
       </c>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>D. - Other Chronic</v>
       </c>
       <c r="B75" s="2"/>
@@ -9683,7 +9690,7 @@
     </row>
     <row r="76" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>B. - Cancer/Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
@@ -9739,9 +9746,9 @@
       </c>
       <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.01. - Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
@@ -9758,7 +9765,7 @@
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="40" t="str">
-        <f t="shared" ref="G77:G86" si="5">CONCATENATE("c",D77,E77,F77)</f>
+        <f t="shared" ref="G77:G86" si="6">CONCATENATE("c",D77,E77,F77)</f>
         <v>cB01</v>
       </c>
       <c r="H77" s="40" t="str">
@@ -9800,7 +9807,7 @@
     </row>
     <row r="78" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B78" s="2">
@@ -9817,7 +9824,7 @@
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="H78" s="40"/>
@@ -9862,9 +9869,9 @@
       </c>
       <c r="X78" s="2"/>
     </row>
-    <row r="79" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B79" s="2">
@@ -9881,7 +9888,7 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="H79" s="40"/>
@@ -9926,9 +9933,9 @@
       </c>
       <c r="X79" s="2"/>
     </row>
-    <row r="80" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B80" s="2">
@@ -9945,7 +9952,7 @@
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="H80" s="40"/>
@@ -9986,9 +9993,9 @@
       </c>
       <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.02. - Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
@@ -10005,11 +10012,11 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB02</v>
       </c>
       <c r="H81" s="40" t="str">
-        <f t="shared" ref="H81:H87" si="6">CONCATENATE(D81,E81,F81)</f>
+        <f t="shared" ref="H81:H87" si="7">CONCATENATE(D81,E81,F81)</f>
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
@@ -10053,9 +10060,9 @@
       </c>
       <c r="X81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.03. - Stomach cancer</v>
       </c>
       <c r="B82" s="2">
@@ -10072,11 +10079,11 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB03</v>
       </c>
       <c r="H82" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
@@ -10124,7 +10131,7 @@
     </row>
     <row r="83" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.04. - Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
@@ -10141,11 +10148,11 @@
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB04</v>
       </c>
       <c r="H83" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
@@ -10189,9 +10196,9 @@
       </c>
       <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.05. - Liver cancer</v>
       </c>
       <c r="B84" s="2">
@@ -10208,11 +10215,11 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB05</v>
       </c>
       <c r="H84" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
@@ -10256,9 +10263,9 @@
       </c>
       <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.06. - Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
@@ -10275,11 +10282,11 @@
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB06</v>
       </c>
       <c r="H85" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
@@ -10323,9 +10330,9 @@
       </c>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.07. - Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
@@ -10342,11 +10349,11 @@
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>cB07</v>
       </c>
       <c r="H86" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
@@ -10390,9 +10397,9 @@
       </c>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.08. - Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
@@ -10412,7 +10419,7 @@
         <v>952</v>
       </c>
       <c r="H87" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>B08</v>
       </c>
       <c r="J87" s="17" t="s">
@@ -10451,7 +10458,7 @@
     </row>
     <row r="88" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B88" s="2">
@@ -10468,7 +10475,7 @@
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="40" t="str">
-        <f t="shared" ref="G88:G103" si="7">CONCATENATE("c",D88,E88,F88)</f>
+        <f t="shared" ref="G88:G103" si="8">CONCATENATE("c",D88,E88,F88)</f>
         <v>cB08</v>
       </c>
       <c r="H88" s="40"/>
@@ -10513,9 +10520,9 @@
       </c>
       <c r="X88" s="2"/>
     </row>
-    <row r="89" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B89" s="2">
@@ -10532,7 +10539,7 @@
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB08</v>
       </c>
       <c r="H89" s="40"/>
@@ -10577,9 +10584,9 @@
       </c>
       <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.09. - Breast cancer</v>
       </c>
       <c r="B90" s="2">
@@ -10596,7 +10603,7 @@
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB09</v>
       </c>
       <c r="H90" s="40" t="str">
@@ -10644,9 +10651,9 @@
       </c>
       <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.10. - Uterine cancer</v>
       </c>
       <c r="B91" s="2"/>
@@ -10687,9 +10694,9 @@
       <c r="W91" s="45"/>
       <c r="X91" s="2"/>
     </row>
-    <row r="92" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B92" s="2">
@@ -10753,7 +10760,7 @@
     </row>
     <row r="93" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B93" s="2">
@@ -10770,7 +10777,7 @@
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB10</v>
       </c>
       <c r="H93" s="40"/>
@@ -10815,9 +10822,9 @@
       </c>
       <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.11. - Ovary cancer</v>
       </c>
       <c r="B94" s="2">
@@ -10834,7 +10841,7 @@
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB11</v>
       </c>
       <c r="H94" s="40" t="str">
@@ -10882,9 +10889,9 @@
       </c>
       <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.12. - Prostate cancer</v>
       </c>
       <c r="B95" s="2">
@@ -10901,7 +10908,7 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB12</v>
       </c>
       <c r="H95" s="40" t="str">
@@ -10949,9 +10956,9 @@
       </c>
       <c r="X95" s="2"/>
     </row>
-    <row r="96" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B96" s="2">
@@ -10968,7 +10975,7 @@
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H96" s="40"/>
@@ -11015,7 +11022,7 @@
     </row>
     <row r="97" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.13. - Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
@@ -11032,7 +11039,7 @@
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB13</v>
       </c>
       <c r="H97" s="40" t="str">
@@ -11080,9 +11087,9 @@
       </c>
       <c r="X97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.14. - Bladder cancer</v>
       </c>
       <c r="B98" s="2">
@@ -11099,7 +11106,7 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB14</v>
       </c>
       <c r="H98" s="40" t="str">
@@ -11149,7 +11156,7 @@
     </row>
     <row r="99" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.15. - Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
@@ -11166,7 +11173,7 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB15</v>
       </c>
       <c r="H99" s="40" t="str">
@@ -11214,9 +11221,9 @@
       </c>
       <c r="X99" s="2"/>
     </row>
-    <row r="100" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B100" s="2">
@@ -11233,7 +11240,7 @@
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H100" s="40"/>
@@ -11278,9 +11285,9 @@
       </c>
       <c r="X100" s="2"/>
     </row>
-    <row r="101" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B101" s="2">
@@ -11297,7 +11304,7 @@
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H101" s="40"/>
@@ -11342,9 +11349,9 @@
       </c>
       <c r="X101" s="2"/>
     </row>
-    <row r="102" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B102" s="2">
@@ -11361,7 +11368,7 @@
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H102" s="40"/>
@@ -11406,9 +11413,9 @@
       </c>
       <c r="X102" s="2"/>
     </row>
-    <row r="103" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B103" s="2">
@@ -11425,7 +11432,7 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H103" s="40"/>
@@ -11466,9 +11473,9 @@
       </c>
       <c r="X103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.16. - Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
@@ -11486,7 +11493,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="40"/>
       <c r="H104" s="40" t="str">
-        <f t="shared" ref="H104:H109" si="8">CONCATENATE(D104,E104,F104)</f>
+        <f t="shared" ref="H104:H109" si="9">CONCATENATE(D104,E104,F104)</f>
         <v>B16</v>
       </c>
       <c r="I104" s="5"/>
@@ -11526,9 +11533,9 @@
       </c>
       <c r="X104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>...B.16.a. - Hodgkin lymphoma</v>
       </c>
       <c r="B105" s="2">
@@ -11547,11 +11554,11 @@
         <v>1126</v>
       </c>
       <c r="G105" s="40" t="str">
-        <f t="shared" ref="G105:G111" si="9">CONCATENATE("c",D105,E105,F105)</f>
+        <f t="shared" ref="G105:G111" si="10">CONCATENATE("c",D105,E105,F105)</f>
         <v>cB16a</v>
       </c>
       <c r="H105" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>B16a</v>
       </c>
       <c r="I105" s="5"/>
@@ -11591,9 +11598,9 @@
       </c>
       <c r="X105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>...B.16.b. - Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
@@ -11612,11 +11619,11 @@
         <v>1127</v>
       </c>
       <c r="G106" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v>cB16b</v>
+      </c>
+      <c r="H106" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>cB16b</v>
-      </c>
-      <c r="H106" s="40" t="str">
-        <f t="shared" si="8"/>
         <v>B16b</v>
       </c>
       <c r="I106" s="5"/>
@@ -11656,9 +11663,9 @@
       </c>
       <c r="X106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>...B.16.c. - Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
@@ -11677,11 +11684,11 @@
         <v>1130</v>
       </c>
       <c r="G107" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v>cB16c</v>
+      </c>
+      <c r="H107" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>cB16c</v>
-      </c>
-      <c r="H107" s="40" t="str">
-        <f t="shared" si="8"/>
         <v>B16c</v>
       </c>
       <c r="I107" s="5"/>
@@ -11721,9 +11728,9 @@
       </c>
       <c r="X107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.17. - Leukaemia</v>
       </c>
       <c r="B108" s="2">
@@ -11740,11 +11747,11 @@
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v>cB17</v>
+      </c>
+      <c r="H108" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>cB17</v>
-      </c>
-      <c r="H108" s="40" t="str">
-        <f t="shared" si="8"/>
         <v>B17</v>
       </c>
       <c r="I108" s="5"/>
@@ -11786,7 +11793,7 @@
     </row>
     <row r="109" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..B.99. - Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
@@ -11803,11 +11810,11 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="40" t="str">
+        <f t="shared" si="10"/>
+        <v>cB99</v>
+      </c>
+      <c r="H109" s="40" t="str">
         <f t="shared" si="9"/>
-        <v>cB99</v>
-      </c>
-      <c r="H109" s="40" t="str">
-        <f t="shared" si="8"/>
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -11849,7 +11856,7 @@
     </row>
     <row r="110" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B110" s="2">
@@ -11866,7 +11873,7 @@
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cD99</v>
       </c>
       <c r="H110" s="40"/>
@@ -11907,7 +11914,7 @@
     </row>
     <row r="111" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..D.01. - Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
@@ -11924,7 +11931,7 @@
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>cD01</v>
       </c>
       <c r="H111" s="40" t="str">
@@ -11980,7 +11987,7 @@
     </row>
     <row r="112" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>..D.02. - Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
@@ -12040,9 +12047,9 @@
       </c>
       <c r="X112" s="2"/>
     </row>
-    <row r="113" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B113" s="2">
@@ -12100,9 +12107,9 @@
       </c>
       <c r="X113" s="2"/>
     </row>
-    <row r="114" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B114" s="2">
@@ -12162,7 +12169,7 @@
     </row>
     <row r="115" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B115" s="2">
@@ -12222,7 +12229,7 @@
     </row>
     <row r="116" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A116" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B116" s="2">
@@ -12280,9 +12287,9 @@
       </c>
       <c r="X116" s="2"/>
     </row>
-    <row r="117" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B117" s="2">
@@ -12341,7 +12348,7 @@
     </row>
     <row r="118" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">..D.03. - Mental Health disorders </v>
       </c>
       <c r="B118" s="2"/>
@@ -12383,9 +12390,9 @@
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
     </row>
-    <row r="119" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">..D.04. - Substance use </v>
       </c>
       <c r="B119" s="2"/>
@@ -12425,9 +12432,9 @@
       <c r="W119" s="45"/>
       <c r="X119" s="2"/>
     </row>
-    <row r="120" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B120" s="2"/>
@@ -12456,9 +12463,9 @@
       <c r="W120" s="45"/>
       <c r="X120" s="2"/>
     </row>
-    <row r="121" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B121" s="2">
@@ -12505,9 +12512,9 @@
       </c>
       <c r="X121" s="2"/>
     </row>
-    <row r="122" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B122" s="2">
@@ -12565,9 +12572,9 @@
       </c>
       <c r="X122" s="2"/>
     </row>
-    <row r="123" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B123" s="2">
@@ -12625,9 +12632,9 @@
       </c>
       <c r="X123" s="2"/>
     </row>
-    <row r="124" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B124" s="2">
@@ -12685,9 +12692,9 @@
       </c>
       <c r="X124" s="2"/>
     </row>
-    <row r="125" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B125" s="2">
@@ -12751,7 +12758,7 @@
     </row>
     <row r="126" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>...D.04.a. - Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
@@ -12818,9 +12825,9 @@
       </c>
       <c r="X126" s="2"/>
     </row>
-    <row r="127" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B127" s="2">
@@ -12871,9 +12878,9 @@
       </c>
       <c r="X127" s="2"/>
     </row>
-    <row r="128" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>...D.04.b. - Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
@@ -12892,7 +12899,7 @@
         <v>1127</v>
       </c>
       <c r="G128" s="40" t="str">
-        <f t="shared" ref="G128:G135" si="10">CONCATENATE("c",D128,E128,F128)</f>
+        <f t="shared" ref="G128:G135" si="11">CONCATENATE("c",D128,E128,F128)</f>
         <v>cD04b</v>
       </c>
       <c r="H128" s="40" t="str">
@@ -12936,9 +12943,9 @@
       </c>
       <c r="X128" s="2"/>
     </row>
-    <row r="129" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>...D.04.c. - Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
@@ -12957,7 +12964,7 @@
         <v>1130</v>
       </c>
       <c r="G129" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04c</v>
       </c>
       <c r="H129" s="40" t="str">
@@ -13001,9 +13008,9 @@
       </c>
       <c r="X129" s="2"/>
     </row>
-    <row r="130" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>...D.04.d. - Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
@@ -13022,7 +13029,7 @@
         <v>1154</v>
       </c>
       <c r="G130" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04d</v>
       </c>
       <c r="H130" s="40" t="str">
@@ -13066,9 +13073,9 @@
       </c>
       <c r="X130" s="2"/>
     </row>
-    <row r="131" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -13085,7 +13092,7 @@
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04</v>
       </c>
       <c r="H131" s="40"/>
@@ -13121,9 +13128,9 @@
       </c>
       <c r="X131" s="2"/>
     </row>
-    <row r="132" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="str">
-        <f t="shared" ref="A132:A195" si="11">IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("...",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("..",D132,".",E132,". - ",T132),CONCATENATE(D132,". - ",T132))),"")</f>
+        <f t="shared" ref="A132:A195" si="12">IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("...",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("..",D132,".",E132,". - ",T132),CONCATENATE(D132,". - ",T132))),"")</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -13140,7 +13147,7 @@
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD04</v>
       </c>
       <c r="H132" s="40"/>
@@ -13187,9 +13194,9 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B133" s="2">
@@ -13206,7 +13213,7 @@
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="H133" s="40"/>
@@ -13243,9 +13250,9 @@
       </c>
       <c r="X133" s="2"/>
     </row>
-    <row r="134" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B134" s="2">
@@ -13262,7 +13269,7 @@
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="H134" s="40"/>
@@ -13303,9 +13310,9 @@
       </c>
       <c r="X134" s="2"/>
     </row>
-    <row r="135" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B135" s="2">
@@ -13322,7 +13329,7 @@
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="H135" s="40"/>
@@ -13359,9 +13366,9 @@
       </c>
       <c r="X135" s="2"/>
     </row>
-    <row r="136" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B136" s="2">
@@ -13408,9 +13415,9 @@
       </c>
       <c r="X136" s="2"/>
     </row>
-    <row r="137" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B137" s="2">
@@ -13464,9 +13471,9 @@
       </c>
       <c r="X137" s="2"/>
     </row>
-    <row r="138" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B138" s="2">
@@ -13520,9 +13527,9 @@
       </c>
       <c r="X138" s="2"/>
     </row>
-    <row r="139" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B139" s="2">
@@ -13578,7 +13585,7 @@
     </row>
     <row r="140" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B140" s="2">
@@ -13632,9 +13639,9 @@
       </c>
       <c r="X140" s="2"/>
     </row>
-    <row r="141" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B141" s="2">
@@ -13691,9 +13698,9 @@
         <v>607</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.05. - Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
@@ -13710,7 +13717,7 @@
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="40" t="str">
-        <f t="shared" ref="G142:G148" si="12">CONCATENATE("c",D142,E142,F142)</f>
+        <f t="shared" ref="G142:G148" si="13">CONCATENATE("c",D142,E142,F142)</f>
         <v>cD05</v>
       </c>
       <c r="H142" s="40" t="str">
@@ -13754,9 +13761,9 @@
       </c>
       <c r="X142" s="2"/>
     </row>
-    <row r="143" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B143" s="2">
@@ -13773,7 +13780,7 @@
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H143" s="40"/>
@@ -13814,9 +13821,9 @@
       </c>
       <c r="X143" s="2"/>
     </row>
-    <row r="144" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B144" s="2">
@@ -13833,7 +13840,7 @@
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H144" s="40"/>
@@ -13874,9 +13881,9 @@
       </c>
       <c r="X144" s="2"/>
     </row>
-    <row r="145" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B145" s="2">
@@ -13893,7 +13900,7 @@
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H145" s="40"/>
@@ -13934,9 +13941,9 @@
       </c>
       <c r="X145" s="2"/>
     </row>
-    <row r="146" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B146" s="2">
@@ -13953,7 +13960,7 @@
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H146" s="40"/>
@@ -13990,9 +13997,9 @@
       </c>
       <c r="X146" s="2"/>
     </row>
-    <row r="147" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B147" s="2">
@@ -14009,7 +14016,7 @@
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H147" s="40"/>
@@ -14048,7 +14055,7 @@
     </row>
     <row r="148" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.06. - Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
@@ -14065,7 +14072,7 @@
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H148" s="40" t="str">
@@ -14113,9 +14120,9 @@
       </c>
       <c r="X148" s="2"/>
     </row>
-    <row r="149" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B149" s="2">
@@ -14168,9 +14175,9 @@
         <v>614</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B150" s="2">
@@ -14187,7 +14194,7 @@
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="40" t="str">
-        <f t="shared" ref="G150:G156" si="13">CONCATENATE("c",D150,E150,F150)</f>
+        <f t="shared" ref="G150:G156" si="14">CONCATENATE("c",D150,E150,F150)</f>
         <v>cD99</v>
       </c>
       <c r="H150" s="40"/>
@@ -14224,9 +14231,9 @@
       </c>
       <c r="X150" s="2"/>
     </row>
-    <row r="151" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B151" s="2">
@@ -14243,7 +14250,7 @@
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H151" s="40"/>
@@ -14280,9 +14287,9 @@
       </c>
       <c r="X151" s="2"/>
     </row>
-    <row r="152" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B152" s="2">
@@ -14299,7 +14306,7 @@
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H152" s="40"/>
@@ -14336,9 +14343,9 @@
       </c>
       <c r="X152" s="2"/>
     </row>
-    <row r="153" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B153" s="2">
@@ -14355,7 +14362,7 @@
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H153" s="40"/>
@@ -14392,9 +14399,9 @@
       </c>
       <c r="X153" s="2"/>
     </row>
-    <row r="154" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B154" s="2">
@@ -14411,7 +14418,7 @@
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H154" s="40"/>
@@ -14448,9 +14455,9 @@
       </c>
       <c r="X154" s="2"/>
     </row>
-    <row r="155" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B155" s="2">
@@ -14467,7 +14474,7 @@
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H155" s="40"/>
@@ -14506,7 +14513,7 @@
     </row>
     <row r="156" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B156" s="2">
@@ -14523,7 +14530,7 @@
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H156" s="40"/>
@@ -14564,7 +14571,7 @@
     </row>
     <row r="157" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>C. - Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
@@ -14620,9 +14627,9 @@
       </c>
       <c r="X157" s="2"/>
     </row>
-    <row r="158" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B158" s="2">
@@ -14639,7 +14646,7 @@
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="40" t="str">
-        <f t="shared" ref="G158:G164" si="14">CONCATENATE("c",D158,E158,F158)</f>
+        <f t="shared" ref="G158:G164" si="15">CONCATENATE("c",D158,E158,F158)</f>
         <v>cC99</v>
       </c>
       <c r="H158" s="40"/>
@@ -14684,9 +14691,9 @@
       </c>
       <c r="X158" s="2"/>
     </row>
-    <row r="159" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..C.01. - Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
@@ -14703,11 +14710,11 @@
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC01</v>
       </c>
       <c r="H159" s="40" t="str">
-        <f t="shared" ref="H159:H164" si="15">CONCATENATE(D159,E159,F159)</f>
+        <f t="shared" ref="H159:H164" si="16">CONCATENATE(D159,E159,F159)</f>
         <v>C01</v>
       </c>
       <c r="I159" s="5"/>
@@ -14751,9 +14758,9 @@
       </c>
       <c r="X159" s="2"/>
     </row>
-    <row r="160" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..C.02. - Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
@@ -14770,11 +14777,11 @@
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC02</v>
       </c>
       <c r="H160" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>C02</v>
       </c>
       <c r="I160" s="5"/>
@@ -14820,7 +14827,7 @@
     </row>
     <row r="161" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..C.03. - Stroke</v>
       </c>
       <c r="B161" s="2">
@@ -14837,11 +14844,11 @@
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC03</v>
       </c>
       <c r="H161" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
@@ -14891,7 +14898,7 @@
     </row>
     <row r="162" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
@@ -14908,11 +14915,11 @@
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC04</v>
       </c>
       <c r="H162" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>C04</v>
       </c>
       <c r="I162" s="5"/>
@@ -14960,7 +14967,7 @@
     </row>
     <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..C.05. -  Congestive heart failure</v>
       </c>
       <c r="B163" s="2"/>
@@ -14973,11 +14980,11 @@
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC05</v>
       </c>
       <c r="H163" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
@@ -15013,7 +15020,7 @@
     </row>
     <row r="164" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..C.99. - Other or unspecified cardiovascular diseases</v>
       </c>
       <c r="B164" s="2">
@@ -15030,11 +15037,11 @@
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>cC99</v>
       </c>
       <c r="H164" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
@@ -15084,9 +15091,9 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B165" s="2">
@@ -15141,9 +15148,9 @@
       </c>
       <c r="X165" s="2"/>
     </row>
-    <row r="166" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.66. - Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B166" s="2">
@@ -15204,9 +15211,9 @@
       </c>
       <c r="X166" s="2"/>
     </row>
-    <row r="167" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.67. - Asthma</v>
       </c>
       <c r="B167" s="2">
@@ -15267,9 +15274,9 @@
       </c>
       <c r="X167" s="2"/>
     </row>
-    <row r="168" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.68. - Other respiratory diseases</v>
       </c>
       <c r="B168" s="2">
@@ -15330,9 +15337,9 @@
       </c>
       <c r="X168" s="2"/>
     </row>
-    <row r="169" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
       <c r="B169" s="2">
@@ -15392,9 +15399,9 @@
       </c>
       <c r="X169" s="2"/>
     </row>
-    <row r="170" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B170" s="2">
@@ -15411,7 +15418,7 @@
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="40" t="str">
-        <f t="shared" ref="G170:G178" si="16">CONCATENATE("c",D170,E170,F170)</f>
+        <f t="shared" ref="G170:G178" si="17">CONCATENATE("c",D170,E170,F170)</f>
         <v>cD09</v>
       </c>
       <c r="H170" s="40"/>
@@ -15454,7 +15461,7 @@
     </row>
     <row r="171" spans="1:24" s="48" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.11. - Cirrhosis of the liver</v>
       </c>
       <c r="B171" s="2">
@@ -15471,7 +15478,7 @@
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD11</v>
       </c>
       <c r="H171" s="40" t="str">
@@ -15519,9 +15526,9 @@
       </c>
       <c r="X171" s="2"/>
     </row>
-    <row r="172" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B172" s="2">
@@ -15538,7 +15545,7 @@
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H172" s="40"/>
@@ -15579,9 +15586,9 @@
       </c>
       <c r="X172" s="2"/>
     </row>
-    <row r="173" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B173" s="2">
@@ -15598,7 +15605,7 @@
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H173" s="40"/>
@@ -15641,7 +15648,7 @@
     </row>
     <row r="174" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B174" s="2">
@@ -15658,7 +15665,7 @@
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H174" s="40"/>
@@ -15699,9 +15706,9 @@
       </c>
       <c r="X174" s="2"/>
     </row>
-    <row r="175" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B175" s="2">
@@ -15718,7 +15725,7 @@
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H175" s="40"/>
@@ -15759,9 +15766,9 @@
       </c>
       <c r="X175" s="2"/>
     </row>
-    <row r="176" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B176" s="2">
@@ -15778,7 +15785,7 @@
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H176" s="40"/>
@@ -15819,9 +15826,9 @@
       </c>
       <c r="X176" s="2"/>
     </row>
-    <row r="177" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B177" s="2">
@@ -15838,7 +15845,7 @@
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H177" s="40"/>
@@ -15881,7 +15888,7 @@
     </row>
     <row r="178" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B178" s="2">
@@ -15898,7 +15905,7 @@
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H178" s="40"/>
@@ -15945,7 +15952,7 @@
     </row>
     <row r="179" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B179" s="2">
@@ -15998,9 +16005,9 @@
       </c>
       <c r="X179" s="2"/>
     </row>
-    <row r="180" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>..D.10. - Kidney diseases</v>
       </c>
       <c r="B180" s="2">
@@ -16032,7 +16039,9 @@
         <v>952</v>
       </c>
       <c r="M180" s="49"/>
-      <c r="N180" s="49"/>
+      <c r="N180" s="49" t="s">
+        <v>952</v>
+      </c>
       <c r="O180" s="59" t="s">
         <v>954</v>
       </c>
@@ -16060,9 +16069,9 @@
       </c>
       <c r="X180" s="2"/>
     </row>
-    <row r="181" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>...D.10.a. - Acute glomerulonephritis</v>
       </c>
       <c r="B181" s="2">
@@ -16081,7 +16090,7 @@
         <v>1126</v>
       </c>
       <c r="G181" s="40" t="str">
-        <f t="shared" ref="G181:G189" si="17">CONCATENATE("c",D181,E181,F181)</f>
+        <f t="shared" ref="G181:G189" si="18">CONCATENATE("c",D181,E181,F181)</f>
         <v>cD10a</v>
       </c>
       <c r="H181" s="40" t="str">
@@ -16097,7 +16106,9 @@
         <v>847</v>
       </c>
       <c r="M181" s="49"/>
-      <c r="N181" s="49"/>
+      <c r="N181" s="49" t="s">
+        <v>847</v>
+      </c>
       <c r="O181" s="59" t="s">
         <v>955</v>
       </c>
@@ -16125,9 +16136,9 @@
       </c>
       <c r="X181" s="2"/>
     </row>
-    <row r="182" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>...D.10.b. - Chronic kidney diesease due to diabetes</v>
       </c>
       <c r="B182" s="2">
@@ -16146,7 +16157,7 @@
         <v>1127</v>
       </c>
       <c r="G182" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD10b</v>
       </c>
       <c r="H182" s="40" t="str">
@@ -16162,7 +16173,9 @@
         <v>848</v>
       </c>
       <c r="M182" s="49"/>
-      <c r="N182" s="49"/>
+      <c r="N182" s="49" t="s">
+        <v>848</v>
+      </c>
       <c r="O182" s="59" t="s">
         <v>956</v>
       </c>
@@ -16190,9 +16203,9 @@
       </c>
       <c r="X182" s="2"/>
     </row>
-    <row r="183" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>...D.10.c. - Other chronic kidney disease</v>
       </c>
       <c r="B183" s="2">
@@ -16211,7 +16224,7 @@
         <v>1130</v>
       </c>
       <c r="G183" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD10c</v>
       </c>
       <c r="H183" s="40" t="str">
@@ -16227,7 +16240,9 @@
         <v>959</v>
       </c>
       <c r="M183" s="49"/>
-      <c r="N183" s="49"/>
+      <c r="N183" s="49" t="s">
+        <v>959</v>
+      </c>
       <c r="O183" s="59" t="s">
         <v>957</v>
       </c>
@@ -16255,9 +16270,9 @@
       </c>
       <c r="X183" s="2"/>
     </row>
-    <row r="184" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B184" s="2">
@@ -16274,7 +16289,7 @@
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H184" s="40"/>
@@ -16311,9 +16326,9 @@
       </c>
       <c r="X184" s="2"/>
     </row>
-    <row r="185" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B185" s="2">
@@ -16330,7 +16345,7 @@
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H185" s="40"/>
@@ -16373,7 +16388,7 @@
     </row>
     <row r="186" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B186" s="2">
@@ -16390,7 +16405,7 @@
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H186" s="40"/>
@@ -16431,9 +16446,9 @@
       </c>
       <c r="X186" s="2"/>
     </row>
-    <row r="187" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B187" s="2">
@@ -16450,7 +16465,7 @@
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H187" s="40"/>
@@ -16491,9 +16506,9 @@
       </c>
       <c r="X187" s="2"/>
     </row>
-    <row r="188" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B188" s="2">
@@ -16510,7 +16525,7 @@
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H188" s="40"/>
@@ -16551,9 +16566,9 @@
       </c>
       <c r="X188" s="2"/>
     </row>
-    <row r="189" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B189" s="2">
@@ -16570,7 +16585,7 @@
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H189" s="40"/>
@@ -16609,9 +16624,9 @@
       </c>
       <c r="X189" s="2"/>
     </row>
-    <row r="190" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B190" s="2">
@@ -16668,9 +16683,9 @@
       </c>
       <c r="X190" s="2"/>
     </row>
-    <row r="191" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B191" s="2">
@@ -16728,9 +16743,9 @@
       </c>
       <c r="X191" s="2"/>
     </row>
-    <row r="192" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B192" s="2">
@@ -16784,9 +16799,9 @@
       </c>
       <c r="X192" s="2"/>
     </row>
-    <row r="193" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B193" s="2">
@@ -16840,9 +16855,9 @@
       </c>
       <c r="X193" s="2"/>
     </row>
-    <row r="194" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B194" s="2">
@@ -16898,7 +16913,7 @@
     </row>
     <row r="195" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B195" s="2">
@@ -16960,9 +16975,9 @@
       </c>
       <c r="X195" s="2"/>
     </row>
-    <row r="196" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="str">
-        <f t="shared" ref="A196:A232" si="18">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("...",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("..",D196,".",E196,". - ",T196),CONCATENATE(D196,". - ",T196))),"")</f>
+        <f t="shared" ref="A196:A232" si="19">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("...",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("..",D196,".",E196,". - ",T196),CONCATENATE(D196,". - ",T196))),"")</f>
         <v>..D.12. - Congenital anomalies</v>
       </c>
       <c r="B196" s="2">
@@ -17022,9 +17037,9 @@
       </c>
       <c r="X196" s="2"/>
     </row>
-    <row r="197" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B197" s="2">
@@ -17041,7 +17056,7 @@
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
-        <f t="shared" ref="G197:G202" si="19">CONCATENATE("c",D197,E197,F197)</f>
+        <f t="shared" ref="G197:G202" si="20">CONCATENATE("c",D197,E197,F197)</f>
         <v>cD12</v>
       </c>
       <c r="H197" s="40"/>
@@ -17082,9 +17097,9 @@
       </c>
       <c r="X197" s="2"/>
     </row>
-    <row r="198" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B198" s="2">
@@ -17101,7 +17116,7 @@
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H198" s="40"/>
@@ -17142,9 +17157,9 @@
       </c>
       <c r="X198" s="2"/>
     </row>
-    <row r="199" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B199" s="2">
@@ -17161,7 +17176,7 @@
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H199" s="40"/>
@@ -17202,9 +17217,9 @@
       </c>
       <c r="X199" s="2"/>
     </row>
-    <row r="200" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B200" s="2">
@@ -17221,7 +17236,7 @@
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H200" s="40"/>
@@ -17262,9 +17277,9 @@
       </c>
       <c r="X200" s="2"/>
     </row>
-    <row r="201" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B201" s="2">
@@ -17281,7 +17296,7 @@
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H201" s="40"/>
@@ -17324,7 +17339,7 @@
     </row>
     <row r="202" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B202" s="2">
@@ -17341,7 +17356,7 @@
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H202" s="40"/>
@@ -17382,9 +17397,9 @@
       </c>
       <c r="X202" s="2"/>
     </row>
-    <row r="203" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B203" s="2">
@@ -17435,9 +17450,9 @@
       </c>
       <c r="X203" s="2"/>
     </row>
-    <row r="204" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B204" s="2">
@@ -17491,9 +17506,9 @@
       </c>
       <c r="X204" s="2"/>
     </row>
-    <row r="205" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B205" s="2">
@@ -17547,9 +17562,9 @@
       </c>
       <c r="X205" s="2"/>
     </row>
-    <row r="206" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B206" s="2">
@@ -17603,9 +17618,9 @@
       </c>
       <c r="X206" s="2"/>
     </row>
-    <row r="207" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B207" s="2">
@@ -17661,7 +17676,7 @@
     </row>
     <row r="208" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>E. - Injuries</v>
       </c>
       <c r="B208" s="2">
@@ -17717,9 +17732,9 @@
       </c>
       <c r="X208" s="2"/>
     </row>
-    <row r="209" spans="1:24" ht="41.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>..E.01. - Unintentional injuries</v>
       </c>
       <c r="B209" s="2">
@@ -17777,9 +17792,9 @@
       </c>
       <c r="X209" s="2"/>
     </row>
-    <row r="210" spans="1:24" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>...E.01.a. - Road injury</v>
       </c>
       <c r="B210" s="2">
@@ -17798,7 +17813,7 @@
         <v>1126</v>
       </c>
       <c r="G210" s="40" t="str">
-        <f t="shared" ref="G210:G219" si="20">CONCATENATE("c",D210,E210,F210)</f>
+        <f t="shared" ref="G210:G219" si="21">CONCATENATE("c",D210,E210,F210)</f>
         <v>cE01a</v>
       </c>
       <c r="H210" s="40" t="str">
@@ -17846,9 +17861,9 @@
       </c>
       <c r="X210" s="2"/>
     </row>
-    <row r="211" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B211" s="2">
@@ -17867,7 +17882,7 @@
         <v>1128</v>
       </c>
       <c r="G211" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H211" s="40"/>
@@ -17908,9 +17923,9 @@
       </c>
       <c r="X211" s="2"/>
     </row>
-    <row r="212" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>...E.01.b. - Falls</v>
       </c>
       <c r="B212" s="2">
@@ -17929,7 +17944,7 @@
         <v>1127</v>
       </c>
       <c r="G212" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01b</v>
       </c>
       <c r="H212" s="40" t="str">
@@ -17975,9 +17990,9 @@
       </c>
       <c r="X212" s="2"/>
     </row>
-    <row r="213" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B213" s="2">
@@ -17996,7 +18011,7 @@
         <v>1128</v>
       </c>
       <c r="G213" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H213" s="40"/>
@@ -18035,9 +18050,9 @@
       </c>
       <c r="X213" s="2"/>
     </row>
-    <row r="214" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B214" s="2">
@@ -18056,7 +18071,7 @@
         <v>1128</v>
       </c>
       <c r="G214" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H214" s="40"/>
@@ -18099,7 +18114,7 @@
     </row>
     <row r="215" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B215" s="2">
@@ -18118,7 +18133,7 @@
         <v>1128</v>
       </c>
       <c r="G215" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H215" s="40"/>
@@ -18159,9 +18174,9 @@
       </c>
       <c r="X215" s="2"/>
     </row>
-    <row r="216" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>...E.01.c. - Accidental Firearm</v>
       </c>
       <c r="B216" s="2"/>
@@ -18178,7 +18193,7 @@
         <v>1130</v>
       </c>
       <c r="G216" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01c</v>
       </c>
       <c r="H216" s="40" t="str">
@@ -18214,7 +18229,7 @@
     </row>
     <row r="217" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B217" s="2">
@@ -18233,7 +18248,7 @@
         <v>1128</v>
       </c>
       <c r="G217" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H217" s="40"/>
@@ -18274,9 +18289,9 @@
       </c>
       <c r="X217" s="2"/>
     </row>
-    <row r="218" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B218" s="2"/>
@@ -18305,7 +18320,7 @@
     </row>
     <row r="219" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>...E.01.x. - Other unintentional injuries</v>
       </c>
       <c r="B219" s="2">
@@ -18324,7 +18339,7 @@
         <v>1128</v>
       </c>
       <c r="G219" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H219" s="40" t="str">
@@ -18374,9 +18389,9 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B220" s="2">
@@ -18427,9 +18442,9 @@
       </c>
       <c r="X220" s="2"/>
     </row>
-    <row r="221" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>..E.02. - Suicide/Self-harm</v>
       </c>
       <c r="B221" s="2">
@@ -18446,7 +18461,7 @@
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="40" t="str">
-        <f t="shared" ref="G221:G228" si="21">CONCATENATE("c",D221,E221,F221)</f>
+        <f t="shared" ref="G221:G228" si="22">CONCATENATE("c",D221,E221,F221)</f>
         <v>cE02</v>
       </c>
       <c r="H221" s="40" t="str">
@@ -18496,7 +18511,7 @@
     </row>
     <row r="222" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A222" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>..E.03. - Homicide/Interpersonal violence</v>
       </c>
       <c r="B222" s="2">
@@ -18554,9 +18569,9 @@
       </c>
       <c r="X222" s="2"/>
     </row>
-    <row r="223" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A223" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>...E.03.a. - Homicide excluding legal intervention</v>
       </c>
       <c r="B223" s="2"/>
@@ -18571,11 +18586,11 @@
         <v>1126</v>
       </c>
       <c r="G223" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>cE03a</v>
       </c>
       <c r="H223" s="40" t="str">
-        <f t="shared" ref="H223:H225" si="22">CONCATENATE(D223,E223,F223)</f>
+        <f t="shared" ref="H223:H225" si="23">CONCATENATE(D223,E223,F223)</f>
         <v>E03a</v>
       </c>
       <c r="I223" s="5"/>
@@ -18601,9 +18616,9 @@
       <c r="W223" s="45"/>
       <c r="X223" s="2"/>
     </row>
-    <row r="224" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>...E.03.b. - Legal intervention</v>
       </c>
       <c r="B224" s="2"/>
@@ -18618,11 +18633,11 @@
         <v>1127</v>
       </c>
       <c r="G224" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>cE03b</v>
       </c>
       <c r="H224" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E03b</v>
       </c>
       <c r="I224" s="5"/>
@@ -18650,7 +18665,7 @@
     </row>
     <row r="225" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>...E.03.c. - Execution, War, Terroism</v>
       </c>
       <c r="B225" s="2">
@@ -18669,11 +18684,11 @@
         <v>1130</v>
       </c>
       <c r="G225" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>cE03c</v>
       </c>
       <c r="H225" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>E03c</v>
       </c>
       <c r="I225" s="5" t="s">
@@ -18717,7 +18732,7 @@
     </row>
     <row r="226" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B226" s="82" t="s">
@@ -18733,7 +18748,7 @@
         <v>1144</v>
       </c>
       <c r="G226" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>cE01</v>
       </c>
       <c r="H226" s="40"/>
@@ -18753,9 +18768,9 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>..Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D227" s="56" t="s">
@@ -18765,7 +18780,7 @@
         <v>1144</v>
       </c>
       <c r="G227" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>cZ01</v>
       </c>
       <c r="H227" s="40" t="str">
@@ -18790,7 +18805,7 @@
     </row>
     <row r="228" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="D228" s="56" t="s">
@@ -18800,7 +18815,7 @@
         <v>1152</v>
       </c>
       <c r="G228" s="42" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>cA09</v>
       </c>
       <c r="H228" s="40"/>
@@ -18820,9 +18835,9 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>..Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D229" s="56" t="s">
@@ -18833,16 +18848,16 @@
       </c>
       <c r="G229" s="43"/>
       <c r="H229" s="40" t="str">
-        <f t="shared" ref="H229:H232" si="23">CONCATENATE(D229,E229,F229)</f>
+        <f t="shared" ref="H229:H232" si="24">CONCATENATE(D229,E229,F229)</f>
         <v>Z02</v>
       </c>
       <c r="T229" s="48" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>..Z.03. - Code does not map</v>
       </c>
       <c r="D230" s="56" t="s">
@@ -18853,7 +18868,7 @@
       </c>
       <c r="G230" s="43"/>
       <c r="H230" s="40" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Z03</v>
       </c>
       <c r="I230" s="16" t="s">
@@ -18863,9 +18878,9 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>Z. - Unknown/Missing Value</v>
       </c>
       <c r="D231" s="56" t="s">
@@ -18873,16 +18888,16 @@
       </c>
       <c r="G231" s="43"/>
       <c r="H231" s="40" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Z</v>
       </c>
       <c r="T231" s="48" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>..D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D232" s="56" t="s">
@@ -18893,7 +18908,7 @@
       </c>
       <c r="G232" s="43"/>
       <c r="H232" s="40" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>D99</v>
       </c>
       <c r="T232" s="48" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5339,10 +5339,10 @@
   <dimension ref="A1:X232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M182" sqref="M182"/>
+      <selection pane="bottomRight" activeCell="N157" sqref="N157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5448,7 +5448,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="str">
         <f>V2</f>
         <v>All CAUSES</v>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:24" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="str">
         <f>IF(H3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("...",D3,".",E3,".",F3,". - ",T3),IF(E3&lt;&gt;"",CONCATENATE("..",D3,".",E3,". - ",T3),CONCATENATE(D3,". - ",T3))),"")</f>
         <v>A. - Communicable, maternal, perinatal and nutritional conditions</v>
@@ -5548,9 +5548,9 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="str">
-        <f t="shared" ref="A4:A67" si="0">IF(H4&lt;&gt;"",IF(F4&lt;&gt;"",CONCATENATE("...",D4,".",E4,".",F4,". - ",T4),IF(E4&lt;&gt;"",CONCATENATE("..",D4,".",E4,". - ",T4),CONCATENATE(D4,". - ",T4))),"")</f>
+        <f>IF(H4&lt;&gt;"",IF(F4&lt;&gt;"",CONCATENATE("...",D4,".",E4,".",F4,". - ",T4),IF(E4&lt;&gt;"",CONCATENATE("..",D4,".",E4,". - ",T4),CONCATENATE(D4,". - ",T4))),"")</f>
         <v>..A.99. - Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="5" spans="1:24" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H5&lt;&gt;"",IF(F5&lt;&gt;"",CONCATENATE("...",D5,".",E5,".",F5,". - ",T5),IF(E5&lt;&gt;"",CONCATENATE("..",D5,".",E5,". - ",T5),CONCATENATE(D5,". - ",T5))),"")</f>
         <v/>
       </c>
       <c r="B5" s="2">
@@ -5641,9 +5641,9 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H6&lt;&gt;"",IF(F6&lt;&gt;"",CONCATENATE("...",D6,".",E6,".",F6,". - ",T6),IF(E6&lt;&gt;"",CONCATENATE("..",D6,".",E6,". - ",T6),CONCATENATE(D6,". - ",T6))),"")</f>
         <v>..A.01. - Tuberculosis</v>
       </c>
       <c r="B6" s="2">
@@ -5702,9 +5702,9 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H7&lt;&gt;"",IF(F7&lt;&gt;"",CONCATENATE("...",D7,".",E7,".",F7,". - ",T7),IF(E7&lt;&gt;"",CONCATENATE("..",D7,".",E7,". - ",T7),CONCATENATE(D7,". - ",T7))),"")</f>
         <v>..A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2"/>
@@ -5744,9 +5744,9 @@
       <c r="W7" s="45"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H8&lt;&gt;"",IF(F8&lt;&gt;"",CONCATENATE("...",D8,".",E8,".",F8,". - ",T8),IF(E8&lt;&gt;"",CONCATENATE("..",D8,".",E8,". - ",T8),CONCATENATE(D8,". - ",T8))),"")</f>
         <v>...A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
       <c r="B8" s="2">
@@ -5808,9 +5808,9 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H9&lt;&gt;"",IF(F9&lt;&gt;"",CONCATENATE("...",D9,".",E9,".",F9,". - ",T9),IF(E9&lt;&gt;"",CONCATENATE("..",D9,".",E9,". - ",T9),CONCATENATE(D9,". - ",T9))),"")</f>
         <v/>
       </c>
       <c r="B9" s="2">
@@ -5868,9 +5868,9 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H10&lt;&gt;"",IF(F10&lt;&gt;"",CONCATENATE("...",D10,".",E10,".",F10,". - ",T10),IF(E10&lt;&gt;"",CONCATENATE("..",D10,".",E10,". - ",T10),CONCATENATE(D10,". - ",T10))),"")</f>
         <v/>
       </c>
       <c r="B10" s="2">
@@ -5928,9 +5928,9 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H11&lt;&gt;"",IF(F11&lt;&gt;"",CONCATENATE("...",D11,".",E11,".",F11,". - ",T11),IF(E11&lt;&gt;"",CONCATENATE("..",D11,".",E11,". - ",T11),CONCATENATE(D11,". - ",T11))),"")</f>
         <v/>
       </c>
       <c r="B11" s="2">
@@ -5988,9 +5988,9 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H12&lt;&gt;"",IF(F12&lt;&gt;"",CONCATENATE("...",D12,".",E12,".",F12,". - ",T12),IF(E12&lt;&gt;"",CONCATENATE("..",D12,".",E12,". - ",T12),CONCATENATE(D12,". - ",T12))),"")</f>
         <v/>
       </c>
       <c r="B12" s="2">
@@ -6046,9 +6046,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H13&lt;&gt;"",IF(F13&lt;&gt;"",CONCATENATE("...",D13,".",E13,".",F13,". - ",T13),IF(E13&lt;&gt;"",CONCATENATE("..",D13,".",E13,". - ",T13),CONCATENATE(D13,". - ",T13))),"")</f>
         <v/>
       </c>
       <c r="B13" s="2">
@@ -6106,9 +6106,9 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H14&lt;&gt;"",IF(F14&lt;&gt;"",CONCATENATE("...",D14,".",E14,".",F14,". - ",T14),IF(E14&lt;&gt;"",CONCATENATE("..",D14,".",E14,". - ",T14),CONCATENATE(D14,". - ",T14))),"")</f>
         <v>...A.02.b. - HIV/AIDS</v>
       </c>
       <c r="B14" s="2">
@@ -6168,9 +6168,9 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H15&lt;&gt;"",IF(F15&lt;&gt;"",CONCATENATE("...",D15,".",E15,".",F15,". - ",T15),IF(E15&lt;&gt;"",CONCATENATE("..",D15,".",E15,". - ",T15),CONCATENATE(D15,". - ",T15))),"")</f>
         <v/>
       </c>
       <c r="B15" s="2">
@@ -6224,9 +6224,9 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H16&lt;&gt;"",IF(F16&lt;&gt;"",CONCATENATE("...",D16,".",E16,".",F16,". - ",T16),IF(E16&lt;&gt;"",CONCATENATE("..",D16,".",E16,". - ",T16),CONCATENATE(D16,". - ",T16))),"")</f>
         <v/>
       </c>
       <c r="B16" s="2">
@@ -6284,9 +6284,9 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H17&lt;&gt;"",IF(F17&lt;&gt;"",CONCATENATE("...",D17,".",E17,".",F17,". - ",T17),IF(E17&lt;&gt;"",CONCATENATE("..",D17,".",E17,". - ",T17),CONCATENATE(D17,". - ",T17))),"")</f>
         <v/>
       </c>
       <c r="B17" s="2">
@@ -6342,9 +6342,9 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H18&lt;&gt;"",IF(F18&lt;&gt;"",CONCATENATE("...",D18,".",E18,".",F18,". - ",T18),IF(E18&lt;&gt;"",CONCATENATE("..",D18,".",E18,". - ",T18),CONCATENATE(D18,". - ",T18))),"")</f>
         <v/>
       </c>
       <c r="B18" s="2">
@@ -6394,9 +6394,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H19&lt;&gt;"",IF(F19&lt;&gt;"",CONCATENATE("...",D19,".",E19,".",F19,". - ",T19),IF(E19&lt;&gt;"",CONCATENATE("..",D19,".",E19,". - ",T19),CONCATENATE(D19,". - ",T19))),"")</f>
         <v/>
       </c>
       <c r="B19" s="2">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="40" t="str">
-        <f t="shared" ref="G19:G24" si="1">CONCATENATE("c",D19,E19,F19)</f>
+        <f t="shared" ref="G19:G24" si="0">CONCATENATE("c",D19,E19,F19)</f>
         <v>cA99</v>
       </c>
       <c r="H19" s="40"/>
@@ -6452,9 +6452,9 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H20&lt;&gt;"",IF(F20&lt;&gt;"",CONCATENATE("...",D20,".",E20,".",F20,". - ",T20),IF(E20&lt;&gt;"",CONCATENATE("..",D20,".",E20,". - ",T20),CONCATENATE(D20,". - ",T20))),"")</f>
         <v/>
       </c>
       <c r="B20" s="2">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>cA99</v>
       </c>
       <c r="H20" s="40"/>
@@ -6510,9 +6510,9 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H21&lt;&gt;"",IF(F21&lt;&gt;"",CONCATENATE("...",D21,".",E21,".",F21,". - ",T21),IF(E21&lt;&gt;"",CONCATENATE("..",D21,".",E21,". - ",T21),CONCATENATE(D21,". - ",T21))),"")</f>
         <v/>
       </c>
       <c r="B21" s="2">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>cA99</v>
       </c>
       <c r="H21" s="40"/>
@@ -6568,9 +6568,9 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H22&lt;&gt;"",IF(F22&lt;&gt;"",CONCATENATE("...",D22,".",E22,".",F22,". - ",T22),IF(E22&lt;&gt;"",CONCATENATE("..",D22,".",E22,". - ",T22),CONCATENATE(D22,". - ",T22))),"")</f>
         <v/>
       </c>
       <c r="B22" s="2">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>cA99</v>
       </c>
       <c r="H22" s="40"/>
@@ -6626,9 +6626,9 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H23&lt;&gt;"",IF(F23&lt;&gt;"",CONCATENATE("...",D23,".",E23,".",F23,". - ",T23),IF(E23&lt;&gt;"",CONCATENATE("..",D23,".",E23,". - ",T23),CONCATENATE(D23,". - ",T23))),"")</f>
         <v>..A.04. - Meningitis</v>
       </c>
       <c r="B23" s="2">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>cA04</v>
       </c>
       <c r="H23" s="40" t="str">
@@ -6687,9 +6687,9 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H24&lt;&gt;"",IF(F24&lt;&gt;"",CONCATENATE("...",D24,".",E24,".",F24,". - ",T24),IF(E24&lt;&gt;"",CONCATENATE("..",D24,".",E24,". - ",T24),CONCATENATE(D24,". - ",T24))),"")</f>
         <v>..A.05. - Encephalitis</v>
       </c>
       <c r="B24" s="2">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>cA05</v>
       </c>
       <c r="H24" s="40" t="str">
@@ -6748,9 +6748,9 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H25&lt;&gt;"",IF(F25&lt;&gt;"",CONCATENATE("...",D25,".",E25,".",F25,". - ",T25),IF(E25&lt;&gt;"",CONCATENATE("..",D25,".",E25,". - ",T25),CONCATENATE(D25,". - ",T25))),"")</f>
         <v>..A.06. - Hepatitis</v>
       </c>
       <c r="B25" s="2">
@@ -6802,9 +6802,9 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H26&lt;&gt;"",IF(F26&lt;&gt;"",CONCATENATE("...",D26,".",E26,".",F26,". - ",T26),IF(E26&lt;&gt;"",CONCATENATE("..",D26,".",E26,". - ",T26),CONCATENATE(D26,". - ",T26))),"")</f>
         <v/>
       </c>
       <c r="B26" s="2">
@@ -6856,9 +6856,9 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H27&lt;&gt;"",IF(F27&lt;&gt;"",CONCATENATE("...",D27,".",E27,".",F27,". - ",T27),IF(E27&lt;&gt;"",CONCATENATE("..",D27,".",E27,". - ",T27),CONCATENATE(D27,". - ",T27))),"")</f>
         <v>...A.06.a. - Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
@@ -6915,9 +6915,9 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H28&lt;&gt;"",IF(F28&lt;&gt;"",CONCATENATE("...",D28,".",E28,".",F28,". - ",T28),IF(E28&lt;&gt;"",CONCATENATE("..",D28,".",E28,". - ",T28),CONCATENATE(D28,". - ",T28))),"")</f>
         <v/>
       </c>
       <c r="B28" s="2"/>
@@ -6943,9 +6943,9 @@
       <c r="W28" s="45"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H29&lt;&gt;"",IF(F29&lt;&gt;"",CONCATENATE("...",D29,".",E29,".",F29,". - ",T29),IF(E29&lt;&gt;"",CONCATENATE("..",D29,".",E29,". - ",T29),CONCATENATE(D29,". - ",T29))),"")</f>
         <v>...A.06.b. - Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
@@ -7002,9 +7002,9 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H30&lt;&gt;"",IF(F30&lt;&gt;"",CONCATENATE("...",D30,".",E30,".",F30,". - ",T30),IF(E30&lt;&gt;"",CONCATENATE("..",D30,".",E30,". - ",T30),CONCATENATE(D30,". - ",T30))),"")</f>
         <v/>
       </c>
       <c r="B30" s="2">
@@ -7056,9 +7056,9 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H31&lt;&gt;"",IF(F31&lt;&gt;"",CONCATENATE("...",D31,".",E31,".",F31,". - ",T31),IF(E31&lt;&gt;"",CONCATENATE("..",D31,".",E31,". - ",T31),CONCATENATE(D31,". - ",T31))),"")</f>
         <v/>
       </c>
       <c r="B31" s="2">
@@ -7107,9 +7107,9 @@
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H32&lt;&gt;"",IF(F32&lt;&gt;"",CONCATENATE("...",D32,".",E32,".",F32,". - ",T32),IF(E32&lt;&gt;"",CONCATENATE("..",D32,".",E32,". - ",T32),CONCATENATE(D32,". - ",T32))),"")</f>
         <v/>
       </c>
       <c r="B32" s="2">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="40" t="str">
-        <f t="shared" ref="G32:G45" si="2">CONCATENATE("c",D32,E32,F32)</f>
+        <f t="shared" ref="G32:G45" si="1">CONCATENATE("c",D32,E32,F32)</f>
         <v>cA99</v>
       </c>
       <c r="H32" s="40"/>
@@ -7165,9 +7165,9 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H33&lt;&gt;"",IF(F33&lt;&gt;"",CONCATENATE("...",D33,".",E33,".",F33,". - ",T33),IF(E33&lt;&gt;"",CONCATENATE("..",D33,".",E33,". - ",T33),CONCATENATE(D33,". - ",T33))),"")</f>
         <v/>
       </c>
       <c r="B33" s="2">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H33" s="40"/>
@@ -7223,9 +7223,9 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H34&lt;&gt;"",IF(F34&lt;&gt;"",CONCATENATE("...",D34,".",E34,".",F34,". - ",T34),IF(E34&lt;&gt;"",CONCATENATE("..",D34,".",E34,". - ",T34),CONCATENATE(D34,". - ",T34))),"")</f>
         <v/>
       </c>
       <c r="B34" s="2">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H34" s="40"/>
@@ -7281,9 +7281,9 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H35&lt;&gt;"",IF(F35&lt;&gt;"",CONCATENATE("...",D35,".",E35,".",F35,". - ",T35),IF(E35&lt;&gt;"",CONCATENATE("..",D35,".",E35,". - ",T35),CONCATENATE(D35,". - ",T35))),"")</f>
         <v/>
       </c>
       <c r="B35" s="2">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H35" s="40"/>
@@ -7339,9 +7339,9 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H36&lt;&gt;"",IF(F36&lt;&gt;"",CONCATENATE("...",D36,".",E36,".",F36,". - ",T36),IF(E36&lt;&gt;"",CONCATENATE("..",D36,".",E36,". - ",T36),CONCATENATE(D36,". - ",T36))),"")</f>
         <v/>
       </c>
       <c r="B36" s="2">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H36" s="40"/>
@@ -7397,9 +7397,9 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H37&lt;&gt;"",IF(F37&lt;&gt;"",CONCATENATE("...",D37,".",E37,".",F37,". - ",T37),IF(E37&lt;&gt;"",CONCATENATE("..",D37,".",E37,". - ",T37),CONCATENATE(D37,". - ",T37))),"")</f>
         <v/>
       </c>
       <c r="B37" s="2">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H37" s="40"/>
@@ -7451,9 +7451,9 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H38&lt;&gt;"",IF(F38&lt;&gt;"",CONCATENATE("...",D38,".",E38,".",F38,". - ",T38),IF(E38&lt;&gt;"",CONCATENATE("..",D38,".",E38,". - ",T38),CONCATENATE(D38,". - ",T38))),"")</f>
         <v/>
       </c>
       <c r="B38" s="2">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H38" s="40"/>
@@ -7505,9 +7505,9 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H39&lt;&gt;"",IF(F39&lt;&gt;"",CONCATENATE("...",D39,".",E39,".",F39,". - ",T39),IF(E39&lt;&gt;"",CONCATENATE("..",D39,".",E39,". - ",T39),CONCATENATE(D39,". - ",T39))),"")</f>
         <v/>
       </c>
       <c r="B39" s="2">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H39" s="40"/>
@@ -7563,9 +7563,9 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H40&lt;&gt;"",IF(F40&lt;&gt;"",CONCATENATE("...",D40,".",E40,".",F40,". - ",T40),IF(E40&lt;&gt;"",CONCATENATE("..",D40,".",E40,". - ",T40),CONCATENATE(D40,". - ",T40))),"")</f>
         <v/>
       </c>
       <c r="B40" s="2">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H40" s="40"/>
@@ -7621,9 +7621,9 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H41&lt;&gt;"",IF(F41&lt;&gt;"",CONCATENATE("...",D41,".",E41,".",F41,". - ",T41),IF(E41&lt;&gt;"",CONCATENATE("..",D41,".",E41,". - ",T41),CONCATENATE(D41,". - ",T41))),"")</f>
         <v/>
       </c>
       <c r="B41" s="2">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H41" s="40"/>
@@ -7675,9 +7675,9 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H42&lt;&gt;"",IF(F42&lt;&gt;"",CONCATENATE("...",D42,".",E42,".",F42,". - ",T42),IF(E42&lt;&gt;"",CONCATENATE("..",D42,".",E42,". - ",T42),CONCATENATE(D42,". - ",T42))),"")</f>
         <v/>
       </c>
       <c r="B42" s="2">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H42" s="40"/>
@@ -7733,9 +7733,9 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H43&lt;&gt;"",IF(F43&lt;&gt;"",CONCATENATE("...",D43,".",E43,".",F43,". - ",T43),IF(E43&lt;&gt;"",CONCATENATE("..",D43,".",E43,". - ",T43),CONCATENATE(D43,". - ",T43))),"")</f>
         <v/>
       </c>
       <c r="B43" s="2">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H43" s="40"/>
@@ -7787,9 +7787,9 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H44&lt;&gt;"",IF(F44&lt;&gt;"",CONCATENATE("...",D44,".",E44,".",F44,". - ",T44),IF(E44&lt;&gt;"",CONCATENATE("..",D44,".",E44,". - ",T44),CONCATENATE(D44,". - ",T44))),"")</f>
         <v/>
       </c>
       <c r="B44" s="2">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H44" s="40"/>
@@ -7845,9 +7845,9 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H45&lt;&gt;"",IF(F45&lt;&gt;"",CONCATENATE("...",D45,".",E45,".",F45,". - ",T45),IF(E45&lt;&gt;"",CONCATENATE("..",D45,".",E45,". - ",T45),CONCATENATE(D45,". - ",T45))),"")</f>
         <v/>
       </c>
       <c r="B45" s="2">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H45" s="40"/>
@@ -7903,9 +7903,9 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H46&lt;&gt;"",IF(F46&lt;&gt;"",CONCATENATE("...",D46,".",E46,".",F46,". - ",T46),IF(E46&lt;&gt;"",CONCATENATE("..",D46,".",E46,". - ",T46),CONCATENATE(D46,". - ",T46))),"")</f>
         <v/>
       </c>
       <c r="B46" s="2">
@@ -7958,9 +7958,9 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H47&lt;&gt;"",IF(F47&lt;&gt;"",CONCATENATE("...",D47,".",E47,".",F47,". - ",T47),IF(E47&lt;&gt;"",CONCATENATE("..",D47,".",E47,". - ",T47),CONCATENATE(D47,". - ",T47))),"")</f>
         <v/>
       </c>
       <c r="B47" s="2">
@@ -8016,9 +8016,9 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H48&lt;&gt;"",IF(F48&lt;&gt;"",CONCATENATE("...",D48,".",E48,".",F48,". - ",T48),IF(E48&lt;&gt;"",CONCATENATE("..",D48,".",E48,". - ",T48),CONCATENATE(D48,". - ",T48))),"")</f>
         <v/>
       </c>
       <c r="B48" s="2">
@@ -8070,9 +8070,9 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H49&lt;&gt;"",IF(F49&lt;&gt;"",CONCATENATE("...",D49,".",E49,".",F49,". - ",T49),IF(E49&lt;&gt;"",CONCATENATE("..",D49,".",E49,". - ",T49),CONCATENATE(D49,". - ",T49))),"")</f>
         <v/>
       </c>
       <c r="B49" s="2">
@@ -8124,9 +8124,9 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H50&lt;&gt;"",IF(F50&lt;&gt;"",CONCATENATE("...",D50,".",E50,".",F50,". - ",T50),IF(E50&lt;&gt;"",CONCATENATE("..",D50,".",E50,". - ",T50),CONCATENATE(D50,". - ",T50))),"")</f>
         <v/>
       </c>
       <c r="B50" s="2">
@@ -8180,7 +8180,7 @@
     </row>
     <row r="51" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H51&lt;&gt;"",IF(F51&lt;&gt;"",CONCATENATE("...",D51,".",E51,".",F51,". - ",T51),IF(E51&lt;&gt;"",CONCATENATE("..",D51,".",E51,". - ",T51),CONCATENATE(D51,". - ",T51))),"")</f>
         <v/>
       </c>
       <c r="B51" s="2">
@@ -8244,9 +8244,9 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H52&lt;&gt;"",IF(F52&lt;&gt;"",CONCATENATE("...",D52,".",E52,".",F52,". - ",T52),IF(E52&lt;&gt;"",CONCATENATE("..",D52,".",E52,". - ",T52),CONCATENATE(D52,". - ",T52))),"")</f>
         <v>..A.07. - Respiratory infections</v>
       </c>
       <c r="B52" s="2">
@@ -8304,9 +8304,9 @@
       </c>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H53&lt;&gt;"",IF(F53&lt;&gt;"",CONCATENATE("...",D53,".",E53,".",F53,". - ",T53),IF(E53&lt;&gt;"",CONCATENATE("..",D53,".",E53,". - ",T53),CONCATENATE(D53,". - ",T53))),"")</f>
         <v>...A.07.a. - Lower respiratory infections</v>
       </c>
       <c r="B53" s="2">
@@ -8329,7 +8329,7 @@
         <v>cA07a</v>
       </c>
       <c r="H53" s="40" t="str">
-        <f t="shared" ref="H53:H54" si="3">CONCATENATE(D53,E53,F53)</f>
+        <f t="shared" ref="H53:H54" si="2">CONCATENATE(D53,E53,F53)</f>
         <v>A07a</v>
       </c>
       <c r="I53" s="5"/>
@@ -8373,9 +8373,9 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H54&lt;&gt;"",IF(F54&lt;&gt;"",CONCATENATE("...",D54,".",E54,".",F54,". - ",T54),IF(E54&lt;&gt;"",CONCATENATE("..",D54,".",E54,". - ",T54),CONCATENATE(D54,". - ",T54))),"")</f>
         <v>...A.07.b. - Upper respiratory infections</v>
       </c>
       <c r="B54" s="2">
@@ -8398,7 +8398,7 @@
         <v>cA07b</v>
       </c>
       <c r="H54" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>A07b</v>
       </c>
       <c r="I54" s="5"/>
@@ -8442,9 +8442,9 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H55&lt;&gt;"",IF(F55&lt;&gt;"",CONCATENATE("...",D55,".",E55,".",F55,". - ",T55),IF(E55&lt;&gt;"",CONCATENATE("..",D55,".",E55,". - ",T55),CONCATENATE(D55,". - ",T55))),"")</f>
         <v/>
       </c>
       <c r="B55" s="2">
@@ -8506,9 +8506,9 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H56&lt;&gt;"",IF(F56&lt;&gt;"",CONCATENATE("...",D56,".",E56,".",F56,". - ",T56),IF(E56&lt;&gt;"",CONCATENATE("..",D56,".",E56,". - ",T56),CONCATENATE(D56,". - ",T56))),"")</f>
         <v>..A.08. - Maternal conditions</v>
       </c>
       <c r="B56" s="2">
@@ -8570,7 +8570,7 @@
     </row>
     <row r="57" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H57&lt;&gt;"",IF(F57&lt;&gt;"",CONCATENATE("...",D57,".",E57,".",F57,". - ",T57),IF(E57&lt;&gt;"",CONCATENATE("..",D57,".",E57,". - ",T57),CONCATENATE(D57,". - ",T57))),"")</f>
         <v/>
       </c>
       <c r="B57" s="2">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="40" t="str">
-        <f t="shared" ref="G57:G62" si="4">CONCATENATE("c",D57,E57,F57)</f>
+        <f t="shared" ref="G57:G62" si="3">CONCATENATE("c",D57,E57,F57)</f>
         <v>cA08</v>
       </c>
       <c r="H57" s="40"/>
@@ -8634,9 +8634,9 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H58&lt;&gt;"",IF(F58&lt;&gt;"",CONCATENATE("...",D58,".",E58,".",F58,". - ",T58),IF(E58&lt;&gt;"",CONCATENATE("..",D58,".",E58,". - ",T58),CONCATENATE(D58,". - ",T58))),"")</f>
         <v/>
       </c>
       <c r="B58" s="2">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="H58" s="40"/>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="59" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H59&lt;&gt;"",IF(F59&lt;&gt;"",CONCATENATE("...",D59,".",E59,".",F59,". - ",T59),IF(E59&lt;&gt;"",CONCATENATE("..",D59,".",E59,". - ",T59),CONCATENATE(D59,". - ",T59))),"")</f>
         <v/>
       </c>
       <c r="B59" s="2">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="H59" s="40"/>
@@ -8764,9 +8764,9 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H60&lt;&gt;"",IF(F60&lt;&gt;"",CONCATENATE("...",D60,".",E60,".",F60,". - ",T60),IF(E60&lt;&gt;"",CONCATENATE("..",D60,".",E60,". - ",T60),CONCATENATE(D60,". - ",T60))),"")</f>
         <v/>
       </c>
       <c r="B60" s="2">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="H60" s="40"/>
@@ -8828,9 +8828,9 @@
       </c>
       <c r="X60" s="2"/>
     </row>
-    <row r="61" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H61&lt;&gt;"",IF(F61&lt;&gt;"",CONCATENATE("...",D61,".",E61,".",F61,". - ",T61),IF(E61&lt;&gt;"",CONCATENATE("..",D61,".",E61,". - ",T61),CONCATENATE(D61,". - ",T61))),"")</f>
         <v/>
       </c>
       <c r="B61" s="2">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="H61" s="40"/>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="62" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H62&lt;&gt;"",IF(F62&lt;&gt;"",CONCATENATE("...",D62,".",E62,".",F62,". - ",T62),IF(E62&lt;&gt;"",CONCATENATE("..",D62,".",E62,". - ",T62),CONCATENATE(D62,". - ",T62))),"")</f>
         <v/>
       </c>
       <c r="B62" s="2">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>cA08</v>
       </c>
       <c r="H62" s="40"/>
@@ -8956,9 +8956,9 @@
       </c>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H63&lt;&gt;"",IF(F63&lt;&gt;"",CONCATENATE("...",D63,".",E63,".",F63,". - ",T63),IF(E63&lt;&gt;"",CONCATENATE("..",D63,".",E63,". - ",T63),CONCATENATE(D63,". - ",T63))),"")</f>
         <v>..A.09. - Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
@@ -9020,7 +9020,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H64&lt;&gt;"",IF(F64&lt;&gt;"",CONCATENATE("...",D64,".",E64,".",F64,". - ",T64),IF(E64&lt;&gt;"",CONCATENATE("..",D64,".",E64,". - ",T64),CONCATENATE(D64,". - ",T64))),"")</f>
         <v/>
       </c>
       <c r="B64" s="2">
@@ -9078,7 +9078,7 @@
     </row>
     <row r="65" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H65&lt;&gt;"",IF(F65&lt;&gt;"",CONCATENATE("...",D65,".",E65,".",F65,". - ",T65),IF(E65&lt;&gt;"",CONCATENATE("..",D65,".",E65,". - ",T65),CONCATENATE(D65,". - ",T65))),"")</f>
         <v/>
       </c>
       <c r="B65" s="2">
@@ -9136,7 +9136,7 @@
     </row>
     <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H66&lt;&gt;"",IF(F66&lt;&gt;"",CONCATENATE("...",D66,".",E66,".",F66,". - ",T66),IF(E66&lt;&gt;"",CONCATENATE("..",D66,".",E66,". - ",T66),CONCATENATE(D66,". - ",T66))),"")</f>
         <v/>
       </c>
       <c r="B66" s="2">
@@ -9194,7 +9194,7 @@
     </row>
     <row r="67" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(H67&lt;&gt;"",IF(F67&lt;&gt;"",CONCATENATE("...",D67,".",E67,".",F67,". - ",T67),IF(E67&lt;&gt;"",CONCATENATE("..",D67,".",E67,". - ",T67),CONCATENATE(D67,". - ",T67))),"")</f>
         <v/>
       </c>
       <c r="B67" s="2">
@@ -9258,7 +9258,7 @@
     </row>
     <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="str">
-        <f t="shared" ref="A68:A131" si="5">IF(H68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("...",D68,".",E68,".",F68,". - ",T68),IF(E68&lt;&gt;"",CONCATENATE("..",D68,".",E68,". - ",T68),CONCATENATE(D68,". - ",T68))),"")</f>
+        <f>IF(H68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("...",D68,".",E68,".",F68,". - ",T68),IF(E68&lt;&gt;"",CONCATENATE("..",D68,".",E68,". - ",T68),CONCATENATE(D68,". - ",T68))),"")</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -9313,7 +9313,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H69&lt;&gt;"",IF(F69&lt;&gt;"",CONCATENATE("...",D69,".",E69,".",F69,". - ",T69),IF(E69&lt;&gt;"",CONCATENATE("..",D69,".",E69,". - ",T69),CONCATENATE(D69,". - ",T69))),"")</f>
         <v/>
       </c>
       <c r="B69" s="2">
@@ -9371,7 +9371,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H70&lt;&gt;"",IF(F70&lt;&gt;"",CONCATENATE("...",D70,".",E70,".",F70,". - ",T70),IF(E70&lt;&gt;"",CONCATENATE("..",D70,".",E70,". - ",T70),CONCATENATE(D70,". - ",T70))),"")</f>
         <v/>
       </c>
       <c r="B70" s="2">
@@ -9429,7 +9429,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H71&lt;&gt;"",IF(F71&lt;&gt;"",CONCATENATE("...",D71,".",E71,".",F71,". - ",T71),IF(E71&lt;&gt;"",CONCATENATE("..",D71,".",E71,". - ",T71),CONCATENATE(D71,". - ",T71))),"")</f>
         <v/>
       </c>
       <c r="B71" s="2">
@@ -9483,7 +9483,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H72&lt;&gt;"",IF(F72&lt;&gt;"",CONCATENATE("...",D72,".",E72,".",F72,". - ",T72),IF(E72&lt;&gt;"",CONCATENATE("..",D72,".",E72,". - ",T72),CONCATENATE(D72,". - ",T72))),"")</f>
         <v/>
       </c>
       <c r="B72" s="2">
@@ -9541,7 +9541,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H73&lt;&gt;"",IF(F73&lt;&gt;"",CONCATENATE("...",D73,".",E73,".",F73,". - ",T73),IF(E73&lt;&gt;"",CONCATENATE("..",D73,".",E73,". - ",T73),CONCATENATE(D73,". - ",T73))),"")</f>
         <v/>
       </c>
       <c r="B73" s="2">
@@ -9599,7 +9599,7 @@
     </row>
     <row r="74" spans="1:24" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H74&lt;&gt;"",IF(F74&lt;&gt;"",CONCATENATE("...",D74,".",E74,".",F74,". - ",T74),IF(E74&lt;&gt;"",CONCATENATE("..",D74,".",E74,". - ",T74),CONCATENATE(D74,". - ",T74))),"")</f>
         <v/>
       </c>
       <c r="B74" s="2">
@@ -9650,9 +9650,9 @@
       </c>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H75&lt;&gt;"",IF(F75&lt;&gt;"",CONCATENATE("...",D75,".",E75,".",F75,". - ",T75),IF(E75&lt;&gt;"",CONCATENATE("..",D75,".",E75,". - ",T75),CONCATENATE(D75,". - ",T75))),"")</f>
         <v>D. - Other Chronic</v>
       </c>
       <c r="B75" s="2"/>
@@ -9688,9 +9688,9 @@
       </c>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H76&lt;&gt;"",IF(F76&lt;&gt;"",CONCATENATE("...",D76,".",E76,".",F76,". - ",T76),IF(E76&lt;&gt;"",CONCATENATE("..",D76,".",E76,". - ",T76),CONCATENATE(D76,". - ",T76))),"")</f>
         <v>B. - Cancer/Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
@@ -9746,9 +9746,9 @@
       </c>
       <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H77&lt;&gt;"",IF(F77&lt;&gt;"",CONCATENATE("...",D77,".",E77,".",F77,". - ",T77),IF(E77&lt;&gt;"",CONCATENATE("..",D77,".",E77,". - ",T77),CONCATENATE(D77,". - ",T77))),"")</f>
         <v>..B.01. - Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="40" t="str">
-        <f t="shared" ref="G77:G86" si="6">CONCATENATE("c",D77,E77,F77)</f>
+        <f t="shared" ref="G77:G86" si="4">CONCATENATE("c",D77,E77,F77)</f>
         <v>cB01</v>
       </c>
       <c r="H77" s="40" t="str">
@@ -9807,7 +9807,7 @@
     </row>
     <row r="78" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H78&lt;&gt;"",IF(F78&lt;&gt;"",CONCATENATE("...",D78,".",E78,".",F78,". - ",T78),IF(E78&lt;&gt;"",CONCATENATE("..",D78,".",E78,". - ",T78),CONCATENATE(D78,". - ",T78))),"")</f>
         <v/>
       </c>
       <c r="B78" s="2">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB01</v>
       </c>
       <c r="H78" s="40"/>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H79&lt;&gt;"",IF(F79&lt;&gt;"",CONCATENATE("...",D79,".",E79,".",F79,". - ",T79),IF(E79&lt;&gt;"",CONCATENATE("..",D79,".",E79,". - ",T79),CONCATENATE(D79,". - ",T79))),"")</f>
         <v/>
       </c>
       <c r="B79" s="2">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB01</v>
       </c>
       <c r="H79" s="40"/>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H80&lt;&gt;"",IF(F80&lt;&gt;"",CONCATENATE("...",D80,".",E80,".",F80,". - ",T80),IF(E80&lt;&gt;"",CONCATENATE("..",D80,".",E80,". - ",T80),CONCATENATE(D80,". - ",T80))),"")</f>
         <v/>
       </c>
       <c r="B80" s="2">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB01</v>
       </c>
       <c r="H80" s="40"/>
@@ -9993,9 +9993,9 @@
       </c>
       <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H81&lt;&gt;"",IF(F81&lt;&gt;"",CONCATENATE("...",D81,".",E81,".",F81,". - ",T81),IF(E81&lt;&gt;"",CONCATENATE("..",D81,".",E81,". - ",T81),CONCATENATE(D81,". - ",T81))),"")</f>
         <v>..B.02. - Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
@@ -10012,11 +10012,11 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB02</v>
       </c>
       <c r="H81" s="40" t="str">
-        <f t="shared" ref="H81:H87" si="7">CONCATENATE(D81,E81,F81)</f>
+        <f t="shared" ref="H81:H87" si="5">CONCATENATE(D81,E81,F81)</f>
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
@@ -10060,9 +10060,9 @@
       </c>
       <c r="X81" s="2"/>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H82&lt;&gt;"",IF(F82&lt;&gt;"",CONCATENATE("...",D82,".",E82,".",F82,". - ",T82),IF(E82&lt;&gt;"",CONCATENATE("..",D82,".",E82,". - ",T82),CONCATENATE(D82,". - ",T82))),"")</f>
         <v>..B.03. - Stomach cancer</v>
       </c>
       <c r="B82" s="2">
@@ -10079,11 +10079,11 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB03</v>
       </c>
       <c r="H82" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
@@ -10129,9 +10129,9 @@
         <v>952</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H83&lt;&gt;"",IF(F83&lt;&gt;"",CONCATENATE("...",D83,".",E83,".",F83,". - ",T83),IF(E83&lt;&gt;"",CONCATENATE("..",D83,".",E83,". - ",T83),CONCATENATE(D83,". - ",T83))),"")</f>
         <v>..B.04. - Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
@@ -10148,11 +10148,11 @@
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB04</v>
       </c>
       <c r="H83" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
@@ -10196,9 +10196,9 @@
       </c>
       <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H84&lt;&gt;"",IF(F84&lt;&gt;"",CONCATENATE("...",D84,".",E84,".",F84,". - ",T84),IF(E84&lt;&gt;"",CONCATENATE("..",D84,".",E84,". - ",T84),CONCATENATE(D84,". - ",T84))),"")</f>
         <v>..B.05. - Liver cancer</v>
       </c>
       <c r="B84" s="2">
@@ -10215,11 +10215,11 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB05</v>
       </c>
       <c r="H84" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
@@ -10263,9 +10263,9 @@
       </c>
       <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H85&lt;&gt;"",IF(F85&lt;&gt;"",CONCATENATE("...",D85,".",E85,".",F85,". - ",T85),IF(E85&lt;&gt;"",CONCATENATE("..",D85,".",E85,". - ",T85),CONCATENATE(D85,". - ",T85))),"")</f>
         <v>..B.06. - Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
@@ -10282,11 +10282,11 @@
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB06</v>
       </c>
       <c r="H85" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
@@ -10330,9 +10330,9 @@
       </c>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H86&lt;&gt;"",IF(F86&lt;&gt;"",CONCATENATE("...",D86,".",E86,".",F86,". - ",T86),IF(E86&lt;&gt;"",CONCATENATE("..",D86,".",E86,". - ",T86),CONCATENATE(D86,". - ",T86))),"")</f>
         <v>..B.07. - Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
@@ -10349,11 +10349,11 @@
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>cB07</v>
       </c>
       <c r="H86" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
@@ -10397,9 +10397,9 @@
       </c>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H87&lt;&gt;"",IF(F87&lt;&gt;"",CONCATENATE("...",D87,".",E87,".",F87,". - ",T87),IF(E87&lt;&gt;"",CONCATENATE("..",D87,".",E87,". - ",T87),CONCATENATE(D87,". - ",T87))),"")</f>
         <v>..B.08. - Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
@@ -10419,7 +10419,7 @@
         <v>952</v>
       </c>
       <c r="H87" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>B08</v>
       </c>
       <c r="J87" s="17" t="s">
@@ -10458,7 +10458,7 @@
     </row>
     <row r="88" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H88&lt;&gt;"",IF(F88&lt;&gt;"",CONCATENATE("...",D88,".",E88,".",F88,". - ",T88),IF(E88&lt;&gt;"",CONCATENATE("..",D88,".",E88,". - ",T88),CONCATENATE(D88,". - ",T88))),"")</f>
         <v/>
       </c>
       <c r="B88" s="2">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="40" t="str">
-        <f t="shared" ref="G88:G103" si="8">CONCATENATE("c",D88,E88,F88)</f>
+        <f t="shared" ref="G88:G103" si="6">CONCATENATE("c",D88,E88,F88)</f>
         <v>cB08</v>
       </c>
       <c r="H88" s="40"/>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H89&lt;&gt;"",IF(F89&lt;&gt;"",CONCATENATE("...",D89,".",E89,".",F89,". - ",T89),IF(E89&lt;&gt;"",CONCATENATE("..",D89,".",E89,". - ",T89),CONCATENATE(D89,". - ",T89))),"")</f>
         <v/>
       </c>
       <c r="B89" s="2">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB08</v>
       </c>
       <c r="H89" s="40"/>
@@ -10584,9 +10584,9 @@
       </c>
       <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H90&lt;&gt;"",IF(F90&lt;&gt;"",CONCATENATE("...",D90,".",E90,".",F90,". - ",T90),IF(E90&lt;&gt;"",CONCATENATE("..",D90,".",E90,". - ",T90),CONCATENATE(D90,". - ",T90))),"")</f>
         <v>..B.09. - Breast cancer</v>
       </c>
       <c r="B90" s="2">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB09</v>
       </c>
       <c r="H90" s="40" t="str">
@@ -10651,9 +10651,9 @@
       </c>
       <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H91&lt;&gt;"",IF(F91&lt;&gt;"",CONCATENATE("...",D91,".",E91,".",F91,". - ",T91),IF(E91&lt;&gt;"",CONCATENATE("..",D91,".",E91,". - ",T91),CONCATENATE(D91,". - ",T91))),"")</f>
         <v>..B.10. - Uterine cancer</v>
       </c>
       <c r="B91" s="2"/>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H92&lt;&gt;"",IF(F92&lt;&gt;"",CONCATENATE("...",D92,".",E92,".",F92,". - ",T92),IF(E92&lt;&gt;"",CONCATENATE("..",D92,".",E92,". - ",T92),CONCATENATE(D92,". - ",T92))),"")</f>
         <v/>
       </c>
       <c r="B92" s="2">
@@ -10760,7 +10760,7 @@
     </row>
     <row r="93" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H93&lt;&gt;"",IF(F93&lt;&gt;"",CONCATENATE("...",D93,".",E93,".",F93,". - ",T93),IF(E93&lt;&gt;"",CONCATENATE("..",D93,".",E93,". - ",T93),CONCATENATE(D93,". - ",T93))),"")</f>
         <v/>
       </c>
       <c r="B93" s="2">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB10</v>
       </c>
       <c r="H93" s="40"/>
@@ -10822,9 +10822,9 @@
       </c>
       <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H94&lt;&gt;"",IF(F94&lt;&gt;"",CONCATENATE("...",D94,".",E94,".",F94,". - ",T94),IF(E94&lt;&gt;"",CONCATENATE("..",D94,".",E94,". - ",T94),CONCATENATE(D94,". - ",T94))),"")</f>
         <v>..B.11. - Ovary cancer</v>
       </c>
       <c r="B94" s="2">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB11</v>
       </c>
       <c r="H94" s="40" t="str">
@@ -10889,9 +10889,9 @@
       </c>
       <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H95&lt;&gt;"",IF(F95&lt;&gt;"",CONCATENATE("...",D95,".",E95,".",F95,". - ",T95),IF(E95&lt;&gt;"",CONCATENATE("..",D95,".",E95,". - ",T95),CONCATENATE(D95,". - ",T95))),"")</f>
         <v>..B.12. - Prostate cancer</v>
       </c>
       <c r="B95" s="2">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB12</v>
       </c>
       <c r="H95" s="40" t="str">
@@ -10958,7 +10958,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H96&lt;&gt;"",IF(F96&lt;&gt;"",CONCATENATE("...",D96,".",E96,".",F96,". - ",T96),IF(E96&lt;&gt;"",CONCATENATE("..",D96,".",E96,". - ",T96),CONCATENATE(D96,". - ",T96))),"")</f>
         <v/>
       </c>
       <c r="B96" s="2">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB99</v>
       </c>
       <c r="H96" s="40"/>
@@ -11020,9 +11020,9 @@
       </c>
       <c r="X96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H97&lt;&gt;"",IF(F97&lt;&gt;"",CONCATENATE("...",D97,".",E97,".",F97,". - ",T97),IF(E97&lt;&gt;"",CONCATENATE("..",D97,".",E97,". - ",T97),CONCATENATE(D97,". - ",T97))),"")</f>
         <v>..B.13. - Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB13</v>
       </c>
       <c r="H97" s="40" t="str">
@@ -11087,9 +11087,9 @@
       </c>
       <c r="X97" s="2"/>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H98&lt;&gt;"",IF(F98&lt;&gt;"",CONCATENATE("...",D98,".",E98,".",F98,". - ",T98),IF(E98&lt;&gt;"",CONCATENATE("..",D98,".",E98,". - ",T98),CONCATENATE(D98,". - ",T98))),"")</f>
         <v>..B.14. - Bladder cancer</v>
       </c>
       <c r="B98" s="2">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB14</v>
       </c>
       <c r="H98" s="40" t="str">
@@ -11154,9 +11154,9 @@
       </c>
       <c r="X98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H99&lt;&gt;"",IF(F99&lt;&gt;"",CONCATENATE("...",D99,".",E99,".",F99,". - ",T99),IF(E99&lt;&gt;"",CONCATENATE("..",D99,".",E99,". - ",T99),CONCATENATE(D99,". - ",T99))),"")</f>
         <v>..B.15. - Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
@@ -11173,7 +11173,7 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB15</v>
       </c>
       <c r="H99" s="40" t="str">
@@ -11223,7 +11223,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H100&lt;&gt;"",IF(F100&lt;&gt;"",CONCATENATE("...",D100,".",E100,".",F100,". - ",T100),IF(E100&lt;&gt;"",CONCATENATE("..",D100,".",E100,". - ",T100),CONCATENATE(D100,". - ",T100))),"")</f>
         <v/>
       </c>
       <c r="B100" s="2">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB99</v>
       </c>
       <c r="H100" s="40"/>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H101&lt;&gt;"",IF(F101&lt;&gt;"",CONCATENATE("...",D101,".",E101,".",F101,". - ",T101),IF(E101&lt;&gt;"",CONCATENATE("..",D101,".",E101,". - ",T101),CONCATENATE(D101,". - ",T101))),"")</f>
         <v/>
       </c>
       <c r="B101" s="2">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB99</v>
       </c>
       <c r="H101" s="40"/>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H102&lt;&gt;"",IF(F102&lt;&gt;"",CONCATENATE("...",D102,".",E102,".",F102,". - ",T102),IF(E102&lt;&gt;"",CONCATENATE("..",D102,".",E102,". - ",T102),CONCATENATE(D102,". - ",T102))),"")</f>
         <v/>
       </c>
       <c r="B102" s="2">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB99</v>
       </c>
       <c r="H102" s="40"/>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H103&lt;&gt;"",IF(F103&lt;&gt;"",CONCATENATE("...",D103,".",E103,".",F103,". - ",T103),IF(E103&lt;&gt;"",CONCATENATE("..",D103,".",E103,". - ",T103),CONCATENATE(D103,". - ",T103))),"")</f>
         <v/>
       </c>
       <c r="B103" s="2">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>cB99</v>
       </c>
       <c r="H103" s="40"/>
@@ -11473,9 +11473,9 @@
       </c>
       <c r="X103" s="2"/>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H104&lt;&gt;"",IF(F104&lt;&gt;"",CONCATENATE("...",D104,".",E104,".",F104,". - ",T104),IF(E104&lt;&gt;"",CONCATENATE("..",D104,".",E104,". - ",T104),CONCATENATE(D104,". - ",T104))),"")</f>
         <v>..B.16. - Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
@@ -11493,7 +11493,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="40"/>
       <c r="H104" s="40" t="str">
-        <f t="shared" ref="H104:H109" si="9">CONCATENATE(D104,E104,F104)</f>
+        <f t="shared" ref="H104:H109" si="7">CONCATENATE(D104,E104,F104)</f>
         <v>B16</v>
       </c>
       <c r="I104" s="5"/>
@@ -11533,9 +11533,9 @@
       </c>
       <c r="X104" s="2"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H105&lt;&gt;"",IF(F105&lt;&gt;"",CONCATENATE("...",D105,".",E105,".",F105,". - ",T105),IF(E105&lt;&gt;"",CONCATENATE("..",D105,".",E105,". - ",T105),CONCATENATE(D105,". - ",T105))),"")</f>
         <v>...B.16.a. - Hodgkin lymphoma</v>
       </c>
       <c r="B105" s="2">
@@ -11554,11 +11554,11 @@
         <v>1126</v>
       </c>
       <c r="G105" s="40" t="str">
-        <f t="shared" ref="G105:G111" si="10">CONCATENATE("c",D105,E105,F105)</f>
+        <f t="shared" ref="G105:G111" si="8">CONCATENATE("c",D105,E105,F105)</f>
         <v>cB16a</v>
       </c>
       <c r="H105" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>B16a</v>
       </c>
       <c r="I105" s="5"/>
@@ -11598,9 +11598,9 @@
       </c>
       <c r="X105" s="2"/>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H106&lt;&gt;"",IF(F106&lt;&gt;"",CONCATENATE("...",D106,".",E106,".",F106,". - ",T106),IF(E106&lt;&gt;"",CONCATENATE("..",D106,".",E106,". - ",T106),CONCATENATE(D106,". - ",T106))),"")</f>
         <v>...B.16.b. - Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
@@ -11619,11 +11619,11 @@
         <v>1127</v>
       </c>
       <c r="G106" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>cB16b</v>
       </c>
       <c r="H106" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>B16b</v>
       </c>
       <c r="I106" s="5"/>
@@ -11663,9 +11663,9 @@
       </c>
       <c r="X106" s="2"/>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H107&lt;&gt;"",IF(F107&lt;&gt;"",CONCATENATE("...",D107,".",E107,".",F107,". - ",T107),IF(E107&lt;&gt;"",CONCATENATE("..",D107,".",E107,". - ",T107),CONCATENATE(D107,". - ",T107))),"")</f>
         <v>...B.16.c. - Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
@@ -11684,11 +11684,11 @@
         <v>1130</v>
       </c>
       <c r="G107" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>cB16c</v>
       </c>
       <c r="H107" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>B16c</v>
       </c>
       <c r="I107" s="5"/>
@@ -11728,9 +11728,9 @@
       </c>
       <c r="X107" s="2"/>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H108&lt;&gt;"",IF(F108&lt;&gt;"",CONCATENATE("...",D108,".",E108,".",F108,". - ",T108),IF(E108&lt;&gt;"",CONCATENATE("..",D108,".",E108,". - ",T108),CONCATENATE(D108,". - ",T108))),"")</f>
         <v>..B.17. - Leukaemia</v>
       </c>
       <c r="B108" s="2">
@@ -11747,11 +11747,11 @@
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>cB17</v>
       </c>
       <c r="H108" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>B17</v>
       </c>
       <c r="I108" s="5"/>
@@ -11791,9 +11791,9 @@
       </c>
       <c r="X108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H109&lt;&gt;"",IF(F109&lt;&gt;"",CONCATENATE("...",D109,".",E109,".",F109,". - ",T109),IF(E109&lt;&gt;"",CONCATENATE("..",D109,".",E109,". - ",T109),CONCATENATE(D109,". - ",T109))),"")</f>
         <v>..B.99. - Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
@@ -11810,11 +11810,11 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H109" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -11856,7 +11856,7 @@
     </row>
     <row r="110" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H110&lt;&gt;"",IF(F110&lt;&gt;"",CONCATENATE("...",D110,".",E110,".",F110,". - ",T110),IF(E110&lt;&gt;"",CONCATENATE("..",D110,".",E110,". - ",T110),CONCATENATE(D110,". - ",T110))),"")</f>
         <v/>
       </c>
       <c r="B110" s="2">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>cD99</v>
       </c>
       <c r="H110" s="40"/>
@@ -11912,9 +11912,9 @@
       </c>
       <c r="X110" s="2"/>
     </row>
-    <row r="111" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H111&lt;&gt;"",IF(F111&lt;&gt;"",CONCATENATE("...",D111,".",E111,".",F111,". - ",T111),IF(E111&lt;&gt;"",CONCATENATE("..",D111,".",E111,". - ",T111),CONCATENATE(D111,". - ",T111))),"")</f>
         <v>..D.01. - Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>cD01</v>
       </c>
       <c r="H111" s="40" t="str">
@@ -11985,9 +11985,9 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H112&lt;&gt;"",IF(F112&lt;&gt;"",CONCATENATE("...",D112,".",E112,".",F112,". - ",T112),IF(E112&lt;&gt;"",CONCATENATE("..",D112,".",E112,". - ",T112),CONCATENATE(D112,". - ",T112))),"")</f>
         <v>..D.02. - Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
@@ -12049,7 +12049,7 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H113&lt;&gt;"",IF(F113&lt;&gt;"",CONCATENATE("...",D113,".",E113,".",F113,". - ",T113),IF(E113&lt;&gt;"",CONCATENATE("..",D113,".",E113,". - ",T113),CONCATENATE(D113,". - ",T113))),"")</f>
         <v/>
       </c>
       <c r="B113" s="2">
@@ -12109,7 +12109,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H114&lt;&gt;"",IF(F114&lt;&gt;"",CONCATENATE("...",D114,".",E114,".",F114,". - ",T114),IF(E114&lt;&gt;"",CONCATENATE("..",D114,".",E114,". - ",T114),CONCATENATE(D114,". - ",T114))),"")</f>
         <v/>
       </c>
       <c r="B114" s="2">
@@ -12169,7 +12169,7 @@
     </row>
     <row r="115" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H115&lt;&gt;"",IF(F115&lt;&gt;"",CONCATENATE("...",D115,".",E115,".",F115,". - ",T115),IF(E115&lt;&gt;"",CONCATENATE("..",D115,".",E115,". - ",T115),CONCATENATE(D115,". - ",T115))),"")</f>
         <v/>
       </c>
       <c r="B115" s="2">
@@ -12227,9 +12227,9 @@
       </c>
       <c r="X115" s="2"/>
     </row>
-    <row r="116" spans="1:24" ht="33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A116" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H116&lt;&gt;"",IF(F116&lt;&gt;"",CONCATENATE("...",D116,".",E116,".",F116,". - ",T116),IF(E116&lt;&gt;"",CONCATENATE("..",D116,".",E116,". - ",T116),CONCATENATE(D116,". - ",T116))),"")</f>
         <v/>
       </c>
       <c r="B116" s="2">
@@ -12289,7 +12289,7 @@
     </row>
     <row r="117" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H117&lt;&gt;"",IF(F117&lt;&gt;"",CONCATENATE("...",D117,".",E117,".",F117,". - ",T117),IF(E117&lt;&gt;"",CONCATENATE("..",D117,".",E117,". - ",T117),CONCATENATE(D117,". - ",T117))),"")</f>
         <v/>
       </c>
       <c r="B117" s="2">
@@ -12346,9 +12346,9 @@
       </c>
       <c r="X117" s="2"/>
     </row>
-    <row r="118" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H118&lt;&gt;"",IF(F118&lt;&gt;"",CONCATENATE("...",D118,".",E118,".",F118,". - ",T118),IF(E118&lt;&gt;"",CONCATENATE("..",D118,".",E118,". - ",T118),CONCATENATE(D118,". - ",T118))),"")</f>
         <v xml:space="preserve">..D.03. - Mental Health disorders </v>
       </c>
       <c r="B118" s="2"/>
@@ -12390,9 +12390,9 @@
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H119&lt;&gt;"",IF(F119&lt;&gt;"",CONCATENATE("...",D119,".",E119,".",F119,". - ",T119),IF(E119&lt;&gt;"",CONCATENATE("..",D119,".",E119,". - ",T119),CONCATENATE(D119,". - ",T119))),"")</f>
         <v xml:space="preserve">..D.04. - Substance use </v>
       </c>
       <c r="B119" s="2"/>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H120&lt;&gt;"",IF(F120&lt;&gt;"",CONCATENATE("...",D120,".",E120,".",F120,". - ",T120),IF(E120&lt;&gt;"",CONCATENATE("..",D120,".",E120,". - ",T120),CONCATENATE(D120,". - ",T120))),"")</f>
         <v/>
       </c>
       <c r="B120" s="2"/>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H121&lt;&gt;"",IF(F121&lt;&gt;"",CONCATENATE("...",D121,".",E121,".",F121,". - ",T121),IF(E121&lt;&gt;"",CONCATENATE("..",D121,".",E121,". - ",T121),CONCATENATE(D121,". - ",T121))),"")</f>
         <v/>
       </c>
       <c r="B121" s="2">
@@ -12514,7 +12514,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H122&lt;&gt;"",IF(F122&lt;&gt;"",CONCATENATE("...",D122,".",E122,".",F122,". - ",T122),IF(E122&lt;&gt;"",CONCATENATE("..",D122,".",E122,". - ",T122),CONCATENATE(D122,". - ",T122))),"")</f>
         <v/>
       </c>
       <c r="B122" s="2">
@@ -12574,7 +12574,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H123&lt;&gt;"",IF(F123&lt;&gt;"",CONCATENATE("...",D123,".",E123,".",F123,". - ",T123),IF(E123&lt;&gt;"",CONCATENATE("..",D123,".",E123,". - ",T123),CONCATENATE(D123,". - ",T123))),"")</f>
         <v/>
       </c>
       <c r="B123" s="2">
@@ -12634,7 +12634,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H124&lt;&gt;"",IF(F124&lt;&gt;"",CONCATENATE("...",D124,".",E124,".",F124,". - ",T124),IF(E124&lt;&gt;"",CONCATENATE("..",D124,".",E124,". - ",T124),CONCATENATE(D124,". - ",T124))),"")</f>
         <v/>
       </c>
       <c r="B124" s="2">
@@ -12694,7 +12694,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H125&lt;&gt;"",IF(F125&lt;&gt;"",CONCATENATE("...",D125,".",E125,".",F125,". - ",T125),IF(E125&lt;&gt;"",CONCATENATE("..",D125,".",E125,". - ",T125),CONCATENATE(D125,". - ",T125))),"")</f>
         <v/>
       </c>
       <c r="B125" s="2">
@@ -12756,9 +12756,9 @@
       </c>
       <c r="X125" s="2"/>
     </row>
-    <row r="126" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H126&lt;&gt;"",IF(F126&lt;&gt;"",CONCATENATE("...",D126,".",E126,".",F126,". - ",T126),IF(E126&lt;&gt;"",CONCATENATE("..",D126,".",E126,". - ",T126),CONCATENATE(D126,". - ",T126))),"")</f>
         <v>...D.04.a. - Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
@@ -12827,7 +12827,7 @@
     </row>
     <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H127&lt;&gt;"",IF(F127&lt;&gt;"",CONCATENATE("...",D127,".",E127,".",F127,". - ",T127),IF(E127&lt;&gt;"",CONCATENATE("..",D127,".",E127,". - ",T127),CONCATENATE(D127,". - ",T127))),"")</f>
         <v/>
       </c>
       <c r="B127" s="2">
@@ -12878,9 +12878,9 @@
       </c>
       <c r="X127" s="2"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H128&lt;&gt;"",IF(F128&lt;&gt;"",CONCATENATE("...",D128,".",E128,".",F128,". - ",T128),IF(E128&lt;&gt;"",CONCATENATE("..",D128,".",E128,". - ",T128),CONCATENATE(D128,". - ",T128))),"")</f>
         <v>...D.04.b. - Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
@@ -12899,7 +12899,7 @@
         <v>1127</v>
       </c>
       <c r="G128" s="40" t="str">
-        <f t="shared" ref="G128:G135" si="11">CONCATENATE("c",D128,E128,F128)</f>
+        <f t="shared" ref="G128:G135" si="9">CONCATENATE("c",D128,E128,F128)</f>
         <v>cD04b</v>
       </c>
       <c r="H128" s="40" t="str">
@@ -12943,9 +12943,9 @@
       </c>
       <c r="X128" s="2"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H129&lt;&gt;"",IF(F129&lt;&gt;"",CONCATENATE("...",D129,".",E129,".",F129,". - ",T129),IF(E129&lt;&gt;"",CONCATENATE("..",D129,".",E129,". - ",T129),CONCATENATE(D129,". - ",T129))),"")</f>
         <v>...D.04.c. - Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
@@ -12964,7 +12964,7 @@
         <v>1130</v>
       </c>
       <c r="G129" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>cD04c</v>
       </c>
       <c r="H129" s="40" t="str">
@@ -13008,9 +13008,9 @@
       </c>
       <c r="X129" s="2"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H130&lt;&gt;"",IF(F130&lt;&gt;"",CONCATENATE("...",D130,".",E130,".",F130,". - ",T130),IF(E130&lt;&gt;"",CONCATENATE("..",D130,".",E130,". - ",T130),CONCATENATE(D130,". - ",T130))),"")</f>
         <v>...D.04.d. - Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
@@ -13029,7 +13029,7 @@
         <v>1154</v>
       </c>
       <c r="G130" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>cD04d</v>
       </c>
       <c r="H130" s="40" t="str">
@@ -13075,7 +13075,7 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(H131&lt;&gt;"",IF(F131&lt;&gt;"",CONCATENATE("...",D131,".",E131,".",F131,". - ",T131),IF(E131&lt;&gt;"",CONCATENATE("..",D131,".",E131,". - ",T131),CONCATENATE(D131,". - ",T131))),"")</f>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>cD04</v>
       </c>
       <c r="H131" s="40"/>
@@ -13130,7 +13130,7 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="str">
-        <f t="shared" ref="A132:A195" si="12">IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("...",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("..",D132,".",E132,". - ",T132),CONCATENATE(D132,". - ",T132))),"")</f>
+        <f>IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("...",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("..",D132,".",E132,". - ",T132),CONCATENATE(D132,". - ",T132))),"")</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>cD04</v>
       </c>
       <c r="H132" s="40"/>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H133&lt;&gt;"",IF(F133&lt;&gt;"",CONCATENATE("...",D133,".",E133,".",F133,". - ",T133),IF(E133&lt;&gt;"",CONCATENATE("..",D133,".",E133,". - ",T133),CONCATENATE(D133,". - ",T133))),"")</f>
         <v/>
       </c>
       <c r="B133" s="2">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>cD03</v>
       </c>
       <c r="H133" s="40"/>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H134&lt;&gt;"",IF(F134&lt;&gt;"",CONCATENATE("...",D134,".",E134,".",F134,". - ",T134),IF(E134&lt;&gt;"",CONCATENATE("..",D134,".",E134,". - ",T134),CONCATENATE(D134,". - ",T134))),"")</f>
         <v/>
       </c>
       <c r="B134" s="2">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>cD03</v>
       </c>
       <c r="H134" s="40"/>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H135&lt;&gt;"",IF(F135&lt;&gt;"",CONCATENATE("...",D135,".",E135,".",F135,". - ",T135),IF(E135&lt;&gt;"",CONCATENATE("..",D135,".",E135,". - ",T135),CONCATENATE(D135,". - ",T135))),"")</f>
         <v/>
       </c>
       <c r="B135" s="2">
@@ -13329,7 +13329,7 @@
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>cD03</v>
       </c>
       <c r="H135" s="40"/>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H136&lt;&gt;"",IF(F136&lt;&gt;"",CONCATENATE("...",D136,".",E136,".",F136,". - ",T136),IF(E136&lt;&gt;"",CONCATENATE("..",D136,".",E136,". - ",T136),CONCATENATE(D136,". - ",T136))),"")</f>
         <v/>
       </c>
       <c r="B136" s="2">
@@ -13417,7 +13417,7 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H137&lt;&gt;"",IF(F137&lt;&gt;"",CONCATENATE("...",D137,".",E137,".",F137,". - ",T137),IF(E137&lt;&gt;"",CONCATENATE("..",D137,".",E137,". - ",T137),CONCATENATE(D137,". - ",T137))),"")</f>
         <v/>
       </c>
       <c r="B137" s="2">
@@ -13473,7 +13473,7 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H138&lt;&gt;"",IF(F138&lt;&gt;"",CONCATENATE("...",D138,".",E138,".",F138,". - ",T138),IF(E138&lt;&gt;"",CONCATENATE("..",D138,".",E138,". - ",T138),CONCATENATE(D138,". - ",T138))),"")</f>
         <v/>
       </c>
       <c r="B138" s="2">
@@ -13529,7 +13529,7 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H139&lt;&gt;"",IF(F139&lt;&gt;"",CONCATENATE("...",D139,".",E139,".",F139,". - ",T139),IF(E139&lt;&gt;"",CONCATENATE("..",D139,".",E139,". - ",T139),CONCATENATE(D139,". - ",T139))),"")</f>
         <v/>
       </c>
       <c r="B139" s="2">
@@ -13585,7 +13585,7 @@
     </row>
     <row r="140" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H140&lt;&gt;"",IF(F140&lt;&gt;"",CONCATENATE("...",D140,".",E140,".",F140,". - ",T140),IF(E140&lt;&gt;"",CONCATENATE("..",D140,".",E140,". - ",T140),CONCATENATE(D140,". - ",T140))),"")</f>
         <v/>
       </c>
       <c r="B140" s="2">
@@ -13641,7 +13641,7 @@
     </row>
     <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H141&lt;&gt;"",IF(F141&lt;&gt;"",CONCATENATE("...",D141,".",E141,".",F141,". - ",T141),IF(E141&lt;&gt;"",CONCATENATE("..",D141,".",E141,". - ",T141),CONCATENATE(D141,". - ",T141))),"")</f>
         <v/>
       </c>
       <c r="B141" s="2">
@@ -13700,7 +13700,7 @@
     </row>
     <row r="142" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H142&lt;&gt;"",IF(F142&lt;&gt;"",CONCATENATE("...",D142,".",E142,".",F142,". - ",T142),IF(E142&lt;&gt;"",CONCATENATE("..",D142,".",E142,". - ",T142),CONCATENATE(D142,". - ",T142))),"")</f>
         <v>..D.05. - Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
@@ -13717,7 +13717,7 @@
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="40" t="str">
-        <f t="shared" ref="G142:G148" si="13">CONCATENATE("c",D142,E142,F142)</f>
+        <f t="shared" ref="G142:G148" si="10">CONCATENATE("c",D142,E142,F142)</f>
         <v>cD05</v>
       </c>
       <c r="H142" s="40" t="str">
@@ -13763,7 +13763,7 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H143&lt;&gt;"",IF(F143&lt;&gt;"",CONCATENATE("...",D143,".",E143,".",F143,". - ",T143),IF(E143&lt;&gt;"",CONCATENATE("..",D143,".",E143,". - ",T143),CONCATENATE(D143,". - ",T143))),"")</f>
         <v/>
       </c>
       <c r="B143" s="2">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>cD06</v>
       </c>
       <c r="H143" s="40"/>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H144&lt;&gt;"",IF(F144&lt;&gt;"",CONCATENATE("...",D144,".",E144,".",F144,". - ",T144),IF(E144&lt;&gt;"",CONCATENATE("..",D144,".",E144,". - ",T144),CONCATENATE(D144,". - ",T144))),"")</f>
         <v/>
       </c>
       <c r="B144" s="2">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>cD06</v>
       </c>
       <c r="H144" s="40"/>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H145&lt;&gt;"",IF(F145&lt;&gt;"",CONCATENATE("...",D145,".",E145,".",F145,". - ",T145),IF(E145&lt;&gt;"",CONCATENATE("..",D145,".",E145,". - ",T145),CONCATENATE(D145,". - ",T145))),"")</f>
         <v/>
       </c>
       <c r="B145" s="2">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>cD06</v>
       </c>
       <c r="H145" s="40"/>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H146&lt;&gt;"",IF(F146&lt;&gt;"",CONCATENATE("...",D146,".",E146,".",F146,". - ",T146),IF(E146&lt;&gt;"",CONCATENATE("..",D146,".",E146,". - ",T146),CONCATENATE(D146,". - ",T146))),"")</f>
         <v/>
       </c>
       <c r="B146" s="2">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>cD06</v>
       </c>
       <c r="H146" s="40"/>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H147&lt;&gt;"",IF(F147&lt;&gt;"",CONCATENATE("...",D147,".",E147,".",F147,". - ",T147),IF(E147&lt;&gt;"",CONCATENATE("..",D147,".",E147,". - ",T147),CONCATENATE(D147,". - ",T147))),"")</f>
         <v/>
       </c>
       <c r="B147" s="2">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>cD06</v>
       </c>
       <c r="H147" s="40"/>
@@ -14053,9 +14053,9 @@
       </c>
       <c r="X147" s="2"/>
     </row>
-    <row r="148" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H148&lt;&gt;"",IF(F148&lt;&gt;"",CONCATENATE("...",D148,".",E148,".",F148,". - ",T148),IF(E148&lt;&gt;"",CONCATENATE("..",D148,".",E148,". - ",T148),CONCATENATE(D148,". - ",T148))),"")</f>
         <v>..D.06. - Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
@@ -14072,7 +14072,7 @@
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>cD06</v>
       </c>
       <c r="H148" s="40" t="str">
@@ -14122,7 +14122,7 @@
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H149&lt;&gt;"",IF(F149&lt;&gt;"",CONCATENATE("...",D149,".",E149,".",F149,". - ",T149),IF(E149&lt;&gt;"",CONCATENATE("..",D149,".",E149,". - ",T149),CONCATENATE(D149,". - ",T149))),"")</f>
         <v/>
       </c>
       <c r="B149" s="2">
@@ -14177,7 +14177,7 @@
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H150&lt;&gt;"",IF(F150&lt;&gt;"",CONCATENATE("...",D150,".",E150,".",F150,". - ",T150),IF(E150&lt;&gt;"",CONCATENATE("..",D150,".",E150,". - ",T150),CONCATENATE(D150,". - ",T150))),"")</f>
         <v/>
       </c>
       <c r="B150" s="2">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="40" t="str">
-        <f t="shared" ref="G150:G156" si="14">CONCATENATE("c",D150,E150,F150)</f>
+        <f t="shared" ref="G150:G156" si="11">CONCATENATE("c",D150,E150,F150)</f>
         <v>cD99</v>
       </c>
       <c r="H150" s="40"/>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H151&lt;&gt;"",IF(F151&lt;&gt;"",CONCATENATE("...",D151,".",E151,".",F151,". - ",T151),IF(E151&lt;&gt;"",CONCATENATE("..",D151,".",E151,". - ",T151),CONCATENATE(D151,". - ",T151))),"")</f>
         <v/>
       </c>
       <c r="B151" s="2">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>cD99</v>
       </c>
       <c r="H151" s="40"/>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H152&lt;&gt;"",IF(F152&lt;&gt;"",CONCATENATE("...",D152,".",E152,".",F152,". - ",T152),IF(E152&lt;&gt;"",CONCATENATE("..",D152,".",E152,". - ",T152),CONCATENATE(D152,". - ",T152))),"")</f>
         <v/>
       </c>
       <c r="B152" s="2">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>cD99</v>
       </c>
       <c r="H152" s="40"/>
@@ -14345,7 +14345,7 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H153&lt;&gt;"",IF(F153&lt;&gt;"",CONCATENATE("...",D153,".",E153,".",F153,". - ",T153),IF(E153&lt;&gt;"",CONCATENATE("..",D153,".",E153,". - ",T153),CONCATENATE(D153,". - ",T153))),"")</f>
         <v/>
       </c>
       <c r="B153" s="2">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>cD99</v>
       </c>
       <c r="H153" s="40"/>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H154&lt;&gt;"",IF(F154&lt;&gt;"",CONCATENATE("...",D154,".",E154,".",F154,". - ",T154),IF(E154&lt;&gt;"",CONCATENATE("..",D154,".",E154,". - ",T154),CONCATENATE(D154,". - ",T154))),"")</f>
         <v/>
       </c>
       <c r="B154" s="2">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>cD99</v>
       </c>
       <c r="H154" s="40"/>
@@ -14457,7 +14457,7 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H155&lt;&gt;"",IF(F155&lt;&gt;"",CONCATENATE("...",D155,".",E155,".",F155,". - ",T155),IF(E155&lt;&gt;"",CONCATENATE("..",D155,".",E155,". - ",T155),CONCATENATE(D155,". - ",T155))),"")</f>
         <v/>
       </c>
       <c r="B155" s="2">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>cD99</v>
       </c>
       <c r="H155" s="40"/>
@@ -14513,7 +14513,7 @@
     </row>
     <row r="156" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H156&lt;&gt;"",IF(F156&lt;&gt;"",CONCATENATE("...",D156,".",E156,".",F156,". - ",T156),IF(E156&lt;&gt;"",CONCATENATE("..",D156,".",E156,". - ",T156),CONCATENATE(D156,". - ",T156))),"")</f>
         <v/>
       </c>
       <c r="B156" s="2">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>cD99</v>
       </c>
       <c r="H156" s="40"/>
@@ -14569,9 +14569,9 @@
         <v>615</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H157&lt;&gt;"",IF(F157&lt;&gt;"",CONCATENATE("...",D157,".",E157,".",F157,". - ",T157),IF(E157&lt;&gt;"",CONCATENATE("..",D157,".",E157,". - ",T157),CONCATENATE(D157,". - ",T157))),"")</f>
         <v>C. - Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
@@ -14629,7 +14629,7 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H158&lt;&gt;"",IF(F158&lt;&gt;"",CONCATENATE("...",D158,".",E158,".",F158,". - ",T158),IF(E158&lt;&gt;"",CONCATENATE("..",D158,".",E158,". - ",T158),CONCATENATE(D158,". - ",T158))),"")</f>
         <v/>
       </c>
       <c r="B158" s="2">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="40" t="str">
-        <f t="shared" ref="G158:G164" si="15">CONCATENATE("c",D158,E158,F158)</f>
+        <f t="shared" ref="G158:G164" si="12">CONCATENATE("c",D158,E158,F158)</f>
         <v>cC99</v>
       </c>
       <c r="H158" s="40"/>
@@ -14691,9 +14691,9 @@
       </c>
       <c r="X158" s="2"/>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H159&lt;&gt;"",IF(F159&lt;&gt;"",CONCATENATE("...",D159,".",E159,".",F159,". - ",T159),IF(E159&lt;&gt;"",CONCATENATE("..",D159,".",E159,". - ",T159),CONCATENATE(D159,". - ",T159))),"")</f>
         <v>..C.01. - Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
@@ -14710,11 +14710,11 @@
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>cC01</v>
       </c>
       <c r="H159" s="40" t="str">
-        <f t="shared" ref="H159:H164" si="16">CONCATENATE(D159,E159,F159)</f>
+        <f t="shared" ref="H159:H164" si="13">CONCATENATE(D159,E159,F159)</f>
         <v>C01</v>
       </c>
       <c r="I159" s="5"/>
@@ -14758,9 +14758,9 @@
       </c>
       <c r="X159" s="2"/>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H160&lt;&gt;"",IF(F160&lt;&gt;"",CONCATENATE("...",D160,".",E160,".",F160,". - ",T160),IF(E160&lt;&gt;"",CONCATENATE("..",D160,".",E160,". - ",T160),CONCATENATE(D160,". - ",T160))),"")</f>
         <v>..C.02. - Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
@@ -14777,11 +14777,11 @@
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>cC02</v>
       </c>
       <c r="H160" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>C02</v>
       </c>
       <c r="I160" s="5"/>
@@ -14827,7 +14827,7 @@
     </row>
     <row r="161" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H161&lt;&gt;"",IF(F161&lt;&gt;"",CONCATENATE("...",D161,".",E161,".",F161,". - ",T161),IF(E161&lt;&gt;"",CONCATENATE("..",D161,".",E161,". - ",T161),CONCATENATE(D161,". - ",T161))),"")</f>
         <v>..C.03. - Stroke</v>
       </c>
       <c r="B161" s="2">
@@ -14844,11 +14844,11 @@
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>cC03</v>
       </c>
       <c r="H161" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
@@ -14896,9 +14896,9 @@
       </c>
       <c r="X161" s="2"/>
     </row>
-    <row r="162" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H162&lt;&gt;"",IF(F162&lt;&gt;"",CONCATENATE("...",D162,".",E162,".",F162,". - ",T162),IF(E162&lt;&gt;"",CONCATENATE("..",D162,".",E162,". - ",T162),CONCATENATE(D162,". - ",T162))),"")</f>
         <v>..C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
@@ -14915,11 +14915,11 @@
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>cC04</v>
       </c>
       <c r="H162" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>C04</v>
       </c>
       <c r="I162" s="5"/>
@@ -14965,9 +14965,9 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H163&lt;&gt;"",IF(F163&lt;&gt;"",CONCATENATE("...",D163,".",E163,".",F163,". - ",T163),IF(E163&lt;&gt;"",CONCATENATE("..",D163,".",E163,". - ",T163),CONCATENATE(D163,". - ",T163))),"")</f>
         <v>..C.05. -  Congestive heart failure</v>
       </c>
       <c r="B163" s="2"/>
@@ -14980,11 +14980,11 @@
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>cC05</v>
       </c>
       <c r="H163" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
@@ -15018,9 +15018,9 @@
       <c r="W163" s="51"/>
       <c r="X163" s="2"/>
     </row>
-    <row r="164" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H164&lt;&gt;"",IF(F164&lt;&gt;"",CONCATENATE("...",D164,".",E164,".",F164,". - ",T164),IF(E164&lt;&gt;"",CONCATENATE("..",D164,".",E164,". - ",T164),CONCATENATE(D164,". - ",T164))),"")</f>
         <v>..C.99. - Other or unspecified cardiovascular diseases</v>
       </c>
       <c r="B164" s="2">
@@ -15037,11 +15037,11 @@
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>cC99</v>
       </c>
       <c r="H164" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
@@ -15093,7 +15093,7 @@
     </row>
     <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H165&lt;&gt;"",IF(F165&lt;&gt;"",CONCATENATE("...",D165,".",E165,".",F165,". - ",T165),IF(E165&lt;&gt;"",CONCATENATE("..",D165,".",E165,". - ",T165),CONCATENATE(D165,". - ",T165))),"")</f>
         <v/>
       </c>
       <c r="B165" s="2">
@@ -15148,9 +15148,9 @@
       </c>
       <c r="X165" s="2"/>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H166&lt;&gt;"",IF(F166&lt;&gt;"",CONCATENATE("...",D166,".",E166,".",F166,". - ",T166),IF(E166&lt;&gt;"",CONCATENATE("..",D166,".",E166,". - ",T166),CONCATENATE(D166,". - ",T166))),"")</f>
         <v>..D.66. - Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B166" s="2">
@@ -15211,9 +15211,9 @@
       </c>
       <c r="X166" s="2"/>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H167&lt;&gt;"",IF(F167&lt;&gt;"",CONCATENATE("...",D167,".",E167,".",F167,". - ",T167),IF(E167&lt;&gt;"",CONCATENATE("..",D167,".",E167,". - ",T167),CONCATENATE(D167,". - ",T167))),"")</f>
         <v>..D.67. - Asthma</v>
       </c>
       <c r="B167" s="2">
@@ -15274,9 +15274,9 @@
       </c>
       <c r="X167" s="2"/>
     </row>
-    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H168&lt;&gt;"",IF(F168&lt;&gt;"",CONCATENATE("...",D168,".",E168,".",F168,". - ",T168),IF(E168&lt;&gt;"",CONCATENATE("..",D168,".",E168,". - ",T168),CONCATENATE(D168,". - ",T168))),"")</f>
         <v>..D.68. - Other respiratory diseases</v>
       </c>
       <c r="B168" s="2">
@@ -15337,9 +15337,9 @@
       </c>
       <c r="X168" s="2"/>
     </row>
-    <row r="169" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H169&lt;&gt;"",IF(F169&lt;&gt;"",CONCATENATE("...",D169,".",E169,".",F169,". - ",T169),IF(E169&lt;&gt;"",CONCATENATE("..",D169,".",E169,". - ",T169),CONCATENATE(D169,". - ",T169))),"")</f>
         <v>..D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
       <c r="B169" s="2">
@@ -15401,7 +15401,7 @@
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H170&lt;&gt;"",IF(F170&lt;&gt;"",CONCATENATE("...",D170,".",E170,".",F170,". - ",T170),IF(E170&lt;&gt;"",CONCATENATE("..",D170,".",E170,". - ",T170),CONCATENATE(D170,". - ",T170))),"")</f>
         <v/>
       </c>
       <c r="B170" s="2">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="40" t="str">
-        <f t="shared" ref="G170:G178" si="17">CONCATENATE("c",D170,E170,F170)</f>
+        <f t="shared" ref="G170:G178" si="14">CONCATENATE("c",D170,E170,F170)</f>
         <v>cD09</v>
       </c>
       <c r="H170" s="40"/>
@@ -15459,9 +15459,9 @@
       </c>
       <c r="X170" s="2"/>
     </row>
-    <row r="171" spans="1:24" s="48" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" s="48" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H171&lt;&gt;"",IF(F171&lt;&gt;"",CONCATENATE("...",D171,".",E171,".",F171,". - ",T171),IF(E171&lt;&gt;"",CONCATENATE("..",D171,".",E171,". - ",T171),CONCATENATE(D171,". - ",T171))),"")</f>
         <v>..D.11. - Cirrhosis of the liver</v>
       </c>
       <c r="B171" s="2">
@@ -15478,7 +15478,7 @@
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD11</v>
       </c>
       <c r="H171" s="40" t="str">
@@ -15528,7 +15528,7 @@
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H172&lt;&gt;"",IF(F172&lt;&gt;"",CONCATENATE("...",D172,".",E172,".",F172,". - ",T172),IF(E172&lt;&gt;"",CONCATENATE("..",D172,".",E172,". - ",T172),CONCATENATE(D172,". - ",T172))),"")</f>
         <v/>
       </c>
       <c r="B172" s="2">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD09</v>
       </c>
       <c r="H172" s="40"/>
@@ -15588,7 +15588,7 @@
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H173&lt;&gt;"",IF(F173&lt;&gt;"",CONCATENATE("...",D173,".",E173,".",F173,". - ",T173),IF(E173&lt;&gt;"",CONCATENATE("..",D173,".",E173,". - ",T173),CONCATENATE(D173,". - ",T173))),"")</f>
         <v/>
       </c>
       <c r="B173" s="2">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD09</v>
       </c>
       <c r="H173" s="40"/>
@@ -15648,7 +15648,7 @@
     </row>
     <row r="174" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H174&lt;&gt;"",IF(F174&lt;&gt;"",CONCATENATE("...",D174,".",E174,".",F174,". - ",T174),IF(E174&lt;&gt;"",CONCATENATE("..",D174,".",E174,". - ",T174),CONCATENATE(D174,". - ",T174))),"")</f>
         <v/>
       </c>
       <c r="B174" s="2">
@@ -15665,7 +15665,7 @@
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD09</v>
       </c>
       <c r="H174" s="40"/>
@@ -15708,7 +15708,7 @@
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H175&lt;&gt;"",IF(F175&lt;&gt;"",CONCATENATE("...",D175,".",E175,".",F175,". - ",T175),IF(E175&lt;&gt;"",CONCATENATE("..",D175,".",E175,". - ",T175),CONCATENATE(D175,". - ",T175))),"")</f>
         <v/>
       </c>
       <c r="B175" s="2">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD09</v>
       </c>
       <c r="H175" s="40"/>
@@ -15768,7 +15768,7 @@
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H176&lt;&gt;"",IF(F176&lt;&gt;"",CONCATENATE("...",D176,".",E176,".",F176,". - ",T176),IF(E176&lt;&gt;"",CONCATENATE("..",D176,".",E176,". - ",T176),CONCATENATE(D176,". - ",T176))),"")</f>
         <v/>
       </c>
       <c r="B176" s="2">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD09</v>
       </c>
       <c r="H176" s="40"/>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H177&lt;&gt;"",IF(F177&lt;&gt;"",CONCATENATE("...",D177,".",E177,".",F177,". - ",T177),IF(E177&lt;&gt;"",CONCATENATE("..",D177,".",E177,". - ",T177),CONCATENATE(D177,". - ",T177))),"")</f>
         <v/>
       </c>
       <c r="B177" s="2">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD09</v>
       </c>
       <c r="H177" s="40"/>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="178" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H178&lt;&gt;"",IF(F178&lt;&gt;"",CONCATENATE("...",D178,".",E178,".",F178,". - ",T178),IF(E178&lt;&gt;"",CONCATENATE("..",D178,".",E178,". - ",T178),CONCATENATE(D178,". - ",T178))),"")</f>
         <v/>
       </c>
       <c r="B178" s="2">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>cD09</v>
       </c>
       <c r="H178" s="40"/>
@@ -15952,7 +15952,7 @@
     </row>
     <row r="179" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H179&lt;&gt;"",IF(F179&lt;&gt;"",CONCATENATE("...",D179,".",E179,".",F179,". - ",T179),IF(E179&lt;&gt;"",CONCATENATE("..",D179,".",E179,". - ",T179),CONCATENATE(D179,". - ",T179))),"")</f>
         <v/>
       </c>
       <c r="B179" s="2">
@@ -16007,7 +16007,7 @@
     </row>
     <row r="180" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H180&lt;&gt;"",IF(F180&lt;&gt;"",CONCATENATE("...",D180,".",E180,".",F180,". - ",T180),IF(E180&lt;&gt;"",CONCATENATE("..",D180,".",E180,". - ",T180),CONCATENATE(D180,". - ",T180))),"")</f>
         <v>..D.10. - Kidney diseases</v>
       </c>
       <c r="B180" s="2">
@@ -16071,7 +16071,7 @@
     </row>
     <row r="181" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H181&lt;&gt;"",IF(F181&lt;&gt;"",CONCATENATE("...",D181,".",E181,".",F181,". - ",T181),IF(E181&lt;&gt;"",CONCATENATE("..",D181,".",E181,". - ",T181),CONCATENATE(D181,". - ",T181))),"")</f>
         <v>...D.10.a. - Acute glomerulonephritis</v>
       </c>
       <c r="B181" s="2">
@@ -16090,7 +16090,7 @@
         <v>1126</v>
       </c>
       <c r="G181" s="40" t="str">
-        <f t="shared" ref="G181:G189" si="18">CONCATENATE("c",D181,E181,F181)</f>
+        <f t="shared" ref="G181:G189" si="15">CONCATENATE("c",D181,E181,F181)</f>
         <v>cD10a</v>
       </c>
       <c r="H181" s="40" t="str">
@@ -16138,7 +16138,7 @@
     </row>
     <row r="182" spans="1:24" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H182&lt;&gt;"",IF(F182&lt;&gt;"",CONCATENATE("...",D182,".",E182,".",F182,". - ",T182),IF(E182&lt;&gt;"",CONCATENATE("..",D182,".",E182,". - ",T182),CONCATENATE(D182,". - ",T182))),"")</f>
         <v>...D.10.b. - Chronic kidney diesease due to diabetes</v>
       </c>
       <c r="B182" s="2">
@@ -16157,7 +16157,7 @@
         <v>1127</v>
       </c>
       <c r="G182" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD10b</v>
       </c>
       <c r="H182" s="40" t="str">
@@ -16205,7 +16205,7 @@
     </row>
     <row r="183" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H183&lt;&gt;"",IF(F183&lt;&gt;"",CONCATENATE("...",D183,".",E183,".",F183,". - ",T183),IF(E183&lt;&gt;"",CONCATENATE("..",D183,".",E183,". - ",T183),CONCATENATE(D183,". - ",T183))),"")</f>
         <v>...D.10.c. - Other chronic kidney disease</v>
       </c>
       <c r="B183" s="2">
@@ -16224,7 +16224,7 @@
         <v>1130</v>
       </c>
       <c r="G183" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD10c</v>
       </c>
       <c r="H183" s="40" t="str">
@@ -16272,7 +16272,7 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H184&lt;&gt;"",IF(F184&lt;&gt;"",CONCATENATE("...",D184,".",E184,".",F184,". - ",T184),IF(E184&lt;&gt;"",CONCATENATE("..",D184,".",E184,". - ",T184),CONCATENATE(D184,". - ",T184))),"")</f>
         <v/>
       </c>
       <c r="B184" s="2">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD99</v>
       </c>
       <c r="H184" s="40"/>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H185&lt;&gt;"",IF(F185&lt;&gt;"",CONCATENATE("...",D185,".",E185,".",F185,". - ",T185),IF(E185&lt;&gt;"",CONCATENATE("..",D185,".",E185,". - ",T185),CONCATENATE(D185,". - ",T185))),"")</f>
         <v/>
       </c>
       <c r="B185" s="2">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD99</v>
       </c>
       <c r="H185" s="40"/>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="186" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H186&lt;&gt;"",IF(F186&lt;&gt;"",CONCATENATE("...",D186,".",E186,".",F186,". - ",T186),IF(E186&lt;&gt;"",CONCATENATE("..",D186,".",E186,". - ",T186),CONCATENATE(D186,". - ",T186))),"")</f>
         <v/>
       </c>
       <c r="B186" s="2">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD99</v>
       </c>
       <c r="H186" s="40"/>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H187&lt;&gt;"",IF(F187&lt;&gt;"",CONCATENATE("...",D187,".",E187,".",F187,". - ",T187),IF(E187&lt;&gt;"",CONCATENATE("..",D187,".",E187,". - ",T187),CONCATENATE(D187,". - ",T187))),"")</f>
         <v/>
       </c>
       <c r="B187" s="2">
@@ -16465,7 +16465,7 @@
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD99</v>
       </c>
       <c r="H187" s="40"/>
@@ -16508,7 +16508,7 @@
     </row>
     <row r="188" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H188&lt;&gt;"",IF(F188&lt;&gt;"",CONCATENATE("...",D188,".",E188,".",F188,". - ",T188),IF(E188&lt;&gt;"",CONCATENATE("..",D188,".",E188,". - ",T188),CONCATENATE(D188,". - ",T188))),"")</f>
         <v/>
       </c>
       <c r="B188" s="2">
@@ -16525,7 +16525,7 @@
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD99</v>
       </c>
       <c r="H188" s="40"/>
@@ -16568,7 +16568,7 @@
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H189&lt;&gt;"",IF(F189&lt;&gt;"",CONCATENATE("...",D189,".",E189,".",F189,". - ",T189),IF(E189&lt;&gt;"",CONCATENATE("..",D189,".",E189,". - ",T189),CONCATENATE(D189,". - ",T189))),"")</f>
         <v/>
       </c>
       <c r="B189" s="2">
@@ -16585,7 +16585,7 @@
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>cD99</v>
       </c>
       <c r="H189" s="40"/>
@@ -16626,7 +16626,7 @@
     </row>
     <row r="190" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H190&lt;&gt;"",IF(F190&lt;&gt;"",CONCATENATE("...",D190,".",E190,".",F190,". - ",T190),IF(E190&lt;&gt;"",CONCATENATE("..",D190,".",E190,". - ",T190),CONCATENATE(D190,". - ",T190))),"")</f>
         <v/>
       </c>
       <c r="B190" s="2">
@@ -16685,7 +16685,7 @@
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H191&lt;&gt;"",IF(F191&lt;&gt;"",CONCATENATE("...",D191,".",E191,".",F191,". - ",T191),IF(E191&lt;&gt;"",CONCATENATE("..",D191,".",E191,". - ",T191),CONCATENATE(D191,". - ",T191))),"")</f>
         <v/>
       </c>
       <c r="B191" s="2">
@@ -16745,7 +16745,7 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H192&lt;&gt;"",IF(F192&lt;&gt;"",CONCATENATE("...",D192,".",E192,".",F192,". - ",T192),IF(E192&lt;&gt;"",CONCATENATE("..",D192,".",E192,". - ",T192),CONCATENATE(D192,". - ",T192))),"")</f>
         <v/>
       </c>
       <c r="B192" s="2">
@@ -16801,7 +16801,7 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H193&lt;&gt;"",IF(F193&lt;&gt;"",CONCATENATE("...",D193,".",E193,".",F193,". - ",T193),IF(E193&lt;&gt;"",CONCATENATE("..",D193,".",E193,". - ",T193),CONCATENATE(D193,". - ",T193))),"")</f>
         <v/>
       </c>
       <c r="B193" s="2">
@@ -16857,7 +16857,7 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H194&lt;&gt;"",IF(F194&lt;&gt;"",CONCATENATE("...",D194,".",E194,".",F194,". - ",T194),IF(E194&lt;&gt;"",CONCATENATE("..",D194,".",E194,". - ",T194),CONCATENATE(D194,". - ",T194))),"")</f>
         <v/>
       </c>
       <c r="B194" s="2">
@@ -16913,7 +16913,7 @@
     </row>
     <row r="195" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("...",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE("..",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
         <v/>
       </c>
       <c r="B195" s="2">
@@ -16977,7 +16977,7 @@
     </row>
     <row r="196" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="str">
-        <f t="shared" ref="A196:A232" si="19">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("...",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("..",D196,".",E196,". - ",T196),CONCATENATE(D196,". - ",T196))),"")</f>
+        <f>IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("...",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("..",D196,".",E196,". - ",T196),CONCATENATE(D196,". - ",T196))),"")</f>
         <v>..D.12. - Congenital anomalies</v>
       </c>
       <c r="B196" s="2">
@@ -17039,7 +17039,7 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H197&lt;&gt;"",IF(F197&lt;&gt;"",CONCATENATE("...",D197,".",E197,".",F197,". - ",T197),IF(E197&lt;&gt;"",CONCATENATE("..",D197,".",E197,". - ",T197),CONCATENATE(D197,". - ",T197))),"")</f>
         <v/>
       </c>
       <c r="B197" s="2">
@@ -17056,7 +17056,7 @@
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
-        <f t="shared" ref="G197:G202" si="20">CONCATENATE("c",D197,E197,F197)</f>
+        <f t="shared" ref="G197:G202" si="16">CONCATENATE("c",D197,E197,F197)</f>
         <v>cD12</v>
       </c>
       <c r="H197" s="40"/>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H198&lt;&gt;"",IF(F198&lt;&gt;"",CONCATENATE("...",D198,".",E198,".",F198,". - ",T198),IF(E198&lt;&gt;"",CONCATENATE("..",D198,".",E198,". - ",T198),CONCATENATE(D198,". - ",T198))),"")</f>
         <v/>
       </c>
       <c r="B198" s="2">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>cD12</v>
       </c>
       <c r="H198" s="40"/>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H199&lt;&gt;"",IF(F199&lt;&gt;"",CONCATENATE("...",D199,".",E199,".",F199,". - ",T199),IF(E199&lt;&gt;"",CONCATENATE("..",D199,".",E199,". - ",T199),CONCATENATE(D199,". - ",T199))),"")</f>
         <v/>
       </c>
       <c r="B199" s="2">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>cD12</v>
       </c>
       <c r="H199" s="40"/>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H200&lt;&gt;"",IF(F200&lt;&gt;"",CONCATENATE("...",D200,".",E200,".",F200,". - ",T200),IF(E200&lt;&gt;"",CONCATENATE("..",D200,".",E200,". - ",T200),CONCATENATE(D200,". - ",T200))),"")</f>
         <v/>
       </c>
       <c r="B200" s="2">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>cD12</v>
       </c>
       <c r="H200" s="40"/>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H201&lt;&gt;"",IF(F201&lt;&gt;"",CONCATENATE("...",D201,".",E201,".",F201,". - ",T201),IF(E201&lt;&gt;"",CONCATENATE("..",D201,".",E201,". - ",T201),CONCATENATE(D201,". - ",T201))),"")</f>
         <v/>
       </c>
       <c r="B201" s="2">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>cD12</v>
       </c>
       <c r="H201" s="40"/>
@@ -17339,7 +17339,7 @@
     </row>
     <row r="202" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H202&lt;&gt;"",IF(F202&lt;&gt;"",CONCATENATE("...",D202,".",E202,".",F202,". - ",T202),IF(E202&lt;&gt;"",CONCATENATE("..",D202,".",E202,". - ",T202),CONCATENATE(D202,". - ",T202))),"")</f>
         <v/>
       </c>
       <c r="B202" s="2">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>cD12</v>
       </c>
       <c r="H202" s="40"/>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H203&lt;&gt;"",IF(F203&lt;&gt;"",CONCATENATE("...",D203,".",E203,".",F203,". - ",T203),IF(E203&lt;&gt;"",CONCATENATE("..",D203,".",E203,". - ",T203),CONCATENATE(D203,". - ",T203))),"")</f>
         <v/>
       </c>
       <c r="B203" s="2">
@@ -17452,7 +17452,7 @@
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H204&lt;&gt;"",IF(F204&lt;&gt;"",CONCATENATE("...",D204,".",E204,".",F204,". - ",T204),IF(E204&lt;&gt;"",CONCATENATE("..",D204,".",E204,". - ",T204),CONCATENATE(D204,". - ",T204))),"")</f>
         <v/>
       </c>
       <c r="B204" s="2">
@@ -17508,7 +17508,7 @@
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H205&lt;&gt;"",IF(F205&lt;&gt;"",CONCATENATE("...",D205,".",E205,".",F205,". - ",T205),IF(E205&lt;&gt;"",CONCATENATE("..",D205,".",E205,". - ",T205),CONCATENATE(D205,". - ",T205))),"")</f>
         <v/>
       </c>
       <c r="B205" s="2">
@@ -17564,7 +17564,7 @@
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H206&lt;&gt;"",IF(F206&lt;&gt;"",CONCATENATE("...",D206,".",E206,".",F206,". - ",T206),IF(E206&lt;&gt;"",CONCATENATE("..",D206,".",E206,". - ",T206),CONCATENATE(D206,". - ",T206))),"")</f>
         <v/>
       </c>
       <c r="B206" s="2">
@@ -17620,7 +17620,7 @@
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H207&lt;&gt;"",IF(F207&lt;&gt;"",CONCATENATE("...",D207,".",E207,".",F207,". - ",T207),IF(E207&lt;&gt;"",CONCATENATE("..",D207,".",E207,". - ",T207),CONCATENATE(D207,". - ",T207))),"")</f>
         <v/>
       </c>
       <c r="B207" s="2">
@@ -17676,7 +17676,7 @@
     </row>
     <row r="208" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H208&lt;&gt;"",IF(F208&lt;&gt;"",CONCATENATE("...",D208,".",E208,".",F208,". - ",T208),IF(E208&lt;&gt;"",CONCATENATE("..",D208,".",E208,". - ",T208),CONCATENATE(D208,". - ",T208))),"")</f>
         <v>E. - Injuries</v>
       </c>
       <c r="B208" s="2">
@@ -17734,7 +17734,7 @@
     </row>
     <row r="209" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H209&lt;&gt;"",IF(F209&lt;&gt;"",CONCATENATE("...",D209,".",E209,".",F209,". - ",T209),IF(E209&lt;&gt;"",CONCATENATE("..",D209,".",E209,". - ",T209),CONCATENATE(D209,". - ",T209))),"")</f>
         <v>..E.01. - Unintentional injuries</v>
       </c>
       <c r="B209" s="2">
@@ -17794,7 +17794,7 @@
     </row>
     <row r="210" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H210&lt;&gt;"",IF(F210&lt;&gt;"",CONCATENATE("...",D210,".",E210,".",F210,". - ",T210),IF(E210&lt;&gt;"",CONCATENATE("..",D210,".",E210,". - ",T210),CONCATENATE(D210,". - ",T210))),"")</f>
         <v>...E.01.a. - Road injury</v>
       </c>
       <c r="B210" s="2">
@@ -17813,7 +17813,7 @@
         <v>1126</v>
       </c>
       <c r="G210" s="40" t="str">
-        <f t="shared" ref="G210:G219" si="21">CONCATENATE("c",D210,E210,F210)</f>
+        <f t="shared" ref="G210:G219" si="17">CONCATENATE("c",D210,E210,F210)</f>
         <v>cE01a</v>
       </c>
       <c r="H210" s="40" t="str">
@@ -17863,7 +17863,7 @@
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H211&lt;&gt;"",IF(F211&lt;&gt;"",CONCATENATE("...",D211,".",E211,".",F211,". - ",T211),IF(E211&lt;&gt;"",CONCATENATE("..",D211,".",E211,". - ",T211),CONCATENATE(D211,". - ",T211))),"")</f>
         <v/>
       </c>
       <c r="B211" s="2">
@@ -17882,7 +17882,7 @@
         <v>1128</v>
       </c>
       <c r="G211" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01x</v>
       </c>
       <c r="H211" s="40"/>
@@ -17925,7 +17925,7 @@
     </row>
     <row r="212" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H212&lt;&gt;"",IF(F212&lt;&gt;"",CONCATENATE("...",D212,".",E212,".",F212,". - ",T212),IF(E212&lt;&gt;"",CONCATENATE("..",D212,".",E212,". - ",T212),CONCATENATE(D212,". - ",T212))),"")</f>
         <v>...E.01.b. - Falls</v>
       </c>
       <c r="B212" s="2">
@@ -17944,7 +17944,7 @@
         <v>1127</v>
       </c>
       <c r="G212" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01b</v>
       </c>
       <c r="H212" s="40" t="str">
@@ -17992,7 +17992,7 @@
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H213&lt;&gt;"",IF(F213&lt;&gt;"",CONCATENATE("...",D213,".",E213,".",F213,". - ",T213),IF(E213&lt;&gt;"",CONCATENATE("..",D213,".",E213,". - ",T213),CONCATENATE(D213,". - ",T213))),"")</f>
         <v/>
       </c>
       <c r="B213" s="2">
@@ -18011,7 +18011,7 @@
         <v>1128</v>
       </c>
       <c r="G213" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01x</v>
       </c>
       <c r="H213" s="40"/>
@@ -18052,7 +18052,7 @@
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H214&lt;&gt;"",IF(F214&lt;&gt;"",CONCATENATE("...",D214,".",E214,".",F214,". - ",T214),IF(E214&lt;&gt;"",CONCATENATE("..",D214,".",E214,". - ",T214),CONCATENATE(D214,". - ",T214))),"")</f>
         <v/>
       </c>
       <c r="B214" s="2">
@@ -18071,7 +18071,7 @@
         <v>1128</v>
       </c>
       <c r="G214" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01x</v>
       </c>
       <c r="H214" s="40"/>
@@ -18114,7 +18114,7 @@
     </row>
     <row r="215" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H215&lt;&gt;"",IF(F215&lt;&gt;"",CONCATENATE("...",D215,".",E215,".",F215,". - ",T215),IF(E215&lt;&gt;"",CONCATENATE("..",D215,".",E215,". - ",T215),CONCATENATE(D215,". - ",T215))),"")</f>
         <v/>
       </c>
       <c r="B215" s="2">
@@ -18133,7 +18133,7 @@
         <v>1128</v>
       </c>
       <c r="G215" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01x</v>
       </c>
       <c r="H215" s="40"/>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="216" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H216&lt;&gt;"",IF(F216&lt;&gt;"",CONCATENATE("...",D216,".",E216,".",F216,". - ",T216),IF(E216&lt;&gt;"",CONCATENATE("..",D216,".",E216,". - ",T216),CONCATENATE(D216,". - ",T216))),"")</f>
         <v>...E.01.c. - Accidental Firearm</v>
       </c>
       <c r="B216" s="2"/>
@@ -18193,7 +18193,7 @@
         <v>1130</v>
       </c>
       <c r="G216" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01c</v>
       </c>
       <c r="H216" s="40" t="str">
@@ -18229,7 +18229,7 @@
     </row>
     <row r="217" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H217&lt;&gt;"",IF(F217&lt;&gt;"",CONCATENATE("...",D217,".",E217,".",F217,". - ",T217),IF(E217&lt;&gt;"",CONCATENATE("..",D217,".",E217,". - ",T217),CONCATENATE(D217,". - ",T217))),"")</f>
         <v/>
       </c>
       <c r="B217" s="2">
@@ -18248,7 +18248,7 @@
         <v>1128</v>
       </c>
       <c r="G217" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01x</v>
       </c>
       <c r="H217" s="40"/>
@@ -18291,7 +18291,7 @@
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H218&lt;&gt;"",IF(F218&lt;&gt;"",CONCATENATE("...",D218,".",E218,".",F218,". - ",T218),IF(E218&lt;&gt;"",CONCATENATE("..",D218,".",E218,". - ",T218),CONCATENATE(D218,". - ",T218))),"")</f>
         <v/>
       </c>
       <c r="B218" s="2"/>
@@ -18320,7 +18320,7 @@
     </row>
     <row r="219" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H219&lt;&gt;"",IF(F219&lt;&gt;"",CONCATENATE("...",D219,".",E219,".",F219,". - ",T219),IF(E219&lt;&gt;"",CONCATENATE("..",D219,".",E219,". - ",T219),CONCATENATE(D219,". - ",T219))),"")</f>
         <v>...E.01.x. - Other unintentional injuries</v>
       </c>
       <c r="B219" s="2">
@@ -18339,7 +18339,7 @@
         <v>1128</v>
       </c>
       <c r="G219" s="40" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>cE01x</v>
       </c>
       <c r="H219" s="40" t="str">
@@ -18391,7 +18391,7 @@
     </row>
     <row r="220" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H220&lt;&gt;"",IF(F220&lt;&gt;"",CONCATENATE("...",D220,".",E220,".",F220,". - ",T220),IF(E220&lt;&gt;"",CONCATENATE("..",D220,".",E220,". - ",T220),CONCATENATE(D220,". - ",T220))),"")</f>
         <v/>
       </c>
       <c r="B220" s="2">
@@ -18444,7 +18444,7 @@
     </row>
     <row r="221" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H221&lt;&gt;"",IF(F221&lt;&gt;"",CONCATENATE("...",D221,".",E221,".",F221,". - ",T221),IF(E221&lt;&gt;"",CONCATENATE("..",D221,".",E221,". - ",T221),CONCATENATE(D221,". - ",T221))),"")</f>
         <v>..E.02. - Suicide/Self-harm</v>
       </c>
       <c r="B221" s="2">
@@ -18461,7 +18461,7 @@
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="40" t="str">
-        <f t="shared" ref="G221:G228" si="22">CONCATENATE("c",D221,E221,F221)</f>
+        <f t="shared" ref="G221:G228" si="18">CONCATENATE("c",D221,E221,F221)</f>
         <v>cE02</v>
       </c>
       <c r="H221" s="40" t="str">
@@ -18511,7 +18511,7 @@
     </row>
     <row r="222" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A222" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H222&lt;&gt;"",IF(F222&lt;&gt;"",CONCATENATE("...",D222,".",E222,".",F222,". - ",T222),IF(E222&lt;&gt;"",CONCATENATE("..",D222,".",E222,". - ",T222),CONCATENATE(D222,". - ",T222))),"")</f>
         <v>..E.03. - Homicide/Interpersonal violence</v>
       </c>
       <c r="B222" s="2">
@@ -18571,7 +18571,7 @@
     </row>
     <row r="223" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A223" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H223&lt;&gt;"",IF(F223&lt;&gt;"",CONCATENATE("...",D223,".",E223,".",F223,". - ",T223),IF(E223&lt;&gt;"",CONCATENATE("..",D223,".",E223,". - ",T223),CONCATENATE(D223,". - ",T223))),"")</f>
         <v>...E.03.a. - Homicide excluding legal intervention</v>
       </c>
       <c r="B223" s="2"/>
@@ -18586,11 +18586,11 @@
         <v>1126</v>
       </c>
       <c r="G223" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>cE03a</v>
       </c>
       <c r="H223" s="40" t="str">
-        <f t="shared" ref="H223:H225" si="23">CONCATENATE(D223,E223,F223)</f>
+        <f t="shared" ref="H223:H225" si="19">CONCATENATE(D223,E223,F223)</f>
         <v>E03a</v>
       </c>
       <c r="I223" s="5"/>
@@ -18618,7 +18618,7 @@
     </row>
     <row r="224" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H224&lt;&gt;"",IF(F224&lt;&gt;"",CONCATENATE("...",D224,".",E224,".",F224,". - ",T224),IF(E224&lt;&gt;"",CONCATENATE("..",D224,".",E224,". - ",T224),CONCATENATE(D224,". - ",T224))),"")</f>
         <v>...E.03.b. - Legal intervention</v>
       </c>
       <c r="B224" s="2"/>
@@ -18633,11 +18633,11 @@
         <v>1127</v>
       </c>
       <c r="G224" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>cE03b</v>
       </c>
       <c r="H224" s="40" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>E03b</v>
       </c>
       <c r="I224" s="5"/>
@@ -18665,7 +18665,7 @@
     </row>
     <row r="225" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H225&lt;&gt;"",IF(F225&lt;&gt;"",CONCATENATE("...",D225,".",E225,".",F225,". - ",T225),IF(E225&lt;&gt;"",CONCATENATE("..",D225,".",E225,". - ",T225),CONCATENATE(D225,". - ",T225))),"")</f>
         <v>...E.03.c. - Execution, War, Terroism</v>
       </c>
       <c r="B225" s="2">
@@ -18684,11 +18684,11 @@
         <v>1130</v>
       </c>
       <c r="G225" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>cE03c</v>
       </c>
       <c r="H225" s="40" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>E03c</v>
       </c>
       <c r="I225" s="5" t="s">
@@ -18732,7 +18732,7 @@
     </row>
     <row r="226" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H226&lt;&gt;"",IF(F226&lt;&gt;"",CONCATENATE("...",D226,".",E226,".",F226,". - ",T226),IF(E226&lt;&gt;"",CONCATENATE("..",D226,".",E226,". - ",T226),CONCATENATE(D226,". - ",T226))),"")</f>
         <v/>
       </c>
       <c r="B226" s="82" t="s">
@@ -18748,7 +18748,7 @@
         <v>1144</v>
       </c>
       <c r="G226" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>cE01</v>
       </c>
       <c r="H226" s="40"/>
@@ -18770,7 +18770,7 @@
     </row>
     <row r="227" spans="1:24" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H227&lt;&gt;"",IF(F227&lt;&gt;"",CONCATENATE("...",D227,".",E227,".",F227,". - ",T227),IF(E227&lt;&gt;"",CONCATENATE("..",D227,".",E227,". - ",T227),CONCATENATE(D227,". - ",T227))),"")</f>
         <v>..Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D227" s="56" t="s">
@@ -18780,7 +18780,7 @@
         <v>1144</v>
       </c>
       <c r="G227" s="40" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>cZ01</v>
       </c>
       <c r="H227" s="40" t="str">
@@ -18805,7 +18805,7 @@
     </row>
     <row r="228" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H228&lt;&gt;"",IF(F228&lt;&gt;"",CONCATENATE("...",D228,".",E228,".",F228,". - ",T228),IF(E228&lt;&gt;"",CONCATENATE("..",D228,".",E228,". - ",T228),CONCATENATE(D228,". - ",T228))),"")</f>
         <v/>
       </c>
       <c r="D228" s="56" t="s">
@@ -18815,7 +18815,7 @@
         <v>1152</v>
       </c>
       <c r="G228" s="42" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>cA09</v>
       </c>
       <c r="H228" s="40"/>
@@ -18837,7 +18837,7 @@
     </row>
     <row r="229" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H229&lt;&gt;"",IF(F229&lt;&gt;"",CONCATENATE("...",D229,".",E229,".",F229,". - ",T229),IF(E229&lt;&gt;"",CONCATENATE("..",D229,".",E229,". - ",T229),CONCATENATE(D229,". - ",T229))),"")</f>
         <v>..Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D229" s="56" t="s">
@@ -18848,7 +18848,7 @@
       </c>
       <c r="G229" s="43"/>
       <c r="H229" s="40" t="str">
-        <f t="shared" ref="H229:H232" si="24">CONCATENATE(D229,E229,F229)</f>
+        <f t="shared" ref="H229:H232" si="20">CONCATENATE(D229,E229,F229)</f>
         <v>Z02</v>
       </c>
       <c r="T229" s="48" t="s">
@@ -18857,7 +18857,7 @@
     </row>
     <row r="230" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H230&lt;&gt;"",IF(F230&lt;&gt;"",CONCATENATE("...",D230,".",E230,".",F230,". - ",T230),IF(E230&lt;&gt;"",CONCATENATE("..",D230,".",E230,". - ",T230),CONCATENATE(D230,". - ",T230))),"")</f>
         <v>..Z.03. - Code does not map</v>
       </c>
       <c r="D230" s="56" t="s">
@@ -18868,7 +18868,7 @@
       </c>
       <c r="G230" s="43"/>
       <c r="H230" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>Z03</v>
       </c>
       <c r="I230" s="16" t="s">
@@ -18880,7 +18880,7 @@
     </row>
     <row r="231" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H231&lt;&gt;"",IF(F231&lt;&gt;"",CONCATENATE("...",D231,".",E231,".",F231,". - ",T231),IF(E231&lt;&gt;"",CONCATENATE("..",D231,".",E231,". - ",T231),CONCATENATE(D231,". - ",T231))),"")</f>
         <v>Z. - Unknown/Missing Value</v>
       </c>
       <c r="D231" s="56" t="s">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="G231" s="43"/>
       <c r="H231" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>Z</v>
       </c>
       <c r="T231" s="48" t="s">
@@ -18897,7 +18897,7 @@
     </row>
     <row r="232" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f>IF(H232&lt;&gt;"",IF(F232&lt;&gt;"",CONCATENATE("...",D232,".",E232,".",F232,". - ",T232),IF(E232&lt;&gt;"",CONCATENATE("..",D232,".",E232,". - ",T232),CONCATENATE(D232,". - ",T232))),"")</f>
         <v>..D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D232" s="56" t="s">
@@ -18908,7 +18908,7 @@
       </c>
       <c r="G232" s="43"/>
       <c r="H232" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>D99</v>
       </c>
       <c r="T232" s="48" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -5338,16 +5338,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H155" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N157" sqref="N157"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="44" customWidth="1"/>
+    <col min="1" max="1" width="57" style="44" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="46" customWidth="1"/>
     <col min="3" max="3" width="35.7109375" style="44" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" style="56" customWidth="1"/>
@@ -5450,8 +5450,8 @@
     </row>
     <row r="2" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="str">
-        <f>V2</f>
-        <v>All CAUSES</v>
+        <f>CONCATENATE(".",V2)</f>
+        <v>.All CAUSES</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -5496,8 +5496,8 @@
     </row>
     <row r="3" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="str">
-        <f>IF(H3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("...",D3,".",E3,".",F3,". - ",T3),IF(E3&lt;&gt;"",CONCATENATE("..",D3,".",E3,". - ",T3),CONCATENATE(D3,". - ",T3))),"")</f>
-        <v>A. - Communicable, maternal, perinatal and nutritional conditions</v>
+        <f>IF(H3&lt;&gt;"",IF(F3&lt;&gt;"",CONCATENATE("....",D3,".",E3,".",F3,". - ",T3),IF(E3&lt;&gt;"",CONCATENATE("...",D3,".",E3,". - ",T3),CONCATENATE("..",D3,". - ",T3))),"")</f>
+        <v>..A. - Communicable, maternal, perinatal and nutritional conditions</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5548,10 +5548,10 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="str">
-        <f>IF(H4&lt;&gt;"",IF(F4&lt;&gt;"",CONCATENATE("...",D4,".",E4,".",F4,". - ",T4),IF(E4&lt;&gt;"",CONCATENATE("..",D4,".",E4,". - ",T4),CONCATENATE(D4,". - ",T4))),"")</f>
-        <v>..A.99. - Other Infectious Diseases</v>
+        <f t="shared" ref="A4:A67" si="0">IF(H4&lt;&gt;"",IF(F4&lt;&gt;"",CONCATENATE("....",D4,".",E4,".",F4,". - ",T4),IF(E4&lt;&gt;"",CONCATENATE("...",D4,".",E4,". - ",T4),CONCATENATE("..",D4,". - ",T4))),"")</f>
+        <v>...A.99. - Other Infectious Diseases</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="29" t="s">
@@ -5592,7 +5592,7 @@
     </row>
     <row r="5" spans="1:24" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="str">
-        <f>IF(H5&lt;&gt;"",IF(F5&lt;&gt;"",CONCATENATE("...",D5,".",E5,".",F5,". - ",T5),IF(E5&lt;&gt;"",CONCATENATE("..",D5,".",E5,". - ",T5),CONCATENATE(D5,". - ",T5))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B5" s="2">
@@ -5641,10 +5641,10 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="str">
-        <f>IF(H6&lt;&gt;"",IF(F6&lt;&gt;"",CONCATENATE("...",D6,".",E6,".",F6,". - ",T6),IF(E6&lt;&gt;"",CONCATENATE("..",D6,".",E6,". - ",T6),CONCATENATE(D6,". - ",T6))),"")</f>
-        <v>..A.01. - Tuberculosis</v>
+        <f t="shared" si="0"/>
+        <v>...A.01. - Tuberculosis</v>
       </c>
       <c r="B6" s="2">
         <v>3</v>
@@ -5702,10 +5702,10 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="str">
-        <f>IF(H7&lt;&gt;"",IF(F7&lt;&gt;"",CONCATENATE("...",D7,".",E7,".",F7,". - ",T7),IF(E7&lt;&gt;"",CONCATENATE("..",D7,".",E7,". - ",T7),CONCATENATE(D7,". - ",T7))),"")</f>
-        <v>..A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
+        <f t="shared" si="0"/>
+        <v>...A.02. - HIV/ and other Sexually transmitted diseases (STDs)</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="32" t="s">
@@ -5744,10 +5744,10 @@
       <c r="W7" s="45"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="str">
-        <f>IF(H8&lt;&gt;"",IF(F8&lt;&gt;"",CONCATENATE("...",D8,".",E8,".",F8,". - ",T8),IF(E8&lt;&gt;"",CONCATENATE("..",D8,".",E8,". - ",T8),CONCATENATE(D8,". - ",T8))),"")</f>
-        <v>...A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
+        <f t="shared" si="0"/>
+        <v>....A.02.a. - Sexually transmitted diseases (STDs) excluding HIV</v>
       </c>
       <c r="B8" s="2">
         <v>4</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="str">
-        <f>IF(H9&lt;&gt;"",IF(F9&lt;&gt;"",CONCATENATE("...",D9,".",E9,".",F9,". - ",T9),IF(E9&lt;&gt;"",CONCATENATE("..",D9,".",E9,". - ",T9),CONCATENATE(D9,". - ",T9))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B9" s="2">
@@ -5870,7 +5870,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="str">
-        <f>IF(H10&lt;&gt;"",IF(F10&lt;&gt;"",CONCATENATE("...",D10,".",E10,".",F10,". - ",T10),IF(E10&lt;&gt;"",CONCATENATE("..",D10,".",E10,". - ",T10),CONCATENATE(D10,". - ",T10))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B10" s="2">
@@ -5930,7 +5930,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="str">
-        <f>IF(H11&lt;&gt;"",IF(F11&lt;&gt;"",CONCATENATE("...",D11,".",E11,".",F11,". - ",T11),IF(E11&lt;&gt;"",CONCATENATE("..",D11,".",E11,". - ",T11),CONCATENATE(D11,". - ",T11))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B11" s="2">
@@ -5990,7 +5990,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="str">
-        <f>IF(H12&lt;&gt;"",IF(F12&lt;&gt;"",CONCATENATE("...",D12,".",E12,".",F12,". - ",T12),IF(E12&lt;&gt;"",CONCATENATE("..",D12,".",E12,". - ",T12),CONCATENATE(D12,". - ",T12))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B12" s="2">
@@ -6046,9 +6046,9 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="str">
-        <f>IF(H13&lt;&gt;"",IF(F13&lt;&gt;"",CONCATENATE("...",D13,".",E13,".",F13,". - ",T13),IF(E13&lt;&gt;"",CONCATENATE("..",D13,".",E13,". - ",T13),CONCATENATE(D13,". - ",T13))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B13" s="2">
@@ -6106,10 +6106,10 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="str">
-        <f>IF(H14&lt;&gt;"",IF(F14&lt;&gt;"",CONCATENATE("...",D14,".",E14,".",F14,". - ",T14),IF(E14&lt;&gt;"",CONCATENATE("..",D14,".",E14,". - ",T14),CONCATENATE(D14,". - ",T14))),"")</f>
-        <v>...A.02.b. - HIV/AIDS</v>
+        <f t="shared" si="0"/>
+        <v>....A.02.b. - HIV/AIDS</v>
       </c>
       <c r="B14" s="2">
         <v>10</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="str">
-        <f>IF(H15&lt;&gt;"",IF(F15&lt;&gt;"",CONCATENATE("...",D15,".",E15,".",F15,". - ",T15),IF(E15&lt;&gt;"",CONCATENATE("..",D15,".",E15,". - ",T15),CONCATENATE(D15,". - ",T15))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B15" s="2">
@@ -6226,7 +6226,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="str">
-        <f>IF(H16&lt;&gt;"",IF(F16&lt;&gt;"",CONCATENATE("...",D16,".",E16,".",F16,". - ",T16),IF(E16&lt;&gt;"",CONCATENATE("..",D16,".",E16,". - ",T16),CONCATENATE(D16,". - ",T16))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B16" s="2">
@@ -6286,7 +6286,7 @@
     </row>
     <row r="17" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="str">
-        <f>IF(H17&lt;&gt;"",IF(F17&lt;&gt;"",CONCATENATE("...",D17,".",E17,".",F17,". - ",T17),IF(E17&lt;&gt;"",CONCATENATE("..",D17,".",E17,". - ",T17),CONCATENATE(D17,". - ",T17))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B17" s="2">
@@ -6344,7 +6344,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="str">
-        <f>IF(H18&lt;&gt;"",IF(F18&lt;&gt;"",CONCATENATE("...",D18,".",E18,".",F18,". - ",T18),IF(E18&lt;&gt;"",CONCATENATE("..",D18,".",E18,". - ",T18),CONCATENATE(D18,". - ",T18))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B18" s="2">
@@ -6396,7 +6396,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="str">
-        <f>IF(H19&lt;&gt;"",IF(F19&lt;&gt;"",CONCATENATE("...",D19,".",E19,".",F19,". - ",T19),IF(E19&lt;&gt;"",CONCATENATE("..",D19,".",E19,". - ",T19),CONCATENATE(D19,". - ",T19))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B19" s="2">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="40" t="str">
-        <f t="shared" ref="G19:G24" si="0">CONCATENATE("c",D19,E19,F19)</f>
+        <f t="shared" ref="G19:G24" si="1">CONCATENATE("c",D19,E19,F19)</f>
         <v>cA99</v>
       </c>
       <c r="H19" s="40"/>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="str">
-        <f>IF(H20&lt;&gt;"",IF(F20&lt;&gt;"",CONCATENATE("...",D20,".",E20,".",F20,". - ",T20),IF(E20&lt;&gt;"",CONCATENATE("..",D20,".",E20,". - ",T20),CONCATENATE(D20,". - ",T20))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B20" s="2">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H20" s="40"/>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="str">
-        <f>IF(H21&lt;&gt;"",IF(F21&lt;&gt;"",CONCATENATE("...",D21,".",E21,".",F21,". - ",T21),IF(E21&lt;&gt;"",CONCATENATE("..",D21,".",E21,". - ",T21),CONCATENATE(D21,". - ",T21))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B21" s="2">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H21" s="40"/>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="str">
-        <f>IF(H22&lt;&gt;"",IF(F22&lt;&gt;"",CONCATENATE("...",D22,".",E22,".",F22,". - ",T22),IF(E22&lt;&gt;"",CONCATENATE("..",D22,".",E22,". - ",T22),CONCATENATE(D22,". - ",T22))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B22" s="2">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA99</v>
       </c>
       <c r="H22" s="40"/>
@@ -6626,10 +6626,10 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="str">
-        <f>IF(H23&lt;&gt;"",IF(F23&lt;&gt;"",CONCATENATE("...",D23,".",E23,".",F23,". - ",T23),IF(E23&lt;&gt;"",CONCATENATE("..",D23,".",E23,". - ",T23),CONCATENATE(D23,". - ",T23))),"")</f>
-        <v>..A.04. - Meningitis</v>
+        <f t="shared" si="0"/>
+        <v>...A.04. - Meningitis</v>
       </c>
       <c r="B23" s="2">
         <v>19</v>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA04</v>
       </c>
       <c r="H23" s="40" t="str">
@@ -6687,10 +6687,10 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="str">
-        <f>IF(H24&lt;&gt;"",IF(F24&lt;&gt;"",CONCATENATE("...",D24,".",E24,".",F24,". - ",T24),IF(E24&lt;&gt;"",CONCATENATE("..",D24,".",E24,". - ",T24),CONCATENATE(D24,". - ",T24))),"")</f>
-        <v>..A.05. - Encephalitis</v>
+        <f t="shared" si="0"/>
+        <v>...A.05. - Encephalitis</v>
       </c>
       <c r="B24" s="2">
         <v>20</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>cA05</v>
       </c>
       <c r="H24" s="40" t="str">
@@ -6748,10 +6748,10 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="str">
-        <f>IF(H25&lt;&gt;"",IF(F25&lt;&gt;"",CONCATENATE("...",D25,".",E25,".",F25,". - ",T25),IF(E25&lt;&gt;"",CONCATENATE("..",D25,".",E25,". - ",T25),CONCATENATE(D25,". - ",T25))),"")</f>
-        <v>..A.06. - Hepatitis</v>
+        <f t="shared" si="0"/>
+        <v>...A.06. - Hepatitis</v>
       </c>
       <c r="B25" s="2">
         <v>21</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="str">
-        <f>IF(H26&lt;&gt;"",IF(F26&lt;&gt;"",CONCATENATE("...",D26,".",E26,".",F26,". - ",T26),IF(E26&lt;&gt;"",CONCATENATE("..",D26,".",E26,". - ",T26),CONCATENATE(D26,". - ",T26))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B26" s="2">
@@ -6856,10 +6856,10 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="str">
-        <f>IF(H27&lt;&gt;"",IF(F27&lt;&gt;"",CONCATENATE("...",D27,".",E27,".",F27,". - ",T27),IF(E27&lt;&gt;"",CONCATENATE("..",D27,".",E27,". - ",T27),CONCATENATE(D27,". - ",T27))),"")</f>
-        <v>...A.06.a. - Acute hepatitis B</v>
+        <f t="shared" si="0"/>
+        <v>....A.06.a. - Acute hepatitis B</v>
       </c>
       <c r="B27" s="2">
         <v>23</v>
@@ -6917,7 +6917,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="str">
-        <f>IF(H28&lt;&gt;"",IF(F28&lt;&gt;"",CONCATENATE("...",D28,".",E28,".",F28,". - ",T28),IF(E28&lt;&gt;"",CONCATENATE("..",D28,".",E28,". - ",T28),CONCATENATE(D28,". - ",T28))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B28" s="2"/>
@@ -6943,10 +6943,10 @@
       <c r="W28" s="45"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="str">
-        <f>IF(H29&lt;&gt;"",IF(F29&lt;&gt;"",CONCATENATE("...",D29,".",E29,".",F29,". - ",T29),IF(E29&lt;&gt;"",CONCATENATE("..",D29,".",E29,". - ",T29),CONCATENATE(D29,". - ",T29))),"")</f>
-        <v>...A.06.b. - Acute hepatitis C</v>
+        <f t="shared" si="0"/>
+        <v>....A.06.b. - Acute hepatitis C</v>
       </c>
       <c r="B29" s="2">
         <v>24</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="str">
-        <f>IF(H30&lt;&gt;"",IF(F30&lt;&gt;"",CONCATENATE("...",D30,".",E30,".",F30,". - ",T30),IF(E30&lt;&gt;"",CONCATENATE("..",D30,".",E30,". - ",T30),CONCATENATE(D30,". - ",T30))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B30" s="2">
@@ -7058,7 +7058,7 @@
     </row>
     <row r="31" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="str">
-        <f>IF(H31&lt;&gt;"",IF(F31&lt;&gt;"",CONCATENATE("...",D31,".",E31,".",F31,". - ",T31),IF(E31&lt;&gt;"",CONCATENATE("..",D31,".",E31,". - ",T31),CONCATENATE(D31,". - ",T31))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B31" s="2">
@@ -7109,7 +7109,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="str">
-        <f>IF(H32&lt;&gt;"",IF(F32&lt;&gt;"",CONCATENATE("...",D32,".",E32,".",F32,". - ",T32),IF(E32&lt;&gt;"",CONCATENATE("..",D32,".",E32,". - ",T32),CONCATENATE(D32,". - ",T32))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B32" s="2">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="40" t="str">
-        <f t="shared" ref="G32:G45" si="1">CONCATENATE("c",D32,E32,F32)</f>
+        <f t="shared" ref="G32:G45" si="2">CONCATENATE("c",D32,E32,F32)</f>
         <v>cA99</v>
       </c>
       <c r="H32" s="40"/>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="str">
-        <f>IF(H33&lt;&gt;"",IF(F33&lt;&gt;"",CONCATENATE("...",D33,".",E33,".",F33,". - ",T33),IF(E33&lt;&gt;"",CONCATENATE("..",D33,".",E33,". - ",T33),CONCATENATE(D33,". - ",T33))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B33" s="2">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H33" s="40"/>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="str">
-        <f>IF(H34&lt;&gt;"",IF(F34&lt;&gt;"",CONCATENATE("...",D34,".",E34,".",F34,". - ",T34),IF(E34&lt;&gt;"",CONCATENATE("..",D34,".",E34,". - ",T34),CONCATENATE(D34,". - ",T34))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B34" s="2">
@@ -7242,7 +7242,7 @@
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H34" s="40"/>
@@ -7283,7 +7283,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="str">
-        <f>IF(H35&lt;&gt;"",IF(F35&lt;&gt;"",CONCATENATE("...",D35,".",E35,".",F35,". - ",T35),IF(E35&lt;&gt;"",CONCATENATE("..",D35,".",E35,". - ",T35),CONCATENATE(D35,". - ",T35))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B35" s="2">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H35" s="40"/>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="str">
-        <f>IF(H36&lt;&gt;"",IF(F36&lt;&gt;"",CONCATENATE("...",D36,".",E36,".",F36,". - ",T36),IF(E36&lt;&gt;"",CONCATENATE("..",D36,".",E36,". - ",T36),CONCATENATE(D36,". - ",T36))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B36" s="2">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H36" s="40"/>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="str">
-        <f>IF(H37&lt;&gt;"",IF(F37&lt;&gt;"",CONCATENATE("...",D37,".",E37,".",F37,". - ",T37),IF(E37&lt;&gt;"",CONCATENATE("..",D37,".",E37,". - ",T37),CONCATENATE(D37,". - ",T37))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B37" s="2">
@@ -7416,7 +7416,7 @@
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H37" s="40"/>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="str">
-        <f>IF(H38&lt;&gt;"",IF(F38&lt;&gt;"",CONCATENATE("...",D38,".",E38,".",F38,". - ",T38),IF(E38&lt;&gt;"",CONCATENATE("..",D38,".",E38,". - ",T38),CONCATENATE(D38,". - ",T38))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B38" s="2">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H38" s="40"/>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="str">
-        <f>IF(H39&lt;&gt;"",IF(F39&lt;&gt;"",CONCATENATE("...",D39,".",E39,".",F39,". - ",T39),IF(E39&lt;&gt;"",CONCATENATE("..",D39,".",E39,". - ",T39),CONCATENATE(D39,". - ",T39))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B39" s="2">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H39" s="40"/>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="str">
-        <f>IF(H40&lt;&gt;"",IF(F40&lt;&gt;"",CONCATENATE("...",D40,".",E40,".",F40,". - ",T40),IF(E40&lt;&gt;"",CONCATENATE("..",D40,".",E40,". - ",T40),CONCATENATE(D40,". - ",T40))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B40" s="2">
@@ -7582,7 +7582,7 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H40" s="40"/>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="str">
-        <f>IF(H41&lt;&gt;"",IF(F41&lt;&gt;"",CONCATENATE("...",D41,".",E41,".",F41,". - ",T41),IF(E41&lt;&gt;"",CONCATENATE("..",D41,".",E41,". - ",T41),CONCATENATE(D41,". - ",T41))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B41" s="2">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H41" s="40"/>
@@ -7677,7 +7677,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="str">
-        <f>IF(H42&lt;&gt;"",IF(F42&lt;&gt;"",CONCATENATE("...",D42,".",E42,".",F42,". - ",T42),IF(E42&lt;&gt;"",CONCATENATE("..",D42,".",E42,". - ",T42),CONCATENATE(D42,". - ",T42))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B42" s="2">
@@ -7694,7 +7694,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H42" s="40"/>
@@ -7735,7 +7735,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="str">
-        <f>IF(H43&lt;&gt;"",IF(F43&lt;&gt;"",CONCATENATE("...",D43,".",E43,".",F43,". - ",T43),IF(E43&lt;&gt;"",CONCATENATE("..",D43,".",E43,". - ",T43),CONCATENATE(D43,". - ",T43))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B43" s="2">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H43" s="40"/>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="str">
-        <f>IF(H44&lt;&gt;"",IF(F44&lt;&gt;"",CONCATENATE("...",D44,".",E44,".",F44,". - ",T44),IF(E44&lt;&gt;"",CONCATENATE("..",D44,".",E44,". - ",T44),CONCATENATE(D44,". - ",T44))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B44" s="2">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H44" s="40"/>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="str">
-        <f>IF(H45&lt;&gt;"",IF(F45&lt;&gt;"",CONCATENATE("...",D45,".",E45,".",F45,". - ",T45),IF(E45&lt;&gt;"",CONCATENATE("..",D45,".",E45,". - ",T45),CONCATENATE(D45,". - ",T45))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B45" s="2">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cA99</v>
       </c>
       <c r="H45" s="40"/>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="str">
-        <f>IF(H46&lt;&gt;"",IF(F46&lt;&gt;"",CONCATENATE("...",D46,".",E46,".",F46,". - ",T46),IF(E46&lt;&gt;"",CONCATENATE("..",D46,".",E46,". - ",T46),CONCATENATE(D46,". - ",T46))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B46" s="2">
@@ -7960,7 +7960,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="str">
-        <f>IF(H47&lt;&gt;"",IF(F47&lt;&gt;"",CONCATENATE("...",D47,".",E47,".",F47,". - ",T47),IF(E47&lt;&gt;"",CONCATENATE("..",D47,".",E47,". - ",T47),CONCATENATE(D47,". - ",T47))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B47" s="2">
@@ -8018,7 +8018,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="str">
-        <f>IF(H48&lt;&gt;"",IF(F48&lt;&gt;"",CONCATENATE("...",D48,".",E48,".",F48,". - ",T48),IF(E48&lt;&gt;"",CONCATENATE("..",D48,".",E48,". - ",T48),CONCATENATE(D48,". - ",T48))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B48" s="2">
@@ -8072,7 +8072,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="str">
-        <f>IF(H49&lt;&gt;"",IF(F49&lt;&gt;"",CONCATENATE("...",D49,".",E49,".",F49,". - ",T49),IF(E49&lt;&gt;"",CONCATENATE("..",D49,".",E49,". - ",T49),CONCATENATE(D49,". - ",T49))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B49" s="2">
@@ -8126,7 +8126,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="str">
-        <f>IF(H50&lt;&gt;"",IF(F50&lt;&gt;"",CONCATENATE("...",D50,".",E50,".",F50,". - ",T50),IF(E50&lt;&gt;"",CONCATENATE("..",D50,".",E50,". - ",T50),CONCATENATE(D50,". - ",T50))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B50" s="2">
@@ -8180,7 +8180,7 @@
     </row>
     <row r="51" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="str">
-        <f>IF(H51&lt;&gt;"",IF(F51&lt;&gt;"",CONCATENATE("...",D51,".",E51,".",F51,". - ",T51),IF(E51&lt;&gt;"",CONCATENATE("..",D51,".",E51,". - ",T51),CONCATENATE(D51,". - ",T51))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B51" s="2">
@@ -8244,10 +8244,10 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="str">
-        <f>IF(H52&lt;&gt;"",IF(F52&lt;&gt;"",CONCATENATE("...",D52,".",E52,".",F52,". - ",T52),IF(E52&lt;&gt;"",CONCATENATE("..",D52,".",E52,". - ",T52),CONCATENATE(D52,". - ",T52))),"")</f>
-        <v>..A.07. - Respiratory infections</v>
+        <f t="shared" si="0"/>
+        <v>...A.07. - Respiratory infections</v>
       </c>
       <c r="B52" s="2">
         <v>47</v>
@@ -8304,10 +8304,10 @@
       </c>
       <c r="X52" s="2"/>
     </row>
-    <row r="53" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="str">
-        <f>IF(H53&lt;&gt;"",IF(F53&lt;&gt;"",CONCATENATE("...",D53,".",E53,".",F53,". - ",T53),IF(E53&lt;&gt;"",CONCATENATE("..",D53,".",E53,". - ",T53),CONCATENATE(D53,". - ",T53))),"")</f>
-        <v>...A.07.a. - Lower respiratory infections</v>
+        <f t="shared" si="0"/>
+        <v>....A.07.a. - Lower respiratory infections</v>
       </c>
       <c r="B53" s="2">
         <v>48</v>
@@ -8329,7 +8329,7 @@
         <v>cA07a</v>
       </c>
       <c r="H53" s="40" t="str">
-        <f t="shared" ref="H53:H54" si="2">CONCATENATE(D53,E53,F53)</f>
+        <f t="shared" ref="H53:H54" si="3">CONCATENATE(D53,E53,F53)</f>
         <v>A07a</v>
       </c>
       <c r="I53" s="5"/>
@@ -8373,10 +8373,10 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="str">
-        <f>IF(H54&lt;&gt;"",IF(F54&lt;&gt;"",CONCATENATE("...",D54,".",E54,".",F54,". - ",T54),IF(E54&lt;&gt;"",CONCATENATE("..",D54,".",E54,". - ",T54),CONCATENATE(D54,". - ",T54))),"")</f>
-        <v>...A.07.b. - Upper respiratory infections</v>
+        <f t="shared" si="0"/>
+        <v>....A.07.b. - Upper respiratory infections</v>
       </c>
       <c r="B54" s="2">
         <v>49</v>
@@ -8398,7 +8398,7 @@
         <v>cA07b</v>
       </c>
       <c r="H54" s="40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>A07b</v>
       </c>
       <c r="I54" s="5"/>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="str">
-        <f>IF(H55&lt;&gt;"",IF(F55&lt;&gt;"",CONCATENATE("...",D55,".",E55,".",F55,". - ",T55),IF(E55&lt;&gt;"",CONCATENATE("..",D55,".",E55,". - ",T55),CONCATENATE(D55,". - ",T55))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B55" s="2">
@@ -8506,10 +8506,10 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="str">
-        <f>IF(H56&lt;&gt;"",IF(F56&lt;&gt;"",CONCATENATE("...",D56,".",E56,".",F56,". - ",T56),IF(E56&lt;&gt;"",CONCATENATE("..",D56,".",E56,". - ",T56),CONCATENATE(D56,". - ",T56))),"")</f>
-        <v>..A.08. - Maternal conditions</v>
+        <f t="shared" si="0"/>
+        <v>...A.08. - Maternal conditions</v>
       </c>
       <c r="B56" s="2">
         <v>51</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="57" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="str">
-        <f>IF(H57&lt;&gt;"",IF(F57&lt;&gt;"",CONCATENATE("...",D57,".",E57,".",F57,". - ",T57),IF(E57&lt;&gt;"",CONCATENATE("..",D57,".",E57,". - ",T57),CONCATENATE(D57,". - ",T57))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B57" s="2">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="40" t="str">
-        <f t="shared" ref="G57:G62" si="3">CONCATENATE("c",D57,E57,F57)</f>
+        <f t="shared" ref="G57:G62" si="4">CONCATENATE("c",D57,E57,F57)</f>
         <v>cA08</v>
       </c>
       <c r="H57" s="40"/>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="str">
-        <f>IF(H58&lt;&gt;"",IF(F58&lt;&gt;"",CONCATENATE("...",D58,".",E58,".",F58,". - ",T58),IF(E58&lt;&gt;"",CONCATENATE("..",D58,".",E58,". - ",T58),CONCATENATE(D58,". - ",T58))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B58" s="2">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H58" s="40"/>
@@ -8700,7 +8700,7 @@
     </row>
     <row r="59" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="str">
-        <f>IF(H59&lt;&gt;"",IF(F59&lt;&gt;"",CONCATENATE("...",D59,".",E59,".",F59,". - ",T59),IF(E59&lt;&gt;"",CONCATENATE("..",D59,".",E59,". - ",T59),CONCATENATE(D59,". - ",T59))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B59" s="2">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H59" s="40"/>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="str">
-        <f>IF(H60&lt;&gt;"",IF(F60&lt;&gt;"",CONCATENATE("...",D60,".",E60,".",F60,". - ",T60),IF(E60&lt;&gt;"",CONCATENATE("..",D60,".",E60,". - ",T60),CONCATENATE(D60,". - ",T60))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B60" s="2">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H60" s="40"/>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="61" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="str">
-        <f>IF(H61&lt;&gt;"",IF(F61&lt;&gt;"",CONCATENATE("...",D61,".",E61,".",F61,". - ",T61),IF(E61&lt;&gt;"",CONCATENATE("..",D61,".",E61,". - ",T61),CONCATENATE(D61,". - ",T61))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B61" s="2">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H61" s="40"/>
@@ -8894,7 +8894,7 @@
     </row>
     <row r="62" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="str">
-        <f>IF(H62&lt;&gt;"",IF(F62&lt;&gt;"",CONCATENATE("...",D62,".",E62,".",F62,". - ",T62),IF(E62&lt;&gt;"",CONCATENATE("..",D62,".",E62,". - ",T62),CONCATENATE(D62,". - ",T62))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B62" s="2">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>cA08</v>
       </c>
       <c r="H62" s="40"/>
@@ -8956,10 +8956,10 @@
       </c>
       <c r="X62" s="2"/>
     </row>
-    <row r="63" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="str">
-        <f>IF(H63&lt;&gt;"",IF(F63&lt;&gt;"",CONCATENATE("...",D63,".",E63,".",F63,". - ",T63),IF(E63&lt;&gt;"",CONCATENATE("..",D63,".",E63,". - ",T63),CONCATENATE(D63,". - ",T63))),"")</f>
-        <v>..A.09. - Neonatal conditions</v>
+        <f t="shared" si="0"/>
+        <v>...A.09. - Neonatal conditions</v>
       </c>
       <c r="B63" s="2">
         <v>58</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="44" t="str">
-        <f>IF(H64&lt;&gt;"",IF(F64&lt;&gt;"",CONCATENATE("...",D64,".",E64,".",F64,". - ",T64),IF(E64&lt;&gt;"",CONCATENATE("..",D64,".",E64,". - ",T64),CONCATENATE(D64,". - ",T64))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B64" s="2">
@@ -9078,7 +9078,7 @@
     </row>
     <row r="65" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="str">
-        <f>IF(H65&lt;&gt;"",IF(F65&lt;&gt;"",CONCATENATE("...",D65,".",E65,".",F65,". - ",T65),IF(E65&lt;&gt;"",CONCATENATE("..",D65,".",E65,". - ",T65),CONCATENATE(D65,". - ",T65))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B65" s="2">
@@ -9136,7 +9136,7 @@
     </row>
     <row r="66" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="str">
-        <f>IF(H66&lt;&gt;"",IF(F66&lt;&gt;"",CONCATENATE("...",D66,".",E66,".",F66,". - ",T66),IF(E66&lt;&gt;"",CONCATENATE("..",D66,".",E66,". - ",T66),CONCATENATE(D66,". - ",T66))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B66" s="2">
@@ -9194,7 +9194,7 @@
     </row>
     <row r="67" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="44" t="str">
-        <f>IF(H67&lt;&gt;"",IF(F67&lt;&gt;"",CONCATENATE("...",D67,".",E67,".",F67,". - ",T67),IF(E67&lt;&gt;"",CONCATENATE("..",D67,".",E67,". - ",T67),CONCATENATE(D67,". - ",T67))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="B67" s="2">
@@ -9258,7 +9258,7 @@
     </row>
     <row r="68" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="44" t="str">
-        <f>IF(H68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("...",D68,".",E68,".",F68,". - ",T68),IF(E68&lt;&gt;"",CONCATENATE("..",D68,".",E68,". - ",T68),CONCATENATE(D68,". - ",T68))),"")</f>
+        <f t="shared" ref="A68:A131" si="5">IF(H68&lt;&gt;"",IF(F68&lt;&gt;"",CONCATENATE("....",D68,".",E68,".",F68,". - ",T68),IF(E68&lt;&gt;"",CONCATENATE("...",D68,".",E68,". - ",T68),CONCATENATE("..",D68,". - ",T68))),"")</f>
         <v/>
       </c>
       <c r="B68" s="2">
@@ -9313,7 +9313,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="44" t="str">
-        <f>IF(H69&lt;&gt;"",IF(F69&lt;&gt;"",CONCATENATE("...",D69,".",E69,".",F69,". - ",T69),IF(E69&lt;&gt;"",CONCATENATE("..",D69,".",E69,". - ",T69),CONCATENATE(D69,". - ",T69))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B69" s="2">
@@ -9371,7 +9371,7 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="str">
-        <f>IF(H70&lt;&gt;"",IF(F70&lt;&gt;"",CONCATENATE("...",D70,".",E70,".",F70,". - ",T70),IF(E70&lt;&gt;"",CONCATENATE("..",D70,".",E70,". - ",T70),CONCATENATE(D70,". - ",T70))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B70" s="2">
@@ -9429,7 +9429,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="str">
-        <f>IF(H71&lt;&gt;"",IF(F71&lt;&gt;"",CONCATENATE("...",D71,".",E71,".",F71,". - ",T71),IF(E71&lt;&gt;"",CONCATENATE("..",D71,".",E71,". - ",T71),CONCATENATE(D71,". - ",T71))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B71" s="2">
@@ -9483,7 +9483,7 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="str">
-        <f>IF(H72&lt;&gt;"",IF(F72&lt;&gt;"",CONCATENATE("...",D72,".",E72,".",F72,". - ",T72),IF(E72&lt;&gt;"",CONCATENATE("..",D72,".",E72,". - ",T72),CONCATENATE(D72,". - ",T72))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B72" s="2">
@@ -9541,7 +9541,7 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="str">
-        <f>IF(H73&lt;&gt;"",IF(F73&lt;&gt;"",CONCATENATE("...",D73,".",E73,".",F73,". - ",T73),IF(E73&lt;&gt;"",CONCATENATE("..",D73,".",E73,". - ",T73),CONCATENATE(D73,". - ",T73))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B73" s="2">
@@ -9599,7 +9599,7 @@
     </row>
     <row r="74" spans="1:24" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A74" s="44" t="str">
-        <f>IF(H74&lt;&gt;"",IF(F74&lt;&gt;"",CONCATENATE("...",D74,".",E74,".",F74,". - ",T74),IF(E74&lt;&gt;"",CONCATENATE("..",D74,".",E74,". - ",T74),CONCATENATE(D74,". - ",T74))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B74" s="2">
@@ -9650,10 +9650,10 @@
       </c>
       <c r="X74" s="2"/>
     </row>
-    <row r="75" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="str">
-        <f>IF(H75&lt;&gt;"",IF(F75&lt;&gt;"",CONCATENATE("...",D75,".",E75,".",F75,". - ",T75),IF(E75&lt;&gt;"",CONCATENATE("..",D75,".",E75,". - ",T75),CONCATENATE(D75,". - ",T75))),"")</f>
-        <v>D. - Other Chronic</v>
+        <f t="shared" si="5"/>
+        <v>..D. - Other Chronic</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="35" t="s">
@@ -9688,10 +9688,10 @@
       </c>
       <c r="X75" s="2"/>
     </row>
-    <row r="76" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="str">
-        <f>IF(H76&lt;&gt;"",IF(F76&lt;&gt;"",CONCATENATE("...",D76,".",E76,".",F76,". - ",T76),IF(E76&lt;&gt;"",CONCATENATE("..",D76,".",E76,". - ",T76),CONCATENATE(D76,". - ",T76))),"")</f>
-        <v>B. - Cancer/Malignant neoplasms</v>
+        <f t="shared" si="5"/>
+        <v>..B. - Cancer/Malignant neoplasms</v>
       </c>
       <c r="B76" s="2">
         <v>70</v>
@@ -9746,10 +9746,10 @@
       </c>
       <c r="X76" s="2"/>
     </row>
-    <row r="77" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="str">
-        <f>IF(H77&lt;&gt;"",IF(F77&lt;&gt;"",CONCATENATE("...",D77,".",E77,".",F77,". - ",T77),IF(E77&lt;&gt;"",CONCATENATE("..",D77,".",E77,". - ",T77),CONCATENATE(D77,". - ",T77))),"")</f>
-        <v>..B.01. - Mouth and oropharynx cancers</v>
+        <f t="shared" si="5"/>
+        <v>...B.01. - Mouth and oropharynx cancers</v>
       </c>
       <c r="B77" s="2">
         <v>71</v>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="40" t="str">
-        <f t="shared" ref="G77:G86" si="4">CONCATENATE("c",D77,E77,F77)</f>
+        <f t="shared" ref="G77:G86" si="6">CONCATENATE("c",D77,E77,F77)</f>
         <v>cB01</v>
       </c>
       <c r="H77" s="40" t="str">
@@ -9807,7 +9807,7 @@
     </row>
     <row r="78" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="str">
-        <f>IF(H78&lt;&gt;"",IF(F78&lt;&gt;"",CONCATENATE("...",D78,".",E78,".",F78,". - ",T78),IF(E78&lt;&gt;"",CONCATENATE("..",D78,".",E78,". - ",T78),CONCATENATE(D78,". - ",T78))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B78" s="2">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="H78" s="40"/>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="str">
-        <f>IF(H79&lt;&gt;"",IF(F79&lt;&gt;"",CONCATENATE("...",D79,".",E79,".",F79,". - ",T79),IF(E79&lt;&gt;"",CONCATENATE("..",D79,".",E79,". - ",T79),CONCATENATE(D79,". - ",T79))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B79" s="2">
@@ -9888,7 +9888,7 @@
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="H79" s="40"/>
@@ -9935,7 +9935,7 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="str">
-        <f>IF(H80&lt;&gt;"",IF(F80&lt;&gt;"",CONCATENATE("...",D80,".",E80,".",F80,". - ",T80),IF(E80&lt;&gt;"",CONCATENATE("..",D80,".",E80,". - ",T80),CONCATENATE(D80,". - ",T80))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B80" s="2">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB01</v>
       </c>
       <c r="H80" s="40"/>
@@ -9993,10 +9993,10 @@
       </c>
       <c r="X80" s="2"/>
     </row>
-    <row r="81" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="str">
-        <f>IF(H81&lt;&gt;"",IF(F81&lt;&gt;"",CONCATENATE("...",D81,".",E81,".",F81,". - ",T81),IF(E81&lt;&gt;"",CONCATENATE("..",D81,".",E81,". - ",T81),CONCATENATE(D81,". - ",T81))),"")</f>
-        <v>..B.02. - Oesophagus cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.02. - Oesophagus cancer</v>
       </c>
       <c r="B81" s="2">
         <v>75</v>
@@ -10012,11 +10012,11 @@
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB02</v>
       </c>
       <c r="H81" s="40" t="str">
-        <f t="shared" ref="H81:H87" si="5">CONCATENATE(D81,E81,F81)</f>
+        <f t="shared" ref="H81:H87" si="7">CONCATENATE(D81,E81,F81)</f>
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
@@ -10060,10 +10060,10 @@
       </c>
       <c r="X81" s="2"/>
     </row>
-    <row r="82" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="str">
-        <f>IF(H82&lt;&gt;"",IF(F82&lt;&gt;"",CONCATENATE("...",D82,".",E82,".",F82,". - ",T82),IF(E82&lt;&gt;"",CONCATENATE("..",D82,".",E82,". - ",T82),CONCATENATE(D82,". - ",T82))),"")</f>
-        <v>..B.03. - Stomach cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.03. - Stomach cancer</v>
       </c>
       <c r="B82" s="2">
         <v>76</v>
@@ -10079,11 +10079,11 @@
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB03</v>
       </c>
       <c r="H82" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
@@ -10129,10 +10129,10 @@
         <v>952</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="str">
-        <f>IF(H83&lt;&gt;"",IF(F83&lt;&gt;"",CONCATENATE("...",D83,".",E83,".",F83,". - ",T83),IF(E83&lt;&gt;"",CONCATENATE("..",D83,".",E83,". - ",T83),CONCATENATE(D83,". - ",T83))),"")</f>
-        <v>..B.04. - Colon and rectum cancers</v>
+        <f t="shared" si="5"/>
+        <v>...B.04. - Colon and rectum cancers</v>
       </c>
       <c r="B83" s="2">
         <v>77</v>
@@ -10148,11 +10148,11 @@
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB04</v>
       </c>
       <c r="H83" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
@@ -10196,10 +10196,10 @@
       </c>
       <c r="X83" s="2"/>
     </row>
-    <row r="84" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="str">
-        <f>IF(H84&lt;&gt;"",IF(F84&lt;&gt;"",CONCATENATE("...",D84,".",E84,".",F84,". - ",T84),IF(E84&lt;&gt;"",CONCATENATE("..",D84,".",E84,". - ",T84),CONCATENATE(D84,". - ",T84))),"")</f>
-        <v>..B.05. - Liver cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.05. - Liver cancer</v>
       </c>
       <c r="B84" s="2">
         <v>78</v>
@@ -10215,11 +10215,11 @@
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB05</v>
       </c>
       <c r="H84" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
@@ -10263,10 +10263,10 @@
       </c>
       <c r="X84" s="2"/>
     </row>
-    <row r="85" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="str">
-        <f>IF(H85&lt;&gt;"",IF(F85&lt;&gt;"",CONCATENATE("...",D85,".",E85,".",F85,". - ",T85),IF(E85&lt;&gt;"",CONCATENATE("..",D85,".",E85,". - ",T85),CONCATENATE(D85,". - ",T85))),"")</f>
-        <v>..B.06. - Pancreas cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.06. - Pancreas cancer</v>
       </c>
       <c r="B85" s="2">
         <v>79</v>
@@ -10282,11 +10282,11 @@
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB06</v>
       </c>
       <c r="H85" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
@@ -10330,10 +10330,10 @@
       </c>
       <c r="X85" s="2"/>
     </row>
-    <row r="86" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="str">
-        <f>IF(H86&lt;&gt;"",IF(F86&lt;&gt;"",CONCATENATE("...",D86,".",E86,".",F86,". - ",T86),IF(E86&lt;&gt;"",CONCATENATE("..",D86,".",E86,". - ",T86),CONCATENATE(D86,". - ",T86))),"")</f>
-        <v>..B.07. - Trachea, bronchus and lung cancers</v>
+        <f t="shared" si="5"/>
+        <v>...B.07. - Trachea, bronchus and lung cancers</v>
       </c>
       <c r="B86" s="2">
         <v>80</v>
@@ -10349,11 +10349,11 @@
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>cB07</v>
       </c>
       <c r="H86" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
@@ -10397,10 +10397,10 @@
       </c>
       <c r="X86" s="2"/>
     </row>
-    <row r="87" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="str">
-        <f>IF(H87&lt;&gt;"",IF(F87&lt;&gt;"",CONCATENATE("...",D87,".",E87,".",F87,". - ",T87),IF(E87&lt;&gt;"",CONCATENATE("..",D87,".",E87,". - ",T87),CONCATENATE(D87,". - ",T87))),"")</f>
-        <v>..B.08. - Melanoma and other skin cancers</v>
+        <f t="shared" si="5"/>
+        <v>...B.08. - Melanoma and other skin cancers</v>
       </c>
       <c r="B87" s="2">
         <v>81</v>
@@ -10419,7 +10419,7 @@
         <v>952</v>
       </c>
       <c r="H87" s="40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>B08</v>
       </c>
       <c r="J87" s="17" t="s">
@@ -10458,7 +10458,7 @@
     </row>
     <row r="88" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="str">
-        <f>IF(H88&lt;&gt;"",IF(F88&lt;&gt;"",CONCATENATE("...",D88,".",E88,".",F88,". - ",T88),IF(E88&lt;&gt;"",CONCATENATE("..",D88,".",E88,". - ",T88),CONCATENATE(D88,". - ",T88))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B88" s="2">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="40" t="str">
-        <f t="shared" ref="G88:G103" si="6">CONCATENATE("c",D88,E88,F88)</f>
+        <f t="shared" ref="G88:G103" si="8">CONCATENATE("c",D88,E88,F88)</f>
         <v>cB08</v>
       </c>
       <c r="H88" s="40"/>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="str">
-        <f>IF(H89&lt;&gt;"",IF(F89&lt;&gt;"",CONCATENATE("...",D89,".",E89,".",F89,". - ",T89),IF(E89&lt;&gt;"",CONCATENATE("..",D89,".",E89,". - ",T89),CONCATENATE(D89,". - ",T89))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B89" s="2">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB08</v>
       </c>
       <c r="H89" s="40"/>
@@ -10584,10 +10584,10 @@
       </c>
       <c r="X89" s="2"/>
     </row>
-    <row r="90" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="str">
-        <f>IF(H90&lt;&gt;"",IF(F90&lt;&gt;"",CONCATENATE("...",D90,".",E90,".",F90,". - ",T90),IF(E90&lt;&gt;"",CONCATENATE("..",D90,".",E90,". - ",T90),CONCATENATE(D90,". - ",T90))),"")</f>
-        <v>..B.09. - Breast cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.09. - Breast cancer</v>
       </c>
       <c r="B90" s="2">
         <v>84</v>
@@ -10603,7 +10603,7 @@
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB09</v>
       </c>
       <c r="H90" s="40" t="str">
@@ -10651,10 +10651,10 @@
       </c>
       <c r="X90" s="2"/>
     </row>
-    <row r="91" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="str">
-        <f>IF(H91&lt;&gt;"",IF(F91&lt;&gt;"",CONCATENATE("...",D91,".",E91,".",F91,". - ",T91),IF(E91&lt;&gt;"",CONCATENATE("..",D91,".",E91,". - ",T91),CONCATENATE(D91,". - ",T91))),"")</f>
-        <v>..B.10. - Uterine cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.10. - Uterine cancer</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="37" t="s">
@@ -10696,7 +10696,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="str">
-        <f>IF(H92&lt;&gt;"",IF(F92&lt;&gt;"",CONCATENATE("...",D92,".",E92,".",F92,". - ",T92),IF(E92&lt;&gt;"",CONCATENATE("..",D92,".",E92,". - ",T92),CONCATENATE(D92,". - ",T92))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B92" s="2">
@@ -10760,7 +10760,7 @@
     </row>
     <row r="93" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="str">
-        <f>IF(H93&lt;&gt;"",IF(F93&lt;&gt;"",CONCATENATE("...",D93,".",E93,".",F93,". - ",T93),IF(E93&lt;&gt;"",CONCATENATE("..",D93,".",E93,". - ",T93),CONCATENATE(D93,". - ",T93))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B93" s="2">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB10</v>
       </c>
       <c r="H93" s="40"/>
@@ -10822,10 +10822,10 @@
       </c>
       <c r="X93" s="2"/>
     </row>
-    <row r="94" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="str">
-        <f>IF(H94&lt;&gt;"",IF(F94&lt;&gt;"",CONCATENATE("...",D94,".",E94,".",F94,". - ",T94),IF(E94&lt;&gt;"",CONCATENATE("..",D94,".",E94,". - ",T94),CONCATENATE(D94,". - ",T94))),"")</f>
-        <v>..B.11. - Ovary cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.11. - Ovary cancer</v>
       </c>
       <c r="B94" s="2">
         <v>87</v>
@@ -10841,7 +10841,7 @@
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB11</v>
       </c>
       <c r="H94" s="40" t="str">
@@ -10889,10 +10889,10 @@
       </c>
       <c r="X94" s="2"/>
     </row>
-    <row r="95" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="str">
-        <f>IF(H95&lt;&gt;"",IF(F95&lt;&gt;"",CONCATENATE("...",D95,".",E95,".",F95,". - ",T95),IF(E95&lt;&gt;"",CONCATENATE("..",D95,".",E95,". - ",T95),CONCATENATE(D95,". - ",T95))),"")</f>
-        <v>..B.12. - Prostate cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.12. - Prostate cancer</v>
       </c>
       <c r="B95" s="2">
         <v>88</v>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB12</v>
       </c>
       <c r="H95" s="40" t="str">
@@ -10958,7 +10958,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="str">
-        <f>IF(H96&lt;&gt;"",IF(F96&lt;&gt;"",CONCATENATE("...",D96,".",E96,".",F96,". - ",T96),IF(E96&lt;&gt;"",CONCATENATE("..",D96,".",E96,". - ",T96),CONCATENATE(D96,". - ",T96))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B96" s="2">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H96" s="40"/>
@@ -11020,10 +11020,10 @@
       </c>
       <c r="X96" s="2"/>
     </row>
-    <row r="97" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="str">
-        <f>IF(H97&lt;&gt;"",IF(F97&lt;&gt;"",CONCATENATE("...",D97,".",E97,".",F97,". - ",T97),IF(E97&lt;&gt;"",CONCATENATE("..",D97,".",E97,". - ",T97),CONCATENATE(D97,". - ",T97))),"")</f>
-        <v>..B.13. - Kidney, renal pelvis and ureter cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.13. - Kidney, renal pelvis and ureter cancer</v>
       </c>
       <c r="B97" s="2">
         <v>90</v>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB13</v>
       </c>
       <c r="H97" s="40" t="str">
@@ -11087,10 +11087,10 @@
       </c>
       <c r="X97" s="2"/>
     </row>
-    <row r="98" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="str">
-        <f>IF(H98&lt;&gt;"",IF(F98&lt;&gt;"",CONCATENATE("...",D98,".",E98,".",F98,". - ",T98),IF(E98&lt;&gt;"",CONCATENATE("..",D98,".",E98,". - ",T98),CONCATENATE(D98,". - ",T98))),"")</f>
-        <v>..B.14. - Bladder cancer</v>
+        <f t="shared" si="5"/>
+        <v>...B.14. - Bladder cancer</v>
       </c>
       <c r="B98" s="2">
         <v>91</v>
@@ -11106,7 +11106,7 @@
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB14</v>
       </c>
       <c r="H98" s="40" t="str">
@@ -11154,10 +11154,10 @@
       </c>
       <c r="X98" s="2"/>
     </row>
-    <row r="99" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="str">
-        <f>IF(H99&lt;&gt;"",IF(F99&lt;&gt;"",CONCATENATE("...",D99,".",E99,".",F99,". - ",T99),IF(E99&lt;&gt;"",CONCATENATE("..",D99,".",E99,". - ",T99),CONCATENATE(D99,". - ",T99))),"")</f>
-        <v>..B.15. - Brain and nervous system cancers</v>
+        <f t="shared" si="5"/>
+        <v>...B.15. - Brain and nervous system cancers</v>
       </c>
       <c r="B99" s="2">
         <v>92</v>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB15</v>
       </c>
       <c r="H99" s="40" t="str">
@@ -11223,7 +11223,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="str">
-        <f>IF(H100&lt;&gt;"",IF(F100&lt;&gt;"",CONCATENATE("...",D100,".",E100,".",F100,". - ",T100),IF(E100&lt;&gt;"",CONCATENATE("..",D100,".",E100,". - ",T100),CONCATENATE(D100,". - ",T100))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B100" s="2">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H100" s="40"/>
@@ -11287,7 +11287,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="str">
-        <f>IF(H101&lt;&gt;"",IF(F101&lt;&gt;"",CONCATENATE("...",D101,".",E101,".",F101,". - ",T101),IF(E101&lt;&gt;"",CONCATENATE("..",D101,".",E101,". - ",T101),CONCATENATE(D101,". - ",T101))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B101" s="2">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H101" s="40"/>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="str">
-        <f>IF(H102&lt;&gt;"",IF(F102&lt;&gt;"",CONCATENATE("...",D102,".",E102,".",F102,". - ",T102),IF(E102&lt;&gt;"",CONCATENATE("..",D102,".",E102,". - ",T102),CONCATENATE(D102,". - ",T102))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B102" s="2">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H102" s="40"/>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="str">
-        <f>IF(H103&lt;&gt;"",IF(F103&lt;&gt;"",CONCATENATE("...",D103,".",E103,".",F103,". - ",T103),IF(E103&lt;&gt;"",CONCATENATE("..",D103,".",E103,". - ",T103),CONCATENATE(D103,". - ",T103))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B103" s="2">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>cB99</v>
       </c>
       <c r="H103" s="40"/>
@@ -11473,10 +11473,10 @@
       </c>
       <c r="X103" s="2"/>
     </row>
-    <row r="104" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="str">
-        <f>IF(H104&lt;&gt;"",IF(F104&lt;&gt;"",CONCATENATE("...",D104,".",E104,".",F104,". - ",T104),IF(E104&lt;&gt;"",CONCATENATE("..",D104,".",E104,". - ",T104),CONCATENATE(D104,". - ",T104))),"")</f>
-        <v>..B.16. - Lymphomas and multiple myeloma</v>
+        <f t="shared" si="5"/>
+        <v>...B.16. - Lymphomas and multiple myeloma</v>
       </c>
       <c r="B104" s="2">
         <v>97</v>
@@ -11493,7 +11493,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="40"/>
       <c r="H104" s="40" t="str">
-        <f t="shared" ref="H104:H109" si="7">CONCATENATE(D104,E104,F104)</f>
+        <f t="shared" ref="H104:H109" si="9">CONCATENATE(D104,E104,F104)</f>
         <v>B16</v>
       </c>
       <c r="I104" s="5"/>
@@ -11533,10 +11533,10 @@
       </c>
       <c r="X104" s="2"/>
     </row>
-    <row r="105" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="str">
-        <f>IF(H105&lt;&gt;"",IF(F105&lt;&gt;"",CONCATENATE("...",D105,".",E105,".",F105,". - ",T105),IF(E105&lt;&gt;"",CONCATENATE("..",D105,".",E105,". - ",T105),CONCATENATE(D105,". - ",T105))),"")</f>
-        <v>...B.16.a. - Hodgkin lymphoma</v>
+        <f t="shared" si="5"/>
+        <v>....B.16.a. - Hodgkin lymphoma</v>
       </c>
       <c r="B105" s="2">
         <v>98</v>
@@ -11554,11 +11554,11 @@
         <v>1126</v>
       </c>
       <c r="G105" s="40" t="str">
-        <f t="shared" ref="G105:G111" si="8">CONCATENATE("c",D105,E105,F105)</f>
+        <f t="shared" ref="G105:G111" si="10">CONCATENATE("c",D105,E105,F105)</f>
         <v>cB16a</v>
       </c>
       <c r="H105" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>B16a</v>
       </c>
       <c r="I105" s="5"/>
@@ -11598,10 +11598,10 @@
       </c>
       <c r="X105" s="2"/>
     </row>
-    <row r="106" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="str">
-        <f>IF(H106&lt;&gt;"",IF(F106&lt;&gt;"",CONCATENATE("...",D106,".",E106,".",F106,". - ",T106),IF(E106&lt;&gt;"",CONCATENATE("..",D106,".",E106,". - ",T106),CONCATENATE(D106,". - ",T106))),"")</f>
-        <v>...B.16.b. - Non-Hodgkin lymphoma</v>
+        <f t="shared" si="5"/>
+        <v>....B.16.b. - Non-Hodgkin lymphoma</v>
       </c>
       <c r="B106" s="2">
         <v>99</v>
@@ -11619,11 +11619,11 @@
         <v>1127</v>
       </c>
       <c r="G106" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cB16b</v>
       </c>
       <c r="H106" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>B16b</v>
       </c>
       <c r="I106" s="5"/>
@@ -11663,10 +11663,10 @@
       </c>
       <c r="X106" s="2"/>
     </row>
-    <row r="107" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="str">
-        <f>IF(H107&lt;&gt;"",IF(F107&lt;&gt;"",CONCATENATE("...",D107,".",E107,".",F107,". - ",T107),IF(E107&lt;&gt;"",CONCATENATE("..",D107,".",E107,". - ",T107),CONCATENATE(D107,". - ",T107))),"")</f>
-        <v>...B.16.c. - Multiple myeloma</v>
+        <f t="shared" si="5"/>
+        <v>....B.16.c. - Multiple myeloma</v>
       </c>
       <c r="B107" s="2">
         <v>100</v>
@@ -11684,11 +11684,11 @@
         <v>1130</v>
       </c>
       <c r="G107" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cB16c</v>
       </c>
       <c r="H107" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>B16c</v>
       </c>
       <c r="I107" s="5"/>
@@ -11728,10 +11728,10 @@
       </c>
       <c r="X107" s="2"/>
     </row>
-    <row r="108" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="str">
-        <f>IF(H108&lt;&gt;"",IF(F108&lt;&gt;"",CONCATENATE("...",D108,".",E108,".",F108,". - ",T108),IF(E108&lt;&gt;"",CONCATENATE("..",D108,".",E108,". - ",T108),CONCATENATE(D108,". - ",T108))),"")</f>
-        <v>..B.17. - Leukaemia</v>
+        <f t="shared" si="5"/>
+        <v>...B.17. - Leukaemia</v>
       </c>
       <c r="B108" s="2">
         <v>101</v>
@@ -11747,11 +11747,11 @@
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cB17</v>
       </c>
       <c r="H108" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>B17</v>
       </c>
       <c r="I108" s="5"/>
@@ -11791,10 +11791,10 @@
       </c>
       <c r="X108" s="2"/>
     </row>
-    <row r="109" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="str">
-        <f>IF(H109&lt;&gt;"",IF(F109&lt;&gt;"",CONCATENATE("...",D109,".",E109,".",F109,". - ",T109),IF(E109&lt;&gt;"",CONCATENATE("..",D109,".",E109,". - ",T109),CONCATENATE(D109,". - ",T109))),"")</f>
-        <v>..B.99. - Other malignant neoplasms</v>
+        <f t="shared" si="5"/>
+        <v>...B.99. - Other malignant neoplasms</v>
       </c>
       <c r="B109" s="2">
         <v>102</v>
@@ -11810,11 +11810,11 @@
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cB99</v>
       </c>
       <c r="H109" s="40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -11856,7 +11856,7 @@
     </row>
     <row r="110" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="str">
-        <f>IF(H110&lt;&gt;"",IF(F110&lt;&gt;"",CONCATENATE("...",D110,".",E110,".",F110,". - ",T110),IF(E110&lt;&gt;"",CONCATENATE("..",D110,".",E110,". - ",T110),CONCATENATE(D110,". - ",T110))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B110" s="2">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD99</v>
       </c>
       <c r="H110" s="40"/>
@@ -11914,8 +11914,8 @@
     </row>
     <row r="111" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="str">
-        <f>IF(H111&lt;&gt;"",IF(F111&lt;&gt;"",CONCATENATE("...",D111,".",E111,".",F111,". - ",T111),IF(E111&lt;&gt;"",CONCATENATE("..",D111,".",E111,". - ",T111),CONCATENATE(D111,". - ",T111))),"")</f>
-        <v>..D.01. - Diabetes mellitus</v>
+        <f t="shared" si="5"/>
+        <v>...D.01. - Diabetes mellitus</v>
       </c>
       <c r="B111" s="2">
         <v>104</v>
@@ -11931,7 +11931,7 @@
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>cD01</v>
       </c>
       <c r="H111" s="40" t="str">
@@ -11985,10 +11985,10 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="str">
-        <f>IF(H112&lt;&gt;"",IF(F112&lt;&gt;"",CONCATENATE("...",D112,".",E112,".",F112,". - ",T112),IF(E112&lt;&gt;"",CONCATENATE("..",D112,".",E112,". - ",T112),CONCATENATE(D112,". - ",T112))),"")</f>
-        <v>..D.02. - Endocrine, blood, immune disorders</v>
+        <f t="shared" si="5"/>
+        <v>...D.02. - Endocrine, blood, immune disorders</v>
       </c>
       <c r="B112" s="2">
         <v>105</v>
@@ -12049,7 +12049,7 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="str">
-        <f>IF(H113&lt;&gt;"",IF(F113&lt;&gt;"",CONCATENATE("...",D113,".",E113,".",F113,". - ",T113),IF(E113&lt;&gt;"",CONCATENATE("..",D113,".",E113,". - ",T113),CONCATENATE(D113,". - ",T113))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B113" s="2">
@@ -12109,7 +12109,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="str">
-        <f>IF(H114&lt;&gt;"",IF(F114&lt;&gt;"",CONCATENATE("...",D114,".",E114,".",F114,". - ",T114),IF(E114&lt;&gt;"",CONCATENATE("..",D114,".",E114,". - ",T114),CONCATENATE(D114,". - ",T114))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B114" s="2">
@@ -12169,7 +12169,7 @@
     </row>
     <row r="115" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="str">
-        <f>IF(H115&lt;&gt;"",IF(F115&lt;&gt;"",CONCATENATE("...",D115,".",E115,".",F115,". - ",T115),IF(E115&lt;&gt;"",CONCATENATE("..",D115,".",E115,". - ",T115),CONCATENATE(D115,". - ",T115))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B115" s="2">
@@ -12229,7 +12229,7 @@
     </row>
     <row r="116" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A116" s="44" t="str">
-        <f>IF(H116&lt;&gt;"",IF(F116&lt;&gt;"",CONCATENATE("...",D116,".",E116,".",F116,". - ",T116),IF(E116&lt;&gt;"",CONCATENATE("..",D116,".",E116,". - ",T116),CONCATENATE(D116,". - ",T116))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B116" s="2">
@@ -12289,7 +12289,7 @@
     </row>
     <row r="117" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A117" s="44" t="str">
-        <f>IF(H117&lt;&gt;"",IF(F117&lt;&gt;"",CONCATENATE("...",D117,".",E117,".",F117,". - ",T117),IF(E117&lt;&gt;"",CONCATENATE("..",D117,".",E117,". - ",T117),CONCATENATE(D117,". - ",T117))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B117" s="2">
@@ -12346,10 +12346,10 @@
       </c>
       <c r="X117" s="2"/>
     </row>
-    <row r="118" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="str">
-        <f>IF(H118&lt;&gt;"",IF(F118&lt;&gt;"",CONCATENATE("...",D118,".",E118,".",F118,". - ",T118),IF(E118&lt;&gt;"",CONCATENATE("..",D118,".",E118,". - ",T118),CONCATENATE(D118,". - ",T118))),"")</f>
-        <v xml:space="preserve">..D.03. - Mental Health disorders </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">...D.03. - Mental Health disorders </v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
@@ -12390,10 +12390,10 @@
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
     </row>
-    <row r="119" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="str">
-        <f>IF(H119&lt;&gt;"",IF(F119&lt;&gt;"",CONCATENATE("...",D119,".",E119,".",F119,". - ",T119),IF(E119&lt;&gt;"",CONCATENATE("..",D119,".",E119,". - ",T119),CONCATENATE(D119,". - ",T119))),"")</f>
-        <v xml:space="preserve">..D.04. - Substance use </v>
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">...D.04. - Substance use </v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="32" t="s">
@@ -12434,7 +12434,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="str">
-        <f>IF(H120&lt;&gt;"",IF(F120&lt;&gt;"",CONCATENATE("...",D120,".",E120,".",F120,". - ",T120),IF(E120&lt;&gt;"",CONCATENATE("..",D120,".",E120,". - ",T120),CONCATENATE(D120,". - ",T120))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B120" s="2"/>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="str">
-        <f>IF(H121&lt;&gt;"",IF(F121&lt;&gt;"",CONCATENATE("...",D121,".",E121,".",F121,". - ",T121),IF(E121&lt;&gt;"",CONCATENATE("..",D121,".",E121,". - ",T121),CONCATENATE(D121,". - ",T121))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B121" s="2">
@@ -12514,7 +12514,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="str">
-        <f>IF(H122&lt;&gt;"",IF(F122&lt;&gt;"",CONCATENATE("...",D122,".",E122,".",F122,". - ",T122),IF(E122&lt;&gt;"",CONCATENATE("..",D122,".",E122,". - ",T122),CONCATENATE(D122,". - ",T122))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B122" s="2">
@@ -12574,7 +12574,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="44" t="str">
-        <f>IF(H123&lt;&gt;"",IF(F123&lt;&gt;"",CONCATENATE("...",D123,".",E123,".",F123,". - ",T123),IF(E123&lt;&gt;"",CONCATENATE("..",D123,".",E123,". - ",T123),CONCATENATE(D123,". - ",T123))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B123" s="2">
@@ -12634,7 +12634,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="44" t="str">
-        <f>IF(H124&lt;&gt;"",IF(F124&lt;&gt;"",CONCATENATE("...",D124,".",E124,".",F124,". - ",T124),IF(E124&lt;&gt;"",CONCATENATE("..",D124,".",E124,". - ",T124),CONCATENATE(D124,". - ",T124))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B124" s="2">
@@ -12694,7 +12694,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="44" t="str">
-        <f>IF(H125&lt;&gt;"",IF(F125&lt;&gt;"",CONCATENATE("...",D125,".",E125,".",F125,". - ",T125),IF(E125&lt;&gt;"",CONCATENATE("..",D125,".",E125,". - ",T125),CONCATENATE(D125,". - ",T125))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B125" s="2">
@@ -12756,10 +12756,10 @@
       </c>
       <c r="X125" s="2"/>
     </row>
-    <row r="126" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A126" s="44" t="str">
-        <f>IF(H126&lt;&gt;"",IF(F126&lt;&gt;"",CONCATENATE("...",D126,".",E126,".",F126,". - ",T126),IF(E126&lt;&gt;"",CONCATENATE("..",D126,".",E126,". - ",T126),CONCATENATE(D126,". - ",T126))),"")</f>
-        <v>...D.04.a. - Alcohol use disorders</v>
+        <f t="shared" si="5"/>
+        <v>....D.04.a. - Alcohol use disorders</v>
       </c>
       <c r="B126" s="2">
         <v>116</v>
@@ -12827,7 +12827,7 @@
     </row>
     <row r="127" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="44" t="str">
-        <f>IF(H127&lt;&gt;"",IF(F127&lt;&gt;"",CONCATENATE("...",D127,".",E127,".",F127,". - ",T127),IF(E127&lt;&gt;"",CONCATENATE("..",D127,".",E127,". - ",T127),CONCATENATE(D127,". - ",T127))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B127" s="2">
@@ -12878,10 +12878,10 @@
       </c>
       <c r="X127" s="2"/>
     </row>
-    <row r="128" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="str">
-        <f>IF(H128&lt;&gt;"",IF(F128&lt;&gt;"",CONCATENATE("...",D128,".",E128,".",F128,". - ",T128),IF(E128&lt;&gt;"",CONCATENATE("..",D128,".",E128,". - ",T128),CONCATENATE(D128,". - ",T128))),"")</f>
-        <v>...D.04.b. - Opioid use disorders</v>
+        <f t="shared" si="5"/>
+        <v>....D.04.b. - Opioid use disorders</v>
       </c>
       <c r="B128" s="2">
         <v>118</v>
@@ -12899,7 +12899,7 @@
         <v>1127</v>
       </c>
       <c r="G128" s="40" t="str">
-        <f t="shared" ref="G128:G135" si="9">CONCATENATE("c",D128,E128,F128)</f>
+        <f t="shared" ref="G128:G135" si="11">CONCATENATE("c",D128,E128,F128)</f>
         <v>cD04b</v>
       </c>
       <c r="H128" s="40" t="str">
@@ -12943,10 +12943,10 @@
       </c>
       <c r="X128" s="2"/>
     </row>
-    <row r="129" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="str">
-        <f>IF(H129&lt;&gt;"",IF(F129&lt;&gt;"",CONCATENATE("...",D129,".",E129,".",F129,". - ",T129),IF(E129&lt;&gt;"",CONCATENATE("..",D129,".",E129,". - ",T129),CONCATENATE(D129,". - ",T129))),"")</f>
-        <v>...D.04.c. - Cocaine use disorders</v>
+        <f t="shared" si="5"/>
+        <v>....D.04.c. - Cocaine use disorders</v>
       </c>
       <c r="B129" s="2">
         <v>119</v>
@@ -12964,7 +12964,7 @@
         <v>1130</v>
       </c>
       <c r="G129" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>cD04c</v>
       </c>
       <c r="H129" s="40" t="str">
@@ -13008,10 +13008,10 @@
       </c>
       <c r="X129" s="2"/>
     </row>
-    <row r="130" spans="1:24" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="str">
-        <f>IF(H130&lt;&gt;"",IF(F130&lt;&gt;"",CONCATENATE("...",D130,".",E130,".",F130,". - ",T130),IF(E130&lt;&gt;"",CONCATENATE("..",D130,".",E130,". - ",T130),CONCATENATE(D130,". - ",T130))),"")</f>
-        <v>...D.04.d. - Amphetamine use disorders</v>
+        <f t="shared" si="5"/>
+        <v>....D.04.d. - Amphetamine use disorders</v>
       </c>
       <c r="B130" s="2">
         <v>120</v>
@@ -13029,7 +13029,7 @@
         <v>1154</v>
       </c>
       <c r="G130" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>cD04d</v>
       </c>
       <c r="H130" s="40" t="str">
@@ -13075,7 +13075,7 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="str">
-        <f>IF(H131&lt;&gt;"",IF(F131&lt;&gt;"",CONCATENATE("...",D131,".",E131,".",F131,". - ",T131),IF(E131&lt;&gt;"",CONCATENATE("..",D131,".",E131,". - ",T131),CONCATENATE(D131,". - ",T131))),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B131" s="2">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>cD04</v>
       </c>
       <c r="H131" s="40"/>
@@ -13130,7 +13130,7 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="str">
-        <f>IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("...",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("..",D132,".",E132,". - ",T132),CONCATENATE(D132,". - ",T132))),"")</f>
+        <f t="shared" ref="A132:A195" si="12">IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("....",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("...",D132,".",E132,". - ",T132),CONCATENATE("..",D132,". - ",T132))),"")</f>
         <v/>
       </c>
       <c r="B132" s="2">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>cD04</v>
       </c>
       <c r="H132" s="40"/>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="str">
-        <f>IF(H133&lt;&gt;"",IF(F133&lt;&gt;"",CONCATENATE("...",D133,".",E133,".",F133,". - ",T133),IF(E133&lt;&gt;"",CONCATENATE("..",D133,".",E133,". - ",T133),CONCATENATE(D133,". - ",T133))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B133" s="2">
@@ -13213,7 +13213,7 @@
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="H133" s="40"/>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="44" t="str">
-        <f>IF(H134&lt;&gt;"",IF(F134&lt;&gt;"",CONCATENATE("...",D134,".",E134,".",F134,". - ",T134),IF(E134&lt;&gt;"",CONCATENATE("..",D134,".",E134,". - ",T134),CONCATENATE(D134,". - ",T134))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B134" s="2">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="H134" s="40"/>
@@ -13312,7 +13312,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="44" t="str">
-        <f>IF(H135&lt;&gt;"",IF(F135&lt;&gt;"",CONCATENATE("...",D135,".",E135,".",F135,". - ",T135),IF(E135&lt;&gt;"",CONCATENATE("..",D135,".",E135,". - ",T135),CONCATENATE(D135,". - ",T135))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B135" s="2">
@@ -13329,7 +13329,7 @@
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>cD03</v>
       </c>
       <c r="H135" s="40"/>
@@ -13368,7 +13368,7 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="44" t="str">
-        <f>IF(H136&lt;&gt;"",IF(F136&lt;&gt;"",CONCATENATE("...",D136,".",E136,".",F136,". - ",T136),IF(E136&lt;&gt;"",CONCATENATE("..",D136,".",E136,". - ",T136),CONCATENATE(D136,". - ",T136))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B136" s="2">
@@ -13417,7 +13417,7 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="44" t="str">
-        <f>IF(H137&lt;&gt;"",IF(F137&lt;&gt;"",CONCATENATE("...",D137,".",E137,".",F137,". - ",T137),IF(E137&lt;&gt;"",CONCATENATE("..",D137,".",E137,". - ",T137),CONCATENATE(D137,". - ",T137))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B137" s="2">
@@ -13473,7 +13473,7 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="str">
-        <f>IF(H138&lt;&gt;"",IF(F138&lt;&gt;"",CONCATENATE("...",D138,".",E138,".",F138,". - ",T138),IF(E138&lt;&gt;"",CONCATENATE("..",D138,".",E138,". - ",T138),CONCATENATE(D138,". - ",T138))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B138" s="2">
@@ -13529,7 +13529,7 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="str">
-        <f>IF(H139&lt;&gt;"",IF(F139&lt;&gt;"",CONCATENATE("...",D139,".",E139,".",F139,". - ",T139),IF(E139&lt;&gt;"",CONCATENATE("..",D139,".",E139,". - ",T139),CONCATENATE(D139,". - ",T139))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B139" s="2">
@@ -13585,7 +13585,7 @@
     </row>
     <row r="140" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="str">
-        <f>IF(H140&lt;&gt;"",IF(F140&lt;&gt;"",CONCATENATE("...",D140,".",E140,".",F140,". - ",T140),IF(E140&lt;&gt;"",CONCATENATE("..",D140,".",E140,". - ",T140),CONCATENATE(D140,". - ",T140))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B140" s="2">
@@ -13641,7 +13641,7 @@
     </row>
     <row r="141" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="44" t="str">
-        <f>IF(H141&lt;&gt;"",IF(F141&lt;&gt;"",CONCATENATE("...",D141,".",E141,".",F141,". - ",T141),IF(E141&lt;&gt;"",CONCATENATE("..",D141,".",E141,". - ",T141),CONCATENATE(D141,". - ",T141))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B141" s="2">
@@ -13698,10 +13698,10 @@
         <v>607</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="44" t="str">
-        <f>IF(H142&lt;&gt;"",IF(F142&lt;&gt;"",CONCATENATE("...",D142,".",E142,".",F142,". - ",T142),IF(E142&lt;&gt;"",CONCATENATE("..",D142,".",E142,". - ",T142),CONCATENATE(D142,". - ",T142))),"")</f>
-        <v>..D.05. - Alzheimer’s disease and other dementias</v>
+        <f t="shared" si="12"/>
+        <v>...D.05. - Alzheimer’s disease and other dementias</v>
       </c>
       <c r="B142" s="2">
         <v>132</v>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="40" t="str">
-        <f t="shared" ref="G142:G148" si="10">CONCATENATE("c",D142,E142,F142)</f>
+        <f t="shared" ref="G142:G148" si="13">CONCATENATE("c",D142,E142,F142)</f>
         <v>cD05</v>
       </c>
       <c r="H142" s="40" t="str">
@@ -13763,7 +13763,7 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="44" t="str">
-        <f>IF(H143&lt;&gt;"",IF(F143&lt;&gt;"",CONCATENATE("...",D143,".",E143,".",F143,". - ",T143),IF(E143&lt;&gt;"",CONCATENATE("..",D143,".",E143,". - ",T143),CONCATENATE(D143,". - ",T143))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B143" s="2">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H143" s="40"/>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="44" t="str">
-        <f>IF(H144&lt;&gt;"",IF(F144&lt;&gt;"",CONCATENATE("...",D144,".",E144,".",F144,". - ",T144),IF(E144&lt;&gt;"",CONCATENATE("..",D144,".",E144,". - ",T144),CONCATENATE(D144,". - ",T144))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B144" s="2">
@@ -13840,7 +13840,7 @@
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H144" s="40"/>
@@ -13883,7 +13883,7 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="44" t="str">
-        <f>IF(H145&lt;&gt;"",IF(F145&lt;&gt;"",CONCATENATE("...",D145,".",E145,".",F145,". - ",T145),IF(E145&lt;&gt;"",CONCATENATE("..",D145,".",E145,". - ",T145),CONCATENATE(D145,". - ",T145))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B145" s="2">
@@ -13900,7 +13900,7 @@
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H145" s="40"/>
@@ -13943,7 +13943,7 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="44" t="str">
-        <f>IF(H146&lt;&gt;"",IF(F146&lt;&gt;"",CONCATENATE("...",D146,".",E146,".",F146,". - ",T146),IF(E146&lt;&gt;"",CONCATENATE("..",D146,".",E146,". - ",T146),CONCATENATE(D146,". - ",T146))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B146" s="2">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H146" s="40"/>
@@ -13999,7 +13999,7 @@
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="44" t="str">
-        <f>IF(H147&lt;&gt;"",IF(F147&lt;&gt;"",CONCATENATE("...",D147,".",E147,".",F147,". - ",T147),IF(E147&lt;&gt;"",CONCATENATE("..",D147,".",E147,". - ",T147),CONCATENATE(D147,". - ",T147))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B147" s="2">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H147" s="40"/>
@@ -14053,10 +14053,10 @@
       </c>
       <c r="X147" s="2"/>
     </row>
-    <row r="148" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A148" s="44" t="str">
-        <f>IF(H148&lt;&gt;"",IF(F148&lt;&gt;"",CONCATENATE("...",D148,".",E148,".",F148,". - ",T148),IF(E148&lt;&gt;"",CONCATENATE("..",D148,".",E148,". - ",T148),CONCATENATE(D148,". - ",T148))),"")</f>
-        <v>..D.06. - Other neurological conditions</v>
+        <f t="shared" si="12"/>
+        <v>...D.06. - Other neurological conditions</v>
       </c>
       <c r="B148" s="2">
         <v>138</v>
@@ -14072,7 +14072,7 @@
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="40" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>cD06</v>
       </c>
       <c r="H148" s="40" t="str">
@@ -14122,7 +14122,7 @@
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="44" t="str">
-        <f>IF(H149&lt;&gt;"",IF(F149&lt;&gt;"",CONCATENATE("...",D149,".",E149,".",F149,". - ",T149),IF(E149&lt;&gt;"",CONCATENATE("..",D149,".",E149,". - ",T149),CONCATENATE(D149,". - ",T149))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B149" s="2">
@@ -14177,7 +14177,7 @@
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="44" t="str">
-        <f>IF(H150&lt;&gt;"",IF(F150&lt;&gt;"",CONCATENATE("...",D150,".",E150,".",F150,". - ",T150),IF(E150&lt;&gt;"",CONCATENATE("..",D150,".",E150,". - ",T150),CONCATENATE(D150,". - ",T150))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B150" s="2">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="F150" s="6"/>
       <c r="G150" s="40" t="str">
-        <f t="shared" ref="G150:G156" si="11">CONCATENATE("c",D150,E150,F150)</f>
+        <f t="shared" ref="G150:G156" si="14">CONCATENATE("c",D150,E150,F150)</f>
         <v>cD99</v>
       </c>
       <c r="H150" s="40"/>
@@ -14233,7 +14233,7 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="44" t="str">
-        <f>IF(H151&lt;&gt;"",IF(F151&lt;&gt;"",CONCATENATE("...",D151,".",E151,".",F151,". - ",T151),IF(E151&lt;&gt;"",CONCATENATE("..",D151,".",E151,". - ",T151),CONCATENATE(D151,". - ",T151))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B151" s="2">
@@ -14250,7 +14250,7 @@
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H151" s="40"/>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="44" t="str">
-        <f>IF(H152&lt;&gt;"",IF(F152&lt;&gt;"",CONCATENATE("...",D152,".",E152,".",F152,". - ",T152),IF(E152&lt;&gt;"",CONCATENATE("..",D152,".",E152,". - ",T152),CONCATENATE(D152,". - ",T152))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B152" s="2">
@@ -14306,7 +14306,7 @@
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H152" s="40"/>
@@ -14345,7 +14345,7 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="44" t="str">
-        <f>IF(H153&lt;&gt;"",IF(F153&lt;&gt;"",CONCATENATE("...",D153,".",E153,".",F153,". - ",T153),IF(E153&lt;&gt;"",CONCATENATE("..",D153,".",E153,". - ",T153),CONCATENATE(D153,". - ",T153))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B153" s="2">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H153" s="40"/>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="154" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="44" t="str">
-        <f>IF(H154&lt;&gt;"",IF(F154&lt;&gt;"",CONCATENATE("...",D154,".",E154,".",F154,". - ",T154),IF(E154&lt;&gt;"",CONCATENATE("..",D154,".",E154,". - ",T154),CONCATENATE(D154,". - ",T154))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B154" s="2">
@@ -14418,7 +14418,7 @@
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H154" s="40"/>
@@ -14457,7 +14457,7 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="44" t="str">
-        <f>IF(H155&lt;&gt;"",IF(F155&lt;&gt;"",CONCATENATE("...",D155,".",E155,".",F155,". - ",T155),IF(E155&lt;&gt;"",CONCATENATE("..",D155,".",E155,". - ",T155),CONCATENATE(D155,". - ",T155))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B155" s="2">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H155" s="40"/>
@@ -14513,7 +14513,7 @@
     </row>
     <row r="156" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="str">
-        <f>IF(H156&lt;&gt;"",IF(F156&lt;&gt;"",CONCATENATE("...",D156,".",E156,".",F156,". - ",T156),IF(E156&lt;&gt;"",CONCATENATE("..",D156,".",E156,". - ",T156),CONCATENATE(D156,". - ",T156))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B156" s="2">
@@ -14530,7 +14530,7 @@
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="40" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>cD99</v>
       </c>
       <c r="H156" s="40"/>
@@ -14569,10 +14569,10 @@
         <v>615</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A157" s="44" t="str">
-        <f>IF(H157&lt;&gt;"",IF(F157&lt;&gt;"",CONCATENATE("...",D157,".",E157,".",F157,". - ",T157),IF(E157&lt;&gt;"",CONCATENATE("..",D157,".",E157,". - ",T157),CONCATENATE(D157,". - ",T157))),"")</f>
-        <v>C. - Cardiovascular diseases</v>
+        <f t="shared" si="12"/>
+        <v>..C. - Cardiovascular diseases</v>
       </c>
       <c r="B157" s="2">
         <v>147</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="44" t="str">
-        <f>IF(H158&lt;&gt;"",IF(F158&lt;&gt;"",CONCATENATE("...",D158,".",E158,".",F158,". - ",T158),IF(E158&lt;&gt;"",CONCATENATE("..",D158,".",E158,". - ",T158),CONCATENATE(D158,". - ",T158))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B158" s="2">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="40" t="str">
-        <f t="shared" ref="G158:G164" si="12">CONCATENATE("c",D158,E158,F158)</f>
+        <f t="shared" ref="G158:G164" si="15">CONCATENATE("c",D158,E158,F158)</f>
         <v>cC99</v>
       </c>
       <c r="H158" s="40"/>
@@ -14691,10 +14691,10 @@
       </c>
       <c r="X158" s="2"/>
     </row>
-    <row r="159" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="str">
-        <f>IF(H159&lt;&gt;"",IF(F159&lt;&gt;"",CONCATENATE("...",D159,".",E159,".",F159,". - ",T159),IF(E159&lt;&gt;"",CONCATENATE("..",D159,".",E159,". - ",T159),CONCATENATE(D159,". - ",T159))),"")</f>
-        <v>..C.01. - Hypertensive heart disease</v>
+        <f t="shared" si="12"/>
+        <v>...C.01. - Hypertensive heart disease</v>
       </c>
       <c r="B159" s="2">
         <v>149</v>
@@ -14710,11 +14710,11 @@
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>cC01</v>
       </c>
       <c r="H159" s="40" t="str">
-        <f t="shared" ref="H159:H164" si="13">CONCATENATE(D159,E159,F159)</f>
+        <f t="shared" ref="H159:H164" si="16">CONCATENATE(D159,E159,F159)</f>
         <v>C01</v>
       </c>
       <c r="I159" s="5"/>
@@ -14758,10 +14758,10 @@
       </c>
       <c r="X159" s="2"/>
     </row>
-    <row r="160" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="str">
-        <f>IF(H160&lt;&gt;"",IF(F160&lt;&gt;"",CONCATENATE("...",D160,".",E160,".",F160,". - ",T160),IF(E160&lt;&gt;"",CONCATENATE("..",D160,".",E160,". - ",T160),CONCATENATE(D160,". - ",T160))),"")</f>
-        <v>..C.02. - Ischaemic heart disease</v>
+        <f t="shared" si="12"/>
+        <v>...C.02. - Ischaemic heart disease</v>
       </c>
       <c r="B160" s="2">
         <v>150</v>
@@ -14777,11 +14777,11 @@
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>cC02</v>
       </c>
       <c r="H160" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>C02</v>
       </c>
       <c r="I160" s="5"/>
@@ -14827,8 +14827,8 @@
     </row>
     <row r="161" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="str">
-        <f>IF(H161&lt;&gt;"",IF(F161&lt;&gt;"",CONCATENATE("...",D161,".",E161,".",F161,". - ",T161),IF(E161&lt;&gt;"",CONCATENATE("..",D161,".",E161,". - ",T161),CONCATENATE(D161,". - ",T161))),"")</f>
-        <v>..C.03. - Stroke</v>
+        <f t="shared" si="12"/>
+        <v>...C.03. - Stroke</v>
       </c>
       <c r="B161" s="2">
         <v>151</v>
@@ -14844,11 +14844,11 @@
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>cC03</v>
       </c>
       <c r="H161" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
@@ -14896,10 +14896,10 @@
       </c>
       <c r="X161" s="2"/>
     </row>
-    <row r="162" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="str">
-        <f>IF(H162&lt;&gt;"",IF(F162&lt;&gt;"",CONCATENATE("...",D162,".",E162,".",F162,". - ",T162),IF(E162&lt;&gt;"",CONCATENATE("..",D162,".",E162,". - ",T162),CONCATENATE(D162,". - ",T162))),"")</f>
-        <v>..C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
+        <f t="shared" si="12"/>
+        <v>...C.04. - Cardiomyopathy, myocarditis, endocarditis</v>
       </c>
       <c r="B162" s="2">
         <v>152</v>
@@ -14915,11 +14915,11 @@
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>cC04</v>
       </c>
       <c r="H162" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>C04</v>
       </c>
       <c r="I162" s="5"/>
@@ -14965,10 +14965,10 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="44" t="str">
-        <f>IF(H163&lt;&gt;"",IF(F163&lt;&gt;"",CONCATENATE("...",D163,".",E163,".",F163,". - ",T163),IF(E163&lt;&gt;"",CONCATENATE("..",D163,".",E163,". - ",T163),CONCATENATE(D163,". - ",T163))),"")</f>
-        <v>..C.05. -  Congestive heart failure</v>
+        <f t="shared" si="12"/>
+        <v>...C.05. -  Congestive heart failure</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="36"/>
@@ -14980,11 +14980,11 @@
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>cC05</v>
       </c>
       <c r="H163" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
@@ -15018,10 +15018,10 @@
       <c r="W163" s="51"/>
       <c r="X163" s="2"/>
     </row>
-    <row r="164" spans="1:24" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A164" s="44" t="str">
-        <f>IF(H164&lt;&gt;"",IF(F164&lt;&gt;"",CONCATENATE("...",D164,".",E164,".",F164,". - ",T164),IF(E164&lt;&gt;"",CONCATENATE("..",D164,".",E164,". - ",T164),CONCATENATE(D164,". - ",T164))),"")</f>
-        <v>..C.99. - Other or unspecified cardiovascular diseases</v>
+        <f t="shared" si="12"/>
+        <v>...C.99. - Other or unspecified cardiovascular diseases</v>
       </c>
       <c r="B164" s="2">
         <v>153</v>
@@ -15037,11 +15037,11 @@
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="40" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>cC99</v>
       </c>
       <c r="H164" s="40" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
@@ -15093,7 +15093,7 @@
     </row>
     <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="str">
-        <f>IF(H165&lt;&gt;"",IF(F165&lt;&gt;"",CONCATENATE("...",D165,".",E165,".",F165,". - ",T165),IF(E165&lt;&gt;"",CONCATENATE("..",D165,".",E165,". - ",T165),CONCATENATE(D165,". - ",T165))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B165" s="2">
@@ -15148,10 +15148,10 @@
       </c>
       <c r="X165" s="2"/>
     </row>
-    <row r="166" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="str">
-        <f>IF(H166&lt;&gt;"",IF(F166&lt;&gt;"",CONCATENATE("...",D166,".",E166,".",F166,". - ",T166),IF(E166&lt;&gt;"",CONCATENATE("..",D166,".",E166,". - ",T166),CONCATENATE(D166,". - ",T166))),"")</f>
-        <v>..D.66. - Chronic obstructive pulmonary disease</v>
+        <f t="shared" si="12"/>
+        <v>...D.66. - Chronic obstructive pulmonary disease</v>
       </c>
       <c r="B166" s="2">
         <v>155</v>
@@ -15211,10 +15211,10 @@
       </c>
       <c r="X166" s="2"/>
     </row>
-    <row r="167" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="str">
-        <f>IF(H167&lt;&gt;"",IF(F167&lt;&gt;"",CONCATENATE("...",D167,".",E167,".",F167,". - ",T167),IF(E167&lt;&gt;"",CONCATENATE("..",D167,".",E167,". - ",T167),CONCATENATE(D167,". - ",T167))),"")</f>
-        <v>..D.67. - Asthma</v>
+        <f t="shared" si="12"/>
+        <v>...D.67. - Asthma</v>
       </c>
       <c r="B167" s="2">
         <v>156</v>
@@ -15274,10 +15274,10 @@
       </c>
       <c r="X167" s="2"/>
     </row>
-    <row r="168" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A168" s="44" t="str">
-        <f>IF(H168&lt;&gt;"",IF(F168&lt;&gt;"",CONCATENATE("...",D168,".",E168,".",F168,". - ",T168),IF(E168&lt;&gt;"",CONCATENATE("..",D168,".",E168,". - ",T168),CONCATENATE(D168,". - ",T168))),"")</f>
-        <v>..D.68. - Other respiratory diseases</v>
+        <f t="shared" si="12"/>
+        <v>...D.68. - Other respiratory diseases</v>
       </c>
       <c r="B168" s="2">
         <v>157</v>
@@ -15337,10 +15337,10 @@
       </c>
       <c r="X168" s="2"/>
     </row>
-    <row r="169" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A169" s="44" t="str">
-        <f>IF(H169&lt;&gt;"",IF(F169&lt;&gt;"",CONCATENATE("...",D169,".",E169,".",F169,". - ",T169),IF(E169&lt;&gt;"",CONCATENATE("..",D169,".",E169,". - ",T169),CONCATENATE(D169,". - ",T169))),"")</f>
-        <v>..D.09. - Digestive diseases (excluding cirrhosis)</v>
+        <f t="shared" si="12"/>
+        <v>...D.09. - Digestive diseases (excluding cirrhosis)</v>
       </c>
       <c r="B169" s="2">
         <v>158</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="44" t="str">
-        <f>IF(H170&lt;&gt;"",IF(F170&lt;&gt;"",CONCATENATE("...",D170,".",E170,".",F170,". - ",T170),IF(E170&lt;&gt;"",CONCATENATE("..",D170,".",E170,". - ",T170),CONCATENATE(D170,". - ",T170))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B170" s="2">
@@ -15418,7 +15418,7 @@
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="40" t="str">
-        <f t="shared" ref="G170:G178" si="14">CONCATENATE("c",D170,E170,F170)</f>
+        <f t="shared" ref="G170:G178" si="17">CONCATENATE("c",D170,E170,F170)</f>
         <v>cD09</v>
       </c>
       <c r="H170" s="40"/>
@@ -15459,10 +15459,10 @@
       </c>
       <c r="X170" s="2"/>
     </row>
-    <row r="171" spans="1:24" s="48" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" s="48" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="str">
-        <f>IF(H171&lt;&gt;"",IF(F171&lt;&gt;"",CONCATENATE("...",D171,".",E171,".",F171,". - ",T171),IF(E171&lt;&gt;"",CONCATENATE("..",D171,".",E171,". - ",T171),CONCATENATE(D171,". - ",T171))),"")</f>
-        <v>..D.11. - Cirrhosis of the liver</v>
+        <f t="shared" si="12"/>
+        <v>...D.11. - Cirrhosis of the liver</v>
       </c>
       <c r="B171" s="2">
         <v>160</v>
@@ -15478,7 +15478,7 @@
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD11</v>
       </c>
       <c r="H171" s="40" t="str">
@@ -15528,7 +15528,7 @@
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="44" t="str">
-        <f>IF(H172&lt;&gt;"",IF(F172&lt;&gt;"",CONCATENATE("...",D172,".",E172,".",F172,". - ",T172),IF(E172&lt;&gt;"",CONCATENATE("..",D172,".",E172,". - ",T172),CONCATENATE(D172,". - ",T172))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B172" s="2">
@@ -15545,7 +15545,7 @@
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H172" s="40"/>
@@ -15588,7 +15588,7 @@
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="44" t="str">
-        <f>IF(H173&lt;&gt;"",IF(F173&lt;&gt;"",CONCATENATE("...",D173,".",E173,".",F173,". - ",T173),IF(E173&lt;&gt;"",CONCATENATE("..",D173,".",E173,". - ",T173),CONCATENATE(D173,". - ",T173))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B173" s="2">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H173" s="40"/>
@@ -15646,9 +15646,9 @@
       </c>
       <c r="X173" s="2"/>
     </row>
-    <row r="174" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="str">
-        <f>IF(H174&lt;&gt;"",IF(F174&lt;&gt;"",CONCATENATE("...",D174,".",E174,".",F174,". - ",T174),IF(E174&lt;&gt;"",CONCATENATE("..",D174,".",E174,". - ",T174),CONCATENATE(D174,". - ",T174))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B174" s="2">
@@ -15665,7 +15665,7 @@
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H174" s="40"/>
@@ -15708,7 +15708,7 @@
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="44" t="str">
-        <f>IF(H175&lt;&gt;"",IF(F175&lt;&gt;"",CONCATENATE("...",D175,".",E175,".",F175,". - ",T175),IF(E175&lt;&gt;"",CONCATENATE("..",D175,".",E175,". - ",T175),CONCATENATE(D175,". - ",T175))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B175" s="2">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H175" s="40"/>
@@ -15768,7 +15768,7 @@
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="44" t="str">
-        <f>IF(H176&lt;&gt;"",IF(F176&lt;&gt;"",CONCATENATE("...",D176,".",E176,".",F176,". - ",T176),IF(E176&lt;&gt;"",CONCATENATE("..",D176,".",E176,". - ",T176),CONCATENATE(D176,". - ",T176))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B176" s="2">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H176" s="40"/>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="44" t="str">
-        <f>IF(H177&lt;&gt;"",IF(F177&lt;&gt;"",CONCATENATE("...",D177,".",E177,".",F177,". - ",T177),IF(E177&lt;&gt;"",CONCATENATE("..",D177,".",E177,". - ",T177),CONCATENATE(D177,". - ",T177))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B177" s="2">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H177" s="40"/>
@@ -15886,9 +15886,9 @@
       </c>
       <c r="X177" s="2"/>
     </row>
-    <row r="178" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="str">
-        <f>IF(H178&lt;&gt;"",IF(F178&lt;&gt;"",CONCATENATE("...",D178,".",E178,".",F178,". - ",T178),IF(E178&lt;&gt;"",CONCATENATE("..",D178,".",E178,". - ",T178),CONCATENATE(D178,". - ",T178))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B178" s="2">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="40" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>cD09</v>
       </c>
       <c r="H178" s="40"/>
@@ -15952,7 +15952,7 @@
     </row>
     <row r="179" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A179" s="44" t="str">
-        <f>IF(H179&lt;&gt;"",IF(F179&lt;&gt;"",CONCATENATE("...",D179,".",E179,".",F179,". - ",T179),IF(E179&lt;&gt;"",CONCATENATE("..",D179,".",E179,". - ",T179),CONCATENATE(D179,". - ",T179))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B179" s="2">
@@ -16005,10 +16005,10 @@
       </c>
       <c r="X179" s="2"/>
     </row>
-    <row r="180" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A180" s="44" t="str">
-        <f>IF(H180&lt;&gt;"",IF(F180&lt;&gt;"",CONCATENATE("...",D180,".",E180,".",F180,". - ",T180),IF(E180&lt;&gt;"",CONCATENATE("..",D180,".",E180,". - ",T180),CONCATENATE(D180,". - ",T180))),"")</f>
-        <v>..D.10. - Kidney diseases</v>
+        <f t="shared" si="12"/>
+        <v>...D.10. - Kidney diseases</v>
       </c>
       <c r="B180" s="2">
         <v>169</v>
@@ -16069,10 +16069,10 @@
       </c>
       <c r="X180" s="2"/>
     </row>
-    <row r="181" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="44" t="str">
-        <f>IF(H181&lt;&gt;"",IF(F181&lt;&gt;"",CONCATENATE("...",D181,".",E181,".",F181,". - ",T181),IF(E181&lt;&gt;"",CONCATENATE("..",D181,".",E181,". - ",T181),CONCATENATE(D181,". - ",T181))),"")</f>
-        <v>...D.10.a. - Acute glomerulonephritis</v>
+        <f t="shared" si="12"/>
+        <v>....D.10.a. - Acute glomerulonephritis</v>
       </c>
       <c r="B181" s="2">
         <v>170</v>
@@ -16090,7 +16090,7 @@
         <v>1126</v>
       </c>
       <c r="G181" s="40" t="str">
-        <f t="shared" ref="G181:G189" si="15">CONCATENATE("c",D181,E181,F181)</f>
+        <f t="shared" ref="G181:G189" si="18">CONCATENATE("c",D181,E181,F181)</f>
         <v>cD10a</v>
       </c>
       <c r="H181" s="40" t="str">
@@ -16136,10 +16136,10 @@
       </c>
       <c r="X181" s="2"/>
     </row>
-    <row r="182" spans="1:24" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="44" t="str">
-        <f>IF(H182&lt;&gt;"",IF(F182&lt;&gt;"",CONCATENATE("...",D182,".",E182,".",F182,". - ",T182),IF(E182&lt;&gt;"",CONCATENATE("..",D182,".",E182,". - ",T182),CONCATENATE(D182,". - ",T182))),"")</f>
-        <v>...D.10.b. - Chronic kidney diesease due to diabetes</v>
+        <f t="shared" si="12"/>
+        <v>....D.10.b. - Chronic kidney diesease due to diabetes</v>
       </c>
       <c r="B182" s="2">
         <v>171</v>
@@ -16157,7 +16157,7 @@
         <v>1127</v>
       </c>
       <c r="G182" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD10b</v>
       </c>
       <c r="H182" s="40" t="str">
@@ -16203,10 +16203,10 @@
       </c>
       <c r="X182" s="2"/>
     </row>
-    <row r="183" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="44" t="str">
-        <f>IF(H183&lt;&gt;"",IF(F183&lt;&gt;"",CONCATENATE("...",D183,".",E183,".",F183,". - ",T183),IF(E183&lt;&gt;"",CONCATENATE("..",D183,".",E183,". - ",T183),CONCATENATE(D183,". - ",T183))),"")</f>
-        <v>...D.10.c. - Other chronic kidney disease</v>
+        <f t="shared" si="12"/>
+        <v>....D.10.c. - Other chronic kidney disease</v>
       </c>
       <c r="B183" s="2">
         <v>172</v>
@@ -16224,7 +16224,7 @@
         <v>1130</v>
       </c>
       <c r="G183" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD10c</v>
       </c>
       <c r="H183" s="40" t="str">
@@ -16272,7 +16272,7 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="44" t="str">
-        <f>IF(H184&lt;&gt;"",IF(F184&lt;&gt;"",CONCATENATE("...",D184,".",E184,".",F184,". - ",T184),IF(E184&lt;&gt;"",CONCATENATE("..",D184,".",E184,". - ",T184),CONCATENATE(D184,". - ",T184))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B184" s="2">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H184" s="40"/>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="44" t="str">
-        <f>IF(H185&lt;&gt;"",IF(F185&lt;&gt;"",CONCATENATE("...",D185,".",E185,".",F185,". - ",T185),IF(E185&lt;&gt;"",CONCATENATE("..",D185,".",E185,". - ",T185),CONCATENATE(D185,". - ",T185))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B185" s="2">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H185" s="40"/>
@@ -16388,7 +16388,7 @@
     </row>
     <row r="186" spans="1:24" ht="33" x14ac:dyDescent="0.25">
       <c r="A186" s="44" t="str">
-        <f>IF(H186&lt;&gt;"",IF(F186&lt;&gt;"",CONCATENATE("...",D186,".",E186,".",F186,". - ",T186),IF(E186&lt;&gt;"",CONCATENATE("..",D186,".",E186,". - ",T186),CONCATENATE(D186,". - ",T186))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B186" s="2">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H186" s="40"/>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="44" t="str">
-        <f>IF(H187&lt;&gt;"",IF(F187&lt;&gt;"",CONCATENATE("...",D187,".",E187,".",F187,". - ",T187),IF(E187&lt;&gt;"",CONCATENATE("..",D187,".",E187,". - ",T187),CONCATENATE(D187,". - ",T187))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B187" s="2">
@@ -16465,7 +16465,7 @@
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H187" s="40"/>
@@ -16508,7 +16508,7 @@
     </row>
     <row r="188" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="44" t="str">
-        <f>IF(H188&lt;&gt;"",IF(F188&lt;&gt;"",CONCATENATE("...",D188,".",E188,".",F188,". - ",T188),IF(E188&lt;&gt;"",CONCATENATE("..",D188,".",E188,". - ",T188),CONCATENATE(D188,". - ",T188))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B188" s="2">
@@ -16525,7 +16525,7 @@
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H188" s="40"/>
@@ -16568,7 +16568,7 @@
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="44" t="str">
-        <f>IF(H189&lt;&gt;"",IF(F189&lt;&gt;"",CONCATENATE("...",D189,".",E189,".",F189,". - ",T189),IF(E189&lt;&gt;"",CONCATENATE("..",D189,".",E189,". - ",T189),CONCATENATE(D189,". - ",T189))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B189" s="2">
@@ -16585,7 +16585,7 @@
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="40" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>cD99</v>
       </c>
       <c r="H189" s="40"/>
@@ -16626,7 +16626,7 @@
     </row>
     <row r="190" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="44" t="str">
-        <f>IF(H190&lt;&gt;"",IF(F190&lt;&gt;"",CONCATENATE("...",D190,".",E190,".",F190,". - ",T190),IF(E190&lt;&gt;"",CONCATENATE("..",D190,".",E190,". - ",T190),CONCATENATE(D190,". - ",T190))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B190" s="2">
@@ -16685,7 +16685,7 @@
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="44" t="str">
-        <f>IF(H191&lt;&gt;"",IF(F191&lt;&gt;"",CONCATENATE("...",D191,".",E191,".",F191,". - ",T191),IF(E191&lt;&gt;"",CONCATENATE("..",D191,".",E191,". - ",T191),CONCATENATE(D191,". - ",T191))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B191" s="2">
@@ -16745,7 +16745,7 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="44" t="str">
-        <f>IF(H192&lt;&gt;"",IF(F192&lt;&gt;"",CONCATENATE("...",D192,".",E192,".",F192,". - ",T192),IF(E192&lt;&gt;"",CONCATENATE("..",D192,".",E192,". - ",T192),CONCATENATE(D192,". - ",T192))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B192" s="2">
@@ -16801,7 +16801,7 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="44" t="str">
-        <f>IF(H193&lt;&gt;"",IF(F193&lt;&gt;"",CONCATENATE("...",D193,".",E193,".",F193,". - ",T193),IF(E193&lt;&gt;"",CONCATENATE("..",D193,".",E193,". - ",T193),CONCATENATE(D193,". - ",T193))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B193" s="2">
@@ -16857,7 +16857,7 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="44" t="str">
-        <f>IF(H194&lt;&gt;"",IF(F194&lt;&gt;"",CONCATENATE("...",D194,".",E194,".",F194,". - ",T194),IF(E194&lt;&gt;"",CONCATENATE("..",D194,".",E194,". - ",T194),CONCATENATE(D194,". - ",T194))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B194" s="2">
@@ -16913,7 +16913,7 @@
     </row>
     <row r="195" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A195" s="44" t="str">
-        <f>IF(H195&lt;&gt;"",IF(F195&lt;&gt;"",CONCATENATE("...",D195,".",E195,".",F195,". - ",T195),IF(E195&lt;&gt;"",CONCATENATE("..",D195,".",E195,". - ",T195),CONCATENATE(D195,". - ",T195))),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="B195" s="2">
@@ -16975,10 +16975,10 @@
       </c>
       <c r="X195" s="2"/>
     </row>
-    <row r="196" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="str">
-        <f>IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("...",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("..",D196,".",E196,". - ",T196),CONCATENATE(D196,". - ",T196))),"")</f>
-        <v>..D.12. - Congenital anomalies</v>
+        <f t="shared" ref="A196:A232" si="19">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("....",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("...",D196,".",E196,". - ",T196),CONCATENATE("..",D196,". - ",T196))),"")</f>
+        <v>...D.12. - Congenital anomalies</v>
       </c>
       <c r="B196" s="2">
         <v>185</v>
@@ -17039,7 +17039,7 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="44" t="str">
-        <f>IF(H197&lt;&gt;"",IF(F197&lt;&gt;"",CONCATENATE("...",D197,".",E197,".",F197,". - ",T197),IF(E197&lt;&gt;"",CONCATENATE("..",D197,".",E197,". - ",T197),CONCATENATE(D197,". - ",T197))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B197" s="2">
@@ -17056,7 +17056,7 @@
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
-        <f t="shared" ref="G197:G202" si="16">CONCATENATE("c",D197,E197,F197)</f>
+        <f t="shared" ref="G197:G202" si="20">CONCATENATE("c",D197,E197,F197)</f>
         <v>cD12</v>
       </c>
       <c r="H197" s="40"/>
@@ -17099,7 +17099,7 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="44" t="str">
-        <f>IF(H198&lt;&gt;"",IF(F198&lt;&gt;"",CONCATENATE("...",D198,".",E198,".",F198,". - ",T198),IF(E198&lt;&gt;"",CONCATENATE("..",D198,".",E198,". - ",T198),CONCATENATE(D198,". - ",T198))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B198" s="2">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H198" s="40"/>
@@ -17159,7 +17159,7 @@
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="44" t="str">
-        <f>IF(H199&lt;&gt;"",IF(F199&lt;&gt;"",CONCATENATE("...",D199,".",E199,".",F199,". - ",T199),IF(E199&lt;&gt;"",CONCATENATE("..",D199,".",E199,". - ",T199),CONCATENATE(D199,". - ",T199))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B199" s="2">
@@ -17176,7 +17176,7 @@
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H199" s="40"/>
@@ -17219,7 +17219,7 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="44" t="str">
-        <f>IF(H200&lt;&gt;"",IF(F200&lt;&gt;"",CONCATENATE("...",D200,".",E200,".",F200,". - ",T200),IF(E200&lt;&gt;"",CONCATENATE("..",D200,".",E200,". - ",T200),CONCATENATE(D200,". - ",T200))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B200" s="2">
@@ -17236,7 +17236,7 @@
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H200" s="40"/>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="44" t="str">
-        <f>IF(H201&lt;&gt;"",IF(F201&lt;&gt;"",CONCATENATE("...",D201,".",E201,".",F201,". - ",T201),IF(E201&lt;&gt;"",CONCATENATE("..",D201,".",E201,". - ",T201),CONCATENATE(D201,". - ",T201))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B201" s="2">
@@ -17296,7 +17296,7 @@
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H201" s="40"/>
@@ -17339,7 +17339,7 @@
     </row>
     <row r="202" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A202" s="44" t="str">
-        <f>IF(H202&lt;&gt;"",IF(F202&lt;&gt;"",CONCATENATE("...",D202,".",E202,".",F202,". - ",T202),IF(E202&lt;&gt;"",CONCATENATE("..",D202,".",E202,". - ",T202),CONCATENATE(D202,". - ",T202))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B202" s="2">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>cD12</v>
       </c>
       <c r="H202" s="40"/>
@@ -17399,7 +17399,7 @@
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="44" t="str">
-        <f>IF(H203&lt;&gt;"",IF(F203&lt;&gt;"",CONCATENATE("...",D203,".",E203,".",F203,". - ",T203),IF(E203&lt;&gt;"",CONCATENATE("..",D203,".",E203,". - ",T203),CONCATENATE(D203,". - ",T203))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B203" s="2">
@@ -17452,7 +17452,7 @@
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="44" t="str">
-        <f>IF(H204&lt;&gt;"",IF(F204&lt;&gt;"",CONCATENATE("...",D204,".",E204,".",F204,". - ",T204),IF(E204&lt;&gt;"",CONCATENATE("..",D204,".",E204,". - ",T204),CONCATENATE(D204,". - ",T204))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B204" s="2">
@@ -17508,7 +17508,7 @@
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="44" t="str">
-        <f>IF(H205&lt;&gt;"",IF(F205&lt;&gt;"",CONCATENATE("...",D205,".",E205,".",F205,". - ",T205),IF(E205&lt;&gt;"",CONCATENATE("..",D205,".",E205,". - ",T205),CONCATENATE(D205,". - ",T205))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B205" s="2">
@@ -17564,7 +17564,7 @@
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="str">
-        <f>IF(H206&lt;&gt;"",IF(F206&lt;&gt;"",CONCATENATE("...",D206,".",E206,".",F206,". - ",T206),IF(E206&lt;&gt;"",CONCATENATE("..",D206,".",E206,". - ",T206),CONCATENATE(D206,". - ",T206))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B206" s="2">
@@ -17620,7 +17620,7 @@
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="str">
-        <f>IF(H207&lt;&gt;"",IF(F207&lt;&gt;"",CONCATENATE("...",D207,".",E207,".",F207,". - ",T207),IF(E207&lt;&gt;"",CONCATENATE("..",D207,".",E207,". - ",T207),CONCATENATE(D207,". - ",T207))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B207" s="2">
@@ -17676,8 +17676,8 @@
     </row>
     <row r="208" spans="1:24" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="str">
-        <f>IF(H208&lt;&gt;"",IF(F208&lt;&gt;"",CONCATENATE("...",D208,".",E208,".",F208,". - ",T208),IF(E208&lt;&gt;"",CONCATENATE("..",D208,".",E208,". - ",T208),CONCATENATE(D208,". - ",T208))),"")</f>
-        <v>E. - Injuries</v>
+        <f t="shared" si="19"/>
+        <v>..E. - Injuries</v>
       </c>
       <c r="B208" s="2">
         <v>197</v>
@@ -17732,10 +17732,10 @@
       </c>
       <c r="X208" s="2"/>
     </row>
-    <row r="209" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" ht="41.25" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="str">
-        <f>IF(H209&lt;&gt;"",IF(F209&lt;&gt;"",CONCATENATE("...",D209,".",E209,".",F209,". - ",T209),IF(E209&lt;&gt;"",CONCATENATE("..",D209,".",E209,". - ",T209),CONCATENATE(D209,". - ",T209))),"")</f>
-        <v>..E.01. - Unintentional injuries</v>
+        <f t="shared" si="19"/>
+        <v>...E.01. - Unintentional injuries</v>
       </c>
       <c r="B209" s="2">
         <v>198</v>
@@ -17792,10 +17792,10 @@
       </c>
       <c r="X209" s="2"/>
     </row>
-    <row r="210" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A210" s="44" t="str">
-        <f>IF(H210&lt;&gt;"",IF(F210&lt;&gt;"",CONCATENATE("...",D210,".",E210,".",F210,". - ",T210),IF(E210&lt;&gt;"",CONCATENATE("..",D210,".",E210,". - ",T210),CONCATENATE(D210,". - ",T210))),"")</f>
-        <v>...E.01.a. - Road injury</v>
+        <f t="shared" si="19"/>
+        <v>....E.01.a. - Road injury</v>
       </c>
       <c r="B210" s="2">
         <v>199</v>
@@ -17813,7 +17813,7 @@
         <v>1126</v>
       </c>
       <c r="G210" s="40" t="str">
-        <f t="shared" ref="G210:G219" si="17">CONCATENATE("c",D210,E210,F210)</f>
+        <f t="shared" ref="G210:G219" si="21">CONCATENATE("c",D210,E210,F210)</f>
         <v>cE01a</v>
       </c>
       <c r="H210" s="40" t="str">
@@ -17863,7 +17863,7 @@
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="str">
-        <f>IF(H211&lt;&gt;"",IF(F211&lt;&gt;"",CONCATENATE("...",D211,".",E211,".",F211,". - ",T211),IF(E211&lt;&gt;"",CONCATENATE("..",D211,".",E211,". - ",T211),CONCATENATE(D211,". - ",T211))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B211" s="2">
@@ -17882,7 +17882,7 @@
         <v>1128</v>
       </c>
       <c r="G211" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H211" s="40"/>
@@ -17923,10 +17923,10 @@
       </c>
       <c r="X211" s="2"/>
     </row>
-    <row r="212" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="str">
-        <f>IF(H212&lt;&gt;"",IF(F212&lt;&gt;"",CONCATENATE("...",D212,".",E212,".",F212,". - ",T212),IF(E212&lt;&gt;"",CONCATENATE("..",D212,".",E212,". - ",T212),CONCATENATE(D212,". - ",T212))),"")</f>
-        <v>...E.01.b. - Falls</v>
+        <f t="shared" si="19"/>
+        <v>....E.01.b. - Falls</v>
       </c>
       <c r="B212" s="2">
         <v>201</v>
@@ -17944,7 +17944,7 @@
         <v>1127</v>
       </c>
       <c r="G212" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01b</v>
       </c>
       <c r="H212" s="40" t="str">
@@ -17992,7 +17992,7 @@
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="str">
-        <f>IF(H213&lt;&gt;"",IF(F213&lt;&gt;"",CONCATENATE("...",D213,".",E213,".",F213,". - ",T213),IF(E213&lt;&gt;"",CONCATENATE("..",D213,".",E213,". - ",T213),CONCATENATE(D213,". - ",T213))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B213" s="2">
@@ -18011,7 +18011,7 @@
         <v>1128</v>
       </c>
       <c r="G213" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H213" s="40"/>
@@ -18052,7 +18052,7 @@
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" s="44" t="str">
-        <f>IF(H214&lt;&gt;"",IF(F214&lt;&gt;"",CONCATENATE("...",D214,".",E214,".",F214,". - ",T214),IF(E214&lt;&gt;"",CONCATENATE("..",D214,".",E214,". - ",T214),CONCATENATE(D214,". - ",T214))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B214" s="2">
@@ -18071,7 +18071,7 @@
         <v>1128</v>
       </c>
       <c r="G214" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H214" s="40"/>
@@ -18114,7 +18114,7 @@
     </row>
     <row r="215" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="str">
-        <f>IF(H215&lt;&gt;"",IF(F215&lt;&gt;"",CONCATENATE("...",D215,".",E215,".",F215,". - ",T215),IF(E215&lt;&gt;"",CONCATENATE("..",D215,".",E215,". - ",T215),CONCATENATE(D215,". - ",T215))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B215" s="2">
@@ -18133,7 +18133,7 @@
         <v>1128</v>
       </c>
       <c r="G215" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H215" s="40"/>
@@ -18174,10 +18174,10 @@
       </c>
       <c r="X215" s="2"/>
     </row>
-    <row r="216" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="str">
-        <f>IF(H216&lt;&gt;"",IF(F216&lt;&gt;"",CONCATENATE("...",D216,".",E216,".",F216,". - ",T216),IF(E216&lt;&gt;"",CONCATENATE("..",D216,".",E216,". - ",T216),CONCATENATE(D216,". - ",T216))),"")</f>
-        <v>...E.01.c. - Accidental Firearm</v>
+        <f t="shared" si="19"/>
+        <v>....E.01.c. - Accidental Firearm</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="31" t="s">
@@ -18193,7 +18193,7 @@
         <v>1130</v>
       </c>
       <c r="G216" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01c</v>
       </c>
       <c r="H216" s="40" t="str">
@@ -18229,7 +18229,7 @@
     </row>
     <row r="217" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="str">
-        <f>IF(H217&lt;&gt;"",IF(F217&lt;&gt;"",CONCATENATE("...",D217,".",E217,".",F217,". - ",T217),IF(E217&lt;&gt;"",CONCATENATE("..",D217,".",E217,". - ",T217),CONCATENATE(D217,". - ",T217))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B217" s="2">
@@ -18248,7 +18248,7 @@
         <v>1128</v>
       </c>
       <c r="G217" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H217" s="40"/>
@@ -18291,7 +18291,7 @@
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="str">
-        <f>IF(H218&lt;&gt;"",IF(F218&lt;&gt;"",CONCATENATE("...",D218,".",E218,".",F218,". - ",T218),IF(E218&lt;&gt;"",CONCATENATE("..",D218,".",E218,". - ",T218),CONCATENATE(D218,". - ",T218))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B218" s="2"/>
@@ -18320,8 +18320,8 @@
     </row>
     <row r="219" spans="1:24" ht="102" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="str">
-        <f>IF(H219&lt;&gt;"",IF(F219&lt;&gt;"",CONCATENATE("...",D219,".",E219,".",F219,". - ",T219),IF(E219&lt;&gt;"",CONCATENATE("..",D219,".",E219,". - ",T219),CONCATENATE(D219,". - ",T219))),"")</f>
-        <v>...E.01.x. - Other unintentional injuries</v>
+        <f t="shared" si="19"/>
+        <v>....E.01.x. - Other unintentional injuries</v>
       </c>
       <c r="B219" s="2">
         <v>206</v>
@@ -18339,7 +18339,7 @@
         <v>1128</v>
       </c>
       <c r="G219" s="40" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
       <c r="H219" s="40" t="str">
@@ -18391,7 +18391,7 @@
     </row>
     <row r="220" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="44" t="str">
-        <f>IF(H220&lt;&gt;"",IF(F220&lt;&gt;"",CONCATENATE("...",D220,".",E220,".",F220,". - ",T220),IF(E220&lt;&gt;"",CONCATENATE("..",D220,".",E220,". - ",T220),CONCATENATE(D220,". - ",T220))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B220" s="2">
@@ -18442,10 +18442,10 @@
       </c>
       <c r="X220" s="2"/>
     </row>
-    <row r="221" spans="1:24" ht="51" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="44" t="str">
-        <f>IF(H221&lt;&gt;"",IF(F221&lt;&gt;"",CONCATENATE("...",D221,".",E221,".",F221,". - ",T221),IF(E221&lt;&gt;"",CONCATENATE("..",D221,".",E221,". - ",T221),CONCATENATE(D221,". - ",T221))),"")</f>
-        <v>..E.02. - Suicide/Self-harm</v>
+        <f t="shared" si="19"/>
+        <v>...E.02. - Suicide/Self-harm</v>
       </c>
       <c r="B221" s="2">
         <v>208</v>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="40" t="str">
-        <f t="shared" ref="G221:G228" si="18">CONCATENATE("c",D221,E221,F221)</f>
+        <f t="shared" ref="G221:G228" si="22">CONCATENATE("c",D221,E221,F221)</f>
         <v>cE02</v>
       </c>
       <c r="H221" s="40" t="str">
@@ -18511,8 +18511,8 @@
     </row>
     <row r="222" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A222" s="44" t="str">
-        <f>IF(H222&lt;&gt;"",IF(F222&lt;&gt;"",CONCATENATE("...",D222,".",E222,".",F222,". - ",T222),IF(E222&lt;&gt;"",CONCATENATE("..",D222,".",E222,". - ",T222),CONCATENATE(D222,". - ",T222))),"")</f>
-        <v>..E.03. - Homicide/Interpersonal violence</v>
+        <f t="shared" si="19"/>
+        <v>...E.03. - Homicide/Interpersonal violence</v>
       </c>
       <c r="B222" s="2">
         <v>209</v>
@@ -18569,10 +18569,10 @@
       </c>
       <c r="X222" s="2"/>
     </row>
-    <row r="223" spans="1:24" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" s="44" t="str">
-        <f>IF(H223&lt;&gt;"",IF(F223&lt;&gt;"",CONCATENATE("...",D223,".",E223,".",F223,". - ",T223),IF(E223&lt;&gt;"",CONCATENATE("..",D223,".",E223,". - ",T223),CONCATENATE(D223,". - ",T223))),"")</f>
-        <v>...E.03.a. - Homicide excluding legal intervention</v>
+        <f t="shared" si="19"/>
+        <v>....E.03.a. - Homicide excluding legal intervention</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="31"/>
@@ -18586,11 +18586,11 @@
         <v>1126</v>
       </c>
       <c r="G223" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>cE03a</v>
       </c>
       <c r="H223" s="40" t="str">
-        <f t="shared" ref="H223:H225" si="19">CONCATENATE(D223,E223,F223)</f>
+        <f t="shared" ref="H223:H225" si="23">CONCATENATE(D223,E223,F223)</f>
         <v>E03a</v>
       </c>
       <c r="I223" s="5"/>
@@ -18616,10 +18616,10 @@
       <c r="W223" s="45"/>
       <c r="X223" s="2"/>
     </row>
-    <row r="224" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="44" t="str">
-        <f>IF(H224&lt;&gt;"",IF(F224&lt;&gt;"",CONCATENATE("...",D224,".",E224,".",F224,". - ",T224),IF(E224&lt;&gt;"",CONCATENATE("..",D224,".",E224,". - ",T224),CONCATENATE(D224,". - ",T224))),"")</f>
-        <v>...E.03.b. - Legal intervention</v>
+        <f t="shared" si="19"/>
+        <v>....E.03.b. - Legal intervention</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="31"/>
@@ -18633,11 +18633,11 @@
         <v>1127</v>
       </c>
       <c r="G224" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>cE03b</v>
       </c>
       <c r="H224" s="40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>E03b</v>
       </c>
       <c r="I224" s="5"/>
@@ -18665,8 +18665,8 @@
     </row>
     <row r="225" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="str">
-        <f>IF(H225&lt;&gt;"",IF(F225&lt;&gt;"",CONCATENATE("...",D225,".",E225,".",F225,". - ",T225),IF(E225&lt;&gt;"",CONCATENATE("..",D225,".",E225,". - ",T225),CONCATENATE(D225,". - ",T225))),"")</f>
-        <v>...E.03.c. - Execution, War, Terroism</v>
+        <f t="shared" si="19"/>
+        <v>....E.03.c. - Execution, War, Terroism</v>
       </c>
       <c r="B225" s="2">
         <v>210</v>
@@ -18684,11 +18684,11 @@
         <v>1130</v>
       </c>
       <c r="G225" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>cE03c</v>
       </c>
       <c r="H225" s="40" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>E03c</v>
       </c>
       <c r="I225" s="5" t="s">
@@ -18732,7 +18732,7 @@
     </row>
     <row r="226" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="44" t="str">
-        <f>IF(H226&lt;&gt;"",IF(F226&lt;&gt;"",CONCATENATE("...",D226,".",E226,".",F226,". - ",T226),IF(E226&lt;&gt;"",CONCATENATE("..",D226,".",E226,". - ",T226),CONCATENATE(D226,". - ",T226))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B226" s="82" t="s">
@@ -18748,7 +18748,7 @@
         <v>1144</v>
       </c>
       <c r="G226" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>cE01</v>
       </c>
       <c r="H226" s="40"/>
@@ -18768,10 +18768,10 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="str">
-        <f>IF(H227&lt;&gt;"",IF(F227&lt;&gt;"",CONCATENATE("...",D227,".",E227,".",F227,". - ",T227),IF(E227&lt;&gt;"",CONCATENATE("..",D227,".",E227,". - ",T227),CONCATENATE(D227,". - ",T227))),"")</f>
-        <v>..Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
+        <f t="shared" si="19"/>
+        <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D227" s="56" t="s">
         <v>1245</v>
@@ -18780,7 +18780,7 @@
         <v>1144</v>
       </c>
       <c r="G227" s="40" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>cZ01</v>
       </c>
       <c r="H227" s="40" t="str">
@@ -18805,7 +18805,7 @@
     </row>
     <row r="228" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="str">
-        <f>IF(H228&lt;&gt;"",IF(F228&lt;&gt;"",CONCATENATE("...",D228,".",E228,".",F228,". - ",T228),IF(E228&lt;&gt;"",CONCATENATE("..",D228,".",E228,". - ",T228),CONCATENATE(D228,". - ",T228))),"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="D228" s="56" t="s">
@@ -18815,7 +18815,7 @@
         <v>1152</v>
       </c>
       <c r="G228" s="42" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>cA09</v>
       </c>
       <c r="H228" s="40"/>
@@ -18835,10 +18835,10 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="str">
-        <f>IF(H229&lt;&gt;"",IF(F229&lt;&gt;"",CONCATENATE("...",D229,".",E229,".",F229,". - ",T229),IF(E229&lt;&gt;"",CONCATENATE("..",D229,".",E229,". - ",T229),CONCATENATE(D229,". - ",T229))),"")</f>
-        <v>..Z.02. - Unknown/Missing Value</v>
+        <f t="shared" si="19"/>
+        <v>...Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D229" s="56" t="s">
         <v>1245</v>
@@ -18848,17 +18848,17 @@
       </c>
       <c r="G229" s="43"/>
       <c r="H229" s="40" t="str">
-        <f t="shared" ref="H229:H232" si="20">CONCATENATE(D229,E229,F229)</f>
+        <f t="shared" ref="H229:H232" si="24">CONCATENATE(D229,E229,F229)</f>
         <v>Z02</v>
       </c>
       <c r="T229" s="48" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="str">
-        <f>IF(H230&lt;&gt;"",IF(F230&lt;&gt;"",CONCATENATE("...",D230,".",E230,".",F230,". - ",T230),IF(E230&lt;&gt;"",CONCATENATE("..",D230,".",E230,". - ",T230),CONCATENATE(D230,". - ",T230))),"")</f>
-        <v>..Z.03. - Code does not map</v>
+        <f t="shared" si="19"/>
+        <v>...Z.03. - Code does not map</v>
       </c>
       <c r="D230" s="56" t="s">
         <v>1245</v>
@@ -18868,7 +18868,7 @@
       </c>
       <c r="G230" s="43"/>
       <c r="H230" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>Z03</v>
       </c>
       <c r="I230" s="16" t="s">
@@ -18878,27 +18878,27 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="str">
-        <f>IF(H231&lt;&gt;"",IF(F231&lt;&gt;"",CONCATENATE("...",D231,".",E231,".",F231,". - ",T231),IF(E231&lt;&gt;"",CONCATENATE("..",D231,".",E231,". - ",T231),CONCATENATE(D231,". - ",T231))),"")</f>
-        <v>Z. - Unknown/Missing Value</v>
+        <f t="shared" si="19"/>
+        <v>..Z. - Unknown/Missing Value</v>
       </c>
       <c r="D231" s="56" t="s">
         <v>1245</v>
       </c>
       <c r="G231" s="43"/>
       <c r="H231" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>Z</v>
       </c>
       <c r="T231" s="48" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="str">
-        <f>IF(H232&lt;&gt;"",IF(F232&lt;&gt;"",CONCATENATE("...",D232,".",E232,".",F232,". - ",T232),IF(E232&lt;&gt;"",CONCATENATE("..",D232,".",E232,". - ",T232),CONCATENATE(D232,". - ",T232))),"")</f>
-        <v>..D.99. - Other Chronic Conditions</v>
+        <f t="shared" si="19"/>
+        <v>...D.99. - Other Chronic Conditions</v>
       </c>
       <c r="D232" s="56" t="s">
         <v>1142</v>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="G232" s="43"/>
       <c r="H232" s="40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>D99</v>
       </c>
       <c r="T232" s="48" t="s">

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.CBD\myCBD\myInfo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="10935"/>
   </bookViews>
@@ -12,9 +17,9 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$X$226</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +36,7 @@
     <author>Dauphine, David (CDPH-CHSI)</author>
   </authors>
   <commentList>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="1">
+    <comment ref="C57" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P126" authorId="2">
+    <comment ref="P126" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2866" uniqueCount="1402">
   <si>
     <t>I. Communicable, maternal, perinatal and nutritional conditions</t>
   </si>
@@ -3542,9 +3547,6 @@
     <t>OTHER</t>
   </si>
   <si>
-    <t>E.2. Substance use</t>
-  </si>
-  <si>
     <t>2. a. Sexually transmitted diseases (STDs) excluding HIV</t>
   </si>
   <si>
@@ -3645,9 +3647,6 @@
   </si>
   <si>
     <t>P00-P02, P041-P042, P045-49, P08, P50-P96</t>
-  </si>
-  <si>
-    <t>F13, F16, F18, F19, P044, X41</t>
   </si>
   <si>
     <t>C11, D106</t>
@@ -3877,12 +3876,6 @@
     <t>IHME / CCB</t>
   </si>
   <si>
-    <t>Added P044</t>
-  </si>
-  <si>
-    <t>F1[3,6,8,9]|P044|X41</t>
-  </si>
-  <si>
     <t>Better as "Other or unspecified…?"</t>
   </si>
   <si>
@@ -4304,9 +4297,6 @@
     <t xml:space="preserve">Mental Health disorders </t>
   </si>
   <si>
-    <t xml:space="preserve">Substance use </t>
-  </si>
-  <si>
     <r>
       <t>3.</t>
     </r>
@@ -4437,11 +4427,56 @@
   <si>
     <t>W2|W3[0-1,5-8]|W4[0-3,5-6,9]|W5[0-2]|W7[5-6]</t>
   </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>Substance Use - associated poisonings</t>
+  </si>
+  <si>
+    <t>2. Non-SA Poisonings</t>
+  </si>
+  <si>
+    <t>X42|X44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X42, X44</t>
+  </si>
+  <si>
+    <t>DELETED X42 and X44 per CDPH review (1/9/2019) - to Substance Use - associated poisonings;</t>
+  </si>
+  <si>
+    <t>Added P044  ; as above moved X41 to 2. Non-SA Poisonings</t>
+  </si>
+  <si>
+    <t>F13, F16, F18, F19, P044</t>
+  </si>
+  <si>
+    <t>F1[3,6,8,9]|P044</t>
+  </si>
+  <si>
+    <t>X4[0,1,3,6-9]</t>
+  </si>
+  <si>
+    <t>X40, X41, X43, X46-X49</t>
+  </si>
+  <si>
+    <t>E.2. Substance use disorders</t>
+  </si>
+  <si>
+    <t>Substance use disorders</t>
+  </si>
+  <si>
+    <t>Non SU-associated Poisonings</t>
+  </si>
+  <si>
+    <t>Substance Use-associated poisonings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0.;###0."/>
   </numFmts>
@@ -4757,7 +4792,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5004,6 +5039,15 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5092,7 +5136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5127,7 +5171,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5336,13 +5380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X232"/>
+  <dimension ref="A1:X233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B226" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A232"/>
+      <selection pane="bottomRight" activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5376,7 +5420,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>761</v>
@@ -5385,7 +5429,7 @@
         <v>763</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>1121</v>
@@ -5400,10 +5444,10 @@
         <v>1124</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>384</v>
@@ -5412,19 +5456,19 @@
         <v>759</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="O1" s="59" t="s">
+        <v>1161</v>
+      </c>
+      <c r="P1" s="59" t="s">
         <v>1162</v>
       </c>
-      <c r="P1" s="59" t="s">
-        <v>1163</v>
-      </c>
       <c r="Q1" s="59" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R1" s="61" t="s">
         <v>509</v>
@@ -5439,10 +5483,10 @@
         <v>762</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="W1" s="45" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="X1" s="6" t="s">
         <v>930</v>
@@ -5506,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="6"/>
@@ -5558,7 +5602,7 @@
         <v>1129</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E4" s="26">
         <v>99</v>
@@ -5653,10 +5697,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="40" t="str">
@@ -5712,10 +5756,10 @@
         <v>1125</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="40"/>
@@ -5735,11 +5779,11 @@
       <c r="R7" s="59"/>
       <c r="S7" s="59"/>
       <c r="T7" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="U7" s="20"/>
       <c r="V7" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="W7" s="45"/>
       <c r="X7" s="2"/>
@@ -5753,13 +5797,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>1126</v>
@@ -5820,10 +5864,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>1126</v>
@@ -5880,10 +5924,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>1126</v>
@@ -5940,10 +5984,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>1126</v>
@@ -6000,10 +6044,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>1126</v>
@@ -6058,10 +6102,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>1126</v>
@@ -6115,13 +6159,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>1127</v>
@@ -6180,10 +6224,10 @@
         <v>686</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>1127</v>
@@ -6236,10 +6280,10 @@
         <v>687</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>1127</v>
@@ -6296,7 +6340,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E17" s="26">
         <v>99</v>
@@ -6406,7 +6450,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E19" s="26">
         <v>99</v>
@@ -6464,7 +6508,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E20" s="26">
         <v>99</v>
@@ -6522,7 +6566,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E21" s="26">
         <v>99</v>
@@ -6580,7 +6624,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E22" s="26">
         <v>99</v>
@@ -6638,10 +6682,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="40" t="str">
@@ -6699,10 +6743,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="40" t="str">
@@ -6760,10 +6804,10 @@
         <v>688</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="40"/>
@@ -6814,10 +6858,10 @@
         <v>689</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="40" t="str">
@@ -6868,10 +6912,10 @@
         <v>690</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>1126</v>
@@ -6922,7 +6966,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="26"/>
@@ -6955,10 +6999,10 @@
         <v>691</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>1127</v>
@@ -7014,10 +7058,10 @@
         <v>692</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="40" t="str">
@@ -7119,7 +7163,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E32" s="26">
         <v>99</v>
@@ -7177,7 +7221,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E33" s="26">
         <v>99</v>
@@ -7235,7 +7279,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E34" s="26">
         <v>99</v>
@@ -7293,7 +7337,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E35" s="26">
         <v>99</v>
@@ -7351,7 +7395,7 @@
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E36" s="26">
         <v>99</v>
@@ -7409,7 +7453,7 @@
         <v>23</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E37" s="26">
         <v>99</v>
@@ -7463,7 +7507,7 @@
         <v>24</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E38" s="26">
         <v>99</v>
@@ -7517,7 +7561,7 @@
         <v>694</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E39" s="26">
         <v>99</v>
@@ -7575,7 +7619,7 @@
         <v>695</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E40" s="26">
         <v>99</v>
@@ -7633,7 +7677,7 @@
         <v>889</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E41" s="26">
         <v>99</v>
@@ -7687,7 +7731,7 @@
         <v>890</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E42" s="26">
         <v>99</v>
@@ -7745,7 +7789,7 @@
         <v>891</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E43" s="26">
         <v>99</v>
@@ -7799,7 +7843,7 @@
         <v>893</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E44" s="26">
         <v>99</v>
@@ -7857,7 +7901,7 @@
         <v>894</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E45" s="26">
         <v>99</v>
@@ -7970,7 +8014,7 @@
         <v>25</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E47" s="26">
         <v>99</v>
@@ -8028,7 +8072,7 @@
         <v>26</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E48" s="26">
         <v>99</v>
@@ -8082,7 +8126,7 @@
         <v>27</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E49" s="26">
         <v>99</v>
@@ -8136,7 +8180,7 @@
         <v>696</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E50" s="26">
         <v>99</v>
@@ -8190,7 +8234,7 @@
         <v>880</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E51" s="26">
         <v>99</v>
@@ -8202,16 +8246,16 @@
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="5" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -8241,7 +8285,7 @@
         <v>880</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -8256,10 +8300,10 @@
         <v>28</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="40"/>
@@ -8316,10 +8360,10 @@
         <v>29</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>1126</v>
@@ -8338,13 +8382,13 @@
         <v>404</v>
       </c>
       <c r="L53" s="80" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="M53" s="80" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="N53" s="80" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="O53" s="59" t="s">
         <v>404</v>
@@ -8385,10 +8429,10 @@
         <v>30</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>1127</v>
@@ -8454,10 +8498,10 @@
         <v>31</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="40" t="str">
@@ -8518,10 +8562,10 @@
         <v>32</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="40" t="s">
@@ -8580,10 +8624,10 @@
         <v>33</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="40" t="str">
@@ -8594,16 +8638,16 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="L57" s="16" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="M57" s="16" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="O57" s="59" t="s">
         <v>408</v>
@@ -8631,7 +8675,7 @@
         <v>33</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
@@ -8646,10 +8690,10 @@
         <v>34</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="40" t="str">
@@ -8710,10 +8754,10 @@
         <v>35</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="40" t="str">
@@ -8730,7 +8774,7 @@
         <v>370</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="N59" s="16" t="s">
         <v>370</v>
@@ -8761,7 +8805,7 @@
         <v>35</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
@@ -8776,10 +8820,10 @@
         <v>36</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="40" t="str">
@@ -8840,10 +8884,10 @@
         <v>37</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="40" t="str">
@@ -8860,10 +8904,10 @@
         <v>372</v>
       </c>
       <c r="M61" s="16" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="N61" s="16" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="O61" s="59" t="s">
         <v>412</v>
@@ -8904,10 +8948,10 @@
         <v>38</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="40" t="str">
@@ -8924,10 +8968,10 @@
         <v>373</v>
       </c>
       <c r="M62" s="16" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="O62" s="59" t="s">
         <v>413</v>
@@ -8968,10 +9012,10 @@
         <v>39</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="40" t="s">
@@ -9030,10 +9074,10 @@
         <v>40</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="40" t="str">
@@ -9088,10 +9132,10 @@
         <v>41</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="40" t="str">
@@ -9146,10 +9190,10 @@
         <v>42</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="40" t="str">
@@ -9204,10 +9248,10 @@
         <v>43</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="40" t="str">
@@ -9216,16 +9260,16 @@
       </c>
       <c r="H67" s="40"/>
       <c r="I67" s="5" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
@@ -9268,7 +9312,7 @@
         <v>44</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="6"/>
@@ -9323,7 +9367,7 @@
         <v>45</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E69" s="26">
         <v>99</v>
@@ -9340,7 +9384,7 @@
         <v>420</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="O69" s="59" t="s">
         <v>420</v>
@@ -9381,7 +9425,7 @@
         <v>46</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E70" s="26">
         <v>99</v>
@@ -9439,7 +9483,7 @@
         <v>47</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E71" s="26">
         <v>99</v>
@@ -9493,7 +9537,7 @@
         <v>48</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E72" s="26">
         <v>99</v>
@@ -9551,7 +9595,7 @@
         <v>697</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E73" s="26">
         <v>99</v>
@@ -9631,7 +9675,7 @@
       </c>
       <c r="Q74" s="59"/>
       <c r="R74" s="60" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="S74" s="59" t="s">
         <v>557</v>
@@ -9657,10 +9701,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="35" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="6"/>
@@ -9681,10 +9725,10 @@
       <c r="R75" s="59"/>
       <c r="S75" s="59"/>
       <c r="T75" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V75" s="45" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="X75" s="2"/>
     </row>
@@ -9700,7 +9744,7 @@
         <v>51</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="6"/>
@@ -9733,7 +9777,7 @@
         <v>558</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="U76" s="20" t="s">
         <v>51</v>
@@ -9758,10 +9802,10 @@
         <v>52</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="40" t="str">
@@ -9775,10 +9819,10 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="L77" s="49" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
@@ -9817,10 +9861,10 @@
         <v>698</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="40" t="str">
@@ -9829,16 +9873,16 @@
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="18" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="L78" s="19" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
@@ -9881,10 +9925,10 @@
         <v>699</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="40" t="str">
@@ -9893,16 +9937,16 @@
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="19" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="L79" s="49" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="M79" s="49"/>
       <c r="N79" s="49"/>
@@ -9945,10 +9989,10 @@
         <v>700</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="40" t="str">
@@ -10005,10 +10049,10 @@
         <v>53</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="40" t="str">
@@ -10020,16 +10064,16 @@
         <v>B02</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="L81" s="49" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="M81" s="49"/>
       <c r="N81" s="49"/>
@@ -10072,10 +10116,10 @@
         <v>54</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="40" t="str">
@@ -10087,16 +10131,16 @@
         <v>B03</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="L82" s="49" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="M82" s="49"/>
       <c r="N82" s="49"/>
@@ -10141,10 +10185,10 @@
         <v>55</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="40" t="str">
@@ -10156,16 +10200,16 @@
         <v>B04</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="L83" s="49" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="M83" s="49"/>
       <c r="N83" s="49"/>
@@ -10208,10 +10252,10 @@
         <v>56</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="40" t="str">
@@ -10223,16 +10267,16 @@
         <v>B05</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="L84" s="49" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M84" s="49"/>
       <c r="N84" s="49"/>
@@ -10275,10 +10319,10 @@
         <v>57</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="40" t="str">
@@ -10290,16 +10334,16 @@
         <v>B06</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="J85" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="L85" s="49" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="M85" s="49"/>
       <c r="N85" s="49"/>
@@ -10342,10 +10386,10 @@
         <v>58</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="40" t="str">
@@ -10357,16 +10401,16 @@
         <v>B07</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="J86" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="L86" s="49" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="M86" s="49"/>
       <c r="N86" s="49"/>
@@ -10409,10 +10453,10 @@
         <v>59</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="40" t="s">
@@ -10423,7 +10467,7 @@
         <v>B08</v>
       </c>
       <c r="J87" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K87" s="5" t="s">
         <v>952</v>
@@ -10468,10 +10512,10 @@
         <v>701</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="40" t="str">
@@ -10480,16 +10524,16 @@
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="18" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="J88" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="L88" s="49" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="M88" s="49"/>
       <c r="N88" s="49"/>
@@ -10532,10 +10576,10 @@
         <v>702</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="40" t="str">
@@ -10544,16 +10588,16 @@
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="18" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="J89" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="L89" s="49" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="M89" s="49"/>
       <c r="N89" s="49"/>
@@ -10596,10 +10640,10 @@
         <v>60</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="40" t="str">
@@ -10611,16 +10655,16 @@
         <v>B09</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="J90" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="L90" s="49" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="M90" s="49"/>
       <c r="N90" s="49"/>
@@ -10658,10 +10702,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="37" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E91" s="26">
         <v>10</v>
@@ -10673,7 +10717,7 @@
         <v>B10</v>
       </c>
       <c r="J91" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="49"/>
@@ -10685,11 +10729,11 @@
       <c r="R91" s="59"/>
       <c r="S91" s="59"/>
       <c r="T91" s="5" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="U91" s="20"/>
       <c r="V91" s="5" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="W91" s="45"/>
       <c r="X91" s="2"/>
@@ -10706,10 +10750,10 @@
         <v>61</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="40" t="str">
@@ -10718,16 +10762,16 @@
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="5" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="J92" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="L92" s="49" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="M92" s="49"/>
       <c r="N92" s="49"/>
@@ -10770,7 +10814,7 @@
         <v>62</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E93" s="26">
         <v>10</v>
@@ -10782,16 +10826,16 @@
       </c>
       <c r="H93" s="40"/>
       <c r="I93" s="5" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="J93" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="L93" s="49" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="M93" s="49"/>
       <c r="N93" s="49"/>
@@ -10834,7 +10878,7 @@
         <v>63</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E94" s="26">
         <v>11</v>
@@ -10849,16 +10893,16 @@
         <v>B11</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="J94" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="L94" s="49" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="M94" s="49"/>
       <c r="N94" s="49"/>
@@ -10901,10 +10945,10 @@
         <v>64</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="40" t="str">
@@ -10916,16 +10960,16 @@
         <v>B12</v>
       </c>
       <c r="I95" s="19" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="J95" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="L95" s="49" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="M95" s="49"/>
       <c r="N95" s="49"/>
@@ -10968,7 +11012,7 @@
         <v>703</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E96" s="26">
         <v>99</v>
@@ -10980,16 +11024,16 @@
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="19" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="J96" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L96" s="49" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="M96" s="49"/>
       <c r="N96" s="49"/>
@@ -11032,7 +11076,7 @@
         <v>704</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E97" s="26">
         <v>13</v>
@@ -11047,16 +11091,16 @@
         <v>B13</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="L97" s="49" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="M97" s="49"/>
       <c r="N97" s="49"/>
@@ -11099,7 +11143,7 @@
         <v>705</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E98" s="26">
         <v>14</v>
@@ -11114,16 +11158,16 @@
         <v>B14</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="L98" s="49" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="M98" s="49"/>
       <c r="N98" s="49"/>
@@ -11166,7 +11210,7 @@
         <v>706</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E99" s="26">
         <v>15</v>
@@ -11181,16 +11225,16 @@
         <v>B15</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K99" s="5" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="L99" s="19" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
@@ -11233,7 +11277,7 @@
         <v>707</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E100" s="26">
         <v>99</v>
@@ -11245,16 +11289,16 @@
       </c>
       <c r="H100" s="40"/>
       <c r="I100" s="19" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="J100" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K100" s="5" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L100" s="49" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="M100" s="49"/>
       <c r="N100" s="49"/>
@@ -11297,7 +11341,7 @@
         <v>708</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E101" s="26">
         <v>99</v>
@@ -11309,16 +11353,16 @@
       </c>
       <c r="H101" s="40"/>
       <c r="I101" s="19" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="J101" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="L101" s="49" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="M101" s="49"/>
       <c r="N101" s="49"/>
@@ -11361,7 +11405,7 @@
         <v>709</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E102" s="26">
         <v>99</v>
@@ -11373,16 +11417,16 @@
       </c>
       <c r="H102" s="40"/>
       <c r="I102" s="19" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="J102" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="L102" s="49" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="M102" s="49"/>
       <c r="N102" s="49"/>
@@ -11425,7 +11469,7 @@
         <v>710</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E103" s="26">
         <v>99</v>
@@ -11485,7 +11529,7 @@
         <v>711</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E104" s="26">
         <v>16</v>
@@ -11545,7 +11589,7 @@
         <v>712</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E105" s="26">
         <v>16</v>
@@ -11610,7 +11654,7 @@
         <v>713</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E106" s="26">
         <v>16</v>
@@ -11675,7 +11719,7 @@
         <v>714</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E107" s="26">
         <v>16</v>
@@ -11740,7 +11784,7 @@
         <v>715</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E108" s="26">
         <v>17</v>
@@ -11803,7 +11847,7 @@
         <v>716</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E109" s="26">
         <v>99</v>
@@ -11818,16 +11862,16 @@
         <v>B99</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="L109" s="49" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="M109" s="49"/>
       <c r="N109" s="49"/>
@@ -11866,7 +11910,7 @@
         <v>65</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E110" s="26">
         <v>99</v>
@@ -11878,10 +11922,10 @@
       </c>
       <c r="H110" s="40"/>
       <c r="K110" s="5" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -11924,10 +11968,10 @@
         <v>66</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="40" t="str">
@@ -11939,22 +11983,22 @@
         <v>D01</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="L111" s="49" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="M111" s="49" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="N111" s="49" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="O111" s="59" t="s">
         <v>975</v>
@@ -11982,7 +12026,7 @@
         <v>66</v>
       </c>
       <c r="X111" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
@@ -11997,10 +12041,10 @@
         <v>67</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="40" t="s">
@@ -12013,18 +12057,18 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="L112" s="19" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="M112" s="19"/>
       <c r="N112" s="19"/>
       <c r="O112" s="59" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="P112" s="66" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="Q112" s="69"/>
       <c r="R112" s="59" t="s">
@@ -12059,10 +12103,10 @@
         <v>717</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="40" t="str">
@@ -12119,10 +12163,10 @@
         <v>718</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="40" t="str">
@@ -12179,10 +12223,10 @@
         <v>719</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="40" t="str">
@@ -12239,10 +12283,10 @@
         <v>720</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="40" t="str">
@@ -12353,13 +12397,13 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="32" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="40" t="s">
@@ -12381,11 +12425,11 @@
       <c r="R118" s="59"/>
       <c r="S118" s="59"/>
       <c r="T118" s="2" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="U118" s="20"/>
       <c r="V118" s="2" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="W118" s="45"/>
       <c r="X118" s="2"/>
@@ -12393,17 +12437,17 @@
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">...D.04. - Substance use </v>
+        <v>...D.04. - Substance use disorders</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="32" t="s">
-        <v>1132</v>
+        <v>1398</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="40"/>
@@ -12423,11 +12467,11 @@
       <c r="R119" s="59"/>
       <c r="S119" s="59"/>
       <c r="T119" s="2" t="s">
-        <v>1357</v>
+        <v>1399</v>
       </c>
       <c r="U119" s="20"/>
       <c r="V119" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="W119" s="45"/>
       <c r="X119" s="2"/>
@@ -12524,10 +12568,10 @@
         <v>723</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="40" t="str">
@@ -12584,10 +12628,10 @@
         <v>724</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="40" t="str">
@@ -12644,10 +12688,10 @@
         <v>725</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E124" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="40" t="str">
@@ -12704,10 +12748,10 @@
         <v>69</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="40" t="str">
@@ -12721,13 +12765,13 @@
         <v>443</v>
       </c>
       <c r="L125" s="49" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="M125" s="49" t="s">
         <v>443</v>
       </c>
       <c r="N125" s="49" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="O125" s="59" t="s">
         <v>443</v>
@@ -12768,10 +12812,10 @@
         <v>70</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>1126</v>
@@ -12785,24 +12829,24 @@
         <v>D04a</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="L126" s="19" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="M126" s="19"/>
       <c r="N126" s="19"/>
       <c r="O126" s="59" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="P126" s="66" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="Q126" s="69"/>
       <c r="R126" s="59" t="s">
@@ -12878,7 +12922,7 @@
       </c>
       <c r="X127" s="2"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="str">
         <f t="shared" si="5"/>
         <v>....D.04.b. - Opioid use disorders</v>
@@ -12890,10 +12934,10 @@
         <v>668</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>1127</v>
@@ -12906,13 +12950,15 @@
         <f>CONCATENATE(D128,E128,F128)</f>
         <v>D04b</v>
       </c>
-      <c r="I128" s="5"/>
+      <c r="I128" s="84" t="s">
+        <v>1392</v>
+      </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5" t="s">
-        <v>983</v>
+        <v>1387</v>
       </c>
       <c r="L128" s="49" t="s">
-        <v>801</v>
+        <v>1387</v>
       </c>
       <c r="M128" s="49"/>
       <c r="N128" s="49"/>
@@ -12955,10 +13001,10 @@
         <v>669</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F129" s="28" t="s">
         <v>1130</v>
@@ -13020,13 +13066,13 @@
         <v>726</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F130" s="28" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G130" s="40" t="str">
         <f t="shared" si="11"/>
@@ -13085,10 +13131,10 @@
         <v>727</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="40" t="str">
@@ -13128,7 +13174,7 @@
       </c>
       <c r="X131" s="2"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="str">
         <f t="shared" ref="A132:A195" si="12">IF(H132&lt;&gt;"",IF(F132&lt;&gt;"",CONCATENATE("....",D132,".",E132,".",F132,". - ",T132),IF(E132&lt;&gt;"",CONCATENATE("...",D132,".",E132,". - ",T132),CONCATENATE("..",D132,". - ",T132))),"")</f>
         <v/>
@@ -13140,10 +13186,10 @@
         <v>728</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E132" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="40" t="str">
@@ -13151,17 +13197,17 @@
         <v>cD04</v>
       </c>
       <c r="H132" s="40"/>
-      <c r="I132" s="5" t="s">
-        <v>1236</v>
+      <c r="I132" s="84" t="s">
+        <v>1393</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>1167</v>
+        <v>1394</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>1237</v>
+        <v>1395</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="19"/>
@@ -13191,7 +13237,7 @@
         <v>728</v>
       </c>
       <c r="X132" s="2" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.25">
@@ -13206,10 +13252,10 @@
         <v>72</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="40" t="str">
@@ -13262,10 +13308,10 @@
         <v>73</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="40" t="str">
@@ -13322,10 +13368,10 @@
         <v>729</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="40" t="str">
@@ -13427,10 +13473,10 @@
         <v>730</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="40" t="str">
@@ -13483,10 +13529,10 @@
         <v>731</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="40" t="str">
@@ -13539,10 +13585,10 @@
         <v>75</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="40" t="str">
@@ -13595,10 +13641,10 @@
         <v>76</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="40" t="str">
@@ -13710,10 +13756,10 @@
         <v>732</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="40" t="str">
@@ -13773,10 +13819,10 @@
         <v>79</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="40" t="str">
@@ -13833,10 +13879,10 @@
         <v>80</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E144" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="40" t="str">
@@ -13893,10 +13939,10 @@
         <v>81</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="40" t="str">
@@ -13953,10 +13999,10 @@
         <v>82</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="40" t="str">
@@ -14009,10 +14055,10 @@
         <v>83</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="40" t="str">
@@ -14065,10 +14111,10 @@
         <v>84</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="40" t="str">
@@ -14080,16 +14126,16 @@
         <v>D06</v>
       </c>
       <c r="I148" s="57" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K148" s="5" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="L148" s="58" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="M148" s="58"/>
       <c r="N148" s="58"/>
@@ -14187,7 +14233,7 @@
         <v>86</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E150" s="26">
         <v>99</v>
@@ -14243,7 +14289,7 @@
         <v>87</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E151" s="26">
         <v>99</v>
@@ -14299,7 +14345,7 @@
         <v>733</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E152" s="26">
         <v>99</v>
@@ -14355,7 +14401,7 @@
         <v>89</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E153" s="26">
         <v>99</v>
@@ -14411,7 +14457,7 @@
         <v>90</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E154" s="26">
         <v>99</v>
@@ -14428,7 +14474,7 @@
         <v>460</v>
       </c>
       <c r="L154" s="49" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="M154" s="49"/>
       <c r="N154" s="49"/>
@@ -14467,7 +14513,7 @@
         <v>91</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E155" s="26">
         <v>99</v>
@@ -14523,7 +14569,7 @@
         <v>92</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E156" s="26">
         <v>99</v>
@@ -14581,7 +14627,7 @@
         <v>93</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E157" s="26"/>
       <c r="F157" s="6"/>
@@ -14639,7 +14685,7 @@
         <v>94</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E158" s="26">
         <v>99</v>
@@ -14662,7 +14708,7 @@
         <v>464</v>
       </c>
       <c r="N158" s="49" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="O158" s="59" t="s">
         <v>464</v>
@@ -14703,10 +14749,10 @@
         <v>95</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="40" t="str">
@@ -14770,10 +14816,10 @@
         <v>96</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E160" s="26" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="40" t="str">
@@ -14837,10 +14883,10 @@
         <v>97</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="40" t="str">
@@ -14852,22 +14898,22 @@
         <v>C03</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K161" s="5" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="L161" s="49" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M161" s="49" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="N161" s="49" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="O161" s="59" t="s">
         <v>467</v>
@@ -14908,10 +14954,10 @@
         <v>98</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="40" t="str">
@@ -14931,10 +14977,10 @@
         <v>830</v>
       </c>
       <c r="M162" s="49" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="N162" s="49" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="O162" s="59" t="s">
         <v>468</v>
@@ -14962,7 +15008,7 @@
         <v>98</v>
       </c>
       <c r="X162" s="81" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="163" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
@@ -14973,10 +15019,10 @@
       <c r="B163" s="2"/>
       <c r="C163" s="36"/>
       <c r="D163" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E163" s="26" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="40" t="str">
@@ -14988,22 +15034,22 @@
         <v>C05</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="L163" s="49" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="M163" s="49" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="N163" s="49" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="O163" s="59"/>
       <c r="P163" s="68"/>
@@ -15011,7 +15057,7 @@
       <c r="R163" s="59"/>
       <c r="S163" s="59"/>
       <c r="T163" s="5" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="U163" s="50"/>
       <c r="V163" s="5"/>
@@ -15030,7 +15076,7 @@
         <v>99</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E164" s="26">
         <v>99</v>
@@ -15045,22 +15091,22 @@
         <v>C99</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="L164" s="19" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="M164" s="19" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="O164" s="59" t="s">
         <v>469</v>
@@ -15076,7 +15122,7 @@
         <v>1102</v>
       </c>
       <c r="T164" s="79" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="U164" s="52" t="s">
         <v>99</v>
@@ -15088,7 +15134,7 @@
         <v>99</v>
       </c>
       <c r="X164" s="81" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="165" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
@@ -15160,10 +15206,10 @@
         <v>101</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E166" s="83" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="40" t="str">
@@ -15223,10 +15269,10 @@
         <v>102</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E167" s="83" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="40" t="str">
@@ -15283,13 +15329,13 @@
         <v>157</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E168" s="83" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="40" t="str">
@@ -15349,10 +15395,10 @@
         <v>104</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="40" t="s">
@@ -15386,10 +15432,10 @@
         <v>682</v>
       </c>
       <c r="T169" s="81" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="U169" s="20" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="V169" s="2" t="s">
         <v>281</v>
@@ -15411,10 +15457,10 @@
         <v>105</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="40" t="str">
@@ -15471,10 +15517,10 @@
         <v>106</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="40" t="str">
@@ -15486,16 +15532,16 @@
         <v>D11</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="L171" s="49" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="M171" s="49"/>
       <c r="N171" s="49"/>
@@ -15538,10 +15584,10 @@
         <v>107</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="40" t="str">
@@ -15598,10 +15644,10 @@
         <v>734</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="40" t="str">
@@ -15646,7 +15692,7 @@
       </c>
       <c r="X173" s="2"/>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="44" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15658,10 +15704,10 @@
         <v>735</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="40" t="str">
@@ -15718,10 +15764,10 @@
         <v>667</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="40" t="str">
@@ -15778,10 +15824,10 @@
         <v>736</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="40" t="str">
@@ -15838,10 +15884,10 @@
         <v>737</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="40" t="str">
@@ -15886,7 +15932,7 @@
       </c>
       <c r="X177" s="2"/>
     </row>
-    <row r="178" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" ht="51" x14ac:dyDescent="0.25">
       <c r="A178" s="44" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -15898,10 +15944,10 @@
         <v>738</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="40" t="str">
@@ -15910,16 +15956,16 @@
       </c>
       <c r="H178" s="40"/>
       <c r="I178" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="L178" s="49" t="s">
         <v>1205</v>
-      </c>
-      <c r="J178" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L178" s="49" t="s">
-        <v>1207</v>
       </c>
       <c r="M178" s="49"/>
       <c r="N178" s="49"/>
@@ -16017,10 +16063,10 @@
         <v>109</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="40" t="s">
@@ -16081,10 +16127,10 @@
         <v>739</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>1126</v>
@@ -16148,10 +16194,10 @@
         <v>740</v>
       </c>
       <c r="D182" s="27" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E182" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>1127</v>
@@ -16215,10 +16261,10 @@
         <v>741</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F183" s="6" t="s">
         <v>1130</v>
@@ -16282,7 +16328,7 @@
         <v>742</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E184" s="26">
         <v>99</v>
@@ -16338,7 +16384,7 @@
         <v>110</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E185" s="26">
         <v>99</v>
@@ -16398,7 +16444,7 @@
         <v>743</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E186" s="26">
         <v>99</v>
@@ -16458,7 +16504,7 @@
         <v>112</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E187" s="26">
         <v>99</v>
@@ -16518,7 +16564,7 @@
         <v>113</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E188" s="26">
         <v>99</v>
@@ -16578,7 +16624,7 @@
         <v>114</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E189" s="26">
         <v>99</v>
@@ -16695,7 +16741,7 @@
         <v>116</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E191" s="26">
         <v>99</v>
@@ -16755,7 +16801,7 @@
         <v>117</v>
       </c>
       <c r="D192" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E192" s="26">
         <v>99</v>
@@ -16811,7 +16857,7 @@
         <v>118</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E193" s="26">
         <v>99</v>
@@ -16867,7 +16913,7 @@
         <v>119</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E194" s="26">
         <v>99</v>
@@ -16923,7 +16969,7 @@
         <v>120</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E195" s="26">
         <v>99</v>
@@ -16935,16 +16981,16 @@
       </c>
       <c r="H195" s="40"/>
       <c r="I195" s="5" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="L195" s="49" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="M195" s="49"/>
       <c r="N195" s="49"/>
@@ -16977,7 +17023,7 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="44" t="str">
-        <f t="shared" ref="A196:A232" si="19">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("....",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("...",D196,".",E196,". - ",T196),CONCATENATE("..",D196,". - ",T196))),"")</f>
+        <f t="shared" ref="A196:A233" si="19">IF(H196&lt;&gt;"",IF(F196&lt;&gt;"",CONCATENATE("....",D196,".",E196,".",F196,". - ",T196),IF(E196&lt;&gt;"",CONCATENATE("...",D196,".",E196,". - ",T196),CONCATENATE("..",D196,". - ",T196))),"")</f>
         <v>...D.12. - Congenital anomalies</v>
       </c>
       <c r="B196" s="2">
@@ -16987,10 +17033,10 @@
         <v>121</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E196" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="40" t="s">
@@ -17049,10 +17095,10 @@
         <v>122</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="40" t="str">
@@ -17109,10 +17155,10 @@
         <v>123</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E198" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="40" t="str">
@@ -17169,10 +17215,10 @@
         <v>124</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E199" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="40" t="str">
@@ -17229,10 +17275,10 @@
         <v>125</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E200" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="40" t="str">
@@ -17289,10 +17335,10 @@
         <v>126</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E201" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="40" t="str">
@@ -17349,10 +17395,10 @@
         <v>127</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E202" s="26" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="40" t="str">
@@ -17462,7 +17508,7 @@
         <v>129</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E204" s="26">
         <v>99</v>
@@ -17518,7 +17564,7 @@
         <v>130</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E205" s="26">
         <v>99</v>
@@ -17574,7 +17620,7 @@
         <v>131</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E206" s="26">
         <v>99</v>
@@ -17630,7 +17676,7 @@
         <v>744</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E207" s="26">
         <v>99</v>
@@ -17686,7 +17732,7 @@
         <v>132</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E208" s="26"/>
       <c r="F208" s="6"/>
@@ -17713,7 +17759,7 @@
       </c>
       <c r="Q208" s="66"/>
       <c r="R208" s="60" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="S208" s="59" t="s">
         <v>654</v>
@@ -17744,10 +17790,10 @@
         <v>133</v>
       </c>
       <c r="D209" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E209" s="26" t="s">
         <v>1143</v>
-      </c>
-      <c r="E209" s="26" t="s">
-        <v>1144</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="40"/>
@@ -17804,16 +17850,16 @@
         <v>134</v>
       </c>
       <c r="D210" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E210" s="26" t="s">
         <v>1143</v>
-      </c>
-      <c r="E210" s="26" t="s">
-        <v>1144</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>1126</v>
       </c>
       <c r="G210" s="40" t="str">
-        <f t="shared" ref="G210:G219" si="21">CONCATENATE("c",D210,E210,F210)</f>
+        <f t="shared" ref="G210:G220" si="21">CONCATENATE("c",D210,E210,F210)</f>
         <v>cE01a</v>
       </c>
       <c r="H210" s="40" t="str">
@@ -17821,16 +17867,16 @@
         <v>E01a</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K210" s="5" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="L210" s="19" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="M210" s="19"/>
       <c r="N210" s="19"/>
@@ -17864,189 +17910,181 @@
     <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="B211" s="2">
-        <v>200</v>
-      </c>
+        <v>....E.01.b. - Substance Use-associated poisonings</v>
+      </c>
+      <c r="B211" s="2"/>
       <c r="C211" s="31" t="s">
-        <v>135</v>
+        <v>1388</v>
       </c>
       <c r="D211" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E211" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="E211" s="26" t="s">
-        <v>1144</v>
-      </c>
       <c r="F211" s="6" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G211" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE01x</v>
-      </c>
-      <c r="H211" s="40"/>
+        <v>cE01b</v>
+      </c>
+      <c r="H211" s="40" t="str">
+        <f t="shared" ref="H211:H212" si="22">CONCATENATE(D211,E211,F211)</f>
+        <v>E01b</v>
+      </c>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L211" s="49" t="s">
-        <v>1117</v>
-      </c>
-      <c r="M211" s="49"/>
-      <c r="N211" s="49"/>
-      <c r="O211" s="59" t="s">
-        <v>1116</v>
-      </c>
-      <c r="P211" s="68" t="s">
-        <v>1117</v>
-      </c>
+      <c r="K211" s="84" t="s">
+        <v>1391</v>
+      </c>
+      <c r="L211" s="85" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M211" s="19"/>
+      <c r="N211" s="19"/>
+      <c r="O211" s="59"/>
+      <c r="P211" s="68"/>
       <c r="Q211" s="69"/>
-      <c r="R211" s="59" t="s">
-        <v>657</v>
-      </c>
-      <c r="S211" s="59" t="s">
-        <v>1006</v>
-      </c>
+      <c r="R211" s="59"/>
+      <c r="S211" s="59"/>
       <c r="T211" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="U211" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="V211" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="W211" s="45" t="s">
-        <v>135</v>
-      </c>
+        <v>1401</v>
+      </c>
+      <c r="U211" s="20"/>
+      <c r="V211" s="5"/>
+      <c r="W211" s="45"/>
       <c r="X211" s="2"/>
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>....E.01.b. - Falls</v>
+        <v>....E.01.c. - Non SU-associated Poisonings</v>
       </c>
       <c r="B212" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>136</v>
+        <v>1389</v>
       </c>
       <c r="D212" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E212" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="E212" s="26" t="s">
-        <v>1144</v>
-      </c>
       <c r="F212" s="6" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="G212" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE01b</v>
+        <v>cE01c</v>
       </c>
       <c r="H212" s="40" t="str">
-        <f>CONCATENATE(D212,E212,F212)</f>
-        <v>E01b</v>
-      </c>
-      <c r="I212" s="5" t="s">
-        <v>952</v>
-      </c>
+        <f t="shared" si="22"/>
+        <v>E01c</v>
+      </c>
+      <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="L212" s="49" t="s">
-        <v>870</v>
+      <c r="K212" s="84" t="s">
+        <v>1397</v>
+      </c>
+      <c r="L212" s="86" t="s">
+        <v>1396</v>
       </c>
       <c r="M212" s="49"/>
       <c r="N212" s="49"/>
       <c r="O212" s="59" t="s">
-        <v>501</v>
+        <v>1116</v>
       </c>
       <c r="P212" s="68" t="s">
-        <v>870</v>
+        <v>1117</v>
       </c>
       <c r="Q212" s="69"/>
       <c r="R212" s="59" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S212" s="59" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="T212" s="5" t="s">
-        <v>312</v>
+        <v>1400</v>
       </c>
       <c r="U212" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V212" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="W212" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X212" s="2"/>
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>....E.01.d. - Falls</v>
       </c>
       <c r="B213" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D213" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E213" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="E213" s="26" t="s">
-        <v>1144</v>
-      </c>
       <c r="F213" s="6" t="s">
-        <v>1128</v>
+        <v>1153</v>
       </c>
       <c r="G213" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE01x</v>
-      </c>
-      <c r="H213" s="40"/>
+        <v>cE01d</v>
+      </c>
+      <c r="H213" s="40" t="str">
+        <f>CONCATENATE(D213,E213,F213)</f>
+        <v>E01d</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="J213" s="5"/>
       <c r="K213" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L213" s="49" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M213" s="49"/>
       <c r="N213" s="49"/>
       <c r="O213" s="59" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P213" s="68" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="Q213" s="69"/>
       <c r="R213" s="59" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S213" s="59" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="T213" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U213" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V213" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="W213" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X213" s="2"/>
     </row>
@@ -18056,16 +18094,16 @@
         <v/>
       </c>
       <c r="B214" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>745</v>
+        <v>137</v>
       </c>
       <c r="D214" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E214" s="26" t="s">
         <v>1143</v>
-      </c>
-      <c r="E214" s="26" t="s">
-        <v>1144</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>1128</v>
@@ -18075,59 +18113,57 @@
         <v>cE01x</v>
       </c>
       <c r="H214" s="40"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5"/>
       <c r="K214" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L214" s="49" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M214" s="49"/>
       <c r="N214" s="49"/>
       <c r="O214" s="59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P214" s="68" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Q214" s="69"/>
       <c r="R214" s="59" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S214" s="59" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="T214" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U214" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V214" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="W214" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X214" s="2"/>
     </row>
-    <row r="215" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" s="44" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="B215" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D215" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E215" s="26" t="s">
         <v>1143</v>
-      </c>
-      <c r="E215" s="26" t="s">
-        <v>1144</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>1128</v>
@@ -18140,513 +18176,528 @@
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
       <c r="K215" s="5" t="s">
-        <v>1389</v>
+        <v>503</v>
       </c>
       <c r="L215" s="49" t="s">
-        <v>1391</v>
+        <v>872</v>
       </c>
       <c r="M215" s="49"/>
       <c r="N215" s="49"/>
       <c r="O215" s="59" t="s">
-        <v>995</v>
+        <v>503</v>
       </c>
       <c r="P215" s="68" t="s">
-        <v>997</v>
-      </c>
-      <c r="Q215" s="68"/>
+        <v>872</v>
+      </c>
+      <c r="Q215" s="69"/>
       <c r="R215" s="59" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S215" s="59" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="T215" s="5" t="s">
-        <v>885</v>
+        <v>314</v>
       </c>
       <c r="U215" s="20" t="s">
-        <v>746</v>
+        <v>138</v>
       </c>
       <c r="V215" s="5" t="s">
-        <v>885</v>
+        <v>314</v>
       </c>
       <c r="W215" s="45" t="s">
-        <v>746</v>
+        <v>138</v>
       </c>
       <c r="X215" s="2"/>
     </row>
-    <row r="216" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A216" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>....E.01.c. - Accidental Firearm</v>
-      </c>
-      <c r="B216" s="2"/>
+        <v/>
+      </c>
+      <c r="B216" s="2">
+        <v>204</v>
+      </c>
       <c r="C216" s="31" t="s">
-        <v>1390</v>
+        <v>746</v>
       </c>
       <c r="D216" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E216" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="E216" s="26" t="s">
-        <v>1144</v>
-      </c>
       <c r="F216" s="6" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G216" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE01c</v>
-      </c>
-      <c r="H216" s="40" t="str">
-        <f>CONCATENATE(D216,E216,F216)</f>
-        <v>E01c</v>
-      </c>
-      <c r="I216" s="5" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J216" s="5" t="s">
-        <v>1214</v>
-      </c>
+        <v>cE01x</v>
+      </c>
+      <c r="H216" s="40"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
       <c r="K216" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="L216" s="49" t="s">
         <v>1386</v>
       </c>
       <c r="M216" s="49"/>
       <c r="N216" s="49"/>
-      <c r="O216" s="59"/>
-      <c r="P216" s="68"/>
+      <c r="O216" s="59" t="s">
+        <v>995</v>
+      </c>
+      <c r="P216" s="68" t="s">
+        <v>997</v>
+      </c>
       <c r="Q216" s="68"/>
-      <c r="R216" s="59"/>
-      <c r="S216" s="59"/>
+      <c r="R216" s="59" t="s">
+        <v>661</v>
+      </c>
+      <c r="S216" s="59" t="s">
+        <v>1002</v>
+      </c>
       <c r="T216" s="5" t="s">
-        <v>1387</v>
-      </c>
-      <c r="U216" s="20"/>
-      <c r="V216" s="5"/>
-      <c r="W216" s="45"/>
+        <v>885</v>
+      </c>
+      <c r="U216" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="V216" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="W216" s="45" t="s">
+        <v>746</v>
+      </c>
       <c r="X216" s="2"/>
     </row>
     <row r="217" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A217" s="44" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="B217" s="2">
-        <v>205</v>
-      </c>
+        <v>....E.01.c. - Accidental Firearm</v>
+      </c>
+      <c r="B217" s="2"/>
       <c r="C217" s="31" t="s">
-        <v>747</v>
+        <v>1385</v>
       </c>
       <c r="D217" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E217" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="E217" s="26" t="s">
-        <v>1144</v>
-      </c>
       <c r="F217" s="6" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G217" s="40" t="str">
         <f t="shared" si="21"/>
-        <v>cE01x</v>
-      </c>
-      <c r="H217" s="40"/>
+        <v>cE01c</v>
+      </c>
+      <c r="H217" s="40" t="str">
+        <f>CONCATENATE(D217,E217,F217)</f>
+        <v>E01c</v>
+      </c>
       <c r="I217" s="5" t="s">
-        <v>1240</v>
+        <v>1383</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>1161</v>
+        <v>1212</v>
       </c>
       <c r="K217" s="5" t="s">
-        <v>1198</v>
+        <v>1380</v>
       </c>
       <c r="L217" s="49" t="s">
-        <v>1199</v>
+        <v>1381</v>
       </c>
       <c r="M217" s="49"/>
       <c r="N217" s="49"/>
-      <c r="O217" s="59" t="s">
-        <v>504</v>
-      </c>
-      <c r="P217" s="68" t="s">
-        <v>873</v>
-      </c>
-      <c r="Q217" s="69"/>
+      <c r="O217" s="59"/>
+      <c r="P217" s="68"/>
+      <c r="Q217" s="68"/>
       <c r="R217" s="59"/>
       <c r="S217" s="59"/>
       <c r="T217" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="U217" s="20" t="s">
-        <v>747</v>
-      </c>
-      <c r="V217" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="W217" s="45" t="s">
-        <v>747</v>
-      </c>
+        <v>1382</v>
+      </c>
+      <c r="U217" s="20"/>
+      <c r="V217" s="5"/>
+      <c r="W217" s="45"/>
       <c r="X217" s="2"/>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="44" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="6"/>
-      <c r="E218" s="26"/>
-      <c r="F218" s="6"/>
-      <c r="G218" s="40"/>
+      <c r="B218" s="2">
+        <v>205</v>
+      </c>
+      <c r="C218" s="31" t="s">
+        <v>747</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E218" s="26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G218" s="40" t="str">
+        <f t="shared" si="21"/>
+        <v>cE01x</v>
+      </c>
       <c r="H218" s="40"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
-      <c r="L218" s="49"/>
+      <c r="I218" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="L218" s="49" t="s">
+        <v>1197</v>
+      </c>
       <c r="M218" s="49"/>
       <c r="N218" s="49"/>
-      <c r="O218" s="59"/>
-      <c r="P218" s="68"/>
+      <c r="O218" s="59" t="s">
+        <v>504</v>
+      </c>
+      <c r="P218" s="68" t="s">
+        <v>873</v>
+      </c>
       <c r="Q218" s="69"/>
       <c r="R218" s="59"/>
       <c r="S218" s="59"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="20"/>
-      <c r="V218" s="5"/>
-      <c r="W218" s="45"/>
+      <c r="T218" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="U218" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="V218" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="W218" s="45" t="s">
+        <v>747</v>
+      </c>
       <c r="X218" s="2"/>
     </row>
-    <row r="219" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" s="44" t="str">
         <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="31"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="26"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="40"/>
+      <c r="H219" s="40"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="5"/>
+      <c r="L219" s="49"/>
+      <c r="M219" s="49"/>
+      <c r="N219" s="49"/>
+      <c r="O219" s="59"/>
+      <c r="P219" s="68"/>
+      <c r="Q219" s="69"/>
+      <c r="R219" s="59"/>
+      <c r="S219" s="59"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="20"/>
+      <c r="V219" s="5"/>
+      <c r="W219" s="45"/>
+      <c r="X219" s="2"/>
+    </row>
+    <row r="220" spans="1:24" ht="102" x14ac:dyDescent="0.25">
+      <c r="A220" s="44" t="str">
+        <f t="shared" si="19"/>
         <v>....E.01.x. - Other unintentional injuries</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B220" s="2">
         <v>206</v>
       </c>
-      <c r="C219" s="31" t="s">
+      <c r="C220" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="D220" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E220" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="E219" s="26" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F219" s="6" t="s">
+      <c r="F220" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="G219" s="40" t="str">
+      <c r="G220" s="40" t="str">
         <f t="shared" si="21"/>
         <v>cE01x</v>
       </c>
-      <c r="H219" s="40" t="str">
-        <f>CONCATENATE(D219,E219,F219)</f>
+      <c r="H220" s="40" t="str">
+        <f>CONCATENATE(D220,E220,F220)</f>
         <v>E01x</v>
       </c>
-      <c r="I219" s="5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J219" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="K219" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L219" s="49" t="s">
-        <v>1260</v>
-      </c>
-      <c r="M219" s="49"/>
-      <c r="N219" s="49"/>
-      <c r="O219" s="59" t="s">
+      <c r="I220" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L220" s="49" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M220" s="49"/>
+      <c r="N220" s="49"/>
+      <c r="O220" s="59" t="s">
         <v>996</v>
       </c>
-      <c r="P219" s="68" t="s">
+      <c r="P220" s="68" t="s">
         <v>1113</v>
       </c>
-      <c r="Q219" s="68"/>
-      <c r="R219" s="59" t="s">
+      <c r="Q220" s="68"/>
+      <c r="R220" s="59" t="s">
         <v>662</v>
       </c>
-      <c r="S219" s="59" t="s">
+      <c r="S220" s="59" t="s">
         <v>1003</v>
       </c>
-      <c r="T219" s="5" t="s">
+      <c r="T220" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="U219" s="20" t="s">
+      <c r="U220" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="V219" s="5" t="s">
+      <c r="V220" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="W219" s="45" t="s">
+      <c r="W220" s="45" t="s">
         <v>887</v>
       </c>
-      <c r="X219" s="22" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="220" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="44" t="str">
+      <c r="X220" s="22" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="44" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="B220" s="2">
+      <c r="B221" s="2">
         <v>207</v>
       </c>
-      <c r="C220" s="35" t="s">
+      <c r="C221" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D220" s="6"/>
-      <c r="E220" s="26"/>
-      <c r="F220" s="6"/>
-      <c r="G220" s="40"/>
-      <c r="H220" s="40"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="5"/>
-      <c r="K220" s="5" t="s">
+      <c r="D221" s="6"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="40"/>
+      <c r="H221" s="40"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="L220" s="19" t="s">
+      <c r="L221" s="19" t="s">
         <v>952</v>
       </c>
-      <c r="M220" s="19"/>
-      <c r="N220" s="19"/>
-      <c r="O220" s="59" t="s">
+      <c r="M221" s="19"/>
+      <c r="N221" s="19"/>
+      <c r="O221" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="P220" s="66" t="s">
+      <c r="P221" s="66" t="s">
         <v>874</v>
       </c>
-      <c r="Q220" s="67"/>
-      <c r="R220" s="59" t="s">
+      <c r="Q221" s="67"/>
+      <c r="R221" s="59" t="s">
         <v>664</v>
       </c>
-      <c r="S220" s="59" t="s">
+      <c r="S221" s="59" t="s">
         <v>663</v>
       </c>
-      <c r="T220" s="2" t="s">
+      <c r="T221" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="U220" s="20" t="s">
+      <c r="U221" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="V220" s="2" t="s">
+      <c r="V221" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="W220" s="45" t="s">
+      <c r="W221" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="X220" s="2"/>
-    </row>
-    <row r="221" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A221" s="44" t="str">
+      <c r="X221" s="2"/>
+    </row>
+    <row r="222" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="44" t="str">
         <f t="shared" si="19"/>
         <v>...E.02. - Suicide/Self-harm</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B222" s="2">
         <v>208</v>
       </c>
-      <c r="C221" s="31" t="s">
+      <c r="C222" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="D221" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E221" s="26" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F221" s="6"/>
-      <c r="G221" s="40" t="str">
-        <f t="shared" ref="G221:G228" si="22">CONCATENATE("c",D221,E221,F221)</f>
+      <c r="D222" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E222" s="26" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F222" s="6"/>
+      <c r="G222" s="40" t="str">
+        <f t="shared" ref="G222:G229" si="23">CONCATENATE("c",D222,E222,F222)</f>
         <v>cE02</v>
       </c>
-      <c r="H221" s="40" t="str">
-        <f>CONCATENATE(D221,E221,F221)</f>
+      <c r="H222" s="40" t="str">
+        <f>CONCATENATE(D222,E222,F222)</f>
         <v>E02</v>
       </c>
-      <c r="I221" s="5" t="s">
-        <v>1308</v>
-      </c>
-      <c r="J221" s="5" t="s">
+      <c r="I222" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="L222" s="49" t="s">
         <v>1214</v>
       </c>
-      <c r="K221" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="L221" s="49" t="s">
-        <v>1216</v>
-      </c>
-      <c r="M221" s="49"/>
-      <c r="N221" s="49"/>
-      <c r="O221" s="59" t="s">
+      <c r="M222" s="49"/>
+      <c r="N222" s="49"/>
+      <c r="O222" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="P221" s="68" t="s">
+      <c r="P222" s="68" t="s">
         <v>875</v>
       </c>
-      <c r="Q221" s="69"/>
-      <c r="R221" s="59" t="s">
+      <c r="Q222" s="69"/>
+      <c r="R222" s="59" t="s">
         <v>665</v>
       </c>
-      <c r="S221" s="59" t="s">
+      <c r="S222" s="59" t="s">
         <v>999</v>
       </c>
-      <c r="T221" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="U221" s="20" t="s">
+      <c r="T222" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="U222" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="V221" s="5" t="s">
+      <c r="V222" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="W221" s="45" t="s">
+      <c r="W222" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="X221" s="2"/>
-    </row>
-    <row r="222" spans="1:24" ht="255" x14ac:dyDescent="0.25">
-      <c r="A222" s="44" t="str">
+      <c r="X222" s="2"/>
+    </row>
+    <row r="223" spans="1:24" ht="255" x14ac:dyDescent="0.25">
+      <c r="A223" s="44" t="str">
         <f t="shared" si="19"/>
         <v>...E.03. - Homicide/Interpersonal violence</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B223" s="2">
         <v>209</v>
       </c>
-      <c r="C222" s="31" t="s">
+      <c r="C223" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="D222" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E222" s="26" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F222" s="6"/>
-      <c r="G222" s="40" t="s">
+      <c r="D223" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E223" s="26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F223" s="6"/>
+      <c r="G223" s="40" t="s">
         <v>952</v>
       </c>
-      <c r="H222" s="40" t="str">
-        <f>CONCATENATE(D222,E222,F222)</f>
+      <c r="H223" s="40" t="str">
+        <f>CONCATENATE(D223,E223,F223)</f>
         <v>E03</v>
       </c>
-      <c r="I222" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J222" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="M222" s="19"/>
-      <c r="N222" s="19"/>
-      <c r="O222" s="59" t="s">
+      <c r="I223" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M223" s="19"/>
+      <c r="N223" s="19"/>
+      <c r="O223" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="P222" s="68" t="s">
+      <c r="P223" s="68" t="s">
         <v>876</v>
       </c>
-      <c r="Q222" s="69"/>
-      <c r="R222" s="59" t="s">
+      <c r="Q223" s="69"/>
+      <c r="R223" s="59" t="s">
         <v>666</v>
       </c>
-      <c r="S222" s="59" t="s">
+      <c r="S223" s="59" t="s">
         <v>998</v>
       </c>
-      <c r="T222" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="U222" s="20" t="s">
+      <c r="T223" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="U223" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="V222" s="5" t="s">
+      <c r="V223" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="W222" s="45" t="s">
+      <c r="W223" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="X222" s="2"/>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A223" s="44" t="str">
+      <c r="X223" s="2"/>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A224" s="44" t="str">
         <f t="shared" si="19"/>
         <v>....E.03.a. - Homicide excluding legal intervention</v>
-      </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="31"/>
-      <c r="D223" s="6" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E223" s="26" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G223" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v>cE03a</v>
-      </c>
-      <c r="H223" s="40" t="str">
-        <f t="shared" ref="H223:H225" si="23">CONCATENATE(D223,E223,F223)</f>
-        <v>E03a</v>
-      </c>
-      <c r="I223" s="5"/>
-      <c r="J223" s="5"/>
-      <c r="K223" s="5" t="s">
-        <v>1377</v>
-      </c>
-      <c r="L223" s="19" t="s">
-        <v>1381</v>
-      </c>
-      <c r="M223" s="19"/>
-      <c r="N223" s="19"/>
-      <c r="O223" s="59"/>
-      <c r="P223" s="68"/>
-      <c r="Q223" s="69"/>
-      <c r="R223" s="59"/>
-      <c r="S223" s="59"/>
-      <c r="T223" s="20" t="s">
-        <v>1375</v>
-      </c>
-      <c r="U223" s="46"/>
-      <c r="V223" s="5"/>
-      <c r="W223" s="45"/>
-      <c r="X223" s="2"/>
-    </row>
-    <row r="224" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="44" t="str">
-        <f t="shared" si="19"/>
-        <v>....E.03.b. - Legal intervention</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="31"/>
       <c r="D224" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E224" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="G224" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v>cE03b</v>
+        <f t="shared" si="23"/>
+        <v>cE03a</v>
       </c>
       <c r="H224" s="40" t="str">
-        <f t="shared" si="23"/>
-        <v>E03b</v>
+        <f t="shared" ref="H224:H226" si="24">CONCATENATE(D224,E224,F224)</f>
+        <v>E03a</v>
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="L224" s="19" t="s">
         <v>1376</v>
-      </c>
-      <c r="L224" s="19" t="s">
-        <v>1382</v>
       </c>
       <c r="M224" s="19"/>
       <c r="N224" s="19"/>
@@ -18656,267 +18707,314 @@
       <c r="R224" s="59"/>
       <c r="S224" s="59"/>
       <c r="T224" s="20" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="U224" s="46"/>
       <c r="V224" s="5"/>
       <c r="W224" s="45"/>
       <c r="X224" s="2"/>
     </row>
-    <row r="225" spans="1:24" ht="153" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A225" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>....E.03.c. - Execution, War, Terroism</v>
-      </c>
-      <c r="B225" s="2">
-        <v>210</v>
-      </c>
-      <c r="C225" s="31" t="s">
-        <v>142</v>
-      </c>
+        <v>....E.03.b. - Legal intervention</v>
+      </c>
+      <c r="B225" s="2"/>
+      <c r="C225" s="31"/>
       <c r="D225" s="6" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E225" s="26" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="G225" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v>cE03c</v>
+        <f t="shared" si="23"/>
+        <v>cE03b</v>
       </c>
       <c r="H225" s="40" t="str">
-        <f t="shared" si="23"/>
-        <v>E03c</v>
-      </c>
-      <c r="I225" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="J225" s="5" t="s">
-        <v>1241</v>
-      </c>
+        <f t="shared" si="24"/>
+        <v>E03b</v>
+      </c>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
       <c r="K225" s="5" t="s">
-        <v>1378</v>
-      </c>
-      <c r="L225" s="49" t="s">
-        <v>1380</v>
-      </c>
-      <c r="M225" s="49"/>
-      <c r="N225" s="49"/>
-      <c r="O225" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="P225" s="68" t="s">
-        <v>877</v>
-      </c>
+        <v>1371</v>
+      </c>
+      <c r="L225" s="19" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M225" s="19"/>
+      <c r="N225" s="19"/>
+      <c r="O225" s="59"/>
+      <c r="P225" s="68"/>
       <c r="Q225" s="69"/>
       <c r="R225" s="59"/>
       <c r="S225" s="59"/>
-      <c r="T225" s="5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="U225" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="V225" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="W225" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="X225" s="22" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="T225" s="20" t="s">
+        <v>1369</v>
+      </c>
+      <c r="U225" s="46"/>
+      <c r="V225" s="5"/>
+      <c r="W225" s="45"/>
+      <c r="X225" s="2"/>
+    </row>
+    <row r="226" spans="1:24" ht="153" x14ac:dyDescent="0.25">
       <c r="A226" s="44" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="B226" s="82" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D226" s="54" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E226" s="55" t="s">
-        <v>1144</v>
+        <v>....E.03.c. - Execution, War, Terroism</v>
+      </c>
+      <c r="B226" s="2">
+        <v>210</v>
+      </c>
+      <c r="C226" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E226" s="26" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>1130</v>
       </c>
       <c r="G226" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v>cE01</v>
-      </c>
-      <c r="H226" s="40"/>
-      <c r="I226" s="48" t="s">
-        <v>1257</v>
-      </c>
-      <c r="J226" s="48" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K226" s="16" t="s">
-        <v>1275</v>
-      </c>
-      <c r="L226" s="16" t="s">
-        <v>1276</v>
-      </c>
-      <c r="T226" s="48" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>cE03c</v>
+      </c>
+      <c r="H226" s="40" t="str">
+        <f t="shared" si="24"/>
+        <v>E03c</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L226" s="49" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M226" s="49"/>
+      <c r="N226" s="49"/>
+      <c r="O226" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="P226" s="68" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q226" s="69"/>
+      <c r="R226" s="59"/>
+      <c r="S226" s="59"/>
+      <c r="T226" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="U226" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="V226" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="W226" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="X226" s="22" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A227" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
-      </c>
-      <c r="D227" s="56" t="s">
-        <v>1245</v>
+        <v/>
+      </c>
+      <c r="B227" s="82" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D227" s="54" t="s">
+        <v>1142</v>
       </c>
       <c r="E227" s="55" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G227" s="40" t="str">
-        <f t="shared" si="22"/>
-        <v>cZ01</v>
-      </c>
-      <c r="H227" s="40" t="str">
-        <f>CONCATENATE(D227,E227,F227)</f>
-        <v>Z01</v>
-      </c>
+        <f t="shared" si="23"/>
+        <v>cE01</v>
+      </c>
+      <c r="H227" s="40"/>
       <c r="I227" s="48" t="s">
-        <v>1223</v>
+        <v>1253</v>
       </c>
       <c r="J227" s="48" t="s">
-        <v>1224</v>
+        <v>1270</v>
       </c>
       <c r="K227" s="16" t="s">
-        <v>1225</v>
+        <v>1271</v>
       </c>
       <c r="L227" s="16" t="s">
-        <v>1256</v>
+        <v>1272</v>
       </c>
       <c r="T227" s="48" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="44" t="str">
         <f t="shared" si="19"/>
-        <v/>
+        <v>...Z.01. - Symptoms, signs and ill-defined conditions, not elsewhere classified</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>1138</v>
+        <v>1241</v>
       </c>
       <c r="E228" s="55" t="s">
-        <v>1152</v>
-      </c>
-      <c r="G228" s="42" t="str">
-        <f t="shared" si="22"/>
-        <v>cA09</v>
-      </c>
-      <c r="H228" s="40"/>
-      <c r="I228" s="16" t="s">
-        <v>1334</v>
+        <v>1143</v>
+      </c>
+      <c r="G228" s="40" t="str">
+        <f t="shared" si="23"/>
+        <v>cZ01</v>
+      </c>
+      <c r="H228" s="40" t="str">
+        <f>CONCATENATE(D228,E228,F228)</f>
+        <v>Z01</v>
+      </c>
+      <c r="I228" s="48" t="s">
+        <v>1221</v>
       </c>
       <c r="J228" s="48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K228" s="16" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L228" s="16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="T228" s="48" t="s">
         <v>1224</v>
       </c>
-      <c r="K228" s="16" t="s">
-        <v>1218</v>
-      </c>
-      <c r="L228" s="16" t="s">
-        <v>1218</v>
-      </c>
-      <c r="T228" s="48" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:24" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A229" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>...Z.02. - Unknown/Missing Value</v>
+        <v/>
       </c>
       <c r="D229" s="56" t="s">
-        <v>1245</v>
+        <v>1137</v>
       </c>
       <c r="E229" s="55" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G229" s="43"/>
-      <c r="H229" s="40" t="str">
-        <f t="shared" ref="H229:H232" si="24">CONCATENATE(D229,E229,F229)</f>
-        <v>Z02</v>
+        <v>1151</v>
+      </c>
+      <c r="G229" s="42" t="str">
+        <f t="shared" si="23"/>
+        <v>cA09</v>
+      </c>
+      <c r="H229" s="40"/>
+      <c r="I229" s="16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J229" s="48" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K229" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="L229" s="16" t="s">
+        <v>1216</v>
       </c>
       <c r="T229" s="48" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>...Z.03. - Code does not map</v>
+        <v>...Z.02. - Unknown/Missing Value</v>
       </c>
       <c r="D230" s="56" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="E230" s="55" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G230" s="43"/>
       <c r="H230" s="40" t="str">
-        <f t="shared" si="24"/>
-        <v>Z03</v>
-      </c>
-      <c r="I230" s="16" t="s">
-        <v>1262</v>
+        <f t="shared" ref="H230:H233" si="25">CONCATENATE(D230,E230,F230)</f>
+        <v>Z02</v>
       </c>
       <c r="T230" s="48" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>..Z. - Unknown/Missing Value</v>
+        <v>...Z.03. - Code does not map</v>
       </c>
       <c r="D231" s="56" t="s">
-        <v>1245</v>
+        <v>1241</v>
+      </c>
+      <c r="E231" s="55" t="s">
+        <v>1145</v>
       </c>
       <c r="G231" s="43"/>
       <c r="H231" s="40" t="str">
-        <f t="shared" si="24"/>
-        <v>Z</v>
+        <f t="shared" si="25"/>
+        <v>Z03</v>
+      </c>
+      <c r="I231" s="16" t="s">
+        <v>1258</v>
       </c>
       <c r="T231" s="48" t="s">
-        <v>1316</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>...D.99. - Other Chronic Conditions</v>
+        <v>..Z. - Unknown/Missing Value</v>
       </c>
       <c r="D232" s="56" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E232" s="55" t="s">
-        <v>1227</v>
+        <v>1241</v>
       </c>
       <c r="G232" s="43"/>
       <c r="H232" s="40" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
+        <v>Z</v>
+      </c>
+      <c r="T232" s="48" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A233" s="44" t="str">
+        <f t="shared" si="19"/>
+        <v>...D.99. - Other Chronic Conditions</v>
+      </c>
+      <c r="D233" s="56" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E233" s="55" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G233" s="43"/>
+      <c r="H233" s="40" t="str">
+        <f t="shared" si="25"/>
         <v>D99</v>
       </c>
-      <c r="T232" s="48" t="s">
-        <v>1277</v>
+      <c r="T233" s="48" t="s">
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X225"/>
+  <autoFilter ref="A1:X226"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18933,7 +19031,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19153,24 +19251,24 @@
   <sheetData>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="75" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="77" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
   </sheetData>

--- a/myCBD/myInfo/gbd.ICD.Map.xlsx
+++ b/myCBD/myInfo/gbd.ICD.Map.xlsx
@@ -4467,10 +4467,10 @@
     <t>Substance use disorders</t>
   </si>
   <si>
-    <t>Non SU-associated Poisonings</t>
-  </si>
-  <si>
-    <t>Substance Use-associated poisonings</t>
+    <t>Substance use-associated poisonings</t>
+  </si>
+  <si>
+    <t>Other poisonings</t>
   </si>
 </sst>
 </file>
@@ -5386,7 +5386,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I208" sqref="I208"/>
+      <selection pane="bottomRight" activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17910,7 +17910,7 @@
     <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>....E.01.b. - Substance Use-associated poisonings</v>
+        <v>....E.01.b. - Substance use-associated poisonings</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="31" t="s">
@@ -17949,7 +17949,7 @@
       <c r="R211" s="59"/>
       <c r="S211" s="59"/>
       <c r="T211" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="U211" s="20"/>
       <c r="V211" s="5"/>
@@ -17959,7 +17959,7 @@
     <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="str">
         <f t="shared" si="19"/>
-        <v>....E.01.c. - Non SU-associated Poisonings</v>
+        <v>....E.01.c. - Other poisonings</v>
       </c>
       <c r="B212" s="2">
         <v>200</v>
@@ -18008,7 +18008,7 @@
         <v>1006</v>
       </c>
       <c r="T212" s="5" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="U212" s="20" t="s">
         <v>135</v>
